--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{953E1EFD-6EC0-431C-BEC9-50AB502F460E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DCCADA1C-FCC2-46B5-A2A7-CCFB460B9CCF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Experiment</t>
   </si>
@@ -67,12 +67,6 @@
     <t>Re-test of early model (26) on both data</t>
   </si>
   <si>
-    <t>metrics unnig on Lewes</t>
-  </si>
-  <si>
-    <t>train running on Aisa</t>
-  </si>
-  <si>
     <t>50_1</t>
   </si>
   <si>
@@ -107,6 +101,15 @@
   </si>
   <si>
     <t>2D complex caps - how might I make this work?</t>
+  </si>
+  <si>
+    <t>metrics runnig on Lewes</t>
+  </si>
+  <si>
+    <t>Re-test of early model (26) on chime data, using Griffin-Lim, iterations=10</t>
+  </si>
+  <si>
+    <t>metrics running on Asia</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -640,7 +643,7 @@
         <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -648,15 +651,12 @@
         <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -677,12 +677,12 @@
         <v>2.0737161001499999E-2</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -701,6 +701,17 @@
       </c>
       <c r="G12">
         <v>9.9428347412899996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -721,47 +732,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DCCADA1C-FCC2-46B5-A2A7-CCFB460B9CCF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F967A187-5539-4344-A3D2-2809384EC010}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Experiment</t>
   </si>
@@ -61,12 +61,6 @@
     <t>Continuation of 36. Stopped eary after 7 epochs</t>
   </si>
   <si>
-    <t>Re-test of early model (26) on chime data</t>
-  </si>
-  <si>
-    <t>Re-test of early model (26) on both data</t>
-  </si>
-  <si>
     <t>50_1</t>
   </si>
   <si>
@@ -103,13 +97,28 @@
     <t>2D complex caps - how might I make this work?</t>
   </si>
   <si>
-    <t>metrics runnig on Lewes</t>
-  </si>
-  <si>
     <t>Re-test of early model (26) on chime data, using Griffin-Lim, iterations=10</t>
   </si>
   <si>
-    <t>metrics running on Asia</t>
+    <t>Run 26 on chime data with phase iterations = 0</t>
+  </si>
+  <si>
+    <t>Runing on Asia</t>
+  </si>
+  <si>
+    <t>Running on Africa. GL seems to cause a slow down of about 50% (1:30 vs 1:00/batch of 50)</t>
+  </si>
+  <si>
+    <t>Run 37 on both datasets</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Re-test of early model (26) on chime data, using Griffin-Lim, iterations=0</t>
+  </si>
+  <si>
+    <t>Re-test of 36, last epoch (6) on both datasets</t>
   </si>
 </sst>
 </file>
@@ -145,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,254 +474,290 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="72.6640625" customWidth="1"/>
+    <col min="9" max="9" width="72.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>36</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5.85227847310633E-3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-4.9423293291541599</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-4.9423293291541599</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-1.5481707647573501E-3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>37</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3.9141623101794304E-3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.232225000551737</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.232225000551737</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5.17300615894115</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>37</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4.0799967310634604E-3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.37823084572043703</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.37823084572043703</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4.5625503126689404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>40</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5.8516325947575399E-3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-4.9397651441333803</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-4.9397651441333803</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.01601424866862E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>40</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3.9287404038041498E-3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.27625554945394598</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.27625554945394598</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5.2170367078359199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3.8050318602500001E-3</v>
+      </c>
+      <c r="E9">
+        <v>5.6363039098599996</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>5.6363039098599996</v>
+      </c>
+      <c r="H9">
+        <v>2.0737161001499999E-2</v>
+      </c>
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1.05636561057E-3</v>
+      </c>
+      <c r="E10">
+        <v>15.5584014902</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>15.5584014902</v>
+      </c>
+      <c r="H10">
+        <v>9.9428347412899996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43367</v>
       </c>
       <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>3.8050318602500001E-3</v>
-      </c>
       <c r="D11">
-        <v>5.6363039098599996</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
+        <v>4.54619706769545E-3</v>
+      </c>
+      <c r="E11">
+        <v>-4.3788317284144496</v>
       </c>
       <c r="F11">
-        <v>5.6363039098599996</v>
+        <v>0.67595394631546801</v>
       </c>
       <c r="G11">
-        <v>2.0737161001499999E-2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
+        <v>2.6797790402718702</v>
+      </c>
+      <c r="H11">
+        <v>1.8577776692351999</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43367</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C12">
-        <v>1.05636561057E-3</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>15.5584014902</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
+        <v>4.54619706769545E-3</v>
+      </c>
+      <c r="E12">
+        <v>-4.4063063986574997</v>
       </c>
       <c r="F12">
-        <v>15.5584014902</v>
+        <v>0.90986540251718695</v>
       </c>
       <c r="G12">
-        <v>9.9428347412899996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
+        <v>2.5730371767528499</v>
+      </c>
+      <c r="H12">
+        <v>1.83030299899215</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -722,57 +768,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB077578-BE78-4B93-9E5A-D84D4BCC6A7F}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F967A187-5539-4344-A3D2-2809384EC010}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{77DA8698-3C7C-4C24-8C94-1A04D9530D78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Experiment</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Re-test of 36, last epoch (6) on both datasets</t>
+  </si>
+  <si>
+    <t>0_voice</t>
+  </si>
+  <si>
+    <t>0_background</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,8 +762,52 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43368</v>
+      </c>
+      <c r="B13">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>3.9162153536625799E-3</v>
+      </c>
+      <c r="E13">
+        <v>0.23267068609556599</v>
+      </c>
+      <c r="F13">
+        <v>6.4975665013270296</v>
+      </c>
+      <c r="G13">
+        <v>5.0615391401862802</v>
+      </c>
+      <c r="H13">
+        <v>5.1734518444775501</v>
+      </c>
       <c r="I13" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>3.9162153536625799E-3</v>
+      </c>
+      <c r="E14">
+        <v>4.3163902322621199</v>
+      </c>
+      <c r="F14">
+        <v>13.9326579380164</v>
+      </c>
+      <c r="G14">
+        <v>5.8402795608035296</v>
+      </c>
+      <c r="H14">
+        <v>3.7281922612481901</v>
       </c>
     </row>
   </sheetData>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{77DA8698-3C7C-4C24-8C94-1A04D9530D78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{06B40BF2-E764-4045-AEBE-FA0F52040F54}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Experiment</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>0_background</t>
+  </si>
+  <si>
+    <t>1_voice</t>
+  </si>
+  <si>
+    <t>1_background</t>
+  </si>
+  <si>
+    <t>Unet trained on full chime and librispeech dataset (10 epochs)</t>
   </si>
 </sst>
 </file>
@@ -160,9 +169,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,14 +491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="72.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -655,7 +670,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -681,9 +696,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -704,10 +717,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>43367</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>50</v>
       </c>
       <c r="C11">
@@ -733,12 +746,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43367</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -762,10 +771,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>43368</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -786,11 +795,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -809,8 +820,118 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43369</v>
+      </c>
+      <c r="B15" s="1">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>5.8499455248008101E-3</v>
+      </c>
+      <c r="E15">
+        <v>-4.9414299214992896</v>
+      </c>
+      <c r="F15">
+        <v>-2.9187624359262498</v>
+      </c>
+      <c r="G15">
+        <v>8.0849444575939504</v>
+      </c>
+      <c r="H15">
+        <v>-6.4876311729494796E-4</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>5.8499455248008101E-3</v>
+      </c>
+      <c r="E16">
+        <v>0.603653156846512</v>
+      </c>
+      <c r="F16">
+        <v>4.9341611496209197</v>
+      </c>
+      <c r="G16">
+        <v>8.0871218884956892</v>
+      </c>
+      <c r="H16">
+        <v>1.54551858325779E-2</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>3.9196163864368798E-3</v>
+      </c>
+      <c r="E17">
+        <v>0.10210658794458299</v>
+      </c>
+      <c r="F17">
+        <v>6.2019812058338104</v>
+      </c>
+      <c r="G17">
+        <v>4.9962338577947696</v>
+      </c>
+      <c r="H17">
+        <v>5.0428877463265804</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>3.9196163864368798E-3</v>
+      </c>
+      <c r="E18">
+        <v>4.17242882565266</v>
+      </c>
+      <c r="F18">
+        <v>13.924662842344301</v>
+      </c>
+      <c r="G18">
+        <v>5.65928442136721</v>
+      </c>
+      <c r="H18">
+        <v>3.58423085463872</v>
+      </c>
+      <c r="I18" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{06B40BF2-E764-4045-AEBE-FA0F52040F54}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{91C684C7-E064-4EDD-958F-A17BECBDF19D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Experiment</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Unet trained on full chime and librispeech dataset (10 epochs)</t>
+  </si>
+  <si>
+    <t>Same Unet as 52, tested only on chime test-set</t>
   </si>
 </sst>
 </file>
@@ -491,19 +494,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="72.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="72.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -532,7 +535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>36</v>
       </c>
@@ -558,7 +561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>37</v>
       </c>
@@ -584,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>37</v>
       </c>
@@ -607,7 +610,7 @@
         <v>4.5625503126689404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>40</v>
       </c>
@@ -630,7 +633,7 @@
         <v>1.01601424866862E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>40</v>
       </c>
@@ -653,7 +656,7 @@
         <v>5.2170367078359199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>48</v>
       </c>
@@ -661,7 +664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>49</v>
       </c>
@@ -669,7 +672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -695,7 +698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10">
         <v>1</v>
@@ -716,7 +719,7 @@
         <v>9.9428347412899996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43367</v>
       </c>
@@ -745,7 +748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12">
@@ -770,7 +773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43368</v>
       </c>
@@ -799,7 +802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
@@ -822,7 +825,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43369</v>
       </c>
@@ -851,7 +854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
@@ -874,7 +877,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
@@ -897,7 +900,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
@@ -920,17 +923,22 @@
       </c>
       <c r="I18" s="1"/>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -945,17 +953,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -963,7 +971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -971,42 +979,42 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{91C684C7-E064-4EDD-958F-A17BECBDF19D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E4688B6-17AE-4C3D-BFA2-7A181989DD1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Experiment</t>
   </si>
@@ -174,10 +174,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,7 +673,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -699,7 +699,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -720,10 +720,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>43367</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>50</v>
       </c>
       <c r="C11">
@@ -749,8 +749,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -774,10 +774,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>43368</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -798,13 +798,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -823,13 +823,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>43369</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>52</v>
       </c>
       <c r="C15" t="s">
@@ -850,13 +850,13 @@
       <c r="H15">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -875,11 +875,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" t="s">
         <v>33</v>
       </c>
@@ -898,11 +898,11 @@
       <c r="H17">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -921,15 +921,66 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I19" t="s">
+      <c r="A19" s="1">
+        <v>43370</v>
+      </c>
+      <c r="B19" s="2">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>4.4549090904183603E-3</v>
+      </c>
+      <c r="E19">
+        <v>-3.8938461633694201</v>
+      </c>
+      <c r="F19">
+        <v>1.2697139480308199</v>
+      </c>
+      <c r="G19">
+        <v>2.8102084253906998</v>
+      </c>
+      <c r="H19">
+        <v>2.3427632342802398</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>4.4549090904183603E-3</v>
+      </c>
+      <c r="E20">
+        <v>-0.13983676688769001</v>
+      </c>
+      <c r="F20">
+        <v>11.1009081409582</v>
+      </c>
+      <c r="G20">
+        <v>1.12252924755101</v>
+      </c>
+      <c r="H20">
+        <v>0.194433594332584</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="I19:I20"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A15:A18"/>
@@ -938,7 +989,6 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E4688B6-17AE-4C3D-BFA2-7A181989DD1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FA0F7A43-5069-4E4B-AA86-B4F13AA2D1DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Experiment</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Same Unet as 52, tested only on chime test-set</t>
+  </si>
+  <si>
+    <t>Overtain test on small complex capsunet</t>
   </si>
 </sst>
 </file>
@@ -174,10 +177,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,19 +497,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="72.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="72.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -535,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>36</v>
       </c>
@@ -561,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>37</v>
       </c>
@@ -587,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>37</v>
       </c>
@@ -610,7 +613,7 @@
         <v>4.5625503126689404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>40</v>
       </c>
@@ -633,7 +636,7 @@
         <v>1.01601424866862E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>40</v>
       </c>
@@ -656,7 +659,7 @@
         <v>5.2170367078359199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>48</v>
       </c>
@@ -664,7 +667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>49</v>
       </c>
@@ -672,8 +675,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -698,8 +701,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -719,11 +722,11 @@
         <v>9.9428347412899996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>43367</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>50</v>
       </c>
       <c r="C11">
@@ -748,9 +751,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -773,11 +776,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43368</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -798,13 +801,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -823,13 +826,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>43369</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>52</v>
       </c>
       <c r="C15" t="s">
@@ -850,13 +853,13 @@
       <c r="H15">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -875,11 +878,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
       <c r="C17" t="s">
         <v>33</v>
       </c>
@@ -898,11 +901,11 @@
       <c r="H17">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -921,13 +924,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>43370</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -948,13 +951,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -973,10 +976,111 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B21" s="1">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>0.147776272892951</v>
+      </c>
+      <c r="E21">
+        <v>5.6241614013729002</v>
+      </c>
+      <c r="F21">
+        <v>5.6760089425194096</v>
+      </c>
+      <c r="G21">
+        <v>26.4118842827855</v>
+      </c>
+      <c r="H21">
+        <v>8.5946525098830606E-3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>0.147776272892951</v>
+      </c>
+      <c r="E22">
+        <v>14.036003919873201</v>
+      </c>
+      <c r="F22">
+        <v>14.3121284330277</v>
+      </c>
+      <c r="G22">
+        <v>26.441455970861998</v>
+      </c>
+      <c r="H22">
+        <v>3.6873848603017803E-2</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>0.12048309892416</v>
+      </c>
+      <c r="E23">
+        <v>6.4002952428711497</v>
+      </c>
+      <c r="F23">
+        <v>6.9678994223242396</v>
+      </c>
+      <c r="G23">
+        <v>17.126280309083199</v>
+      </c>
+      <c r="H23">
+        <v>0.78472849400813605</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>0.12048309892416</v>
+      </c>
+      <c r="E24">
+        <v>14.019412077643</v>
+      </c>
+      <c r="F24">
+        <v>14.6675048806988</v>
+      </c>
+      <c r="G24">
+        <v>22.943669191124801</v>
+      </c>
+      <c r="H24">
+        <v>2.0282006372733901E-2</v>
+      </c>
+      <c r="I24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="I21:I24"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A19:A20"/>
@@ -1003,17 +1107,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1021,7 +1125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1029,42 +1133,42 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FA0F7A43-5069-4E4B-AA86-B4F13AA2D1DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{15239F08-91A7-4749-BA39-78A4363614B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Experiment</t>
   </si>
@@ -139,7 +139,13 @@
     <t>Same Unet as 52, tested only on chime test-set</t>
   </si>
   <si>
-    <t>Overtain test on small complex capsunet</t>
+    <t>Overtain test on small complex capsunet (no skip connections)</t>
+  </si>
+  <si>
+    <t>Running on Asia, small complex capsnet, no skips, full data, 10 epochs</t>
+  </si>
+  <si>
+    <t>Running on Europe small complex capsnet, with skips, full data, 10 epochs</t>
   </si>
 </sst>
 </file>
@@ -175,14 +181,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +683,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -702,7 +709,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -723,10 +730,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>43367</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>50</v>
       </c>
       <c r="C11">
@@ -752,8 +759,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -777,10 +784,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>43368</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -801,13 +808,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -826,13 +833,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>43369</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>52</v>
       </c>
       <c r="C15" t="s">
@@ -853,13 +860,13 @@
       <c r="H15">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -878,11 +885,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" t="s">
         <v>33</v>
       </c>
@@ -901,11 +908,11 @@
       <c r="H17">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -924,13 +931,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>43370</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -951,13 +958,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -976,13 +983,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>43373</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1003,13 +1010,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1028,11 +1035,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1051,11 +1058,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1074,7 +1081,29 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>43373</v>
+      </c>
+      <c r="B25">
+        <v>64</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>43373</v>
+      </c>
+      <c r="B26">
+        <v>65</v>
+      </c>
+      <c r="I26" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{15239F08-91A7-4749-BA39-78A4363614B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3AAA5B6-74F5-43C8-88EF-6635FF2A046B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Experiment</t>
   </si>
@@ -142,10 +142,16 @@
     <t>Overtain test on small complex capsunet (no skip connections)</t>
   </si>
   <si>
-    <t>Running on Asia, small complex capsnet, no skips, full data, 10 epochs</t>
-  </si>
-  <si>
-    <t>Running on Europe small complex capsnet, with skips, full data, 10 epochs</t>
+    <t>Experiment with both GPUs, small complex capsnet, batch size=15, failed</t>
+  </si>
+  <si>
+    <t>Experiment with both GPUs, small complex capsnet, batch size=10, failed</t>
+  </si>
+  <si>
+    <t>Running on Asia, small complex capsnet, no skips, full data, 10 epochs, batch_size=5</t>
+  </si>
+  <si>
+    <t>Running on Europe small complex capsnet, with skips, full data, 10 epochs, batch_size=5</t>
   </si>
 </sst>
 </file>
@@ -183,13 +189,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +689,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -709,7 +715,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -730,10 +736,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>43367</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>50</v>
       </c>
       <c r="C11">
@@ -759,8 +765,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -784,10 +790,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>43368</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -808,13 +814,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -833,13 +839,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>43369</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>52</v>
       </c>
       <c r="C15" t="s">
@@ -860,13 +866,13 @@
       <c r="H15">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -885,11 +891,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>33</v>
       </c>
@@ -908,11 +914,11 @@
       <c r="H17">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -931,13 +937,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>43370</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -958,13 +964,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -983,13 +989,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>43373</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1010,13 +1016,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1035,11 +1041,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1058,11 +1064,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1081,27 +1087,49 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>43373</v>
       </c>
       <c r="B25">
         <v>64</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>43373</v>
       </c>
       <c r="B26">
         <v>65</v>
       </c>
       <c r="I26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B27">
+        <v>66</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B28">
+        <v>67</v>
+      </c>
+      <c r="I28" t="s">
         <v>39</v>
       </c>
     </row>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3AAA5B6-74F5-43C8-88EF-6635FF2A046B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2E6A91BF-9E74-47EF-A380-97A01FD0FC12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Experiment</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Running on Europe small complex capsnet, with skips, full data, 10 epochs, batch_size=5</t>
+  </si>
+  <si>
+    <t>Overtrain test on small complex capsunet with skips</t>
   </si>
 </sst>
 </file>
@@ -510,19 +513,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="72.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="72.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -551,7 +554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>36</v>
       </c>
@@ -577,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>37</v>
       </c>
@@ -603,7 +606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>37</v>
       </c>
@@ -626,7 +629,7 @@
         <v>4.5625503126689404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>40</v>
       </c>
@@ -649,7 +652,7 @@
         <v>1.01601424866862E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>40</v>
       </c>
@@ -672,7 +675,7 @@
         <v>5.2170367078359199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>48</v>
       </c>
@@ -680,7 +683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>49</v>
       </c>
@@ -688,7 +691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -714,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10">
         <v>1</v>
@@ -735,7 +738,7 @@
         <v>9.9428347412899996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43367</v>
       </c>
@@ -764,7 +767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12">
@@ -789,7 +792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43368</v>
       </c>
@@ -818,7 +821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -841,7 +844,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43369</v>
       </c>
@@ -870,7 +873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -893,7 +896,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -916,7 +919,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -939,7 +942,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43370</v>
       </c>
@@ -968,7 +971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -991,7 +994,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43373</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -1043,7 +1046,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -1066,7 +1069,7 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -1089,7 +1092,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43373</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43373</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43374</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43374</v>
       </c>
@@ -1131,6 +1134,17 @@
       </c>
       <c r="I28" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B29">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1164,17 +1178,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1182,7 +1196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1190,42 +1204,42 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2E6A91BF-9E74-47EF-A380-97A01FD0FC12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84F38B39-4321-438E-B381-322152BC5CEB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -170,12 +170,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -199,6 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +523,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,22 +858,22 @@
       <c r="B15" s="3">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>5.8499455248008101E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>-4.9414299214992896</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>-2.9187624359262498</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>8.0849444575939504</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>-6.4876311729494796E-4</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -899,22 +906,22 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>3.9196163864368798E-3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>0.10210658794458299</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>6.2019812058338104</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>4.9962338577947696</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>5.0428877463265804</v>
       </c>
       <c r="I17" s="3"/>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84F38B39-4321-438E-B381-322152BC5CEB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CEC608A3-8BC8-413A-9039-FC85E6A71676}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Experiment</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Overtrain test on small complex capsunet with skips</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
   </si>
 </sst>
 </file>
@@ -199,13 +202,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,7 +702,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -725,7 +728,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
+      <c r="B10" s="4"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -746,10 +749,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>43367</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>50</v>
       </c>
       <c r="C11">
@@ -775,8 +778,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -800,10 +803,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>43368</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -824,13 +827,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -849,40 +852,40 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>43369</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>52</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>5.8499455248008101E-3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>-4.9414299214992896</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>-2.9187624359262498</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>8.0849444575939504</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -901,34 +904,34 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>3.9196163864368798E-3</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>0.10210658794458299</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>6.2019812058338104</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>4.9962338577947696</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -947,13 +950,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>43370</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -974,13 +977,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -999,13 +1002,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>43373</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1026,13 +1029,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1051,11 +1054,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1074,11 +1077,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1097,7 +1100,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1106,6 +1109,9 @@
       <c r="B25">
         <v>64</v>
       </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
       <c r="I25" t="s">
         <v>40</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>43374</v>
       </c>
       <c r="B29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I29" t="s">
         <v>42</v>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CEC608A3-8BC8-413A-9039-FC85E6A71676}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CA61882C-22DF-48D4-8F4C-BADA29FD7EE9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Experiment</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Overtrain test on small complex capsunet with skips, continuation of 69</t>
   </si>
 </sst>
 </file>
@@ -523,10 +526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1150,18 +1154,163 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>43374</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>69</v>
       </c>
-      <c r="I29" t="s">
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>0.17299683392047799</v>
+      </c>
+      <c r="E29">
+        <v>5.1884083179774203</v>
+      </c>
+      <c r="F29">
+        <v>5.5859499771889798</v>
+      </c>
+      <c r="G29">
+        <v>18.750808889956499</v>
+      </c>
+      <c r="H29">
+        <v>-0.42715843088559702</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>0.17299683392047799</v>
+      </c>
+      <c r="E30">
+        <v>12.606583273799499</v>
+      </c>
+      <c r="F30">
+        <v>14.2394586516382</v>
+      </c>
+      <c r="G30">
+        <v>18.890979882341799</v>
+      </c>
+      <c r="H30">
+        <v>-1.39254679747073</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <v>0.124415507912635</v>
+      </c>
+      <c r="E31">
+        <v>5.6016612816488403</v>
+      </c>
+      <c r="F31">
+        <v>6.23286927430504</v>
+      </c>
+      <c r="G31">
+        <v>16.773685737918001</v>
+      </c>
+      <c r="H31">
+        <v>-1.3905467214172899E-2</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>0.124415507912635</v>
+      </c>
+      <c r="E32">
+        <v>13.5684510317638</v>
+      </c>
+      <c r="F32">
+        <v>14.5010678414389</v>
+      </c>
+      <c r="G32">
+        <v>21.780093642622202</v>
+      </c>
+      <c r="H32">
+        <v>-0.43067903950646202</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>43374</v>
+      </c>
+      <c r="B33" s="4">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>0.1219980224967</v>
+      </c>
+      <c r="E33">
+        <v>5.7841634420656298</v>
+      </c>
+      <c r="F33">
+        <v>6.9637912546762104</v>
+      </c>
+      <c r="G33">
+        <v>13.9138187244122</v>
+      </c>
+      <c r="H33">
+        <v>0.168596693202613</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>0.1219980224967</v>
+      </c>
+      <c r="E34">
+        <v>13.5938248385453</v>
+      </c>
+      <c r="F34">
+        <v>14.7032812981997</v>
+      </c>
+      <c r="G34">
+        <v>20.7402932165711</v>
+      </c>
+      <c r="H34">
+        <v>-0.405305232724961</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="21">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CA61882C-22DF-48D4-8F4C-BADA29FD7EE9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9AE7C74D-894D-48E0-95F4-16ACDEA656B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>Experiment</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>Overtrain test on small complex capsunet with skips, continuation of 69</t>
+  </si>
+  <si>
+    <t>Overtrain on basic capsnet, 3000 on epochs on mini data. Resulted in return of nan for gen_voice.</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>Overtrain on basic capsnet, 500 on epochs on mini data. Resulted in return of nan for gen_voice.</t>
   </si>
 </sst>
 </file>
@@ -526,17 +535,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="72.6640625" customWidth="1"/>
+    <col min="9" max="9" width="81.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1303,14 +1312,210 @@
       </c>
       <c r="I34" s="4"/>
     </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>43375</v>
+      </c>
+      <c r="B35" s="4">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>4.8927348107099498E-3</v>
+      </c>
+      <c r="E35">
+        <v>5.64414028607289</v>
+      </c>
+      <c r="F35">
+        <v>5.8929543891105203</v>
+      </c>
+      <c r="G35">
+        <v>19.722400203905</v>
+      </c>
+      <c r="H35">
+        <v>2.8573537209870499E-2</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>4.8927348107099498E-3</v>
+      </c>
+      <c r="E36">
+        <v>-4.9566620203488503</v>
+      </c>
+      <c r="F36">
+        <v>-4.8802610291247799</v>
+      </c>
+      <c r="G36">
+        <v>19.732290554650799</v>
+      </c>
+      <c r="H36">
+        <v>-1.5467030651102999E-3</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>43375</v>
+      </c>
+      <c r="B39" s="4">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39">
+        <v>4.5978859066963199E-3</v>
+      </c>
+      <c r="E39">
+        <v>5.6106901167084997</v>
+      </c>
+      <c r="F39">
+        <v>5.8577112832428098</v>
+      </c>
+      <c r="G39">
+        <v>19.723967452637599</v>
+      </c>
+      <c r="H39">
+        <v>-4.8766321545198298E-3</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>4.5978859066963199E-3</v>
+      </c>
+      <c r="E40">
+        <v>-4.9584256352194398</v>
+      </c>
+      <c r="F40">
+        <v>-4.8820423408099503</v>
+      </c>
+      <c r="G40">
+        <v>19.732963709887802</v>
+      </c>
+      <c r="H40">
+        <v>-3.3103179357002401E-3</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41">
+        <v>3.9085096213966599E-3</v>
+      </c>
+      <c r="E41">
+        <v>5.7174128054581903</v>
+      </c>
+      <c r="F41">
+        <v>5.9716830243590904</v>
+      </c>
+      <c r="G41">
+        <v>19.687898419302201</v>
+      </c>
+      <c r="H41">
+        <v>0.101846056595177</v>
+      </c>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <v>3.9085096213966599E-3</v>
+      </c>
+      <c r="E42">
+        <v>-4.8941931913683101</v>
+      </c>
+      <c r="F42">
+        <v>-4.8173380815803801</v>
+      </c>
+      <c r="G42">
+        <v>19.725543085826899</v>
+      </c>
+      <c r="H42">
+        <v>6.0922125915421697E-2</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+  <mergeCells count="27">
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -1326,6 +1531,12 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9AE7C74D-894D-48E0-95F4-16ACDEA656B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5BC60467-E914-4AA6-8BB8-6C81A1359CA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>Experiment</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>Overtrain on basic capsnet, 500 on epochs on mini data. Resulted in return of nan for gen_voice.</t>
+  </si>
+  <si>
+    <t>Train unet with smaller learning rate (0.0002)</t>
+  </si>
+  <si>
+    <t>Train basic capsnet on full data</t>
   </si>
 </sst>
 </file>
@@ -215,10 +221,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -535,20 +541,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -577,7 +583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>36</v>
       </c>
@@ -603,7 +609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>37</v>
       </c>
@@ -629,7 +635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>37</v>
       </c>
@@ -652,7 +658,7 @@
         <v>4.5625503126689404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>40</v>
       </c>
@@ -675,7 +681,7 @@
         <v>1.01601424866862E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>40</v>
       </c>
@@ -698,7 +704,7 @@
         <v>5.2170367078359199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>48</v>
       </c>
@@ -706,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>49</v>
       </c>
@@ -714,8 +720,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -740,8 +746,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -761,11 +767,11 @@
         <v>9.9428347412899996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>43367</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>50</v>
       </c>
       <c r="C11">
@@ -790,9 +796,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -815,11 +821,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>43368</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -840,13 +846,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -865,13 +871,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>43369</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -892,13 +898,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -917,11 +923,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -940,11 +946,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -963,13 +969,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>43370</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -990,13 +996,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1015,13 +1021,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>43373</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1042,13 +1048,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1067,11 +1073,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1090,11 +1096,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1113,9 +1119,9 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43373</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43373</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43374</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43374</v>
       </c>
@@ -1162,11 +1168,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>43374</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -1187,13 +1193,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1212,11 +1218,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1235,11 +1241,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -1258,13 +1264,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>43374</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -1285,13 +1291,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -1310,13 +1316,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>43375</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -1337,13 +1343,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -1362,11 +1368,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -1385,11 +1391,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -1408,13 +1414,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>43375</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -1435,13 +1441,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -1460,11 +1466,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -1483,11 +1489,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -1506,16 +1512,38 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="4"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43376</v>
+      </c>
+      <c r="B43">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43376</v>
+      </c>
+      <c r="B44">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -1531,12 +1559,12 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1551,17 +1579,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1569,7 +1597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1577,42 +1605,42 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5BC60467-E914-4AA6-8BB8-6C81A1359CA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F30EF389-3FA1-4061-A016-5BAF7FE6A7B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>Experiment</t>
   </si>
@@ -172,18 +172,68 @@
     <t>Overtrain on basic capsnet, 500 on epochs on mini data. Resulted in return of nan for gen_voice.</t>
   </si>
   <si>
-    <t>Train unet with smaller learning rate (0.0002)</t>
-  </si>
-  <si>
-    <t>Train basic capsnet on full data</t>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Train unet with chime to investigate new problem with reaching end of epochs and with nan</t>
+  </si>
+  <si>
+    <t>Running on Asia</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train basic capsnet on full data. </t>
+  </si>
+  <si>
+    <t>Stopped due to nan output.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train unet with smaller learning rate (0.0002). </t>
+  </si>
+  <si>
+    <t>RuntimeWarning: invalid value encountered in true_divide, likely due to nan output</t>
+  </si>
+  <si>
+    <t>Running on Europe</t>
+  </si>
+  <si>
+    <t>Repeat of 80, but with full dataset and val_iters=10,000</t>
+  </si>
+  <si>
+    <t>Repeat of 80, validation each epoch</t>
+  </si>
+  <si>
+    <t>Training iteration (batch size 50)</t>
+  </si>
+  <si>
+    <t>CHiME</t>
+  </si>
+  <si>
+    <t>both (big LS)</t>
+  </si>
+  <si>
+    <t>both (medium LS)</t>
+  </si>
+  <si>
+    <t>14840?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -217,16 +267,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,11 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +772,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -747,7 +798,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="B10" s="4"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -768,10 +819,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>43367</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>50</v>
       </c>
       <c r="C11">
@@ -797,8 +848,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -822,10 +873,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>43368</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -846,13 +897,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -871,13 +922,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>43369</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -898,13 +949,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -923,11 +974,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -946,11 +997,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -969,13 +1020,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>43370</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -996,13 +1047,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1021,13 +1072,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>43373</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1048,13 +1099,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1073,11 +1124,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1096,11 +1147,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1119,7 +1170,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1169,10 +1220,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>43374</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -1193,13 +1244,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1218,11 +1269,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1241,11 +1292,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -1264,13 +1315,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>43374</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -1291,13 +1342,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -1316,13 +1367,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="3"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>43375</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -1343,13 +1394,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -1368,11 +1419,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="3"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -1391,11 +1442,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="3"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -1414,13 +1465,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="3"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>43375</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -1441,13 +1492,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -1466,11 +1517,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="3"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -1489,11 +1540,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="3"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -1512,7 +1563,7 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="3"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -1521,8 +1572,14 @@
       <c r="B43">
         <v>78</v>
       </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1532,18 +1589,69 @@
       <c r="B44">
         <v>79</v>
       </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
       <c r="I44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43376</v>
+      </c>
+      <c r="B45">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
         <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43377</v>
+      </c>
+      <c r="B46">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43377</v>
+      </c>
+      <c r="B47">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -1559,12 +1667,12 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1573,44 +1681,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB077578-BE78-4B93-9E5A-D84D4BCC6A7F}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1647,5 +1779,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F30EF389-3FA1-4061-A016-5BAF7FE6A7B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{940BCAAB-5248-45CC-B1A4-30F049F2F9AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>Experiment</t>
   </si>
@@ -218,13 +218,61 @@
   </si>
   <si>
     <t>14840?</t>
+  </si>
+  <si>
+    <t>Continuation of 82</t>
+  </si>
+  <si>
+    <t>35000?</t>
+  </si>
+  <si>
+    <t>guess based on time</t>
+  </si>
+  <si>
+    <t>18000?</t>
+  </si>
+  <si>
+    <t>unet</t>
+  </si>
+  <si>
+    <t>basic capsnet</t>
+  </si>
+  <si>
+    <t>capsunet</t>
+  </si>
+  <si>
+    <t>complex number capsnet</t>
+  </si>
+  <si>
+    <t>New plan, to be done asap</t>
+  </si>
+  <si>
+    <t>Run test on 8khz audio, medium dataset, lr of 2e-4 and 2e-5:</t>
+  </si>
+  <si>
+    <t>8 KHz Experiments:</t>
+  </si>
+  <si>
+    <t>Unet</t>
+  </si>
+  <si>
+    <t>Patch Window: 128, Patch Hop: 64, Learning Rate: 0.002, Data Set: CHiME and LibriSpeech M</t>
+  </si>
+  <si>
+    <t>Basic Capsnet</t>
+  </si>
+  <si>
+    <t>Caps Unet</t>
+  </si>
+  <si>
+    <t>Complex Number Capsnet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +288,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +307,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,17 +329,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,11 +656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +883,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>43367</v>
       </c>
       <c r="B11" s="4">
@@ -848,7 +912,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12">
         <v>0</v>
@@ -873,7 +937,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>43368</v>
       </c>
       <c r="B13" s="4">
@@ -902,7 +966,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>32</v>
@@ -925,7 +989,7 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>43369</v>
       </c>
       <c r="B15" s="4">
@@ -954,7 +1018,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>32</v>
@@ -977,7 +1041,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -1000,7 +1064,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>34</v>
@@ -1023,7 +1087,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>43370</v>
       </c>
       <c r="B19" s="4">
@@ -1052,7 +1116,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" t="s">
         <v>32</v>
@@ -1075,7 +1139,7 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>43373</v>
       </c>
       <c r="B21" s="4">
@@ -1104,7 +1168,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" t="s">
         <v>32</v>
@@ -1127,7 +1191,7 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>33</v>
@@ -1150,7 +1214,7 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" t="s">
         <v>34</v>
@@ -1220,7 +1284,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <v>43374</v>
       </c>
       <c r="B29" s="4">
@@ -1249,7 +1313,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="4"/>
       <c r="C30" t="s">
         <v>32</v>
@@ -1272,7 +1336,7 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="4"/>
       <c r="C31" t="s">
         <v>33</v>
@@ -1295,7 +1359,7 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
         <v>34</v>
@@ -1318,7 +1382,7 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="5">
         <v>43374</v>
       </c>
       <c r="B33" s="4">
@@ -1347,7 +1411,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
         <v>32</v>
@@ -1370,7 +1434,7 @@
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="5">
         <v>43375</v>
       </c>
       <c r="B35" s="4">
@@ -1399,7 +1463,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" t="s">
         <v>32</v>
@@ -1422,7 +1486,7 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="4"/>
       <c r="C37" t="s">
         <v>33</v>
@@ -1445,7 +1509,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="4"/>
       <c r="C38" t="s">
         <v>34</v>
@@ -1468,7 +1532,7 @@
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="5">
         <v>43375</v>
       </c>
       <c r="B39" s="4">
@@ -1497,7 +1561,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="4"/>
       <c r="C40" t="s">
         <v>32</v>
@@ -1520,7 +1584,7 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="4"/>
       <c r="C41" t="s">
         <v>33</v>
@@ -1543,7 +1607,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" t="s">
         <v>34</v>
@@ -1624,34 +1688,122 @@
         <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="D46">
+        <v>4.7718943831009299E-3</v>
+      </c>
+      <c r="E46">
+        <v>-4.6109548884752396</v>
+      </c>
+      <c r="F46">
+        <v>6.5068003753361206E-2</v>
+      </c>
+      <c r="G46">
+        <v>2.8405107373931999</v>
+      </c>
+      <c r="H46">
+        <v>1.6256545091744099</v>
       </c>
       <c r="I46" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="1"/>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47">
+        <v>4.7718943831009299E-3</v>
+      </c>
+      <c r="E47">
+        <v>0.28548115731304602</v>
+      </c>
+      <c r="F47">
+        <v>8.9479876223255594</v>
+      </c>
+      <c r="G47">
+        <v>2.3140604709216599</v>
+      </c>
+      <c r="H47">
+        <v>0.619751518533326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>43377</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>83</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>56</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I48" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43377</v>
+      </c>
+      <c r="B49">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43377</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -1667,12 +1819,12 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1681,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB077578-BE78-4B93-9E5A-D84D4BCC6A7F}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,17 +1845,17 @@
     <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L2" s="5" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L2" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1717,7 +1869,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1730,8 +1882,11 @@
       <c r="M4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1739,12 +1894,45 @@
         <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{940BCAAB-5248-45CC-B1A4-30F049F2F9AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{870269A4-CC91-499B-976F-D8A0ED8A080E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>Experiment</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Train unet with chime to investigate new problem with reaching end of epochs and with nan</t>
   </si>
   <si>
-    <t>Running on Asia</t>
-  </si>
-  <si>
     <t>Bug</t>
   </si>
   <si>
@@ -266,6 +263,12 @@
   </si>
   <si>
     <t>Complex Number Capsnet</t>
+  </si>
+  <si>
+    <t>Metrics running on Africa</t>
+  </si>
+  <si>
+    <t>Final test (after 9 epochs) metrics runing oAmerica</t>
   </si>
 </sst>
 </file>
@@ -334,14 +337,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,11 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +839,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -862,7 +865,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
+      <c r="B10" s="7"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -883,10 +886,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>43367</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>50</v>
       </c>
       <c r="C11">
@@ -912,8 +915,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -937,10 +940,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>43368</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="7">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -961,13 +964,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -986,13 +989,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>43369</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="7">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1013,13 +1016,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1038,11 +1041,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1061,11 +1064,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1084,13 +1087,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>43370</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="7">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1111,13 +1114,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1136,13 +1139,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>43373</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="7">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1163,13 +1166,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1188,11 +1191,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1211,11 +1214,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1234,7 +1237,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="4"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1284,10 +1287,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <v>43374</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="7">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -1308,13 +1311,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1333,11 +1336,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1356,11 +1359,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="4"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -1379,13 +1382,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>43374</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="7">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -1406,13 +1409,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -1431,13 +1434,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>43375</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="7">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -1458,13 +1461,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -1483,11 +1486,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="4"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -1506,11 +1509,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="4"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -1529,13 +1532,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="4"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <v>43375</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="7">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -1556,13 +1559,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -1581,11 +1584,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="4"/>
+      <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -1604,11 +1607,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="4"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -1627,7 +1630,7 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="4"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -1640,10 +1643,10 @@
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1657,10 +1660,10 @@
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1674,7 +1677,7 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I45" t="s">
         <v>49</v>
@@ -1706,7 +1709,7 @@
         <v>1.6256545091744099</v>
       </c>
       <c r="I46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1738,10 +1741,10 @@
         <v>83</v>
       </c>
       <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" t="s">
         <v>56</v>
-      </c>
-      <c r="I48" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1752,58 +1755,127 @@
         <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="D49">
+        <v>4.69734389514017E-3</v>
+      </c>
+      <c r="E49">
+        <v>-4.5434411836542301</v>
+      </c>
+      <c r="F49">
+        <v>0.23588267415003999</v>
+      </c>
+      <c r="G49">
+        <v>2.7808368126245302</v>
+      </c>
+      <c r="H49">
+        <v>1.69316821399544</v>
       </c>
       <c r="I49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="1"/>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50">
+        <v>4.69734389514017E-3</v>
+      </c>
+      <c r="E50">
+        <v>0.36363024265222799</v>
+      </c>
+      <c r="F50">
+        <v>9.3229382075310792</v>
+      </c>
+      <c r="G50">
+        <v>2.2705919614317498</v>
+      </c>
+      <c r="H50">
+        <v>0.69790060387249997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>43377</v>
+      </c>
+      <c r="B52" s="7">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7" t="s">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>43378</v>
+      </c>
+      <c r="B54" s="7">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>43377</v>
-      </c>
-      <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I52" t="s">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I53" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+  <mergeCells count="32">
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -1819,12 +1891,12 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1852,7 +1924,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1863,7 +1935,7 @@
         <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M3">
         <v>2015</v>
@@ -1877,13 +1949,13 @@
         <v>25</v>
       </c>
       <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
         <v>62</v>
       </c>
-      <c r="M4" t="s">
-        <v>63</v>
-      </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1891,13 +1963,13 @@
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
         <v>65</v>
-      </c>
-      <c r="N5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1907,32 +1979,32 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{870269A4-CC91-499B-976F-D8A0ED8A080E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71F0E082-F9D9-48ED-BCEB-FAC8B12EDECC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <t>Experiment</t>
   </si>
@@ -214,9 +214,6 @@
     <t>both (medium LS)</t>
   </si>
   <si>
-    <t>14840?</t>
-  </si>
-  <si>
     <t>Continuation of 82</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
   </si>
   <si>
     <t>guess based on time</t>
-  </si>
-  <si>
-    <t>18000?</t>
   </si>
   <si>
     <t>unet</t>
@@ -339,10 +333,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -662,7 +656,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -839,7 +833,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -865,7 +859,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -886,10 +880,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>43367</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>50</v>
       </c>
       <c r="C11">
@@ -915,8 +909,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -940,10 +934,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>43368</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -964,13 +958,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -989,13 +983,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>43369</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1016,13 +1010,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1041,11 +1035,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1064,11 +1058,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1087,13 +1081,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>43370</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1114,13 +1108,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1139,13 +1133,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="7">
         <v>43373</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1166,13 +1160,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1191,11 +1185,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="6"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1214,11 +1208,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1237,7 +1231,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1287,10 +1281,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="7">
         <v>43374</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -1311,13 +1305,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1336,11 +1330,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1359,11 +1353,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="7"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -1382,13 +1376,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="7"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="7">
         <v>43374</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -1409,13 +1403,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -1434,13 +1428,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="7"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="7">
         <v>43375</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -1461,13 +1455,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="6"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -1486,11 +1480,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="7"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="6"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -1509,11 +1503,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="7"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="6"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -1532,13 +1526,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="7"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="7">
         <v>43375</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -1559,13 +1553,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="6"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -1584,11 +1578,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="7"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="6"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -1607,11 +1601,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="7"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="6"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -1630,7 +1624,7 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="7"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -1773,7 +1767,7 @@
         <v>1.69316821399544</v>
       </c>
       <c r="I49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1799,11 +1793,11 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -1813,69 +1807,64 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="A52" s="7">
         <v>43377</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="6"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="A54" s="7">
         <v>43378</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
-      </c>
-      <c r="I54" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="I55" s="7"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="6"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -1891,12 +1880,17 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="I52:I55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1908,7 +1902,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,11 +1945,8 @@
       <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
+      <c r="M4">
+        <v>14987</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1966,10 +1957,10 @@
         <v>60</v>
       </c>
       <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
         <v>64</v>
-      </c>
-      <c r="N5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1979,32 +1970,32 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71F0E082-F9D9-48ED-BCEB-FAC8B12EDECC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C0CCB7E2-8B97-460D-8DA0-018666077A58}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t>Experiment</t>
   </si>
@@ -259,10 +259,7 @@
     <t>Complex Number Capsnet</t>
   </si>
   <si>
-    <t>Metrics running on Africa</t>
-  </si>
-  <si>
-    <t>Final test (after 9 epochs) metrics runing oAmerica</t>
+    <t>Running on Asia</t>
   </si>
 </sst>
 </file>
@@ -333,10 +330,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -656,8 +653,8 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +830,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -859,7 +856,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -880,10 +877,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>43367</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>50</v>
       </c>
       <c r="C11">
@@ -909,8 +906,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -934,10 +931,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>43368</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -958,13 +955,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -983,13 +980,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>43369</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1010,13 +1007,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1035,11 +1032,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1058,11 +1055,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1081,13 +1078,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>43370</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="7">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1108,13 +1105,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1133,13 +1130,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>43373</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="7">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1160,13 +1157,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1185,11 +1182,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1208,11 +1205,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1231,7 +1228,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1281,10 +1278,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>43374</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="7">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -1305,13 +1302,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1330,11 +1327,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="6"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1353,11 +1350,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="6"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -1376,13 +1373,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="6"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>43374</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="7">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -1403,13 +1400,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -1428,13 +1425,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="6"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>43375</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="7">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -1455,13 +1452,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -1480,11 +1477,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="6"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -1503,11 +1500,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="6"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -1526,13 +1523,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="6"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>43375</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="7">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -1553,13 +1550,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -1578,11 +1575,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="6"/>
+      <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -1601,11 +1598,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="6"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -1624,7 +1621,7 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="6"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -1807,42 +1804,117 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>43377</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="7">
         <v>85</v>
       </c>
       <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52">
+        <v>8.8769710273481905E-3</v>
+      </c>
+      <c r="E52">
+        <v>-4.4486933776710904</v>
+      </c>
+      <c r="F52">
+        <v>-2.6658631119058098</v>
+      </c>
+      <c r="G52">
+        <v>8.5482997649644705</v>
+      </c>
+      <c r="H52">
+        <v>-1.5016279769943E-2</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53">
+        <v>8.8769710273481905E-3</v>
+      </c>
+      <c r="E53">
+        <v>1.15316280088379</v>
+      </c>
+      <c r="F53">
+        <v>5.3171892248921999</v>
+      </c>
+      <c r="G53">
+        <v>8.5446161713002304</v>
+      </c>
+      <c r="H53">
+        <v>2.0442723267735299E-2</v>
+      </c>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>43378</v>
+      </c>
+      <c r="B54" s="7">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54">
+        <v>6.0007950481425097E-3</v>
+      </c>
+      <c r="E54">
+        <v>0.53187985334754795</v>
+      </c>
+      <c r="F54">
+        <v>6.2616599956293602</v>
+      </c>
+      <c r="G54">
+        <v>5.3511069949812704</v>
+      </c>
+      <c r="H54">
+        <v>4.9655569512486801</v>
+      </c>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55">
+        <v>6.0007950481425097E-3</v>
+      </c>
+      <c r="E55">
+        <v>4.78322596010337</v>
+      </c>
+      <c r="F55">
+        <v>13.387147861798701</v>
+      </c>
+      <c r="G55">
+        <v>6.5279267189934798</v>
+      </c>
+      <c r="H55">
+        <v>3.6505058824873098</v>
+      </c>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43378</v>
+      </c>
+      <c r="B56">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
         <v>77</v>
       </c>
-      <c r="I52" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="6"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>43378</v>
-      </c>
-      <c r="B54" s="6">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="6"/>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
         <v>74</v>
       </c>
@@ -1859,12 +1931,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -1880,17 +1957,12 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C0CCB7E2-8B97-460D-8DA0-018666077A58}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E2467691-E870-4655-9A5D-0714732E69A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>Experiment</t>
   </si>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -334,6 +334,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -650,20 +656,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -692,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>36</v>
       </c>
@@ -718,7 +724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>37</v>
       </c>
@@ -744,7 +750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>37</v>
       </c>
@@ -767,7 +773,7 @@
         <v>4.5625503126689404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>40</v>
       </c>
@@ -790,7 +796,7 @@
         <v>1.01601424866862E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>40</v>
       </c>
@@ -813,7 +819,7 @@
         <v>5.2170367078359199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>48</v>
       </c>
@@ -821,7 +827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>49</v>
       </c>
@@ -829,8 +835,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -855,8 +861,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -876,11 +882,11 @@
         <v>9.9428347412899996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>43367</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>50</v>
       </c>
       <c r="C11">
@@ -905,9 +911,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -930,11 +936,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>43368</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -955,13 +961,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -980,13 +986,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>43369</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1007,13 +1013,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1032,11 +1038,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1055,11 +1061,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1078,13 +1084,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>43370</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1105,13 +1111,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1130,13 +1136,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>43373</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1157,13 +1163,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1182,11 +1188,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1205,11 +1211,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1228,9 +1234,9 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43373</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43373</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43374</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43374</v>
       </c>
@@ -1277,11 +1283,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>43374</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -1302,13 +1308,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1327,11 +1333,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1350,11 +1356,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -1373,13 +1379,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>43374</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="8">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -1400,13 +1406,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -1425,13 +1431,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
         <v>43375</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="8">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -1452,13 +1458,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -1477,11 +1483,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -1500,11 +1506,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -1523,13 +1529,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
         <v>43375</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="8">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -1550,13 +1556,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -1575,11 +1581,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -1598,11 +1604,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="8"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -1621,9 +1627,9 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43376</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43376</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43376</v>
       </c>
@@ -1674,7 +1680,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43377</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="C47" t="s">
         <v>32</v>
@@ -1724,7 +1730,7 @@
         <v>0.619751518533326</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43377</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43377</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
         <v>32</v>
@@ -1788,7 +1794,7 @@
         <v>0.69790060387249997</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>71</v>
       </c>
@@ -1803,11 +1809,11 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
         <v>43377</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="8">
         <v>85</v>
       </c>
       <c r="C52" t="s">
@@ -1828,13 +1834,13 @@
       <c r="H52">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="8"/>
       <c r="C53" t="s">
         <v>32</v>
       </c>
@@ -1853,13 +1859,13 @@
       <c r="H53">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
         <v>43378</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="8">
         <v>89</v>
       </c>
       <c r="C54" t="s">
@@ -1880,11 +1886,11 @@
       <c r="H54">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="8"/>
       <c r="C55" t="s">
         <v>32</v>
       </c>
@@ -1903,45 +1909,86 @@
       <c r="H55">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56">
+        <v>6.0007950481425097E-3</v>
+      </c>
+      <c r="E56">
+        <v>6.8224427785276101</v>
+      </c>
+      <c r="F56">
+        <v>8.8877996062215594</v>
+      </c>
+      <c r="G56">
+        <v>14.706059872829099</v>
+      </c>
+      <c r="H56">
+        <v>4.5462062693628003</v>
+      </c>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57">
+        <v>6.0007950481425097E-3</v>
+      </c>
+      <c r="E57">
+        <v>1.7670260485579199</v>
+      </c>
+      <c r="F57">
+        <v>8.2593827884546105</v>
+      </c>
+      <c r="G57">
+        <v>4.6266302195718296</v>
+      </c>
+      <c r="H57">
+        <v>-3.4906857233533901</v>
+      </c>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>43378</v>
       </c>
-      <c r="B56">
+      <c r="B58">
         <v>88</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C58" t="s">
         <v>77</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I57" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I58" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -1957,12 +2004,17 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="I52:I55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1977,23 +2029,23 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L2" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2007,7 +2059,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2021,7 +2073,7 @@
         <v>14987</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2035,67 +2087,67 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E2467691-E870-4655-9A5D-0714732E69A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{571FA047-12A1-4BB0-AB29-E7815CCA4A6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
   <si>
     <t>Experiment</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Unet</t>
   </si>
   <si>
-    <t>Patch Window: 128, Patch Hop: 64, Learning Rate: 0.002, Data Set: CHiME and LibriSpeech M</t>
-  </si>
-  <si>
     <t>Basic Capsnet</t>
   </si>
   <si>
@@ -260,6 +257,36 @@
   </si>
   <si>
     <t>Running on Asia</t>
+  </si>
+  <si>
+    <t>both (small LS)</t>
+  </si>
+  <si>
+    <t>U-Net</t>
+  </si>
+  <si>
+    <t>Try loading checkpoint 6 and testing</t>
+  </si>
+  <si>
+    <t>Metrics Running on America</t>
+  </si>
+  <si>
+    <t>Running on Africa</t>
+  </si>
+  <si>
+    <t>Caps-U-Net</t>
+  </si>
+  <si>
+    <t>Complex Caps-U-Net</t>
+  </si>
+  <si>
+    <t>16 KHz Experiments:</t>
+  </si>
+  <si>
+    <t>Patch Window: 256, Patch Hop: 128, Learning Rate: 0.0002, Data Set: CHiME and LibriSpeech S</t>
+  </si>
+  <si>
+    <t>Patch Window: 128, Patch Hop: 64, Learning Rate: 0.0002, Data Set: CHiME and LibriSpeech M</t>
   </si>
 </sst>
 </file>
@@ -336,10 +363,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -656,20 +683,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -698,7 +725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>36</v>
       </c>
@@ -724,7 +751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>37</v>
       </c>
@@ -750,7 +777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>37</v>
       </c>
@@ -773,7 +800,7 @@
         <v>4.5625503126689404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>40</v>
       </c>
@@ -796,7 +823,7 @@
         <v>1.01601424866862E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>40</v>
       </c>
@@ -819,7 +846,7 @@
         <v>5.2170367078359199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>48</v>
       </c>
@@ -827,7 +854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>49</v>
       </c>
@@ -835,8 +862,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -861,8 +888,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -882,11 +909,11 @@
         <v>9.9428347412899996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>43367</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>50</v>
       </c>
       <c r="C11">
@@ -911,9 +938,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -936,11 +963,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>43368</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -961,13 +988,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -986,13 +1013,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>43369</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1013,13 +1040,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1038,11 +1065,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1061,11 +1088,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1084,13 +1111,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>43370</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1111,13 +1138,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1136,13 +1163,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>43373</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1163,13 +1190,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1188,11 +1215,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1211,11 +1238,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1234,9 +1261,9 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43373</v>
       </c>
@@ -1250,7 +1277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43373</v>
       </c>
@@ -1261,7 +1288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43374</v>
       </c>
@@ -1272,7 +1299,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43374</v>
       </c>
@@ -1283,11 +1310,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>43374</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="9">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -1308,13 +1335,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1333,11 +1360,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1356,11 +1383,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -1379,13 +1406,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>43374</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="9">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -1406,13 +1433,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="8"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -1431,13 +1458,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>43375</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="9">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -1458,13 +1485,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="8"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -1483,11 +1510,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="8"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -1506,11 +1533,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="8"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -1529,13 +1556,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>43375</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="9">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -1556,13 +1583,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="8"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -1581,11 +1608,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="8"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -1604,11 +1631,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="8"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -1627,9 +1654,9 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43376</v>
       </c>
@@ -1646,7 +1673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43376</v>
       </c>
@@ -1663,7 +1690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43376</v>
       </c>
@@ -1680,7 +1707,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43377</v>
       </c>
@@ -1709,7 +1736,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" t="s">
         <v>32</v>
@@ -1730,7 +1757,7 @@
         <v>0.619751518533326</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43377</v>
       </c>
@@ -1744,7 +1771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43377</v>
       </c>
@@ -1773,7 +1800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
         <v>32</v>
@@ -1794,13 +1821,13 @@
         <v>0.69790060387249997</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -1809,11 +1836,11 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>43377</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="9">
         <v>85</v>
       </c>
       <c r="C52" t="s">
@@ -1834,13 +1861,13 @@
       <c r="H52">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="8"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
       <c r="C53" t="s">
         <v>32</v>
       </c>
@@ -1859,13 +1886,13 @@
       <c r="H53">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>43378</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="9">
         <v>89</v>
       </c>
       <c r="C54" t="s">
@@ -1886,11 +1913,11 @@
       <c r="H54">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="8"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55" t="s">
         <v>32</v>
       </c>
@@ -1909,9 +1936,9 @@
       <c r="H55">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" t="s">
@@ -1934,7 +1961,7 @@
       </c>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" t="s">
@@ -1957,7 +1984,7 @@
       </c>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43378</v>
       </c>
@@ -1965,30 +1992,85 @@
         <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I59" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I60" t="s">
-        <v>76</v>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s">
+        <v>78</v>
+      </c>
+      <c r="J63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>135</v>
+      </c>
+      <c r="C67" t="s">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -2004,17 +2086,12 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2026,26 +2103,26 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L2" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2059,7 +2136,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2067,87 +2144,93 @@
         <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="M4">
-        <v>14987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="M5">
+        <v>14987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{571FA047-12A1-4BB0-AB29-E7815CCA4A6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D13A820A-4AFC-43AC-93EB-033F5C2F7FCE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
     <t>Experiment</t>
   </si>
@@ -265,15 +265,6 @@
     <t>U-Net</t>
   </si>
   <si>
-    <t>Try loading checkpoint 6 and testing</t>
-  </si>
-  <si>
-    <t>Metrics Running on America</t>
-  </si>
-  <si>
-    <t>Running on Africa</t>
-  </si>
-  <si>
     <t>Caps-U-Net</t>
   </si>
   <si>
@@ -287,6 +278,24 @@
   </si>
   <si>
     <t>Patch Window: 128, Patch Hop: 64, Learning Rate: 0.0002, Data Set: CHiME and LibriSpeech M</t>
+  </si>
+  <si>
+    <t>Try loading checkpoint 6 and testing. Also try playing with LR</t>
+  </si>
+  <si>
+    <t>89 re-tested with corrected background noise estimation</t>
+  </si>
+  <si>
+    <t>metrics running on Africa</t>
+  </si>
+  <si>
+    <t>init test</t>
+  </si>
+  <si>
+    <t>running on America</t>
+  </si>
+  <si>
+    <t>Try loading at checkpoint 3 and testing</t>
   </si>
 </sst>
 </file>
@@ -686,8 +695,8 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1836,7 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -1959,7 +1968,9 @@
       <c r="H56">
         <v>4.5462062693628003</v>
       </c>
-      <c r="I56" s="7"/>
+      <c r="I56" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -1982,7 +1993,7 @@
       <c r="H57">
         <v>-3.4906857233533901</v>
       </c>
-      <c r="I57" s="7"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -2010,11 +2021,11 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -2024,42 +2035,144 @@
       <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43388</v>
+      </c>
       <c r="B63">
         <v>136</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>31</v>
+      </c>
+      <c r="D63">
+        <v>5.8508186126840396E-3</v>
+      </c>
+      <c r="E63">
+        <v>2.1403733488471399</v>
+      </c>
+      <c r="F63">
+        <v>2.14143031615124</v>
+      </c>
+      <c r="G63">
+        <v>43.1675045082523</v>
+      </c>
+      <c r="H63">
+        <v>-6.32791094461188E-3</v>
       </c>
       <c r="I63" t="s">
         <v>78</v>
       </c>
       <c r="J63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64">
+        <v>5.8508186126840396E-3</v>
+      </c>
+      <c r="E64">
+        <v>1.52966843635437</v>
+      </c>
+      <c r="F64">
+        <v>3.8004418010087702</v>
+      </c>
+      <c r="G64">
+        <v>8.0328440262260195</v>
+      </c>
+      <c r="H64">
+        <v>-3.28339441892745</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65">
+        <v>3.9452004128462496E-3</v>
+      </c>
+      <c r="E65">
+        <v>6.8946836540872303</v>
+      </c>
+      <c r="F65">
+        <v>9.4162501394222602</v>
+      </c>
+      <c r="G65">
+        <v>14.1755086349577</v>
+      </c>
+      <c r="H65">
+        <v>4.7479823942955202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66">
+        <v>3.9452004128462496E-3</v>
+      </c>
+      <c r="E66">
+        <v>1.6036416148054</v>
+      </c>
+      <c r="F66">
+        <v>7.7636963259989296</v>
+      </c>
+      <c r="G66">
+        <v>4.7056236954285398</v>
+      </c>
+      <c r="H66">
+        <v>-3.20942124047644</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43390</v>
+      </c>
       <c r="B67">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I67" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43391</v>
+      </c>
+      <c r="B71">
+        <v>137</v>
+      </c>
+      <c r="C71" t="s">
+        <v>87</v>
+      </c>
       <c r="I71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>138</v>
+      </c>
+      <c r="C73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="I56:I57"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A55"/>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D13A820A-4AFC-43AC-93EB-033F5C2F7FCE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7ADE3EC2-3999-485C-88A1-7783535E3758}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
   <si>
     <t>Experiment</t>
   </si>
@@ -286,16 +286,13 @@
     <t>89 re-tested with corrected background noise estimation</t>
   </si>
   <si>
-    <t>metrics running on Africa</t>
-  </si>
-  <si>
-    <t>init test</t>
-  </si>
-  <si>
     <t>running on America</t>
   </si>
   <si>
     <t>Try loading at checkpoint 3 and testing</t>
+  </si>
+  <si>
+    <t>Same Unet as 136, but after 6 epochs</t>
   </si>
 </sst>
 </file>
@@ -359,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -372,10 +369,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -692,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +917,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="10">
         <v>43367</v>
       </c>
       <c r="B11" s="9">
@@ -948,7 +946,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12">
         <v>0</v>
@@ -973,7 +971,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="10">
         <v>43368</v>
       </c>
       <c r="B13" s="9">
@@ -1002,7 +1000,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" t="s">
         <v>32</v>
@@ -1025,7 +1023,7 @@
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="10">
         <v>43369</v>
       </c>
       <c r="B15" s="9">
@@ -1054,7 +1052,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" t="s">
         <v>32</v>
@@ -1077,7 +1075,7 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -1100,7 +1098,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" t="s">
         <v>34</v>
@@ -1123,7 +1121,7 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="10">
         <v>43370</v>
       </c>
       <c r="B19" s="9">
@@ -1152,7 +1150,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" t="s">
         <v>32</v>
@@ -1175,7 +1173,7 @@
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="10">
         <v>43373</v>
       </c>
       <c r="B21" s="9">
@@ -1204,7 +1202,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" t="s">
         <v>32</v>
@@ -1227,7 +1225,7 @@
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" t="s">
         <v>33</v>
@@ -1250,7 +1248,7 @@
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>34</v>
@@ -1320,7 +1318,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="10">
         <v>43374</v>
       </c>
       <c r="B29" s="9">
@@ -1349,7 +1347,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" t="s">
         <v>32</v>
@@ -1372,7 +1370,7 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="9"/>
       <c r="C31" t="s">
         <v>33</v>
@@ -1395,7 +1393,7 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" t="s">
         <v>34</v>
@@ -1418,7 +1416,7 @@
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="10">
         <v>43374</v>
       </c>
       <c r="B33" s="9">
@@ -1447,7 +1445,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" t="s">
         <v>32</v>
@@ -1470,7 +1468,7 @@
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="10">
         <v>43375</v>
       </c>
       <c r="B35" s="9">
@@ -1499,7 +1497,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="9"/>
       <c r="C36" t="s">
         <v>32</v>
@@ -1522,7 +1520,7 @@
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" t="s">
         <v>33</v>
@@ -1545,7 +1543,7 @@
       <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" t="s">
         <v>34</v>
@@ -1568,7 +1566,7 @@
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="10">
         <v>43375</v>
       </c>
       <c r="B39" s="9">
@@ -1597,7 +1595,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="9"/>
       <c r="C40" t="s">
         <v>32</v>
@@ -1620,7 +1618,7 @@
       <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="9"/>
       <c r="C41" t="s">
         <v>33</v>
@@ -1643,7 +1641,7 @@
       <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="9"/>
       <c r="C42" t="s">
         <v>34</v>
@@ -1846,7 +1844,7 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="A52" s="10">
         <v>43377</v>
       </c>
       <c r="B52" s="9">
@@ -1875,7 +1873,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="9"/>
       <c r="C53" t="s">
         <v>32</v>
@@ -1898,7 +1896,7 @@
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="10">
         <v>43378</v>
       </c>
       <c r="B54" s="9">
@@ -1925,7 +1923,7 @@
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="9"/>
       <c r="C55" t="s">
         <v>32</v>
@@ -2093,7 +2091,7 @@
       <c r="D65">
         <v>3.9452004128462496E-3</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="8">
         <v>6.8946836540872303</v>
       </c>
       <c r="F65">
@@ -2127,63 +2125,213 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="B67">
+        <v>140</v>
+      </c>
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67">
+        <v>3.91506130246833E-3</v>
+      </c>
+      <c r="E67" s="2">
+        <v>6.9091884490599398</v>
+      </c>
+      <c r="F67">
+        <v>9.5183395249079101</v>
+      </c>
+      <c r="G67">
+        <v>14.14550056685</v>
+      </c>
+      <c r="H67">
+        <v>4.7624871892681799</v>
+      </c>
+      <c r="I67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68">
+        <v>3.91506130246833E-3</v>
+      </c>
+      <c r="E68">
+        <v>1.5156259629658799</v>
+      </c>
+      <c r="F68">
+        <v>7.7227375070833499</v>
+      </c>
+      <c r="G68">
+        <v>4.63777798002506</v>
+      </c>
+      <c r="H68">
+        <v>-3.2974368923159001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>43390</v>
       </c>
-      <c r="B67">
+      <c r="B69">
         <v>134</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69">
+        <v>6.1902719878231503E-3</v>
+      </c>
+      <c r="E69">
+        <v>2.1366363962492398</v>
+      </c>
+      <c r="F69">
+        <v>2.15475478958848</v>
+      </c>
+      <c r="G69">
+        <v>30.491525676382999</v>
+      </c>
+      <c r="H69">
+        <v>-1.00648635425107E-2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>73</v>
+      </c>
+      <c r="J69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70">
+        <v>6.1902719878231503E-3</v>
+      </c>
+      <c r="E70">
+        <v>4.8153807699369402</v>
+      </c>
+      <c r="F70">
+        <v>4.8209386598883404</v>
+      </c>
+      <c r="G70">
+        <v>36.512190404000201</v>
+      </c>
+      <c r="H70">
+        <v>2.3179146551025099E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71">
+        <v>5.1723873604367704E-3</v>
+      </c>
+      <c r="E71" s="2">
+        <v>4.3668071185333099</v>
+      </c>
+      <c r="F71">
+        <v>5.7712948882694199</v>
+      </c>
+      <c r="G71">
+        <v>13.878630232213199</v>
+      </c>
+      <c r="H71">
+        <v>2.2201058587415501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72">
+        <v>5.1723873604367704E-3</v>
+      </c>
+      <c r="E72">
+        <v>0.83181097526765602</v>
+      </c>
+      <c r="F72">
+        <v>7.0721564523653297</v>
+      </c>
+      <c r="G72">
+        <v>3.3994355973939898</v>
+      </c>
+      <c r="H72">
+        <v>-3.9812518800141699</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43391</v>
+      </c>
+      <c r="B73">
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>6.7695307046343996E-3</v>
+      </c>
+      <c r="E73">
+        <v>2.1414376880545198</v>
+      </c>
+      <c r="F73">
+        <v>2.1425460966383101</v>
+      </c>
+      <c r="G73">
+        <v>42.893709838980101</v>
+      </c>
+      <c r="H73">
+        <v>-5.2635717372245903E-3</v>
+      </c>
+      <c r="I73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74">
+        <v>6.7695307046343996E-3</v>
+      </c>
+      <c r="E74">
+        <v>1.7148799301920099</v>
+      </c>
+      <c r="F74">
+        <v>4.0025226926442903</v>
+      </c>
+      <c r="G74">
+        <v>8.1402489827803599</v>
+      </c>
+      <c r="H74">
+        <v>-3.0981829250898101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>138</v>
+      </c>
+      <c r="C75" t="s">
         <v>86</v>
       </c>
-      <c r="I67" t="s">
-        <v>73</v>
-      </c>
-      <c r="J67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>43391</v>
-      </c>
-      <c r="B71">
-        <v>137</v>
-      </c>
-      <c r="C71" t="s">
-        <v>87</v>
-      </c>
-      <c r="I71" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>138</v>
-      </c>
-      <c r="C73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I75" t="s">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -2199,12 +2347,18 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="I52:I55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2216,7 +2370,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7ADE3EC2-3999-485C-88A1-7783535E3758}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7E364553-35E1-4ECD-B506-10BF0184FF96}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>Experiment</t>
   </si>
@@ -248,15 +248,6 @@
   </si>
   <si>
     <t>Basic Capsnet</t>
-  </si>
-  <si>
-    <t>Caps Unet</t>
-  </si>
-  <si>
-    <t>Complex Number Capsnet</t>
-  </si>
-  <si>
-    <t>Running on Asia</t>
   </si>
   <si>
     <t>both (small LS)</t>
@@ -370,10 +361,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -690,11 +681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +861,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -896,7 +887,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -917,10 +908,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>43367</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>50</v>
       </c>
       <c r="C11">
@@ -946,8 +937,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -971,10 +962,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>43368</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -995,13 +986,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -1020,13 +1011,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>43369</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1047,13 +1038,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1072,11 +1063,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1095,11 +1086,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1118,13 +1109,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>43370</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1145,13 +1136,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1170,13 +1161,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>43373</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1197,13 +1188,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1222,11 +1213,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1245,11 +1236,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1268,7 +1259,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1318,10 +1309,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>43374</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="10">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -1342,13 +1333,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1367,11 +1358,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1390,11 +1381,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -1413,13 +1404,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>43374</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="10">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -1440,13 +1431,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -1465,13 +1456,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>43375</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="10">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -1492,13 +1483,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -1517,11 +1508,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -1540,11 +1531,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="9"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -1563,13 +1554,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="9"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <v>43375</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="10">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -1590,13 +1581,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -1615,11 +1606,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="9"/>
+      <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -1638,11 +1629,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="9"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -1661,7 +1652,7 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="9"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -1778,7 +1769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43377</v>
       </c>
@@ -1807,7 +1798,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
         <v>32</v>
@@ -1828,510 +1819,666 @@
         <v>0.69790060387249997</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51">
+        <v>145</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51">
+        <v>0.17497281730174999</v>
+      </c>
+      <c r="E51">
+        <v>6.3525596138103904</v>
+      </c>
+      <c r="F51">
+        <v>6.7525973415107403</v>
+      </c>
+      <c r="G51">
+        <v>19.805069117819301</v>
+      </c>
+      <c r="H51">
+        <v>-0.31863876639355398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52">
+        <v>0.17497281730174999</v>
+      </c>
+      <c r="E52">
+        <v>-3.0113693944803201</v>
+      </c>
+      <c r="F52">
+        <v>4.3282350638907499</v>
+      </c>
+      <c r="G52">
+        <v>0.26949559585734301</v>
+      </c>
+      <c r="H52">
+        <v>2.67662389686584</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>0.112778938733614</v>
+      </c>
+      <c r="E53">
+        <v>7.6258446822955399</v>
+      </c>
+      <c r="F53">
+        <v>9.3557915106192802</v>
+      </c>
+      <c r="G53">
+        <v>14.161900250794901</v>
+      </c>
+      <c r="H53">
+        <v>0.95464630209159695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54">
+        <v>0.112778938733614</v>
+      </c>
+      <c r="E54">
+        <v>-0.83673133104675201</v>
+      </c>
+      <c r="F54">
+        <v>3.0168092269955298</v>
+      </c>
+      <c r="G54">
+        <v>3.9943911427015899</v>
+      </c>
+      <c r="H54">
+        <v>4.8512619602994098</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55">
+        <v>146</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55">
+        <v>0.1730373776876</v>
+      </c>
+      <c r="E55">
+        <v>6.1035188298565402</v>
+      </c>
+      <c r="F55">
+        <v>6.6057817054579004</v>
+      </c>
+      <c r="G55">
+        <v>18.475316711316701</v>
+      </c>
+      <c r="H55">
+        <v>-0.56767955034740303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56">
+        <v>0.1730373776876</v>
+      </c>
+      <c r="E56">
+        <v>-3.8118701189356798</v>
+      </c>
+      <c r="F56">
+        <v>4.3712270196240901</v>
+      </c>
+      <c r="G56">
+        <v>-0.53943336260763397</v>
+      </c>
+      <c r="H56">
+        <v>1.8761231724104801</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57">
+        <v>0.11748255846592</v>
+      </c>
+      <c r="E57">
+        <v>7.43836992088975</v>
+      </c>
+      <c r="F57">
+        <v>8.7565321344999791</v>
+      </c>
+      <c r="G57">
+        <v>14.733464955876499</v>
+      </c>
+      <c r="H57">
+        <v>0.76717154068581295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58">
+        <v>0.11748255846592</v>
+      </c>
+      <c r="E58">
+        <v>-1.79151283072076</v>
+      </c>
+      <c r="F58">
+        <v>2.3304562344937798</v>
+      </c>
+      <c r="G58">
+        <v>3.0802593029196799</v>
+      </c>
+      <c r="H58">
+        <v>3.8964804606254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="B59" s="4"/>
+      <c r="C59" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>43377</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B60" s="10">
         <v>85</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C60" t="s">
         <v>31</v>
       </c>
-      <c r="D52">
+      <c r="D60">
         <v>8.8769710273481905E-3</v>
       </c>
-      <c r="E52">
+      <c r="E60">
         <v>-4.4486933776710904</v>
       </c>
-      <c r="F52">
+      <c r="F60">
         <v>-2.6658631119058098</v>
       </c>
-      <c r="G52">
+      <c r="G60">
         <v>8.5482997649644705</v>
       </c>
-      <c r="H52">
+      <c r="H60">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I60" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="9"/>
-      <c r="C53" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" t="s">
         <v>32</v>
       </c>
-      <c r="D53">
+      <c r="D61">
         <v>8.8769710273481905E-3</v>
       </c>
-      <c r="E53">
+      <c r="E61">
         <v>1.15316280088379</v>
       </c>
-      <c r="F53">
+      <c r="F61">
         <v>5.3171892248921999</v>
       </c>
-      <c r="G53">
+      <c r="G61">
         <v>8.5446161713002304</v>
       </c>
-      <c r="H53">
+      <c r="H61">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
         <v>43378</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B62" s="10">
         <v>89</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C62" t="s">
         <v>31</v>
       </c>
-      <c r="D54">
+      <c r="D62">
         <v>6.0007950481425097E-3</v>
       </c>
-      <c r="E54">
+      <c r="E62">
         <v>0.53187985334754795</v>
       </c>
-      <c r="F54">
+      <c r="F62">
         <v>6.2616599956293602</v>
       </c>
-      <c r="G54">
+      <c r="G62">
         <v>5.3511069949812704</v>
       </c>
-      <c r="H54">
+      <c r="H62">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="9"/>
-      <c r="C55" t="s">
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" t="s">
         <v>32</v>
       </c>
-      <c r="D55">
+      <c r="D63">
         <v>6.0007950481425097E-3</v>
       </c>
-      <c r="E55">
+      <c r="E63">
         <v>4.78322596010337</v>
       </c>
-      <c r="F55">
+      <c r="F63">
         <v>13.387147861798701</v>
       </c>
-      <c r="G55">
+      <c r="G63">
         <v>6.5279267189934798</v>
       </c>
-      <c r="H55">
+      <c r="H63">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" t="s">
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" t="s">
         <v>31</v>
       </c>
-      <c r="D56">
+      <c r="D64">
         <v>6.0007950481425097E-3</v>
       </c>
-      <c r="E56">
+      <c r="E64">
         <v>6.8224427785276101</v>
       </c>
-      <c r="F56">
+      <c r="F64">
         <v>8.8877996062215594</v>
       </c>
-      <c r="G56">
+      <c r="G64">
         <v>14.706059872829099</v>
       </c>
-      <c r="H56">
+      <c r="H64">
         <v>4.5462062693628003</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" t="s">
+      <c r="I64" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" t="s">
         <v>32</v>
       </c>
-      <c r="D57">
+      <c r="D65">
         <v>6.0007950481425097E-3</v>
       </c>
-      <c r="E57">
+      <c r="E65">
         <v>1.7670260485579199</v>
       </c>
-      <c r="F57">
+      <c r="F65">
         <v>8.2593827884546105</v>
       </c>
-      <c r="G57">
+      <c r="G65">
         <v>4.6266302195718296</v>
       </c>
-      <c r="H57">
+      <c r="H65">
         <v>-3.4906857233533901</v>
       </c>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>43378</v>
-      </c>
-      <c r="B58">
-        <v>88</v>
-      </c>
-      <c r="C58" t="s">
-        <v>76</v>
-      </c>
-      <c r="I58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I60" t="s">
+      <c r="I65" s="10"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43388</v>
+      </c>
+      <c r="B68">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68">
+        <v>5.8508186126840396E-3</v>
+      </c>
+      <c r="E68">
+        <v>2.1403733488471399</v>
+      </c>
+      <c r="F68">
+        <v>2.14143031615124</v>
+      </c>
+      <c r="G68">
+        <v>43.1675045082523</v>
+      </c>
+      <c r="H68">
+        <v>-6.32791094461188E-3</v>
+      </c>
+      <c r="I68" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="J68" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>43388</v>
-      </c>
-      <c r="B63">
-        <v>136</v>
-      </c>
-      <c r="C63" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69">
         <v>5.8508186126840396E-3</v>
       </c>
-      <c r="E63">
-        <v>2.1403733488471399</v>
-      </c>
-      <c r="F63">
-        <v>2.14143031615124</v>
-      </c>
-      <c r="G63">
-        <v>43.1675045082523</v>
-      </c>
-      <c r="H63">
-        <v>-6.32791094461188E-3</v>
-      </c>
-      <c r="I63" t="s">
-        <v>78</v>
-      </c>
-      <c r="J63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64">
-        <v>5.8508186126840396E-3</v>
-      </c>
-      <c r="E64">
+      <c r="E69">
         <v>1.52966843635437</v>
       </c>
-      <c r="F64">
+      <c r="F69">
         <v>3.8004418010087702</v>
       </c>
-      <c r="G64">
+      <c r="G69">
         <v>8.0328440262260195</v>
       </c>
-      <c r="H64">
+      <c r="H69">
         <v>-3.28339441892745</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65">
-        <v>3.9452004128462496E-3</v>
-      </c>
-      <c r="E65" s="8">
-        <v>6.8946836540872303</v>
-      </c>
-      <c r="F65">
-        <v>9.4162501394222602</v>
-      </c>
-      <c r="G65">
-        <v>14.1755086349577</v>
-      </c>
-      <c r="H65">
-        <v>4.7479823942955202</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>34</v>
-      </c>
-      <c r="D66">
-        <v>3.9452004128462496E-3</v>
-      </c>
-      <c r="E66">
-        <v>1.6036416148054</v>
-      </c>
-      <c r="F66">
-        <v>7.7636963259989296</v>
-      </c>
-      <c r="G66">
-        <v>4.7056236954285398</v>
-      </c>
-      <c r="H66">
-        <v>-3.20942124047644</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>140</v>
-      </c>
-      <c r="C67" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67">
-        <v>3.91506130246833E-3</v>
-      </c>
-      <c r="E67" s="2">
-        <v>6.9091884490599398</v>
-      </c>
-      <c r="F67">
-        <v>9.5183395249079101</v>
-      </c>
-      <c r="G67">
-        <v>14.14550056685</v>
-      </c>
-      <c r="H67">
-        <v>4.7624871892681799</v>
-      </c>
-      <c r="I67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68">
-        <v>3.91506130246833E-3</v>
-      </c>
-      <c r="E68">
-        <v>1.5156259629658799</v>
-      </c>
-      <c r="F68">
-        <v>7.7227375070833499</v>
-      </c>
-      <c r="G68">
-        <v>4.63777798002506</v>
-      </c>
-      <c r="H68">
-        <v>-3.2974368923159001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>43390</v>
-      </c>
-      <c r="B69">
-        <v>134</v>
-      </c>
-      <c r="C69" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69">
-        <v>6.1902719878231503E-3</v>
-      </c>
-      <c r="E69">
-        <v>2.1366363962492398</v>
-      </c>
-      <c r="F69">
-        <v>2.15475478958848</v>
-      </c>
-      <c r="G69">
-        <v>30.491525676382999</v>
-      </c>
-      <c r="H69">
-        <v>-1.00648635425107E-2</v>
-      </c>
-      <c r="I69" t="s">
-        <v>73</v>
-      </c>
-      <c r="J69" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D70">
-        <v>6.1902719878231503E-3</v>
-      </c>
-      <c r="E70">
-        <v>4.8153807699369402</v>
+        <v>3.9452004128462496E-3</v>
+      </c>
+      <c r="E70" s="8">
+        <v>6.8946836540872303</v>
       </c>
       <c r="F70">
-        <v>4.8209386598883404</v>
+        <v>9.4162501394222602</v>
       </c>
       <c r="G70">
-        <v>36.512190404000201</v>
+        <v>14.1755086349577</v>
       </c>
       <c r="H70">
-        <v>2.3179146551025099E-3</v>
+        <v>4.7479823942955202</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71">
+        <v>3.9452004128462496E-3</v>
+      </c>
+      <c r="E71">
+        <v>1.6036416148054</v>
+      </c>
+      <c r="F71">
+        <v>7.7636963259989296</v>
+      </c>
+      <c r="G71">
+        <v>4.7056236954285398</v>
+      </c>
+      <c r="H71">
+        <v>-3.20942124047644</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>140</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72">
+        <v>3.91506130246833E-3</v>
+      </c>
+      <c r="E72" s="2">
+        <v>6.9091884490599398</v>
+      </c>
+      <c r="F72">
+        <v>9.5183395249079101</v>
+      </c>
+      <c r="G72">
+        <v>14.14550056685</v>
+      </c>
+      <c r="H72">
+        <v>4.7624871892681799</v>
+      </c>
+      <c r="I72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73">
+        <v>3.91506130246833E-3</v>
+      </c>
+      <c r="E73">
+        <v>1.5156259629658799</v>
+      </c>
+      <c r="F73">
+        <v>7.7227375070833499</v>
+      </c>
+      <c r="G73">
+        <v>4.63777798002506</v>
+      </c>
+      <c r="H73">
+        <v>-3.2974368923159001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43390</v>
+      </c>
+      <c r="B74">
+        <v>134</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74">
+        <v>6.1902719878231503E-3</v>
+      </c>
+      <c r="E74">
+        <v>2.1366363962492398</v>
+      </c>
+      <c r="F74">
+        <v>2.15475478958848</v>
+      </c>
+      <c r="G74">
+        <v>30.491525676382999</v>
+      </c>
+      <c r="H74">
+        <v>-1.00648635425107E-2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>73</v>
+      </c>
+      <c r="J74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75">
+        <v>6.1902719878231503E-3</v>
+      </c>
+      <c r="E75">
+        <v>4.8153807699369402</v>
+      </c>
+      <c r="F75">
+        <v>4.8209386598883404</v>
+      </c>
+      <c r="G75">
+        <v>36.512190404000201</v>
+      </c>
+      <c r="H75">
+        <v>2.3179146551025099E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>33</v>
       </c>
-      <c r="D71">
+      <c r="D76">
         <v>5.1723873604367704E-3</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E76" s="2">
         <v>4.3668071185333099</v>
       </c>
-      <c r="F71">
+      <c r="F76">
         <v>5.7712948882694199</v>
       </c>
-      <c r="G71">
+      <c r="G76">
         <v>13.878630232213199</v>
       </c>
-      <c r="H71">
+      <c r="H76">
         <v>2.2201058587415501</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>34</v>
       </c>
-      <c r="D72">
+      <c r="D77">
         <v>5.1723873604367704E-3</v>
       </c>
-      <c r="E72">
+      <c r="E77">
         <v>0.83181097526765602</v>
       </c>
-      <c r="F72">
+      <c r="F77">
         <v>7.0721564523653297</v>
       </c>
-      <c r="G72">
+      <c r="G77">
         <v>3.3994355973939898</v>
       </c>
-      <c r="H72">
+      <c r="H77">
         <v>-3.9812518800141699</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>43391</v>
       </c>
-      <c r="B73">
+      <c r="B78">
         <v>137</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C78" t="s">
         <v>31</v>
       </c>
-      <c r="D73">
+      <c r="D78">
         <v>6.7695307046343996E-3</v>
       </c>
-      <c r="E73">
+      <c r="E78">
         <v>2.1414376880545198</v>
       </c>
-      <c r="F73">
+      <c r="F78">
         <v>2.1425460966383101</v>
       </c>
-      <c r="G73">
+      <c r="G78">
         <v>42.893709838980101</v>
       </c>
-      <c r="H73">
+      <c r="H78">
         <v>-5.2635717372245903E-3</v>
       </c>
-      <c r="I73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
+      <c r="I78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>32</v>
       </c>
-      <c r="D74">
+      <c r="D79">
         <v>6.7695307046343996E-3</v>
       </c>
-      <c r="E74">
+      <c r="E79">
         <v>1.7148799301920099</v>
       </c>
-      <c r="F74">
+      <c r="F79">
         <v>4.0025226926442903</v>
       </c>
-      <c r="G74">
+      <c r="G79">
         <v>8.1402489827803599</v>
       </c>
-      <c r="H74">
+      <c r="H79">
         <v>-3.0981829250898101</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B75">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80">
         <v>138</v>
       </c>
-      <c r="C75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I77" t="s">
-        <v>80</v>
+      <c r="C80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -2347,18 +2494,12 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2411,7 +2552,7 @@
         <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M4">
         <v>4800</v>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7E364553-35E1-4ECD-B506-10BF0184FF96}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8ACA48E4-75C3-4A69-8669-89A3E2505DA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="94">
   <si>
     <t>Experiment</t>
   </si>
@@ -202,9 +203,6 @@
     <t>Repeat of 80, validation each epoch</t>
   </si>
   <si>
-    <t>Training iteration (batch size 50)</t>
-  </si>
-  <si>
     <t>CHiME</t>
   </si>
   <si>
@@ -284,12 +282,43 @@
   </si>
   <si>
     <t>Same Unet as 136, but after 6 epochs</t>
+  </si>
+  <si>
+    <t>Post-training</t>
+  </si>
+  <si>
+    <t>Pre-training</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Test Time</t>
+  </si>
+  <si>
+    <t>Training iterations/epoch (batch size --&gt;)</t>
+  </si>
+  <si>
+    <t>Complex U-Net</t>
+  </si>
+  <si>
+    <t>R-I-M U-Net</t>
+  </si>
+  <si>
+    <t>R-I-M Caps-U-Net</t>
+  </si>
+  <si>
+    <t>Mag and Phase, ouput Phase Difference?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -343,11 +372,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -361,11 +525,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,20 +864,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -723,7 +906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>36</v>
       </c>
@@ -749,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>37</v>
       </c>
@@ -775,7 +958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>37</v>
       </c>
@@ -798,7 +981,7 @@
         <v>4.5625503126689404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>40</v>
       </c>
@@ -821,7 +1004,7 @@
         <v>1.01601424866862E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>40</v>
       </c>
@@ -844,7 +1027,7 @@
         <v>5.2170367078359199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>48</v>
       </c>
@@ -852,7 +1035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>49</v>
       </c>
@@ -860,8 +1043,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -886,8 +1069,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -907,11 +1090,11 @@
         <v>9.9428347412899996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
         <v>43367</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="23">
         <v>50</v>
       </c>
       <c r="C11">
@@ -936,9 +1119,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -961,11 +1144,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
         <v>43368</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="23">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -986,13 +1169,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -1011,13 +1194,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
         <v>43369</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="23">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1038,13 +1221,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1063,11 +1246,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1086,11 +1269,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1109,13 +1292,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
         <v>43370</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="23">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1136,13 +1319,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1161,13 +1344,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
         <v>43373</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="23">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1188,13 +1371,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1213,11 +1396,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1236,11 +1419,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1259,9 +1442,9 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43373</v>
       </c>
@@ -1275,7 +1458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43373</v>
       </c>
@@ -1286,7 +1469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43374</v>
       </c>
@@ -1297,7 +1480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43374</v>
       </c>
@@ -1308,11 +1491,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
         <v>43374</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="23">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -1333,13 +1516,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1358,11 +1541,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1381,11 +1564,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -1404,13 +1587,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="22">
         <v>43374</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="23">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -1431,13 +1614,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -1456,13 +1639,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="22">
         <v>43375</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="23">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -1483,13 +1666,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -1508,11 +1691,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -1531,11 +1714,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -1554,13 +1737,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="22">
         <v>43375</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="23">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -1581,13 +1764,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -1606,11 +1789,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -1629,11 +1812,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -1652,9 +1835,9 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="10"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43376</v>
       </c>
@@ -1671,7 +1854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43376</v>
       </c>
@@ -1688,7 +1871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43376</v>
       </c>
@@ -1705,7 +1888,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43377</v>
       </c>
@@ -1734,7 +1917,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="C47" t="s">
         <v>32</v>
@@ -1755,7 +1938,7 @@
         <v>0.619751518533326</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43377</v>
       </c>
@@ -1769,7 +1952,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43377</v>
       </c>
@@ -1795,10 +1978,10 @@
         <v>1.69316821399544</v>
       </c>
       <c r="I49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
         <v>32</v>
@@ -1819,7 +2002,7 @@
         <v>0.69790060387249997</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51">
         <v>145</v>
@@ -1843,7 +2026,7 @@
         <v>-0.31863876639355398</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="C52" t="s">
         <v>32</v>
@@ -1864,7 +2047,7 @@
         <v>2.67662389686584</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="C53" t="s">
         <v>33</v>
@@ -1885,7 +2068,7 @@
         <v>0.95464630209159695</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="C54" t="s">
         <v>34</v>
@@ -1906,7 +2089,7 @@
         <v>4.8512619602994098</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55">
         <v>146</v>
@@ -1930,7 +2113,7 @@
         <v>-0.56767955034740303</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="C56" t="s">
         <v>32</v>
@@ -1951,7 +2134,7 @@
         <v>1.8761231724104801</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="C57" t="s">
         <v>33</v>
@@ -1972,7 +2155,7 @@
         <v>0.76717154068581295</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="C58" t="s">
         <v>34</v>
@@ -1993,13 +2176,13 @@
         <v>3.8964804606254</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -2008,11 +2191,11 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="22">
         <v>43377</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="23">
         <v>85</v>
       </c>
       <c r="C60" t="s">
@@ -2033,13 +2216,13 @@
       <c r="H60">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I60" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
+      <c r="I60" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
       <c r="C61" t="s">
         <v>32</v>
       </c>
@@ -2058,13 +2241,13 @@
       <c r="H61">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I61" s="10"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="22">
         <v>43378</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="23">
         <v>89</v>
       </c>
       <c r="C62" t="s">
@@ -2085,11 +2268,11 @@
       <c r="H62">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I62" s="10"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -2108,9 +2291,9 @@
       <c r="H63">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I63" s="10"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" t="s">
@@ -2131,11 +2314,11 @@
       <c r="H64">
         <v>4.5462062693628003</v>
       </c>
-      <c r="I64" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I64" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" t="s">
@@ -2156,15 +2339,15 @@
       <c r="H65">
         <v>-3.4906857233533901</v>
       </c>
-      <c r="I65" s="10"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I65" s="23"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -2173,7 +2356,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43388</v>
       </c>
@@ -2199,13 +2382,13 @@
         <v>-6.32791094461188E-3</v>
       </c>
       <c r="I68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -2225,7 +2408,7 @@
         <v>-3.28339441892745</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>33</v>
       </c>
@@ -2245,7 +2428,7 @@
         <v>4.7479823942955202</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>34</v>
       </c>
@@ -2265,7 +2448,7 @@
         <v>-3.20942124047644</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>140</v>
       </c>
@@ -2288,10 +2471,10 @@
         <v>4.7624871892681799</v>
       </c>
       <c r="I72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>32</v>
       </c>
@@ -2311,7 +2494,7 @@
         <v>-3.2974368923159001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43390</v>
       </c>
@@ -2337,13 +2520,13 @@
         <v>-1.00648635425107E-2</v>
       </c>
       <c r="I74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>32</v>
       </c>
@@ -2363,7 +2546,7 @@
         <v>2.3179146551025099E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>33</v>
       </c>
@@ -2383,7 +2566,7 @@
         <v>2.2201058587415501</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>34</v>
       </c>
@@ -2403,7 +2586,7 @@
         <v>-3.9812518800141699</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43391</v>
       </c>
@@ -2429,10 +2612,10 @@
         <v>-5.2635717372245903E-3</v>
       </c>
       <c r="I78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>32</v>
       </c>
@@ -2452,17 +2635,40 @@
         <v>-3.0981829250898101</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>138</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
       <c r="I82" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2507,30 +2713,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF23902-3816-4B4E-83CE-581E9B6C3F52}">
+  <dimension ref="B1:H6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="10">
+        <v>5.8508186126840396E-3</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2.1403733488471399</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2.14143031615124</v>
+      </c>
+      <c r="G3" s="11">
+        <v>43.1675045082523</v>
+      </c>
+      <c r="H3" s="16">
+        <v>-6.32791094461188E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+      <c r="C4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3.91506130246833E-3</v>
+      </c>
+      <c r="E4" s="12">
+        <v>6.9091884490599398</v>
+      </c>
+      <c r="F4" s="11">
+        <v>9.5183395249079101</v>
+      </c>
+      <c r="G4" s="11">
+        <v>14.14550056685</v>
+      </c>
+      <c r="H4" s="16">
+        <v>4.7624871892681799</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="10">
+        <v>6.1902719878231503E-3</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2.1366363962492398</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2.15475478958848</v>
+      </c>
+      <c r="G5" s="11">
+        <v>30.491525676382999</v>
+      </c>
+      <c r="H5" s="16">
+        <v>-1.00648635425107E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="25"/>
+      <c r="C6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="18">
+        <v>5.1723873604367704E-3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>4.3668071185333099</v>
+      </c>
+      <c r="F6" s="20">
+        <v>5.7712948882694199</v>
+      </c>
+      <c r="G6" s="20">
+        <v>13.878630232213199</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2.2201058587415501</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB077578-BE78-4B93-9E5A-D84D4BCC6A7F}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L2" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2538,13 +2894,13 @@
         <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M3">
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2552,93 +2908,99 @@
         <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M4">
         <v>4800</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>80000</v>
+      </c>
+      <c r="O4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M5">
         <v>14987</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
         <v>63</v>
       </c>
-      <c r="N6" t="s">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8ACA48E4-75C3-4A69-8669-89A3E2505DA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9A20CA5E-0535-46EC-8CA1-0142F0411B85}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
   <si>
     <t>Experiment</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Mag and Phase, ouput Phase Difference?</t>
+  </si>
+  <si>
+    <t>Overtraining efforts with complex capsunet</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -867,17 +870,17 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -906,7 +909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>36</v>
       </c>
@@ -932,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>37</v>
       </c>
@@ -958,7 +961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>37</v>
       </c>
@@ -981,7 +984,7 @@
         <v>4.5625503126689404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>40</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>1.01601424866862E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>40</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>5.2170367078359199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>48</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>49</v>
       </c>
@@ -1043,8 +1046,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -1069,8 +1072,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -1090,11 +1093,11 @@
         <v>9.9428347412899996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <v>43367</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>50</v>
       </c>
       <c r="C11">
@@ -1119,9 +1122,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -1144,11 +1147,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
         <v>43368</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -1169,13 +1172,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="22"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -1194,13 +1197,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
         <v>43369</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1221,13 +1224,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1246,11 +1249,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1269,11 +1272,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="22"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1292,13 +1295,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
         <v>43370</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1319,13 +1322,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1344,13 +1347,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
         <v>43373</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1371,13 +1374,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1396,11 +1399,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1419,11 +1422,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1442,9 +1445,9 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43373</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43373</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43374</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43374</v>
       </c>
@@ -1491,11 +1494,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
         <v>43374</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -1516,13 +1519,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="22"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1541,11 +1544,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="23"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="22"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1564,11 +1567,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="22"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -1587,13 +1590,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
         <v>43374</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="22">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -1614,13 +1617,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="22"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -1639,13 +1642,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
         <v>43375</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -1666,13 +1669,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="22"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -1691,11 +1694,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="22"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -1714,11 +1717,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="22"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -1737,13 +1740,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
         <v>43375</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="22">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -1764,13 +1767,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="23" t="s">
+      <c r="I39" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="22"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -1789,11 +1792,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="22"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -1812,11 +1815,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="22"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -1835,9 +1838,9 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="23"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43376</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43376</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43376</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43377</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" t="s">
         <v>32</v>
@@ -1938,7 +1941,7 @@
         <v>0.619751518533326</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43377</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43377</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
         <v>32</v>
@@ -2002,7 +2005,7 @@
         <v>0.69790060387249997</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51">
         <v>145</v>
@@ -2025,8 +2028,11 @@
       <c r="H51">
         <v>-0.31863876639355398</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I51" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="C52" t="s">
         <v>32</v>
@@ -2046,8 +2052,9 @@
       <c r="H52">
         <v>2.67662389686584</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I52" s="22"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="C53" t="s">
         <v>33</v>
@@ -2067,8 +2074,9 @@
       <c r="H53">
         <v>0.95464630209159695</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I53" s="22"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="C54" t="s">
         <v>34</v>
@@ -2088,8 +2096,9 @@
       <c r="H54">
         <v>4.8512619602994098</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="22"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55">
         <v>146</v>
@@ -2112,8 +2121,9 @@
       <c r="H55">
         <v>-0.56767955034740303</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I55" s="22"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="C56" t="s">
         <v>32</v>
@@ -2133,8 +2143,9 @@
       <c r="H56">
         <v>1.8761231724104801</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I56" s="22"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="C57" t="s">
         <v>33</v>
@@ -2154,8 +2165,9 @@
       <c r="H57">
         <v>0.76717154068581295</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I57" s="22"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="C58" t="s">
         <v>34</v>
@@ -2175,8 +2187,9 @@
       <c r="H58">
         <v>3.8964804606254</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I58" s="22"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>70</v>
       </c>
@@ -2191,11 +2204,11 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="22">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
         <v>43377</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="22">
         <v>85</v>
       </c>
       <c r="C60" t="s">
@@ -2216,13 +2229,13 @@
       <c r="H60">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I60" s="23" t="s">
+      <c r="I60" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="22"/>
       <c r="C61" t="s">
         <v>32</v>
       </c>
@@ -2241,13 +2254,13 @@
       <c r="H61">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I61" s="23"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="22">
+      <c r="I61" s="22"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="23">
         <v>43378</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="22">
         <v>89</v>
       </c>
       <c r="C62" t="s">
@@ -2268,11 +2281,11 @@
       <c r="H62">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I62" s="23"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
+      <c r="I62" s="22"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="22"/>
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -2291,9 +2304,9 @@
       <c r="H63">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I63" s="23"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I63" s="22"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" t="s">
@@ -2314,11 +2327,11 @@
       <c r="H64">
         <v>4.5462062693628003</v>
       </c>
-      <c r="I64" s="23" t="s">
+      <c r="I64" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" t="s">
@@ -2339,9 +2352,9 @@
       <c r="H65">
         <v>-3.4906857233533901</v>
       </c>
-      <c r="I65" s="23"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I65" s="22"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>77</v>
       </c>
@@ -2356,7 +2369,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43388</v>
       </c>
@@ -2388,7 +2401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -2408,7 +2421,7 @@
         <v>-3.28339441892745</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>33</v>
       </c>
@@ -2428,7 +2441,7 @@
         <v>4.7479823942955202</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>34</v>
       </c>
@@ -2448,7 +2461,7 @@
         <v>-3.20942124047644</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>140</v>
       </c>
@@ -2474,7 +2487,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>32</v>
       </c>
@@ -2494,7 +2507,7 @@
         <v>-3.2974368923159001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43390</v>
       </c>
@@ -2526,7 +2539,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>32</v>
       </c>
@@ -2546,7 +2559,7 @@
         <v>2.3179146551025099E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>33</v>
       </c>
@@ -2566,7 +2579,7 @@
         <v>2.2201058587415501</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>34</v>
       </c>
@@ -2586,7 +2599,7 @@
         <v>-3.9812518800141699</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43391</v>
       </c>
@@ -2615,7 +2628,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>32</v>
       </c>
@@ -2635,7 +2648,7 @@
         <v>-3.0981829250898101</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>138</v>
       </c>
@@ -2643,7 +2656,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>82</v>
       </c>
@@ -2651,40 +2664,35 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="I60:I63"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
+  <mergeCells count="34">
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -2700,12 +2708,18 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="I60:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2720,19 +2734,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>87</v>
       </c>
@@ -2755,7 +2769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>74</v>
       </c>
@@ -2778,7 +2792,7 @@
         <v>-6.32791094461188E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="9" t="s">
         <v>85</v>
@@ -2799,7 +2813,7 @@
         <v>4.7624871892681799</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>72</v>
       </c>
@@ -2822,7 +2836,7 @@
         <v>-1.00648635425107E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="25"/>
       <c r="C6" s="17" t="s">
         <v>85</v>
@@ -2861,18 +2875,18 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L2" s="3" t="s">
         <v>89</v>
       </c>
@@ -2886,7 +2900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2900,7 +2914,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2920,7 +2934,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2931,7 +2945,7 @@
         <v>14987</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2945,62 +2959,62 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9A20CA5E-0535-46EC-8CA1-0142F0411B85}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{51EC5CB1-7030-498F-8D87-9AC31E896986}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
   <si>
     <t>Experiment</t>
   </si>
@@ -275,9 +275,6 @@
     <t>89 re-tested with corrected background noise estimation</t>
   </si>
   <si>
-    <t>running on America</t>
-  </si>
-  <si>
     <t>Try loading at checkpoint 3 and testing</t>
   </si>
   <si>
@@ -312,6 +309,12 @@
   </si>
   <si>
     <t>Overtraining efforts with complex capsunet</t>
+  </si>
+  <si>
+    <t>3 layer conv net</t>
+  </si>
+  <si>
+    <t>Metrics running on Eurpe</t>
   </si>
 </sst>
 </file>
@@ -867,20 +870,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -909,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>36</v>
       </c>
@@ -935,7 +938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>37</v>
       </c>
@@ -961,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>37</v>
       </c>
@@ -984,7 +987,7 @@
         <v>4.5625503126689404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>40</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>1.01601424866862E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>40</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>5.2170367078359199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>48</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>49</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="22"/>
       <c r="C10">
         <v>1</v>
@@ -1093,7 +1096,7 @@
         <v>9.9428347412899996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>43367</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="22"/>
       <c r="C12">
@@ -1147,7 +1150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>43368</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="22"/>
       <c r="C14" t="s">
@@ -1199,7 +1202,7 @@
       </c>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>43369</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="22"/>
       <c r="C16" t="s">
@@ -1251,7 +1254,7 @@
       </c>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="22"/>
       <c r="C17" s="2" t="s">
@@ -1274,7 +1277,7 @@
       </c>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="22"/>
       <c r="C18" t="s">
@@ -1297,7 +1300,7 @@
       </c>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>43370</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="22"/>
       <c r="C20" t="s">
@@ -1349,7 +1352,7 @@
       </c>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>43373</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="22"/>
       <c r="C22" t="s">
@@ -1401,7 +1404,7 @@
       </c>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="22"/>
       <c r="C23" t="s">
@@ -1424,7 +1427,7 @@
       </c>
       <c r="I23" s="22"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="22"/>
       <c r="C24" t="s">
@@ -1447,7 +1450,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43373</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43373</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43374</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43374</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>43374</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="22"/>
       <c r="C30" t="s">
@@ -1546,7 +1549,7 @@
       </c>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="22"/>
       <c r="C31" t="s">
@@ -1569,7 +1572,7 @@
       </c>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="22"/>
       <c r="C32" t="s">
@@ -1592,7 +1595,7 @@
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>43374</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="22"/>
       <c r="C34" t="s">
@@ -1644,7 +1647,7 @@
       </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>43375</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="22"/>
       <c r="C36" t="s">
@@ -1696,7 +1699,7 @@
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="22"/>
       <c r="C37" t="s">
@@ -1719,7 +1722,7 @@
       </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="22"/>
       <c r="C38" t="s">
@@ -1742,7 +1745,7 @@
       </c>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>43375</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="22"/>
       <c r="C40" t="s">
@@ -1794,7 +1797,7 @@
       </c>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="22"/>
       <c r="C41" t="s">
@@ -1817,7 +1820,7 @@
       </c>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="22"/>
       <c r="C42" t="s">
@@ -1840,7 +1843,7 @@
       </c>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43376</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43376</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43376</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43377</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="C47" t="s">
         <v>32</v>
@@ -1941,7 +1944,7 @@
         <v>0.619751518533326</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43377</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43377</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
         <v>32</v>
@@ -2005,7 +2008,7 @@
         <v>0.69790060387249997</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51">
         <v>145</v>
@@ -2029,10 +2032,10 @@
         <v>-0.31863876639355398</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="C52" t="s">
         <v>32</v>
@@ -2054,7 +2057,7 @@
       </c>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="C53" t="s">
         <v>33</v>
@@ -2076,7 +2079,7 @@
       </c>
       <c r="I53" s="22"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="C54" t="s">
         <v>34</v>
@@ -2098,7 +2101,7 @@
       </c>
       <c r="I54" s="22"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55">
         <v>146</v>
@@ -2123,7 +2126,7 @@
       </c>
       <c r="I55" s="22"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="C56" t="s">
         <v>32</v>
@@ -2145,7 +2148,7 @@
       </c>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="C57" t="s">
         <v>33</v>
@@ -2167,7 +2170,7 @@
       </c>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="C58" t="s">
         <v>34</v>
@@ -2189,7 +2192,7 @@
       </c>
       <c r="I58" s="22"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>70</v>
       </c>
@@ -2204,7 +2207,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>43377</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="22"/>
       <c r="C61" t="s">
@@ -2256,7 +2259,7 @@
       </c>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>43378</v>
       </c>
@@ -2283,7 +2286,7 @@
       </c>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="22"/>
       <c r="C63" t="s">
@@ -2306,7 +2309,7 @@
       </c>
       <c r="I63" s="22"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" t="s">
@@ -2331,7 +2334,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" t="s">
@@ -2354,7 +2357,7 @@
       </c>
       <c r="I65" s="22"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>77</v>
       </c>
@@ -2369,7 +2372,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43388</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>-3.28339441892745</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>33</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>4.7479823942955202</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>34</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>-3.20942124047644</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>140</v>
       </c>
@@ -2484,10 +2487,10 @@
         <v>4.7624871892681799</v>
       </c>
       <c r="I72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>32</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>-3.2974368923159001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43390</v>
       </c>
@@ -2536,10 +2539,10 @@
         <v>72</v>
       </c>
       <c r="J74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>32</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>2.3179146551025099E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>33</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>2.2201058587415501</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>34</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>-3.9812518800141699</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43391</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>32</v>
       </c>
@@ -2648,51 +2651,139 @@
         <v>-3.0981829250898101</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B80">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="D80">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>43398</v>
+      </c>
+      <c r="B82">
+        <v>154</v>
+      </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="D82">
+        <v>6.05322966534186E-3</v>
+      </c>
+      <c r="E82">
+        <v>1.88817622693805</v>
+      </c>
+      <c r="F82">
+        <v>4.5345716021200797</v>
+      </c>
+      <c r="G82">
+        <v>9.4648998759248695</v>
+      </c>
+      <c r="H82">
+        <v>-0.25852503285369899</v>
       </c>
       <c r="I82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83">
+        <v>6.05322966534186E-3</v>
+      </c>
+      <c r="E83">
+        <v>2.2926471838902902</v>
+      </c>
+      <c r="F83">
+        <v>5.8273145314643999</v>
+      </c>
+      <c r="G83">
+        <v>6.7401128385186402</v>
+      </c>
+      <c r="H83">
+        <v>-2.52041567139152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84">
+        <v>5.3014564192564702E-3</v>
+      </c>
+      <c r="E84">
+        <v>1.8812702780464301</v>
+      </c>
+      <c r="F84">
+        <v>3.37891165486923</v>
+      </c>
+      <c r="G84">
+        <v>10.942205468918701</v>
+      </c>
+      <c r="H84">
+        <v>-0.26543098174531699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85">
+        <v>5.3014564192564702E-3</v>
+      </c>
+      <c r="E85">
+        <v>3.3040239747320999</v>
+      </c>
+      <c r="F85">
+        <v>6.77711490653006</v>
+      </c>
+      <c r="G85">
+        <v>7.6874198379358001</v>
+      </c>
+      <c r="H85">
+        <v>-1.5090388805497199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I83" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I88" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I84" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I89" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I85" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I90" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I86" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="I60:I63"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -2708,18 +2799,19 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="I35:I38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="I60:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2734,24 +2826,24 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>2</v>
@@ -2769,12 +2861,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="10">
         <v>5.8508186126840396E-3</v>
@@ -2792,10 +2884,10 @@
         <v>-6.32791094461188E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="24"/>
       <c r="C4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="10">
         <v>3.91506130246833E-3</v>
@@ -2813,12 +2905,12 @@
         <v>4.7624871892681799</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="10">
         <v>6.1902719878231503E-3</v>
@@ -2836,10 +2928,10 @@
         <v>-1.00648635425107E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
       <c r="C6" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="18">
         <v>5.1723873604367704E-3</v>
@@ -2872,23 +2964,23 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M2">
         <v>50</v>
@@ -2900,7 +2992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2914,7 +3006,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2934,7 +3026,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2945,7 +3037,7 @@
         <v>14987</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2959,62 +3051,62 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{51EC5CB1-7030-498F-8D87-9AC31E896986}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{630DCD0C-0EB8-4674-909D-0591D557B7B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="2" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="95">
   <si>
     <t>Experiment</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>3 layer conv net</t>
-  </si>
-  <si>
-    <t>Metrics running on Eurpe</t>
   </si>
 </sst>
 </file>
@@ -870,11 +867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,7 +2532,7 @@
       <c r="H74">
         <v>-1.00648635425107E-2</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="22" t="s">
         <v>72</v>
       </c>
       <c r="J74" t="s">
@@ -2561,6 +2558,7 @@
       <c r="H75">
         <v>2.3179146551025099E-3</v>
       </c>
+      <c r="I75" s="22"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
@@ -2581,6 +2579,7 @@
       <c r="H76">
         <v>2.2201058587415501</v>
       </c>
+      <c r="I76" s="22"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
@@ -2601,6 +2600,7 @@
       <c r="H77">
         <v>-3.9812518800141699</v>
       </c>
+      <c r="I77" s="22"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
@@ -2627,7 +2627,7 @@
       <c r="H78">
         <v>-5.2635717372245903E-3</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="22" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2650,140 +2650,226 @@
       <c r="H79">
         <v>-3.0981829250898101</v>
       </c>
+      <c r="I79" s="22"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>149</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="D80">
-        <v>5.4999999999999997E-3</v>
-      </c>
+        <v>6.7223707032820802E-3</v>
+      </c>
+      <c r="E80">
+        <v>2.1405847224893</v>
+      </c>
+      <c r="F80">
+        <v>2.1416455561305701</v>
+      </c>
+      <c r="G80">
+        <v>43.136957872328097</v>
+      </c>
+      <c r="H80">
+        <v>-6.1165373024574896E-3</v>
+      </c>
+      <c r="I80" s="22"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81">
+        <v>6.7223707032820802E-3</v>
+      </c>
+      <c r="E81">
+        <v>1.4768872015169801</v>
+      </c>
+      <c r="F81">
+        <v>3.7342455804076899</v>
+      </c>
+      <c r="G81">
+        <v>8.0191130714056698</v>
+      </c>
+      <c r="H81">
+        <v>-3.3361756537648399</v>
+      </c>
+      <c r="I81" s="22"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>43398</v>
-      </c>
-      <c r="B82">
-        <v>154</v>
-      </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D82">
-        <v>6.05322966534186E-3</v>
-      </c>
-      <c r="E82">
-        <v>1.88817622693805</v>
+        <v>5.5386539191398599E-3</v>
+      </c>
+      <c r="E82" s="2">
+        <v>4.2151008389608497</v>
       </c>
       <c r="F82">
-        <v>4.5345716021200797</v>
+        <v>4.4419299518815496</v>
       </c>
       <c r="G82">
-        <v>9.4648998759248695</v>
+        <v>20.275467288436801</v>
       </c>
       <c r="H82">
-        <v>-0.25852503285369899</v>
-      </c>
-      <c r="I82" t="s">
-        <v>94</v>
-      </c>
+        <v>2.0683995791691099</v>
+      </c>
+      <c r="I82" s="22"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D83">
+        <v>5.5386539191398599E-3</v>
+      </c>
+      <c r="E83">
+        <v>1.4451225758309401</v>
+      </c>
+      <c r="F83">
+        <v>6.9646341282037199</v>
+      </c>
+      <c r="G83">
+        <v>4.6972574976468602</v>
+      </c>
+      <c r="H83">
+        <v>-3.3679402794508602</v>
+      </c>
+      <c r="I83" s="22"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>43398</v>
+      </c>
+      <c r="B84">
+        <v>154</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84">
         <v>6.05322966534186E-3</v>
       </c>
-      <c r="E83">
-        <v>2.2926471838902902</v>
-      </c>
-      <c r="F83">
-        <v>5.8273145314643999</v>
-      </c>
-      <c r="G83">
-        <v>6.7401128385186402</v>
-      </c>
-      <c r="H83">
-        <v>-2.52041567139152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C84" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84">
-        <v>5.3014564192564702E-3</v>
-      </c>
       <c r="E84">
-        <v>1.8812702780464301</v>
+        <v>1.88817622693805</v>
       </c>
       <c r="F84">
-        <v>3.37891165486923</v>
+        <v>4.5345716021200797</v>
       </c>
       <c r="G84">
-        <v>10.942205468918701</v>
+        <v>9.4648998759248695</v>
       </c>
       <c r="H84">
-        <v>-0.26543098174531699</v>
+        <v>-0.25852503285369899</v>
+      </c>
+      <c r="I84" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85">
+        <v>6.05322966534186E-3</v>
+      </c>
+      <c r="E85">
+        <v>2.2926471838902902</v>
+      </c>
+      <c r="F85">
+        <v>5.8273145314643999</v>
+      </c>
+      <c r="G85">
+        <v>6.7401128385186402</v>
+      </c>
+      <c r="H85">
+        <v>-2.52041567139152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86">
+        <v>5.3014564192564702E-3</v>
+      </c>
+      <c r="E86">
+        <v>1.8812702780464301</v>
+      </c>
+      <c r="F86">
+        <v>3.37891165486923</v>
+      </c>
+      <c r="G86">
+        <v>10.942205468918701</v>
+      </c>
+      <c r="H86">
+        <v>-0.26543098174531699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
         <v>34</v>
       </c>
-      <c r="D85">
+      <c r="D87">
         <v>5.3014564192564702E-3</v>
       </c>
-      <c r="E85">
+      <c r="E87">
         <v>3.3040239747320999</v>
       </c>
-      <c r="F85">
+      <c r="F87">
         <v>6.77711490653006</v>
       </c>
-      <c r="G85">
+      <c r="G87">
         <v>7.6874198379358001</v>
       </c>
-      <c r="H85">
+      <c r="H87">
         <v>-1.5090388805497199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I86" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I87" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I88" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="I60:I63"/>
+  <mergeCells count="36">
+    <mergeCell ref="I78:I83"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -2799,19 +2885,12 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="I60:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2963,7 +3042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB077578-BE78-4B93-9E5A-D84D4BCC6A7F}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{630DCD0C-0EB8-4674-909D-0591D557B7B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C53DB7E1-308C-4538-9F16-8D2CE1CDA98B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="2" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
   <si>
     <t>Experiment</t>
   </si>
@@ -312,6 +312,18 @@
   </si>
   <si>
     <t>3 layer conv net</t>
+  </si>
+  <si>
+    <t>Patch Window: 256, Patch Hop: 128, Learning Rate: 0.0002, Data Set: CHiME</t>
+  </si>
+  <si>
+    <t>U-Net, lr = 0.0002</t>
+  </si>
+  <si>
+    <t>U-Net, lr = 0.0001</t>
+  </si>
+  <si>
+    <t>Running on africa</t>
   </si>
 </sst>
 </file>
@@ -867,11 +879,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2853,23 +2865,42 @@
         <v>92</v>
       </c>
     </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>155</v>
+      </c>
+      <c r="C94" t="s">
+        <v>98</v>
+      </c>
+      <c r="I94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>156</v>
+      </c>
+      <c r="I98" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="I78:I83"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -2885,6 +2916,21 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I78:I83"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
     <mergeCell ref="I64:I65"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="A60:A61"/>
@@ -3042,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB077578-BE78-4B93-9E5A-D84D4BCC6A7F}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C53DB7E1-308C-4538-9F16-8D2CE1CDA98B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F03559E0-4A68-4F70-8A74-210A52CA2F50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="102">
   <si>
     <t>Experiment</t>
   </si>
@@ -323,7 +323,16 @@
     <t>U-Net, lr = 0.0001</t>
   </si>
   <si>
-    <t>Running on africa</t>
+    <t>U-Net, lr = 0.0001, beta1=0.9</t>
+  </si>
+  <si>
+    <t>U-Net, lr = 0.0001, beta1=0.2</t>
+  </si>
+  <si>
+    <t>metrics running on America</t>
+  </si>
+  <si>
+    <t>runnig on Europe</t>
   </si>
 </sst>
 </file>
@@ -879,20 +888,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -921,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>36</v>
       </c>
@@ -947,7 +956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>37</v>
       </c>
@@ -973,7 +982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>37</v>
       </c>
@@ -996,7 +1005,7 @@
         <v>4.5625503126689404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>40</v>
       </c>
@@ -1019,7 +1028,7 @@
         <v>1.01601424866862E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>40</v>
       </c>
@@ -1042,7 +1051,7 @@
         <v>5.2170367078359199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>48</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>49</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
@@ -1084,7 +1093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
       <c r="C10">
         <v>1</v>
@@ -1105,7 +1114,7 @@
         <v>9.9428347412899996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>43367</v>
       </c>
@@ -1134,7 +1143,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="22"/>
       <c r="C12">
@@ -1159,7 +1168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>43368</v>
       </c>
@@ -1188,7 +1197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="22"/>
       <c r="C14" t="s">
@@ -1211,7 +1220,7 @@
       </c>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>43369</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="22"/>
       <c r="C16" t="s">
@@ -1263,7 +1272,7 @@
       </c>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="22"/>
       <c r="C17" s="2" t="s">
@@ -1286,7 +1295,7 @@
       </c>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="22"/>
       <c r="C18" t="s">
@@ -1309,7 +1318,7 @@
       </c>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>43370</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="22"/>
       <c r="C20" t="s">
@@ -1361,7 +1370,7 @@
       </c>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>43373</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="22"/>
       <c r="C22" t="s">
@@ -1413,7 +1422,7 @@
       </c>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="22"/>
       <c r="C23" t="s">
@@ -1436,7 +1445,7 @@
       </c>
       <c r="I23" s="22"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="22"/>
       <c r="C24" t="s">
@@ -1459,7 +1468,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43373</v>
       </c>
@@ -1473,7 +1482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43373</v>
       </c>
@@ -1484,7 +1493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43374</v>
       </c>
@@ -1495,7 +1504,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43374</v>
       </c>
@@ -1506,7 +1515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>43374</v>
       </c>
@@ -1535,7 +1544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="22"/>
       <c r="C30" t="s">
@@ -1558,7 +1567,7 @@
       </c>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="22"/>
       <c r="C31" t="s">
@@ -1581,7 +1590,7 @@
       </c>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="22"/>
       <c r="C32" t="s">
@@ -1604,7 +1613,7 @@
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>43374</v>
       </c>
@@ -1633,7 +1642,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="22"/>
       <c r="C34" t="s">
@@ -1656,7 +1665,7 @@
       </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>43375</v>
       </c>
@@ -1685,7 +1694,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="22"/>
       <c r="C36" t="s">
@@ -1708,7 +1717,7 @@
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="22"/>
       <c r="C37" t="s">
@@ -1731,7 +1740,7 @@
       </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="22"/>
       <c r="C38" t="s">
@@ -1754,7 +1763,7 @@
       </c>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>43375</v>
       </c>
@@ -1783,7 +1792,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="22"/>
       <c r="C40" t="s">
@@ -1806,7 +1815,7 @@
       </c>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="22"/>
       <c r="C41" t="s">
@@ -1829,7 +1838,7 @@
       </c>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="22"/>
       <c r="C42" t="s">
@@ -1852,7 +1861,7 @@
       </c>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43376</v>
       </c>
@@ -1869,7 +1878,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43376</v>
       </c>
@@ -1886,7 +1895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43376</v>
       </c>
@@ -1903,7 +1912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43377</v>
       </c>
@@ -1932,7 +1941,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" t="s">
         <v>32</v>
@@ -1953,7 +1962,7 @@
         <v>0.619751518533326</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43377</v>
       </c>
@@ -1967,7 +1976,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43377</v>
       </c>
@@ -1996,7 +2005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
         <v>32</v>
@@ -2017,7 +2026,7 @@
         <v>0.69790060387249997</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51">
         <v>145</v>
@@ -2044,7 +2053,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="C52" t="s">
         <v>32</v>
@@ -2066,7 +2075,7 @@
       </c>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="C53" t="s">
         <v>33</v>
@@ -2088,7 +2097,7 @@
       </c>
       <c r="I53" s="22"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="C54" t="s">
         <v>34</v>
@@ -2110,7 +2119,7 @@
       </c>
       <c r="I54" s="22"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55">
         <v>146</v>
@@ -2135,7 +2144,7 @@
       </c>
       <c r="I55" s="22"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="C56" t="s">
         <v>32</v>
@@ -2157,7 +2166,7 @@
       </c>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="C57" t="s">
         <v>33</v>
@@ -2179,7 +2188,7 @@
       </c>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="C58" t="s">
         <v>34</v>
@@ -2201,7 +2210,7 @@
       </c>
       <c r="I58" s="22"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>70</v>
       </c>
@@ -2216,7 +2225,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>43377</v>
       </c>
@@ -2245,7 +2254,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="22"/>
       <c r="C61" t="s">
@@ -2268,7 +2277,7 @@
       </c>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>43378</v>
       </c>
@@ -2295,7 +2304,7 @@
       </c>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="22"/>
       <c r="C63" t="s">
@@ -2318,7 +2327,7 @@
       </c>
       <c r="I63" s="22"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" t="s">
@@ -2343,7 +2352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" t="s">
@@ -2366,7 +2375,7 @@
       </c>
       <c r="I65" s="22"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>77</v>
       </c>
@@ -2381,7 +2390,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43388</v>
       </c>
@@ -2413,7 +2422,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -2433,7 +2442,7 @@
         <v>-3.28339441892745</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>33</v>
       </c>
@@ -2453,7 +2462,7 @@
         <v>4.7479823942955202</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>34</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>-3.20942124047644</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>140</v>
       </c>
@@ -2499,7 +2508,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>32</v>
       </c>
@@ -2519,7 +2528,7 @@
         <v>-3.2974368923159001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43390</v>
       </c>
@@ -2551,7 +2560,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>32</v>
       </c>
@@ -2572,7 +2581,7 @@
       </c>
       <c r="I75" s="22"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>33</v>
       </c>
@@ -2593,7 +2602,7 @@
       </c>
       <c r="I76" s="22"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>34</v>
       </c>
@@ -2614,7 +2623,7 @@
       </c>
       <c r="I77" s="22"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43391</v>
       </c>
@@ -2643,7 +2652,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>32</v>
       </c>
@@ -2664,7 +2673,7 @@
       </c>
       <c r="I79" s="22"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>149</v>
       </c>
@@ -2688,7 +2697,7 @@
       </c>
       <c r="I80" s="22"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>32</v>
       </c>
@@ -2709,7 +2718,7 @@
       </c>
       <c r="I81" s="22"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>33</v>
       </c>
@@ -2730,7 +2739,7 @@
       </c>
       <c r="I82" s="22"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>34</v>
       </c>
@@ -2751,7 +2760,7 @@
       </c>
       <c r="I83" s="22"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43398</v>
       </c>
@@ -2780,7 +2789,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>32</v>
       </c>
@@ -2800,7 +2809,7 @@
         <v>-2.52041567139152</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>33</v>
       </c>
@@ -2820,7 +2829,7 @@
         <v>-0.26543098174531699</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>34</v>
       </c>
@@ -2840,32 +2849,32 @@
         <v>-1.5090388805497199</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I89" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I90" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I91" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>77</v>
       </c>
@@ -2880,23 +2889,208 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>155</v>
       </c>
       <c r="C94" t="s">
-        <v>98</v>
+        <v>31</v>
+      </c>
+      <c r="D94">
+        <v>5.4534942448998796E-3</v>
+      </c>
+      <c r="E94">
+        <v>1.9960830390618201</v>
+      </c>
+      <c r="F94">
+        <v>1.9968169322385101</v>
+      </c>
+      <c r="G94">
+        <v>43.977267703527602</v>
+      </c>
+      <c r="H94">
+        <v>1.8287841322415802E-2</v>
       </c>
       <c r="I94" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95">
+        <v>5.4534942448998796E-3</v>
+      </c>
+      <c r="E95">
+        <v>2.1075586495681198</v>
+      </c>
+      <c r="F95">
+        <v>4.5499621668495402</v>
+      </c>
+      <c r="G95">
+        <v>7.8842667651380101</v>
+      </c>
+      <c r="H95">
+        <v>-4.5263732930643998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96">
+        <v>4.5561491574447298E-3</v>
+      </c>
+      <c r="E96" s="2">
+        <v>3.9997992421832098</v>
+      </c>
+      <c r="F96">
+        <v>5.2045851451128904</v>
+      </c>
+      <c r="G96">
+        <v>14.057824032283699</v>
+      </c>
+      <c r="H96">
+        <v>2.0220040444438099</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97">
+        <v>4.5561491574447298E-3</v>
+      </c>
+      <c r="E97">
+        <v>1.1073526985659301</v>
+      </c>
+      <c r="F97">
+        <v>5.1421673317399001</v>
+      </c>
+      <c r="G97">
+        <v>5.4644714693410199</v>
+      </c>
+      <c r="H97">
+        <v>-5.52657924406659</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>156</v>
       </c>
+      <c r="C98" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98">
+        <v>5.4537314402226004E-3</v>
+      </c>
+      <c r="E98">
+        <v>2.0010278536616499</v>
+      </c>
+      <c r="F98">
+        <v>2.0017967862846899</v>
+      </c>
+      <c r="G98">
+        <v>43.723798827267998</v>
+      </c>
+      <c r="H98">
+        <v>2.32326559222522E-2</v>
+      </c>
       <c r="I98" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99">
+        <v>5.4537314402226004E-3</v>
+      </c>
+      <c r="E99">
+        <v>2.3229784394523598</v>
+      </c>
+      <c r="F99">
+        <v>4.8169210610071396</v>
+      </c>
+      <c r="G99">
+        <v>7.9900397384956499</v>
+      </c>
+      <c r="H99">
+        <v>-4.3109535031801798</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100">
+        <v>4.5791103021026796E-3</v>
+      </c>
+      <c r="E100" s="2">
+        <v>4.0197355065628901</v>
+      </c>
+      <c r="F100">
+        <v>5.2540296296428499</v>
+      </c>
+      <c r="G100">
+        <v>13.9563272807184</v>
+      </c>
+      <c r="H100">
+        <v>2.0419403088235</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101">
+        <v>4.5791103021026796E-3</v>
+      </c>
+      <c r="E101">
+        <v>1.2218086352711399</v>
+      </c>
+      <c r="F101">
+        <v>5.2284443262420899</v>
+      </c>
+      <c r="G101">
+        <v>5.5557811882385204</v>
+      </c>
+      <c r="H101">
+        <v>-5.4121233073613801</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>157</v>
+      </c>
+      <c r="D102" t="s">
+        <v>100</v>
+      </c>
+      <c r="I102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>4.568E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>158</v>
+      </c>
+      <c r="D106" t="s">
+        <v>101</v>
+      </c>
+      <c r="I106" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>4.5900000000000003E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2951,19 +3145,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>86</v>
       </c>
@@ -2986,7 +3180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>74</v>
       </c>
@@ -3009,7 +3203,7 @@
         <v>-6.32791094461188E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="9" t="s">
         <v>84</v>
@@ -3030,7 +3224,7 @@
         <v>4.7624871892681799</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>72</v>
       </c>
@@ -3053,7 +3247,7 @@
         <v>-1.00648635425107E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="25"/>
       <c r="C6" s="17" t="s">
         <v>84</v>
@@ -3092,18 +3286,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L2" s="3" t="s">
         <v>88</v>
       </c>
@@ -3117,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3131,7 +3325,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3151,7 +3345,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3162,7 +3356,7 @@
         <v>14987</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3176,62 +3370,62 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F03559E0-4A68-4F70-8A74-210A52CA2F50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53E740C9-6580-46D0-8A9D-34672F00BBFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
   <si>
     <t>Experiment</t>
   </si>
@@ -329,10 +329,28 @@
     <t>U-Net, lr = 0.0001, beta1=0.2</t>
   </si>
   <si>
-    <t>metrics running on America</t>
-  </si>
-  <si>
-    <t>runnig on Europe</t>
+    <t>U-Net mag_phase, lr=0.0001, beta1=0.5 or 0.2?</t>
+  </si>
+  <si>
+    <t>U-Net mag_phase_diff, lr=0.0001, beta1=0.5 ready for test</t>
+  </si>
+  <si>
+    <t>U-Net real_imag, lr=0.0001, beta1=0.5 ready for test</t>
+  </si>
+  <si>
+    <t>Running on Asia</t>
+  </si>
+  <si>
+    <t>Metrics running on America</t>
+  </si>
+  <si>
+    <t>Queued on Asia</t>
+  </si>
+  <si>
+    <t>Metrics queued on America</t>
+  </si>
+  <si>
+    <t>Metrics running on Lewes, also queued on America</t>
   </si>
 </sst>
 </file>
@@ -562,10 +580,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -888,11 +906,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1086,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -1094,7 +1112,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -1115,10 +1133,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>43367</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="23">
         <v>50</v>
       </c>
       <c r="C11">
@@ -1144,8 +1162,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -1169,10 +1187,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>43368</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="23">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -1193,13 +1211,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -1218,13 +1236,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>43369</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="23">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1245,13 +1263,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1270,11 +1288,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1293,11 +1311,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1316,13 +1334,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>43370</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="23">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1343,13 +1361,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1368,13 +1386,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="22"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>43373</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="23">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1395,13 +1413,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1420,11 +1438,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="22"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1443,11 +1461,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="22"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1466,7 +1484,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="22"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1516,10 +1534,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>43374</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="23">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -1540,13 +1558,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1565,11 +1583,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="22"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1588,11 +1606,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="22"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -1611,13 +1629,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="22"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>43374</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="23">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -1638,13 +1656,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -1663,13 +1681,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="22"/>
+      <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>43375</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="23">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -1690,13 +1708,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -1715,11 +1733,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="22"/>
+      <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -1738,11 +1756,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="22"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -1761,13 +1779,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="22"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>43375</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="23">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -1788,13 +1806,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="22"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -1813,11 +1831,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="22"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -1836,11 +1854,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="22"/>
+      <c r="I41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -1859,7 +1877,7 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="22"/>
+      <c r="I42" s="23"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -2049,7 +2067,7 @@
       <c r="H51">
         <v>-0.31863876639355398</v>
       </c>
-      <c r="I51" s="22" t="s">
+      <c r="I51" s="23" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2073,7 +2091,7 @@
       <c r="H52">
         <v>2.67662389686584</v>
       </c>
-      <c r="I52" s="22"/>
+      <c r="I52" s="23"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -2095,7 +2113,7 @@
       <c r="H53">
         <v>0.95464630209159695</v>
       </c>
-      <c r="I53" s="22"/>
+      <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
@@ -2117,7 +2135,7 @@
       <c r="H54">
         <v>4.8512619602994098</v>
       </c>
-      <c r="I54" s="22"/>
+      <c r="I54" s="23"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
@@ -2142,7 +2160,7 @@
       <c r="H55">
         <v>-0.56767955034740303</v>
       </c>
-      <c r="I55" s="22"/>
+      <c r="I55" s="23"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -2164,7 +2182,7 @@
       <c r="H56">
         <v>1.8761231724104801</v>
       </c>
-      <c r="I56" s="22"/>
+      <c r="I56" s="23"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -2186,7 +2204,7 @@
       <c r="H57">
         <v>0.76717154068581295</v>
       </c>
-      <c r="I57" s="22"/>
+      <c r="I57" s="23"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
@@ -2208,7 +2226,7 @@
       <c r="H58">
         <v>3.8964804606254</v>
       </c>
-      <c r="I58" s="22"/>
+      <c r="I58" s="23"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
@@ -2226,10 +2244,10 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
+      <c r="A60" s="22">
         <v>43377</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60" s="23">
         <v>85</v>
       </c>
       <c r="C60" t="s">
@@ -2250,13 +2268,13 @@
       <c r="H60">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I60" s="22" t="s">
+      <c r="I60" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="22"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
       <c r="C61" t="s">
         <v>32</v>
       </c>
@@ -2275,13 +2293,13 @@
       <c r="H61">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I61" s="22"/>
+      <c r="I61" s="23"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="23">
+      <c r="A62" s="22">
         <v>43378</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62" s="23">
         <v>89</v>
       </c>
       <c r="C62" t="s">
@@ -2302,11 +2320,11 @@
       <c r="H62">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I62" s="22"/>
+      <c r="I62" s="23"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -2325,7 +2343,7 @@
       <c r="H63">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I63" s="22"/>
+      <c r="I63" s="23"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
@@ -2348,7 +2366,7 @@
       <c r="H64">
         <v>4.5462062693628003</v>
       </c>
-      <c r="I64" s="22" t="s">
+      <c r="I64" s="23" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2373,7 +2391,7 @@
       <c r="H65">
         <v>-3.4906857233533901</v>
       </c>
-      <c r="I65" s="22"/>
+      <c r="I65" s="23"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -2553,7 +2571,7 @@
       <c r="H74">
         <v>-1.00648635425107E-2</v>
       </c>
-      <c r="I74" s="22" t="s">
+      <c r="I74" s="23" t="s">
         <v>72</v>
       </c>
       <c r="J74" t="s">
@@ -2579,7 +2597,7 @@
       <c r="H75">
         <v>2.3179146551025099E-3</v>
       </c>
-      <c r="I75" s="22"/>
+      <c r="I75" s="23"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
@@ -2600,7 +2618,7 @@
       <c r="H76">
         <v>2.2201058587415501</v>
       </c>
-      <c r="I76" s="22"/>
+      <c r="I76" s="23"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
@@ -2621,7 +2639,7 @@
       <c r="H77">
         <v>-3.9812518800141699</v>
       </c>
-      <c r="I77" s="22"/>
+      <c r="I77" s="23"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -2648,7 +2666,7 @@
       <c r="H78">
         <v>-5.2635717372245903E-3</v>
       </c>
-      <c r="I78" s="22" t="s">
+      <c r="I78" s="23" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2671,7 +2689,7 @@
       <c r="H79">
         <v>-3.0981829250898101</v>
       </c>
-      <c r="I79" s="22"/>
+      <c r="I79" s="23"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80">
@@ -2695,7 +2713,7 @@
       <c r="H80">
         <v>-6.1165373024574896E-3</v>
       </c>
-      <c r="I80" s="22"/>
+      <c r="I80" s="23"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
@@ -2716,7 +2734,7 @@
       <c r="H81">
         <v>-3.3361756537648399</v>
       </c>
-      <c r="I81" s="22"/>
+      <c r="I81" s="23"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
@@ -2737,7 +2755,7 @@
       <c r="H82">
         <v>2.0683995791691099</v>
       </c>
-      <c r="I82" s="22"/>
+      <c r="I82" s="23"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
@@ -2758,7 +2776,7 @@
       <c r="H83">
         <v>-3.3679402794508602</v>
       </c>
-      <c r="I83" s="22"/>
+      <c r="I83" s="23"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -3065,16 +3083,86 @@
       <c r="B102">
         <v>157</v>
       </c>
-      <c r="D102" t="s">
-        <v>100</v>
+      <c r="C102" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102">
+        <v>5.4535158730756698E-3</v>
+      </c>
+      <c r="E102">
+        <v>1.99857691360922</v>
+      </c>
+      <c r="F102">
+        <v>1.9993308350979</v>
+      </c>
+      <c r="G102">
+        <v>43.835032622734502</v>
+      </c>
+      <c r="H102">
+        <v>2.0781715869809401E-2</v>
       </c>
       <c r="I102" t="s">
         <v>98</v>
       </c>
     </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103">
+        <v>5.4535158730756698E-3</v>
+      </c>
+      <c r="E103">
+        <v>2.2572498193078001</v>
+      </c>
+      <c r="F103">
+        <v>4.7275401442162899</v>
+      </c>
+      <c r="G103">
+        <v>7.9691886212037897</v>
+      </c>
+      <c r="H103">
+        <v>-4.3766821233247404</v>
+      </c>
+    </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
       <c r="D104">
-        <v>4.568E-3</v>
+        <v>4.5686127904515997E-3</v>
+      </c>
+      <c r="E104" s="2">
+        <v>3.9795621008988999</v>
+      </c>
+      <c r="F104">
+        <v>5.1333340092555302</v>
+      </c>
+      <c r="G104">
+        <v>14.177337121752799</v>
+      </c>
+      <c r="H104">
+        <v>2.0017669031595</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105">
+        <v>4.5686127904515997E-3</v>
+      </c>
+      <c r="E105">
+        <v>1.03025253162641</v>
+      </c>
+      <c r="F105">
+        <v>5.1549626799447799</v>
+      </c>
+      <c r="G105">
+        <v>5.3472821462957896</v>
+      </c>
+      <c r="H105">
+        <v>-5.6036794110061203</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -3082,19 +3170,73 @@
         <v>158</v>
       </c>
       <c r="D106" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I106" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D108">
-        <v>4.5900000000000003E-3</v>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>160</v>
+      </c>
+      <c r="D110" t="s">
+        <v>107</v>
+      </c>
+      <c r="I110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>162</v>
+      </c>
+      <c r="D112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>163</v>
+      </c>
+      <c r="D114" t="s">
+        <v>103</v>
+      </c>
+      <c r="I114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>105</v>
+      </c>
+      <c r="I118" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="I78:I83"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -3110,27 +3252,6 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I78:I83"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="I60:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53E740C9-6580-46D0-8A9D-34672F00BBFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AB624D5C-9F95-4FF8-872A-B365F84E03D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
   <si>
     <t>Experiment</t>
   </si>
@@ -338,19 +338,10 @@
     <t>U-Net real_imag, lr=0.0001, beta1=0.5 ready for test</t>
   </si>
   <si>
-    <t>Running on Asia</t>
-  </si>
-  <si>
-    <t>Metrics running on America</t>
-  </si>
-  <si>
-    <t>Queued on Asia</t>
-  </si>
-  <si>
     <t>Metrics queued on America</t>
   </si>
   <si>
-    <t>Metrics running on Lewes, also queued on America</t>
+    <t>Metrics running on Asia</t>
   </si>
 </sst>
 </file>
@@ -553,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -592,6 +583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,8 +901,8 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,7 +3162,7 @@
         <v>158</v>
       </c>
       <c r="D106" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I106" t="s">
         <v>99</v>
@@ -3180,19 +3172,89 @@
       <c r="B110">
         <v>160</v>
       </c>
-      <c r="D110" t="s">
-        <v>107</v>
+      <c r="C110" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="26">
+        <v>2.53152680670609E-5</v>
+      </c>
+      <c r="E110">
+        <v>0.71419857321948499</v>
+      </c>
+      <c r="F110">
+        <v>1.67115012943573</v>
+      </c>
+      <c r="G110">
+        <v>11.775233499556901</v>
+      </c>
+      <c r="H110">
+        <v>-1.2635966245199199</v>
       </c>
       <c r="I110" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" s="26">
+        <v>2.53152680670609E-5</v>
+      </c>
+      <c r="E111">
+        <v>-0.91915203475332896</v>
+      </c>
+      <c r="F111">
+        <v>10.1451261751948</v>
+      </c>
+      <c r="G111">
+        <v>0.238921914600358</v>
+      </c>
+      <c r="H111">
+        <v>-7.5530839773858398</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>162</v>
       </c>
-      <c r="D112" t="s">
-        <v>104</v>
+      <c r="C112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" s="26">
+        <v>3.1136655490207301E-5</v>
+      </c>
+      <c r="E112">
+        <v>-2.1171230449749299</v>
+      </c>
+      <c r="F112">
+        <v>-0.481982437192575</v>
+      </c>
+      <c r="G112">
+        <v>7.4396192492035604</v>
+      </c>
+      <c r="H112">
+        <v>-4.09491824271434</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" s="26">
+        <v>3.1136655490207301E-5</v>
+      </c>
+      <c r="E113">
+        <v>3.1062498651599899</v>
+      </c>
+      <c r="F113">
+        <v>6.67488125518988</v>
+      </c>
+      <c r="G113">
+        <v>6.9842637882150198</v>
+      </c>
+      <c r="H113">
+        <v>-3.5276820774725599</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
@@ -3200,7 +3262,7 @@
         <v>163</v>
       </c>
       <c r="D114" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I114" t="s">
         <v>101</v>
@@ -3208,7 +3270,7 @@
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
         <v>102</v>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AB624D5C-9F95-4FF8-872A-B365F84E03D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6E6499C3-EBF5-430C-A148-3206CBB92EBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="109">
   <si>
     <t>Experiment</t>
   </si>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>Metrics running on Asia</t>
+  </si>
+  <si>
+    <t>New CHiME Experiments:</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>Baseline Statistics</t>
   </si>
 </sst>
 </file>
@@ -571,10 +583,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -583,7 +596,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,15 +910,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="81.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1125,7 +1138,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="24">
         <v>43367</v>
       </c>
       <c r="B11" s="23">
@@ -1154,7 +1167,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="23"/>
       <c r="C12">
         <v>0</v>
@@ -1179,7 +1192,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="24">
         <v>43368</v>
       </c>
       <c r="B13" s="23">
@@ -1208,7 +1221,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="23"/>
       <c r="C14" t="s">
         <v>32</v>
@@ -1231,7 +1244,7 @@
       <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="24">
         <v>43369</v>
       </c>
       <c r="B15" s="23">
@@ -1260,7 +1273,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="23"/>
       <c r="C16" t="s">
         <v>32</v>
@@ -1283,7 +1296,7 @@
       <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -1306,7 +1319,7 @@
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="23"/>
       <c r="C18" t="s">
         <v>34</v>
@@ -1329,7 +1342,7 @@
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="24">
         <v>43370</v>
       </c>
       <c r="B19" s="23">
@@ -1358,7 +1371,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="23"/>
       <c r="C20" t="s">
         <v>32</v>
@@ -1381,7 +1394,7 @@
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="24">
         <v>43373</v>
       </c>
       <c r="B21" s="23">
@@ -1410,7 +1423,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="23"/>
       <c r="C22" t="s">
         <v>32</v>
@@ -1433,7 +1446,7 @@
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="23"/>
       <c r="C23" t="s">
         <v>33</v>
@@ -1456,7 +1469,7 @@
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="23"/>
       <c r="C24" t="s">
         <v>34</v>
@@ -1526,7 +1539,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+      <c r="A29" s="24">
         <v>43374</v>
       </c>
       <c r="B29" s="23">
@@ -1555,7 +1568,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="23"/>
       <c r="C30" t="s">
         <v>32</v>
@@ -1578,7 +1591,7 @@
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="23"/>
       <c r="C31" t="s">
         <v>33</v>
@@ -1601,7 +1614,7 @@
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="23"/>
       <c r="C32" t="s">
         <v>34</v>
@@ -1624,7 +1637,7 @@
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="A33" s="24">
         <v>43374</v>
       </c>
       <c r="B33" s="23">
@@ -1653,7 +1666,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="23"/>
       <c r="C34" t="s">
         <v>32</v>
@@ -1676,7 +1689,7 @@
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="A35" s="24">
         <v>43375</v>
       </c>
       <c r="B35" s="23">
@@ -1705,7 +1718,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="23"/>
       <c r="C36" t="s">
         <v>32</v>
@@ -1728,7 +1741,7 @@
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="23"/>
       <c r="C37" t="s">
         <v>33</v>
@@ -1751,7 +1764,7 @@
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="23"/>
       <c r="C38" t="s">
         <v>34</v>
@@ -1774,7 +1787,7 @@
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
+      <c r="A39" s="24">
         <v>43375</v>
       </c>
       <c r="B39" s="23">
@@ -1803,7 +1816,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="23"/>
       <c r="C40" t="s">
         <v>32</v>
@@ -1826,7 +1839,7 @@
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="23"/>
       <c r="C41" t="s">
         <v>33</v>
@@ -1849,7 +1862,7 @@
       <c r="I41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="23"/>
       <c r="C42" t="s">
         <v>34</v>
@@ -2236,7 +2249,7 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
+      <c r="A60" s="24">
         <v>43377</v>
       </c>
       <c r="B60" s="23">
@@ -2265,7 +2278,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="23"/>
       <c r="C61" t="s">
         <v>32</v>
@@ -2288,7 +2301,7 @@
       <c r="I61" s="23"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
+      <c r="A62" s="24">
         <v>43378</v>
       </c>
       <c r="B62" s="23">
@@ -2315,7 +2328,7 @@
       <c r="I62" s="23"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="23"/>
       <c r="C63" t="s">
         <v>32</v>
@@ -3175,7 +3188,7 @@
       <c r="C110" t="s">
         <v>31</v>
       </c>
-      <c r="D110" s="26">
+      <c r="D110" s="22">
         <v>2.53152680670609E-5</v>
       </c>
       <c r="E110">
@@ -3198,7 +3211,7 @@
       <c r="C111" t="s">
         <v>32</v>
       </c>
-      <c r="D111" s="26">
+      <c r="D111" s="22">
         <v>2.53152680670609E-5</v>
       </c>
       <c r="E111">
@@ -3221,7 +3234,7 @@
       <c r="C112" t="s">
         <v>31</v>
       </c>
-      <c r="D112" s="26">
+      <c r="D112" s="22">
         <v>3.1136655490207301E-5</v>
       </c>
       <c r="E112">
@@ -3237,11 +3250,11 @@
         <v>-4.09491824271434</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>32</v>
       </c>
-      <c r="D113" s="26">
+      <c r="D113" s="22">
         <v>3.1136655490207301E-5</v>
       </c>
       <c r="E113">
@@ -3257,7 +3270,7 @@
         <v>-3.5276820774725599</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>163</v>
       </c>
@@ -3268,7 +3281,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>48</v>
       </c>
@@ -3276,8 +3289,121 @@
         <v>102</v>
       </c>
     </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>106</v>
+      </c>
+      <c r="E120">
+        <v>1.96897126794523</v>
+      </c>
+      <c r="F120">
+        <v>3.4602999071115099</v>
+      </c>
+      <c r="G120">
+        <v>14.6053919825485</v>
+      </c>
+      <c r="I120" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>107</v>
+      </c>
+      <c r="E121">
+        <v>-3.39822158471689</v>
+      </c>
+      <c r="F121">
+        <v>-2.7038786284632201</v>
+      </c>
+      <c r="G121">
+        <v>14.6053919825485</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>169</v>
+      </c>
+      <c r="C122" t="s">
+        <v>31</v>
+      </c>
+      <c r="D122">
+        <v>2.5172597916725101E-3</v>
+      </c>
+      <c r="E122">
+        <v>11.812966277372</v>
+      </c>
+      <c r="F122">
+        <v>17.191494721178199</v>
+      </c>
+      <c r="G122">
+        <v>13.6182460783909</v>
+      </c>
+      <c r="H122">
+        <v>8.1368781707219107</v>
+      </c>
+      <c r="I122" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123">
+        <v>2.5172597916725101E-3</v>
+      </c>
+      <c r="E123">
+        <v>3.5473922089785801</v>
+      </c>
+      <c r="F123">
+        <v>6.9903181195355097</v>
+      </c>
+      <c r="G123">
+        <v>8.8429177681452806</v>
+      </c>
+      <c r="H123">
+        <v>6.4691274653523996</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
     <mergeCell ref="I78:I83"/>
     <mergeCell ref="I74:I77"/>
     <mergeCell ref="I51:I58"/>
@@ -3293,27 +3419,6 @@
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="I60:I63"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3322,20 +3427,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF23902-3816-4B4E-83CE-581E9B6C3F52}">
-  <dimension ref="B1:H6"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3364,7 +3466,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -3387,7 +3489,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="9" t="s">
         <v>84</v>
       </c>
@@ -3408,7 +3510,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -3431,7 +3533,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="17" t="s">
         <v>84</v>
       </c>
@@ -3449,6 +3551,40 @@
       </c>
       <c r="H6" s="21">
         <v>2.2201058587415501</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
+        <v>2.5172597916725101E-3</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11.812966277372</v>
+      </c>
+      <c r="E12" s="9">
+        <v>17.191494721178199</v>
+      </c>
+      <c r="F12" s="9">
+        <v>13.6182460783909</v>
+      </c>
+      <c r="G12" s="9">
+        <v>8.1368781707219107</v>
       </c>
     </row>
   </sheetData>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6E6499C3-EBF5-430C-A148-3206CBB92EBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{72A382A2-151D-4A8E-A89A-AC893ED7D086}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
   <si>
     <t>Experiment</t>
   </si>
@@ -584,10 +584,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -910,21 +910,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I129" sqref="I129"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>36</v>
       </c>
@@ -979,7 +979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>37</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>37</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>4.5625503126689404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>40</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>1.01601424866862E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>40</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>5.2170367078359199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>48</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>49</v>
       </c>
@@ -1090,8 +1090,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -1116,8 +1116,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="24"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -1137,11 +1137,11 @@
         <v>9.9428347412899996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
         <v>43367</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="24">
         <v>50</v>
       </c>
       <c r="C11">
@@ -1166,9 +1166,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -1191,11 +1191,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
         <v>43368</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="24">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -1216,13 +1216,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -1241,13 +1241,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
         <v>43369</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="24">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1268,13 +1268,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1293,11 +1293,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1316,11 +1316,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="23"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1339,13 +1339,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
         <v>43370</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="24">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1366,13 +1366,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="23"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1391,13 +1391,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
         <v>43373</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="24">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1418,13 +1418,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="23"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1443,11 +1443,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1466,11 +1466,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="23"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1489,9 +1489,9 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43373</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43373</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43374</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43374</v>
       </c>
@@ -1538,11 +1538,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
         <v>43374</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="24">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -1563,13 +1563,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="23"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1588,11 +1588,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="23"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="23"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1611,11 +1611,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="23"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -1634,13 +1634,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
         <v>43374</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="24">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -1661,13 +1661,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="23"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -1686,13 +1686,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
         <v>43375</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="24">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -1713,13 +1713,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="23"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -1738,11 +1738,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="23"/>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -1761,11 +1761,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="23"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -1784,13 +1784,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="23">
         <v>43375</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="24">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -1811,13 +1811,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="23" t="s">
+      <c r="I39" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="23"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -1836,11 +1836,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="23"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -1859,11 +1859,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="23"/>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -1882,9 +1882,9 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="23"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43376</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43376</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43376</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43377</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="C47" t="s">
         <v>32</v>
@@ -1985,7 +1985,7 @@
         <v>0.619751518533326</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43377</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43377</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
         <v>32</v>
@@ -2049,7 +2049,7 @@
         <v>0.69790060387249997</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51">
         <v>145</v>
@@ -2072,11 +2072,11 @@
       <c r="H51">
         <v>-0.31863876639355398</v>
       </c>
-      <c r="I51" s="23" t="s">
+      <c r="I51" s="24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="C52" t="s">
         <v>32</v>
@@ -2096,9 +2096,9 @@
       <c r="H52">
         <v>2.67662389686584</v>
       </c>
-      <c r="I52" s="23"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="C53" t="s">
         <v>33</v>
@@ -2118,9 +2118,9 @@
       <c r="H53">
         <v>0.95464630209159695</v>
       </c>
-      <c r="I53" s="23"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="24"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="C54" t="s">
         <v>34</v>
@@ -2140,9 +2140,9 @@
       <c r="H54">
         <v>4.8512619602994098</v>
       </c>
-      <c r="I54" s="23"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="24"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55">
         <v>146</v>
@@ -2165,9 +2165,9 @@
       <c r="H55">
         <v>-0.56767955034740303</v>
       </c>
-      <c r="I55" s="23"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="24"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="C56" t="s">
         <v>32</v>
@@ -2187,9 +2187,9 @@
       <c r="H56">
         <v>1.8761231724104801</v>
       </c>
-      <c r="I56" s="23"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="24"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="C57" t="s">
         <v>33</v>
@@ -2209,9 +2209,9 @@
       <c r="H57">
         <v>0.76717154068581295</v>
       </c>
-      <c r="I57" s="23"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="24"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="C58" t="s">
         <v>34</v>
@@ -2231,9 +2231,9 @@
       <c r="H58">
         <v>3.8964804606254</v>
       </c>
-      <c r="I58" s="23"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="24"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>70</v>
       </c>
@@ -2248,11 +2248,11 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="24">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="23">
         <v>43377</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="24">
         <v>85</v>
       </c>
       <c r="C60" t="s">
@@ -2273,13 +2273,13 @@
       <c r="H60">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I60" s="23" t="s">
+      <c r="I60" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="23"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
       <c r="C61" t="s">
         <v>32</v>
       </c>
@@ -2298,13 +2298,13 @@
       <c r="H61">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I61" s="23"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="24">
+      <c r="I61" s="24"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="23">
         <v>43378</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="24">
         <v>89</v>
       </c>
       <c r="C62" t="s">
@@ -2325,11 +2325,11 @@
       <c r="H62">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I62" s="23"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="23"/>
+      <c r="I62" s="24"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -2348,9 +2348,9 @@
       <c r="H63">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I63" s="23"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="24"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" t="s">
@@ -2371,11 +2371,11 @@
       <c r="H64">
         <v>4.5462062693628003</v>
       </c>
-      <c r="I64" s="23" t="s">
+      <c r="I64" s="24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" t="s">
@@ -2396,9 +2396,9 @@
       <c r="H65">
         <v>-3.4906857233533901</v>
       </c>
-      <c r="I65" s="23"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I65" s="24"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>77</v>
       </c>
@@ -2413,7 +2413,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43388</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>-3.28339441892745</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>33</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>4.7479823942955202</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>34</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>-3.20942124047644</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>140</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>32</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>-3.2974368923159001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43390</v>
       </c>
@@ -2576,14 +2576,14 @@
       <c r="H74">
         <v>-1.00648635425107E-2</v>
       </c>
-      <c r="I74" s="23" t="s">
+      <c r="I74" s="24" t="s">
         <v>72</v>
       </c>
       <c r="J74" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>32</v>
       </c>
@@ -2602,9 +2602,9 @@
       <c r="H75">
         <v>2.3179146551025099E-3</v>
       </c>
-      <c r="I75" s="23"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I75" s="24"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>33</v>
       </c>
@@ -2623,9 +2623,9 @@
       <c r="H76">
         <v>2.2201058587415501</v>
       </c>
-      <c r="I76" s="23"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I76" s="24"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>34</v>
       </c>
@@ -2644,9 +2644,9 @@
       <c r="H77">
         <v>-3.9812518800141699</v>
       </c>
-      <c r="I77" s="23"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I77" s="24"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43391</v>
       </c>
@@ -2671,11 +2671,11 @@
       <c r="H78">
         <v>-5.2635717372245903E-3</v>
       </c>
-      <c r="I78" s="23" t="s">
+      <c r="I78" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>32</v>
       </c>
@@ -2694,9 +2694,9 @@
       <c r="H79">
         <v>-3.0981829250898101</v>
       </c>
-      <c r="I79" s="23"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I79" s="24"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>149</v>
       </c>
@@ -2718,9 +2718,9 @@
       <c r="H80">
         <v>-6.1165373024574896E-3</v>
       </c>
-      <c r="I80" s="23"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I80" s="24"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>32</v>
       </c>
@@ -2739,9 +2739,9 @@
       <c r="H81">
         <v>-3.3361756537648399</v>
       </c>
-      <c r="I81" s="23"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I81" s="24"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>33</v>
       </c>
@@ -2760,9 +2760,9 @@
       <c r="H82">
         <v>2.0683995791691099</v>
       </c>
-      <c r="I82" s="23"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I82" s="24"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>34</v>
       </c>
@@ -2781,9 +2781,9 @@
       <c r="H83">
         <v>-3.3679402794508602</v>
       </c>
-      <c r="I83" s="23"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I83" s="24"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43398</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>32</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>-2.52041567139152</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>33</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>-0.26543098174531699</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>34</v>
       </c>
@@ -2872,32 +2872,32 @@
         <v>-1.5090388805497199</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I88" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I89" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I90" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I91" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>77</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>155</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>32</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>-4.5263732930643998</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>33</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>2.0220040444438099</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>34</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>-5.52657924406659</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>156</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>32</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>-4.3109535031801798</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>33</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>2.0419403088235</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>34</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>-5.4121233073613801</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>157</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>32</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>-4.3766821233247404</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>33</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>2.0017669031595</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>34</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>-5.6036794110061203</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>158</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>160</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>32</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>-7.5530839773858398</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>162</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>-4.09491824271434</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>32</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>-3.5276820774725599</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>163</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
         <v>48</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>105</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>106</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>107</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>14.6053919825485</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>169</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>32</v>
       </c>
@@ -3380,9 +3380,118 @@
       <c r="H123">
         <v>6.4691274653523996</v>
       </c>
+      <c r="J123">
+        <f>(E124-E122)/E122</f>
+        <v>2.1586844962739542E-2</v>
+      </c>
+      <c r="K123">
+        <f>(G124-G122)/G122</f>
+        <v>3.8546572870360826E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>31</v>
+      </c>
+      <c r="D124">
+        <v>1.2416653778368101E-3</v>
+      </c>
+      <c r="E124">
+        <v>12.0679709489517</v>
+      </c>
+      <c r="F124">
+        <v>16.795348497486899</v>
+      </c>
+      <c r="G124">
+        <v>14.1431827932181</v>
+      </c>
+      <c r="H124">
+        <v>8.3918828423015999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125">
+        <v>1.2416653778368101E-3</v>
+      </c>
+      <c r="E125">
+        <v>3.7975779219481001</v>
+      </c>
+      <c r="F125">
+        <v>7.2729909246688003</v>
+      </c>
+      <c r="G125">
+        <v>9.0864181974517493</v>
+      </c>
+      <c r="H125">
+        <v>6.7193131783218796</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>31</v>
+      </c>
+      <c r="D126">
+        <v>1.2367894384974099E-3</v>
+      </c>
+      <c r="E126">
+        <v>12.0501735388866</v>
+      </c>
+      <c r="F126">
+        <v>16.906721928754401</v>
+      </c>
+      <c r="G126">
+        <v>14.0762430723527</v>
+      </c>
+      <c r="H126">
+        <v>8.3740854322365994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>32</v>
+      </c>
+      <c r="D127">
+        <v>1.2367894384974099E-3</v>
+      </c>
+      <c r="E127">
+        <v>3.7166065608486401</v>
+      </c>
+      <c r="F127">
+        <v>7.1890833076520604</v>
+      </c>
+      <c r="G127">
+        <v>9.0303927558193102</v>
+      </c>
+      <c r="H127">
+        <v>6.63834181722246</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="I78:I83"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -3398,27 +3507,6 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I78:I83"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="I60:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3433,16 +3521,16 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>86</v>
       </c>
@@ -3465,7 +3553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>74</v>
       </c>
@@ -3488,7 +3576,7 @@
         <v>-6.32791094461188E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="25"/>
       <c r="C4" s="9" t="s">
         <v>84</v>
@@ -3509,7 +3597,7 @@
         <v>4.7624871892681799</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>72</v>
       </c>
@@ -3532,7 +3620,7 @@
         <v>-1.00648635425107E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="26"/>
       <c r="C6" s="17" t="s">
         <v>84</v>
@@ -3553,7 +3641,7 @@
         <v>2.2201058587415501</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>2</v>
       </c>
@@ -3570,7 +3658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9">
         <v>2.5172597916725101E-3</v>
       </c>
@@ -3605,18 +3693,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L2" s="3" t="s">
         <v>88</v>
       </c>
@@ -3630,7 +3718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3644,7 +3732,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3664,7 +3752,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3675,7 +3763,7 @@
         <v>14987</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3689,62 +3777,62 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{72A382A2-151D-4A8E-A89A-AC893ED7D086}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82F91E93-B7E3-4419-812E-11372F45B682}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="130">
   <si>
     <t>Experiment</t>
   </si>
@@ -354,17 +355,81 @@
   </si>
   <si>
     <t>Baseline Statistics</t>
+  </si>
+  <si>
+    <t>Unprocessed dataset</t>
+  </si>
+  <si>
+    <t>Baseline U-Net</t>
+  </si>
+  <si>
+    <t>Magnitude &amp; Phase</t>
+  </si>
+  <si>
+    <t>Magnitude &amp; Phase Difference</t>
+  </si>
+  <si>
+    <t>Real &amp; Imaginary</t>
+  </si>
+  <si>
+    <t>Magnitude, Real &amp; Imaginary</t>
+  </si>
+  <si>
+    <t>U-Net with mag_phase</t>
+  </si>
+  <si>
+    <t>U-Net with mag_phase_diff</t>
+  </si>
+  <si>
+    <t>Improvement Over Baseline</t>
+  </si>
+  <si>
+    <t>SDR</t>
+  </si>
+  <si>
+    <t>SIR</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>NSDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>Separation Metrics</t>
+  </si>
+  <si>
+    <t>Loss*</t>
+  </si>
+  <si>
+    <t>* Losses are not directly comparable between models as each model uses a different data format and loss function</t>
+  </si>
+  <si>
+    <t>174 &amp;176</t>
+  </si>
+  <si>
+    <t>Dif</t>
+  </si>
+  <si>
+    <t>mag_phase</t>
+  </si>
+  <si>
+    <t>mag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +453,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF999999"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -409,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -552,11 +640,222 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -596,6 +895,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,6 +978,173 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>104</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>22860</xdr:colOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>53340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9031F0-50B5-4AAB-B0B7-FA4766C00B23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>104</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>632460</xdr:colOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>53340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4098" name="Control 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FFAA00-B664-4C4A-B8E9-331ED7033B98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>104</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>22860</xdr:colOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>53340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="Control 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84ED4CF3-2DB9-4670-855C-E0B369919DF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,19 +1446,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K124" sqref="K124"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="81.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -953,7 +1487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="B2">
         <v>36</v>
       </c>
@@ -979,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="B3">
         <v>37</v>
       </c>
@@ -1005,7 +1539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="B4">
         <v>37</v>
       </c>
@@ -1028,7 +1562,7 @@
         <v>4.5625503126689404</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="B5">
         <v>40</v>
       </c>
@@ -1051,7 +1585,7 @@
         <v>1.01601424866862E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="B6">
         <v>40</v>
       </c>
@@ -1074,7 +1608,7 @@
         <v>5.2170367078359199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="B7">
         <v>48</v>
       </c>
@@ -1082,7 +1616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="B8">
         <v>49</v>
       </c>
@@ -1090,7 +1624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="B9" s="24" t="s">
         <v>11</v>
       </c>
@@ -1116,7 +1650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="B10" s="24"/>
       <c r="C10">
         <v>1</v>
@@ -1137,7 +1671,7 @@
         <v>9.9428347412899996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="23">
         <v>43367</v>
       </c>
@@ -1166,7 +1700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12">
@@ -1191,7 +1725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="23">
         <v>43368</v>
       </c>
@@ -1220,7 +1754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" t="s">
@@ -1243,7 +1777,7 @@
       </c>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="23">
         <v>43369</v>
       </c>
@@ -1272,7 +1806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" t="s">
@@ -1295,7 +1829,7 @@
       </c>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="2" t="s">
@@ -1318,7 +1852,7 @@
       </c>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" t="s">
@@ -1341,7 +1875,7 @@
       </c>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="23">
         <v>43370</v>
       </c>
@@ -1370,7 +1904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" t="s">
@@ -1393,7 +1927,7 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="23">
         <v>43373</v>
       </c>
@@ -1422,7 +1956,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" t="s">
@@ -1445,7 +1979,7 @@
       </c>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" t="s">
@@ -1468,7 +2002,7 @@
       </c>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" t="s">
@@ -1491,7 +2025,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>43373</v>
       </c>
@@ -1505,7 +2039,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>43373</v>
       </c>
@@ -1516,7 +2050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>43374</v>
       </c>
@@ -1527,7 +2061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>43374</v>
       </c>
@@ -1538,7 +2072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="23">
         <v>43374</v>
       </c>
@@ -1567,7 +2101,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" t="s">
@@ -1590,7 +2124,7 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" t="s">
@@ -1613,7 +2147,7 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" t="s">
@@ -1636,7 +2170,7 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="23">
         <v>43374</v>
       </c>
@@ -1665,7 +2199,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" t="s">
@@ -1688,7 +2222,7 @@
       </c>
       <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="23">
         <v>43375</v>
       </c>
@@ -1717,7 +2251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" t="s">
@@ -1740,7 +2274,7 @@
       </c>
       <c r="I36" s="24"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" t="s">
@@ -1763,7 +2297,7 @@
       </c>
       <c r="I37" s="24"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" t="s">
@@ -1786,7 +2320,7 @@
       </c>
       <c r="I38" s="24"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="23">
         <v>43375</v>
       </c>
@@ -1815,7 +2349,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" t="s">
@@ -1838,7 +2372,7 @@
       </c>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" t="s">
@@ -1861,7 +2395,7 @@
       </c>
       <c r="I41" s="24"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" t="s">
@@ -1884,7 +2418,7 @@
       </c>
       <c r="I42" s="24"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>43376</v>
       </c>
@@ -1901,7 +2435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>43376</v>
       </c>
@@ -1918,7 +2452,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43376</v>
       </c>
@@ -1935,7 +2469,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>43377</v>
       </c>
@@ -1964,7 +2498,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="1"/>
       <c r="C47" t="s">
         <v>32</v>
@@ -1985,7 +2519,7 @@
         <v>0.619751518533326</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>43377</v>
       </c>
@@ -1999,7 +2533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>43377</v>
       </c>
@@ -2028,7 +2562,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
         <v>32</v>
@@ -2049,7 +2583,7 @@
         <v>0.69790060387249997</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51">
         <v>145</v>
@@ -2076,7 +2610,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="C52" t="s">
         <v>32</v>
@@ -2098,7 +2632,7 @@
       </c>
       <c r="I52" s="24"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="C53" t="s">
         <v>33</v>
@@ -2120,7 +2654,7 @@
       </c>
       <c r="I53" s="24"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="C54" t="s">
         <v>34</v>
@@ -2142,7 +2676,7 @@
       </c>
       <c r="I54" s="24"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55">
         <v>146</v>
@@ -2167,7 +2701,7 @@
       </c>
       <c r="I55" s="24"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="C56" t="s">
         <v>32</v>
@@ -2189,7 +2723,7 @@
       </c>
       <c r="I56" s="24"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="C57" t="s">
         <v>33</v>
@@ -2211,7 +2745,7 @@
       </c>
       <c r="I57" s="24"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="C58" t="s">
         <v>34</v>
@@ -2233,7 +2767,7 @@
       </c>
       <c r="I58" s="24"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
         <v>70</v>
       </c>
@@ -2248,7 +2782,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9">
       <c r="A60" s="23">
         <v>43377</v>
       </c>
@@ -2277,7 +2811,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" t="s">
@@ -2300,7 +2834,7 @@
       </c>
       <c r="I61" s="24"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="23">
         <v>43378</v>
       </c>
@@ -2327,7 +2861,7 @@
       </c>
       <c r="I62" s="24"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="23"/>
       <c r="B63" s="24"/>
       <c r="C63" t="s">
@@ -2350,7 +2884,7 @@
       </c>
       <c r="I63" s="24"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" t="s">
@@ -2375,7 +2909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" t="s">
@@ -2398,7 +2932,7 @@
       </c>
       <c r="I65" s="24"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67" s="5" t="s">
         <v>77</v>
       </c>
@@ -2413,7 +2947,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>43388</v>
       </c>
@@ -2445,7 +2979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="C69" t="s">
         <v>32</v>
       </c>
@@ -2465,7 +2999,7 @@
         <v>-3.28339441892745</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="C70" t="s">
         <v>33</v>
       </c>
@@ -2485,7 +3019,7 @@
         <v>4.7479823942955202</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="C71" t="s">
         <v>34</v>
       </c>
@@ -2505,7 +3039,7 @@
         <v>-3.20942124047644</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="B72">
         <v>140</v>
       </c>
@@ -2531,7 +3065,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="C73" t="s">
         <v>32</v>
       </c>
@@ -2551,7 +3085,7 @@
         <v>-3.2974368923159001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>43390</v>
       </c>
@@ -2583,7 +3117,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10">
       <c r="C75" t="s">
         <v>32</v>
       </c>
@@ -2604,7 +3138,7 @@
       </c>
       <c r="I75" s="24"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10">
       <c r="C76" t="s">
         <v>33</v>
       </c>
@@ -2625,7 +3159,7 @@
       </c>
       <c r="I76" s="24"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10">
       <c r="C77" t="s">
         <v>34</v>
       </c>
@@ -2646,7 +3180,7 @@
       </c>
       <c r="I77" s="24"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>43391</v>
       </c>
@@ -2675,7 +3209,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10">
       <c r="C79" t="s">
         <v>32</v>
       </c>
@@ -2696,7 +3230,7 @@
       </c>
       <c r="I79" s="24"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10">
       <c r="B80">
         <v>149</v>
       </c>
@@ -2720,7 +3254,7 @@
       </c>
       <c r="I80" s="24"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="C81" t="s">
         <v>32</v>
       </c>
@@ -2741,7 +3275,7 @@
       </c>
       <c r="I81" s="24"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="C82" t="s">
         <v>33</v>
       </c>
@@ -2762,7 +3296,7 @@
       </c>
       <c r="I82" s="24"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="C83" t="s">
         <v>34</v>
       </c>
@@ -2783,7 +3317,7 @@
       </c>
       <c r="I83" s="24"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>43398</v>
       </c>
@@ -2812,7 +3346,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="C85" t="s">
         <v>32</v>
       </c>
@@ -2832,7 +3366,7 @@
         <v>-2.52041567139152</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="C86" t="s">
         <v>33</v>
       </c>
@@ -2852,7 +3386,7 @@
         <v>-0.26543098174531699</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="C87" t="s">
         <v>34</v>
       </c>
@@ -2872,32 +3406,32 @@
         <v>-1.5090388805497199</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="I88" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="I89" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="I90" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="I91" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="I92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9">
       <c r="A93" s="5" t="s">
         <v>77</v>
       </c>
@@ -2912,7 +3446,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="B94">
         <v>155</v>
       </c>
@@ -2938,7 +3472,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="C95" t="s">
         <v>32</v>
       </c>
@@ -2958,7 +3492,7 @@
         <v>-4.5263732930643998</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="C96" t="s">
         <v>33</v>
       </c>
@@ -2978,7 +3512,7 @@
         <v>2.0220040444438099</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9">
       <c r="C97" t="s">
         <v>34</v>
       </c>
@@ -2998,7 +3532,7 @@
         <v>-5.52657924406659</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9">
       <c r="B98">
         <v>156</v>
       </c>
@@ -3024,7 +3558,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9">
       <c r="C99" t="s">
         <v>32</v>
       </c>
@@ -3044,7 +3578,7 @@
         <v>-4.3109535031801798</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9">
       <c r="C100" t="s">
         <v>33</v>
       </c>
@@ -3064,7 +3598,7 @@
         <v>2.0419403088235</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9">
       <c r="C101" t="s">
         <v>34</v>
       </c>
@@ -3084,7 +3618,7 @@
         <v>-5.4121233073613801</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9">
       <c r="B102">
         <v>157</v>
       </c>
@@ -3110,7 +3644,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9">
       <c r="C103" t="s">
         <v>32</v>
       </c>
@@ -3130,7 +3664,7 @@
         <v>-4.3766821233247404</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9">
       <c r="C104" t="s">
         <v>33</v>
       </c>
@@ -3150,7 +3684,7 @@
         <v>2.0017669031595</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9">
       <c r="C105" t="s">
         <v>34</v>
       </c>
@@ -3170,7 +3704,7 @@
         <v>-5.6036794110061203</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9">
       <c r="B106">
         <v>158</v>
       </c>
@@ -3181,7 +3715,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9">
       <c r="B110">
         <v>160</v>
       </c>
@@ -3207,7 +3741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9">
       <c r="C111" t="s">
         <v>32</v>
       </c>
@@ -3227,7 +3761,7 @@
         <v>-7.5530839773858398</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9">
       <c r="B112">
         <v>162</v>
       </c>
@@ -3250,7 +3784,7 @@
         <v>-4.09491824271434</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11">
       <c r="C113" t="s">
         <v>32</v>
       </c>
@@ -3270,7 +3804,7 @@
         <v>-3.5276820774725599</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11">
       <c r="B114">
         <v>163</v>
       </c>
@@ -3281,7 +3815,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11">
       <c r="D118" t="s">
         <v>48</v>
       </c>
@@ -3289,7 +3823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11">
       <c r="A119" s="5" t="s">
         <v>105</v>
       </c>
@@ -3304,7 +3838,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11">
       <c r="C120" t="s">
         <v>106</v>
       </c>
@@ -3321,7 +3855,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11">
       <c r="C121" t="s">
         <v>107</v>
       </c>
@@ -3335,7 +3869,7 @@
         <v>14.6053919825485</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11">
       <c r="B122">
         <v>169</v>
       </c>
@@ -3361,7 +3895,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11">
       <c r="C123" t="s">
         <v>32</v>
       </c>
@@ -3389,7 +3923,10 @@
         <v>3.8546572870360826E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11">
+      <c r="B124" t="s">
+        <v>126</v>
+      </c>
       <c r="C124" t="s">
         <v>31</v>
       </c>
@@ -3408,8 +3945,11 @@
       <c r="H124">
         <v>8.3918828423015999</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I124" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="C125" t="s">
         <v>32</v>
       </c>
@@ -3429,7 +3969,10 @@
         <v>6.7193131783218796</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11">
+      <c r="B126">
+        <v>177</v>
+      </c>
       <c r="C126" t="s">
         <v>31</v>
       </c>
@@ -3448,8 +3991,11 @@
       <c r="H126">
         <v>8.3740854322365994</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I126" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="C127" t="s">
         <v>32</v>
       </c>
@@ -3514,23 +4060,3243 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F740120-7667-4A53-B11F-05F431152696}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:R107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="8" max="8" width="19" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="63">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22">
+        <v>13.6310941</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="E2" s="63"/>
+      <c r="F2">
+        <v>13.68255731</v>
+      </c>
+      <c r="H2" s="27">
+        <f>B2-F2</f>
+        <v>-5.1463209999999648E-2</v>
+      </c>
+      <c r="K2" s="63">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>15.504060880000001</v>
+      </c>
+      <c r="O2" s="62"/>
+      <c r="P2">
+        <v>15.62757736</v>
+      </c>
+      <c r="R2" s="27">
+        <f>L2-P2</f>
+        <v>-0.12351647999999926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="63">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22">
+        <v>14.114214</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="E3" s="63"/>
+      <c r="F3">
+        <v>13.82521036</v>
+      </c>
+      <c r="H3" s="27">
+        <f t="shared" ref="H3:H66" si="0">B3-F3</f>
+        <v>0.28900364000000067</v>
+      </c>
+      <c r="K3" s="63">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>13.243643690000001</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3">
+        <v>13.81847114</v>
+      </c>
+      <c r="R3" s="27">
+        <f t="shared" ref="R3:R66" si="1">L3-P3</f>
+        <v>-0.57482744999999902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="63">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>14.915215</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="E4" s="63"/>
+      <c r="F4">
+        <v>14.69432993</v>
+      </c>
+      <c r="H4" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22088506999999957</v>
+      </c>
+      <c r="K4" s="63">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>10.105190090000001</v>
+      </c>
+      <c r="O4" s="62"/>
+      <c r="P4">
+        <v>9.7600196700000001</v>
+      </c>
+      <c r="R4" s="27">
+        <f t="shared" si="1"/>
+        <v>0.34517042000000053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="63">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22">
+        <v>13.295089000000001</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="E5" s="63"/>
+      <c r="F5">
+        <v>12.1241141</v>
+      </c>
+      <c r="H5" s="27">
+        <f t="shared" si="0"/>
+        <v>1.1709749000000009</v>
+      </c>
+      <c r="K5" s="63">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>15.537563349999999</v>
+      </c>
+      <c r="O5" s="62"/>
+      <c r="P5">
+        <v>15.89216186</v>
+      </c>
+      <c r="R5" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.35459851000000064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="63">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22">
+        <v>13.5681665</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="E6" s="63"/>
+      <c r="F6">
+        <v>13.30902581</v>
+      </c>
+      <c r="H6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.25914069000000062</v>
+      </c>
+      <c r="K6" s="63">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>13.53970662</v>
+      </c>
+      <c r="O6" s="62"/>
+      <c r="P6">
+        <v>13.575349709999999</v>
+      </c>
+      <c r="R6" s="27">
+        <f t="shared" si="1"/>
+        <v>-3.5643089999998878E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="63">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22">
+        <v>13.837569200000001</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="E7" s="63"/>
+      <c r="F7">
+        <v>13.159305959999999</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.67826324000000149</v>
+      </c>
+      <c r="K7" s="63">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>12.303724689999999</v>
+      </c>
+      <c r="O7" s="62"/>
+      <c r="P7">
+        <v>13.26597346</v>
+      </c>
+      <c r="R7" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.96224877000000042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="63">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22">
+        <v>9.5816275799999993</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="E8" s="63"/>
+      <c r="F8">
+        <v>9.8345661500000006</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.25293857000000131</v>
+      </c>
+      <c r="K8" s="63">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>9.0521034199999999</v>
+      </c>
+      <c r="O8" s="62"/>
+      <c r="P8">
+        <v>8.8562996599999995</v>
+      </c>
+      <c r="R8" s="27">
+        <f t="shared" si="1"/>
+        <v>0.19580376000000044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="63">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22">
+        <v>10.8376546</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="E9" s="63"/>
+      <c r="F9">
+        <v>10.74053486</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="0"/>
+        <v>9.7119740000000121E-2</v>
+      </c>
+      <c r="K9" s="63">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>9.3473276300000006</v>
+      </c>
+      <c r="O9" s="62"/>
+      <c r="P9">
+        <v>11.57419661</v>
+      </c>
+      <c r="R9" s="66">
+        <f t="shared" si="1"/>
+        <v>-2.226868979999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="63">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22">
+        <v>8.8218898699999997</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="E10" s="63"/>
+      <c r="F10">
+        <v>8.6670850500000007</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15480481999999895</v>
+      </c>
+      <c r="K10" s="63">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>7.3468390100000001</v>
+      </c>
+      <c r="O10" s="62"/>
+      <c r="P10">
+        <v>7.3233795500000003</v>
+      </c>
+      <c r="R10" s="27">
+        <f t="shared" si="1"/>
+        <v>2.3459459999999766E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="63">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22">
+        <v>12.502928799999999</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="E11" s="63"/>
+      <c r="F11">
+        <v>12.082468860000001</v>
+      </c>
+      <c r="H11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.42045993999999887</v>
+      </c>
+      <c r="K11" s="63">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>11.436437010000001</v>
+      </c>
+      <c r="O11" s="62"/>
+      <c r="P11">
+        <v>12.098029950000001</v>
+      </c>
+      <c r="R11" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.66159294000000024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="63">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22">
+        <v>14.1842772</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="E12" s="63"/>
+      <c r="F12">
+        <v>13.44488993</v>
+      </c>
+      <c r="H12" s="27">
+        <f t="shared" si="0"/>
+        <v>0.73938726999999993</v>
+      </c>
+      <c r="K12" s="63">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>11.277759339999999</v>
+      </c>
+      <c r="O12" s="62"/>
+      <c r="P12">
+        <v>11.55613612</v>
+      </c>
+      <c r="R12" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.27837678000000032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="63">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22">
+        <v>12.692087799999999</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="E13" s="63"/>
+      <c r="F13">
+        <v>12.524629300000001</v>
+      </c>
+      <c r="H13" s="27">
+        <f t="shared" si="0"/>
+        <v>0.16745849999999862</v>
+      </c>
+      <c r="K13" s="63">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>11.932036009999999</v>
+      </c>
+      <c r="O13" s="62"/>
+      <c r="P13">
+        <v>13.80031033</v>
+      </c>
+      <c r="R13" s="27">
+        <f t="shared" si="1"/>
+        <v>-1.8682743200000012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="63">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22">
+        <v>6.1079395500000002</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="E14" s="63"/>
+      <c r="F14">
+        <v>7.5824858600000002</v>
+      </c>
+      <c r="H14" s="27">
+        <f t="shared" si="0"/>
+        <v>-1.47454631</v>
+      </c>
+      <c r="K14" s="63">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>9.1186061200000008</v>
+      </c>
+      <c r="O14" s="62"/>
+      <c r="P14">
+        <v>7.0197906100000003</v>
+      </c>
+      <c r="R14" s="27">
+        <f t="shared" si="1"/>
+        <v>2.0988155100000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="63">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22">
+        <v>14.3286034</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="E15" s="63"/>
+      <c r="F15">
+        <v>12.70646168</v>
+      </c>
+      <c r="H15" s="66">
+        <f t="shared" si="0"/>
+        <v>1.6221417200000001</v>
+      </c>
+      <c r="K15" s="63">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>13.77721393</v>
+      </c>
+      <c r="O15" s="62"/>
+      <c r="P15">
+        <v>14.60561339</v>
+      </c>
+      <c r="R15" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.82839945999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="63">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22">
+        <v>15.4727158</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="E16" s="63"/>
+      <c r="F16">
+        <v>15.82338176</v>
+      </c>
+      <c r="H16" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.35066596000000061</v>
+      </c>
+      <c r="K16" s="63">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>10.93699202</v>
+      </c>
+      <c r="O16" s="62"/>
+      <c r="P16">
+        <v>10.28863349</v>
+      </c>
+      <c r="R16" s="27">
+        <f t="shared" si="1"/>
+        <v>0.64835852999999943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="63">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22">
+        <v>15.0669521</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="E17" s="63"/>
+      <c r="F17">
+        <v>15.73624611</v>
+      </c>
+      <c r="H17" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.66929400999999977</v>
+      </c>
+      <c r="K17" s="63">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>15.044199020000001</v>
+      </c>
+      <c r="O17" s="62"/>
+      <c r="P17">
+        <v>14.91610244</v>
+      </c>
+      <c r="R17" s="27">
+        <f t="shared" si="1"/>
+        <v>0.12809658000000113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="63">
+        <v>16</v>
+      </c>
+      <c r="B18" s="22">
+        <v>15.1301855</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="E18" s="63"/>
+      <c r="F18">
+        <v>15.944966989999999</v>
+      </c>
+      <c r="H18" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.81478148999999966</v>
+      </c>
+      <c r="K18" s="63">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>14.66520272</v>
+      </c>
+      <c r="O18" s="62"/>
+      <c r="P18">
+        <v>15.327092629999999</v>
+      </c>
+      <c r="R18" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.6618899099999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="63">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22">
+        <v>11.3176039</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="E19" s="63"/>
+      <c r="F19">
+        <v>10.212703210000001</v>
+      </c>
+      <c r="H19" s="27">
+        <f t="shared" si="0"/>
+        <v>1.1049006899999991</v>
+      </c>
+      <c r="K19" s="63">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <v>7.2548629699999996</v>
+      </c>
+      <c r="O19" s="62"/>
+      <c r="P19">
+        <v>7.6726400400000001</v>
+      </c>
+      <c r="R19" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.41777707000000053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="63">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22">
+        <v>9.4711795399999996</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="E20" s="63"/>
+      <c r="F20">
+        <v>11.39960791</v>
+      </c>
+      <c r="H20" s="27">
+        <f t="shared" si="0"/>
+        <v>-1.9284283700000007</v>
+      </c>
+      <c r="K20" s="63">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <v>12.402952790000001</v>
+      </c>
+      <c r="O20" s="62"/>
+      <c r="P20">
+        <v>12.317577829999999</v>
+      </c>
+      <c r="R20" s="27">
+        <f t="shared" si="1"/>
+        <v>8.537496000000111E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="63">
+        <v>19</v>
+      </c>
+      <c r="B21" s="22">
+        <v>10.997961699999999</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="E21" s="63"/>
+      <c r="F21">
+        <v>10.64048159</v>
+      </c>
+      <c r="H21" s="27">
+        <f t="shared" si="0"/>
+        <v>0.35748010999999913</v>
+      </c>
+      <c r="K21" s="63">
+        <v>19</v>
+      </c>
+      <c r="L21">
+        <v>13.54347578</v>
+      </c>
+      <c r="O21" s="62"/>
+      <c r="P21">
+        <v>13.11906677</v>
+      </c>
+      <c r="R21" s="27">
+        <f t="shared" si="1"/>
+        <v>0.42440900999999975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="63">
+        <v>20</v>
+      </c>
+      <c r="B22" s="22">
+        <v>8.8006049799999992</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="E22" s="63"/>
+      <c r="F22">
+        <v>7.6591043699999997</v>
+      </c>
+      <c r="H22" s="27">
+        <f t="shared" si="0"/>
+        <v>1.1415006099999996</v>
+      </c>
+      <c r="K22" s="63">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>13.01622306</v>
+      </c>
+      <c r="O22" s="62"/>
+      <c r="P22">
+        <v>12.9657445</v>
+      </c>
+      <c r="R22" s="27">
+        <f t="shared" si="1"/>
+        <v>5.0478560000000172E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="63">
+        <v>21</v>
+      </c>
+      <c r="B23" s="22">
+        <v>11.861148699999999</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="E23" s="63"/>
+      <c r="F23">
+        <v>11.209893449999999</v>
+      </c>
+      <c r="H23" s="27">
+        <f t="shared" si="0"/>
+        <v>0.65125525000000017</v>
+      </c>
+      <c r="K23" s="63">
+        <v>21</v>
+      </c>
+      <c r="L23">
+        <v>13.624087449999999</v>
+      </c>
+      <c r="O23" s="62"/>
+      <c r="P23">
+        <v>13.429018960000001</v>
+      </c>
+      <c r="R23" s="27">
+        <f t="shared" si="1"/>
+        <v>0.19506848999999882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="63">
+        <v>22</v>
+      </c>
+      <c r="B24" s="22">
+        <v>10.9651136</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="E24" s="63"/>
+      <c r="F24">
+        <v>10.28596153</v>
+      </c>
+      <c r="H24" s="27">
+        <f t="shared" si="0"/>
+        <v>0.67915207000000066</v>
+      </c>
+      <c r="K24" s="63">
+        <v>22</v>
+      </c>
+      <c r="L24">
+        <v>11.078052899999999</v>
+      </c>
+      <c r="O24" s="62"/>
+      <c r="P24">
+        <v>11.05419695</v>
+      </c>
+      <c r="R24" s="27">
+        <f t="shared" si="1"/>
+        <v>2.3855949999999737E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="63">
+        <v>23</v>
+      </c>
+      <c r="B25" s="22">
+        <v>20.165744799999999</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="E25" s="63"/>
+      <c r="F25">
+        <v>19.98992118</v>
+      </c>
+      <c r="H25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.17582361999999918</v>
+      </c>
+      <c r="K25" s="63">
+        <v>23</v>
+      </c>
+      <c r="L25">
+        <v>12.221937649999999</v>
+      </c>
+      <c r="O25" s="62"/>
+      <c r="P25">
+        <v>12.0072761</v>
+      </c>
+      <c r="R25" s="27">
+        <f t="shared" si="1"/>
+        <v>0.21466154999999887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="63">
+        <v>24</v>
+      </c>
+      <c r="B26" s="22">
+        <v>20.4969368</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="E26" s="63"/>
+      <c r="F26">
+        <v>20.522986360000001</v>
+      </c>
+      <c r="H26" s="27">
+        <f t="shared" si="0"/>
+        <v>-2.6049560000000582E-2</v>
+      </c>
+      <c r="K26" s="63">
+        <v>24</v>
+      </c>
+      <c r="L26">
+        <v>12.161695160000001</v>
+      </c>
+      <c r="O26" s="62"/>
+      <c r="P26">
+        <v>12.157362259999999</v>
+      </c>
+      <c r="R26" s="27">
+        <f t="shared" si="1"/>
+        <v>4.3329000000014162E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="O27" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="R27" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="63">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>17.30043191</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28">
+        <v>17.69677695</v>
+      </c>
+      <c r="H28" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.39634503999999993</v>
+      </c>
+      <c r="K28" s="63">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>19.74782738</v>
+      </c>
+      <c r="O28" s="62"/>
+      <c r="P28">
+        <v>19.462411809999999</v>
+      </c>
+      <c r="R28" s="27">
+        <f t="shared" si="1"/>
+        <v>0.2854155700000014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="63">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>17.354958079999999</v>
+      </c>
+      <c r="E29" s="63"/>
+      <c r="F29">
+        <v>16.848371960000001</v>
+      </c>
+      <c r="H29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.50658611999999792</v>
+      </c>
+      <c r="K29" s="63">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>16.632221049999998</v>
+      </c>
+      <c r="O29" s="62"/>
+      <c r="P29">
+        <v>17.35659106</v>
+      </c>
+      <c r="R29" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.72437001000000123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="63">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>18.089428160000001</v>
+      </c>
+      <c r="E30" s="63"/>
+      <c r="F30">
+        <v>18.093440319999999</v>
+      </c>
+      <c r="H30" s="27">
+        <f t="shared" si="0"/>
+        <v>-4.012159999998488E-3</v>
+      </c>
+      <c r="K30" s="63">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>13.746490870000001</v>
+      </c>
+      <c r="O30" s="62"/>
+      <c r="P30">
+        <v>12.97748838</v>
+      </c>
+      <c r="R30" s="27">
+        <f t="shared" si="1"/>
+        <v>0.76900249000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="63">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>16.587185550000001</v>
+      </c>
+      <c r="E31" s="63"/>
+      <c r="F31">
+        <v>15.63558811</v>
+      </c>
+      <c r="H31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.95159744000000046</v>
+      </c>
+      <c r="K31" s="63">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>21.573665219999999</v>
+      </c>
+      <c r="O31" s="62"/>
+      <c r="P31">
+        <v>20.68944844</v>
+      </c>
+      <c r="R31" s="27">
+        <f t="shared" si="1"/>
+        <v>0.88421677999999915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="63">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>17.245802569999999</v>
+      </c>
+      <c r="E32" s="63"/>
+      <c r="F32">
+        <v>17.798296820000001</v>
+      </c>
+      <c r="H32" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.5524942500000023</v>
+      </c>
+      <c r="K32" s="63">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>16.845026010000002</v>
+      </c>
+      <c r="O32" s="62"/>
+      <c r="P32">
+        <v>16.86556496</v>
+      </c>
+      <c r="R32" s="27">
+        <f t="shared" si="1"/>
+        <v>-2.0538949999998835E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="63">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>18.520996440000001</v>
+      </c>
+      <c r="E33" s="63"/>
+      <c r="F33">
+        <v>20.689898679999999</v>
+      </c>
+      <c r="H33" s="27">
+        <f t="shared" si="0"/>
+        <v>-2.1689022399999978</v>
+      </c>
+      <c r="K33" s="63">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>17.078029130000001</v>
+      </c>
+      <c r="O33" s="62"/>
+      <c r="P33">
+        <v>18.217979620000001</v>
+      </c>
+      <c r="R33" s="27">
+        <f t="shared" si="1"/>
+        <v>-1.1399504900000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="63">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>13.802928789999999</v>
+      </c>
+      <c r="E34" s="63"/>
+      <c r="F34">
+        <v>14.95850755</v>
+      </c>
+      <c r="H34" s="27">
+        <f t="shared" si="0"/>
+        <v>-1.1555787600000009</v>
+      </c>
+      <c r="K34" s="63">
+        <v>6</v>
+      </c>
+      <c r="L34">
+        <v>13.691509829999999</v>
+      </c>
+      <c r="O34" s="62"/>
+      <c r="P34">
+        <v>13.00611992</v>
+      </c>
+      <c r="R34" s="27">
+        <f t="shared" si="1"/>
+        <v>0.6853899099999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="63">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>15.977755159999999</v>
+      </c>
+      <c r="E35" s="63"/>
+      <c r="F35">
+        <v>16.031421229999999</v>
+      </c>
+      <c r="H35" s="27">
+        <f t="shared" si="0"/>
+        <v>-5.3666070000000232E-2</v>
+      </c>
+      <c r="K35" s="63">
+        <v>7</v>
+      </c>
+      <c r="L35">
+        <v>16.469693190000001</v>
+      </c>
+      <c r="O35" s="62"/>
+      <c r="P35">
+        <v>16.70952308</v>
+      </c>
+      <c r="R35" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.23982988999999932</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="63">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>12.980362380000001</v>
+      </c>
+      <c r="E36" s="63"/>
+      <c r="F36">
+        <v>13.29625972</v>
+      </c>
+      <c r="H36" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.31589733999999936</v>
+      </c>
+      <c r="K36" s="63">
+        <v>8</v>
+      </c>
+      <c r="L36">
+        <v>13.057423610000001</v>
+      </c>
+      <c r="O36" s="62"/>
+      <c r="P36">
+        <v>12.8361599</v>
+      </c>
+      <c r="R36" s="27">
+        <f t="shared" si="1"/>
+        <v>0.22126371000000056</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="63">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>17.170727750000001</v>
+      </c>
+      <c r="E37" s="63"/>
+      <c r="F37">
+        <v>18.323344330000001</v>
+      </c>
+      <c r="H37" s="27">
+        <f t="shared" si="0"/>
+        <v>-1.1526165800000001</v>
+      </c>
+      <c r="K37" s="63">
+        <v>9</v>
+      </c>
+      <c r="L37">
+        <v>18.252544480000001</v>
+      </c>
+      <c r="O37" s="62"/>
+      <c r="P37">
+        <v>17.874051590000001</v>
+      </c>
+      <c r="R37" s="27">
+        <f t="shared" si="1"/>
+        <v>0.37849289000000041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="63">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>18.595662140000002</v>
+      </c>
+      <c r="E38" s="63"/>
+      <c r="F38">
+        <v>19.513140310000001</v>
+      </c>
+      <c r="H38" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.91747816999999898</v>
+      </c>
+      <c r="K38" s="63">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>16.684188710000001</v>
+      </c>
+      <c r="O38" s="62"/>
+      <c r="P38">
+        <v>15.629935100000001</v>
+      </c>
+      <c r="R38" s="27">
+        <f t="shared" si="1"/>
+        <v>1.05425361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="63">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>16.784280110000001</v>
+      </c>
+      <c r="E39" s="63"/>
+      <c r="F39">
+        <v>16.9239581</v>
+      </c>
+      <c r="H39" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.13967798999999914</v>
+      </c>
+      <c r="K39" s="63">
+        <v>11</v>
+      </c>
+      <c r="L39">
+        <v>17.03253484</v>
+      </c>
+      <c r="O39" s="62"/>
+      <c r="P39">
+        <v>18.123993080000002</v>
+      </c>
+      <c r="R39" s="27">
+        <f t="shared" si="1"/>
+        <v>-1.0914582400000015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="63">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>14.091129690000001</v>
+      </c>
+      <c r="E40" s="63"/>
+      <c r="F40">
+        <v>15.00861667</v>
+      </c>
+      <c r="H40" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.91748697999999962</v>
+      </c>
+      <c r="K40" s="63">
+        <v>12</v>
+      </c>
+      <c r="L40">
+        <v>17.188163790000001</v>
+      </c>
+      <c r="O40" s="62"/>
+      <c r="P40">
+        <v>14.506829189999999</v>
+      </c>
+      <c r="R40" s="27">
+        <f t="shared" si="1"/>
+        <v>2.6813346000000013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="63">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>20.954972479999999</v>
+      </c>
+      <c r="E41" s="63"/>
+      <c r="F41">
+        <v>20.521560999999998</v>
+      </c>
+      <c r="H41" s="27">
+        <f t="shared" si="0"/>
+        <v>0.43341148000000018</v>
+      </c>
+      <c r="K41" s="63">
+        <v>13</v>
+      </c>
+      <c r="L41">
+        <v>21.402306029999998</v>
+      </c>
+      <c r="O41" s="62"/>
+      <c r="P41">
+        <v>20.893728549999999</v>
+      </c>
+      <c r="R41" s="27">
+        <f t="shared" si="1"/>
+        <v>0.50857747999999958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="63">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>20.130272980000001</v>
+      </c>
+      <c r="E42" s="63"/>
+      <c r="F42">
+        <v>20.956528970000001</v>
+      </c>
+      <c r="H42" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.82625598999999994</v>
+      </c>
+      <c r="K42" s="63">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>16.706312799999999</v>
+      </c>
+      <c r="O42" s="62"/>
+      <c r="P42">
+        <v>15.08871398</v>
+      </c>
+      <c r="R42" s="27">
+        <f t="shared" si="1"/>
+        <v>1.6175988199999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="63">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>20.065297220000001</v>
+      </c>
+      <c r="E43" s="63"/>
+      <c r="F43">
+        <v>21.04647752</v>
+      </c>
+      <c r="H43" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.98118029999999834</v>
+      </c>
+      <c r="K43" s="63">
+        <v>15</v>
+      </c>
+      <c r="L43">
+        <v>19.459742330000001</v>
+      </c>
+      <c r="O43" s="62"/>
+      <c r="P43">
+        <v>19.330495580000001</v>
+      </c>
+      <c r="R43" s="27">
+        <f t="shared" si="1"/>
+        <v>0.12924675000000008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="63">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>18.836609660000001</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44">
+        <v>19.832645339999999</v>
+      </c>
+      <c r="H44" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.99603567999999854</v>
+      </c>
+      <c r="K44" s="63">
+        <v>16</v>
+      </c>
+      <c r="L44">
+        <v>17.91673587</v>
+      </c>
+      <c r="O44" s="62"/>
+      <c r="P44">
+        <v>18.933821980000001</v>
+      </c>
+      <c r="R44" s="27">
+        <f t="shared" si="1"/>
+        <v>-1.017086110000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="63">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>16.219955779999999</v>
+      </c>
+      <c r="E45" s="63"/>
+      <c r="F45">
+        <v>15.3259197</v>
+      </c>
+      <c r="H45" s="27">
+        <f t="shared" si="0"/>
+        <v>0.89403607999999934</v>
+      </c>
+      <c r="K45" s="63">
+        <v>17</v>
+      </c>
+      <c r="L45">
+        <v>9.8463115299999995</v>
+      </c>
+      <c r="O45" s="62"/>
+      <c r="P45">
+        <v>11.27178606</v>
+      </c>
+      <c r="R45" s="27">
+        <f t="shared" si="1"/>
+        <v>-1.4254745300000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="63">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>14.75658005</v>
+      </c>
+      <c r="E46" s="63"/>
+      <c r="F46">
+        <v>18.428847770000001</v>
+      </c>
+      <c r="H46" s="27">
+        <f t="shared" si="0"/>
+        <v>-3.6722677200000007</v>
+      </c>
+      <c r="K46" s="63">
+        <v>18</v>
+      </c>
+      <c r="L46">
+        <v>15.2881746</v>
+      </c>
+      <c r="O46" s="62"/>
+      <c r="P46">
+        <v>15.311354850000001</v>
+      </c>
+      <c r="R46" s="27">
+        <f t="shared" si="1"/>
+        <v>-2.3180250000001124E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="63">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>15.82356951</v>
+      </c>
+      <c r="E47" s="63"/>
+      <c r="F47">
+        <v>16.84270008</v>
+      </c>
+      <c r="H47" s="27">
+        <f t="shared" si="0"/>
+        <v>-1.0191305699999997</v>
+      </c>
+      <c r="K47" s="63">
+        <v>19</v>
+      </c>
+      <c r="L47">
+        <v>17.884419789999999</v>
+      </c>
+      <c r="O47" s="62"/>
+      <c r="P47">
+        <v>17.104364260000001</v>
+      </c>
+      <c r="R47" s="27">
+        <f t="shared" si="1"/>
+        <v>0.7800555299999985</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="63">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>12.97756058</v>
+      </c>
+      <c r="E48" s="63"/>
+      <c r="F48">
+        <v>13.310718339999999</v>
+      </c>
+      <c r="H48" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.33315775999999886</v>
+      </c>
+      <c r="K48" s="63">
+        <v>20</v>
+      </c>
+      <c r="L48">
+        <v>19.166564959999999</v>
+      </c>
+      <c r="O48" s="62"/>
+      <c r="P48">
+        <v>19.415697470000001</v>
+      </c>
+      <c r="R48" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.24913251000000258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="63">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>16.67489896</v>
+      </c>
+      <c r="E49" s="63"/>
+      <c r="F49">
+        <v>16.726182770000001</v>
+      </c>
+      <c r="H49" s="27">
+        <f t="shared" si="0"/>
+        <v>-5.128381000000104E-2</v>
+      </c>
+      <c r="K49" s="63">
+        <v>21</v>
+      </c>
+      <c r="L49">
+        <v>19.8615411</v>
+      </c>
+      <c r="O49" s="62"/>
+      <c r="P49">
+        <v>19.370347710000001</v>
+      </c>
+      <c r="R49" s="27">
+        <f t="shared" si="1"/>
+        <v>0.4911933899999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="63">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>15.62146478</v>
+      </c>
+      <c r="E50" s="63"/>
+      <c r="F50">
+        <v>16.3778197</v>
+      </c>
+      <c r="H50" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.75635491999999971</v>
+      </c>
+      <c r="K50" s="63">
+        <v>22</v>
+      </c>
+      <c r="L50">
+        <v>16.14647463</v>
+      </c>
+      <c r="O50" s="62"/>
+      <c r="P50">
+        <v>16.31911616</v>
+      </c>
+      <c r="R50" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.17264152999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="63">
+        <v>23</v>
+      </c>
+      <c r="B51">
+        <v>23.659309279999999</v>
+      </c>
+      <c r="E51" s="63"/>
+      <c r="F51">
+        <v>23.446638320000002</v>
+      </c>
+      <c r="H51" s="27">
+        <f t="shared" si="0"/>
+        <v>0.21267095999999697</v>
+      </c>
+      <c r="K51" s="63">
+        <v>23</v>
+      </c>
+      <c r="L51">
+        <v>17.54233571</v>
+      </c>
+      <c r="O51" s="62"/>
+      <c r="P51">
+        <v>17.118570259999998</v>
+      </c>
+      <c r="R51" s="27">
+        <f t="shared" si="1"/>
+        <v>0.42376545000000121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="63">
+        <v>24</v>
+      </c>
+      <c r="B52">
+        <v>23.522175270000002</v>
+      </c>
+      <c r="E52" s="63"/>
+      <c r="F52">
+        <v>23.667639149999999</v>
+      </c>
+      <c r="H52" s="27">
+        <f t="shared" si="0"/>
+        <v>-0.14546387999999766</v>
+      </c>
+      <c r="K52" s="63">
+        <v>24</v>
+      </c>
+      <c r="L52">
+        <v>17.14447689</v>
+      </c>
+      <c r="O52" s="62"/>
+      <c r="P52">
+        <v>16.130017760000001</v>
+      </c>
+      <c r="R52" s="27">
+        <f t="shared" si="1"/>
+        <v>1.0144591299999988</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H53" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="O53" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="R53" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="63">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>16.14943147</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54">
+        <v>15.95117426</v>
+      </c>
+      <c r="H54" s="27">
+        <f t="shared" si="0"/>
+        <v>0.19825720999999952</v>
+      </c>
+      <c r="K54" s="63">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>17.600624939999999</v>
+      </c>
+      <c r="O54" s="62"/>
+      <c r="P54">
+        <v>17.99406273</v>
+      </c>
+      <c r="R54" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.39343779000000012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="63">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>16.984811100000002</v>
+      </c>
+      <c r="E55" s="63"/>
+      <c r="F55">
+        <v>16.911504170000001</v>
+      </c>
+      <c r="H55" s="27">
+        <f t="shared" si="0"/>
+        <v>7.3306930000001103E-2</v>
+      </c>
+      <c r="K55" s="63">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>15.999292609999999</v>
+      </c>
+      <c r="O55" s="62"/>
+      <c r="P55">
+        <v>16.43730205</v>
+      </c>
+      <c r="R55" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.43800944000000008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="63">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>17.834473989999999</v>
+      </c>
+      <c r="E56" s="63"/>
+      <c r="F56">
+        <v>17.414634939999999</v>
+      </c>
+      <c r="H56" s="27">
+        <f t="shared" si="0"/>
+        <v>0.41983905000000021</v>
+      </c>
+      <c r="K56" s="63">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>12.744172409999999</v>
+      </c>
+      <c r="O56" s="62"/>
+      <c r="P56">
+        <v>12.786046069999999</v>
+      </c>
+      <c r="R56" s="27">
+        <f t="shared" si="1"/>
+        <v>-4.1873660000000257E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="63">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>16.135031829999999</v>
+      </c>
+      <c r="E57" s="63"/>
+      <c r="F57">
+        <v>14.802184820000001</v>
+      </c>
+      <c r="H57" s="27">
+        <f t="shared" si="0"/>
+        <v>1.3328470099999983</v>
+      </c>
+      <c r="K57" s="63">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>16.811919540000002</v>
+      </c>
+      <c r="O57" s="62"/>
+      <c r="P57">
+        <v>17.67699309</v>
+      </c>
+      <c r="R57" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.86507354999999819</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="63">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>16.08126901</v>
+      </c>
+      <c r="E58" s="63"/>
+      <c r="F58">
+        <v>15.289595179999999</v>
+      </c>
+      <c r="H58" s="27">
+        <f t="shared" si="0"/>
+        <v>0.79167383000000058</v>
+      </c>
+      <c r="K58" s="63">
+        <v>4</v>
+      </c>
+      <c r="L58">
+        <v>16.362644840000002</v>
+      </c>
+      <c r="O58" s="62"/>
+      <c r="P58">
+        <v>16.411158650000001</v>
+      </c>
+      <c r="R58" s="27">
+        <f t="shared" si="1"/>
+        <v>-4.8513809999999324E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="63">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>15.70367371</v>
+      </c>
+      <c r="E59" s="63"/>
+      <c r="F59">
+        <v>14.03998354</v>
+      </c>
+      <c r="H59" s="27">
+        <f t="shared" si="0"/>
+        <v>1.6636901700000006</v>
+      </c>
+      <c r="K59" s="63">
+        <v>5</v>
+      </c>
+      <c r="L59">
+        <v>14.147379089999999</v>
+      </c>
+      <c r="O59" s="62"/>
+      <c r="P59">
+        <v>15.004208569999999</v>
+      </c>
+      <c r="R59" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.85682948000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="63">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>11.823278009999999</v>
+      </c>
+      <c r="E60" s="63"/>
+      <c r="F60">
+        <v>11.56579339</v>
+      </c>
+      <c r="H60" s="27">
+        <f t="shared" si="0"/>
+        <v>0.25748461999999961</v>
+      </c>
+      <c r="K60" s="63">
+        <v>6</v>
+      </c>
+      <c r="L60">
+        <v>11.062216449999999</v>
+      </c>
+      <c r="O60" s="62"/>
+      <c r="P60">
+        <v>11.17687121</v>
+      </c>
+      <c r="R60" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.11465476000000052</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="63">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>12.533533029999999</v>
+      </c>
+      <c r="E61" s="63"/>
+      <c r="F61">
+        <v>12.37018511</v>
+      </c>
+      <c r="H61" s="27">
+        <f t="shared" si="0"/>
+        <v>0.16334791999999965</v>
+      </c>
+      <c r="K61" s="63">
+        <v>7</v>
+      </c>
+      <c r="L61">
+        <v>10.38070505</v>
+      </c>
+      <c r="O61" s="62"/>
+      <c r="P61">
+        <v>13.2555677</v>
+      </c>
+      <c r="R61" s="66">
+        <f t="shared" si="1"/>
+        <v>-2.8748626500000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="63">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>11.13829383</v>
+      </c>
+      <c r="E62" s="63"/>
+      <c r="F62">
+        <v>10.69949192</v>
+      </c>
+      <c r="H62" s="27">
+        <f t="shared" si="0"/>
+        <v>0.43880191000000046</v>
+      </c>
+      <c r="K62" s="63">
+        <v>8</v>
+      </c>
+      <c r="L62">
+        <v>8.9143461800000008</v>
+      </c>
+      <c r="O62" s="62"/>
+      <c r="P62">
+        <v>8.9764974300000002</v>
+      </c>
+      <c r="R62" s="27">
+        <f t="shared" si="1"/>
+        <v>-6.2151249999999436E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="63">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>14.39901017</v>
+      </c>
+      <c r="E63" s="63"/>
+      <c r="F63">
+        <v>13.32427281</v>
+      </c>
+      <c r="H63" s="27">
+        <f t="shared" si="0"/>
+        <v>1.0747373600000003</v>
+      </c>
+      <c r="K63" s="63">
+        <v>9</v>
+      </c>
+      <c r="L63">
+        <v>12.514503400000001</v>
+      </c>
+      <c r="O63" s="62"/>
+      <c r="P63">
+        <v>13.502387669999999</v>
+      </c>
+      <c r="R63" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.98788426999999857</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="63">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>16.196536900000002</v>
+      </c>
+      <c r="E64" s="63"/>
+      <c r="F64">
+        <v>14.726820999999999</v>
+      </c>
+      <c r="H64" s="27">
+        <f t="shared" si="0"/>
+        <v>1.4697159000000024</v>
+      </c>
+      <c r="K64" s="63">
+        <v>10</v>
+      </c>
+      <c r="L64">
+        <v>12.84501955</v>
+      </c>
+      <c r="O64" s="62"/>
+      <c r="P64">
+        <v>13.830009349999999</v>
+      </c>
+      <c r="R64" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.98498979999999925</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="63">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>14.92710011</v>
+      </c>
+      <c r="E65" s="63"/>
+      <c r="F65">
+        <v>14.571450219999999</v>
+      </c>
+      <c r="H65" s="27">
+        <f t="shared" si="0"/>
+        <v>0.35564989000000047</v>
+      </c>
+      <c r="K65" s="63">
+        <v>11</v>
+      </c>
+      <c r="L65">
+        <v>13.622384009999999</v>
+      </c>
+      <c r="O65" s="62"/>
+      <c r="P65">
+        <v>15.86994443</v>
+      </c>
+      <c r="R65" s="27">
+        <f t="shared" si="1"/>
+        <v>-2.247560420000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="63">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>7.0266052999999999</v>
+      </c>
+      <c r="E66" s="63"/>
+      <c r="F66">
+        <v>8.5839478899999992</v>
+      </c>
+      <c r="H66" s="27">
+        <f t="shared" si="0"/>
+        <v>-1.5573425899999993</v>
+      </c>
+      <c r="K66" s="63">
+        <v>12</v>
+      </c>
+      <c r="L66">
+        <v>9.9372293000000003</v>
+      </c>
+      <c r="O66" s="62"/>
+      <c r="P66">
+        <v>8.0241609399999998</v>
+      </c>
+      <c r="R66" s="27">
+        <f t="shared" si="1"/>
+        <v>1.9130683600000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="63">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>15.42821034</v>
+      </c>
+      <c r="E67" s="63"/>
+      <c r="F67">
+        <v>13.529932909999999</v>
+      </c>
+      <c r="H67" s="66">
+        <f t="shared" ref="H67:H104" si="2">B67-F67</f>
+        <v>1.8982774300000003</v>
+      </c>
+      <c r="K67" s="63">
+        <v>13</v>
+      </c>
+      <c r="L67">
+        <v>14.632329929999999</v>
+      </c>
+      <c r="O67" s="62"/>
+      <c r="P67">
+        <v>15.804578319999999</v>
+      </c>
+      <c r="R67" s="27">
+        <f t="shared" ref="R67:R104" si="3">L67-P67</f>
+        <v>-1.17224839</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="63">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>17.333534119999999</v>
+      </c>
+      <c r="E68" s="63"/>
+      <c r="F68">
+        <v>17.448748940000002</v>
+      </c>
+      <c r="H68" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.11521482000000205</v>
+      </c>
+      <c r="K68" s="63">
+        <v>14</v>
+      </c>
+      <c r="L68">
+        <v>12.365217060000001</v>
+      </c>
+      <c r="O68" s="62"/>
+      <c r="P68">
+        <v>12.16770034</v>
+      </c>
+      <c r="R68" s="27">
+        <f t="shared" si="3"/>
+        <v>0.1975167200000012</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="63">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>16.76117507</v>
+      </c>
+      <c r="E69" s="63"/>
+      <c r="F69">
+        <v>17.28481996</v>
+      </c>
+      <c r="H69" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.52364488999999992</v>
+      </c>
+      <c r="K69" s="63">
+        <v>15</v>
+      </c>
+      <c r="L69">
+        <v>17.04340728</v>
+      </c>
+      <c r="O69" s="62"/>
+      <c r="P69">
+        <v>16.917431610000001</v>
+      </c>
+      <c r="R69" s="27">
+        <f t="shared" si="3"/>
+        <v>0.12597566999999898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="63">
+        <v>16</v>
+      </c>
+      <c r="B70">
+        <v>17.597083300000001</v>
+      </c>
+      <c r="E70" s="63"/>
+      <c r="F70">
+        <v>18.27059921</v>
+      </c>
+      <c r="H70" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.673515909999999</v>
+      </c>
+      <c r="K70" s="63">
+        <v>16</v>
+      </c>
+      <c r="L70">
+        <v>17.516569499999999</v>
+      </c>
+      <c r="O70" s="62"/>
+      <c r="P70">
+        <v>17.868231699999999</v>
+      </c>
+      <c r="R70" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.35166219999999981</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="63">
+        <v>17</v>
+      </c>
+      <c r="B71">
+        <v>13.116886060000001</v>
+      </c>
+      <c r="E71" s="63"/>
+      <c r="F71">
+        <v>11.937784130000001</v>
+      </c>
+      <c r="H71" s="27">
+        <f t="shared" si="2"/>
+        <v>1.1791019299999999</v>
+      </c>
+      <c r="K71" s="63">
+        <v>17</v>
+      </c>
+      <c r="L71">
+        <v>11.156889769999999</v>
+      </c>
+      <c r="O71" s="62"/>
+      <c r="P71">
+        <v>10.47701021</v>
+      </c>
+      <c r="R71" s="27">
+        <f t="shared" si="3"/>
+        <v>0.67987955999999983</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="63">
+        <v>18</v>
+      </c>
+      <c r="B72">
+        <v>11.139037679999999</v>
+      </c>
+      <c r="E72" s="63"/>
+      <c r="F72">
+        <v>12.42079468</v>
+      </c>
+      <c r="H72" s="27">
+        <f t="shared" si="2"/>
+        <v>-1.2817570000000007</v>
+      </c>
+      <c r="K72" s="63">
+        <v>18</v>
+      </c>
+      <c r="L72">
+        <v>15.66869423</v>
+      </c>
+      <c r="O72" s="62"/>
+      <c r="P72">
+        <v>15.470453259999999</v>
+      </c>
+      <c r="R72" s="27">
+        <f t="shared" si="3"/>
+        <v>0.19824097000000052</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="63">
+        <v>19</v>
+      </c>
+      <c r="B73">
+        <v>12.84408221</v>
+      </c>
+      <c r="E73" s="63"/>
+      <c r="F73">
+        <v>11.91991133</v>
+      </c>
+      <c r="H73" s="27">
+        <f t="shared" si="2"/>
+        <v>0.92417088000000014</v>
+      </c>
+      <c r="K73" s="63">
+        <v>19</v>
+      </c>
+      <c r="L73">
+        <v>15.60675983</v>
+      </c>
+      <c r="O73" s="62"/>
+      <c r="P73">
+        <v>15.41740935</v>
+      </c>
+      <c r="R73" s="27">
+        <f t="shared" si="3"/>
+        <v>0.18935047999999988</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="63">
+        <v>20</v>
+      </c>
+      <c r="B74">
+        <v>11.10566867</v>
+      </c>
+      <c r="E74" s="63"/>
+      <c r="F74">
+        <v>9.2368475599999993</v>
+      </c>
+      <c r="H74" s="27">
+        <f t="shared" si="2"/>
+        <v>1.8688211100000007</v>
+      </c>
+      <c r="K74" s="63">
+        <v>20</v>
+      </c>
+      <c r="L74">
+        <v>14.27551137</v>
+      </c>
+      <c r="O74" s="62"/>
+      <c r="P74">
+        <v>14.130357119999999</v>
+      </c>
+      <c r="R74" s="27">
+        <f t="shared" si="3"/>
+        <v>0.14515425000000093</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="63">
+        <v>21</v>
+      </c>
+      <c r="B75">
+        <v>13.69334649</v>
+      </c>
+      <c r="E75" s="63"/>
+      <c r="F75">
+        <v>12.732620450000001</v>
+      </c>
+      <c r="H75" s="27">
+        <f t="shared" si="2"/>
+        <v>0.96072603999999906</v>
+      </c>
+      <c r="K75" s="63">
+        <v>21</v>
+      </c>
+      <c r="L75">
+        <v>14.84813799</v>
+      </c>
+      <c r="O75" s="62"/>
+      <c r="P75">
+        <v>14.755072200000001</v>
+      </c>
+      <c r="R75" s="27">
+        <f t="shared" si="3"/>
+        <v>9.3065789999998927E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="63">
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>12.90203953</v>
+      </c>
+      <c r="E76" s="63"/>
+      <c r="F76">
+        <v>11.61072023</v>
+      </c>
+      <c r="H76" s="27">
+        <f t="shared" si="2"/>
+        <v>1.2913192999999996</v>
+      </c>
+      <c r="K76" s="63">
+        <v>22</v>
+      </c>
+      <c r="L76">
+        <v>12.801867379999999</v>
+      </c>
+      <c r="O76" s="62"/>
+      <c r="P76">
+        <v>12.688019710000001</v>
+      </c>
+      <c r="R76" s="27">
+        <f t="shared" si="3"/>
+        <v>0.1138476699999984</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="63">
+        <v>23</v>
+      </c>
+      <c r="B77">
+        <v>22.75987194</v>
+      </c>
+      <c r="E77" s="63"/>
+      <c r="F77">
+        <v>22.61503948</v>
+      </c>
+      <c r="H77" s="27">
+        <f t="shared" si="2"/>
+        <v>0.14483245999999994</v>
+      </c>
+      <c r="K77" s="63">
+        <v>23</v>
+      </c>
+      <c r="L77">
+        <v>13.80809438</v>
+      </c>
+      <c r="O77" s="62"/>
+      <c r="P77">
+        <v>13.69115086</v>
+      </c>
+      <c r="R77" s="27">
+        <f t="shared" si="3"/>
+        <v>0.11694351999999952</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="63">
+        <v>24</v>
+      </c>
+      <c r="B78">
+        <v>23.511607009999999</v>
+      </c>
+      <c r="E78" s="63"/>
+      <c r="F78">
+        <v>23.421590070000001</v>
+      </c>
+      <c r="H78" s="27">
+        <f t="shared" si="2"/>
+        <v>9.0016939999998158E-2</v>
+      </c>
+      <c r="K78" s="63">
+        <v>24</v>
+      </c>
+      <c r="L78">
+        <v>13.90358601</v>
+      </c>
+      <c r="O78" s="62"/>
+      <c r="P78">
+        <v>14.484954439999999</v>
+      </c>
+      <c r="R78" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.58136842999999949</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="H79" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="O79" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="R79" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="63">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>9.8978204600000002</v>
+      </c>
+      <c r="E80" s="63"/>
+      <c r="F80">
+        <v>9.9492836199999992</v>
+      </c>
+      <c r="H80" s="27">
+        <f t="shared" si="2"/>
+        <v>-5.1463159999999064E-2</v>
+      </c>
+      <c r="K80" s="63">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>10.32969113</v>
+      </c>
+      <c r="O80" s="62"/>
+      <c r="P80">
+        <v>10.45320761</v>
+      </c>
+      <c r="R80" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.12351647999999926</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="63">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>5.5971375500000002</v>
+      </c>
+      <c r="E81" s="63"/>
+      <c r="F81">
+        <v>5.3081339500000002</v>
+      </c>
+      <c r="H81" s="27">
+        <f t="shared" si="2"/>
+        <v>0.28900360000000003</v>
+      </c>
+      <c r="K81" s="63">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>9.7432551299999997</v>
+      </c>
+      <c r="O81" s="62"/>
+      <c r="P81">
+        <v>10.31808258</v>
+      </c>
+      <c r="R81" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.57482745000000079</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="63">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>6.5201208599999996</v>
+      </c>
+      <c r="E82" s="63"/>
+      <c r="F82">
+        <v>6.2992357800000001</v>
+      </c>
+      <c r="H82" s="27">
+        <f t="shared" si="2"/>
+        <v>0.22088507999999951</v>
+      </c>
+      <c r="K82" s="63">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>7.1008437899999999</v>
+      </c>
+      <c r="O82" s="62"/>
+      <c r="P82">
+        <v>6.7556733700000002</v>
+      </c>
+      <c r="R82" s="27">
+        <f t="shared" si="3"/>
+        <v>0.34517041999999964</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="63">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>8.4167369099999991</v>
+      </c>
+      <c r="E83" s="63"/>
+      <c r="F83">
+        <v>7.24576201</v>
+      </c>
+      <c r="H83" s="27">
+        <f t="shared" si="2"/>
+        <v>1.1709748999999992</v>
+      </c>
+      <c r="K83" s="63">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>14.92539448</v>
+      </c>
+      <c r="O83" s="62"/>
+      <c r="P83">
+        <v>15.27999299</v>
+      </c>
+      <c r="R83" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.35459851000000064</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="63">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>7.2574370899999998</v>
+      </c>
+      <c r="E84" s="63"/>
+      <c r="F84">
+        <v>6.9982964399999998</v>
+      </c>
+      <c r="H84" s="27">
+        <f t="shared" si="2"/>
+        <v>0.25914064999999997</v>
+      </c>
+      <c r="K84" s="63">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>8.1427087799999995</v>
+      </c>
+      <c r="O84" s="62"/>
+      <c r="P84">
+        <v>8.1783518799999992</v>
+      </c>
+      <c r="R84" s="27">
+        <f t="shared" si="3"/>
+        <v>-3.5643099999999706E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="63">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>8.6325564900000007</v>
+      </c>
+      <c r="E85" s="63"/>
+      <c r="F85">
+        <v>7.9542932300000002</v>
+      </c>
+      <c r="H85" s="27">
+        <f t="shared" si="2"/>
+        <v>0.67826326000000048</v>
+      </c>
+      <c r="K85" s="63">
+        <v>5</v>
+      </c>
+      <c r="L85">
+        <v>10.65931965</v>
+      </c>
+      <c r="O85" s="62"/>
+      <c r="P85">
+        <v>11.621568419999999</v>
+      </c>
+      <c r="R85" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.96224876999999864</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="63">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>8.1944108</v>
+      </c>
+      <c r="E86" s="63"/>
+      <c r="F86">
+        <v>8.4473493699999995</v>
+      </c>
+      <c r="H86" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.25293856999999953</v>
+      </c>
+      <c r="K86" s="63">
+        <v>6</v>
+      </c>
+      <c r="L86">
+        <v>8.7954291199999997</v>
+      </c>
+      <c r="O86" s="62"/>
+      <c r="P86">
+        <v>8.5996253599999992</v>
+      </c>
+      <c r="R86" s="27">
+        <f t="shared" si="3"/>
+        <v>0.19580376000000044</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="63">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>5.2453700799999998</v>
+      </c>
+      <c r="E87" s="63"/>
+      <c r="F87">
+        <v>5.1482503800000003</v>
+      </c>
+      <c r="H87" s="27">
+        <f t="shared" si="2"/>
+        <v>9.7119699999999476E-2</v>
+      </c>
+      <c r="K87" s="63">
+        <v>7</v>
+      </c>
+      <c r="L87">
+        <v>6.7809674700000002</v>
+      </c>
+      <c r="O87" s="62"/>
+      <c r="P87">
+        <v>9.0078364499999992</v>
+      </c>
+      <c r="R87" s="27">
+        <f t="shared" si="3"/>
+        <v>-2.226868979999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="63">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>3.1948744100000002</v>
+      </c>
+      <c r="E88" s="63"/>
+      <c r="F88">
+        <v>3.0400695799999999</v>
+      </c>
+      <c r="H88" s="27">
+        <f t="shared" si="2"/>
+        <v>0.15480483000000023</v>
+      </c>
+      <c r="K88" s="63">
+        <v>8</v>
+      </c>
+      <c r="L88">
+        <v>6.8500126799999999</v>
+      </c>
+      <c r="O88" s="62"/>
+      <c r="P88">
+        <v>6.8265532200000001</v>
+      </c>
+      <c r="R88" s="27">
+        <f t="shared" si="3"/>
+        <v>2.3459459999999766E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="63">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>6.6281594300000002</v>
+      </c>
+      <c r="E89" s="63"/>
+      <c r="F89">
+        <v>6.2076995300000002</v>
+      </c>
+      <c r="H89" s="27">
+        <f t="shared" si="2"/>
+        <v>0.4204599</v>
+      </c>
+      <c r="K89" s="63">
+        <v>9</v>
+      </c>
+      <c r="L89">
+        <v>8.7385080199999994</v>
+      </c>
+      <c r="O89" s="62"/>
+      <c r="P89">
+        <v>9.4001009599999996</v>
+      </c>
+      <c r="R89" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.66159294000000024</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="63">
+        <v>10</v>
+      </c>
+      <c r="B90">
+        <v>6.2521519999999997</v>
+      </c>
+      <c r="E90" s="63"/>
+      <c r="F90">
+        <v>5.5127646800000001</v>
+      </c>
+      <c r="H90" s="27">
+        <f t="shared" si="2"/>
+        <v>0.73938731999999963</v>
+      </c>
+      <c r="K90" s="63">
+        <v>10</v>
+      </c>
+      <c r="L90">
+        <v>5.8588538899999998</v>
+      </c>
+      <c r="O90" s="62"/>
+      <c r="P90">
+        <v>6.1372306700000001</v>
+      </c>
+      <c r="R90" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.27837678000000032</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="63">
+        <v>11</v>
+      </c>
+      <c r="B91">
+        <v>6.4179692700000004</v>
+      </c>
+      <c r="E91" s="63"/>
+      <c r="F91">
+        <v>6.2505107600000001</v>
+      </c>
+      <c r="H91" s="27">
+        <f t="shared" si="2"/>
+        <v>0.16745851000000034</v>
+      </c>
+      <c r="K91" s="63">
+        <v>11</v>
+      </c>
+      <c r="L91">
+        <v>4.1764069599999996</v>
+      </c>
+      <c r="O91" s="62"/>
+      <c r="P91">
+        <v>6.0446812799999998</v>
+      </c>
+      <c r="R91" s="27">
+        <f t="shared" si="3"/>
+        <v>-1.8682743200000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="63">
+        <v>12</v>
+      </c>
+      <c r="B92">
+        <v>5.5913477299999998</v>
+      </c>
+      <c r="E92" s="63"/>
+      <c r="F92">
+        <v>7.0658940399999999</v>
+      </c>
+      <c r="H92" s="27">
+        <f t="shared" si="2"/>
+        <v>-1.47454631</v>
+      </c>
+      <c r="K92" s="63">
+        <v>12</v>
+      </c>
+      <c r="L92">
+        <v>7.51471906</v>
+      </c>
+      <c r="O92" s="62"/>
+      <c r="P92">
+        <v>5.4159035500000003</v>
+      </c>
+      <c r="R92" s="27">
+        <f t="shared" si="3"/>
+        <v>2.0988155099999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="63">
+        <v>13</v>
+      </c>
+      <c r="B93">
+        <v>3.5496597599999999</v>
+      </c>
+      <c r="E93" s="63"/>
+      <c r="F93">
+        <v>1.9275180000000001</v>
+      </c>
+      <c r="H93" s="27">
+        <f t="shared" si="2"/>
+        <v>1.6221417599999999</v>
+      </c>
+      <c r="K93" s="63">
+        <v>13</v>
+      </c>
+      <c r="L93">
+        <v>8.2826728299999992</v>
+      </c>
+      <c r="O93" s="62"/>
+      <c r="P93">
+        <v>9.1110722899999992</v>
+      </c>
+      <c r="R93" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.82839945999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="63">
+        <v>14</v>
+      </c>
+      <c r="B94">
+        <v>18.114820659999999</v>
+      </c>
+      <c r="E94" s="63"/>
+      <c r="F94">
+        <v>18.465486640000002</v>
+      </c>
+      <c r="H94" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.35066598000000226</v>
+      </c>
+      <c r="K94" s="63">
+        <v>14</v>
+      </c>
+      <c r="L94">
+        <v>6.9757158099999996</v>
+      </c>
+      <c r="O94" s="62"/>
+      <c r="P94">
+        <v>6.3273572800000002</v>
+      </c>
+      <c r="R94" s="27">
+        <f t="shared" si="3"/>
+        <v>0.64835852999999943</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" s="63">
+        <v>15</v>
+      </c>
+      <c r="B95">
+        <v>7.8747682000000001</v>
+      </c>
+      <c r="E95" s="63"/>
+      <c r="F95">
+        <v>8.5440622099999999</v>
+      </c>
+      <c r="H95" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.66929400999999977</v>
+      </c>
+      <c r="K95" s="63">
+        <v>15</v>
+      </c>
+      <c r="L95">
+        <v>10.1306364</v>
+      </c>
+      <c r="O95" s="62"/>
+      <c r="P95">
+        <v>10.00253981</v>
+      </c>
+      <c r="R95" s="27">
+        <f t="shared" si="3"/>
+        <v>0.12809659000000018</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="63">
+        <v>16</v>
+      </c>
+      <c r="B96">
+        <v>6.7728481</v>
+      </c>
+      <c r="E96" s="63"/>
+      <c r="F96">
+        <v>7.5876295999999996</v>
+      </c>
+      <c r="H96" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.8147814999999996</v>
+      </c>
+      <c r="K96" s="63">
+        <v>16</v>
+      </c>
+      <c r="L96">
+        <v>8.4629904000000007</v>
+      </c>
+      <c r="O96" s="62"/>
+      <c r="P96">
+        <v>9.12488031</v>
+      </c>
+      <c r="R96" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.6618899099999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="63">
+        <v>17</v>
+      </c>
+      <c r="B97">
+        <v>8.2422781199999999</v>
+      </c>
+      <c r="E97" s="63"/>
+      <c r="F97">
+        <v>7.1373774699999997</v>
+      </c>
+      <c r="H97" s="27">
+        <f t="shared" si="2"/>
+        <v>1.1049006500000003</v>
+      </c>
+      <c r="K97" s="63">
+        <v>17</v>
+      </c>
+      <c r="L97">
+        <v>4.7731310499999999</v>
+      </c>
+      <c r="O97" s="62"/>
+      <c r="P97">
+        <v>5.1909081199999996</v>
+      </c>
+      <c r="R97" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.41777706999999964</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="63">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <v>4.9300841499999999</v>
+      </c>
+      <c r="E98" s="63"/>
+      <c r="F98">
+        <v>6.8585125299999996</v>
+      </c>
+      <c r="H98" s="27">
+        <f t="shared" si="2"/>
+        <v>-1.9284283799999997</v>
+      </c>
+      <c r="K98" s="63">
+        <v>18</v>
+      </c>
+      <c r="L98">
+        <v>6.7811967400000004</v>
+      </c>
+      <c r="O98" s="62"/>
+      <c r="P98">
+        <v>6.6958217800000002</v>
+      </c>
+      <c r="R98" s="27">
+        <f t="shared" si="3"/>
+        <v>8.5374960000000222E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="63">
+        <v>19</v>
+      </c>
+      <c r="B99">
+        <v>5.2237490900000001</v>
+      </c>
+      <c r="E99" s="63"/>
+      <c r="F99">
+        <v>4.8662689700000001</v>
+      </c>
+      <c r="H99" s="27">
+        <f t="shared" si="2"/>
+        <v>0.35748011999999996</v>
+      </c>
+      <c r="K99" s="63">
+        <v>19</v>
+      </c>
+      <c r="L99">
+        <v>5.5608605500000001</v>
+      </c>
+      <c r="O99" s="62"/>
+      <c r="P99">
+        <v>5.1364515400000004</v>
+      </c>
+      <c r="R99" s="27">
+        <f t="shared" si="3"/>
+        <v>0.42440900999999975</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="63">
+        <v>20</v>
+      </c>
+      <c r="B100">
+        <v>6.0626786900000003</v>
+      </c>
+      <c r="E100" s="63"/>
+      <c r="F100">
+        <v>4.9211780799999998</v>
+      </c>
+      <c r="H100" s="27">
+        <f t="shared" si="2"/>
+        <v>1.1415006100000005</v>
+      </c>
+      <c r="K100" s="63">
+        <v>20</v>
+      </c>
+      <c r="L100">
+        <v>14.17107611</v>
+      </c>
+      <c r="O100" s="62"/>
+      <c r="P100">
+        <v>14.120597549999999</v>
+      </c>
+      <c r="R100" s="27">
+        <f t="shared" si="3"/>
+        <v>5.0478560000000172E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="63">
+        <v>21</v>
+      </c>
+      <c r="B101">
+        <v>8.4616545199999997</v>
+      </c>
+      <c r="E101" s="63"/>
+      <c r="F101">
+        <v>7.8103992499999997</v>
+      </c>
+      <c r="H101" s="27">
+        <f t="shared" si="2"/>
+        <v>0.65125527000000005</v>
+      </c>
+      <c r="K101" s="63">
+        <v>21</v>
+      </c>
+      <c r="L101">
+        <v>12.788889729999999</v>
+      </c>
+      <c r="O101" s="62"/>
+      <c r="P101">
+        <v>12.59382123</v>
+      </c>
+      <c r="R101" s="27">
+        <f t="shared" si="3"/>
+        <v>0.19506849999999964</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="63">
+        <v>22</v>
+      </c>
+      <c r="B102">
+        <v>8.1267417000000002</v>
+      </c>
+      <c r="E102" s="63"/>
+      <c r="F102">
+        <v>7.4475896700000002</v>
+      </c>
+      <c r="H102" s="27">
+        <f t="shared" si="2"/>
+        <v>0.67915203000000002</v>
+      </c>
+      <c r="K102" s="63">
+        <v>22</v>
+      </c>
+      <c r="L102">
+        <v>12.51526653</v>
+      </c>
+      <c r="O102" s="62"/>
+      <c r="P102">
+        <v>12.49141058</v>
+      </c>
+      <c r="R102" s="27">
+        <f t="shared" si="3"/>
+        <v>2.3855949999999737E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="63">
+        <v>23</v>
+      </c>
+      <c r="B103">
+        <v>4.17127933</v>
+      </c>
+      <c r="E103" s="63"/>
+      <c r="F103">
+        <v>3.9954557099999999</v>
+      </c>
+      <c r="H103" s="27">
+        <f t="shared" si="2"/>
+        <v>0.17582362000000007</v>
+      </c>
+      <c r="K103" s="63">
+        <v>23</v>
+      </c>
+      <c r="L103">
+        <v>6.5042522299999996</v>
+      </c>
+      <c r="O103" s="62"/>
+      <c r="P103">
+        <v>6.2895906799999999</v>
+      </c>
+      <c r="R103" s="27">
+        <f t="shared" si="3"/>
+        <v>0.21466154999999976</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="63">
+        <v>24</v>
+      </c>
+      <c r="B104">
+        <v>5.0628215900000004</v>
+      </c>
+      <c r="E104" s="63"/>
+      <c r="F104">
+        <v>5.0888711999999998</v>
+      </c>
+      <c r="H104" s="27">
+        <f t="shared" si="2"/>
+        <v>-2.604960999999939E-2</v>
+      </c>
+      <c r="K104" s="63">
+        <v>24</v>
+      </c>
+      <c r="L104">
+        <v>7.1700338500000003</v>
+      </c>
+      <c r="O104" s="62"/>
+      <c r="P104">
+        <v>7.1657009499999997</v>
+      </c>
+      <c r="R104" s="27">
+        <f t="shared" si="3"/>
+        <v>4.332900000000528E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="65"/>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="64"/>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId3" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>104</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>53340</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4099" r:id="rId3" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4098" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>104</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>822960</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4098" r:id="rId5" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4097" r:id="rId7" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>104</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>213360</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4097" r:id="rId7" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF23902-3816-4B4E-83CE-581E9B6C3F52}">
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="13" t="s">
         <v>86</v>
       </c>
@@ -3553,7 +7319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11">
       <c r="B3" s="25" t="s">
         <v>74</v>
       </c>
@@ -3576,7 +7342,7 @@
         <v>-6.32791094461188E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11">
       <c r="B4" s="25"/>
       <c r="C4" s="9" t="s">
         <v>84</v>
@@ -3597,7 +7363,7 @@
         <v>4.7624871892681799</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11">
       <c r="B5" s="25" t="s">
         <v>72</v>
       </c>
@@ -3620,7 +7386,7 @@
         <v>-1.00648635425107E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="15" thickBot="1">
       <c r="B6" s="26"/>
       <c r="C6" s="17" t="s">
         <v>84</v>
@@ -3641,51 +7407,237 @@
         <v>2.2201058587415501</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="9">
+    <row r="9" spans="2:11" ht="15" thickBot="1"/>
+    <row r="10" spans="2:11">
+      <c r="B10" s="60"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="2:11" ht="15" thickBot="1">
+      <c r="B11" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="48">
+        <v>1.96897126794523</v>
+      </c>
+      <c r="E12" s="49">
+        <v>3.4602999071115099</v>
+      </c>
+      <c r="F12" s="49">
+        <v>14.6053919825485</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="55">
         <v>2.5172597916725101E-3</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="40">
         <v>11.812966277372</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="10">
         <v>17.191494721178199</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="10">
         <v>13.6182460783909</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="41">
         <v>8.1368781707219107</v>
       </c>
+      <c r="H13" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="55">
+        <v>1.2416653778368101E-3</v>
+      </c>
+      <c r="D14" s="40">
+        <v>12.0679709489517</v>
+      </c>
+      <c r="E14" s="10">
+        <v>16.795348497486899</v>
+      </c>
+      <c r="F14" s="10">
+        <v>14.1431827932181</v>
+      </c>
+      <c r="G14" s="41">
+        <v>8.3918828423015999</v>
+      </c>
+      <c r="H14" s="38">
+        <f>(D14-D$13)/D$13</f>
+        <v>2.1586844962739542E-2</v>
+      </c>
+      <c r="I14" s="29">
+        <f t="shared" ref="I14:K14" si="0">(E14-E$13)/E$13</f>
+        <v>-2.3043151867608556E-2</v>
+      </c>
+      <c r="J14" s="29">
+        <f t="shared" si="0"/>
+        <v>3.8546572870360826E-2</v>
+      </c>
+      <c r="K14" s="33">
+        <f t="shared" si="0"/>
+        <v>3.133937441723611E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="55">
+        <v>1.2367894384974099E-3</v>
+      </c>
+      <c r="D15" s="40">
+        <v>12.0501735388866</v>
+      </c>
+      <c r="E15" s="10">
+        <v>16.906721928754401</v>
+      </c>
+      <c r="F15" s="10">
+        <v>14.0762430723527</v>
+      </c>
+      <c r="G15" s="41">
+        <v>8.3740854322365994</v>
+      </c>
+      <c r="H15" s="38">
+        <f>(D15-D$13)/D$13</f>
+        <v>2.0080245379941169E-2</v>
+      </c>
+      <c r="I15" s="29">
+        <f t="shared" ref="I15" si="1">(E15-E$13)/E$13</f>
+        <v>-1.6564748850661972E-2</v>
+      </c>
+      <c r="J15" s="29">
+        <f t="shared" ref="J15" si="2">(F15-F$13)/F$13</f>
+        <v>3.3631129245677092E-2</v>
+      </c>
+      <c r="K15" s="33">
+        <f t="shared" ref="K15" si="3">(G15-G$13)/G$13</f>
+        <v>2.9152121555439673E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="2:11" ht="15" thickBot="1">
+      <c r="B17" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="57" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB077578-BE78-4B93-9E5A-D84D4BCC6A7F}">
   <dimension ref="A1:O28"/>
   <sheetViews>
@@ -3693,18 +7645,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="L2" s="3" t="s">
         <v>88</v>
       </c>
@@ -3718,7 +7670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3732,7 +7684,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3752,7 +7704,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3763,7 +7715,7 @@
         <v>14987</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3777,62 +7729,62 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>22</v>
       </c>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82F91E93-B7E3-4419-812E-11372F45B682}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DFDF3CB6-D89C-47F2-9B25-86F5A7FA9EAC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3984" windowHeight="4260" activeTab="2" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="131">
   <si>
     <t>Experiment</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>mag</t>
+  </si>
+  <si>
+    <t>U-Net with real_imag</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -642,8 +645,12 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -654,7 +661,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -670,6 +677,75 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -680,123 +756,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -846,6 +805,45 @@
       </left>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -855,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -883,73 +881,45 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -963,6 +933,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,10 +1005,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>426720</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1017,7 +1018,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9031F0-50B5-4AAB-B0B7-FA4766C00B23}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1055,9 +1056,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>632460</xdr:colOff>
+          <xdr:colOff>685800</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1067,7 +1068,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FFAA00-B664-4C4A-B8E9-331ED7033B98}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1104,10 +1105,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>541020</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1117,7 +1118,7 @@
                   <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84ED4CF3-2DB9-4670-855C-E0B369919DF0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1444,11 +1445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
+      <selection pane="bottomLeft" activeCell="D128" sqref="D128:H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
@@ -1625,7 +1626,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -1651,7 +1652,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="24"/>
+      <c r="B10" s="55"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -1672,10 +1673,10 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="23">
+      <c r="A11" s="56">
         <v>43367</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="55">
         <v>50</v>
       </c>
       <c r="C11">
@@ -1701,8 +1702,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="55"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -1726,10 +1727,10 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="23">
+      <c r="A13" s="56">
         <v>43368</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="55">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -1750,13 +1751,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="55" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="55"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -1775,13 +1776,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="55"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="23">
+      <c r="A15" s="56">
         <v>43369</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="55">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1802,13 +1803,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="55" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="55"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1827,11 +1828,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="24"/>
+      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1850,11 +1851,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="55"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1873,13 +1874,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="24"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="23">
+      <c r="A19" s="56">
         <v>43370</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="55">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1900,13 +1901,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="55" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="55"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1925,13 +1926,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="55"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="23">
+      <c r="A21" s="56">
         <v>43373</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="55">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1952,13 +1953,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="55" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="55"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1977,11 +1978,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="24"/>
+      <c r="I22" s="55"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="55"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -2000,11 +2001,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="24"/>
+      <c r="I23" s="55"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="55"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -2023,7 +2024,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="24"/>
+      <c r="I24" s="55"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
@@ -2073,10 +2074,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="23">
+      <c r="A29" s="56">
         <v>43374</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="55">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -2097,13 +2098,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="55" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="55"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2122,11 +2123,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="24"/>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="55"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2145,11 +2146,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="24"/>
+      <c r="I31" s="55"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="55"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -2168,13 +2169,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="24"/>
+      <c r="I32" s="55"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="23">
+      <c r="A33" s="56">
         <v>43374</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="55">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -2195,13 +2196,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="55" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="55"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -2220,13 +2221,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="24"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="23">
+      <c r="A35" s="56">
         <v>43375</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="55">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -2247,13 +2248,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="55"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -2272,11 +2273,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="24"/>
+      <c r="I36" s="55"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="55"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -2295,11 +2296,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="24"/>
+      <c r="I37" s="55"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="55"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -2318,13 +2319,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="24"/>
+      <c r="I38" s="55"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="23">
+      <c r="A39" s="56">
         <v>43375</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="55">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -2345,13 +2346,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="55"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -2370,11 +2371,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="24"/>
+      <c r="I40" s="55"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="55"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -2393,11 +2394,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="24"/>
+      <c r="I41" s="55"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="23"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="55"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -2416,7 +2417,7 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="24"/>
+      <c r="I42" s="55"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
@@ -2606,7 +2607,7 @@
       <c r="H51">
         <v>-0.31863876639355398</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="I51" s="55" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2630,7 +2631,7 @@
       <c r="H52">
         <v>2.67662389686584</v>
       </c>
-      <c r="I52" s="24"/>
+      <c r="I52" s="55"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
@@ -2652,7 +2653,7 @@
       <c r="H53">
         <v>0.95464630209159695</v>
       </c>
-      <c r="I53" s="24"/>
+      <c r="I53" s="55"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
@@ -2674,7 +2675,7 @@
       <c r="H54">
         <v>4.8512619602994098</v>
       </c>
-      <c r="I54" s="24"/>
+      <c r="I54" s="55"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
@@ -2699,7 +2700,7 @@
       <c r="H55">
         <v>-0.56767955034740303</v>
       </c>
-      <c r="I55" s="24"/>
+      <c r="I55" s="55"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
@@ -2721,7 +2722,7 @@
       <c r="H56">
         <v>1.8761231724104801</v>
       </c>
-      <c r="I56" s="24"/>
+      <c r="I56" s="55"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
@@ -2743,7 +2744,7 @@
       <c r="H57">
         <v>0.76717154068581295</v>
       </c>
-      <c r="I57" s="24"/>
+      <c r="I57" s="55"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
@@ -2765,7 +2766,7 @@
       <c r="H58">
         <v>3.8964804606254</v>
       </c>
-      <c r="I58" s="24"/>
+      <c r="I58" s="55"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
@@ -2783,10 +2784,10 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="23">
+      <c r="A60" s="56">
         <v>43377</v>
       </c>
-      <c r="B60" s="24">
+      <c r="B60" s="55">
         <v>85</v>
       </c>
       <c r="C60" t="s">
@@ -2807,13 +2808,13 @@
       <c r="H60">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I60" s="24" t="s">
+      <c r="I60" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="55"/>
       <c r="C61" t="s">
         <v>32</v>
       </c>
@@ -2832,13 +2833,13 @@
       <c r="H61">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I61" s="24"/>
+      <c r="I61" s="55"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="23">
+      <c r="A62" s="56">
         <v>43378</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B62" s="55">
         <v>89</v>
       </c>
       <c r="C62" t="s">
@@ -2859,11 +2860,11 @@
       <c r="H62">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I62" s="24"/>
+      <c r="I62" s="55"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="23"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="55"/>
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -2882,7 +2883,7 @@
       <c r="H63">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I63" s="24"/>
+      <c r="I63" s="55"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -2905,7 +2906,7 @@
       <c r="H64">
         <v>4.5462062693628003</v>
       </c>
-      <c r="I64" s="24" t="s">
+      <c r="I64" s="55" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2930,7 +2931,7 @@
       <c r="H65">
         <v>-3.4906857233533901</v>
       </c>
-      <c r="I65" s="24"/>
+      <c r="I65" s="55"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="5" t="s">
@@ -3110,7 +3111,7 @@
       <c r="H74">
         <v>-1.00648635425107E-2</v>
       </c>
-      <c r="I74" s="24" t="s">
+      <c r="I74" s="55" t="s">
         <v>72</v>
       </c>
       <c r="J74" t="s">
@@ -3136,7 +3137,7 @@
       <c r="H75">
         <v>2.3179146551025099E-3</v>
       </c>
-      <c r="I75" s="24"/>
+      <c r="I75" s="55"/>
     </row>
     <row r="76" spans="1:10">
       <c r="C76" t="s">
@@ -3157,7 +3158,7 @@
       <c r="H76">
         <v>2.2201058587415501</v>
       </c>
-      <c r="I76" s="24"/>
+      <c r="I76" s="55"/>
     </row>
     <row r="77" spans="1:10">
       <c r="C77" t="s">
@@ -3178,7 +3179,7 @@
       <c r="H77">
         <v>-3.9812518800141699</v>
       </c>
-      <c r="I77" s="24"/>
+      <c r="I77" s="55"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1">
@@ -3205,7 +3206,7 @@
       <c r="H78">
         <v>-5.2635717372245903E-3</v>
       </c>
-      <c r="I78" s="24" t="s">
+      <c r="I78" s="55" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3228,7 +3229,7 @@
       <c r="H79">
         <v>-3.0981829250898101</v>
       </c>
-      <c r="I79" s="24"/>
+      <c r="I79" s="55"/>
     </row>
     <row r="80" spans="1:10">
       <c r="B80">
@@ -3252,7 +3253,7 @@
       <c r="H80">
         <v>-6.1165373024574896E-3</v>
       </c>
-      <c r="I80" s="24"/>
+      <c r="I80" s="55"/>
     </row>
     <row r="81" spans="1:9">
       <c r="C81" t="s">
@@ -3273,7 +3274,7 @@
       <c r="H81">
         <v>-3.3361756537648399</v>
       </c>
-      <c r="I81" s="24"/>
+      <c r="I81" s="55"/>
     </row>
     <row r="82" spans="1:9">
       <c r="C82" t="s">
@@ -3294,7 +3295,7 @@
       <c r="H82">
         <v>2.0683995791691099</v>
       </c>
-      <c r="I82" s="24"/>
+      <c r="I82" s="55"/>
     </row>
     <row r="83" spans="1:9">
       <c r="C83" t="s">
@@ -3315,7 +3316,7 @@
       <c r="H83">
         <v>-3.3679402794508602</v>
       </c>
-      <c r="I83" s="24"/>
+      <c r="I83" s="55"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
@@ -4015,8 +4016,75 @@
         <v>6.63834181722246</v>
       </c>
     </row>
+    <row r="128" spans="1:11">
+      <c r="B128">
+        <v>180</v>
+      </c>
+      <c r="C128" t="s">
+        <v>31</v>
+      </c>
+      <c r="D128">
+        <v>0.16524580917679299</v>
+      </c>
+      <c r="E128">
+        <v>11.524378679359</v>
+      </c>
+      <c r="F128">
+        <v>19.351235832271101</v>
+      </c>
+      <c r="G128">
+        <v>12.516035605725399</v>
+      </c>
+      <c r="H128">
+        <v>7.8482905727088497</v>
+      </c>
+      <c r="I128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8">
+      <c r="C129" t="s">
+        <v>32</v>
+      </c>
+      <c r="D129">
+        <v>0.16524580917679299</v>
+      </c>
+      <c r="E129">
+        <v>2.7443213043886701</v>
+      </c>
+      <c r="F129">
+        <v>5.2748518417231001</v>
+      </c>
+      <c r="G129">
+        <v>9.4748345842783497</v>
+      </c>
+      <c r="H129">
+        <v>5.6660565607624997</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
     <mergeCell ref="I78:I83"/>
     <mergeCell ref="I74:I77"/>
     <mergeCell ref="I51:I58"/>
@@ -4032,27 +4100,6 @@
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="I60:I63"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4064,3137 +4111,3137 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="19" style="27" customWidth="1"/>
+    <col min="8" max="8" width="19" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="51" t="s">
         <v>118</v>
       </c>
       <c r="B1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="51" t="s">
         <v>118</v>
       </c>
       <c r="F1" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="50" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="63">
+      <c r="A2" s="51">
         <v>0</v>
       </c>
       <c r="B2" s="22">
         <v>13.6310941</v>
       </c>
       <c r="C2" s="22"/>
-      <c r="E2" s="63"/>
+      <c r="E2" s="51"/>
       <c r="F2">
         <v>13.68255731</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="23">
         <f>B2-F2</f>
         <v>-5.1463209999999648E-2</v>
       </c>
-      <c r="K2" s="63">
+      <c r="K2" s="51">
         <v>0</v>
       </c>
       <c r="L2">
         <v>15.504060880000001</v>
       </c>
-      <c r="O2" s="62"/>
+      <c r="O2" s="50"/>
       <c r="P2">
         <v>15.62757736</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="23">
         <f>L2-P2</f>
         <v>-0.12351647999999926</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="63">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
       <c r="B3" s="22">
         <v>14.114214</v>
       </c>
       <c r="C3" s="22"/>
-      <c r="E3" s="63"/>
+      <c r="E3" s="51"/>
       <c r="F3">
         <v>13.82521036</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="23">
         <f t="shared" ref="H3:H66" si="0">B3-F3</f>
         <v>0.28900364000000067</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="51">
         <v>1</v>
       </c>
       <c r="L3">
         <v>13.243643690000001</v>
       </c>
-      <c r="O3" s="62"/>
+      <c r="O3" s="50"/>
       <c r="P3">
         <v>13.81847114</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="23">
         <f t="shared" ref="R3:R66" si="1">L3-P3</f>
         <v>-0.57482744999999902</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="63">
+      <c r="A4" s="51">
         <v>2</v>
       </c>
       <c r="B4" s="22">
         <v>14.915215</v>
       </c>
       <c r="C4" s="22"/>
-      <c r="E4" s="63"/>
+      <c r="E4" s="51"/>
       <c r="F4">
         <v>14.69432993</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="23">
         <f t="shared" si="0"/>
         <v>0.22088506999999957</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="51">
         <v>2</v>
       </c>
       <c r="L4">
         <v>10.105190090000001</v>
       </c>
-      <c r="O4" s="62"/>
+      <c r="O4" s="50"/>
       <c r="P4">
         <v>9.7600196700000001</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="23">
         <f t="shared" si="1"/>
         <v>0.34517042000000053</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="63">
+      <c r="A5" s="51">
         <v>3</v>
       </c>
       <c r="B5" s="22">
         <v>13.295089000000001</v>
       </c>
       <c r="C5" s="22"/>
-      <c r="E5" s="63"/>
+      <c r="E5" s="51"/>
       <c r="F5">
         <v>12.1241141</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="23">
         <f t="shared" si="0"/>
         <v>1.1709749000000009</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="51">
         <v>3</v>
       </c>
       <c r="L5">
         <v>15.537563349999999</v>
       </c>
-      <c r="O5" s="62"/>
+      <c r="O5" s="50"/>
       <c r="P5">
         <v>15.89216186</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="23">
         <f t="shared" si="1"/>
         <v>-0.35459851000000064</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="63">
+      <c r="A6" s="51">
         <v>4</v>
       </c>
       <c r="B6" s="22">
         <v>13.5681665</v>
       </c>
       <c r="C6" s="22"/>
-      <c r="E6" s="63"/>
+      <c r="E6" s="51"/>
       <c r="F6">
         <v>13.30902581</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="23">
         <f t="shared" si="0"/>
         <v>0.25914069000000062</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="51">
         <v>4</v>
       </c>
       <c r="L6">
         <v>13.53970662</v>
       </c>
-      <c r="O6" s="62"/>
+      <c r="O6" s="50"/>
       <c r="P6">
         <v>13.575349709999999</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="23">
         <f t="shared" si="1"/>
         <v>-3.5643089999998878E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="63">
+      <c r="A7" s="51">
         <v>5</v>
       </c>
       <c r="B7" s="22">
         <v>13.837569200000001</v>
       </c>
       <c r="C7" s="22"/>
-      <c r="E7" s="63"/>
+      <c r="E7" s="51"/>
       <c r="F7">
         <v>13.159305959999999</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="23">
         <f t="shared" si="0"/>
         <v>0.67826324000000149</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="51">
         <v>5</v>
       </c>
       <c r="L7">
         <v>12.303724689999999</v>
       </c>
-      <c r="O7" s="62"/>
+      <c r="O7" s="50"/>
       <c r="P7">
         <v>13.26597346</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="23">
         <f t="shared" si="1"/>
         <v>-0.96224877000000042</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="63">
+      <c r="A8" s="51">
         <v>6</v>
       </c>
       <c r="B8" s="22">
         <v>9.5816275799999993</v>
       </c>
       <c r="C8" s="22"/>
-      <c r="E8" s="63"/>
+      <c r="E8" s="51"/>
       <c r="F8">
         <v>9.8345661500000006</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="23">
         <f t="shared" si="0"/>
         <v>-0.25293857000000131</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="51">
         <v>6</v>
       </c>
       <c r="L8">
         <v>9.0521034199999999</v>
       </c>
-      <c r="O8" s="62"/>
+      <c r="O8" s="50"/>
       <c r="P8">
         <v>8.8562996599999995</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="23">
         <f t="shared" si="1"/>
         <v>0.19580376000000044</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="63">
+      <c r="A9" s="51">
         <v>7</v>
       </c>
       <c r="B9" s="22">
         <v>10.8376546</v>
       </c>
       <c r="C9" s="22"/>
-      <c r="E9" s="63"/>
+      <c r="E9" s="51"/>
       <c r="F9">
         <v>10.74053486</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="23">
         <f t="shared" si="0"/>
         <v>9.7119740000000121E-2</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="51">
         <v>7</v>
       </c>
       <c r="L9">
         <v>9.3473276300000006</v>
       </c>
-      <c r="O9" s="62"/>
+      <c r="O9" s="50"/>
       <c r="P9">
         <v>11.57419661</v>
       </c>
-      <c r="R9" s="66">
+      <c r="R9" s="54">
         <f t="shared" si="1"/>
         <v>-2.226868979999999</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="63">
+      <c r="A10" s="51">
         <v>8</v>
       </c>
       <c r="B10" s="22">
         <v>8.8218898699999997</v>
       </c>
       <c r="C10" s="22"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="51"/>
       <c r="F10">
         <v>8.6670850500000007</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="23">
         <f t="shared" si="0"/>
         <v>0.15480481999999895</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="51">
         <v>8</v>
       </c>
       <c r="L10">
         <v>7.3468390100000001</v>
       </c>
-      <c r="O10" s="62"/>
+      <c r="O10" s="50"/>
       <c r="P10">
         <v>7.3233795500000003</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="23">
         <f t="shared" si="1"/>
         <v>2.3459459999999766E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="63">
+      <c r="A11" s="51">
         <v>9</v>
       </c>
       <c r="B11" s="22">
         <v>12.502928799999999</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="E11" s="63"/>
+      <c r="E11" s="51"/>
       <c r="F11">
         <v>12.082468860000001</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="23">
         <f t="shared" si="0"/>
         <v>0.42045993999999887</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="51">
         <v>9</v>
       </c>
       <c r="L11">
         <v>11.436437010000001</v>
       </c>
-      <c r="O11" s="62"/>
+      <c r="O11" s="50"/>
       <c r="P11">
         <v>12.098029950000001</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="23">
         <f t="shared" si="1"/>
         <v>-0.66159294000000024</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="63">
+      <c r="A12" s="51">
         <v>10</v>
       </c>
       <c r="B12" s="22">
         <v>14.1842772</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="E12" s="63"/>
+      <c r="E12" s="51"/>
       <c r="F12">
         <v>13.44488993</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="23">
         <f t="shared" si="0"/>
         <v>0.73938726999999993</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="51">
         <v>10</v>
       </c>
       <c r="L12">
         <v>11.277759339999999</v>
       </c>
-      <c r="O12" s="62"/>
+      <c r="O12" s="50"/>
       <c r="P12">
         <v>11.55613612</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="23">
         <f t="shared" si="1"/>
         <v>-0.27837678000000032</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="63">
+      <c r="A13" s="51">
         <v>11</v>
       </c>
       <c r="B13" s="22">
         <v>12.692087799999999</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="E13" s="63"/>
+      <c r="E13" s="51"/>
       <c r="F13">
         <v>12.524629300000001</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="23">
         <f t="shared" si="0"/>
         <v>0.16745849999999862</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="51">
         <v>11</v>
       </c>
       <c r="L13">
         <v>11.932036009999999</v>
       </c>
-      <c r="O13" s="62"/>
+      <c r="O13" s="50"/>
       <c r="P13">
         <v>13.80031033</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="23">
         <f t="shared" si="1"/>
         <v>-1.8682743200000012</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="63">
+      <c r="A14" s="51">
         <v>12</v>
       </c>
       <c r="B14" s="22">
         <v>6.1079395500000002</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="E14" s="63"/>
+      <c r="E14" s="51"/>
       <c r="F14">
         <v>7.5824858600000002</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="23">
         <f t="shared" si="0"/>
         <v>-1.47454631</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="51">
         <v>12</v>
       </c>
       <c r="L14">
         <v>9.1186061200000008</v>
       </c>
-      <c r="O14" s="62"/>
+      <c r="O14" s="50"/>
       <c r="P14">
         <v>7.0197906100000003</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="23">
         <f t="shared" si="1"/>
         <v>2.0988155100000006</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="63">
+      <c r="A15" s="51">
         <v>13</v>
       </c>
       <c r="B15" s="22">
         <v>14.3286034</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="E15" s="63"/>
+      <c r="E15" s="51"/>
       <c r="F15">
         <v>12.70646168</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="54">
         <f t="shared" si="0"/>
         <v>1.6221417200000001</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="51">
         <v>13</v>
       </c>
       <c r="L15">
         <v>13.77721393</v>
       </c>
-      <c r="O15" s="62"/>
+      <c r="O15" s="50"/>
       <c r="P15">
         <v>14.60561339</v>
       </c>
-      <c r="R15" s="27">
+      <c r="R15" s="23">
         <f t="shared" si="1"/>
         <v>-0.82839945999999998</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="63">
+      <c r="A16" s="51">
         <v>14</v>
       </c>
       <c r="B16" s="22">
         <v>15.4727158</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="E16" s="63"/>
+      <c r="E16" s="51"/>
       <c r="F16">
         <v>15.82338176</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="23">
         <f t="shared" si="0"/>
         <v>-0.35066596000000061</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="51">
         <v>14</v>
       </c>
       <c r="L16">
         <v>10.93699202</v>
       </c>
-      <c r="O16" s="62"/>
+      <c r="O16" s="50"/>
       <c r="P16">
         <v>10.28863349</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="23">
         <f t="shared" si="1"/>
         <v>0.64835852999999943</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="63">
+      <c r="A17" s="51">
         <v>15</v>
       </c>
       <c r="B17" s="22">
         <v>15.0669521</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="E17" s="63"/>
+      <c r="E17" s="51"/>
       <c r="F17">
         <v>15.73624611</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="23">
         <f t="shared" si="0"/>
         <v>-0.66929400999999977</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="51">
         <v>15</v>
       </c>
       <c r="L17">
         <v>15.044199020000001</v>
       </c>
-      <c r="O17" s="62"/>
+      <c r="O17" s="50"/>
       <c r="P17">
         <v>14.91610244</v>
       </c>
-      <c r="R17" s="27">
+      <c r="R17" s="23">
         <f t="shared" si="1"/>
         <v>0.12809658000000113</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="63">
+      <c r="A18" s="51">
         <v>16</v>
       </c>
       <c r="B18" s="22">
         <v>15.1301855</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="E18" s="63"/>
+      <c r="E18" s="51"/>
       <c r="F18">
         <v>15.944966989999999</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="23">
         <f t="shared" si="0"/>
         <v>-0.81478148999999966</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="51">
         <v>16</v>
       </c>
       <c r="L18">
         <v>14.66520272</v>
       </c>
-      <c r="O18" s="62"/>
+      <c r="O18" s="50"/>
       <c r="P18">
         <v>15.327092629999999</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="23">
         <f t="shared" si="1"/>
         <v>-0.6618899099999993</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="63">
+      <c r="A19" s="51">
         <v>17</v>
       </c>
       <c r="B19" s="22">
         <v>11.3176039</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="E19" s="63"/>
+      <c r="E19" s="51"/>
       <c r="F19">
         <v>10.212703210000001</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="23">
         <f t="shared" si="0"/>
         <v>1.1049006899999991</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="51">
         <v>17</v>
       </c>
       <c r="L19">
         <v>7.2548629699999996</v>
       </c>
-      <c r="O19" s="62"/>
+      <c r="O19" s="50"/>
       <c r="P19">
         <v>7.6726400400000001</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="23">
         <f t="shared" si="1"/>
         <v>-0.41777707000000053</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="63">
+      <c r="A20" s="51">
         <v>18</v>
       </c>
       <c r="B20" s="22">
         <v>9.4711795399999996</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="E20" s="63"/>
+      <c r="E20" s="51"/>
       <c r="F20">
         <v>11.39960791</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="23">
         <f t="shared" si="0"/>
         <v>-1.9284283700000007</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="51">
         <v>18</v>
       </c>
       <c r="L20">
         <v>12.402952790000001</v>
       </c>
-      <c r="O20" s="62"/>
+      <c r="O20" s="50"/>
       <c r="P20">
         <v>12.317577829999999</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="23">
         <f t="shared" si="1"/>
         <v>8.537496000000111E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="63">
+      <c r="A21" s="51">
         <v>19</v>
       </c>
       <c r="B21" s="22">
         <v>10.997961699999999</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="E21" s="63"/>
+      <c r="E21" s="51"/>
       <c r="F21">
         <v>10.64048159</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="23">
         <f t="shared" si="0"/>
         <v>0.35748010999999913</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="51">
         <v>19</v>
       </c>
       <c r="L21">
         <v>13.54347578</v>
       </c>
-      <c r="O21" s="62"/>
+      <c r="O21" s="50"/>
       <c r="P21">
         <v>13.11906677</v>
       </c>
-      <c r="R21" s="27">
+      <c r="R21" s="23">
         <f t="shared" si="1"/>
         <v>0.42440900999999975</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="63">
+      <c r="A22" s="51">
         <v>20</v>
       </c>
       <c r="B22" s="22">
         <v>8.8006049799999992</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="E22" s="63"/>
+      <c r="E22" s="51"/>
       <c r="F22">
         <v>7.6591043699999997</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="23">
         <f t="shared" si="0"/>
         <v>1.1415006099999996</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="51">
         <v>20</v>
       </c>
       <c r="L22">
         <v>13.01622306</v>
       </c>
-      <c r="O22" s="62"/>
+      <c r="O22" s="50"/>
       <c r="P22">
         <v>12.9657445</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="23">
         <f t="shared" si="1"/>
         <v>5.0478560000000172E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="63">
+      <c r="A23" s="51">
         <v>21</v>
       </c>
       <c r="B23" s="22">
         <v>11.861148699999999</v>
       </c>
       <c r="C23" s="22"/>
-      <c r="E23" s="63"/>
+      <c r="E23" s="51"/>
       <c r="F23">
         <v>11.209893449999999</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="23">
         <f t="shared" si="0"/>
         <v>0.65125525000000017</v>
       </c>
-      <c r="K23" s="63">
+      <c r="K23" s="51">
         <v>21</v>
       </c>
       <c r="L23">
         <v>13.624087449999999</v>
       </c>
-      <c r="O23" s="62"/>
+      <c r="O23" s="50"/>
       <c r="P23">
         <v>13.429018960000001</v>
       </c>
-      <c r="R23" s="27">
+      <c r="R23" s="23">
         <f t="shared" si="1"/>
         <v>0.19506848999999882</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="63">
+      <c r="A24" s="51">
         <v>22</v>
       </c>
       <c r="B24" s="22">
         <v>10.9651136</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="E24" s="63"/>
+      <c r="E24" s="51"/>
       <c r="F24">
         <v>10.28596153</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="23">
         <f t="shared" si="0"/>
         <v>0.67915207000000066</v>
       </c>
-      <c r="K24" s="63">
+      <c r="K24" s="51">
         <v>22</v>
       </c>
       <c r="L24">
         <v>11.078052899999999</v>
       </c>
-      <c r="O24" s="62"/>
+      <c r="O24" s="50"/>
       <c r="P24">
         <v>11.05419695</v>
       </c>
-      <c r="R24" s="27">
+      <c r="R24" s="23">
         <f t="shared" si="1"/>
         <v>2.3855949999999737E-2</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="63">
+      <c r="A25" s="51">
         <v>23</v>
       </c>
       <c r="B25" s="22">
         <v>20.165744799999999</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="E25" s="63"/>
+      <c r="E25" s="51"/>
       <c r="F25">
         <v>19.98992118</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="23">
         <f t="shared" si="0"/>
         <v>0.17582361999999918</v>
       </c>
-      <c r="K25" s="63">
+      <c r="K25" s="51">
         <v>23</v>
       </c>
       <c r="L25">
         <v>12.221937649999999</v>
       </c>
-      <c r="O25" s="62"/>
+      <c r="O25" s="50"/>
       <c r="P25">
         <v>12.0072761</v>
       </c>
-      <c r="R25" s="27">
+      <c r="R25" s="23">
         <f t="shared" si="1"/>
         <v>0.21466154999999887</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="63">
+      <c r="A26" s="51">
         <v>24</v>
       </c>
       <c r="B26" s="22">
         <v>20.4969368</v>
       </c>
       <c r="C26" s="22"/>
-      <c r="E26" s="63"/>
+      <c r="E26" s="51"/>
       <c r="F26">
         <v>20.522986360000001</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="23">
         <f t="shared" si="0"/>
         <v>-2.6049560000000582E-2</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="51">
         <v>24</v>
       </c>
       <c r="L26">
         <v>12.161695160000001</v>
       </c>
-      <c r="O26" s="62"/>
+      <c r="O26" s="50"/>
       <c r="P26">
         <v>12.157362259999999</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R26" s="23">
         <f t="shared" si="1"/>
         <v>4.3329000000014162E-3</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="63" t="s">
+      <c r="K27" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="O27" s="62" t="s">
+      <c r="O27" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="R27" s="27">
+      <c r="R27" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="63">
+      <c r="A28" s="51">
         <v>0</v>
       </c>
       <c r="B28">
         <v>17.30043191</v>
       </c>
-      <c r="E28" s="63"/>
+      <c r="E28" s="51"/>
       <c r="F28">
         <v>17.69677695</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="23">
         <f t="shared" si="0"/>
         <v>-0.39634503999999993</v>
       </c>
-      <c r="K28" s="63">
+      <c r="K28" s="51">
         <v>0</v>
       </c>
       <c r="L28">
         <v>19.74782738</v>
       </c>
-      <c r="O28" s="62"/>
+      <c r="O28" s="50"/>
       <c r="P28">
         <v>19.462411809999999</v>
       </c>
-      <c r="R28" s="27">
+      <c r="R28" s="23">
         <f t="shared" si="1"/>
         <v>0.2854155700000014</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="63">
+      <c r="A29" s="51">
         <v>1</v>
       </c>
       <c r="B29">
         <v>17.354958079999999</v>
       </c>
-      <c r="E29" s="63"/>
+      <c r="E29" s="51"/>
       <c r="F29">
         <v>16.848371960000001</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="23">
         <f t="shared" si="0"/>
         <v>0.50658611999999792</v>
       </c>
-      <c r="K29" s="63">
+      <c r="K29" s="51">
         <v>1</v>
       </c>
       <c r="L29">
         <v>16.632221049999998</v>
       </c>
-      <c r="O29" s="62"/>
+      <c r="O29" s="50"/>
       <c r="P29">
         <v>17.35659106</v>
       </c>
-      <c r="R29" s="27">
+      <c r="R29" s="23">
         <f t="shared" si="1"/>
         <v>-0.72437001000000123</v>
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="63">
+      <c r="A30" s="51">
         <v>2</v>
       </c>
       <c r="B30">
         <v>18.089428160000001</v>
       </c>
-      <c r="E30" s="63"/>
+      <c r="E30" s="51"/>
       <c r="F30">
         <v>18.093440319999999</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="23">
         <f t="shared" si="0"/>
         <v>-4.012159999998488E-3</v>
       </c>
-      <c r="K30" s="63">
+      <c r="K30" s="51">
         <v>2</v>
       </c>
       <c r="L30">
         <v>13.746490870000001</v>
       </c>
-      <c r="O30" s="62"/>
+      <c r="O30" s="50"/>
       <c r="P30">
         <v>12.97748838</v>
       </c>
-      <c r="R30" s="27">
+      <c r="R30" s="23">
         <f t="shared" si="1"/>
         <v>0.76900249000000009</v>
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="63">
+      <c r="A31" s="51">
         <v>3</v>
       </c>
       <c r="B31">
         <v>16.587185550000001</v>
       </c>
-      <c r="E31" s="63"/>
+      <c r="E31" s="51"/>
       <c r="F31">
         <v>15.63558811</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="23">
         <f t="shared" si="0"/>
         <v>0.95159744000000046</v>
       </c>
-      <c r="K31" s="63">
+      <c r="K31" s="51">
         <v>3</v>
       </c>
       <c r="L31">
         <v>21.573665219999999</v>
       </c>
-      <c r="O31" s="62"/>
+      <c r="O31" s="50"/>
       <c r="P31">
         <v>20.68944844</v>
       </c>
-      <c r="R31" s="27">
+      <c r="R31" s="23">
         <f t="shared" si="1"/>
         <v>0.88421677999999915</v>
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="63">
+      <c r="A32" s="51">
         <v>4</v>
       </c>
       <c r="B32">
         <v>17.245802569999999</v>
       </c>
-      <c r="E32" s="63"/>
+      <c r="E32" s="51"/>
       <c r="F32">
         <v>17.798296820000001</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="23">
         <f t="shared" si="0"/>
         <v>-0.5524942500000023</v>
       </c>
-      <c r="K32" s="63">
+      <c r="K32" s="51">
         <v>4</v>
       </c>
       <c r="L32">
         <v>16.845026010000002</v>
       </c>
-      <c r="O32" s="62"/>
+      <c r="O32" s="50"/>
       <c r="P32">
         <v>16.86556496</v>
       </c>
-      <c r="R32" s="27">
+      <c r="R32" s="23">
         <f t="shared" si="1"/>
         <v>-2.0538949999998835E-2</v>
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="63">
+      <c r="A33" s="51">
         <v>5</v>
       </c>
       <c r="B33">
         <v>18.520996440000001</v>
       </c>
-      <c r="E33" s="63"/>
+      <c r="E33" s="51"/>
       <c r="F33">
         <v>20.689898679999999</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="23">
         <f t="shared" si="0"/>
         <v>-2.1689022399999978</v>
       </c>
-      <c r="K33" s="63">
+      <c r="K33" s="51">
         <v>5</v>
       </c>
       <c r="L33">
         <v>17.078029130000001</v>
       </c>
-      <c r="O33" s="62"/>
+      <c r="O33" s="50"/>
       <c r="P33">
         <v>18.217979620000001</v>
       </c>
-      <c r="R33" s="27">
+      <c r="R33" s="23">
         <f t="shared" si="1"/>
         <v>-1.1399504900000004</v>
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="63">
+      <c r="A34" s="51">
         <v>6</v>
       </c>
       <c r="B34">
         <v>13.802928789999999</v>
       </c>
-      <c r="E34" s="63"/>
+      <c r="E34" s="51"/>
       <c r="F34">
         <v>14.95850755</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="23">
         <f t="shared" si="0"/>
         <v>-1.1555787600000009</v>
       </c>
-      <c r="K34" s="63">
+      <c r="K34" s="51">
         <v>6</v>
       </c>
       <c r="L34">
         <v>13.691509829999999</v>
       </c>
-      <c r="O34" s="62"/>
+      <c r="O34" s="50"/>
       <c r="P34">
         <v>13.00611992</v>
       </c>
-      <c r="R34" s="27">
+      <c r="R34" s="23">
         <f t="shared" si="1"/>
         <v>0.6853899099999996</v>
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="63">
+      <c r="A35" s="51">
         <v>7</v>
       </c>
       <c r="B35">
         <v>15.977755159999999</v>
       </c>
-      <c r="E35" s="63"/>
+      <c r="E35" s="51"/>
       <c r="F35">
         <v>16.031421229999999</v>
       </c>
-      <c r="H35" s="27">
+      <c r="H35" s="23">
         <f t="shared" si="0"/>
         <v>-5.3666070000000232E-2</v>
       </c>
-      <c r="K35" s="63">
+      <c r="K35" s="51">
         <v>7</v>
       </c>
       <c r="L35">
         <v>16.469693190000001</v>
       </c>
-      <c r="O35" s="62"/>
+      <c r="O35" s="50"/>
       <c r="P35">
         <v>16.70952308</v>
       </c>
-      <c r="R35" s="27">
+      <c r="R35" s="23">
         <f t="shared" si="1"/>
         <v>-0.23982988999999932</v>
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="63">
+      <c r="A36" s="51">
         <v>8</v>
       </c>
       <c r="B36">
         <v>12.980362380000001</v>
       </c>
-      <c r="E36" s="63"/>
+      <c r="E36" s="51"/>
       <c r="F36">
         <v>13.29625972</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="23">
         <f t="shared" si="0"/>
         <v>-0.31589733999999936</v>
       </c>
-      <c r="K36" s="63">
+      <c r="K36" s="51">
         <v>8</v>
       </c>
       <c r="L36">
         <v>13.057423610000001</v>
       </c>
-      <c r="O36" s="62"/>
+      <c r="O36" s="50"/>
       <c r="P36">
         <v>12.8361599</v>
       </c>
-      <c r="R36" s="27">
+      <c r="R36" s="23">
         <f t="shared" si="1"/>
         <v>0.22126371000000056</v>
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="63">
+      <c r="A37" s="51">
         <v>9</v>
       </c>
       <c r="B37">
         <v>17.170727750000001</v>
       </c>
-      <c r="E37" s="63"/>
+      <c r="E37" s="51"/>
       <c r="F37">
         <v>18.323344330000001</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="23">
         <f t="shared" si="0"/>
         <v>-1.1526165800000001</v>
       </c>
-      <c r="K37" s="63">
+      <c r="K37" s="51">
         <v>9</v>
       </c>
       <c r="L37">
         <v>18.252544480000001</v>
       </c>
-      <c r="O37" s="62"/>
+      <c r="O37" s="50"/>
       <c r="P37">
         <v>17.874051590000001</v>
       </c>
-      <c r="R37" s="27">
+      <c r="R37" s="23">
         <f t="shared" si="1"/>
         <v>0.37849289000000041</v>
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="63">
+      <c r="A38" s="51">
         <v>10</v>
       </c>
       <c r="B38">
         <v>18.595662140000002</v>
       </c>
-      <c r="E38" s="63"/>
+      <c r="E38" s="51"/>
       <c r="F38">
         <v>19.513140310000001</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="23">
         <f t="shared" si="0"/>
         <v>-0.91747816999999898</v>
       </c>
-      <c r="K38" s="63">
+      <c r="K38" s="51">
         <v>10</v>
       </c>
       <c r="L38">
         <v>16.684188710000001</v>
       </c>
-      <c r="O38" s="62"/>
+      <c r="O38" s="50"/>
       <c r="P38">
         <v>15.629935100000001</v>
       </c>
-      <c r="R38" s="27">
+      <c r="R38" s="23">
         <f t="shared" si="1"/>
         <v>1.05425361</v>
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="63">
+      <c r="A39" s="51">
         <v>11</v>
       </c>
       <c r="B39">
         <v>16.784280110000001</v>
       </c>
-      <c r="E39" s="63"/>
+      <c r="E39" s="51"/>
       <c r="F39">
         <v>16.9239581</v>
       </c>
-      <c r="H39" s="27">
+      <c r="H39" s="23">
         <f t="shared" si="0"/>
         <v>-0.13967798999999914</v>
       </c>
-      <c r="K39" s="63">
+      <c r="K39" s="51">
         <v>11</v>
       </c>
       <c r="L39">
         <v>17.03253484</v>
       </c>
-      <c r="O39" s="62"/>
+      <c r="O39" s="50"/>
       <c r="P39">
         <v>18.123993080000002</v>
       </c>
-      <c r="R39" s="27">
+      <c r="R39" s="23">
         <f t="shared" si="1"/>
         <v>-1.0914582400000015</v>
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="63">
+      <c r="A40" s="51">
         <v>12</v>
       </c>
       <c r="B40">
         <v>14.091129690000001</v>
       </c>
-      <c r="E40" s="63"/>
+      <c r="E40" s="51"/>
       <c r="F40">
         <v>15.00861667</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="23">
         <f t="shared" si="0"/>
         <v>-0.91748697999999962</v>
       </c>
-      <c r="K40" s="63">
+      <c r="K40" s="51">
         <v>12</v>
       </c>
       <c r="L40">
         <v>17.188163790000001</v>
       </c>
-      <c r="O40" s="62"/>
+      <c r="O40" s="50"/>
       <c r="P40">
         <v>14.506829189999999</v>
       </c>
-      <c r="R40" s="27">
+      <c r="R40" s="23">
         <f t="shared" si="1"/>
         <v>2.6813346000000013</v>
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="63">
+      <c r="A41" s="51">
         <v>13</v>
       </c>
       <c r="B41">
         <v>20.954972479999999</v>
       </c>
-      <c r="E41" s="63"/>
+      <c r="E41" s="51"/>
       <c r="F41">
         <v>20.521560999999998</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H41" s="23">
         <f t="shared" si="0"/>
         <v>0.43341148000000018</v>
       </c>
-      <c r="K41" s="63">
+      <c r="K41" s="51">
         <v>13</v>
       </c>
       <c r="L41">
         <v>21.402306029999998</v>
       </c>
-      <c r="O41" s="62"/>
+      <c r="O41" s="50"/>
       <c r="P41">
         <v>20.893728549999999</v>
       </c>
-      <c r="R41" s="27">
+      <c r="R41" s="23">
         <f t="shared" si="1"/>
         <v>0.50857747999999958</v>
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="63">
+      <c r="A42" s="51">
         <v>14</v>
       </c>
       <c r="B42">
         <v>20.130272980000001</v>
       </c>
-      <c r="E42" s="63"/>
+      <c r="E42" s="51"/>
       <c r="F42">
         <v>20.956528970000001</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="23">
         <f t="shared" si="0"/>
         <v>-0.82625598999999994</v>
       </c>
-      <c r="K42" s="63">
+      <c r="K42" s="51">
         <v>14</v>
       </c>
       <c r="L42">
         <v>16.706312799999999</v>
       </c>
-      <c r="O42" s="62"/>
+      <c r="O42" s="50"/>
       <c r="P42">
         <v>15.08871398</v>
       </c>
-      <c r="R42" s="27">
+      <c r="R42" s="23">
         <f t="shared" si="1"/>
         <v>1.6175988199999995</v>
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="63">
+      <c r="A43" s="51">
         <v>15</v>
       </c>
       <c r="B43">
         <v>20.065297220000001</v>
       </c>
-      <c r="E43" s="63"/>
+      <c r="E43" s="51"/>
       <c r="F43">
         <v>21.04647752</v>
       </c>
-      <c r="H43" s="27">
+      <c r="H43" s="23">
         <f t="shared" si="0"/>
         <v>-0.98118029999999834</v>
       </c>
-      <c r="K43" s="63">
+      <c r="K43" s="51">
         <v>15</v>
       </c>
       <c r="L43">
         <v>19.459742330000001</v>
       </c>
-      <c r="O43" s="62"/>
+      <c r="O43" s="50"/>
       <c r="P43">
         <v>19.330495580000001</v>
       </c>
-      <c r="R43" s="27">
+      <c r="R43" s="23">
         <f t="shared" si="1"/>
         <v>0.12924675000000008</v>
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="63">
+      <c r="A44" s="51">
         <v>16</v>
       </c>
       <c r="B44">
         <v>18.836609660000001</v>
       </c>
-      <c r="E44" s="63"/>
+      <c r="E44" s="51"/>
       <c r="F44">
         <v>19.832645339999999</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H44" s="23">
         <f t="shared" si="0"/>
         <v>-0.99603567999999854</v>
       </c>
-      <c r="K44" s="63">
+      <c r="K44" s="51">
         <v>16</v>
       </c>
       <c r="L44">
         <v>17.91673587</v>
       </c>
-      <c r="O44" s="62"/>
+      <c r="O44" s="50"/>
       <c r="P44">
         <v>18.933821980000001</v>
       </c>
-      <c r="R44" s="27">
+      <c r="R44" s="23">
         <f t="shared" si="1"/>
         <v>-1.017086110000001</v>
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="63">
+      <c r="A45" s="51">
         <v>17</v>
       </c>
       <c r="B45">
         <v>16.219955779999999</v>
       </c>
-      <c r="E45" s="63"/>
+      <c r="E45" s="51"/>
       <c r="F45">
         <v>15.3259197</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="23">
         <f t="shared" si="0"/>
         <v>0.89403607999999934</v>
       </c>
-      <c r="K45" s="63">
+      <c r="K45" s="51">
         <v>17</v>
       </c>
       <c r="L45">
         <v>9.8463115299999995</v>
       </c>
-      <c r="O45" s="62"/>
+      <c r="O45" s="50"/>
       <c r="P45">
         <v>11.27178606</v>
       </c>
-      <c r="R45" s="27">
+      <c r="R45" s="23">
         <f t="shared" si="1"/>
         <v>-1.4254745300000007</v>
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="63">
+      <c r="A46" s="51">
         <v>18</v>
       </c>
       <c r="B46">
         <v>14.75658005</v>
       </c>
-      <c r="E46" s="63"/>
+      <c r="E46" s="51"/>
       <c r="F46">
         <v>18.428847770000001</v>
       </c>
-      <c r="H46" s="27">
+      <c r="H46" s="23">
         <f t="shared" si="0"/>
         <v>-3.6722677200000007</v>
       </c>
-      <c r="K46" s="63">
+      <c r="K46" s="51">
         <v>18</v>
       </c>
       <c r="L46">
         <v>15.2881746</v>
       </c>
-      <c r="O46" s="62"/>
+      <c r="O46" s="50"/>
       <c r="P46">
         <v>15.311354850000001</v>
       </c>
-      <c r="R46" s="27">
+      <c r="R46" s="23">
         <f t="shared" si="1"/>
         <v>-2.3180250000001124E-2</v>
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="63">
+      <c r="A47" s="51">
         <v>19</v>
       </c>
       <c r="B47">
         <v>15.82356951</v>
       </c>
-      <c r="E47" s="63"/>
+      <c r="E47" s="51"/>
       <c r="F47">
         <v>16.84270008</v>
       </c>
-      <c r="H47" s="27">
+      <c r="H47" s="23">
         <f t="shared" si="0"/>
         <v>-1.0191305699999997</v>
       </c>
-      <c r="K47" s="63">
+      <c r="K47" s="51">
         <v>19</v>
       </c>
       <c r="L47">
         <v>17.884419789999999</v>
       </c>
-      <c r="O47" s="62"/>
+      <c r="O47" s="50"/>
       <c r="P47">
         <v>17.104364260000001</v>
       </c>
-      <c r="R47" s="27">
+      <c r="R47" s="23">
         <f t="shared" si="1"/>
         <v>0.7800555299999985</v>
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="63">
+      <c r="A48" s="51">
         <v>20</v>
       </c>
       <c r="B48">
         <v>12.97756058</v>
       </c>
-      <c r="E48" s="63"/>
+      <c r="E48" s="51"/>
       <c r="F48">
         <v>13.310718339999999</v>
       </c>
-      <c r="H48" s="27">
+      <c r="H48" s="23">
         <f t="shared" si="0"/>
         <v>-0.33315775999999886</v>
       </c>
-      <c r="K48" s="63">
+      <c r="K48" s="51">
         <v>20</v>
       </c>
       <c r="L48">
         <v>19.166564959999999</v>
       </c>
-      <c r="O48" s="62"/>
+      <c r="O48" s="50"/>
       <c r="P48">
         <v>19.415697470000001</v>
       </c>
-      <c r="R48" s="27">
+      <c r="R48" s="23">
         <f t="shared" si="1"/>
         <v>-0.24913251000000258</v>
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="63">
+      <c r="A49" s="51">
         <v>21</v>
       </c>
       <c r="B49">
         <v>16.67489896</v>
       </c>
-      <c r="E49" s="63"/>
+      <c r="E49" s="51"/>
       <c r="F49">
         <v>16.726182770000001</v>
       </c>
-      <c r="H49" s="27">
+      <c r="H49" s="23">
         <f t="shared" si="0"/>
         <v>-5.128381000000104E-2</v>
       </c>
-      <c r="K49" s="63">
+      <c r="K49" s="51">
         <v>21</v>
       </c>
       <c r="L49">
         <v>19.8615411</v>
       </c>
-      <c r="O49" s="62"/>
+      <c r="O49" s="50"/>
       <c r="P49">
         <v>19.370347710000001</v>
       </c>
-      <c r="R49" s="27">
+      <c r="R49" s="23">
         <f t="shared" si="1"/>
         <v>0.4911933899999994</v>
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="63">
+      <c r="A50" s="51">
         <v>22</v>
       </c>
       <c r="B50">
         <v>15.62146478</v>
       </c>
-      <c r="E50" s="63"/>
+      <c r="E50" s="51"/>
       <c r="F50">
         <v>16.3778197</v>
       </c>
-      <c r="H50" s="27">
+      <c r="H50" s="23">
         <f t="shared" si="0"/>
         <v>-0.75635491999999971</v>
       </c>
-      <c r="K50" s="63">
+      <c r="K50" s="51">
         <v>22</v>
       </c>
       <c r="L50">
         <v>16.14647463</v>
       </c>
-      <c r="O50" s="62"/>
+      <c r="O50" s="50"/>
       <c r="P50">
         <v>16.31911616</v>
       </c>
-      <c r="R50" s="27">
+      <c r="R50" s="23">
         <f t="shared" si="1"/>
         <v>-0.17264152999999993</v>
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="63">
+      <c r="A51" s="51">
         <v>23</v>
       </c>
       <c r="B51">
         <v>23.659309279999999</v>
       </c>
-      <c r="E51" s="63"/>
+      <c r="E51" s="51"/>
       <c r="F51">
         <v>23.446638320000002</v>
       </c>
-      <c r="H51" s="27">
+      <c r="H51" s="23">
         <f t="shared" si="0"/>
         <v>0.21267095999999697</v>
       </c>
-      <c r="K51" s="63">
+      <c r="K51" s="51">
         <v>23</v>
       </c>
       <c r="L51">
         <v>17.54233571</v>
       </c>
-      <c r="O51" s="62"/>
+      <c r="O51" s="50"/>
       <c r="P51">
         <v>17.118570259999998</v>
       </c>
-      <c r="R51" s="27">
+      <c r="R51" s="23">
         <f t="shared" si="1"/>
         <v>0.42376545000000121</v>
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="63">
+      <c r="A52" s="51">
         <v>24</v>
       </c>
       <c r="B52">
         <v>23.522175270000002</v>
       </c>
-      <c r="E52" s="63"/>
+      <c r="E52" s="51"/>
       <c r="F52">
         <v>23.667639149999999</v>
       </c>
-      <c r="H52" s="27">
+      <c r="H52" s="23">
         <f t="shared" si="0"/>
         <v>-0.14546387999999766</v>
       </c>
-      <c r="K52" s="63">
+      <c r="K52" s="51">
         <v>24</v>
       </c>
       <c r="L52">
         <v>17.14447689</v>
       </c>
-      <c r="O52" s="62"/>
+      <c r="O52" s="50"/>
       <c r="P52">
         <v>16.130017760000001</v>
       </c>
-      <c r="R52" s="27">
+      <c r="R52" s="23">
         <f t="shared" si="1"/>
         <v>1.0144591299999988</v>
       </c>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="63" t="s">
+      <c r="E53" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="H53" s="27">
+      <c r="H53" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K53" s="63" t="s">
+      <c r="K53" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="O53" s="62" t="s">
+      <c r="O53" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="R53" s="27">
+      <c r="R53" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="63">
+      <c r="A54" s="51">
         <v>0</v>
       </c>
       <c r="B54">
         <v>16.14943147</v>
       </c>
-      <c r="E54" s="63"/>
+      <c r="E54" s="51"/>
       <c r="F54">
         <v>15.95117426</v>
       </c>
-      <c r="H54" s="27">
+      <c r="H54" s="23">
         <f t="shared" si="0"/>
         <v>0.19825720999999952</v>
       </c>
-      <c r="K54" s="63">
+      <c r="K54" s="51">
         <v>0</v>
       </c>
       <c r="L54">
         <v>17.600624939999999</v>
       </c>
-      <c r="O54" s="62"/>
+      <c r="O54" s="50"/>
       <c r="P54">
         <v>17.99406273</v>
       </c>
-      <c r="R54" s="27">
+      <c r="R54" s="23">
         <f t="shared" si="1"/>
         <v>-0.39343779000000012</v>
       </c>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="63">
+      <c r="A55" s="51">
         <v>1</v>
       </c>
       <c r="B55">
         <v>16.984811100000002</v>
       </c>
-      <c r="E55" s="63"/>
+      <c r="E55" s="51"/>
       <c r="F55">
         <v>16.911504170000001</v>
       </c>
-      <c r="H55" s="27">
+      <c r="H55" s="23">
         <f t="shared" si="0"/>
         <v>7.3306930000001103E-2</v>
       </c>
-      <c r="K55" s="63">
+      <c r="K55" s="51">
         <v>1</v>
       </c>
       <c r="L55">
         <v>15.999292609999999</v>
       </c>
-      <c r="O55" s="62"/>
+      <c r="O55" s="50"/>
       <c r="P55">
         <v>16.43730205</v>
       </c>
-      <c r="R55" s="27">
+      <c r="R55" s="23">
         <f t="shared" si="1"/>
         <v>-0.43800944000000008</v>
       </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="63">
+      <c r="A56" s="51">
         <v>2</v>
       </c>
       <c r="B56">
         <v>17.834473989999999</v>
       </c>
-      <c r="E56" s="63"/>
+      <c r="E56" s="51"/>
       <c r="F56">
         <v>17.414634939999999</v>
       </c>
-      <c r="H56" s="27">
+      <c r="H56" s="23">
         <f t="shared" si="0"/>
         <v>0.41983905000000021</v>
       </c>
-      <c r="K56" s="63">
+      <c r="K56" s="51">
         <v>2</v>
       </c>
       <c r="L56">
         <v>12.744172409999999</v>
       </c>
-      <c r="O56" s="62"/>
+      <c r="O56" s="50"/>
       <c r="P56">
         <v>12.786046069999999</v>
       </c>
-      <c r="R56" s="27">
+      <c r="R56" s="23">
         <f t="shared" si="1"/>
         <v>-4.1873660000000257E-2</v>
       </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="63">
+      <c r="A57" s="51">
         <v>3</v>
       </c>
       <c r="B57">
         <v>16.135031829999999</v>
       </c>
-      <c r="E57" s="63"/>
+      <c r="E57" s="51"/>
       <c r="F57">
         <v>14.802184820000001</v>
       </c>
-      <c r="H57" s="27">
+      <c r="H57" s="23">
         <f t="shared" si="0"/>
         <v>1.3328470099999983</v>
       </c>
-      <c r="K57" s="63">
+      <c r="K57" s="51">
         <v>3</v>
       </c>
       <c r="L57">
         <v>16.811919540000002</v>
       </c>
-      <c r="O57" s="62"/>
+      <c r="O57" s="50"/>
       <c r="P57">
         <v>17.67699309</v>
       </c>
-      <c r="R57" s="27">
+      <c r="R57" s="23">
         <f t="shared" si="1"/>
         <v>-0.86507354999999819</v>
       </c>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="63">
+      <c r="A58" s="51">
         <v>4</v>
       </c>
       <c r="B58">
         <v>16.08126901</v>
       </c>
-      <c r="E58" s="63"/>
+      <c r="E58" s="51"/>
       <c r="F58">
         <v>15.289595179999999</v>
       </c>
-      <c r="H58" s="27">
+      <c r="H58" s="23">
         <f t="shared" si="0"/>
         <v>0.79167383000000058</v>
       </c>
-      <c r="K58" s="63">
+      <c r="K58" s="51">
         <v>4</v>
       </c>
       <c r="L58">
         <v>16.362644840000002</v>
       </c>
-      <c r="O58" s="62"/>
+      <c r="O58" s="50"/>
       <c r="P58">
         <v>16.411158650000001</v>
       </c>
-      <c r="R58" s="27">
+      <c r="R58" s="23">
         <f t="shared" si="1"/>
         <v>-4.8513809999999324E-2</v>
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="63">
+      <c r="A59" s="51">
         <v>5</v>
       </c>
       <c r="B59">
         <v>15.70367371</v>
       </c>
-      <c r="E59" s="63"/>
+      <c r="E59" s="51"/>
       <c r="F59">
         <v>14.03998354</v>
       </c>
-      <c r="H59" s="27">
+      <c r="H59" s="23">
         <f t="shared" si="0"/>
         <v>1.6636901700000006</v>
       </c>
-      <c r="K59" s="63">
+      <c r="K59" s="51">
         <v>5</v>
       </c>
       <c r="L59">
         <v>14.147379089999999</v>
       </c>
-      <c r="O59" s="62"/>
+      <c r="O59" s="50"/>
       <c r="P59">
         <v>15.004208569999999</v>
       </c>
-      <c r="R59" s="27">
+      <c r="R59" s="23">
         <f t="shared" si="1"/>
         <v>-0.85682948000000003</v>
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="63">
+      <c r="A60" s="51">
         <v>6</v>
       </c>
       <c r="B60">
         <v>11.823278009999999</v>
       </c>
-      <c r="E60" s="63"/>
+      <c r="E60" s="51"/>
       <c r="F60">
         <v>11.56579339</v>
       </c>
-      <c r="H60" s="27">
+      <c r="H60" s="23">
         <f t="shared" si="0"/>
         <v>0.25748461999999961</v>
       </c>
-      <c r="K60" s="63">
+      <c r="K60" s="51">
         <v>6</v>
       </c>
       <c r="L60">
         <v>11.062216449999999</v>
       </c>
-      <c r="O60" s="62"/>
+      <c r="O60" s="50"/>
       <c r="P60">
         <v>11.17687121</v>
       </c>
-      <c r="R60" s="27">
+      <c r="R60" s="23">
         <f t="shared" si="1"/>
         <v>-0.11465476000000052</v>
       </c>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="63">
+      <c r="A61" s="51">
         <v>7</v>
       </c>
       <c r="B61">
         <v>12.533533029999999</v>
       </c>
-      <c r="E61" s="63"/>
+      <c r="E61" s="51"/>
       <c r="F61">
         <v>12.37018511</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="23">
         <f t="shared" si="0"/>
         <v>0.16334791999999965</v>
       </c>
-      <c r="K61" s="63">
+      <c r="K61" s="51">
         <v>7</v>
       </c>
       <c r="L61">
         <v>10.38070505</v>
       </c>
-      <c r="O61" s="62"/>
+      <c r="O61" s="50"/>
       <c r="P61">
         <v>13.2555677</v>
       </c>
-      <c r="R61" s="66">
+      <c r="R61" s="54">
         <f t="shared" si="1"/>
         <v>-2.8748626500000007</v>
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="63">
+      <c r="A62" s="51">
         <v>8</v>
       </c>
       <c r="B62">
         <v>11.13829383</v>
       </c>
-      <c r="E62" s="63"/>
+      <c r="E62" s="51"/>
       <c r="F62">
         <v>10.69949192</v>
       </c>
-      <c r="H62" s="27">
+      <c r="H62" s="23">
         <f t="shared" si="0"/>
         <v>0.43880191000000046</v>
       </c>
-      <c r="K62" s="63">
+      <c r="K62" s="51">
         <v>8</v>
       </c>
       <c r="L62">
         <v>8.9143461800000008</v>
       </c>
-      <c r="O62" s="62"/>
+      <c r="O62" s="50"/>
       <c r="P62">
         <v>8.9764974300000002</v>
       </c>
-      <c r="R62" s="27">
+      <c r="R62" s="23">
         <f t="shared" si="1"/>
         <v>-6.2151249999999436E-2</v>
       </c>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="63">
+      <c r="A63" s="51">
         <v>9</v>
       </c>
       <c r="B63">
         <v>14.39901017</v>
       </c>
-      <c r="E63" s="63"/>
+      <c r="E63" s="51"/>
       <c r="F63">
         <v>13.32427281</v>
       </c>
-      <c r="H63" s="27">
+      <c r="H63" s="23">
         <f t="shared" si="0"/>
         <v>1.0747373600000003</v>
       </c>
-      <c r="K63" s="63">
+      <c r="K63" s="51">
         <v>9</v>
       </c>
       <c r="L63">
         <v>12.514503400000001</v>
       </c>
-      <c r="O63" s="62"/>
+      <c r="O63" s="50"/>
       <c r="P63">
         <v>13.502387669999999</v>
       </c>
-      <c r="R63" s="27">
+      <c r="R63" s="23">
         <f t="shared" si="1"/>
         <v>-0.98788426999999857</v>
       </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="63">
+      <c r="A64" s="51">
         <v>10</v>
       </c>
       <c r="B64">
         <v>16.196536900000002</v>
       </c>
-      <c r="E64" s="63"/>
+      <c r="E64" s="51"/>
       <c r="F64">
         <v>14.726820999999999</v>
       </c>
-      <c r="H64" s="27">
+      <c r="H64" s="23">
         <f t="shared" si="0"/>
         <v>1.4697159000000024</v>
       </c>
-      <c r="K64" s="63">
+      <c r="K64" s="51">
         <v>10</v>
       </c>
       <c r="L64">
         <v>12.84501955</v>
       </c>
-      <c r="O64" s="62"/>
+      <c r="O64" s="50"/>
       <c r="P64">
         <v>13.830009349999999</v>
       </c>
-      <c r="R64" s="27">
+      <c r="R64" s="23">
         <f t="shared" si="1"/>
         <v>-0.98498979999999925</v>
       </c>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="63">
+      <c r="A65" s="51">
         <v>11</v>
       </c>
       <c r="B65">
         <v>14.92710011</v>
       </c>
-      <c r="E65" s="63"/>
+      <c r="E65" s="51"/>
       <c r="F65">
         <v>14.571450219999999</v>
       </c>
-      <c r="H65" s="27">
+      <c r="H65" s="23">
         <f t="shared" si="0"/>
         <v>0.35564989000000047</v>
       </c>
-      <c r="K65" s="63">
+      <c r="K65" s="51">
         <v>11</v>
       </c>
       <c r="L65">
         <v>13.622384009999999</v>
       </c>
-      <c r="O65" s="62"/>
+      <c r="O65" s="50"/>
       <c r="P65">
         <v>15.86994443</v>
       </c>
-      <c r="R65" s="27">
+      <c r="R65" s="23">
         <f t="shared" si="1"/>
         <v>-2.247560420000001</v>
       </c>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="63">
+      <c r="A66" s="51">
         <v>12</v>
       </c>
       <c r="B66">
         <v>7.0266052999999999</v>
       </c>
-      <c r="E66" s="63"/>
+      <c r="E66" s="51"/>
       <c r="F66">
         <v>8.5839478899999992</v>
       </c>
-      <c r="H66" s="27">
+      <c r="H66" s="23">
         <f t="shared" si="0"/>
         <v>-1.5573425899999993</v>
       </c>
-      <c r="K66" s="63">
+      <c r="K66" s="51">
         <v>12</v>
       </c>
       <c r="L66">
         <v>9.9372293000000003</v>
       </c>
-      <c r="O66" s="62"/>
+      <c r="O66" s="50"/>
       <c r="P66">
         <v>8.0241609399999998</v>
       </c>
-      <c r="R66" s="27">
+      <c r="R66" s="23">
         <f t="shared" si="1"/>
         <v>1.9130683600000005</v>
       </c>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="63">
+      <c r="A67" s="51">
         <v>13</v>
       </c>
       <c r="B67">
         <v>15.42821034</v>
       </c>
-      <c r="E67" s="63"/>
+      <c r="E67" s="51"/>
       <c r="F67">
         <v>13.529932909999999</v>
       </c>
-      <c r="H67" s="66">
+      <c r="H67" s="54">
         <f t="shared" ref="H67:H104" si="2">B67-F67</f>
         <v>1.8982774300000003</v>
       </c>
-      <c r="K67" s="63">
+      <c r="K67" s="51">
         <v>13</v>
       </c>
       <c r="L67">
         <v>14.632329929999999</v>
       </c>
-      <c r="O67" s="62"/>
+      <c r="O67" s="50"/>
       <c r="P67">
         <v>15.804578319999999</v>
       </c>
-      <c r="R67" s="27">
+      <c r="R67" s="23">
         <f t="shared" ref="R67:R104" si="3">L67-P67</f>
         <v>-1.17224839</v>
       </c>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="63">
+      <c r="A68" s="51">
         <v>14</v>
       </c>
       <c r="B68">
         <v>17.333534119999999</v>
       </c>
-      <c r="E68" s="63"/>
+      <c r="E68" s="51"/>
       <c r="F68">
         <v>17.448748940000002</v>
       </c>
-      <c r="H68" s="27">
+      <c r="H68" s="23">
         <f t="shared" si="2"/>
         <v>-0.11521482000000205</v>
       </c>
-      <c r="K68" s="63">
+      <c r="K68" s="51">
         <v>14</v>
       </c>
       <c r="L68">
         <v>12.365217060000001</v>
       </c>
-      <c r="O68" s="62"/>
+      <c r="O68" s="50"/>
       <c r="P68">
         <v>12.16770034</v>
       </c>
-      <c r="R68" s="27">
+      <c r="R68" s="23">
         <f t="shared" si="3"/>
         <v>0.1975167200000012</v>
       </c>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="63">
+      <c r="A69" s="51">
         <v>15</v>
       </c>
       <c r="B69">
         <v>16.76117507</v>
       </c>
-      <c r="E69" s="63"/>
+      <c r="E69" s="51"/>
       <c r="F69">
         <v>17.28481996</v>
       </c>
-      <c r="H69" s="27">
+      <c r="H69" s="23">
         <f t="shared" si="2"/>
         <v>-0.52364488999999992</v>
       </c>
-      <c r="K69" s="63">
+      <c r="K69" s="51">
         <v>15</v>
       </c>
       <c r="L69">
         <v>17.04340728</v>
       </c>
-      <c r="O69" s="62"/>
+      <c r="O69" s="50"/>
       <c r="P69">
         <v>16.917431610000001</v>
       </c>
-      <c r="R69" s="27">
+      <c r="R69" s="23">
         <f t="shared" si="3"/>
         <v>0.12597566999999898</v>
       </c>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="63">
+      <c r="A70" s="51">
         <v>16</v>
       </c>
       <c r="B70">
         <v>17.597083300000001</v>
       </c>
-      <c r="E70" s="63"/>
+      <c r="E70" s="51"/>
       <c r="F70">
         <v>18.27059921</v>
       </c>
-      <c r="H70" s="27">
+      <c r="H70" s="23">
         <f t="shared" si="2"/>
         <v>-0.673515909999999</v>
       </c>
-      <c r="K70" s="63">
+      <c r="K70" s="51">
         <v>16</v>
       </c>
       <c r="L70">
         <v>17.516569499999999</v>
       </c>
-      <c r="O70" s="62"/>
+      <c r="O70" s="50"/>
       <c r="P70">
         <v>17.868231699999999</v>
       </c>
-      <c r="R70" s="27">
+      <c r="R70" s="23">
         <f t="shared" si="3"/>
         <v>-0.35166219999999981</v>
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="63">
+      <c r="A71" s="51">
         <v>17</v>
       </c>
       <c r="B71">
         <v>13.116886060000001</v>
       </c>
-      <c r="E71" s="63"/>
+      <c r="E71" s="51"/>
       <c r="F71">
         <v>11.937784130000001</v>
       </c>
-      <c r="H71" s="27">
+      <c r="H71" s="23">
         <f t="shared" si="2"/>
         <v>1.1791019299999999</v>
       </c>
-      <c r="K71" s="63">
+      <c r="K71" s="51">
         <v>17</v>
       </c>
       <c r="L71">
         <v>11.156889769999999</v>
       </c>
-      <c r="O71" s="62"/>
+      <c r="O71" s="50"/>
       <c r="P71">
         <v>10.47701021</v>
       </c>
-      <c r="R71" s="27">
+      <c r="R71" s="23">
         <f t="shared" si="3"/>
         <v>0.67987955999999983</v>
       </c>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="63">
+      <c r="A72" s="51">
         <v>18</v>
       </c>
       <c r="B72">
         <v>11.139037679999999</v>
       </c>
-      <c r="E72" s="63"/>
+      <c r="E72" s="51"/>
       <c r="F72">
         <v>12.42079468</v>
       </c>
-      <c r="H72" s="27">
+      <c r="H72" s="23">
         <f t="shared" si="2"/>
         <v>-1.2817570000000007</v>
       </c>
-      <c r="K72" s="63">
+      <c r="K72" s="51">
         <v>18</v>
       </c>
       <c r="L72">
         <v>15.66869423</v>
       </c>
-      <c r="O72" s="62"/>
+      <c r="O72" s="50"/>
       <c r="P72">
         <v>15.470453259999999</v>
       </c>
-      <c r="R72" s="27">
+      <c r="R72" s="23">
         <f t="shared" si="3"/>
         <v>0.19824097000000052</v>
       </c>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="63">
+      <c r="A73" s="51">
         <v>19</v>
       </c>
       <c r="B73">
         <v>12.84408221</v>
       </c>
-      <c r="E73" s="63"/>
+      <c r="E73" s="51"/>
       <c r="F73">
         <v>11.91991133</v>
       </c>
-      <c r="H73" s="27">
+      <c r="H73" s="23">
         <f t="shared" si="2"/>
         <v>0.92417088000000014</v>
       </c>
-      <c r="K73" s="63">
+      <c r="K73" s="51">
         <v>19</v>
       </c>
       <c r="L73">
         <v>15.60675983</v>
       </c>
-      <c r="O73" s="62"/>
+      <c r="O73" s="50"/>
       <c r="P73">
         <v>15.41740935</v>
       </c>
-      <c r="R73" s="27">
+      <c r="R73" s="23">
         <f t="shared" si="3"/>
         <v>0.18935047999999988</v>
       </c>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="63">
+      <c r="A74" s="51">
         <v>20</v>
       </c>
       <c r="B74">
         <v>11.10566867</v>
       </c>
-      <c r="E74" s="63"/>
+      <c r="E74" s="51"/>
       <c r="F74">
         <v>9.2368475599999993</v>
       </c>
-      <c r="H74" s="27">
+      <c r="H74" s="23">
         <f t="shared" si="2"/>
         <v>1.8688211100000007</v>
       </c>
-      <c r="K74" s="63">
+      <c r="K74" s="51">
         <v>20</v>
       </c>
       <c r="L74">
         <v>14.27551137</v>
       </c>
-      <c r="O74" s="62"/>
+      <c r="O74" s="50"/>
       <c r="P74">
         <v>14.130357119999999</v>
       </c>
-      <c r="R74" s="27">
+      <c r="R74" s="23">
         <f t="shared" si="3"/>
         <v>0.14515425000000093</v>
       </c>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="63">
+      <c r="A75" s="51">
         <v>21</v>
       </c>
       <c r="B75">
         <v>13.69334649</v>
       </c>
-      <c r="E75" s="63"/>
+      <c r="E75" s="51"/>
       <c r="F75">
         <v>12.732620450000001</v>
       </c>
-      <c r="H75" s="27">
+      <c r="H75" s="23">
         <f t="shared" si="2"/>
         <v>0.96072603999999906</v>
       </c>
-      <c r="K75" s="63">
+      <c r="K75" s="51">
         <v>21</v>
       </c>
       <c r="L75">
         <v>14.84813799</v>
       </c>
-      <c r="O75" s="62"/>
+      <c r="O75" s="50"/>
       <c r="P75">
         <v>14.755072200000001</v>
       </c>
-      <c r="R75" s="27">
+      <c r="R75" s="23">
         <f t="shared" si="3"/>
         <v>9.3065789999998927E-2</v>
       </c>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="63">
+      <c r="A76" s="51">
         <v>22</v>
       </c>
       <c r="B76">
         <v>12.90203953</v>
       </c>
-      <c r="E76" s="63"/>
+      <c r="E76" s="51"/>
       <c r="F76">
         <v>11.61072023</v>
       </c>
-      <c r="H76" s="27">
+      <c r="H76" s="23">
         <f t="shared" si="2"/>
         <v>1.2913192999999996</v>
       </c>
-      <c r="K76" s="63">
+      <c r="K76" s="51">
         <v>22</v>
       </c>
       <c r="L76">
         <v>12.801867379999999</v>
       </c>
-      <c r="O76" s="62"/>
+      <c r="O76" s="50"/>
       <c r="P76">
         <v>12.688019710000001</v>
       </c>
-      <c r="R76" s="27">
+      <c r="R76" s="23">
         <f t="shared" si="3"/>
         <v>0.1138476699999984</v>
       </c>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="63">
+      <c r="A77" s="51">
         <v>23</v>
       </c>
       <c r="B77">
         <v>22.75987194</v>
       </c>
-      <c r="E77" s="63"/>
+      <c r="E77" s="51"/>
       <c r="F77">
         <v>22.61503948</v>
       </c>
-      <c r="H77" s="27">
+      <c r="H77" s="23">
         <f t="shared" si="2"/>
         <v>0.14483245999999994</v>
       </c>
-      <c r="K77" s="63">
+      <c r="K77" s="51">
         <v>23</v>
       </c>
       <c r="L77">
         <v>13.80809438</v>
       </c>
-      <c r="O77" s="62"/>
+      <c r="O77" s="50"/>
       <c r="P77">
         <v>13.69115086</v>
       </c>
-      <c r="R77" s="27">
+      <c r="R77" s="23">
         <f t="shared" si="3"/>
         <v>0.11694351999999952</v>
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="63">
+      <c r="A78" s="51">
         <v>24</v>
       </c>
       <c r="B78">
         <v>23.511607009999999</v>
       </c>
-      <c r="E78" s="63"/>
+      <c r="E78" s="51"/>
       <c r="F78">
         <v>23.421590070000001</v>
       </c>
-      <c r="H78" s="27">
+      <c r="H78" s="23">
         <f t="shared" si="2"/>
         <v>9.0016939999998158E-2</v>
       </c>
-      <c r="K78" s="63">
+      <c r="K78" s="51">
         <v>24</v>
       </c>
       <c r="L78">
         <v>13.90358601</v>
       </c>
-      <c r="O78" s="62"/>
+      <c r="O78" s="50"/>
       <c r="P78">
         <v>14.484954439999999</v>
       </c>
-      <c r="R78" s="27">
+      <c r="R78" s="23">
         <f t="shared" si="3"/>
         <v>-0.58136842999999949</v>
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="63" t="s">
+      <c r="A79" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="63" t="s">
+      <c r="E79" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="H79" s="27">
+      <c r="H79" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K79" s="63" t="s">
+      <c r="K79" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="O79" s="62" t="s">
+      <c r="O79" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="R79" s="27">
+      <c r="R79" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="63">
+      <c r="A80" s="51">
         <v>0</v>
       </c>
       <c r="B80">
         <v>9.8978204600000002</v>
       </c>
-      <c r="E80" s="63"/>
+      <c r="E80" s="51"/>
       <c r="F80">
         <v>9.9492836199999992</v>
       </c>
-      <c r="H80" s="27">
+      <c r="H80" s="23">
         <f t="shared" si="2"/>
         <v>-5.1463159999999064E-2</v>
       </c>
-      <c r="K80" s="63">
+      <c r="K80" s="51">
         <v>0</v>
       </c>
       <c r="L80">
         <v>10.32969113</v>
       </c>
-      <c r="O80" s="62"/>
+      <c r="O80" s="50"/>
       <c r="P80">
         <v>10.45320761</v>
       </c>
-      <c r="R80" s="27">
+      <c r="R80" s="23">
         <f t="shared" si="3"/>
         <v>-0.12351647999999926</v>
       </c>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="63">
+      <c r="A81" s="51">
         <v>1</v>
       </c>
       <c r="B81">
         <v>5.5971375500000002</v>
       </c>
-      <c r="E81" s="63"/>
+      <c r="E81" s="51"/>
       <c r="F81">
         <v>5.3081339500000002</v>
       </c>
-      <c r="H81" s="27">
+      <c r="H81" s="23">
         <f t="shared" si="2"/>
         <v>0.28900360000000003</v>
       </c>
-      <c r="K81" s="63">
+      <c r="K81" s="51">
         <v>1</v>
       </c>
       <c r="L81">
         <v>9.7432551299999997</v>
       </c>
-      <c r="O81" s="62"/>
+      <c r="O81" s="50"/>
       <c r="P81">
         <v>10.31808258</v>
       </c>
-      <c r="R81" s="27">
+      <c r="R81" s="23">
         <f t="shared" si="3"/>
         <v>-0.57482745000000079</v>
       </c>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="63">
+      <c r="A82" s="51">
         <v>2</v>
       </c>
       <c r="B82">
         <v>6.5201208599999996</v>
       </c>
-      <c r="E82" s="63"/>
+      <c r="E82" s="51"/>
       <c r="F82">
         <v>6.2992357800000001</v>
       </c>
-      <c r="H82" s="27">
+      <c r="H82" s="23">
         <f t="shared" si="2"/>
         <v>0.22088507999999951</v>
       </c>
-      <c r="K82" s="63">
+      <c r="K82" s="51">
         <v>2</v>
       </c>
       <c r="L82">
         <v>7.1008437899999999</v>
       </c>
-      <c r="O82" s="62"/>
+      <c r="O82" s="50"/>
       <c r="P82">
         <v>6.7556733700000002</v>
       </c>
-      <c r="R82" s="27">
+      <c r="R82" s="23">
         <f t="shared" si="3"/>
         <v>0.34517041999999964</v>
       </c>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="63">
+      <c r="A83" s="51">
         <v>3</v>
       </c>
       <c r="B83">
         <v>8.4167369099999991</v>
       </c>
-      <c r="E83" s="63"/>
+      <c r="E83" s="51"/>
       <c r="F83">
         <v>7.24576201</v>
       </c>
-      <c r="H83" s="27">
+      <c r="H83" s="23">
         <f t="shared" si="2"/>
         <v>1.1709748999999992</v>
       </c>
-      <c r="K83" s="63">
+      <c r="K83" s="51">
         <v>3</v>
       </c>
       <c r="L83">
         <v>14.92539448</v>
       </c>
-      <c r="O83" s="62"/>
+      <c r="O83" s="50"/>
       <c r="P83">
         <v>15.27999299</v>
       </c>
-      <c r="R83" s="27">
+      <c r="R83" s="23">
         <f t="shared" si="3"/>
         <v>-0.35459851000000064</v>
       </c>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="63">
+      <c r="A84" s="51">
         <v>4</v>
       </c>
       <c r="B84">
         <v>7.2574370899999998</v>
       </c>
-      <c r="E84" s="63"/>
+      <c r="E84" s="51"/>
       <c r="F84">
         <v>6.9982964399999998</v>
       </c>
-      <c r="H84" s="27">
+      <c r="H84" s="23">
         <f t="shared" si="2"/>
         <v>0.25914064999999997</v>
       </c>
-      <c r="K84" s="63">
+      <c r="K84" s="51">
         <v>4</v>
       </c>
       <c r="L84">
         <v>8.1427087799999995</v>
       </c>
-      <c r="O84" s="62"/>
+      <c r="O84" s="50"/>
       <c r="P84">
         <v>8.1783518799999992</v>
       </c>
-      <c r="R84" s="27">
+      <c r="R84" s="23">
         <f t="shared" si="3"/>
         <v>-3.5643099999999706E-2</v>
       </c>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="63">
+      <c r="A85" s="51">
         <v>5</v>
       </c>
       <c r="B85">
         <v>8.6325564900000007</v>
       </c>
-      <c r="E85" s="63"/>
+      <c r="E85" s="51"/>
       <c r="F85">
         <v>7.9542932300000002</v>
       </c>
-      <c r="H85" s="27">
+      <c r="H85" s="23">
         <f t="shared" si="2"/>
         <v>0.67826326000000048</v>
       </c>
-      <c r="K85" s="63">
+      <c r="K85" s="51">
         <v>5</v>
       </c>
       <c r="L85">
         <v>10.65931965</v>
       </c>
-      <c r="O85" s="62"/>
+      <c r="O85" s="50"/>
       <c r="P85">
         <v>11.621568419999999</v>
       </c>
-      <c r="R85" s="27">
+      <c r="R85" s="23">
         <f t="shared" si="3"/>
         <v>-0.96224876999999864</v>
       </c>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="63">
+      <c r="A86" s="51">
         <v>6</v>
       </c>
       <c r="B86">
         <v>8.1944108</v>
       </c>
-      <c r="E86" s="63"/>
+      <c r="E86" s="51"/>
       <c r="F86">
         <v>8.4473493699999995</v>
       </c>
-      <c r="H86" s="27">
+      <c r="H86" s="23">
         <f t="shared" si="2"/>
         <v>-0.25293856999999953</v>
       </c>
-      <c r="K86" s="63">
+      <c r="K86" s="51">
         <v>6</v>
       </c>
       <c r="L86">
         <v>8.7954291199999997</v>
       </c>
-      <c r="O86" s="62"/>
+      <c r="O86" s="50"/>
       <c r="P86">
         <v>8.5996253599999992</v>
       </c>
-      <c r="R86" s="27">
+      <c r="R86" s="23">
         <f t="shared" si="3"/>
         <v>0.19580376000000044</v>
       </c>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="63">
+      <c r="A87" s="51">
         <v>7</v>
       </c>
       <c r="B87">
         <v>5.2453700799999998</v>
       </c>
-      <c r="E87" s="63"/>
+      <c r="E87" s="51"/>
       <c r="F87">
         <v>5.1482503800000003</v>
       </c>
-      <c r="H87" s="27">
+      <c r="H87" s="23">
         <f t="shared" si="2"/>
         <v>9.7119699999999476E-2</v>
       </c>
-      <c r="K87" s="63">
+      <c r="K87" s="51">
         <v>7</v>
       </c>
       <c r="L87">
         <v>6.7809674700000002</v>
       </c>
-      <c r="O87" s="62"/>
+      <c r="O87" s="50"/>
       <c r="P87">
         <v>9.0078364499999992</v>
       </c>
-      <c r="R87" s="27">
+      <c r="R87" s="23">
         <f t="shared" si="3"/>
         <v>-2.226868979999999</v>
       </c>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="63">
+      <c r="A88" s="51">
         <v>8</v>
       </c>
       <c r="B88">
         <v>3.1948744100000002</v>
       </c>
-      <c r="E88" s="63"/>
+      <c r="E88" s="51"/>
       <c r="F88">
         <v>3.0400695799999999</v>
       </c>
-      <c r="H88" s="27">
+      <c r="H88" s="23">
         <f t="shared" si="2"/>
         <v>0.15480483000000023</v>
       </c>
-      <c r="K88" s="63">
+      <c r="K88" s="51">
         <v>8</v>
       </c>
       <c r="L88">
         <v>6.8500126799999999</v>
       </c>
-      <c r="O88" s="62"/>
+      <c r="O88" s="50"/>
       <c r="P88">
         <v>6.8265532200000001</v>
       </c>
-      <c r="R88" s="27">
+      <c r="R88" s="23">
         <f t="shared" si="3"/>
         <v>2.3459459999999766E-2</v>
       </c>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="63">
+      <c r="A89" s="51">
         <v>9</v>
       </c>
       <c r="B89">
         <v>6.6281594300000002</v>
       </c>
-      <c r="E89" s="63"/>
+      <c r="E89" s="51"/>
       <c r="F89">
         <v>6.2076995300000002</v>
       </c>
-      <c r="H89" s="27">
+      <c r="H89" s="23">
         <f t="shared" si="2"/>
         <v>0.4204599</v>
       </c>
-      <c r="K89" s="63">
+      <c r="K89" s="51">
         <v>9</v>
       </c>
       <c r="L89">
         <v>8.7385080199999994</v>
       </c>
-      <c r="O89" s="62"/>
+      <c r="O89" s="50"/>
       <c r="P89">
         <v>9.4001009599999996</v>
       </c>
-      <c r="R89" s="27">
+      <c r="R89" s="23">
         <f t="shared" si="3"/>
         <v>-0.66159294000000024</v>
       </c>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="63">
+      <c r="A90" s="51">
         <v>10</v>
       </c>
       <c r="B90">
         <v>6.2521519999999997</v>
       </c>
-      <c r="E90" s="63"/>
+      <c r="E90" s="51"/>
       <c r="F90">
         <v>5.5127646800000001</v>
       </c>
-      <c r="H90" s="27">
+      <c r="H90" s="23">
         <f t="shared" si="2"/>
         <v>0.73938731999999963</v>
       </c>
-      <c r="K90" s="63">
+      <c r="K90" s="51">
         <v>10</v>
       </c>
       <c r="L90">
         <v>5.8588538899999998</v>
       </c>
-      <c r="O90" s="62"/>
+      <c r="O90" s="50"/>
       <c r="P90">
         <v>6.1372306700000001</v>
       </c>
-      <c r="R90" s="27">
+      <c r="R90" s="23">
         <f t="shared" si="3"/>
         <v>-0.27837678000000032</v>
       </c>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="63">
+      <c r="A91" s="51">
         <v>11</v>
       </c>
       <c r="B91">
         <v>6.4179692700000004</v>
       </c>
-      <c r="E91" s="63"/>
+      <c r="E91" s="51"/>
       <c r="F91">
         <v>6.2505107600000001</v>
       </c>
-      <c r="H91" s="27">
+      <c r="H91" s="23">
         <f t="shared" si="2"/>
         <v>0.16745851000000034</v>
       </c>
-      <c r="K91" s="63">
+      <c r="K91" s="51">
         <v>11</v>
       </c>
       <c r="L91">
         <v>4.1764069599999996</v>
       </c>
-      <c r="O91" s="62"/>
+      <c r="O91" s="50"/>
       <c r="P91">
         <v>6.0446812799999998</v>
       </c>
-      <c r="R91" s="27">
+      <c r="R91" s="23">
         <f t="shared" si="3"/>
         <v>-1.8682743200000003</v>
       </c>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="63">
+      <c r="A92" s="51">
         <v>12</v>
       </c>
       <c r="B92">
         <v>5.5913477299999998</v>
       </c>
-      <c r="E92" s="63"/>
+      <c r="E92" s="51"/>
       <c r="F92">
         <v>7.0658940399999999</v>
       </c>
-      <c r="H92" s="27">
+      <c r="H92" s="23">
         <f t="shared" si="2"/>
         <v>-1.47454631</v>
       </c>
-      <c r="K92" s="63">
+      <c r="K92" s="51">
         <v>12</v>
       </c>
       <c r="L92">
         <v>7.51471906</v>
       </c>
-      <c r="O92" s="62"/>
+      <c r="O92" s="50"/>
       <c r="P92">
         <v>5.4159035500000003</v>
       </c>
-      <c r="R92" s="27">
+      <c r="R92" s="23">
         <f t="shared" si="3"/>
         <v>2.0988155099999997</v>
       </c>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="63">
+      <c r="A93" s="51">
         <v>13</v>
       </c>
       <c r="B93">
         <v>3.5496597599999999</v>
       </c>
-      <c r="E93" s="63"/>
+      <c r="E93" s="51"/>
       <c r="F93">
         <v>1.9275180000000001</v>
       </c>
-      <c r="H93" s="27">
+      <c r="H93" s="23">
         <f t="shared" si="2"/>
         <v>1.6221417599999999</v>
       </c>
-      <c r="K93" s="63">
+      <c r="K93" s="51">
         <v>13</v>
       </c>
       <c r="L93">
         <v>8.2826728299999992</v>
       </c>
-      <c r="O93" s="62"/>
+      <c r="O93" s="50"/>
       <c r="P93">
         <v>9.1110722899999992</v>
       </c>
-      <c r="R93" s="27">
+      <c r="R93" s="23">
         <f t="shared" si="3"/>
         <v>-0.82839945999999998</v>
       </c>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="63">
+      <c r="A94" s="51">
         <v>14</v>
       </c>
       <c r="B94">
         <v>18.114820659999999</v>
       </c>
-      <c r="E94" s="63"/>
+      <c r="E94" s="51"/>
       <c r="F94">
         <v>18.465486640000002</v>
       </c>
-      <c r="H94" s="27">
+      <c r="H94" s="23">
         <f t="shared" si="2"/>
         <v>-0.35066598000000226</v>
       </c>
-      <c r="K94" s="63">
+      <c r="K94" s="51">
         <v>14</v>
       </c>
       <c r="L94">
         <v>6.9757158099999996</v>
       </c>
-      <c r="O94" s="62"/>
+      <c r="O94" s="50"/>
       <c r="P94">
         <v>6.3273572800000002</v>
       </c>
-      <c r="R94" s="27">
+      <c r="R94" s="23">
         <f t="shared" si="3"/>
         <v>0.64835852999999943</v>
       </c>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="63">
+      <c r="A95" s="51">
         <v>15</v>
       </c>
       <c r="B95">
         <v>7.8747682000000001</v>
       </c>
-      <c r="E95" s="63"/>
+      <c r="E95" s="51"/>
       <c r="F95">
         <v>8.5440622099999999</v>
       </c>
-      <c r="H95" s="27">
+      <c r="H95" s="23">
         <f t="shared" si="2"/>
         <v>-0.66929400999999977</v>
       </c>
-      <c r="K95" s="63">
+      <c r="K95" s="51">
         <v>15</v>
       </c>
       <c r="L95">
         <v>10.1306364</v>
       </c>
-      <c r="O95" s="62"/>
+      <c r="O95" s="50"/>
       <c r="P95">
         <v>10.00253981</v>
       </c>
-      <c r="R95" s="27">
+      <c r="R95" s="23">
         <f t="shared" si="3"/>
         <v>0.12809659000000018</v>
       </c>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="63">
+      <c r="A96" s="51">
         <v>16</v>
       </c>
       <c r="B96">
         <v>6.7728481</v>
       </c>
-      <c r="E96" s="63"/>
+      <c r="E96" s="51"/>
       <c r="F96">
         <v>7.5876295999999996</v>
       </c>
-      <c r="H96" s="27">
+      <c r="H96" s="23">
         <f t="shared" si="2"/>
         <v>-0.8147814999999996</v>
       </c>
-      <c r="K96" s="63">
+      <c r="K96" s="51">
         <v>16</v>
       </c>
       <c r="L96">
         <v>8.4629904000000007</v>
       </c>
-      <c r="O96" s="62"/>
+      <c r="O96" s="50"/>
       <c r="P96">
         <v>9.12488031</v>
       </c>
-      <c r="R96" s="27">
+      <c r="R96" s="23">
         <f t="shared" si="3"/>
         <v>-0.6618899099999993</v>
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="63">
+      <c r="A97" s="51">
         <v>17</v>
       </c>
       <c r="B97">
         <v>8.2422781199999999</v>
       </c>
-      <c r="E97" s="63"/>
+      <c r="E97" s="51"/>
       <c r="F97">
         <v>7.1373774699999997</v>
       </c>
-      <c r="H97" s="27">
+      <c r="H97" s="23">
         <f t="shared" si="2"/>
         <v>1.1049006500000003</v>
       </c>
-      <c r="K97" s="63">
+      <c r="K97" s="51">
         <v>17</v>
       </c>
       <c r="L97">
         <v>4.7731310499999999</v>
       </c>
-      <c r="O97" s="62"/>
+      <c r="O97" s="50"/>
       <c r="P97">
         <v>5.1909081199999996</v>
       </c>
-      <c r="R97" s="27">
+      <c r="R97" s="23">
         <f t="shared" si="3"/>
         <v>-0.41777706999999964</v>
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="63">
+      <c r="A98" s="51">
         <v>18</v>
       </c>
       <c r="B98">
         <v>4.9300841499999999</v>
       </c>
-      <c r="E98" s="63"/>
+      <c r="E98" s="51"/>
       <c r="F98">
         <v>6.8585125299999996</v>
       </c>
-      <c r="H98" s="27">
+      <c r="H98" s="23">
         <f t="shared" si="2"/>
         <v>-1.9284283799999997</v>
       </c>
-      <c r="K98" s="63">
+      <c r="K98" s="51">
         <v>18</v>
       </c>
       <c r="L98">
         <v>6.7811967400000004</v>
       </c>
-      <c r="O98" s="62"/>
+      <c r="O98" s="50"/>
       <c r="P98">
         <v>6.6958217800000002</v>
       </c>
-      <c r="R98" s="27">
+      <c r="R98" s="23">
         <f t="shared" si="3"/>
         <v>8.5374960000000222E-2</v>
       </c>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="63">
+      <c r="A99" s="51">
         <v>19</v>
       </c>
       <c r="B99">
         <v>5.2237490900000001</v>
       </c>
-      <c r="E99" s="63"/>
+      <c r="E99" s="51"/>
       <c r="F99">
         <v>4.8662689700000001</v>
       </c>
-      <c r="H99" s="27">
+      <c r="H99" s="23">
         <f t="shared" si="2"/>
         <v>0.35748011999999996</v>
       </c>
-      <c r="K99" s="63">
+      <c r="K99" s="51">
         <v>19</v>
       </c>
       <c r="L99">
         <v>5.5608605500000001</v>
       </c>
-      <c r="O99" s="62"/>
+      <c r="O99" s="50"/>
       <c r="P99">
         <v>5.1364515400000004</v>
       </c>
-      <c r="R99" s="27">
+      <c r="R99" s="23">
         <f t="shared" si="3"/>
         <v>0.42440900999999975</v>
       </c>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="63">
+      <c r="A100" s="51">
         <v>20</v>
       </c>
       <c r="B100">
         <v>6.0626786900000003</v>
       </c>
-      <c r="E100" s="63"/>
+      <c r="E100" s="51"/>
       <c r="F100">
         <v>4.9211780799999998</v>
       </c>
-      <c r="H100" s="27">
+      <c r="H100" s="23">
         <f t="shared" si="2"/>
         <v>1.1415006100000005</v>
       </c>
-      <c r="K100" s="63">
+      <c r="K100" s="51">
         <v>20</v>
       </c>
       <c r="L100">
         <v>14.17107611</v>
       </c>
-      <c r="O100" s="62"/>
+      <c r="O100" s="50"/>
       <c r="P100">
         <v>14.120597549999999</v>
       </c>
-      <c r="R100" s="27">
+      <c r="R100" s="23">
         <f t="shared" si="3"/>
         <v>5.0478560000000172E-2</v>
       </c>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="63">
+      <c r="A101" s="51">
         <v>21</v>
       </c>
       <c r="B101">
         <v>8.4616545199999997</v>
       </c>
-      <c r="E101" s="63"/>
+      <c r="E101" s="51"/>
       <c r="F101">
         <v>7.8103992499999997</v>
       </c>
-      <c r="H101" s="27">
+      <c r="H101" s="23">
         <f t="shared" si="2"/>
         <v>0.65125527000000005</v>
       </c>
-      <c r="K101" s="63">
+      <c r="K101" s="51">
         <v>21</v>
       </c>
       <c r="L101">
         <v>12.788889729999999</v>
       </c>
-      <c r="O101" s="62"/>
+      <c r="O101" s="50"/>
       <c r="P101">
         <v>12.59382123</v>
       </c>
-      <c r="R101" s="27">
+      <c r="R101" s="23">
         <f t="shared" si="3"/>
         <v>0.19506849999999964</v>
       </c>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="63">
+      <c r="A102" s="51">
         <v>22</v>
       </c>
       <c r="B102">
         <v>8.1267417000000002</v>
       </c>
-      <c r="E102" s="63"/>
+      <c r="E102" s="51"/>
       <c r="F102">
         <v>7.4475896700000002</v>
       </c>
-      <c r="H102" s="27">
+      <c r="H102" s="23">
         <f t="shared" si="2"/>
         <v>0.67915203000000002</v>
       </c>
-      <c r="K102" s="63">
+      <c r="K102" s="51">
         <v>22</v>
       </c>
       <c r="L102">
         <v>12.51526653</v>
       </c>
-      <c r="O102" s="62"/>
+      <c r="O102" s="50"/>
       <c r="P102">
         <v>12.49141058</v>
       </c>
-      <c r="R102" s="27">
+      <c r="R102" s="23">
         <f t="shared" si="3"/>
         <v>2.3855949999999737E-2</v>
       </c>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="63">
+      <c r="A103" s="51">
         <v>23</v>
       </c>
       <c r="B103">
         <v>4.17127933</v>
       </c>
-      <c r="E103" s="63"/>
+      <c r="E103" s="51"/>
       <c r="F103">
         <v>3.9954557099999999</v>
       </c>
-      <c r="H103" s="27">
+      <c r="H103" s="23">
         <f t="shared" si="2"/>
         <v>0.17582362000000007</v>
       </c>
-      <c r="K103" s="63">
+      <c r="K103" s="51">
         <v>23</v>
       </c>
       <c r="L103">
         <v>6.5042522299999996</v>
       </c>
-      <c r="O103" s="62"/>
+      <c r="O103" s="50"/>
       <c r="P103">
         <v>6.2895906799999999</v>
       </c>
-      <c r="R103" s="27">
+      <c r="R103" s="23">
         <f t="shared" si="3"/>
         <v>0.21466154999999976</v>
       </c>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="63">
+      <c r="A104" s="51">
         <v>24</v>
       </c>
       <c r="B104">
         <v>5.0628215900000004</v>
       </c>
-      <c r="E104" s="63"/>
+      <c r="E104" s="51"/>
       <c r="F104">
         <v>5.0888711999999998</v>
       </c>
-      <c r="H104" s="27">
+      <c r="H104" s="23">
         <f t="shared" si="2"/>
         <v>-2.604960999999939E-2</v>
       </c>
-      <c r="K104" s="63">
+      <c r="K104" s="51">
         <v>24</v>
       </c>
       <c r="L104">
         <v>7.1700338500000003</v>
       </c>
-      <c r="O104" s="62"/>
+      <c r="O104" s="50"/>
       <c r="P104">
         <v>7.1657009499999997</v>
       </c>
-      <c r="R104" s="27">
+      <c r="R104" s="23">
         <f t="shared" si="3"/>
         <v>4.332900000000528E-3</v>
       </c>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="65"/>
+      <c r="A105" s="53"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="64"/>
+      <c r="A106" s="52"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="65"/>
+      <c r="A107" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7203,27 +7250,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId3" name="Control 3">
+        <control shapeId="4097" r:id="rId3" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>426720</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>53340</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId3" name="Control 3"/>
+        <control shapeId="4097" r:id="rId3" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7239,9 +7286,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>822960</xdr:colOff>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7253,27 +7300,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId7" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="4099" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>213360</xdr:colOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>541020</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId7" name="Control 1"/>
+        <control shapeId="4099" r:id="rId7" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7284,8 +7331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF23902-3816-4B4E-83CE-581E9B6C3F52}">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7320,7 +7367,7 @@
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="57" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -7343,7 +7390,7 @@
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="25"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="9" t="s">
         <v>84</v>
       </c>
@@ -7364,7 +7411,7 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="57" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -7387,7 +7434,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15" thickBot="1">
-      <c r="B6" s="26"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="17" t="s">
         <v>84</v>
       </c>
@@ -7409,29 +7456,29 @@
     </row>
     <row r="9" spans="2:11" ht="15" thickBot="1"/>
     <row r="10" spans="2:11">
-      <c r="B10" s="60"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="36" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="36" t="s">
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="2:11" ht="15" thickBot="1">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="44" t="s">
         <v>118</v>
       </c>
       <c r="E11" s="17" t="s">
@@ -7440,10 +7487,10 @@
       <c r="F11" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="44" t="s">
         <v>118</v>
       </c>
       <c r="I11" s="17" t="s">
@@ -7452,50 +7499,50 @@
       <c r="J11" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="53" t="s">
+      <c r="K11" s="43" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="65">
         <v>1.96897126794523</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="66">
         <v>3.4602999071115099</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="66">
         <v>14.6053919825485</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="J12" s="52" t="s">
+      <c r="J12" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="40" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="63">
         <v>2.5172597916725101E-3</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="33">
         <v>11.812966277372</v>
       </c>
       <c r="E13" s="10">
@@ -7504,30 +7551,30 @@
       <c r="F13" s="10">
         <v>13.6182460783909</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="34">
         <v>8.1368781707219107</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="26" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="63">
         <v>1.2416653778368101E-3</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="33">
         <v>12.0679709489517</v>
       </c>
       <c r="E14" s="10">
@@ -7536,34 +7583,34 @@
       <c r="F14" s="10">
         <v>14.1431827932181</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="34">
         <v>8.3918828423015999</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="31">
         <f>(D14-D$13)/D$13</f>
         <v>2.1586844962739542E-2</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="25">
         <f t="shared" ref="I14:K14" si="0">(E14-E$13)/E$13</f>
         <v>-2.3043151867608556E-2</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="25">
         <f t="shared" si="0"/>
         <v>3.8546572870360826E-2</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="27">
         <f t="shared" si="0"/>
         <v>3.133937441723611E-2</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="63">
         <v>1.2367894384974099E-3</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="33">
         <v>12.0501735388866</v>
       </c>
       <c r="E15" s="10">
@@ -7572,56 +7619,78 @@
       <c r="F15" s="10">
         <v>14.0762430723527</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="34">
         <v>8.3740854322365994</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="31">
         <f>(D15-D$13)/D$13</f>
         <v>2.0080245379941169E-2</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="25">
         <f t="shared" ref="I15" si="1">(E15-E$13)/E$13</f>
         <v>-1.6564748850661972E-2</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="25">
         <f t="shared" ref="J15" si="2">(F15-F$13)/F$13</f>
         <v>3.3631129245677092E-2</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="27">
         <f t="shared" ref="K15" si="3">(G15-G$13)/G$13</f>
         <v>2.9152121555439673E-2</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="33"/>
+      <c r="C16" s="63">
+        <v>0.16524580917679299</v>
+      </c>
+      <c r="D16" s="33">
+        <v>11.524378679359</v>
+      </c>
+      <c r="E16" s="10">
+        <v>19.351235832271101</v>
+      </c>
+      <c r="F16" s="10">
+        <v>12.516035605725399</v>
+      </c>
+      <c r="G16" s="34">
+        <v>7.8482905727088497</v>
+      </c>
+      <c r="H16" s="31">
+        <f>(D16-D$13)/D$13</f>
+        <v>-2.4429731807987683E-2</v>
+      </c>
+      <c r="I16" s="25">
+        <f t="shared" ref="I16" si="4">(E16-E$13)/E$13</f>
+        <v>0.12562846605957526</v>
+      </c>
+      <c r="J16" s="25">
+        <f t="shared" ref="J16" si="5">(F16-F$13)/F$13</f>
+        <v>-8.0936301658879661E-2</v>
+      </c>
+      <c r="K16" s="27">
+        <f t="shared" ref="K16" si="6">(G16-G$13)/G$13</f>
+        <v>-3.5466623926047706E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:11" ht="15" thickBot="1">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="45" t="s">
         <v>125</v>
       </c>
     </row>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DFDF3CB6-D89C-47F2-9B25-86F5A7FA9EAC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{804C84DA-E074-4757-B5E4-7679CB532820}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3984" windowHeight="4260" activeTab="2" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3990" windowHeight="4260" activeTab="2" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
   <si>
     <t>Experiment</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>U-Net with real_imag</t>
+  </si>
+  <si>
+    <t>U-Net with mag_real_imag</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -836,24 +839,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -890,17 +880,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -933,10 +918,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -952,16 +946,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1006,9 +990,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>426720</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1056,9 +1040,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
+          <xdr:colOff>923925</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1105,10 +1089,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>541020</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1445,18 +1429,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D128" sqref="D128:H128"/>
+      <selection pane="bottomLeft" activeCell="D130" sqref="D130:H130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1626,7 +1610,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -1652,7 +1636,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="55"/>
+      <c r="B10" s="56"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -1673,10 +1657,10 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="56">
+      <c r="A11" s="55">
         <v>43367</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="56">
         <v>50</v>
       </c>
       <c r="C11">
@@ -1702,8 +1686,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="56"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -1727,10 +1711,10 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="56">
+      <c r="A13" s="55">
         <v>43368</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="56">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -1751,13 +1735,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="56" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="56"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -1776,13 +1760,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="55"/>
+      <c r="I14" s="56"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="56">
+      <c r="A15" s="55">
         <v>43369</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="56">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1803,13 +1787,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="56" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="56"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1828,11 +1812,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="55"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="56"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1851,11 +1835,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="55"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="56"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1874,13 +1858,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="55"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="56">
+      <c r="A19" s="55">
         <v>43370</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="56">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1901,13 +1885,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="56" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="56"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1926,13 +1910,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="55"/>
+      <c r="I20" s="56"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="56">
+      <c r="A21" s="55">
         <v>43373</v>
       </c>
-      <c r="B21" s="55">
+      <c r="B21" s="56">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1953,13 +1937,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="56" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="56"/>
-      <c r="B22" s="55"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1978,11 +1962,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="55"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="56"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -2001,11 +1985,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="55"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="56"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -2024,7 +2008,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="55"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
@@ -2074,10 +2058,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="56">
+      <c r="A29" s="55">
         <v>43374</v>
       </c>
-      <c r="B29" s="55">
+      <c r="B29" s="56">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -2098,13 +2082,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="I29" s="56" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="56"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2123,11 +2107,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="55"/>
+      <c r="I30" s="56"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="56"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2146,11 +2130,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="55"/>
+      <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="56"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -2169,13 +2153,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="55"/>
+      <c r="I32" s="56"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="56">
+      <c r="A33" s="55">
         <v>43374</v>
       </c>
-      <c r="B33" s="55">
+      <c r="B33" s="56">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -2196,13 +2180,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="55" t="s">
+      <c r="I33" s="56" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="56"/>
-      <c r="B34" s="55"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="56"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -2221,13 +2205,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="55"/>
+      <c r="I34" s="56"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="56">
+      <c r="A35" s="55">
         <v>43375</v>
       </c>
-      <c r="B35" s="55">
+      <c r="B35" s="56">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -2248,13 +2232,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="55" t="s">
+      <c r="I35" s="56" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="56"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="56"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -2273,11 +2257,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="55"/>
+      <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="56"/>
-      <c r="B37" s="55"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="56"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -2296,11 +2280,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="55"/>
+      <c r="I37" s="56"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="56"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="56"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -2319,13 +2303,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="55"/>
+      <c r="I38" s="56"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="56">
+      <c r="A39" s="55">
         <v>43375</v>
       </c>
-      <c r="B39" s="55">
+      <c r="B39" s="56">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -2346,13 +2330,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="55" t="s">
+      <c r="I39" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="56"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="56"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -2371,11 +2355,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="55"/>
+      <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="56"/>
-      <c r="B41" s="55"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="56"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -2394,11 +2378,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="55"/>
+      <c r="I41" s="56"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="56"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -2417,7 +2401,7 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="55"/>
+      <c r="I42" s="56"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
@@ -2607,7 +2591,7 @@
       <c r="H51">
         <v>-0.31863876639355398</v>
       </c>
-      <c r="I51" s="55" t="s">
+      <c r="I51" s="56" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2631,7 +2615,7 @@
       <c r="H52">
         <v>2.67662389686584</v>
       </c>
-      <c r="I52" s="55"/>
+      <c r="I52" s="56"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
@@ -2653,7 +2637,7 @@
       <c r="H53">
         <v>0.95464630209159695</v>
       </c>
-      <c r="I53" s="55"/>
+      <c r="I53" s="56"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
@@ -2675,7 +2659,7 @@
       <c r="H54">
         <v>4.8512619602994098</v>
       </c>
-      <c r="I54" s="55"/>
+      <c r="I54" s="56"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
@@ -2700,7 +2684,7 @@
       <c r="H55">
         <v>-0.56767955034740303</v>
       </c>
-      <c r="I55" s="55"/>
+      <c r="I55" s="56"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
@@ -2722,7 +2706,7 @@
       <c r="H56">
         <v>1.8761231724104801</v>
       </c>
-      <c r="I56" s="55"/>
+      <c r="I56" s="56"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
@@ -2744,7 +2728,7 @@
       <c r="H57">
         <v>0.76717154068581295</v>
       </c>
-      <c r="I57" s="55"/>
+      <c r="I57" s="56"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
@@ -2766,7 +2750,7 @@
       <c r="H58">
         <v>3.8964804606254</v>
       </c>
-      <c r="I58" s="55"/>
+      <c r="I58" s="56"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
@@ -2784,10 +2768,10 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="56">
+      <c r="A60" s="55">
         <v>43377</v>
       </c>
-      <c r="B60" s="55">
+      <c r="B60" s="56">
         <v>85</v>
       </c>
       <c r="C60" t="s">
@@ -2808,13 +2792,13 @@
       <c r="H60">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I60" s="55" t="s">
+      <c r="I60" s="56" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="56"/>
-      <c r="B61" s="55"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="56"/>
       <c r="C61" t="s">
         <v>32</v>
       </c>
@@ -2833,13 +2817,13 @@
       <c r="H61">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I61" s="55"/>
+      <c r="I61" s="56"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="56">
+      <c r="A62" s="55">
         <v>43378</v>
       </c>
-      <c r="B62" s="55">
+      <c r="B62" s="56">
         <v>89</v>
       </c>
       <c r="C62" t="s">
@@ -2860,11 +2844,11 @@
       <c r="H62">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I62" s="55"/>
+      <c r="I62" s="56"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="56"/>
-      <c r="B63" s="55"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="56"/>
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -2883,7 +2867,7 @@
       <c r="H63">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I63" s="55"/>
+      <c r="I63" s="56"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -2906,7 +2890,7 @@
       <c r="H64">
         <v>4.5462062693628003</v>
       </c>
-      <c r="I64" s="55" t="s">
+      <c r="I64" s="56" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2931,7 +2915,7 @@
       <c r="H65">
         <v>-3.4906857233533901</v>
       </c>
-      <c r="I65" s="55"/>
+      <c r="I65" s="56"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="5" t="s">
@@ -3111,7 +3095,7 @@
       <c r="H74">
         <v>-1.00648635425107E-2</v>
       </c>
-      <c r="I74" s="55" t="s">
+      <c r="I74" s="56" t="s">
         <v>72</v>
       </c>
       <c r="J74" t="s">
@@ -3137,7 +3121,7 @@
       <c r="H75">
         <v>2.3179146551025099E-3</v>
       </c>
-      <c r="I75" s="55"/>
+      <c r="I75" s="56"/>
     </row>
     <row r="76" spans="1:10">
       <c r="C76" t="s">
@@ -3158,7 +3142,7 @@
       <c r="H76">
         <v>2.2201058587415501</v>
       </c>
-      <c r="I76" s="55"/>
+      <c r="I76" s="56"/>
     </row>
     <row r="77" spans="1:10">
       <c r="C77" t="s">
@@ -3179,7 +3163,7 @@
       <c r="H77">
         <v>-3.9812518800141699</v>
       </c>
-      <c r="I77" s="55"/>
+      <c r="I77" s="56"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1">
@@ -3206,7 +3190,7 @@
       <c r="H78">
         <v>-5.2635717372245903E-3</v>
       </c>
-      <c r="I78" s="55" t="s">
+      <c r="I78" s="56" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3229,7 +3213,7 @@
       <c r="H79">
         <v>-3.0981829250898101</v>
       </c>
-      <c r="I79" s="55"/>
+      <c r="I79" s="56"/>
     </row>
     <row r="80" spans="1:10">
       <c r="B80">
@@ -3253,7 +3237,7 @@
       <c r="H80">
         <v>-6.1165373024574896E-3</v>
       </c>
-      <c r="I80" s="55"/>
+      <c r="I80" s="56"/>
     </row>
     <row r="81" spans="1:9">
       <c r="C81" t="s">
@@ -3274,7 +3258,7 @@
       <c r="H81">
         <v>-3.3361756537648399</v>
       </c>
-      <c r="I81" s="55"/>
+      <c r="I81" s="56"/>
     </row>
     <row r="82" spans="1:9">
       <c r="C82" t="s">
@@ -3295,7 +3279,7 @@
       <c r="H82">
         <v>2.0683995791691099</v>
       </c>
-      <c r="I82" s="55"/>
+      <c r="I82" s="56"/>
     </row>
     <row r="83" spans="1:9">
       <c r="C83" t="s">
@@ -3316,7 +3300,7 @@
       <c r="H83">
         <v>-3.3679402794508602</v>
       </c>
-      <c r="I83" s="55"/>
+      <c r="I83" s="56"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
@@ -4042,7 +4026,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="3:8">
+    <row r="129" spans="2:9">
       <c r="C129" t="s">
         <v>32</v>
       </c>
@@ -4062,8 +4046,75 @@
         <v>5.6660565607624997</v>
       </c>
     </row>
+    <row r="130" spans="2:9">
+      <c r="B130">
+        <v>184</v>
+      </c>
+      <c r="C130" t="s">
+        <v>31</v>
+      </c>
+      <c r="D130">
+        <v>0.108961390961821</v>
+      </c>
+      <c r="E130">
+        <v>11.3704568974146</v>
+      </c>
+      <c r="F130">
+        <v>15.2321663577236</v>
+      </c>
+      <c r="G130">
+        <v>14.063181415601001</v>
+      </c>
+      <c r="H130">
+        <v>7.6943687907646003</v>
+      </c>
+      <c r="I130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9">
+      <c r="C131" t="s">
+        <v>32</v>
+      </c>
+      <c r="D131">
+        <v>0.108961390961821</v>
+      </c>
+      <c r="E131">
+        <v>3.6225277288170399</v>
+      </c>
+      <c r="F131">
+        <v>7.5619206115772801</v>
+      </c>
+      <c r="G131">
+        <v>8.4673045109062901</v>
+      </c>
+      <c r="H131">
+        <v>6.54426298519087</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="I78:I83"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -4079,27 +4130,6 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I78:I83"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="I60:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4115,19 +4145,19 @@
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="8" max="8" width="19" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="46" t="s">
         <v>118</v>
       </c>
       <c r="B1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="46" t="s">
         <v>118</v>
       </c>
       <c r="F1" t="s">
@@ -4136,22 +4166,22 @@
       <c r="H1" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="45" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="51">
+      <c r="A2" s="46">
         <v>0</v>
       </c>
       <c r="B2" s="22">
         <v>13.6310941</v>
       </c>
       <c r="C2" s="22"/>
-      <c r="E2" s="51"/>
+      <c r="E2" s="46"/>
       <c r="F2">
         <v>13.68255731</v>
       </c>
@@ -4159,13 +4189,13 @@
         <f>B2-F2</f>
         <v>-5.1463209999999648E-2</v>
       </c>
-      <c r="K2" s="51">
+      <c r="K2" s="46">
         <v>0</v>
       </c>
       <c r="L2">
         <v>15.504060880000001</v>
       </c>
-      <c r="O2" s="50"/>
+      <c r="O2" s="45"/>
       <c r="P2">
         <v>15.62757736</v>
       </c>
@@ -4175,14 +4205,14 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="51">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
       <c r="B3" s="22">
         <v>14.114214</v>
       </c>
       <c r="C3" s="22"/>
-      <c r="E3" s="51"/>
+      <c r="E3" s="46"/>
       <c r="F3">
         <v>13.82521036</v>
       </c>
@@ -4190,13 +4220,13 @@
         <f t="shared" ref="H3:H66" si="0">B3-F3</f>
         <v>0.28900364000000067</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="46">
         <v>1</v>
       </c>
       <c r="L3">
         <v>13.243643690000001</v>
       </c>
-      <c r="O3" s="50"/>
+      <c r="O3" s="45"/>
       <c r="P3">
         <v>13.81847114</v>
       </c>
@@ -4206,14 +4236,14 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="51">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
       <c r="B4" s="22">
         <v>14.915215</v>
       </c>
       <c r="C4" s="22"/>
-      <c r="E4" s="51"/>
+      <c r="E4" s="46"/>
       <c r="F4">
         <v>14.69432993</v>
       </c>
@@ -4221,13 +4251,13 @@
         <f t="shared" si="0"/>
         <v>0.22088506999999957</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="46">
         <v>2</v>
       </c>
       <c r="L4">
         <v>10.105190090000001</v>
       </c>
-      <c r="O4" s="50"/>
+      <c r="O4" s="45"/>
       <c r="P4">
         <v>9.7600196700000001</v>
       </c>
@@ -4237,14 +4267,14 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="51">
+      <c r="A5" s="46">
         <v>3</v>
       </c>
       <c r="B5" s="22">
         <v>13.295089000000001</v>
       </c>
       <c r="C5" s="22"/>
-      <c r="E5" s="51"/>
+      <c r="E5" s="46"/>
       <c r="F5">
         <v>12.1241141</v>
       </c>
@@ -4252,13 +4282,13 @@
         <f t="shared" si="0"/>
         <v>1.1709749000000009</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="46">
         <v>3</v>
       </c>
       <c r="L5">
         <v>15.537563349999999</v>
       </c>
-      <c r="O5" s="50"/>
+      <c r="O5" s="45"/>
       <c r="P5">
         <v>15.89216186</v>
       </c>
@@ -4268,14 +4298,14 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="51">
+      <c r="A6" s="46">
         <v>4</v>
       </c>
       <c r="B6" s="22">
         <v>13.5681665</v>
       </c>
       <c r="C6" s="22"/>
-      <c r="E6" s="51"/>
+      <c r="E6" s="46"/>
       <c r="F6">
         <v>13.30902581</v>
       </c>
@@ -4283,13 +4313,13 @@
         <f t="shared" si="0"/>
         <v>0.25914069000000062</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="46">
         <v>4</v>
       </c>
       <c r="L6">
         <v>13.53970662</v>
       </c>
-      <c r="O6" s="50"/>
+      <c r="O6" s="45"/>
       <c r="P6">
         <v>13.575349709999999</v>
       </c>
@@ -4299,14 +4329,14 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="51">
+      <c r="A7" s="46">
         <v>5</v>
       </c>
       <c r="B7" s="22">
         <v>13.837569200000001</v>
       </c>
       <c r="C7" s="22"/>
-      <c r="E7" s="51"/>
+      <c r="E7" s="46"/>
       <c r="F7">
         <v>13.159305959999999</v>
       </c>
@@ -4314,13 +4344,13 @@
         <f t="shared" si="0"/>
         <v>0.67826324000000149</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="46">
         <v>5</v>
       </c>
       <c r="L7">
         <v>12.303724689999999</v>
       </c>
-      <c r="O7" s="50"/>
+      <c r="O7" s="45"/>
       <c r="P7">
         <v>13.26597346</v>
       </c>
@@ -4330,14 +4360,14 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="51">
+      <c r="A8" s="46">
         <v>6</v>
       </c>
       <c r="B8" s="22">
         <v>9.5816275799999993</v>
       </c>
       <c r="C8" s="22"/>
-      <c r="E8" s="51"/>
+      <c r="E8" s="46"/>
       <c r="F8">
         <v>9.8345661500000006</v>
       </c>
@@ -4345,13 +4375,13 @@
         <f t="shared" si="0"/>
         <v>-0.25293857000000131</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="46">
         <v>6</v>
       </c>
       <c r="L8">
         <v>9.0521034199999999</v>
       </c>
-      <c r="O8" s="50"/>
+      <c r="O8" s="45"/>
       <c r="P8">
         <v>8.8562996599999995</v>
       </c>
@@ -4361,14 +4391,14 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="51">
+      <c r="A9" s="46">
         <v>7</v>
       </c>
       <c r="B9" s="22">
         <v>10.8376546</v>
       </c>
       <c r="C9" s="22"/>
-      <c r="E9" s="51"/>
+      <c r="E9" s="46"/>
       <c r="F9">
         <v>10.74053486</v>
       </c>
@@ -4376,30 +4406,30 @@
         <f t="shared" si="0"/>
         <v>9.7119740000000121E-2</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="46">
         <v>7</v>
       </c>
       <c r="L9">
         <v>9.3473276300000006</v>
       </c>
-      <c r="O9" s="50"/>
+      <c r="O9" s="45"/>
       <c r="P9">
         <v>11.57419661</v>
       </c>
-      <c r="R9" s="54">
+      <c r="R9" s="49">
         <f t="shared" si="1"/>
         <v>-2.226868979999999</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="51">
+      <c r="A10" s="46">
         <v>8</v>
       </c>
       <c r="B10" s="22">
         <v>8.8218898699999997</v>
       </c>
       <c r="C10" s="22"/>
-      <c r="E10" s="51"/>
+      <c r="E10" s="46"/>
       <c r="F10">
         <v>8.6670850500000007</v>
       </c>
@@ -4407,13 +4437,13 @@
         <f t="shared" si="0"/>
         <v>0.15480481999999895</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="46">
         <v>8</v>
       </c>
       <c r="L10">
         <v>7.3468390100000001</v>
       </c>
-      <c r="O10" s="50"/>
+      <c r="O10" s="45"/>
       <c r="P10">
         <v>7.3233795500000003</v>
       </c>
@@ -4423,14 +4453,14 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="51">
+      <c r="A11" s="46">
         <v>9</v>
       </c>
       <c r="B11" s="22">
         <v>12.502928799999999</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="E11" s="51"/>
+      <c r="E11" s="46"/>
       <c r="F11">
         <v>12.082468860000001</v>
       </c>
@@ -4438,13 +4468,13 @@
         <f t="shared" si="0"/>
         <v>0.42045993999999887</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="46">
         <v>9</v>
       </c>
       <c r="L11">
         <v>11.436437010000001</v>
       </c>
-      <c r="O11" s="50"/>
+      <c r="O11" s="45"/>
       <c r="P11">
         <v>12.098029950000001</v>
       </c>
@@ -4454,14 +4484,14 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="51">
+      <c r="A12" s="46">
         <v>10</v>
       </c>
       <c r="B12" s="22">
         <v>14.1842772</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="E12" s="51"/>
+      <c r="E12" s="46"/>
       <c r="F12">
         <v>13.44488993</v>
       </c>
@@ -4469,13 +4499,13 @@
         <f t="shared" si="0"/>
         <v>0.73938726999999993</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="46">
         <v>10</v>
       </c>
       <c r="L12">
         <v>11.277759339999999</v>
       </c>
-      <c r="O12" s="50"/>
+      <c r="O12" s="45"/>
       <c r="P12">
         <v>11.55613612</v>
       </c>
@@ -4485,14 +4515,14 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="51">
+      <c r="A13" s="46">
         <v>11</v>
       </c>
       <c r="B13" s="22">
         <v>12.692087799999999</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="E13" s="51"/>
+      <c r="E13" s="46"/>
       <c r="F13">
         <v>12.524629300000001</v>
       </c>
@@ -4500,13 +4530,13 @@
         <f t="shared" si="0"/>
         <v>0.16745849999999862</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="46">
         <v>11</v>
       </c>
       <c r="L13">
         <v>11.932036009999999</v>
       </c>
-      <c r="O13" s="50"/>
+      <c r="O13" s="45"/>
       <c r="P13">
         <v>13.80031033</v>
       </c>
@@ -4516,14 +4546,14 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="51">
+      <c r="A14" s="46">
         <v>12</v>
       </c>
       <c r="B14" s="22">
         <v>6.1079395500000002</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="E14" s="51"/>
+      <c r="E14" s="46"/>
       <c r="F14">
         <v>7.5824858600000002</v>
       </c>
@@ -4531,13 +4561,13 @@
         <f t="shared" si="0"/>
         <v>-1.47454631</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="46">
         <v>12</v>
       </c>
       <c r="L14">
         <v>9.1186061200000008</v>
       </c>
-      <c r="O14" s="50"/>
+      <c r="O14" s="45"/>
       <c r="P14">
         <v>7.0197906100000003</v>
       </c>
@@ -4547,28 +4577,28 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="51">
+      <c r="A15" s="46">
         <v>13</v>
       </c>
       <c r="B15" s="22">
         <v>14.3286034</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="E15" s="51"/>
+      <c r="E15" s="46"/>
       <c r="F15">
         <v>12.70646168</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="49">
         <f t="shared" si="0"/>
         <v>1.6221417200000001</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="46">
         <v>13</v>
       </c>
       <c r="L15">
         <v>13.77721393</v>
       </c>
-      <c r="O15" s="50"/>
+      <c r="O15" s="45"/>
       <c r="P15">
         <v>14.60561339</v>
       </c>
@@ -4578,14 +4608,14 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="51">
+      <c r="A16" s="46">
         <v>14</v>
       </c>
       <c r="B16" s="22">
         <v>15.4727158</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="E16" s="51"/>
+      <c r="E16" s="46"/>
       <c r="F16">
         <v>15.82338176</v>
       </c>
@@ -4593,13 +4623,13 @@
         <f t="shared" si="0"/>
         <v>-0.35066596000000061</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="46">
         <v>14</v>
       </c>
       <c r="L16">
         <v>10.93699202</v>
       </c>
-      <c r="O16" s="50"/>
+      <c r="O16" s="45"/>
       <c r="P16">
         <v>10.28863349</v>
       </c>
@@ -4609,14 +4639,14 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="51">
+      <c r="A17" s="46">
         <v>15</v>
       </c>
       <c r="B17" s="22">
         <v>15.0669521</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="E17" s="51"/>
+      <c r="E17" s="46"/>
       <c r="F17">
         <v>15.73624611</v>
       </c>
@@ -4624,13 +4654,13 @@
         <f t="shared" si="0"/>
         <v>-0.66929400999999977</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="46">
         <v>15</v>
       </c>
       <c r="L17">
         <v>15.044199020000001</v>
       </c>
-      <c r="O17" s="50"/>
+      <c r="O17" s="45"/>
       <c r="P17">
         <v>14.91610244</v>
       </c>
@@ -4640,14 +4670,14 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="51">
+      <c r="A18" s="46">
         <v>16</v>
       </c>
       <c r="B18" s="22">
         <v>15.1301855</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="E18" s="51"/>
+      <c r="E18" s="46"/>
       <c r="F18">
         <v>15.944966989999999</v>
       </c>
@@ -4655,13 +4685,13 @@
         <f t="shared" si="0"/>
         <v>-0.81478148999999966</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="46">
         <v>16</v>
       </c>
       <c r="L18">
         <v>14.66520272</v>
       </c>
-      <c r="O18" s="50"/>
+      <c r="O18" s="45"/>
       <c r="P18">
         <v>15.327092629999999</v>
       </c>
@@ -4671,14 +4701,14 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="51">
+      <c r="A19" s="46">
         <v>17</v>
       </c>
       <c r="B19" s="22">
         <v>11.3176039</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="E19" s="51"/>
+      <c r="E19" s="46"/>
       <c r="F19">
         <v>10.212703210000001</v>
       </c>
@@ -4686,13 +4716,13 @@
         <f t="shared" si="0"/>
         <v>1.1049006899999991</v>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="46">
         <v>17</v>
       </c>
       <c r="L19">
         <v>7.2548629699999996</v>
       </c>
-      <c r="O19" s="50"/>
+      <c r="O19" s="45"/>
       <c r="P19">
         <v>7.6726400400000001</v>
       </c>
@@ -4702,14 +4732,14 @@
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="51">
+      <c r="A20" s="46">
         <v>18</v>
       </c>
       <c r="B20" s="22">
         <v>9.4711795399999996</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="E20" s="51"/>
+      <c r="E20" s="46"/>
       <c r="F20">
         <v>11.39960791</v>
       </c>
@@ -4717,13 +4747,13 @@
         <f t="shared" si="0"/>
         <v>-1.9284283700000007</v>
       </c>
-      <c r="K20" s="51">
+      <c r="K20" s="46">
         <v>18</v>
       </c>
       <c r="L20">
         <v>12.402952790000001</v>
       </c>
-      <c r="O20" s="50"/>
+      <c r="O20" s="45"/>
       <c r="P20">
         <v>12.317577829999999</v>
       </c>
@@ -4733,14 +4763,14 @@
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="51">
+      <c r="A21" s="46">
         <v>19</v>
       </c>
       <c r="B21" s="22">
         <v>10.997961699999999</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="E21" s="51"/>
+      <c r="E21" s="46"/>
       <c r="F21">
         <v>10.64048159</v>
       </c>
@@ -4748,13 +4778,13 @@
         <f t="shared" si="0"/>
         <v>0.35748010999999913</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="46">
         <v>19</v>
       </c>
       <c r="L21">
         <v>13.54347578</v>
       </c>
-      <c r="O21" s="50"/>
+      <c r="O21" s="45"/>
       <c r="P21">
         <v>13.11906677</v>
       </c>
@@ -4764,14 +4794,14 @@
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="51">
+      <c r="A22" s="46">
         <v>20</v>
       </c>
       <c r="B22" s="22">
         <v>8.8006049799999992</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="E22" s="51"/>
+      <c r="E22" s="46"/>
       <c r="F22">
         <v>7.6591043699999997</v>
       </c>
@@ -4779,13 +4809,13 @@
         <f t="shared" si="0"/>
         <v>1.1415006099999996</v>
       </c>
-      <c r="K22" s="51">
+      <c r="K22" s="46">
         <v>20</v>
       </c>
       <c r="L22">
         <v>13.01622306</v>
       </c>
-      <c r="O22" s="50"/>
+      <c r="O22" s="45"/>
       <c r="P22">
         <v>12.9657445</v>
       </c>
@@ -4795,14 +4825,14 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="51">
+      <c r="A23" s="46">
         <v>21</v>
       </c>
       <c r="B23" s="22">
         <v>11.861148699999999</v>
       </c>
       <c r="C23" s="22"/>
-      <c r="E23" s="51"/>
+      <c r="E23" s="46"/>
       <c r="F23">
         <v>11.209893449999999</v>
       </c>
@@ -4810,13 +4840,13 @@
         <f t="shared" si="0"/>
         <v>0.65125525000000017</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="46">
         <v>21</v>
       </c>
       <c r="L23">
         <v>13.624087449999999</v>
       </c>
-      <c r="O23" s="50"/>
+      <c r="O23" s="45"/>
       <c r="P23">
         <v>13.429018960000001</v>
       </c>
@@ -4826,14 +4856,14 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="51">
+      <c r="A24" s="46">
         <v>22</v>
       </c>
       <c r="B24" s="22">
         <v>10.9651136</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="E24" s="51"/>
+      <c r="E24" s="46"/>
       <c r="F24">
         <v>10.28596153</v>
       </c>
@@ -4841,13 +4871,13 @@
         <f t="shared" si="0"/>
         <v>0.67915207000000066</v>
       </c>
-      <c r="K24" s="51">
+      <c r="K24" s="46">
         <v>22</v>
       </c>
       <c r="L24">
         <v>11.078052899999999</v>
       </c>
-      <c r="O24" s="50"/>
+      <c r="O24" s="45"/>
       <c r="P24">
         <v>11.05419695</v>
       </c>
@@ -4857,14 +4887,14 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="51">
+      <c r="A25" s="46">
         <v>23</v>
       </c>
       <c r="B25" s="22">
         <v>20.165744799999999</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="E25" s="51"/>
+      <c r="E25" s="46"/>
       <c r="F25">
         <v>19.98992118</v>
       </c>
@@ -4872,13 +4902,13 @@
         <f t="shared" si="0"/>
         <v>0.17582361999999918</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="46">
         <v>23</v>
       </c>
       <c r="L25">
         <v>12.221937649999999</v>
       </c>
-      <c r="O25" s="50"/>
+      <c r="O25" s="45"/>
       <c r="P25">
         <v>12.0072761</v>
       </c>
@@ -4888,14 +4918,14 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="51">
+      <c r="A26" s="46">
         <v>24</v>
       </c>
       <c r="B26" s="22">
         <v>20.4969368</v>
       </c>
       <c r="C26" s="22"/>
-      <c r="E26" s="51"/>
+      <c r="E26" s="46"/>
       <c r="F26">
         <v>20.522986360000001</v>
       </c>
@@ -4903,13 +4933,13 @@
         <f t="shared" si="0"/>
         <v>-2.6049560000000582E-2</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="46">
         <v>24</v>
       </c>
       <c r="L26">
         <v>12.161695160000001</v>
       </c>
-      <c r="O26" s="50"/>
+      <c r="O26" s="45"/>
       <c r="P26">
         <v>12.157362259999999</v>
       </c>
@@ -4919,20 +4949,20 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="46" t="s">
         <v>119</v>
       </c>
       <c r="H27" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="51" t="s">
+      <c r="K27" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="O27" s="50" t="s">
+      <c r="O27" s="45" t="s">
         <v>119</v>
       </c>
       <c r="R27" s="23">
@@ -4941,13 +4971,13 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="51">
+      <c r="A28" s="46">
         <v>0</v>
       </c>
       <c r="B28">
         <v>17.30043191</v>
       </c>
-      <c r="E28" s="51"/>
+      <c r="E28" s="46"/>
       <c r="F28">
         <v>17.69677695</v>
       </c>
@@ -4955,13 +4985,13 @@
         <f t="shared" si="0"/>
         <v>-0.39634503999999993</v>
       </c>
-      <c r="K28" s="51">
+      <c r="K28" s="46">
         <v>0</v>
       </c>
       <c r="L28">
         <v>19.74782738</v>
       </c>
-      <c r="O28" s="50"/>
+      <c r="O28" s="45"/>
       <c r="P28">
         <v>19.462411809999999</v>
       </c>
@@ -4971,13 +5001,13 @@
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="51">
+      <c r="A29" s="46">
         <v>1</v>
       </c>
       <c r="B29">
         <v>17.354958079999999</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="46"/>
       <c r="F29">
         <v>16.848371960000001</v>
       </c>
@@ -4985,13 +5015,13 @@
         <f t="shared" si="0"/>
         <v>0.50658611999999792</v>
       </c>
-      <c r="K29" s="51">
+      <c r="K29" s="46">
         <v>1</v>
       </c>
       <c r="L29">
         <v>16.632221049999998</v>
       </c>
-      <c r="O29" s="50"/>
+      <c r="O29" s="45"/>
       <c r="P29">
         <v>17.35659106</v>
       </c>
@@ -5001,13 +5031,13 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="51">
+      <c r="A30" s="46">
         <v>2</v>
       </c>
       <c r="B30">
         <v>18.089428160000001</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="46"/>
       <c r="F30">
         <v>18.093440319999999</v>
       </c>
@@ -5015,13 +5045,13 @@
         <f t="shared" si="0"/>
         <v>-4.012159999998488E-3</v>
       </c>
-      <c r="K30" s="51">
+      <c r="K30" s="46">
         <v>2</v>
       </c>
       <c r="L30">
         <v>13.746490870000001</v>
       </c>
-      <c r="O30" s="50"/>
+      <c r="O30" s="45"/>
       <c r="P30">
         <v>12.97748838</v>
       </c>
@@ -5031,13 +5061,13 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="51">
+      <c r="A31" s="46">
         <v>3</v>
       </c>
       <c r="B31">
         <v>16.587185550000001</v>
       </c>
-      <c r="E31" s="51"/>
+      <c r="E31" s="46"/>
       <c r="F31">
         <v>15.63558811</v>
       </c>
@@ -5045,13 +5075,13 @@
         <f t="shared" si="0"/>
         <v>0.95159744000000046</v>
       </c>
-      <c r="K31" s="51">
+      <c r="K31" s="46">
         <v>3</v>
       </c>
       <c r="L31">
         <v>21.573665219999999</v>
       </c>
-      <c r="O31" s="50"/>
+      <c r="O31" s="45"/>
       <c r="P31">
         <v>20.68944844</v>
       </c>
@@ -5061,13 +5091,13 @@
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="51">
+      <c r="A32" s="46">
         <v>4</v>
       </c>
       <c r="B32">
         <v>17.245802569999999</v>
       </c>
-      <c r="E32" s="51"/>
+      <c r="E32" s="46"/>
       <c r="F32">
         <v>17.798296820000001</v>
       </c>
@@ -5075,13 +5105,13 @@
         <f t="shared" si="0"/>
         <v>-0.5524942500000023</v>
       </c>
-      <c r="K32" s="51">
+      <c r="K32" s="46">
         <v>4</v>
       </c>
       <c r="L32">
         <v>16.845026010000002</v>
       </c>
-      <c r="O32" s="50"/>
+      <c r="O32" s="45"/>
       <c r="P32">
         <v>16.86556496</v>
       </c>
@@ -5091,13 +5121,13 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="51">
+      <c r="A33" s="46">
         <v>5</v>
       </c>
       <c r="B33">
         <v>18.520996440000001</v>
       </c>
-      <c r="E33" s="51"/>
+      <c r="E33" s="46"/>
       <c r="F33">
         <v>20.689898679999999</v>
       </c>
@@ -5105,13 +5135,13 @@
         <f t="shared" si="0"/>
         <v>-2.1689022399999978</v>
       </c>
-      <c r="K33" s="51">
+      <c r="K33" s="46">
         <v>5</v>
       </c>
       <c r="L33">
         <v>17.078029130000001</v>
       </c>
-      <c r="O33" s="50"/>
+      <c r="O33" s="45"/>
       <c r="P33">
         <v>18.217979620000001</v>
       </c>
@@ -5121,13 +5151,13 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="51">
+      <c r="A34" s="46">
         <v>6</v>
       </c>
       <c r="B34">
         <v>13.802928789999999</v>
       </c>
-      <c r="E34" s="51"/>
+      <c r="E34" s="46"/>
       <c r="F34">
         <v>14.95850755</v>
       </c>
@@ -5135,13 +5165,13 @@
         <f t="shared" si="0"/>
         <v>-1.1555787600000009</v>
       </c>
-      <c r="K34" s="51">
+      <c r="K34" s="46">
         <v>6</v>
       </c>
       <c r="L34">
         <v>13.691509829999999</v>
       </c>
-      <c r="O34" s="50"/>
+      <c r="O34" s="45"/>
       <c r="P34">
         <v>13.00611992</v>
       </c>
@@ -5151,13 +5181,13 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="51">
+      <c r="A35" s="46">
         <v>7</v>
       </c>
       <c r="B35">
         <v>15.977755159999999</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="46"/>
       <c r="F35">
         <v>16.031421229999999</v>
       </c>
@@ -5165,13 +5195,13 @@
         <f t="shared" si="0"/>
         <v>-5.3666070000000232E-2</v>
       </c>
-      <c r="K35" s="51">
+      <c r="K35" s="46">
         <v>7</v>
       </c>
       <c r="L35">
         <v>16.469693190000001</v>
       </c>
-      <c r="O35" s="50"/>
+      <c r="O35" s="45"/>
       <c r="P35">
         <v>16.70952308</v>
       </c>
@@ -5181,13 +5211,13 @@
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="51">
+      <c r="A36" s="46">
         <v>8</v>
       </c>
       <c r="B36">
         <v>12.980362380000001</v>
       </c>
-      <c r="E36" s="51"/>
+      <c r="E36" s="46"/>
       <c r="F36">
         <v>13.29625972</v>
       </c>
@@ -5195,13 +5225,13 @@
         <f t="shared" si="0"/>
         <v>-0.31589733999999936</v>
       </c>
-      <c r="K36" s="51">
+      <c r="K36" s="46">
         <v>8</v>
       </c>
       <c r="L36">
         <v>13.057423610000001</v>
       </c>
-      <c r="O36" s="50"/>
+      <c r="O36" s="45"/>
       <c r="P36">
         <v>12.8361599</v>
       </c>
@@ -5211,13 +5241,13 @@
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="51">
+      <c r="A37" s="46">
         <v>9</v>
       </c>
       <c r="B37">
         <v>17.170727750000001</v>
       </c>
-      <c r="E37" s="51"/>
+      <c r="E37" s="46"/>
       <c r="F37">
         <v>18.323344330000001</v>
       </c>
@@ -5225,13 +5255,13 @@
         <f t="shared" si="0"/>
         <v>-1.1526165800000001</v>
       </c>
-      <c r="K37" s="51">
+      <c r="K37" s="46">
         <v>9</v>
       </c>
       <c r="L37">
         <v>18.252544480000001</v>
       </c>
-      <c r="O37" s="50"/>
+      <c r="O37" s="45"/>
       <c r="P37">
         <v>17.874051590000001</v>
       </c>
@@ -5241,13 +5271,13 @@
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="51">
+      <c r="A38" s="46">
         <v>10</v>
       </c>
       <c r="B38">
         <v>18.595662140000002</v>
       </c>
-      <c r="E38" s="51"/>
+      <c r="E38" s="46"/>
       <c r="F38">
         <v>19.513140310000001</v>
       </c>
@@ -5255,13 +5285,13 @@
         <f t="shared" si="0"/>
         <v>-0.91747816999999898</v>
       </c>
-      <c r="K38" s="51">
+      <c r="K38" s="46">
         <v>10</v>
       </c>
       <c r="L38">
         <v>16.684188710000001</v>
       </c>
-      <c r="O38" s="50"/>
+      <c r="O38" s="45"/>
       <c r="P38">
         <v>15.629935100000001</v>
       </c>
@@ -5271,13 +5301,13 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="51">
+      <c r="A39" s="46">
         <v>11</v>
       </c>
       <c r="B39">
         <v>16.784280110000001</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="46"/>
       <c r="F39">
         <v>16.9239581</v>
       </c>
@@ -5285,13 +5315,13 @@
         <f t="shared" si="0"/>
         <v>-0.13967798999999914</v>
       </c>
-      <c r="K39" s="51">
+      <c r="K39" s="46">
         <v>11</v>
       </c>
       <c r="L39">
         <v>17.03253484</v>
       </c>
-      <c r="O39" s="50"/>
+      <c r="O39" s="45"/>
       <c r="P39">
         <v>18.123993080000002</v>
       </c>
@@ -5301,13 +5331,13 @@
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="51">
+      <c r="A40" s="46">
         <v>12</v>
       </c>
       <c r="B40">
         <v>14.091129690000001</v>
       </c>
-      <c r="E40" s="51"/>
+      <c r="E40" s="46"/>
       <c r="F40">
         <v>15.00861667</v>
       </c>
@@ -5315,13 +5345,13 @@
         <f t="shared" si="0"/>
         <v>-0.91748697999999962</v>
       </c>
-      <c r="K40" s="51">
+      <c r="K40" s="46">
         <v>12</v>
       </c>
       <c r="L40">
         <v>17.188163790000001</v>
       </c>
-      <c r="O40" s="50"/>
+      <c r="O40" s="45"/>
       <c r="P40">
         <v>14.506829189999999</v>
       </c>
@@ -5331,13 +5361,13 @@
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="51">
+      <c r="A41" s="46">
         <v>13</v>
       </c>
       <c r="B41">
         <v>20.954972479999999</v>
       </c>
-      <c r="E41" s="51"/>
+      <c r="E41" s="46"/>
       <c r="F41">
         <v>20.521560999999998</v>
       </c>
@@ -5345,13 +5375,13 @@
         <f t="shared" si="0"/>
         <v>0.43341148000000018</v>
       </c>
-      <c r="K41" s="51">
+      <c r="K41" s="46">
         <v>13</v>
       </c>
       <c r="L41">
         <v>21.402306029999998</v>
       </c>
-      <c r="O41" s="50"/>
+      <c r="O41" s="45"/>
       <c r="P41">
         <v>20.893728549999999</v>
       </c>
@@ -5361,13 +5391,13 @@
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="51">
+      <c r="A42" s="46">
         <v>14</v>
       </c>
       <c r="B42">
         <v>20.130272980000001</v>
       </c>
-      <c r="E42" s="51"/>
+      <c r="E42" s="46"/>
       <c r="F42">
         <v>20.956528970000001</v>
       </c>
@@ -5375,13 +5405,13 @@
         <f t="shared" si="0"/>
         <v>-0.82625598999999994</v>
       </c>
-      <c r="K42" s="51">
+      <c r="K42" s="46">
         <v>14</v>
       </c>
       <c r="L42">
         <v>16.706312799999999</v>
       </c>
-      <c r="O42" s="50"/>
+      <c r="O42" s="45"/>
       <c r="P42">
         <v>15.08871398</v>
       </c>
@@ -5391,13 +5421,13 @@
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="51">
+      <c r="A43" s="46">
         <v>15</v>
       </c>
       <c r="B43">
         <v>20.065297220000001</v>
       </c>
-      <c r="E43" s="51"/>
+      <c r="E43" s="46"/>
       <c r="F43">
         <v>21.04647752</v>
       </c>
@@ -5405,13 +5435,13 @@
         <f t="shared" si="0"/>
         <v>-0.98118029999999834</v>
       </c>
-      <c r="K43" s="51">
+      <c r="K43" s="46">
         <v>15</v>
       </c>
       <c r="L43">
         <v>19.459742330000001</v>
       </c>
-      <c r="O43" s="50"/>
+      <c r="O43" s="45"/>
       <c r="P43">
         <v>19.330495580000001</v>
       </c>
@@ -5421,13 +5451,13 @@
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="51">
+      <c r="A44" s="46">
         <v>16</v>
       </c>
       <c r="B44">
         <v>18.836609660000001</v>
       </c>
-      <c r="E44" s="51"/>
+      <c r="E44" s="46"/>
       <c r="F44">
         <v>19.832645339999999</v>
       </c>
@@ -5435,13 +5465,13 @@
         <f t="shared" si="0"/>
         <v>-0.99603567999999854</v>
       </c>
-      <c r="K44" s="51">
+      <c r="K44" s="46">
         <v>16</v>
       </c>
       <c r="L44">
         <v>17.91673587</v>
       </c>
-      <c r="O44" s="50"/>
+      <c r="O44" s="45"/>
       <c r="P44">
         <v>18.933821980000001</v>
       </c>
@@ -5451,13 +5481,13 @@
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="51">
+      <c r="A45" s="46">
         <v>17</v>
       </c>
       <c r="B45">
         <v>16.219955779999999</v>
       </c>
-      <c r="E45" s="51"/>
+      <c r="E45" s="46"/>
       <c r="F45">
         <v>15.3259197</v>
       </c>
@@ -5465,13 +5495,13 @@
         <f t="shared" si="0"/>
         <v>0.89403607999999934</v>
       </c>
-      <c r="K45" s="51">
+      <c r="K45" s="46">
         <v>17</v>
       </c>
       <c r="L45">
         <v>9.8463115299999995</v>
       </c>
-      <c r="O45" s="50"/>
+      <c r="O45" s="45"/>
       <c r="P45">
         <v>11.27178606</v>
       </c>
@@ -5481,13 +5511,13 @@
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="51">
+      <c r="A46" s="46">
         <v>18</v>
       </c>
       <c r="B46">
         <v>14.75658005</v>
       </c>
-      <c r="E46" s="51"/>
+      <c r="E46" s="46"/>
       <c r="F46">
         <v>18.428847770000001</v>
       </c>
@@ -5495,13 +5525,13 @@
         <f t="shared" si="0"/>
         <v>-3.6722677200000007</v>
       </c>
-      <c r="K46" s="51">
+      <c r="K46" s="46">
         <v>18</v>
       </c>
       <c r="L46">
         <v>15.2881746</v>
       </c>
-      <c r="O46" s="50"/>
+      <c r="O46" s="45"/>
       <c r="P46">
         <v>15.311354850000001</v>
       </c>
@@ -5511,13 +5541,13 @@
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="51">
+      <c r="A47" s="46">
         <v>19</v>
       </c>
       <c r="B47">
         <v>15.82356951</v>
       </c>
-      <c r="E47" s="51"/>
+      <c r="E47" s="46"/>
       <c r="F47">
         <v>16.84270008</v>
       </c>
@@ -5525,13 +5555,13 @@
         <f t="shared" si="0"/>
         <v>-1.0191305699999997</v>
       </c>
-      <c r="K47" s="51">
+      <c r="K47" s="46">
         <v>19</v>
       </c>
       <c r="L47">
         <v>17.884419789999999</v>
       </c>
-      <c r="O47" s="50"/>
+      <c r="O47" s="45"/>
       <c r="P47">
         <v>17.104364260000001</v>
       </c>
@@ -5541,13 +5571,13 @@
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="51">
+      <c r="A48" s="46">
         <v>20</v>
       </c>
       <c r="B48">
         <v>12.97756058</v>
       </c>
-      <c r="E48" s="51"/>
+      <c r="E48" s="46"/>
       <c r="F48">
         <v>13.310718339999999</v>
       </c>
@@ -5555,13 +5585,13 @@
         <f t="shared" si="0"/>
         <v>-0.33315775999999886</v>
       </c>
-      <c r="K48" s="51">
+      <c r="K48" s="46">
         <v>20</v>
       </c>
       <c r="L48">
         <v>19.166564959999999</v>
       </c>
-      <c r="O48" s="50"/>
+      <c r="O48" s="45"/>
       <c r="P48">
         <v>19.415697470000001</v>
       </c>
@@ -5571,13 +5601,13 @@
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="51">
+      <c r="A49" s="46">
         <v>21</v>
       </c>
       <c r="B49">
         <v>16.67489896</v>
       </c>
-      <c r="E49" s="51"/>
+      <c r="E49" s="46"/>
       <c r="F49">
         <v>16.726182770000001</v>
       </c>
@@ -5585,13 +5615,13 @@
         <f t="shared" si="0"/>
         <v>-5.128381000000104E-2</v>
       </c>
-      <c r="K49" s="51">
+      <c r="K49" s="46">
         <v>21</v>
       </c>
       <c r="L49">
         <v>19.8615411</v>
       </c>
-      <c r="O49" s="50"/>
+      <c r="O49" s="45"/>
       <c r="P49">
         <v>19.370347710000001</v>
       </c>
@@ -5601,13 +5631,13 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="51">
+      <c r="A50" s="46">
         <v>22</v>
       </c>
       <c r="B50">
         <v>15.62146478</v>
       </c>
-      <c r="E50" s="51"/>
+      <c r="E50" s="46"/>
       <c r="F50">
         <v>16.3778197</v>
       </c>
@@ -5615,13 +5645,13 @@
         <f t="shared" si="0"/>
         <v>-0.75635491999999971</v>
       </c>
-      <c r="K50" s="51">
+      <c r="K50" s="46">
         <v>22</v>
       </c>
       <c r="L50">
         <v>16.14647463</v>
       </c>
-      <c r="O50" s="50"/>
+      <c r="O50" s="45"/>
       <c r="P50">
         <v>16.31911616</v>
       </c>
@@ -5631,13 +5661,13 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="51">
+      <c r="A51" s="46">
         <v>23</v>
       </c>
       <c r="B51">
         <v>23.659309279999999</v>
       </c>
-      <c r="E51" s="51"/>
+      <c r="E51" s="46"/>
       <c r="F51">
         <v>23.446638320000002</v>
       </c>
@@ -5645,13 +5675,13 @@
         <f t="shared" si="0"/>
         <v>0.21267095999999697</v>
       </c>
-      <c r="K51" s="51">
+      <c r="K51" s="46">
         <v>23</v>
       </c>
       <c r="L51">
         <v>17.54233571</v>
       </c>
-      <c r="O51" s="50"/>
+      <c r="O51" s="45"/>
       <c r="P51">
         <v>17.118570259999998</v>
       </c>
@@ -5661,13 +5691,13 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="51">
+      <c r="A52" s="46">
         <v>24</v>
       </c>
       <c r="B52">
         <v>23.522175270000002</v>
       </c>
-      <c r="E52" s="51"/>
+      <c r="E52" s="46"/>
       <c r="F52">
         <v>23.667639149999999</v>
       </c>
@@ -5675,13 +5705,13 @@
         <f t="shared" si="0"/>
         <v>-0.14546387999999766</v>
       </c>
-      <c r="K52" s="51">
+      <c r="K52" s="46">
         <v>24</v>
       </c>
       <c r="L52">
         <v>17.14447689</v>
       </c>
-      <c r="O52" s="50"/>
+      <c r="O52" s="45"/>
       <c r="P52">
         <v>16.130017760000001</v>
       </c>
@@ -5691,20 +5721,20 @@
       </c>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="51" t="s">
+      <c r="E53" s="46" t="s">
         <v>120</v>
       </c>
       <c r="H53" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K53" s="51" t="s">
+      <c r="K53" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="O53" s="50" t="s">
+      <c r="O53" s="45" t="s">
         <v>120</v>
       </c>
       <c r="R53" s="23">
@@ -5713,13 +5743,13 @@
       </c>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="51">
+      <c r="A54" s="46">
         <v>0</v>
       </c>
       <c r="B54">
         <v>16.14943147</v>
       </c>
-      <c r="E54" s="51"/>
+      <c r="E54" s="46"/>
       <c r="F54">
         <v>15.95117426</v>
       </c>
@@ -5727,13 +5757,13 @@
         <f t="shared" si="0"/>
         <v>0.19825720999999952</v>
       </c>
-      <c r="K54" s="51">
+      <c r="K54" s="46">
         <v>0</v>
       </c>
       <c r="L54">
         <v>17.600624939999999</v>
       </c>
-      <c r="O54" s="50"/>
+      <c r="O54" s="45"/>
       <c r="P54">
         <v>17.99406273</v>
       </c>
@@ -5743,13 +5773,13 @@
       </c>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="51">
+      <c r="A55" s="46">
         <v>1</v>
       </c>
       <c r="B55">
         <v>16.984811100000002</v>
       </c>
-      <c r="E55" s="51"/>
+      <c r="E55" s="46"/>
       <c r="F55">
         <v>16.911504170000001</v>
       </c>
@@ -5757,13 +5787,13 @@
         <f t="shared" si="0"/>
         <v>7.3306930000001103E-2</v>
       </c>
-      <c r="K55" s="51">
+      <c r="K55" s="46">
         <v>1</v>
       </c>
       <c r="L55">
         <v>15.999292609999999</v>
       </c>
-      <c r="O55" s="50"/>
+      <c r="O55" s="45"/>
       <c r="P55">
         <v>16.43730205</v>
       </c>
@@ -5773,13 +5803,13 @@
       </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="51">
+      <c r="A56" s="46">
         <v>2</v>
       </c>
       <c r="B56">
         <v>17.834473989999999</v>
       </c>
-      <c r="E56" s="51"/>
+      <c r="E56" s="46"/>
       <c r="F56">
         <v>17.414634939999999</v>
       </c>
@@ -5787,13 +5817,13 @@
         <f t="shared" si="0"/>
         <v>0.41983905000000021</v>
       </c>
-      <c r="K56" s="51">
+      <c r="K56" s="46">
         <v>2</v>
       </c>
       <c r="L56">
         <v>12.744172409999999</v>
       </c>
-      <c r="O56" s="50"/>
+      <c r="O56" s="45"/>
       <c r="P56">
         <v>12.786046069999999</v>
       </c>
@@ -5803,13 +5833,13 @@
       </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="51">
+      <c r="A57" s="46">
         <v>3</v>
       </c>
       <c r="B57">
         <v>16.135031829999999</v>
       </c>
-      <c r="E57" s="51"/>
+      <c r="E57" s="46"/>
       <c r="F57">
         <v>14.802184820000001</v>
       </c>
@@ -5817,13 +5847,13 @@
         <f t="shared" si="0"/>
         <v>1.3328470099999983</v>
       </c>
-      <c r="K57" s="51">
+      <c r="K57" s="46">
         <v>3</v>
       </c>
       <c r="L57">
         <v>16.811919540000002</v>
       </c>
-      <c r="O57" s="50"/>
+      <c r="O57" s="45"/>
       <c r="P57">
         <v>17.67699309</v>
       </c>
@@ -5833,13 +5863,13 @@
       </c>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="51">
+      <c r="A58" s="46">
         <v>4</v>
       </c>
       <c r="B58">
         <v>16.08126901</v>
       </c>
-      <c r="E58" s="51"/>
+      <c r="E58" s="46"/>
       <c r="F58">
         <v>15.289595179999999</v>
       </c>
@@ -5847,13 +5877,13 @@
         <f t="shared" si="0"/>
         <v>0.79167383000000058</v>
       </c>
-      <c r="K58" s="51">
+      <c r="K58" s="46">
         <v>4</v>
       </c>
       <c r="L58">
         <v>16.362644840000002</v>
       </c>
-      <c r="O58" s="50"/>
+      <c r="O58" s="45"/>
       <c r="P58">
         <v>16.411158650000001</v>
       </c>
@@ -5863,13 +5893,13 @@
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="51">
+      <c r="A59" s="46">
         <v>5</v>
       </c>
       <c r="B59">
         <v>15.70367371</v>
       </c>
-      <c r="E59" s="51"/>
+      <c r="E59" s="46"/>
       <c r="F59">
         <v>14.03998354</v>
       </c>
@@ -5877,13 +5907,13 @@
         <f t="shared" si="0"/>
         <v>1.6636901700000006</v>
       </c>
-      <c r="K59" s="51">
+      <c r="K59" s="46">
         <v>5</v>
       </c>
       <c r="L59">
         <v>14.147379089999999</v>
       </c>
-      <c r="O59" s="50"/>
+      <c r="O59" s="45"/>
       <c r="P59">
         <v>15.004208569999999</v>
       </c>
@@ -5893,13 +5923,13 @@
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="51">
+      <c r="A60" s="46">
         <v>6</v>
       </c>
       <c r="B60">
         <v>11.823278009999999</v>
       </c>
-      <c r="E60" s="51"/>
+      <c r="E60" s="46"/>
       <c r="F60">
         <v>11.56579339</v>
       </c>
@@ -5907,13 +5937,13 @@
         <f t="shared" si="0"/>
         <v>0.25748461999999961</v>
       </c>
-      <c r="K60" s="51">
+      <c r="K60" s="46">
         <v>6</v>
       </c>
       <c r="L60">
         <v>11.062216449999999</v>
       </c>
-      <c r="O60" s="50"/>
+      <c r="O60" s="45"/>
       <c r="P60">
         <v>11.17687121</v>
       </c>
@@ -5923,13 +5953,13 @@
       </c>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="51">
+      <c r="A61" s="46">
         <v>7</v>
       </c>
       <c r="B61">
         <v>12.533533029999999</v>
       </c>
-      <c r="E61" s="51"/>
+      <c r="E61" s="46"/>
       <c r="F61">
         <v>12.37018511</v>
       </c>
@@ -5937,29 +5967,29 @@
         <f t="shared" si="0"/>
         <v>0.16334791999999965</v>
       </c>
-      <c r="K61" s="51">
+      <c r="K61" s="46">
         <v>7</v>
       </c>
       <c r="L61">
         <v>10.38070505</v>
       </c>
-      <c r="O61" s="50"/>
+      <c r="O61" s="45"/>
       <c r="P61">
         <v>13.2555677</v>
       </c>
-      <c r="R61" s="54">
+      <c r="R61" s="49">
         <f t="shared" si="1"/>
         <v>-2.8748626500000007</v>
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="51">
+      <c r="A62" s="46">
         <v>8</v>
       </c>
       <c r="B62">
         <v>11.13829383</v>
       </c>
-      <c r="E62" s="51"/>
+      <c r="E62" s="46"/>
       <c r="F62">
         <v>10.69949192</v>
       </c>
@@ -5967,13 +5997,13 @@
         <f t="shared" si="0"/>
         <v>0.43880191000000046</v>
       </c>
-      <c r="K62" s="51">
+      <c r="K62" s="46">
         <v>8</v>
       </c>
       <c r="L62">
         <v>8.9143461800000008</v>
       </c>
-      <c r="O62" s="50"/>
+      <c r="O62" s="45"/>
       <c r="P62">
         <v>8.9764974300000002</v>
       </c>
@@ -5983,13 +6013,13 @@
       </c>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="51">
+      <c r="A63" s="46">
         <v>9</v>
       </c>
       <c r="B63">
         <v>14.39901017</v>
       </c>
-      <c r="E63" s="51"/>
+      <c r="E63" s="46"/>
       <c r="F63">
         <v>13.32427281</v>
       </c>
@@ -5997,13 +6027,13 @@
         <f t="shared" si="0"/>
         <v>1.0747373600000003</v>
       </c>
-      <c r="K63" s="51">
+      <c r="K63" s="46">
         <v>9</v>
       </c>
       <c r="L63">
         <v>12.514503400000001</v>
       </c>
-      <c r="O63" s="50"/>
+      <c r="O63" s="45"/>
       <c r="P63">
         <v>13.502387669999999</v>
       </c>
@@ -6013,13 +6043,13 @@
       </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="51">
+      <c r="A64" s="46">
         <v>10</v>
       </c>
       <c r="B64">
         <v>16.196536900000002</v>
       </c>
-      <c r="E64" s="51"/>
+      <c r="E64" s="46"/>
       <c r="F64">
         <v>14.726820999999999</v>
       </c>
@@ -6027,13 +6057,13 @@
         <f t="shared" si="0"/>
         <v>1.4697159000000024</v>
       </c>
-      <c r="K64" s="51">
+      <c r="K64" s="46">
         <v>10</v>
       </c>
       <c r="L64">
         <v>12.84501955</v>
       </c>
-      <c r="O64" s="50"/>
+      <c r="O64" s="45"/>
       <c r="P64">
         <v>13.830009349999999</v>
       </c>
@@ -6043,13 +6073,13 @@
       </c>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="51">
+      <c r="A65" s="46">
         <v>11</v>
       </c>
       <c r="B65">
         <v>14.92710011</v>
       </c>
-      <c r="E65" s="51"/>
+      <c r="E65" s="46"/>
       <c r="F65">
         <v>14.571450219999999</v>
       </c>
@@ -6057,13 +6087,13 @@
         <f t="shared" si="0"/>
         <v>0.35564989000000047</v>
       </c>
-      <c r="K65" s="51">
+      <c r="K65" s="46">
         <v>11</v>
       </c>
       <c r="L65">
         <v>13.622384009999999</v>
       </c>
-      <c r="O65" s="50"/>
+      <c r="O65" s="45"/>
       <c r="P65">
         <v>15.86994443</v>
       </c>
@@ -6073,13 +6103,13 @@
       </c>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="51">
+      <c r="A66" s="46">
         <v>12</v>
       </c>
       <c r="B66">
         <v>7.0266052999999999</v>
       </c>
-      <c r="E66" s="51"/>
+      <c r="E66" s="46"/>
       <c r="F66">
         <v>8.5839478899999992</v>
       </c>
@@ -6087,13 +6117,13 @@
         <f t="shared" si="0"/>
         <v>-1.5573425899999993</v>
       </c>
-      <c r="K66" s="51">
+      <c r="K66" s="46">
         <v>12</v>
       </c>
       <c r="L66">
         <v>9.9372293000000003</v>
       </c>
-      <c r="O66" s="50"/>
+      <c r="O66" s="45"/>
       <c r="P66">
         <v>8.0241609399999998</v>
       </c>
@@ -6103,27 +6133,27 @@
       </c>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="51">
+      <c r="A67" s="46">
         <v>13</v>
       </c>
       <c r="B67">
         <v>15.42821034</v>
       </c>
-      <c r="E67" s="51"/>
+      <c r="E67" s="46"/>
       <c r="F67">
         <v>13.529932909999999</v>
       </c>
-      <c r="H67" s="54">
+      <c r="H67" s="49">
         <f t="shared" ref="H67:H104" si="2">B67-F67</f>
         <v>1.8982774300000003</v>
       </c>
-      <c r="K67" s="51">
+      <c r="K67" s="46">
         <v>13</v>
       </c>
       <c r="L67">
         <v>14.632329929999999</v>
       </c>
-      <c r="O67" s="50"/>
+      <c r="O67" s="45"/>
       <c r="P67">
         <v>15.804578319999999</v>
       </c>
@@ -6133,13 +6163,13 @@
       </c>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="51">
+      <c r="A68" s="46">
         <v>14</v>
       </c>
       <c r="B68">
         <v>17.333534119999999</v>
       </c>
-      <c r="E68" s="51"/>
+      <c r="E68" s="46"/>
       <c r="F68">
         <v>17.448748940000002</v>
       </c>
@@ -6147,13 +6177,13 @@
         <f t="shared" si="2"/>
         <v>-0.11521482000000205</v>
       </c>
-      <c r="K68" s="51">
+      <c r="K68" s="46">
         <v>14</v>
       </c>
       <c r="L68">
         <v>12.365217060000001</v>
       </c>
-      <c r="O68" s="50"/>
+      <c r="O68" s="45"/>
       <c r="P68">
         <v>12.16770034</v>
       </c>
@@ -6163,13 +6193,13 @@
       </c>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="51">
+      <c r="A69" s="46">
         <v>15</v>
       </c>
       <c r="B69">
         <v>16.76117507</v>
       </c>
-      <c r="E69" s="51"/>
+      <c r="E69" s="46"/>
       <c r="F69">
         <v>17.28481996</v>
       </c>
@@ -6177,13 +6207,13 @@
         <f t="shared" si="2"/>
         <v>-0.52364488999999992</v>
       </c>
-      <c r="K69" s="51">
+      <c r="K69" s="46">
         <v>15</v>
       </c>
       <c r="L69">
         <v>17.04340728</v>
       </c>
-      <c r="O69" s="50"/>
+      <c r="O69" s="45"/>
       <c r="P69">
         <v>16.917431610000001</v>
       </c>
@@ -6193,13 +6223,13 @@
       </c>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="51">
+      <c r="A70" s="46">
         <v>16</v>
       </c>
       <c r="B70">
         <v>17.597083300000001</v>
       </c>
-      <c r="E70" s="51"/>
+      <c r="E70" s="46"/>
       <c r="F70">
         <v>18.27059921</v>
       </c>
@@ -6207,13 +6237,13 @@
         <f t="shared" si="2"/>
         <v>-0.673515909999999</v>
       </c>
-      <c r="K70" s="51">
+      <c r="K70" s="46">
         <v>16</v>
       </c>
       <c r="L70">
         <v>17.516569499999999</v>
       </c>
-      <c r="O70" s="50"/>
+      <c r="O70" s="45"/>
       <c r="P70">
         <v>17.868231699999999</v>
       </c>
@@ -6223,13 +6253,13 @@
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="51">
+      <c r="A71" s="46">
         <v>17</v>
       </c>
       <c r="B71">
         <v>13.116886060000001</v>
       </c>
-      <c r="E71" s="51"/>
+      <c r="E71" s="46"/>
       <c r="F71">
         <v>11.937784130000001</v>
       </c>
@@ -6237,13 +6267,13 @@
         <f t="shared" si="2"/>
         <v>1.1791019299999999</v>
       </c>
-      <c r="K71" s="51">
+      <c r="K71" s="46">
         <v>17</v>
       </c>
       <c r="L71">
         <v>11.156889769999999</v>
       </c>
-      <c r="O71" s="50"/>
+      <c r="O71" s="45"/>
       <c r="P71">
         <v>10.47701021</v>
       </c>
@@ -6253,13 +6283,13 @@
       </c>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="51">
+      <c r="A72" s="46">
         <v>18</v>
       </c>
       <c r="B72">
         <v>11.139037679999999</v>
       </c>
-      <c r="E72" s="51"/>
+      <c r="E72" s="46"/>
       <c r="F72">
         <v>12.42079468</v>
       </c>
@@ -6267,13 +6297,13 @@
         <f t="shared" si="2"/>
         <v>-1.2817570000000007</v>
       </c>
-      <c r="K72" s="51">
+      <c r="K72" s="46">
         <v>18</v>
       </c>
       <c r="L72">
         <v>15.66869423</v>
       </c>
-      <c r="O72" s="50"/>
+      <c r="O72" s="45"/>
       <c r="P72">
         <v>15.470453259999999</v>
       </c>
@@ -6283,13 +6313,13 @@
       </c>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="51">
+      <c r="A73" s="46">
         <v>19</v>
       </c>
       <c r="B73">
         <v>12.84408221</v>
       </c>
-      <c r="E73" s="51"/>
+      <c r="E73" s="46"/>
       <c r="F73">
         <v>11.91991133</v>
       </c>
@@ -6297,13 +6327,13 @@
         <f t="shared" si="2"/>
         <v>0.92417088000000014</v>
       </c>
-      <c r="K73" s="51">
+      <c r="K73" s="46">
         <v>19</v>
       </c>
       <c r="L73">
         <v>15.60675983</v>
       </c>
-      <c r="O73" s="50"/>
+      <c r="O73" s="45"/>
       <c r="P73">
         <v>15.41740935</v>
       </c>
@@ -6313,13 +6343,13 @@
       </c>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="51">
+      <c r="A74" s="46">
         <v>20</v>
       </c>
       <c r="B74">
         <v>11.10566867</v>
       </c>
-      <c r="E74" s="51"/>
+      <c r="E74" s="46"/>
       <c r="F74">
         <v>9.2368475599999993</v>
       </c>
@@ -6327,13 +6357,13 @@
         <f t="shared" si="2"/>
         <v>1.8688211100000007</v>
       </c>
-      <c r="K74" s="51">
+      <c r="K74" s="46">
         <v>20</v>
       </c>
       <c r="L74">
         <v>14.27551137</v>
       </c>
-      <c r="O74" s="50"/>
+      <c r="O74" s="45"/>
       <c r="P74">
         <v>14.130357119999999</v>
       </c>
@@ -6343,13 +6373,13 @@
       </c>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="51">
+      <c r="A75" s="46">
         <v>21</v>
       </c>
       <c r="B75">
         <v>13.69334649</v>
       </c>
-      <c r="E75" s="51"/>
+      <c r="E75" s="46"/>
       <c r="F75">
         <v>12.732620450000001</v>
       </c>
@@ -6357,13 +6387,13 @@
         <f t="shared" si="2"/>
         <v>0.96072603999999906</v>
       </c>
-      <c r="K75" s="51">
+      <c r="K75" s="46">
         <v>21</v>
       </c>
       <c r="L75">
         <v>14.84813799</v>
       </c>
-      <c r="O75" s="50"/>
+      <c r="O75" s="45"/>
       <c r="P75">
         <v>14.755072200000001</v>
       </c>
@@ -6373,13 +6403,13 @@
       </c>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="51">
+      <c r="A76" s="46">
         <v>22</v>
       </c>
       <c r="B76">
         <v>12.90203953</v>
       </c>
-      <c r="E76" s="51"/>
+      <c r="E76" s="46"/>
       <c r="F76">
         <v>11.61072023</v>
       </c>
@@ -6387,13 +6417,13 @@
         <f t="shared" si="2"/>
         <v>1.2913192999999996</v>
       </c>
-      <c r="K76" s="51">
+      <c r="K76" s="46">
         <v>22</v>
       </c>
       <c r="L76">
         <v>12.801867379999999</v>
       </c>
-      <c r="O76" s="50"/>
+      <c r="O76" s="45"/>
       <c r="P76">
         <v>12.688019710000001</v>
       </c>
@@ -6403,13 +6433,13 @@
       </c>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="51">
+      <c r="A77" s="46">
         <v>23</v>
       </c>
       <c r="B77">
         <v>22.75987194</v>
       </c>
-      <c r="E77" s="51"/>
+      <c r="E77" s="46"/>
       <c r="F77">
         <v>22.61503948</v>
       </c>
@@ -6417,13 +6447,13 @@
         <f t="shared" si="2"/>
         <v>0.14483245999999994</v>
       </c>
-      <c r="K77" s="51">
+      <c r="K77" s="46">
         <v>23</v>
       </c>
       <c r="L77">
         <v>13.80809438</v>
       </c>
-      <c r="O77" s="50"/>
+      <c r="O77" s="45"/>
       <c r="P77">
         <v>13.69115086</v>
       </c>
@@ -6433,13 +6463,13 @@
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="51">
+      <c r="A78" s="46">
         <v>24</v>
       </c>
       <c r="B78">
         <v>23.511607009999999</v>
       </c>
-      <c r="E78" s="51"/>
+      <c r="E78" s="46"/>
       <c r="F78">
         <v>23.421590070000001</v>
       </c>
@@ -6447,13 +6477,13 @@
         <f t="shared" si="2"/>
         <v>9.0016939999998158E-2</v>
       </c>
-      <c r="K78" s="51">
+      <c r="K78" s="46">
         <v>24</v>
       </c>
       <c r="L78">
         <v>13.90358601</v>
       </c>
-      <c r="O78" s="50"/>
+      <c r="O78" s="45"/>
       <c r="P78">
         <v>14.484954439999999</v>
       </c>
@@ -6463,20 +6493,20 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="51" t="s">
+      <c r="A79" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="51" t="s">
+      <c r="E79" s="46" t="s">
         <v>121</v>
       </c>
       <c r="H79" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K79" s="51" t="s">
+      <c r="K79" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="O79" s="50" t="s">
+      <c r="O79" s="45" t="s">
         <v>121</v>
       </c>
       <c r="R79" s="23">
@@ -6485,13 +6515,13 @@
       </c>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="51">
+      <c r="A80" s="46">
         <v>0</v>
       </c>
       <c r="B80">
         <v>9.8978204600000002</v>
       </c>
-      <c r="E80" s="51"/>
+      <c r="E80" s="46"/>
       <c r="F80">
         <v>9.9492836199999992</v>
       </c>
@@ -6499,13 +6529,13 @@
         <f t="shared" si="2"/>
         <v>-5.1463159999999064E-2</v>
       </c>
-      <c r="K80" s="51">
+      <c r="K80" s="46">
         <v>0</v>
       </c>
       <c r="L80">
         <v>10.32969113</v>
       </c>
-      <c r="O80" s="50"/>
+      <c r="O80" s="45"/>
       <c r="P80">
         <v>10.45320761</v>
       </c>
@@ -6515,13 +6545,13 @@
       </c>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="51">
+      <c r="A81" s="46">
         <v>1</v>
       </c>
       <c r="B81">
         <v>5.5971375500000002</v>
       </c>
-      <c r="E81" s="51"/>
+      <c r="E81" s="46"/>
       <c r="F81">
         <v>5.3081339500000002</v>
       </c>
@@ -6529,13 +6559,13 @@
         <f t="shared" si="2"/>
         <v>0.28900360000000003</v>
       </c>
-      <c r="K81" s="51">
+      <c r="K81" s="46">
         <v>1</v>
       </c>
       <c r="L81">
         <v>9.7432551299999997</v>
       </c>
-      <c r="O81" s="50"/>
+      <c r="O81" s="45"/>
       <c r="P81">
         <v>10.31808258</v>
       </c>
@@ -6545,13 +6575,13 @@
       </c>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="51">
+      <c r="A82" s="46">
         <v>2</v>
       </c>
       <c r="B82">
         <v>6.5201208599999996</v>
       </c>
-      <c r="E82" s="51"/>
+      <c r="E82" s="46"/>
       <c r="F82">
         <v>6.2992357800000001</v>
       </c>
@@ -6559,13 +6589,13 @@
         <f t="shared" si="2"/>
         <v>0.22088507999999951</v>
       </c>
-      <c r="K82" s="51">
+      <c r="K82" s="46">
         <v>2</v>
       </c>
       <c r="L82">
         <v>7.1008437899999999</v>
       </c>
-      <c r="O82" s="50"/>
+      <c r="O82" s="45"/>
       <c r="P82">
         <v>6.7556733700000002</v>
       </c>
@@ -6575,13 +6605,13 @@
       </c>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="51">
+      <c r="A83" s="46">
         <v>3</v>
       </c>
       <c r="B83">
         <v>8.4167369099999991</v>
       </c>
-      <c r="E83" s="51"/>
+      <c r="E83" s="46"/>
       <c r="F83">
         <v>7.24576201</v>
       </c>
@@ -6589,13 +6619,13 @@
         <f t="shared" si="2"/>
         <v>1.1709748999999992</v>
       </c>
-      <c r="K83" s="51">
+      <c r="K83" s="46">
         <v>3</v>
       </c>
       <c r="L83">
         <v>14.92539448</v>
       </c>
-      <c r="O83" s="50"/>
+      <c r="O83" s="45"/>
       <c r="P83">
         <v>15.27999299</v>
       </c>
@@ -6605,13 +6635,13 @@
       </c>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="51">
+      <c r="A84" s="46">
         <v>4</v>
       </c>
       <c r="B84">
         <v>7.2574370899999998</v>
       </c>
-      <c r="E84" s="51"/>
+      <c r="E84" s="46"/>
       <c r="F84">
         <v>6.9982964399999998</v>
       </c>
@@ -6619,13 +6649,13 @@
         <f t="shared" si="2"/>
         <v>0.25914064999999997</v>
       </c>
-      <c r="K84" s="51">
+      <c r="K84" s="46">
         <v>4</v>
       </c>
       <c r="L84">
         <v>8.1427087799999995</v>
       </c>
-      <c r="O84" s="50"/>
+      <c r="O84" s="45"/>
       <c r="P84">
         <v>8.1783518799999992</v>
       </c>
@@ -6635,13 +6665,13 @@
       </c>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="51">
+      <c r="A85" s="46">
         <v>5</v>
       </c>
       <c r="B85">
         <v>8.6325564900000007</v>
       </c>
-      <c r="E85" s="51"/>
+      <c r="E85" s="46"/>
       <c r="F85">
         <v>7.9542932300000002</v>
       </c>
@@ -6649,13 +6679,13 @@
         <f t="shared" si="2"/>
         <v>0.67826326000000048</v>
       </c>
-      <c r="K85" s="51">
+      <c r="K85" s="46">
         <v>5</v>
       </c>
       <c r="L85">
         <v>10.65931965</v>
       </c>
-      <c r="O85" s="50"/>
+      <c r="O85" s="45"/>
       <c r="P85">
         <v>11.621568419999999</v>
       </c>
@@ -6665,13 +6695,13 @@
       </c>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="51">
+      <c r="A86" s="46">
         <v>6</v>
       </c>
       <c r="B86">
         <v>8.1944108</v>
       </c>
-      <c r="E86" s="51"/>
+      <c r="E86" s="46"/>
       <c r="F86">
         <v>8.4473493699999995</v>
       </c>
@@ -6679,13 +6709,13 @@
         <f t="shared" si="2"/>
         <v>-0.25293856999999953</v>
       </c>
-      <c r="K86" s="51">
+      <c r="K86" s="46">
         <v>6</v>
       </c>
       <c r="L86">
         <v>8.7954291199999997</v>
       </c>
-      <c r="O86" s="50"/>
+      <c r="O86" s="45"/>
       <c r="P86">
         <v>8.5996253599999992</v>
       </c>
@@ -6695,13 +6725,13 @@
       </c>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="51">
+      <c r="A87" s="46">
         <v>7</v>
       </c>
       <c r="B87">
         <v>5.2453700799999998</v>
       </c>
-      <c r="E87" s="51"/>
+      <c r="E87" s="46"/>
       <c r="F87">
         <v>5.1482503800000003</v>
       </c>
@@ -6709,13 +6739,13 @@
         <f t="shared" si="2"/>
         <v>9.7119699999999476E-2</v>
       </c>
-      <c r="K87" s="51">
+      <c r="K87" s="46">
         <v>7</v>
       </c>
       <c r="L87">
         <v>6.7809674700000002</v>
       </c>
-      <c r="O87" s="50"/>
+      <c r="O87" s="45"/>
       <c r="P87">
         <v>9.0078364499999992</v>
       </c>
@@ -6725,13 +6755,13 @@
       </c>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="51">
+      <c r="A88" s="46">
         <v>8</v>
       </c>
       <c r="B88">
         <v>3.1948744100000002</v>
       </c>
-      <c r="E88" s="51"/>
+      <c r="E88" s="46"/>
       <c r="F88">
         <v>3.0400695799999999</v>
       </c>
@@ -6739,13 +6769,13 @@
         <f t="shared" si="2"/>
         <v>0.15480483000000023</v>
       </c>
-      <c r="K88" s="51">
+      <c r="K88" s="46">
         <v>8</v>
       </c>
       <c r="L88">
         <v>6.8500126799999999</v>
       </c>
-      <c r="O88" s="50"/>
+      <c r="O88" s="45"/>
       <c r="P88">
         <v>6.8265532200000001</v>
       </c>
@@ -6755,13 +6785,13 @@
       </c>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="51">
+      <c r="A89" s="46">
         <v>9</v>
       </c>
       <c r="B89">
         <v>6.6281594300000002</v>
       </c>
-      <c r="E89" s="51"/>
+      <c r="E89" s="46"/>
       <c r="F89">
         <v>6.2076995300000002</v>
       </c>
@@ -6769,13 +6799,13 @@
         <f t="shared" si="2"/>
         <v>0.4204599</v>
       </c>
-      <c r="K89" s="51">
+      <c r="K89" s="46">
         <v>9</v>
       </c>
       <c r="L89">
         <v>8.7385080199999994</v>
       </c>
-      <c r="O89" s="50"/>
+      <c r="O89" s="45"/>
       <c r="P89">
         <v>9.4001009599999996</v>
       </c>
@@ -6785,13 +6815,13 @@
       </c>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="51">
+      <c r="A90" s="46">
         <v>10</v>
       </c>
       <c r="B90">
         <v>6.2521519999999997</v>
       </c>
-      <c r="E90" s="51"/>
+      <c r="E90" s="46"/>
       <c r="F90">
         <v>5.5127646800000001</v>
       </c>
@@ -6799,13 +6829,13 @@
         <f t="shared" si="2"/>
         <v>0.73938731999999963</v>
       </c>
-      <c r="K90" s="51">
+      <c r="K90" s="46">
         <v>10</v>
       </c>
       <c r="L90">
         <v>5.8588538899999998</v>
       </c>
-      <c r="O90" s="50"/>
+      <c r="O90" s="45"/>
       <c r="P90">
         <v>6.1372306700000001</v>
       </c>
@@ -6815,13 +6845,13 @@
       </c>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="51">
+      <c r="A91" s="46">
         <v>11</v>
       </c>
       <c r="B91">
         <v>6.4179692700000004</v>
       </c>
-      <c r="E91" s="51"/>
+      <c r="E91" s="46"/>
       <c r="F91">
         <v>6.2505107600000001</v>
       </c>
@@ -6829,13 +6859,13 @@
         <f t="shared" si="2"/>
         <v>0.16745851000000034</v>
       </c>
-      <c r="K91" s="51">
+      <c r="K91" s="46">
         <v>11</v>
       </c>
       <c r="L91">
         <v>4.1764069599999996</v>
       </c>
-      <c r="O91" s="50"/>
+      <c r="O91" s="45"/>
       <c r="P91">
         <v>6.0446812799999998</v>
       </c>
@@ -6845,13 +6875,13 @@
       </c>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="51">
+      <c r="A92" s="46">
         <v>12</v>
       </c>
       <c r="B92">
         <v>5.5913477299999998</v>
       </c>
-      <c r="E92" s="51"/>
+      <c r="E92" s="46"/>
       <c r="F92">
         <v>7.0658940399999999</v>
       </c>
@@ -6859,13 +6889,13 @@
         <f t="shared" si="2"/>
         <v>-1.47454631</v>
       </c>
-      <c r="K92" s="51">
+      <c r="K92" s="46">
         <v>12</v>
       </c>
       <c r="L92">
         <v>7.51471906</v>
       </c>
-      <c r="O92" s="50"/>
+      <c r="O92" s="45"/>
       <c r="P92">
         <v>5.4159035500000003</v>
       </c>
@@ -6875,13 +6905,13 @@
       </c>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="51">
+      <c r="A93" s="46">
         <v>13</v>
       </c>
       <c r="B93">
         <v>3.5496597599999999</v>
       </c>
-      <c r="E93" s="51"/>
+      <c r="E93" s="46"/>
       <c r="F93">
         <v>1.9275180000000001</v>
       </c>
@@ -6889,13 +6919,13 @@
         <f t="shared" si="2"/>
         <v>1.6221417599999999</v>
       </c>
-      <c r="K93" s="51">
+      <c r="K93" s="46">
         <v>13</v>
       </c>
       <c r="L93">
         <v>8.2826728299999992</v>
       </c>
-      <c r="O93" s="50"/>
+      <c r="O93" s="45"/>
       <c r="P93">
         <v>9.1110722899999992</v>
       </c>
@@ -6905,13 +6935,13 @@
       </c>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="51">
+      <c r="A94" s="46">
         <v>14</v>
       </c>
       <c r="B94">
         <v>18.114820659999999</v>
       </c>
-      <c r="E94" s="51"/>
+      <c r="E94" s="46"/>
       <c r="F94">
         <v>18.465486640000002</v>
       </c>
@@ -6919,13 +6949,13 @@
         <f t="shared" si="2"/>
         <v>-0.35066598000000226</v>
       </c>
-      <c r="K94" s="51">
+      <c r="K94" s="46">
         <v>14</v>
       </c>
       <c r="L94">
         <v>6.9757158099999996</v>
       </c>
-      <c r="O94" s="50"/>
+      <c r="O94" s="45"/>
       <c r="P94">
         <v>6.3273572800000002</v>
       </c>
@@ -6935,13 +6965,13 @@
       </c>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="51">
+      <c r="A95" s="46">
         <v>15</v>
       </c>
       <c r="B95">
         <v>7.8747682000000001</v>
       </c>
-      <c r="E95" s="51"/>
+      <c r="E95" s="46"/>
       <c r="F95">
         <v>8.5440622099999999</v>
       </c>
@@ -6949,13 +6979,13 @@
         <f t="shared" si="2"/>
         <v>-0.66929400999999977</v>
       </c>
-      <c r="K95" s="51">
+      <c r="K95" s="46">
         <v>15</v>
       </c>
       <c r="L95">
         <v>10.1306364</v>
       </c>
-      <c r="O95" s="50"/>
+      <c r="O95" s="45"/>
       <c r="P95">
         <v>10.00253981</v>
       </c>
@@ -6965,13 +6995,13 @@
       </c>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="51">
+      <c r="A96" s="46">
         <v>16</v>
       </c>
       <c r="B96">
         <v>6.7728481</v>
       </c>
-      <c r="E96" s="51"/>
+      <c r="E96" s="46"/>
       <c r="F96">
         <v>7.5876295999999996</v>
       </c>
@@ -6979,13 +7009,13 @@
         <f t="shared" si="2"/>
         <v>-0.8147814999999996</v>
       </c>
-      <c r="K96" s="51">
+      <c r="K96" s="46">
         <v>16</v>
       </c>
       <c r="L96">
         <v>8.4629904000000007</v>
       </c>
-      <c r="O96" s="50"/>
+      <c r="O96" s="45"/>
       <c r="P96">
         <v>9.12488031</v>
       </c>
@@ -6995,13 +7025,13 @@
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="51">
+      <c r="A97" s="46">
         <v>17</v>
       </c>
       <c r="B97">
         <v>8.2422781199999999</v>
       </c>
-      <c r="E97" s="51"/>
+      <c r="E97" s="46"/>
       <c r="F97">
         <v>7.1373774699999997</v>
       </c>
@@ -7009,13 +7039,13 @@
         <f t="shared" si="2"/>
         <v>1.1049006500000003</v>
       </c>
-      <c r="K97" s="51">
+      <c r="K97" s="46">
         <v>17</v>
       </c>
       <c r="L97">
         <v>4.7731310499999999</v>
       </c>
-      <c r="O97" s="50"/>
+      <c r="O97" s="45"/>
       <c r="P97">
         <v>5.1909081199999996</v>
       </c>
@@ -7025,13 +7055,13 @@
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="51">
+      <c r="A98" s="46">
         <v>18</v>
       </c>
       <c r="B98">
         <v>4.9300841499999999</v>
       </c>
-      <c r="E98" s="51"/>
+      <c r="E98" s="46"/>
       <c r="F98">
         <v>6.8585125299999996</v>
       </c>
@@ -7039,13 +7069,13 @@
         <f t="shared" si="2"/>
         <v>-1.9284283799999997</v>
       </c>
-      <c r="K98" s="51">
+      <c r="K98" s="46">
         <v>18</v>
       </c>
       <c r="L98">
         <v>6.7811967400000004</v>
       </c>
-      <c r="O98" s="50"/>
+      <c r="O98" s="45"/>
       <c r="P98">
         <v>6.6958217800000002</v>
       </c>
@@ -7055,13 +7085,13 @@
       </c>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="51">
+      <c r="A99" s="46">
         <v>19</v>
       </c>
       <c r="B99">
         <v>5.2237490900000001</v>
       </c>
-      <c r="E99" s="51"/>
+      <c r="E99" s="46"/>
       <c r="F99">
         <v>4.8662689700000001</v>
       </c>
@@ -7069,13 +7099,13 @@
         <f t="shared" si="2"/>
         <v>0.35748011999999996</v>
       </c>
-      <c r="K99" s="51">
+      <c r="K99" s="46">
         <v>19</v>
       </c>
       <c r="L99">
         <v>5.5608605500000001</v>
       </c>
-      <c r="O99" s="50"/>
+      <c r="O99" s="45"/>
       <c r="P99">
         <v>5.1364515400000004</v>
       </c>
@@ -7085,13 +7115,13 @@
       </c>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="51">
+      <c r="A100" s="46">
         <v>20</v>
       </c>
       <c r="B100">
         <v>6.0626786900000003</v>
       </c>
-      <c r="E100" s="51"/>
+      <c r="E100" s="46"/>
       <c r="F100">
         <v>4.9211780799999998</v>
       </c>
@@ -7099,13 +7129,13 @@
         <f t="shared" si="2"/>
         <v>1.1415006100000005</v>
       </c>
-      <c r="K100" s="51">
+      <c r="K100" s="46">
         <v>20</v>
       </c>
       <c r="L100">
         <v>14.17107611</v>
       </c>
-      <c r="O100" s="50"/>
+      <c r="O100" s="45"/>
       <c r="P100">
         <v>14.120597549999999</v>
       </c>
@@ -7115,13 +7145,13 @@
       </c>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="51">
+      <c r="A101" s="46">
         <v>21</v>
       </c>
       <c r="B101">
         <v>8.4616545199999997</v>
       </c>
-      <c r="E101" s="51"/>
+      <c r="E101" s="46"/>
       <c r="F101">
         <v>7.8103992499999997</v>
       </c>
@@ -7129,13 +7159,13 @@
         <f t="shared" si="2"/>
         <v>0.65125527000000005</v>
       </c>
-      <c r="K101" s="51">
+      <c r="K101" s="46">
         <v>21</v>
       </c>
       <c r="L101">
         <v>12.788889729999999</v>
       </c>
-      <c r="O101" s="50"/>
+      <c r="O101" s="45"/>
       <c r="P101">
         <v>12.59382123</v>
       </c>
@@ -7145,13 +7175,13 @@
       </c>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="51">
+      <c r="A102" s="46">
         <v>22</v>
       </c>
       <c r="B102">
         <v>8.1267417000000002</v>
       </c>
-      <c r="E102" s="51"/>
+      <c r="E102" s="46"/>
       <c r="F102">
         <v>7.4475896700000002</v>
       </c>
@@ -7159,13 +7189,13 @@
         <f t="shared" si="2"/>
         <v>0.67915203000000002</v>
       </c>
-      <c r="K102" s="51">
+      <c r="K102" s="46">
         <v>22</v>
       </c>
       <c r="L102">
         <v>12.51526653</v>
       </c>
-      <c r="O102" s="50"/>
+      <c r="O102" s="45"/>
       <c r="P102">
         <v>12.49141058</v>
       </c>
@@ -7175,13 +7205,13 @@
       </c>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="51">
+      <c r="A103" s="46">
         <v>23</v>
       </c>
       <c r="B103">
         <v>4.17127933</v>
       </c>
-      <c r="E103" s="51"/>
+      <c r="E103" s="46"/>
       <c r="F103">
         <v>3.9954557099999999</v>
       </c>
@@ -7189,13 +7219,13 @@
         <f t="shared" si="2"/>
         <v>0.17582362000000007</v>
       </c>
-      <c r="K103" s="51">
+      <c r="K103" s="46">
         <v>23</v>
       </c>
       <c r="L103">
         <v>6.5042522299999996</v>
       </c>
-      <c r="O103" s="50"/>
+      <c r="O103" s="45"/>
       <c r="P103">
         <v>6.2895906799999999</v>
       </c>
@@ -7205,13 +7235,13 @@
       </c>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="51">
+      <c r="A104" s="46">
         <v>24</v>
       </c>
       <c r="B104">
         <v>5.0628215900000004</v>
       </c>
-      <c r="E104" s="51"/>
+      <c r="E104" s="46"/>
       <c r="F104">
         <v>5.0888711999999998</v>
       </c>
@@ -7219,13 +7249,13 @@
         <f t="shared" si="2"/>
         <v>-2.604960999999939E-2</v>
       </c>
-      <c r="K104" s="51">
+      <c r="K104" s="46">
         <v>24</v>
       </c>
       <c r="L104">
         <v>7.1700338500000003</v>
       </c>
-      <c r="O104" s="50"/>
+      <c r="O104" s="45"/>
       <c r="P104">
         <v>7.1657009499999997</v>
       </c>
@@ -7235,13 +7265,13 @@
       </c>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="53"/>
+      <c r="A105" s="48"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="52"/>
+      <c r="A106" s="47"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="53"/>
+      <c r="A107" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7250,27 +7280,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId3" name="Control 1">
+        <control shapeId="4099" r:id="rId3" name="Control 3">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>426720</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId3" name="Control 1"/>
+        <control shapeId="4099" r:id="rId3" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7286,9 +7316,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:colOff>923925</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7300,27 +7330,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId7" name="Control 3">
+        <control shapeId="4097" r:id="rId7" name="Control 1">
           <controlPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>541020</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId7" name="Control 3"/>
+        <control shapeId="4097" r:id="rId7" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7332,17 +7362,17 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1"/>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11">
       <c r="B2" s="13" t="s">
         <v>86</v>
@@ -7433,7 +7463,7 @@
         <v>-1.00648635425107E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="58"/>
       <c r="C6" s="17" t="s">
         <v>84</v>
@@ -7454,10 +7484,10 @@
         <v>2.2201058587415501</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:11">
-      <c r="B10" s="48"/>
-      <c r="C10" s="46"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="59" t="s">
         <v>123</v>
       </c>
@@ -7471,14 +7501,14 @@
       <c r="J10" s="60"/>
       <c r="K10" s="61"/>
     </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1">
-      <c r="B11" s="49" t="s">
+    <row r="11" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B11" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="39" t="s">
         <v>118</v>
       </c>
       <c r="E11" s="17" t="s">
@@ -7487,10 +7517,10 @@
       <c r="F11" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="39" t="s">
         <v>118</v>
       </c>
       <c r="I11" s="17" t="s">
@@ -7499,50 +7529,50 @@
       <c r="J11" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="38" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="52">
         <v>1.96897126794523</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="53">
         <v>3.4602999071115099</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="53">
         <v>14.6053919825485</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="51">
         <v>2.5172597916725101E-3</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="30">
         <v>11.812966277372</v>
       </c>
       <c r="E13" s="10">
@@ -7551,10 +7581,10 @@
       <c r="F13" s="10">
         <v>13.6182460783909</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="31">
         <v>8.1368781707219107</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="28" t="s">
         <v>122</v>
       </c>
       <c r="I13" s="24" t="s">
@@ -7568,13 +7598,13 @@
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="51">
         <v>1.2416653778368101E-3</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="30">
         <v>12.0679709489517</v>
       </c>
       <c r="E14" s="10">
@@ -7583,10 +7613,10 @@
       <c r="F14" s="10">
         <v>14.1431827932181</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="31">
         <v>8.3918828423015999</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="29">
         <f>(D14-D$13)/D$13</f>
         <v>2.1586844962739542E-2</v>
       </c>
@@ -7604,13 +7634,13 @@
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="51">
         <v>1.2367894384974099E-3</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="30">
         <v>12.0501735388866</v>
       </c>
       <c r="E15" s="10">
@@ -7619,10 +7649,10 @@
       <c r="F15" s="10">
         <v>14.0762430723527</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="31">
         <v>8.3740854322365994</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="29">
         <f>(D15-D$13)/D$13</f>
         <v>2.0080245379941169E-2</v>
       </c>
@@ -7640,13 +7670,13 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="51">
         <v>0.16524580917679299</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="30">
         <v>11.524378679359</v>
       </c>
       <c r="E16" s="10">
@@ -7655,10 +7685,10 @@
       <c r="F16" s="10">
         <v>12.516035605725399</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="31">
         <v>7.8482905727088497</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="29">
         <f>(D16-D$13)/D$13</f>
         <v>-2.4429731807987683E-2</v>
       </c>
@@ -7675,22 +7705,44 @@
         <v>-3.5466623926047706E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15" thickBot="1">
-      <c r="B17" s="38" t="s">
+    <row r="17" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B17" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="C17" s="51">
+        <v>0.108961390961821</v>
+      </c>
+      <c r="D17" s="30">
+        <v>11.3704568974146</v>
+      </c>
+      <c r="E17" s="10">
+        <v>15.2321663577236</v>
+      </c>
+      <c r="F17" s="10">
+        <v>14.063181415601001</v>
+      </c>
+      <c r="G17" s="31">
+        <v>7.6943687907646003</v>
+      </c>
+      <c r="H17" s="29">
+        <f>(D17-D$13)/D$13</f>
+        <v>-3.7459632878579917E-2</v>
+      </c>
+      <c r="I17" s="25">
+        <f t="shared" ref="I17" si="7">(E17-E$13)/E$13</f>
+        <v>-0.11397079749214027</v>
+      </c>
+      <c r="J17" s="25">
+        <f t="shared" ref="J17" si="8">(F17-F$13)/F$13</f>
+        <v>3.2672000098170742E-2</v>
+      </c>
+      <c r="K17" s="27">
+        <f t="shared" ref="K17" si="9">(G17-G$13)/G$13</f>
+        <v>-5.4383188573419491E-2</v>
+      </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="40" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7714,10 +7766,10 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{804C84DA-E074-4757-B5E4-7679CB532820}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D411BDB1-4E9D-4035-B19A-EB71C6B9FBB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3990" windowHeight="4260" activeTab="2" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D411BDB1-4E9D-4035-B19A-EB71C6B9FBB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E31DEDB9-E30D-4F45-AA40-98D5306087B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3990" windowHeight="4260" activeTab="2" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="133">
   <si>
     <t>Experiment</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>U-Net with mag_real_imag</t>
+  </si>
+  <si>
+    <t>Magnitude, Phase, Real &amp; Imaginary</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -729,43 +732,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -839,11 +805,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -880,31 +870,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -918,10 +904,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -948,6 +935,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,7 +1607,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="59" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -1636,7 +1633,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="56"/>
+      <c r="B10" s="59"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -1657,10 +1654,10 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="55">
+      <c r="A11" s="58">
         <v>43367</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="59">
         <v>50</v>
       </c>
       <c r="C11">
@@ -1686,8 +1683,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -1711,10 +1708,10 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="55">
+      <c r="A13" s="58">
         <v>43368</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="59">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -1735,13 +1732,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="59" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -1760,13 +1757,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="56"/>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="55">
+      <c r="A15" s="58">
         <v>43369</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="59">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1787,13 +1784,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="59" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1812,11 +1809,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="56"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1835,11 +1832,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="56"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1858,13 +1855,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="56"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="55">
+      <c r="A19" s="58">
         <v>43370</v>
       </c>
-      <c r="B19" s="56">
+      <c r="B19" s="59">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1885,13 +1882,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I19" s="59" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1910,13 +1907,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="56"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="55">
+      <c r="A21" s="58">
         <v>43373</v>
       </c>
-      <c r="B21" s="56">
+      <c r="B21" s="59">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1937,13 +1934,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="56" t="s">
+      <c r="I21" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1962,11 +1959,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="56"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1985,11 +1982,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="56"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -2008,7 +2005,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="56"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
@@ -2058,10 +2055,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="55">
+      <c r="A29" s="58">
         <v>43374</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="59">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -2082,13 +2079,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="56" t="s">
+      <c r="I29" s="59" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2107,11 +2104,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="56"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2130,11 +2127,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="56"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -2153,13 +2150,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="56"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="55">
+      <c r="A33" s="58">
         <v>43374</v>
       </c>
-      <c r="B33" s="56">
+      <c r="B33" s="59">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -2180,13 +2177,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="56" t="s">
+      <c r="I33" s="59" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="59"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -2205,13 +2202,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="56"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="55">
+      <c r="A35" s="58">
         <v>43375</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="59">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -2232,13 +2229,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="56" t="s">
+      <c r="I35" s="59" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="55"/>
-      <c r="B36" s="56"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="59"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -2257,11 +2254,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="56"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="59"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -2280,11 +2277,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="56"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="55"/>
-      <c r="B38" s="56"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="59"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -2303,13 +2300,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="56"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="55">
+      <c r="A39" s="58">
         <v>43375</v>
       </c>
-      <c r="B39" s="56">
+      <c r="B39" s="59">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -2330,13 +2327,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="56" t="s">
+      <c r="I39" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="55"/>
-      <c r="B40" s="56"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="59"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -2355,11 +2352,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="56"/>
+      <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="55"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="59"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -2378,11 +2375,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="56"/>
+      <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="59"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -2401,7 +2398,7 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="56"/>
+      <c r="I42" s="59"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
@@ -2591,7 +2588,7 @@
       <c r="H51">
         <v>-0.31863876639355398</v>
       </c>
-      <c r="I51" s="56" t="s">
+      <c r="I51" s="59" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2615,7 +2612,7 @@
       <c r="H52">
         <v>2.67662389686584</v>
       </c>
-      <c r="I52" s="56"/>
+      <c r="I52" s="59"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
@@ -2637,7 +2634,7 @@
       <c r="H53">
         <v>0.95464630209159695</v>
       </c>
-      <c r="I53" s="56"/>
+      <c r="I53" s="59"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
@@ -2659,7 +2656,7 @@
       <c r="H54">
         <v>4.8512619602994098</v>
       </c>
-      <c r="I54" s="56"/>
+      <c r="I54" s="59"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
@@ -2684,7 +2681,7 @@
       <c r="H55">
         <v>-0.56767955034740303</v>
       </c>
-      <c r="I55" s="56"/>
+      <c r="I55" s="59"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
@@ -2706,7 +2703,7 @@
       <c r="H56">
         <v>1.8761231724104801</v>
       </c>
-      <c r="I56" s="56"/>
+      <c r="I56" s="59"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
@@ -2728,7 +2725,7 @@
       <c r="H57">
         <v>0.76717154068581295</v>
       </c>
-      <c r="I57" s="56"/>
+      <c r="I57" s="59"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
@@ -2750,7 +2747,7 @@
       <c r="H58">
         <v>3.8964804606254</v>
       </c>
-      <c r="I58" s="56"/>
+      <c r="I58" s="59"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
@@ -2768,10 +2765,10 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="55">
+      <c r="A60" s="58">
         <v>43377</v>
       </c>
-      <c r="B60" s="56">
+      <c r="B60" s="59">
         <v>85</v>
       </c>
       <c r="C60" t="s">
@@ -2792,13 +2789,13 @@
       <c r="H60">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I60" s="56" t="s">
+      <c r="I60" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="55"/>
-      <c r="B61" s="56"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="59"/>
       <c r="C61" t="s">
         <v>32</v>
       </c>
@@ -2817,13 +2814,13 @@
       <c r="H61">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I61" s="56"/>
+      <c r="I61" s="59"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="55">
+      <c r="A62" s="58">
         <v>43378</v>
       </c>
-      <c r="B62" s="56">
+      <c r="B62" s="59">
         <v>89</v>
       </c>
       <c r="C62" t="s">
@@ -2844,11 +2841,11 @@
       <c r="H62">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I62" s="56"/>
+      <c r="I62" s="59"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="55"/>
-      <c r="B63" s="56"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="59"/>
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -2867,7 +2864,7 @@
       <c r="H63">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I63" s="56"/>
+      <c r="I63" s="59"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -2890,7 +2887,7 @@
       <c r="H64">
         <v>4.5462062693628003</v>
       </c>
-      <c r="I64" s="56" t="s">
+      <c r="I64" s="59" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2915,7 +2912,7 @@
       <c r="H65">
         <v>-3.4906857233533901</v>
       </c>
-      <c r="I65" s="56"/>
+      <c r="I65" s="59"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="5" t="s">
@@ -3095,7 +3092,7 @@
       <c r="H74">
         <v>-1.00648635425107E-2</v>
       </c>
-      <c r="I74" s="56" t="s">
+      <c r="I74" s="59" t="s">
         <v>72</v>
       </c>
       <c r="J74" t="s">
@@ -3121,7 +3118,7 @@
       <c r="H75">
         <v>2.3179146551025099E-3</v>
       </c>
-      <c r="I75" s="56"/>
+      <c r="I75" s="59"/>
     </row>
     <row r="76" spans="1:10">
       <c r="C76" t="s">
@@ -3142,7 +3139,7 @@
       <c r="H76">
         <v>2.2201058587415501</v>
       </c>
-      <c r="I76" s="56"/>
+      <c r="I76" s="59"/>
     </row>
     <row r="77" spans="1:10">
       <c r="C77" t="s">
@@ -3163,7 +3160,7 @@
       <c r="H77">
         <v>-3.9812518800141699</v>
       </c>
-      <c r="I77" s="56"/>
+      <c r="I77" s="59"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1">
@@ -3190,7 +3187,7 @@
       <c r="H78">
         <v>-5.2635717372245903E-3</v>
       </c>
-      <c r="I78" s="56" t="s">
+      <c r="I78" s="59" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3213,7 +3210,7 @@
       <c r="H79">
         <v>-3.0981829250898101</v>
       </c>
-      <c r="I79" s="56"/>
+      <c r="I79" s="59"/>
     </row>
     <row r="80" spans="1:10">
       <c r="B80">
@@ -3237,7 +3234,7 @@
       <c r="H80">
         <v>-6.1165373024574896E-3</v>
       </c>
-      <c r="I80" s="56"/>
+      <c r="I80" s="59"/>
     </row>
     <row r="81" spans="1:9">
       <c r="C81" t="s">
@@ -3258,7 +3255,7 @@
       <c r="H81">
         <v>-3.3361756537648399</v>
       </c>
-      <c r="I81" s="56"/>
+      <c r="I81" s="59"/>
     </row>
     <row r="82" spans="1:9">
       <c r="C82" t="s">
@@ -3279,7 +3276,7 @@
       <c r="H82">
         <v>2.0683995791691099</v>
       </c>
-      <c r="I82" s="56"/>
+      <c r="I82" s="59"/>
     </row>
     <row r="83" spans="1:9">
       <c r="C83" t="s">
@@ -3300,7 +3297,7 @@
       <c r="H83">
         <v>-3.3679402794508602</v>
       </c>
-      <c r="I83" s="56"/>
+      <c r="I83" s="59"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
@@ -4151,13 +4148,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>118</v>
       </c>
       <c r="B1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="48" t="s">
         <v>118</v>
       </c>
       <c r="F1" t="s">
@@ -4166,22 +4163,22 @@
       <c r="H1" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="46">
+      <c r="A2" s="48">
         <v>0</v>
       </c>
       <c r="B2" s="22">
         <v>13.6310941</v>
       </c>
       <c r="C2" s="22"/>
-      <c r="E2" s="46"/>
+      <c r="E2" s="48"/>
       <c r="F2">
         <v>13.68255731</v>
       </c>
@@ -4189,13 +4186,13 @@
         <f>B2-F2</f>
         <v>-5.1463209999999648E-2</v>
       </c>
-      <c r="K2" s="46">
+      <c r="K2" s="48">
         <v>0</v>
       </c>
       <c r="L2">
         <v>15.504060880000001</v>
       </c>
-      <c r="O2" s="45"/>
+      <c r="O2" s="47"/>
       <c r="P2">
         <v>15.62757736</v>
       </c>
@@ -4205,14 +4202,14 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="46">
+      <c r="A3" s="48">
         <v>1</v>
       </c>
       <c r="B3" s="22">
         <v>14.114214</v>
       </c>
       <c r="C3" s="22"/>
-      <c r="E3" s="46"/>
+      <c r="E3" s="48"/>
       <c r="F3">
         <v>13.82521036</v>
       </c>
@@ -4220,13 +4217,13 @@
         <f t="shared" ref="H3:H66" si="0">B3-F3</f>
         <v>0.28900364000000067</v>
       </c>
-      <c r="K3" s="46">
+      <c r="K3" s="48">
         <v>1</v>
       </c>
       <c r="L3">
         <v>13.243643690000001</v>
       </c>
-      <c r="O3" s="45"/>
+      <c r="O3" s="47"/>
       <c r="P3">
         <v>13.81847114</v>
       </c>
@@ -4236,14 +4233,14 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="46">
+      <c r="A4" s="48">
         <v>2</v>
       </c>
       <c r="B4" s="22">
         <v>14.915215</v>
       </c>
       <c r="C4" s="22"/>
-      <c r="E4" s="46"/>
+      <c r="E4" s="48"/>
       <c r="F4">
         <v>14.69432993</v>
       </c>
@@ -4251,13 +4248,13 @@
         <f t="shared" si="0"/>
         <v>0.22088506999999957</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="48">
         <v>2</v>
       </c>
       <c r="L4">
         <v>10.105190090000001</v>
       </c>
-      <c r="O4" s="45"/>
+      <c r="O4" s="47"/>
       <c r="P4">
         <v>9.7600196700000001</v>
       </c>
@@ -4267,14 +4264,14 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="46">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
       <c r="B5" s="22">
         <v>13.295089000000001</v>
       </c>
       <c r="C5" s="22"/>
-      <c r="E5" s="46"/>
+      <c r="E5" s="48"/>
       <c r="F5">
         <v>12.1241141</v>
       </c>
@@ -4282,13 +4279,13 @@
         <f t="shared" si="0"/>
         <v>1.1709749000000009</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="48">
         <v>3</v>
       </c>
       <c r="L5">
         <v>15.537563349999999</v>
       </c>
-      <c r="O5" s="45"/>
+      <c r="O5" s="47"/>
       <c r="P5">
         <v>15.89216186</v>
       </c>
@@ -4298,14 +4295,14 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="46">
+      <c r="A6" s="48">
         <v>4</v>
       </c>
       <c r="B6" s="22">
         <v>13.5681665</v>
       </c>
       <c r="C6" s="22"/>
-      <c r="E6" s="46"/>
+      <c r="E6" s="48"/>
       <c r="F6">
         <v>13.30902581</v>
       </c>
@@ -4313,13 +4310,13 @@
         <f t="shared" si="0"/>
         <v>0.25914069000000062</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="48">
         <v>4</v>
       </c>
       <c r="L6">
         <v>13.53970662</v>
       </c>
-      <c r="O6" s="45"/>
+      <c r="O6" s="47"/>
       <c r="P6">
         <v>13.575349709999999</v>
       </c>
@@ -4329,14 +4326,14 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="46">
+      <c r="A7" s="48">
         <v>5</v>
       </c>
       <c r="B7" s="22">
         <v>13.837569200000001</v>
       </c>
       <c r="C7" s="22"/>
-      <c r="E7" s="46"/>
+      <c r="E7" s="48"/>
       <c r="F7">
         <v>13.159305959999999</v>
       </c>
@@ -4344,13 +4341,13 @@
         <f t="shared" si="0"/>
         <v>0.67826324000000149</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="48">
         <v>5</v>
       </c>
       <c r="L7">
         <v>12.303724689999999</v>
       </c>
-      <c r="O7" s="45"/>
+      <c r="O7" s="47"/>
       <c r="P7">
         <v>13.26597346</v>
       </c>
@@ -4360,14 +4357,14 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="46">
+      <c r="A8" s="48">
         <v>6</v>
       </c>
       <c r="B8" s="22">
         <v>9.5816275799999993</v>
       </c>
       <c r="C8" s="22"/>
-      <c r="E8" s="46"/>
+      <c r="E8" s="48"/>
       <c r="F8">
         <v>9.8345661500000006</v>
       </c>
@@ -4375,13 +4372,13 @@
         <f t="shared" si="0"/>
         <v>-0.25293857000000131</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="48">
         <v>6</v>
       </c>
       <c r="L8">
         <v>9.0521034199999999</v>
       </c>
-      <c r="O8" s="45"/>
+      <c r="O8" s="47"/>
       <c r="P8">
         <v>8.8562996599999995</v>
       </c>
@@ -4391,14 +4388,14 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="46">
+      <c r="A9" s="48">
         <v>7</v>
       </c>
       <c r="B9" s="22">
         <v>10.8376546</v>
       </c>
       <c r="C9" s="22"/>
-      <c r="E9" s="46"/>
+      <c r="E9" s="48"/>
       <c r="F9">
         <v>10.74053486</v>
       </c>
@@ -4406,30 +4403,30 @@
         <f t="shared" si="0"/>
         <v>9.7119740000000121E-2</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="48">
         <v>7</v>
       </c>
       <c r="L9">
         <v>9.3473276300000006</v>
       </c>
-      <c r="O9" s="45"/>
+      <c r="O9" s="47"/>
       <c r="P9">
         <v>11.57419661</v>
       </c>
-      <c r="R9" s="49">
+      <c r="R9" s="51">
         <f t="shared" si="1"/>
         <v>-2.226868979999999</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="46">
+      <c r="A10" s="48">
         <v>8</v>
       </c>
       <c r="B10" s="22">
         <v>8.8218898699999997</v>
       </c>
       <c r="C10" s="22"/>
-      <c r="E10" s="46"/>
+      <c r="E10" s="48"/>
       <c r="F10">
         <v>8.6670850500000007</v>
       </c>
@@ -4437,13 +4434,13 @@
         <f t="shared" si="0"/>
         <v>0.15480481999999895</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="48">
         <v>8</v>
       </c>
       <c r="L10">
         <v>7.3468390100000001</v>
       </c>
-      <c r="O10" s="45"/>
+      <c r="O10" s="47"/>
       <c r="P10">
         <v>7.3233795500000003</v>
       </c>
@@ -4453,14 +4450,14 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="46">
+      <c r="A11" s="48">
         <v>9</v>
       </c>
       <c r="B11" s="22">
         <v>12.502928799999999</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="E11" s="46"/>
+      <c r="E11" s="48"/>
       <c r="F11">
         <v>12.082468860000001</v>
       </c>
@@ -4468,13 +4465,13 @@
         <f t="shared" si="0"/>
         <v>0.42045993999999887</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="48">
         <v>9</v>
       </c>
       <c r="L11">
         <v>11.436437010000001</v>
       </c>
-      <c r="O11" s="45"/>
+      <c r="O11" s="47"/>
       <c r="P11">
         <v>12.098029950000001</v>
       </c>
@@ -4484,14 +4481,14 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="46">
+      <c r="A12" s="48">
         <v>10</v>
       </c>
       <c r="B12" s="22">
         <v>14.1842772</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="E12" s="46"/>
+      <c r="E12" s="48"/>
       <c r="F12">
         <v>13.44488993</v>
       </c>
@@ -4499,13 +4496,13 @@
         <f t="shared" si="0"/>
         <v>0.73938726999999993</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="48">
         <v>10</v>
       </c>
       <c r="L12">
         <v>11.277759339999999</v>
       </c>
-      <c r="O12" s="45"/>
+      <c r="O12" s="47"/>
       <c r="P12">
         <v>11.55613612</v>
       </c>
@@ -4515,14 +4512,14 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="46">
+      <c r="A13" s="48">
         <v>11</v>
       </c>
       <c r="B13" s="22">
         <v>12.692087799999999</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="E13" s="46"/>
+      <c r="E13" s="48"/>
       <c r="F13">
         <v>12.524629300000001</v>
       </c>
@@ -4530,13 +4527,13 @@
         <f t="shared" si="0"/>
         <v>0.16745849999999862</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="48">
         <v>11</v>
       </c>
       <c r="L13">
         <v>11.932036009999999</v>
       </c>
-      <c r="O13" s="45"/>
+      <c r="O13" s="47"/>
       <c r="P13">
         <v>13.80031033</v>
       </c>
@@ -4546,14 +4543,14 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="46">
+      <c r="A14" s="48">
         <v>12</v>
       </c>
       <c r="B14" s="22">
         <v>6.1079395500000002</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="E14" s="46"/>
+      <c r="E14" s="48"/>
       <c r="F14">
         <v>7.5824858600000002</v>
       </c>
@@ -4561,13 +4558,13 @@
         <f t="shared" si="0"/>
         <v>-1.47454631</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="48">
         <v>12</v>
       </c>
       <c r="L14">
         <v>9.1186061200000008</v>
       </c>
-      <c r="O14" s="45"/>
+      <c r="O14" s="47"/>
       <c r="P14">
         <v>7.0197906100000003</v>
       </c>
@@ -4577,28 +4574,28 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="46">
+      <c r="A15" s="48">
         <v>13</v>
       </c>
       <c r="B15" s="22">
         <v>14.3286034</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="E15" s="46"/>
+      <c r="E15" s="48"/>
       <c r="F15">
         <v>12.70646168</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="51">
         <f t="shared" si="0"/>
         <v>1.6221417200000001</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="48">
         <v>13</v>
       </c>
       <c r="L15">
         <v>13.77721393</v>
       </c>
-      <c r="O15" s="45"/>
+      <c r="O15" s="47"/>
       <c r="P15">
         <v>14.60561339</v>
       </c>
@@ -4608,14 +4605,14 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="46">
+      <c r="A16" s="48">
         <v>14</v>
       </c>
       <c r="B16" s="22">
         <v>15.4727158</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="E16" s="46"/>
+      <c r="E16" s="48"/>
       <c r="F16">
         <v>15.82338176</v>
       </c>
@@ -4623,13 +4620,13 @@
         <f t="shared" si="0"/>
         <v>-0.35066596000000061</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="48">
         <v>14</v>
       </c>
       <c r="L16">
         <v>10.93699202</v>
       </c>
-      <c r="O16" s="45"/>
+      <c r="O16" s="47"/>
       <c r="P16">
         <v>10.28863349</v>
       </c>
@@ -4639,14 +4636,14 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="46">
+      <c r="A17" s="48">
         <v>15</v>
       </c>
       <c r="B17" s="22">
         <v>15.0669521</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="E17" s="46"/>
+      <c r="E17" s="48"/>
       <c r="F17">
         <v>15.73624611</v>
       </c>
@@ -4654,13 +4651,13 @@
         <f t="shared" si="0"/>
         <v>-0.66929400999999977</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="48">
         <v>15</v>
       </c>
       <c r="L17">
         <v>15.044199020000001</v>
       </c>
-      <c r="O17" s="45"/>
+      <c r="O17" s="47"/>
       <c r="P17">
         <v>14.91610244</v>
       </c>
@@ -4670,14 +4667,14 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="46">
+      <c r="A18" s="48">
         <v>16</v>
       </c>
       <c r="B18" s="22">
         <v>15.1301855</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="E18" s="46"/>
+      <c r="E18" s="48"/>
       <c r="F18">
         <v>15.944966989999999</v>
       </c>
@@ -4685,13 +4682,13 @@
         <f t="shared" si="0"/>
         <v>-0.81478148999999966</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="48">
         <v>16</v>
       </c>
       <c r="L18">
         <v>14.66520272</v>
       </c>
-      <c r="O18" s="45"/>
+      <c r="O18" s="47"/>
       <c r="P18">
         <v>15.327092629999999</v>
       </c>
@@ -4701,14 +4698,14 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="46">
+      <c r="A19" s="48">
         <v>17</v>
       </c>
       <c r="B19" s="22">
         <v>11.3176039</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="E19" s="46"/>
+      <c r="E19" s="48"/>
       <c r="F19">
         <v>10.212703210000001</v>
       </c>
@@ -4716,13 +4713,13 @@
         <f t="shared" si="0"/>
         <v>1.1049006899999991</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="48">
         <v>17</v>
       </c>
       <c r="L19">
         <v>7.2548629699999996</v>
       </c>
-      <c r="O19" s="45"/>
+      <c r="O19" s="47"/>
       <c r="P19">
         <v>7.6726400400000001</v>
       </c>
@@ -4732,14 +4729,14 @@
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="46">
+      <c r="A20" s="48">
         <v>18</v>
       </c>
       <c r="B20" s="22">
         <v>9.4711795399999996</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="E20" s="46"/>
+      <c r="E20" s="48"/>
       <c r="F20">
         <v>11.39960791</v>
       </c>
@@ -4747,13 +4744,13 @@
         <f t="shared" si="0"/>
         <v>-1.9284283700000007</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="48">
         <v>18</v>
       </c>
       <c r="L20">
         <v>12.402952790000001</v>
       </c>
-      <c r="O20" s="45"/>
+      <c r="O20" s="47"/>
       <c r="P20">
         <v>12.317577829999999</v>
       </c>
@@ -4763,14 +4760,14 @@
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="46">
+      <c r="A21" s="48">
         <v>19</v>
       </c>
       <c r="B21" s="22">
         <v>10.997961699999999</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="E21" s="46"/>
+      <c r="E21" s="48"/>
       <c r="F21">
         <v>10.64048159</v>
       </c>
@@ -4778,13 +4775,13 @@
         <f t="shared" si="0"/>
         <v>0.35748010999999913</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="48">
         <v>19</v>
       </c>
       <c r="L21">
         <v>13.54347578</v>
       </c>
-      <c r="O21" s="45"/>
+      <c r="O21" s="47"/>
       <c r="P21">
         <v>13.11906677</v>
       </c>
@@ -4794,14 +4791,14 @@
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="46">
+      <c r="A22" s="48">
         <v>20</v>
       </c>
       <c r="B22" s="22">
         <v>8.8006049799999992</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="E22" s="46"/>
+      <c r="E22" s="48"/>
       <c r="F22">
         <v>7.6591043699999997</v>
       </c>
@@ -4809,13 +4806,13 @@
         <f t="shared" si="0"/>
         <v>1.1415006099999996</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="48">
         <v>20</v>
       </c>
       <c r="L22">
         <v>13.01622306</v>
       </c>
-      <c r="O22" s="45"/>
+      <c r="O22" s="47"/>
       <c r="P22">
         <v>12.9657445</v>
       </c>
@@ -4825,14 +4822,14 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="46">
+      <c r="A23" s="48">
         <v>21</v>
       </c>
       <c r="B23" s="22">
         <v>11.861148699999999</v>
       </c>
       <c r="C23" s="22"/>
-      <c r="E23" s="46"/>
+      <c r="E23" s="48"/>
       <c r="F23">
         <v>11.209893449999999</v>
       </c>
@@ -4840,13 +4837,13 @@
         <f t="shared" si="0"/>
         <v>0.65125525000000017</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="48">
         <v>21</v>
       </c>
       <c r="L23">
         <v>13.624087449999999</v>
       </c>
-      <c r="O23" s="45"/>
+      <c r="O23" s="47"/>
       <c r="P23">
         <v>13.429018960000001</v>
       </c>
@@ -4856,14 +4853,14 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="46">
+      <c r="A24" s="48">
         <v>22</v>
       </c>
       <c r="B24" s="22">
         <v>10.9651136</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="E24" s="46"/>
+      <c r="E24" s="48"/>
       <c r="F24">
         <v>10.28596153</v>
       </c>
@@ -4871,13 +4868,13 @@
         <f t="shared" si="0"/>
         <v>0.67915207000000066</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24" s="48">
         <v>22</v>
       </c>
       <c r="L24">
         <v>11.078052899999999</v>
       </c>
-      <c r="O24" s="45"/>
+      <c r="O24" s="47"/>
       <c r="P24">
         <v>11.05419695</v>
       </c>
@@ -4887,14 +4884,14 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="46">
+      <c r="A25" s="48">
         <v>23</v>
       </c>
       <c r="B25" s="22">
         <v>20.165744799999999</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="E25" s="46"/>
+      <c r="E25" s="48"/>
       <c r="F25">
         <v>19.98992118</v>
       </c>
@@ -4902,13 +4899,13 @@
         <f t="shared" si="0"/>
         <v>0.17582361999999918</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="48">
         <v>23</v>
       </c>
       <c r="L25">
         <v>12.221937649999999</v>
       </c>
-      <c r="O25" s="45"/>
+      <c r="O25" s="47"/>
       <c r="P25">
         <v>12.0072761</v>
       </c>
@@ -4918,14 +4915,14 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="46">
+      <c r="A26" s="48">
         <v>24</v>
       </c>
       <c r="B26" s="22">
         <v>20.4969368</v>
       </c>
       <c r="C26" s="22"/>
-      <c r="E26" s="46"/>
+      <c r="E26" s="48"/>
       <c r="F26">
         <v>20.522986360000001</v>
       </c>
@@ -4933,13 +4930,13 @@
         <f t="shared" si="0"/>
         <v>-2.6049560000000582E-2</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26" s="48">
         <v>24</v>
       </c>
       <c r="L26">
         <v>12.161695160000001</v>
       </c>
-      <c r="O26" s="45"/>
+      <c r="O26" s="47"/>
       <c r="P26">
         <v>12.157362259999999</v>
       </c>
@@ -4949,20 +4946,20 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="48" t="s">
         <v>119</v>
       </c>
       <c r="H27" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="46" t="s">
+      <c r="K27" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="O27" s="45" t="s">
+      <c r="O27" s="47" t="s">
         <v>119</v>
       </c>
       <c r="R27" s="23">
@@ -4971,13 +4968,13 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="46">
+      <c r="A28" s="48">
         <v>0</v>
       </c>
       <c r="B28">
         <v>17.30043191</v>
       </c>
-      <c r="E28" s="46"/>
+      <c r="E28" s="48"/>
       <c r="F28">
         <v>17.69677695</v>
       </c>
@@ -4985,13 +4982,13 @@
         <f t="shared" si="0"/>
         <v>-0.39634503999999993</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="48">
         <v>0</v>
       </c>
       <c r="L28">
         <v>19.74782738</v>
       </c>
-      <c r="O28" s="45"/>
+      <c r="O28" s="47"/>
       <c r="P28">
         <v>19.462411809999999</v>
       </c>
@@ -5001,13 +4998,13 @@
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="46">
+      <c r="A29" s="48">
         <v>1</v>
       </c>
       <c r="B29">
         <v>17.354958079999999</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="E29" s="48"/>
       <c r="F29">
         <v>16.848371960000001</v>
       </c>
@@ -5015,13 +5012,13 @@
         <f t="shared" si="0"/>
         <v>0.50658611999999792</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="48">
         <v>1</v>
       </c>
       <c r="L29">
         <v>16.632221049999998</v>
       </c>
-      <c r="O29" s="45"/>
+      <c r="O29" s="47"/>
       <c r="P29">
         <v>17.35659106</v>
       </c>
@@ -5031,13 +5028,13 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="46">
+      <c r="A30" s="48">
         <v>2</v>
       </c>
       <c r="B30">
         <v>18.089428160000001</v>
       </c>
-      <c r="E30" s="46"/>
+      <c r="E30" s="48"/>
       <c r="F30">
         <v>18.093440319999999</v>
       </c>
@@ -5045,13 +5042,13 @@
         <f t="shared" si="0"/>
         <v>-4.012159999998488E-3</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="48">
         <v>2</v>
       </c>
       <c r="L30">
         <v>13.746490870000001</v>
       </c>
-      <c r="O30" s="45"/>
+      <c r="O30" s="47"/>
       <c r="P30">
         <v>12.97748838</v>
       </c>
@@ -5061,13 +5058,13 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="46">
+      <c r="A31" s="48">
         <v>3</v>
       </c>
       <c r="B31">
         <v>16.587185550000001</v>
       </c>
-      <c r="E31" s="46"/>
+      <c r="E31" s="48"/>
       <c r="F31">
         <v>15.63558811</v>
       </c>
@@ -5075,13 +5072,13 @@
         <f t="shared" si="0"/>
         <v>0.95159744000000046</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="48">
         <v>3</v>
       </c>
       <c r="L31">
         <v>21.573665219999999</v>
       </c>
-      <c r="O31" s="45"/>
+      <c r="O31" s="47"/>
       <c r="P31">
         <v>20.68944844</v>
       </c>
@@ -5091,13 +5088,13 @@
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="46">
+      <c r="A32" s="48">
         <v>4</v>
       </c>
       <c r="B32">
         <v>17.245802569999999</v>
       </c>
-      <c r="E32" s="46"/>
+      <c r="E32" s="48"/>
       <c r="F32">
         <v>17.798296820000001</v>
       </c>
@@ -5105,13 +5102,13 @@
         <f t="shared" si="0"/>
         <v>-0.5524942500000023</v>
       </c>
-      <c r="K32" s="46">
+      <c r="K32" s="48">
         <v>4</v>
       </c>
       <c r="L32">
         <v>16.845026010000002</v>
       </c>
-      <c r="O32" s="45"/>
+      <c r="O32" s="47"/>
       <c r="P32">
         <v>16.86556496</v>
       </c>
@@ -5121,13 +5118,13 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="46">
+      <c r="A33" s="48">
         <v>5</v>
       </c>
       <c r="B33">
         <v>18.520996440000001</v>
       </c>
-      <c r="E33" s="46"/>
+      <c r="E33" s="48"/>
       <c r="F33">
         <v>20.689898679999999</v>
       </c>
@@ -5135,13 +5132,13 @@
         <f t="shared" si="0"/>
         <v>-2.1689022399999978</v>
       </c>
-      <c r="K33" s="46">
+      <c r="K33" s="48">
         <v>5</v>
       </c>
       <c r="L33">
         <v>17.078029130000001</v>
       </c>
-      <c r="O33" s="45"/>
+      <c r="O33" s="47"/>
       <c r="P33">
         <v>18.217979620000001</v>
       </c>
@@ -5151,13 +5148,13 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="46">
+      <c r="A34" s="48">
         <v>6</v>
       </c>
       <c r="B34">
         <v>13.802928789999999</v>
       </c>
-      <c r="E34" s="46"/>
+      <c r="E34" s="48"/>
       <c r="F34">
         <v>14.95850755</v>
       </c>
@@ -5165,13 +5162,13 @@
         <f t="shared" si="0"/>
         <v>-1.1555787600000009</v>
       </c>
-      <c r="K34" s="46">
+      <c r="K34" s="48">
         <v>6</v>
       </c>
       <c r="L34">
         <v>13.691509829999999</v>
       </c>
-      <c r="O34" s="45"/>
+      <c r="O34" s="47"/>
       <c r="P34">
         <v>13.00611992</v>
       </c>
@@ -5181,13 +5178,13 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="46">
+      <c r="A35" s="48">
         <v>7</v>
       </c>
       <c r="B35">
         <v>15.977755159999999</v>
       </c>
-      <c r="E35" s="46"/>
+      <c r="E35" s="48"/>
       <c r="F35">
         <v>16.031421229999999</v>
       </c>
@@ -5195,13 +5192,13 @@
         <f t="shared" si="0"/>
         <v>-5.3666070000000232E-2</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="48">
         <v>7</v>
       </c>
       <c r="L35">
         <v>16.469693190000001</v>
       </c>
-      <c r="O35" s="45"/>
+      <c r="O35" s="47"/>
       <c r="P35">
         <v>16.70952308</v>
       </c>
@@ -5211,13 +5208,13 @@
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="46">
+      <c r="A36" s="48">
         <v>8</v>
       </c>
       <c r="B36">
         <v>12.980362380000001</v>
       </c>
-      <c r="E36" s="46"/>
+      <c r="E36" s="48"/>
       <c r="F36">
         <v>13.29625972</v>
       </c>
@@ -5225,13 +5222,13 @@
         <f t="shared" si="0"/>
         <v>-0.31589733999999936</v>
       </c>
-      <c r="K36" s="46">
+      <c r="K36" s="48">
         <v>8</v>
       </c>
       <c r="L36">
         <v>13.057423610000001</v>
       </c>
-      <c r="O36" s="45"/>
+      <c r="O36" s="47"/>
       <c r="P36">
         <v>12.8361599</v>
       </c>
@@ -5241,13 +5238,13 @@
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="46">
+      <c r="A37" s="48">
         <v>9</v>
       </c>
       <c r="B37">
         <v>17.170727750000001</v>
       </c>
-      <c r="E37" s="46"/>
+      <c r="E37" s="48"/>
       <c r="F37">
         <v>18.323344330000001</v>
       </c>
@@ -5255,13 +5252,13 @@
         <f t="shared" si="0"/>
         <v>-1.1526165800000001</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="48">
         <v>9</v>
       </c>
       <c r="L37">
         <v>18.252544480000001</v>
       </c>
-      <c r="O37" s="45"/>
+      <c r="O37" s="47"/>
       <c r="P37">
         <v>17.874051590000001</v>
       </c>
@@ -5271,13 +5268,13 @@
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="46">
+      <c r="A38" s="48">
         <v>10</v>
       </c>
       <c r="B38">
         <v>18.595662140000002</v>
       </c>
-      <c r="E38" s="46"/>
+      <c r="E38" s="48"/>
       <c r="F38">
         <v>19.513140310000001</v>
       </c>
@@ -5285,13 +5282,13 @@
         <f t="shared" si="0"/>
         <v>-0.91747816999999898</v>
       </c>
-      <c r="K38" s="46">
+      <c r="K38" s="48">
         <v>10</v>
       </c>
       <c r="L38">
         <v>16.684188710000001</v>
       </c>
-      <c r="O38" s="45"/>
+      <c r="O38" s="47"/>
       <c r="P38">
         <v>15.629935100000001</v>
       </c>
@@ -5301,13 +5298,13 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="46">
+      <c r="A39" s="48">
         <v>11</v>
       </c>
       <c r="B39">
         <v>16.784280110000001</v>
       </c>
-      <c r="E39" s="46"/>
+      <c r="E39" s="48"/>
       <c r="F39">
         <v>16.9239581</v>
       </c>
@@ -5315,13 +5312,13 @@
         <f t="shared" si="0"/>
         <v>-0.13967798999999914</v>
       </c>
-      <c r="K39" s="46">
+      <c r="K39" s="48">
         <v>11</v>
       </c>
       <c r="L39">
         <v>17.03253484</v>
       </c>
-      <c r="O39" s="45"/>
+      <c r="O39" s="47"/>
       <c r="P39">
         <v>18.123993080000002</v>
       </c>
@@ -5331,13 +5328,13 @@
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="46">
+      <c r="A40" s="48">
         <v>12</v>
       </c>
       <c r="B40">
         <v>14.091129690000001</v>
       </c>
-      <c r="E40" s="46"/>
+      <c r="E40" s="48"/>
       <c r="F40">
         <v>15.00861667</v>
       </c>
@@ -5345,13 +5342,13 @@
         <f t="shared" si="0"/>
         <v>-0.91748697999999962</v>
       </c>
-      <c r="K40" s="46">
+      <c r="K40" s="48">
         <v>12</v>
       </c>
       <c r="L40">
         <v>17.188163790000001</v>
       </c>
-      <c r="O40" s="45"/>
+      <c r="O40" s="47"/>
       <c r="P40">
         <v>14.506829189999999</v>
       </c>
@@ -5361,13 +5358,13 @@
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="46">
+      <c r="A41" s="48">
         <v>13</v>
       </c>
       <c r="B41">
         <v>20.954972479999999</v>
       </c>
-      <c r="E41" s="46"/>
+      <c r="E41" s="48"/>
       <c r="F41">
         <v>20.521560999999998</v>
       </c>
@@ -5375,13 +5372,13 @@
         <f t="shared" si="0"/>
         <v>0.43341148000000018</v>
       </c>
-      <c r="K41" s="46">
+      <c r="K41" s="48">
         <v>13</v>
       </c>
       <c r="L41">
         <v>21.402306029999998</v>
       </c>
-      <c r="O41" s="45"/>
+      <c r="O41" s="47"/>
       <c r="P41">
         <v>20.893728549999999</v>
       </c>
@@ -5391,13 +5388,13 @@
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="46">
+      <c r="A42" s="48">
         <v>14</v>
       </c>
       <c r="B42">
         <v>20.130272980000001</v>
       </c>
-      <c r="E42" s="46"/>
+      <c r="E42" s="48"/>
       <c r="F42">
         <v>20.956528970000001</v>
       </c>
@@ -5405,13 +5402,13 @@
         <f t="shared" si="0"/>
         <v>-0.82625598999999994</v>
       </c>
-      <c r="K42" s="46">
+      <c r="K42" s="48">
         <v>14</v>
       </c>
       <c r="L42">
         <v>16.706312799999999</v>
       </c>
-      <c r="O42" s="45"/>
+      <c r="O42" s="47"/>
       <c r="P42">
         <v>15.08871398</v>
       </c>
@@ -5421,13 +5418,13 @@
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="46">
+      <c r="A43" s="48">
         <v>15</v>
       </c>
       <c r="B43">
         <v>20.065297220000001</v>
       </c>
-      <c r="E43" s="46"/>
+      <c r="E43" s="48"/>
       <c r="F43">
         <v>21.04647752</v>
       </c>
@@ -5435,13 +5432,13 @@
         <f t="shared" si="0"/>
         <v>-0.98118029999999834</v>
       </c>
-      <c r="K43" s="46">
+      <c r="K43" s="48">
         <v>15</v>
       </c>
       <c r="L43">
         <v>19.459742330000001</v>
       </c>
-      <c r="O43" s="45"/>
+      <c r="O43" s="47"/>
       <c r="P43">
         <v>19.330495580000001</v>
       </c>
@@ -5451,13 +5448,13 @@
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="46">
+      <c r="A44" s="48">
         <v>16</v>
       </c>
       <c r="B44">
         <v>18.836609660000001</v>
       </c>
-      <c r="E44" s="46"/>
+      <c r="E44" s="48"/>
       <c r="F44">
         <v>19.832645339999999</v>
       </c>
@@ -5465,13 +5462,13 @@
         <f t="shared" si="0"/>
         <v>-0.99603567999999854</v>
       </c>
-      <c r="K44" s="46">
+      <c r="K44" s="48">
         <v>16</v>
       </c>
       <c r="L44">
         <v>17.91673587</v>
       </c>
-      <c r="O44" s="45"/>
+      <c r="O44" s="47"/>
       <c r="P44">
         <v>18.933821980000001</v>
       </c>
@@ -5481,13 +5478,13 @@
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="46">
+      <c r="A45" s="48">
         <v>17</v>
       </c>
       <c r="B45">
         <v>16.219955779999999</v>
       </c>
-      <c r="E45" s="46"/>
+      <c r="E45" s="48"/>
       <c r="F45">
         <v>15.3259197</v>
       </c>
@@ -5495,13 +5492,13 @@
         <f t="shared" si="0"/>
         <v>0.89403607999999934</v>
       </c>
-      <c r="K45" s="46">
+      <c r="K45" s="48">
         <v>17</v>
       </c>
       <c r="L45">
         <v>9.8463115299999995</v>
       </c>
-      <c r="O45" s="45"/>
+      <c r="O45" s="47"/>
       <c r="P45">
         <v>11.27178606</v>
       </c>
@@ -5511,13 +5508,13 @@
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="46">
+      <c r="A46" s="48">
         <v>18</v>
       </c>
       <c r="B46">
         <v>14.75658005</v>
       </c>
-      <c r="E46" s="46"/>
+      <c r="E46" s="48"/>
       <c r="F46">
         <v>18.428847770000001</v>
       </c>
@@ -5525,13 +5522,13 @@
         <f t="shared" si="0"/>
         <v>-3.6722677200000007</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46" s="48">
         <v>18</v>
       </c>
       <c r="L46">
         <v>15.2881746</v>
       </c>
-      <c r="O46" s="45"/>
+      <c r="O46" s="47"/>
       <c r="P46">
         <v>15.311354850000001</v>
       </c>
@@ -5541,13 +5538,13 @@
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="46">
+      <c r="A47" s="48">
         <v>19</v>
       </c>
       <c r="B47">
         <v>15.82356951</v>
       </c>
-      <c r="E47" s="46"/>
+      <c r="E47" s="48"/>
       <c r="F47">
         <v>16.84270008</v>
       </c>
@@ -5555,13 +5552,13 @@
         <f t="shared" si="0"/>
         <v>-1.0191305699999997</v>
       </c>
-      <c r="K47" s="46">
+      <c r="K47" s="48">
         <v>19</v>
       </c>
       <c r="L47">
         <v>17.884419789999999</v>
       </c>
-      <c r="O47" s="45"/>
+      <c r="O47" s="47"/>
       <c r="P47">
         <v>17.104364260000001</v>
       </c>
@@ -5571,13 +5568,13 @@
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="46">
+      <c r="A48" s="48">
         <v>20</v>
       </c>
       <c r="B48">
         <v>12.97756058</v>
       </c>
-      <c r="E48" s="46"/>
+      <c r="E48" s="48"/>
       <c r="F48">
         <v>13.310718339999999</v>
       </c>
@@ -5585,13 +5582,13 @@
         <f t="shared" si="0"/>
         <v>-0.33315775999999886</v>
       </c>
-      <c r="K48" s="46">
+      <c r="K48" s="48">
         <v>20</v>
       </c>
       <c r="L48">
         <v>19.166564959999999</v>
       </c>
-      <c r="O48" s="45"/>
+      <c r="O48" s="47"/>
       <c r="P48">
         <v>19.415697470000001</v>
       </c>
@@ -5601,13 +5598,13 @@
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="46">
+      <c r="A49" s="48">
         <v>21</v>
       </c>
       <c r="B49">
         <v>16.67489896</v>
       </c>
-      <c r="E49" s="46"/>
+      <c r="E49" s="48"/>
       <c r="F49">
         <v>16.726182770000001</v>
       </c>
@@ -5615,13 +5612,13 @@
         <f t="shared" si="0"/>
         <v>-5.128381000000104E-2</v>
       </c>
-      <c r="K49" s="46">
+      <c r="K49" s="48">
         <v>21</v>
       </c>
       <c r="L49">
         <v>19.8615411</v>
       </c>
-      <c r="O49" s="45"/>
+      <c r="O49" s="47"/>
       <c r="P49">
         <v>19.370347710000001</v>
       </c>
@@ -5631,13 +5628,13 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="46">
+      <c r="A50" s="48">
         <v>22</v>
       </c>
       <c r="B50">
         <v>15.62146478</v>
       </c>
-      <c r="E50" s="46"/>
+      <c r="E50" s="48"/>
       <c r="F50">
         <v>16.3778197</v>
       </c>
@@ -5645,13 +5642,13 @@
         <f t="shared" si="0"/>
         <v>-0.75635491999999971</v>
       </c>
-      <c r="K50" s="46">
+      <c r="K50" s="48">
         <v>22</v>
       </c>
       <c r="L50">
         <v>16.14647463</v>
       </c>
-      <c r="O50" s="45"/>
+      <c r="O50" s="47"/>
       <c r="P50">
         <v>16.31911616</v>
       </c>
@@ -5661,13 +5658,13 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="46">
+      <c r="A51" s="48">
         <v>23</v>
       </c>
       <c r="B51">
         <v>23.659309279999999</v>
       </c>
-      <c r="E51" s="46"/>
+      <c r="E51" s="48"/>
       <c r="F51">
         <v>23.446638320000002</v>
       </c>
@@ -5675,13 +5672,13 @@
         <f t="shared" si="0"/>
         <v>0.21267095999999697</v>
       </c>
-      <c r="K51" s="46">
+      <c r="K51" s="48">
         <v>23</v>
       </c>
       <c r="L51">
         <v>17.54233571</v>
       </c>
-      <c r="O51" s="45"/>
+      <c r="O51" s="47"/>
       <c r="P51">
         <v>17.118570259999998</v>
       </c>
@@ -5691,13 +5688,13 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="46">
+      <c r="A52" s="48">
         <v>24</v>
       </c>
       <c r="B52">
         <v>23.522175270000002</v>
       </c>
-      <c r="E52" s="46"/>
+      <c r="E52" s="48"/>
       <c r="F52">
         <v>23.667639149999999</v>
       </c>
@@ -5705,13 +5702,13 @@
         <f t="shared" si="0"/>
         <v>-0.14546387999999766</v>
       </c>
-      <c r="K52" s="46">
+      <c r="K52" s="48">
         <v>24</v>
       </c>
       <c r="L52">
         <v>17.14447689</v>
       </c>
-      <c r="O52" s="45"/>
+      <c r="O52" s="47"/>
       <c r="P52">
         <v>16.130017760000001</v>
       </c>
@@ -5721,20 +5718,20 @@
       </c>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="48" t="s">
         <v>120</v>
       </c>
       <c r="H53" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K53" s="46" t="s">
+      <c r="K53" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="O53" s="45" t="s">
+      <c r="O53" s="47" t="s">
         <v>120</v>
       </c>
       <c r="R53" s="23">
@@ -5743,13 +5740,13 @@
       </c>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="46">
+      <c r="A54" s="48">
         <v>0</v>
       </c>
       <c r="B54">
         <v>16.14943147</v>
       </c>
-      <c r="E54" s="46"/>
+      <c r="E54" s="48"/>
       <c r="F54">
         <v>15.95117426</v>
       </c>
@@ -5757,13 +5754,13 @@
         <f t="shared" si="0"/>
         <v>0.19825720999999952</v>
       </c>
-      <c r="K54" s="46">
+      <c r="K54" s="48">
         <v>0</v>
       </c>
       <c r="L54">
         <v>17.600624939999999</v>
       </c>
-      <c r="O54" s="45"/>
+      <c r="O54" s="47"/>
       <c r="P54">
         <v>17.99406273</v>
       </c>
@@ -5773,13 +5770,13 @@
       </c>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="46">
+      <c r="A55" s="48">
         <v>1</v>
       </c>
       <c r="B55">
         <v>16.984811100000002</v>
       </c>
-      <c r="E55" s="46"/>
+      <c r="E55" s="48"/>
       <c r="F55">
         <v>16.911504170000001</v>
       </c>
@@ -5787,13 +5784,13 @@
         <f t="shared" si="0"/>
         <v>7.3306930000001103E-2</v>
       </c>
-      <c r="K55" s="46">
+      <c r="K55" s="48">
         <v>1</v>
       </c>
       <c r="L55">
         <v>15.999292609999999</v>
       </c>
-      <c r="O55" s="45"/>
+      <c r="O55" s="47"/>
       <c r="P55">
         <v>16.43730205</v>
       </c>
@@ -5803,13 +5800,13 @@
       </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="46">
+      <c r="A56" s="48">
         <v>2</v>
       </c>
       <c r="B56">
         <v>17.834473989999999</v>
       </c>
-      <c r="E56" s="46"/>
+      <c r="E56" s="48"/>
       <c r="F56">
         <v>17.414634939999999</v>
       </c>
@@ -5817,13 +5814,13 @@
         <f t="shared" si="0"/>
         <v>0.41983905000000021</v>
       </c>
-      <c r="K56" s="46">
+      <c r="K56" s="48">
         <v>2</v>
       </c>
       <c r="L56">
         <v>12.744172409999999</v>
       </c>
-      <c r="O56" s="45"/>
+      <c r="O56" s="47"/>
       <c r="P56">
         <v>12.786046069999999</v>
       </c>
@@ -5833,13 +5830,13 @@
       </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="46">
+      <c r="A57" s="48">
         <v>3</v>
       </c>
       <c r="B57">
         <v>16.135031829999999</v>
       </c>
-      <c r="E57" s="46"/>
+      <c r="E57" s="48"/>
       <c r="F57">
         <v>14.802184820000001</v>
       </c>
@@ -5847,13 +5844,13 @@
         <f t="shared" si="0"/>
         <v>1.3328470099999983</v>
       </c>
-      <c r="K57" s="46">
+      <c r="K57" s="48">
         <v>3</v>
       </c>
       <c r="L57">
         <v>16.811919540000002</v>
       </c>
-      <c r="O57" s="45"/>
+      <c r="O57" s="47"/>
       <c r="P57">
         <v>17.67699309</v>
       </c>
@@ -5863,13 +5860,13 @@
       </c>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="46">
+      <c r="A58" s="48">
         <v>4</v>
       </c>
       <c r="B58">
         <v>16.08126901</v>
       </c>
-      <c r="E58" s="46"/>
+      <c r="E58" s="48"/>
       <c r="F58">
         <v>15.289595179999999</v>
       </c>
@@ -5877,13 +5874,13 @@
         <f t="shared" si="0"/>
         <v>0.79167383000000058</v>
       </c>
-      <c r="K58" s="46">
+      <c r="K58" s="48">
         <v>4</v>
       </c>
       <c r="L58">
         <v>16.362644840000002</v>
       </c>
-      <c r="O58" s="45"/>
+      <c r="O58" s="47"/>
       <c r="P58">
         <v>16.411158650000001</v>
       </c>
@@ -5893,13 +5890,13 @@
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="46">
+      <c r="A59" s="48">
         <v>5</v>
       </c>
       <c r="B59">
         <v>15.70367371</v>
       </c>
-      <c r="E59" s="46"/>
+      <c r="E59" s="48"/>
       <c r="F59">
         <v>14.03998354</v>
       </c>
@@ -5907,13 +5904,13 @@
         <f t="shared" si="0"/>
         <v>1.6636901700000006</v>
       </c>
-      <c r="K59" s="46">
+      <c r="K59" s="48">
         <v>5</v>
       </c>
       <c r="L59">
         <v>14.147379089999999</v>
       </c>
-      <c r="O59" s="45"/>
+      <c r="O59" s="47"/>
       <c r="P59">
         <v>15.004208569999999</v>
       </c>
@@ -5923,13 +5920,13 @@
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="46">
+      <c r="A60" s="48">
         <v>6</v>
       </c>
       <c r="B60">
         <v>11.823278009999999</v>
       </c>
-      <c r="E60" s="46"/>
+      <c r="E60" s="48"/>
       <c r="F60">
         <v>11.56579339</v>
       </c>
@@ -5937,13 +5934,13 @@
         <f t="shared" si="0"/>
         <v>0.25748461999999961</v>
       </c>
-      <c r="K60" s="46">
+      <c r="K60" s="48">
         <v>6</v>
       </c>
       <c r="L60">
         <v>11.062216449999999</v>
       </c>
-      <c r="O60" s="45"/>
+      <c r="O60" s="47"/>
       <c r="P60">
         <v>11.17687121</v>
       </c>
@@ -5953,13 +5950,13 @@
       </c>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="46">
+      <c r="A61" s="48">
         <v>7</v>
       </c>
       <c r="B61">
         <v>12.533533029999999</v>
       </c>
-      <c r="E61" s="46"/>
+      <c r="E61" s="48"/>
       <c r="F61">
         <v>12.37018511</v>
       </c>
@@ -5967,29 +5964,29 @@
         <f t="shared" si="0"/>
         <v>0.16334791999999965</v>
       </c>
-      <c r="K61" s="46">
+      <c r="K61" s="48">
         <v>7</v>
       </c>
       <c r="L61">
         <v>10.38070505</v>
       </c>
-      <c r="O61" s="45"/>
+      <c r="O61" s="47"/>
       <c r="P61">
         <v>13.2555677</v>
       </c>
-      <c r="R61" s="49">
+      <c r="R61" s="51">
         <f t="shared" si="1"/>
         <v>-2.8748626500000007</v>
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="46">
+      <c r="A62" s="48">
         <v>8</v>
       </c>
       <c r="B62">
         <v>11.13829383</v>
       </c>
-      <c r="E62" s="46"/>
+      <c r="E62" s="48"/>
       <c r="F62">
         <v>10.69949192</v>
       </c>
@@ -5997,13 +5994,13 @@
         <f t="shared" si="0"/>
         <v>0.43880191000000046</v>
       </c>
-      <c r="K62" s="46">
+      <c r="K62" s="48">
         <v>8</v>
       </c>
       <c r="L62">
         <v>8.9143461800000008</v>
       </c>
-      <c r="O62" s="45"/>
+      <c r="O62" s="47"/>
       <c r="P62">
         <v>8.9764974300000002</v>
       </c>
@@ -6013,13 +6010,13 @@
       </c>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="46">
+      <c r="A63" s="48">
         <v>9</v>
       </c>
       <c r="B63">
         <v>14.39901017</v>
       </c>
-      <c r="E63" s="46"/>
+      <c r="E63" s="48"/>
       <c r="F63">
         <v>13.32427281</v>
       </c>
@@ -6027,13 +6024,13 @@
         <f t="shared" si="0"/>
         <v>1.0747373600000003</v>
       </c>
-      <c r="K63" s="46">
+      <c r="K63" s="48">
         <v>9</v>
       </c>
       <c r="L63">
         <v>12.514503400000001</v>
       </c>
-      <c r="O63" s="45"/>
+      <c r="O63" s="47"/>
       <c r="P63">
         <v>13.502387669999999</v>
       </c>
@@ -6043,13 +6040,13 @@
       </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="46">
+      <c r="A64" s="48">
         <v>10</v>
       </c>
       <c r="B64">
         <v>16.196536900000002</v>
       </c>
-      <c r="E64" s="46"/>
+      <c r="E64" s="48"/>
       <c r="F64">
         <v>14.726820999999999</v>
       </c>
@@ -6057,13 +6054,13 @@
         <f t="shared" si="0"/>
         <v>1.4697159000000024</v>
       </c>
-      <c r="K64" s="46">
+      <c r="K64" s="48">
         <v>10</v>
       </c>
       <c r="L64">
         <v>12.84501955</v>
       </c>
-      <c r="O64" s="45"/>
+      <c r="O64" s="47"/>
       <c r="P64">
         <v>13.830009349999999</v>
       </c>
@@ -6073,13 +6070,13 @@
       </c>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="46">
+      <c r="A65" s="48">
         <v>11</v>
       </c>
       <c r="B65">
         <v>14.92710011</v>
       </c>
-      <c r="E65" s="46"/>
+      <c r="E65" s="48"/>
       <c r="F65">
         <v>14.571450219999999</v>
       </c>
@@ -6087,13 +6084,13 @@
         <f t="shared" si="0"/>
         <v>0.35564989000000047</v>
       </c>
-      <c r="K65" s="46">
+      <c r="K65" s="48">
         <v>11</v>
       </c>
       <c r="L65">
         <v>13.622384009999999</v>
       </c>
-      <c r="O65" s="45"/>
+      <c r="O65" s="47"/>
       <c r="P65">
         <v>15.86994443</v>
       </c>
@@ -6103,13 +6100,13 @@
       </c>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="46">
+      <c r="A66" s="48">
         <v>12</v>
       </c>
       <c r="B66">
         <v>7.0266052999999999</v>
       </c>
-      <c r="E66" s="46"/>
+      <c r="E66" s="48"/>
       <c r="F66">
         <v>8.5839478899999992</v>
       </c>
@@ -6117,13 +6114,13 @@
         <f t="shared" si="0"/>
         <v>-1.5573425899999993</v>
       </c>
-      <c r="K66" s="46">
+      <c r="K66" s="48">
         <v>12</v>
       </c>
       <c r="L66">
         <v>9.9372293000000003</v>
       </c>
-      <c r="O66" s="45"/>
+      <c r="O66" s="47"/>
       <c r="P66">
         <v>8.0241609399999998</v>
       </c>
@@ -6133,27 +6130,27 @@
       </c>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="46">
+      <c r="A67" s="48">
         <v>13</v>
       </c>
       <c r="B67">
         <v>15.42821034</v>
       </c>
-      <c r="E67" s="46"/>
+      <c r="E67" s="48"/>
       <c r="F67">
         <v>13.529932909999999</v>
       </c>
-      <c r="H67" s="49">
+      <c r="H67" s="51">
         <f t="shared" ref="H67:H104" si="2">B67-F67</f>
         <v>1.8982774300000003</v>
       </c>
-      <c r="K67" s="46">
+      <c r="K67" s="48">
         <v>13</v>
       </c>
       <c r="L67">
         <v>14.632329929999999</v>
       </c>
-      <c r="O67" s="45"/>
+      <c r="O67" s="47"/>
       <c r="P67">
         <v>15.804578319999999</v>
       </c>
@@ -6163,13 +6160,13 @@
       </c>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="46">
+      <c r="A68" s="48">
         <v>14</v>
       </c>
       <c r="B68">
         <v>17.333534119999999</v>
       </c>
-      <c r="E68" s="46"/>
+      <c r="E68" s="48"/>
       <c r="F68">
         <v>17.448748940000002</v>
       </c>
@@ -6177,13 +6174,13 @@
         <f t="shared" si="2"/>
         <v>-0.11521482000000205</v>
       </c>
-      <c r="K68" s="46">
+      <c r="K68" s="48">
         <v>14</v>
       </c>
       <c r="L68">
         <v>12.365217060000001</v>
       </c>
-      <c r="O68" s="45"/>
+      <c r="O68" s="47"/>
       <c r="P68">
         <v>12.16770034</v>
       </c>
@@ -6193,13 +6190,13 @@
       </c>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="46">
+      <c r="A69" s="48">
         <v>15</v>
       </c>
       <c r="B69">
         <v>16.76117507</v>
       </c>
-      <c r="E69" s="46"/>
+      <c r="E69" s="48"/>
       <c r="F69">
         <v>17.28481996</v>
       </c>
@@ -6207,13 +6204,13 @@
         <f t="shared" si="2"/>
         <v>-0.52364488999999992</v>
       </c>
-      <c r="K69" s="46">
+      <c r="K69" s="48">
         <v>15</v>
       </c>
       <c r="L69">
         <v>17.04340728</v>
       </c>
-      <c r="O69" s="45"/>
+      <c r="O69" s="47"/>
       <c r="P69">
         <v>16.917431610000001</v>
       </c>
@@ -6223,13 +6220,13 @@
       </c>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="46">
+      <c r="A70" s="48">
         <v>16</v>
       </c>
       <c r="B70">
         <v>17.597083300000001</v>
       </c>
-      <c r="E70" s="46"/>
+      <c r="E70" s="48"/>
       <c r="F70">
         <v>18.27059921</v>
       </c>
@@ -6237,13 +6234,13 @@
         <f t="shared" si="2"/>
         <v>-0.673515909999999</v>
       </c>
-      <c r="K70" s="46">
+      <c r="K70" s="48">
         <v>16</v>
       </c>
       <c r="L70">
         <v>17.516569499999999</v>
       </c>
-      <c r="O70" s="45"/>
+      <c r="O70" s="47"/>
       <c r="P70">
         <v>17.868231699999999</v>
       </c>
@@ -6253,13 +6250,13 @@
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="46">
+      <c r="A71" s="48">
         <v>17</v>
       </c>
       <c r="B71">
         <v>13.116886060000001</v>
       </c>
-      <c r="E71" s="46"/>
+      <c r="E71" s="48"/>
       <c r="F71">
         <v>11.937784130000001</v>
       </c>
@@ -6267,13 +6264,13 @@
         <f t="shared" si="2"/>
         <v>1.1791019299999999</v>
       </c>
-      <c r="K71" s="46">
+      <c r="K71" s="48">
         <v>17</v>
       </c>
       <c r="L71">
         <v>11.156889769999999</v>
       </c>
-      <c r="O71" s="45"/>
+      <c r="O71" s="47"/>
       <c r="P71">
         <v>10.47701021</v>
       </c>
@@ -6283,13 +6280,13 @@
       </c>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="46">
+      <c r="A72" s="48">
         <v>18</v>
       </c>
       <c r="B72">
         <v>11.139037679999999</v>
       </c>
-      <c r="E72" s="46"/>
+      <c r="E72" s="48"/>
       <c r="F72">
         <v>12.42079468</v>
       </c>
@@ -6297,13 +6294,13 @@
         <f t="shared" si="2"/>
         <v>-1.2817570000000007</v>
       </c>
-      <c r="K72" s="46">
+      <c r="K72" s="48">
         <v>18</v>
       </c>
       <c r="L72">
         <v>15.66869423</v>
       </c>
-      <c r="O72" s="45"/>
+      <c r="O72" s="47"/>
       <c r="P72">
         <v>15.470453259999999</v>
       </c>
@@ -6313,13 +6310,13 @@
       </c>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="46">
+      <c r="A73" s="48">
         <v>19</v>
       </c>
       <c r="B73">
         <v>12.84408221</v>
       </c>
-      <c r="E73" s="46"/>
+      <c r="E73" s="48"/>
       <c r="F73">
         <v>11.91991133</v>
       </c>
@@ -6327,13 +6324,13 @@
         <f t="shared" si="2"/>
         <v>0.92417088000000014</v>
       </c>
-      <c r="K73" s="46">
+      <c r="K73" s="48">
         <v>19</v>
       </c>
       <c r="L73">
         <v>15.60675983</v>
       </c>
-      <c r="O73" s="45"/>
+      <c r="O73" s="47"/>
       <c r="P73">
         <v>15.41740935</v>
       </c>
@@ -6343,13 +6340,13 @@
       </c>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="46">
+      <c r="A74" s="48">
         <v>20</v>
       </c>
       <c r="B74">
         <v>11.10566867</v>
       </c>
-      <c r="E74" s="46"/>
+      <c r="E74" s="48"/>
       <c r="F74">
         <v>9.2368475599999993</v>
       </c>
@@ -6357,13 +6354,13 @@
         <f t="shared" si="2"/>
         <v>1.8688211100000007</v>
       </c>
-      <c r="K74" s="46">
+      <c r="K74" s="48">
         <v>20</v>
       </c>
       <c r="L74">
         <v>14.27551137</v>
       </c>
-      <c r="O74" s="45"/>
+      <c r="O74" s="47"/>
       <c r="P74">
         <v>14.130357119999999</v>
       </c>
@@ -6373,13 +6370,13 @@
       </c>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="46">
+      <c r="A75" s="48">
         <v>21</v>
       </c>
       <c r="B75">
         <v>13.69334649</v>
       </c>
-      <c r="E75" s="46"/>
+      <c r="E75" s="48"/>
       <c r="F75">
         <v>12.732620450000001</v>
       </c>
@@ -6387,13 +6384,13 @@
         <f t="shared" si="2"/>
         <v>0.96072603999999906</v>
       </c>
-      <c r="K75" s="46">
+      <c r="K75" s="48">
         <v>21</v>
       </c>
       <c r="L75">
         <v>14.84813799</v>
       </c>
-      <c r="O75" s="45"/>
+      <c r="O75" s="47"/>
       <c r="P75">
         <v>14.755072200000001</v>
       </c>
@@ -6403,13 +6400,13 @@
       </c>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="46">
+      <c r="A76" s="48">
         <v>22</v>
       </c>
       <c r="B76">
         <v>12.90203953</v>
       </c>
-      <c r="E76" s="46"/>
+      <c r="E76" s="48"/>
       <c r="F76">
         <v>11.61072023</v>
       </c>
@@ -6417,13 +6414,13 @@
         <f t="shared" si="2"/>
         <v>1.2913192999999996</v>
       </c>
-      <c r="K76" s="46">
+      <c r="K76" s="48">
         <v>22</v>
       </c>
       <c r="L76">
         <v>12.801867379999999</v>
       </c>
-      <c r="O76" s="45"/>
+      <c r="O76" s="47"/>
       <c r="P76">
         <v>12.688019710000001</v>
       </c>
@@ -6433,13 +6430,13 @@
       </c>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="46">
+      <c r="A77" s="48">
         <v>23</v>
       </c>
       <c r="B77">
         <v>22.75987194</v>
       </c>
-      <c r="E77" s="46"/>
+      <c r="E77" s="48"/>
       <c r="F77">
         <v>22.61503948</v>
       </c>
@@ -6447,13 +6444,13 @@
         <f t="shared" si="2"/>
         <v>0.14483245999999994</v>
       </c>
-      <c r="K77" s="46">
+      <c r="K77" s="48">
         <v>23</v>
       </c>
       <c r="L77">
         <v>13.80809438</v>
       </c>
-      <c r="O77" s="45"/>
+      <c r="O77" s="47"/>
       <c r="P77">
         <v>13.69115086</v>
       </c>
@@ -6463,13 +6460,13 @@
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="46">
+      <c r="A78" s="48">
         <v>24</v>
       </c>
       <c r="B78">
         <v>23.511607009999999</v>
       </c>
-      <c r="E78" s="46"/>
+      <c r="E78" s="48"/>
       <c r="F78">
         <v>23.421590070000001</v>
       </c>
@@ -6477,13 +6474,13 @@
         <f t="shared" si="2"/>
         <v>9.0016939999998158E-2</v>
       </c>
-      <c r="K78" s="46">
+      <c r="K78" s="48">
         <v>24</v>
       </c>
       <c r="L78">
         <v>13.90358601</v>
       </c>
-      <c r="O78" s="45"/>
+      <c r="O78" s="47"/>
       <c r="P78">
         <v>14.484954439999999</v>
       </c>
@@ -6493,20 +6490,20 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="46" t="s">
+      <c r="A79" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="46" t="s">
+      <c r="E79" s="48" t="s">
         <v>121</v>
       </c>
       <c r="H79" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K79" s="46" t="s">
+      <c r="K79" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="O79" s="45" t="s">
+      <c r="O79" s="47" t="s">
         <v>121</v>
       </c>
       <c r="R79" s="23">
@@ -6515,13 +6512,13 @@
       </c>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="46">
+      <c r="A80" s="48">
         <v>0</v>
       </c>
       <c r="B80">
         <v>9.8978204600000002</v>
       </c>
-      <c r="E80" s="46"/>
+      <c r="E80" s="48"/>
       <c r="F80">
         <v>9.9492836199999992</v>
       </c>
@@ -6529,13 +6526,13 @@
         <f t="shared" si="2"/>
         <v>-5.1463159999999064E-2</v>
       </c>
-      <c r="K80" s="46">
+      <c r="K80" s="48">
         <v>0</v>
       </c>
       <c r="L80">
         <v>10.32969113</v>
       </c>
-      <c r="O80" s="45"/>
+      <c r="O80" s="47"/>
       <c r="P80">
         <v>10.45320761</v>
       </c>
@@ -6545,13 +6542,13 @@
       </c>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="46">
+      <c r="A81" s="48">
         <v>1</v>
       </c>
       <c r="B81">
         <v>5.5971375500000002</v>
       </c>
-      <c r="E81" s="46"/>
+      <c r="E81" s="48"/>
       <c r="F81">
         <v>5.3081339500000002</v>
       </c>
@@ -6559,13 +6556,13 @@
         <f t="shared" si="2"/>
         <v>0.28900360000000003</v>
       </c>
-      <c r="K81" s="46">
+      <c r="K81" s="48">
         <v>1</v>
       </c>
       <c r="L81">
         <v>9.7432551299999997</v>
       </c>
-      <c r="O81" s="45"/>
+      <c r="O81" s="47"/>
       <c r="P81">
         <v>10.31808258</v>
       </c>
@@ -6575,13 +6572,13 @@
       </c>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="46">
+      <c r="A82" s="48">
         <v>2</v>
       </c>
       <c r="B82">
         <v>6.5201208599999996</v>
       </c>
-      <c r="E82" s="46"/>
+      <c r="E82" s="48"/>
       <c r="F82">
         <v>6.2992357800000001</v>
       </c>
@@ -6589,13 +6586,13 @@
         <f t="shared" si="2"/>
         <v>0.22088507999999951</v>
       </c>
-      <c r="K82" s="46">
+      <c r="K82" s="48">
         <v>2</v>
       </c>
       <c r="L82">
         <v>7.1008437899999999</v>
       </c>
-      <c r="O82" s="45"/>
+      <c r="O82" s="47"/>
       <c r="P82">
         <v>6.7556733700000002</v>
       </c>
@@ -6605,13 +6602,13 @@
       </c>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="46">
+      <c r="A83" s="48">
         <v>3</v>
       </c>
       <c r="B83">
         <v>8.4167369099999991</v>
       </c>
-      <c r="E83" s="46"/>
+      <c r="E83" s="48"/>
       <c r="F83">
         <v>7.24576201</v>
       </c>
@@ -6619,13 +6616,13 @@
         <f t="shared" si="2"/>
         <v>1.1709748999999992</v>
       </c>
-      <c r="K83" s="46">
+      <c r="K83" s="48">
         <v>3</v>
       </c>
       <c r="L83">
         <v>14.92539448</v>
       </c>
-      <c r="O83" s="45"/>
+      <c r="O83" s="47"/>
       <c r="P83">
         <v>15.27999299</v>
       </c>
@@ -6635,13 +6632,13 @@
       </c>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="46">
+      <c r="A84" s="48">
         <v>4</v>
       </c>
       <c r="B84">
         <v>7.2574370899999998</v>
       </c>
-      <c r="E84" s="46"/>
+      <c r="E84" s="48"/>
       <c r="F84">
         <v>6.9982964399999998</v>
       </c>
@@ -6649,13 +6646,13 @@
         <f t="shared" si="2"/>
         <v>0.25914064999999997</v>
       </c>
-      <c r="K84" s="46">
+      <c r="K84" s="48">
         <v>4</v>
       </c>
       <c r="L84">
         <v>8.1427087799999995</v>
       </c>
-      <c r="O84" s="45"/>
+      <c r="O84" s="47"/>
       <c r="P84">
         <v>8.1783518799999992</v>
       </c>
@@ -6665,13 +6662,13 @@
       </c>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="46">
+      <c r="A85" s="48">
         <v>5</v>
       </c>
       <c r="B85">
         <v>8.6325564900000007</v>
       </c>
-      <c r="E85" s="46"/>
+      <c r="E85" s="48"/>
       <c r="F85">
         <v>7.9542932300000002</v>
       </c>
@@ -6679,13 +6676,13 @@
         <f t="shared" si="2"/>
         <v>0.67826326000000048</v>
       </c>
-      <c r="K85" s="46">
+      <c r="K85" s="48">
         <v>5</v>
       </c>
       <c r="L85">
         <v>10.65931965</v>
       </c>
-      <c r="O85" s="45"/>
+      <c r="O85" s="47"/>
       <c r="P85">
         <v>11.621568419999999</v>
       </c>
@@ -6695,13 +6692,13 @@
       </c>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="46">
+      <c r="A86" s="48">
         <v>6</v>
       </c>
       <c r="B86">
         <v>8.1944108</v>
       </c>
-      <c r="E86" s="46"/>
+      <c r="E86" s="48"/>
       <c r="F86">
         <v>8.4473493699999995</v>
       </c>
@@ -6709,13 +6706,13 @@
         <f t="shared" si="2"/>
         <v>-0.25293856999999953</v>
       </c>
-      <c r="K86" s="46">
+      <c r="K86" s="48">
         <v>6</v>
       </c>
       <c r="L86">
         <v>8.7954291199999997</v>
       </c>
-      <c r="O86" s="45"/>
+      <c r="O86" s="47"/>
       <c r="P86">
         <v>8.5996253599999992</v>
       </c>
@@ -6725,13 +6722,13 @@
       </c>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="46">
+      <c r="A87" s="48">
         <v>7</v>
       </c>
       <c r="B87">
         <v>5.2453700799999998</v>
       </c>
-      <c r="E87" s="46"/>
+      <c r="E87" s="48"/>
       <c r="F87">
         <v>5.1482503800000003</v>
       </c>
@@ -6739,13 +6736,13 @@
         <f t="shared" si="2"/>
         <v>9.7119699999999476E-2</v>
       </c>
-      <c r="K87" s="46">
+      <c r="K87" s="48">
         <v>7</v>
       </c>
       <c r="L87">
         <v>6.7809674700000002</v>
       </c>
-      <c r="O87" s="45"/>
+      <c r="O87" s="47"/>
       <c r="P87">
         <v>9.0078364499999992</v>
       </c>
@@ -6755,13 +6752,13 @@
       </c>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="46">
+      <c r="A88" s="48">
         <v>8</v>
       </c>
       <c r="B88">
         <v>3.1948744100000002</v>
       </c>
-      <c r="E88" s="46"/>
+      <c r="E88" s="48"/>
       <c r="F88">
         <v>3.0400695799999999</v>
       </c>
@@ -6769,13 +6766,13 @@
         <f t="shared" si="2"/>
         <v>0.15480483000000023</v>
       </c>
-      <c r="K88" s="46">
+      <c r="K88" s="48">
         <v>8</v>
       </c>
       <c r="L88">
         <v>6.8500126799999999</v>
       </c>
-      <c r="O88" s="45"/>
+      <c r="O88" s="47"/>
       <c r="P88">
         <v>6.8265532200000001</v>
       </c>
@@ -6785,13 +6782,13 @@
       </c>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="46">
+      <c r="A89" s="48">
         <v>9</v>
       </c>
       <c r="B89">
         <v>6.6281594300000002</v>
       </c>
-      <c r="E89" s="46"/>
+      <c r="E89" s="48"/>
       <c r="F89">
         <v>6.2076995300000002</v>
       </c>
@@ -6799,13 +6796,13 @@
         <f t="shared" si="2"/>
         <v>0.4204599</v>
       </c>
-      <c r="K89" s="46">
+      <c r="K89" s="48">
         <v>9</v>
       </c>
       <c r="L89">
         <v>8.7385080199999994</v>
       </c>
-      <c r="O89" s="45"/>
+      <c r="O89" s="47"/>
       <c r="P89">
         <v>9.4001009599999996</v>
       </c>
@@ -6815,13 +6812,13 @@
       </c>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="46">
+      <c r="A90" s="48">
         <v>10</v>
       </c>
       <c r="B90">
         <v>6.2521519999999997</v>
       </c>
-      <c r="E90" s="46"/>
+      <c r="E90" s="48"/>
       <c r="F90">
         <v>5.5127646800000001</v>
       </c>
@@ -6829,13 +6826,13 @@
         <f t="shared" si="2"/>
         <v>0.73938731999999963</v>
       </c>
-      <c r="K90" s="46">
+      <c r="K90" s="48">
         <v>10</v>
       </c>
       <c r="L90">
         <v>5.8588538899999998</v>
       </c>
-      <c r="O90" s="45"/>
+      <c r="O90" s="47"/>
       <c r="P90">
         <v>6.1372306700000001</v>
       </c>
@@ -6845,13 +6842,13 @@
       </c>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="46">
+      <c r="A91" s="48">
         <v>11</v>
       </c>
       <c r="B91">
         <v>6.4179692700000004</v>
       </c>
-      <c r="E91" s="46"/>
+      <c r="E91" s="48"/>
       <c r="F91">
         <v>6.2505107600000001</v>
       </c>
@@ -6859,13 +6856,13 @@
         <f t="shared" si="2"/>
         <v>0.16745851000000034</v>
       </c>
-      <c r="K91" s="46">
+      <c r="K91" s="48">
         <v>11</v>
       </c>
       <c r="L91">
         <v>4.1764069599999996</v>
       </c>
-      <c r="O91" s="45"/>
+      <c r="O91" s="47"/>
       <c r="P91">
         <v>6.0446812799999998</v>
       </c>
@@ -6875,13 +6872,13 @@
       </c>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="46">
+      <c r="A92" s="48">
         <v>12</v>
       </c>
       <c r="B92">
         <v>5.5913477299999998</v>
       </c>
-      <c r="E92" s="46"/>
+      <c r="E92" s="48"/>
       <c r="F92">
         <v>7.0658940399999999</v>
       </c>
@@ -6889,13 +6886,13 @@
         <f t="shared" si="2"/>
         <v>-1.47454631</v>
       </c>
-      <c r="K92" s="46">
+      <c r="K92" s="48">
         <v>12</v>
       </c>
       <c r="L92">
         <v>7.51471906</v>
       </c>
-      <c r="O92" s="45"/>
+      <c r="O92" s="47"/>
       <c r="P92">
         <v>5.4159035500000003</v>
       </c>
@@ -6905,13 +6902,13 @@
       </c>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="46">
+      <c r="A93" s="48">
         <v>13</v>
       </c>
       <c r="B93">
         <v>3.5496597599999999</v>
       </c>
-      <c r="E93" s="46"/>
+      <c r="E93" s="48"/>
       <c r="F93">
         <v>1.9275180000000001</v>
       </c>
@@ -6919,13 +6916,13 @@
         <f t="shared" si="2"/>
         <v>1.6221417599999999</v>
       </c>
-      <c r="K93" s="46">
+      <c r="K93" s="48">
         <v>13</v>
       </c>
       <c r="L93">
         <v>8.2826728299999992</v>
       </c>
-      <c r="O93" s="45"/>
+      <c r="O93" s="47"/>
       <c r="P93">
         <v>9.1110722899999992</v>
       </c>
@@ -6935,13 +6932,13 @@
       </c>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="46">
+      <c r="A94" s="48">
         <v>14</v>
       </c>
       <c r="B94">
         <v>18.114820659999999</v>
       </c>
-      <c r="E94" s="46"/>
+      <c r="E94" s="48"/>
       <c r="F94">
         <v>18.465486640000002</v>
       </c>
@@ -6949,13 +6946,13 @@
         <f t="shared" si="2"/>
         <v>-0.35066598000000226</v>
       </c>
-      <c r="K94" s="46">
+      <c r="K94" s="48">
         <v>14</v>
       </c>
       <c r="L94">
         <v>6.9757158099999996</v>
       </c>
-      <c r="O94" s="45"/>
+      <c r="O94" s="47"/>
       <c r="P94">
         <v>6.3273572800000002</v>
       </c>
@@ -6965,13 +6962,13 @@
       </c>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="46">
+      <c r="A95" s="48">
         <v>15</v>
       </c>
       <c r="B95">
         <v>7.8747682000000001</v>
       </c>
-      <c r="E95" s="46"/>
+      <c r="E95" s="48"/>
       <c r="F95">
         <v>8.5440622099999999</v>
       </c>
@@ -6979,13 +6976,13 @@
         <f t="shared" si="2"/>
         <v>-0.66929400999999977</v>
       </c>
-      <c r="K95" s="46">
+      <c r="K95" s="48">
         <v>15</v>
       </c>
       <c r="L95">
         <v>10.1306364</v>
       </c>
-      <c r="O95" s="45"/>
+      <c r="O95" s="47"/>
       <c r="P95">
         <v>10.00253981</v>
       </c>
@@ -6995,13 +6992,13 @@
       </c>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="46">
+      <c r="A96" s="48">
         <v>16</v>
       </c>
       <c r="B96">
         <v>6.7728481</v>
       </c>
-      <c r="E96" s="46"/>
+      <c r="E96" s="48"/>
       <c r="F96">
         <v>7.5876295999999996</v>
       </c>
@@ -7009,13 +7006,13 @@
         <f t="shared" si="2"/>
         <v>-0.8147814999999996</v>
       </c>
-      <c r="K96" s="46">
+      <c r="K96" s="48">
         <v>16</v>
       </c>
       <c r="L96">
         <v>8.4629904000000007</v>
       </c>
-      <c r="O96" s="45"/>
+      <c r="O96" s="47"/>
       <c r="P96">
         <v>9.12488031</v>
       </c>
@@ -7025,13 +7022,13 @@
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="46">
+      <c r="A97" s="48">
         <v>17</v>
       </c>
       <c r="B97">
         <v>8.2422781199999999</v>
       </c>
-      <c r="E97" s="46"/>
+      <c r="E97" s="48"/>
       <c r="F97">
         <v>7.1373774699999997</v>
       </c>
@@ -7039,13 +7036,13 @@
         <f t="shared" si="2"/>
         <v>1.1049006500000003</v>
       </c>
-      <c r="K97" s="46">
+      <c r="K97" s="48">
         <v>17</v>
       </c>
       <c r="L97">
         <v>4.7731310499999999</v>
       </c>
-      <c r="O97" s="45"/>
+      <c r="O97" s="47"/>
       <c r="P97">
         <v>5.1909081199999996</v>
       </c>
@@ -7055,13 +7052,13 @@
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="46">
+      <c r="A98" s="48">
         <v>18</v>
       </c>
       <c r="B98">
         <v>4.9300841499999999</v>
       </c>
-      <c r="E98" s="46"/>
+      <c r="E98" s="48"/>
       <c r="F98">
         <v>6.8585125299999996</v>
       </c>
@@ -7069,13 +7066,13 @@
         <f t="shared" si="2"/>
         <v>-1.9284283799999997</v>
       </c>
-      <c r="K98" s="46">
+      <c r="K98" s="48">
         <v>18</v>
       </c>
       <c r="L98">
         <v>6.7811967400000004</v>
       </c>
-      <c r="O98" s="45"/>
+      <c r="O98" s="47"/>
       <c r="P98">
         <v>6.6958217800000002</v>
       </c>
@@ -7085,13 +7082,13 @@
       </c>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="46">
+      <c r="A99" s="48">
         <v>19</v>
       </c>
       <c r="B99">
         <v>5.2237490900000001</v>
       </c>
-      <c r="E99" s="46"/>
+      <c r="E99" s="48"/>
       <c r="F99">
         <v>4.8662689700000001</v>
       </c>
@@ -7099,13 +7096,13 @@
         <f t="shared" si="2"/>
         <v>0.35748011999999996</v>
       </c>
-      <c r="K99" s="46">
+      <c r="K99" s="48">
         <v>19</v>
       </c>
       <c r="L99">
         <v>5.5608605500000001</v>
       </c>
-      <c r="O99" s="45"/>
+      <c r="O99" s="47"/>
       <c r="P99">
         <v>5.1364515400000004</v>
       </c>
@@ -7115,13 +7112,13 @@
       </c>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="46">
+      <c r="A100" s="48">
         <v>20</v>
       </c>
       <c r="B100">
         <v>6.0626786900000003</v>
       </c>
-      <c r="E100" s="46"/>
+      <c r="E100" s="48"/>
       <c r="F100">
         <v>4.9211780799999998</v>
       </c>
@@ -7129,13 +7126,13 @@
         <f t="shared" si="2"/>
         <v>1.1415006100000005</v>
       </c>
-      <c r="K100" s="46">
+      <c r="K100" s="48">
         <v>20</v>
       </c>
       <c r="L100">
         <v>14.17107611</v>
       </c>
-      <c r="O100" s="45"/>
+      <c r="O100" s="47"/>
       <c r="P100">
         <v>14.120597549999999</v>
       </c>
@@ -7145,13 +7142,13 @@
       </c>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="46">
+      <c r="A101" s="48">
         <v>21</v>
       </c>
       <c r="B101">
         <v>8.4616545199999997</v>
       </c>
-      <c r="E101" s="46"/>
+      <c r="E101" s="48"/>
       <c r="F101">
         <v>7.8103992499999997</v>
       </c>
@@ -7159,13 +7156,13 @@
         <f t="shared" si="2"/>
         <v>0.65125527000000005</v>
       </c>
-      <c r="K101" s="46">
+      <c r="K101" s="48">
         <v>21</v>
       </c>
       <c r="L101">
         <v>12.788889729999999</v>
       </c>
-      <c r="O101" s="45"/>
+      <c r="O101" s="47"/>
       <c r="P101">
         <v>12.59382123</v>
       </c>
@@ -7175,13 +7172,13 @@
       </c>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="46">
+      <c r="A102" s="48">
         <v>22</v>
       </c>
       <c r="B102">
         <v>8.1267417000000002</v>
       </c>
-      <c r="E102" s="46"/>
+      <c r="E102" s="48"/>
       <c r="F102">
         <v>7.4475896700000002</v>
       </c>
@@ -7189,13 +7186,13 @@
         <f t="shared" si="2"/>
         <v>0.67915203000000002</v>
       </c>
-      <c r="K102" s="46">
+      <c r="K102" s="48">
         <v>22</v>
       </c>
       <c r="L102">
         <v>12.51526653</v>
       </c>
-      <c r="O102" s="45"/>
+      <c r="O102" s="47"/>
       <c r="P102">
         <v>12.49141058</v>
       </c>
@@ -7205,13 +7202,13 @@
       </c>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="46">
+      <c r="A103" s="48">
         <v>23</v>
       </c>
       <c r="B103">
         <v>4.17127933</v>
       </c>
-      <c r="E103" s="46"/>
+      <c r="E103" s="48"/>
       <c r="F103">
         <v>3.9954557099999999</v>
       </c>
@@ -7219,13 +7216,13 @@
         <f t="shared" si="2"/>
         <v>0.17582362000000007</v>
       </c>
-      <c r="K103" s="46">
+      <c r="K103" s="48">
         <v>23</v>
       </c>
       <c r="L103">
         <v>6.5042522299999996</v>
       </c>
-      <c r="O103" s="45"/>
+      <c r="O103" s="47"/>
       <c r="P103">
         <v>6.2895906799999999</v>
       </c>
@@ -7235,13 +7232,13 @@
       </c>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="46">
+      <c r="A104" s="48">
         <v>24</v>
       </c>
       <c r="B104">
         <v>5.0628215900000004</v>
       </c>
-      <c r="E104" s="46"/>
+      <c r="E104" s="48"/>
       <c r="F104">
         <v>5.0888711999999998</v>
       </c>
@@ -7249,13 +7246,13 @@
         <f t="shared" si="2"/>
         <v>-2.604960999999939E-2</v>
       </c>
-      <c r="K104" s="46">
+      <c r="K104" s="48">
         <v>24</v>
       </c>
       <c r="L104">
         <v>7.1700338500000003</v>
       </c>
-      <c r="O104" s="45"/>
+      <c r="O104" s="47"/>
       <c r="P104">
         <v>7.1657009499999997</v>
       </c>
@@ -7265,13 +7262,13 @@
       </c>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="48"/>
+      <c r="A105" s="50"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="47"/>
+      <c r="A106" s="49"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="48"/>
+      <c r="A107" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7359,10 +7356,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF23902-3816-4B4E-83CE-581E9B6C3F52}">
-  <dimension ref="B1:K18"/>
+  <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7397,7 +7394,7 @@
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="60" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -7420,7 +7417,7 @@
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="57"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="9" t="s">
         <v>84</v>
       </c>
@@ -7441,7 +7438,7 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="60" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -7464,7 +7461,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="58"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="17" t="s">
         <v>84</v>
       </c>
@@ -7486,29 +7483,29 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:11">
-      <c r="B10" s="43"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="59" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="59" t="s">
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="41" t="s">
         <v>118</v>
       </c>
       <c r="E11" s="17" t="s">
@@ -7517,10 +7514,10 @@
       <c r="F11" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="41" t="s">
         <v>118</v>
       </c>
       <c r="I11" s="17" t="s">
@@ -7529,50 +7526,50 @@
       <c r="J11" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="40" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="55">
         <v>1.96897126794523</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="56">
         <v>3.4602999071115099</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="56">
         <v>14.6053919825485</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="57" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="53">
         <v>2.5172597916725101E-3</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="33">
         <v>11.812966277372</v>
       </c>
       <c r="E13" s="10">
@@ -7581,10 +7578,10 @@
       <c r="F13" s="10">
         <v>13.6182460783909</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="34">
         <v>8.1368781707219107</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="30" t="s">
         <v>122</v>
       </c>
       <c r="I13" s="24" t="s">
@@ -7598,13 +7595,13 @@
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="53">
         <v>1.2416653778368101E-3</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="33">
         <v>12.0679709489517</v>
       </c>
       <c r="E14" s="10">
@@ -7613,10 +7610,10 @@
       <c r="F14" s="10">
         <v>14.1431827932181</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="34">
         <v>8.3918828423015999</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="31">
         <f>(D14-D$13)/D$13</f>
         <v>2.1586844962739542E-2</v>
       </c>
@@ -7634,13 +7631,13 @@
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="53">
         <v>1.2367894384974099E-3</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="33">
         <v>12.0501735388866</v>
       </c>
       <c r="E15" s="10">
@@ -7649,10 +7646,10 @@
       <c r="F15" s="10">
         <v>14.0762430723527</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="34">
         <v>8.3740854322365994</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="31">
         <f>(D15-D$13)/D$13</f>
         <v>2.0080245379941169E-2</v>
       </c>
@@ -7670,13 +7667,13 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="53">
         <v>0.16524580917679299</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="33">
         <v>11.524378679359</v>
       </c>
       <c r="E16" s="10">
@@ -7685,10 +7682,10 @@
       <c r="F16" s="10">
         <v>12.516035605725399</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="34">
         <v>7.8482905727088497</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="31">
         <f>(D16-D$13)/D$13</f>
         <v>-2.4429731807987683E-2</v>
       </c>
@@ -7706,43 +7703,57 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="54">
         <v>0.108961390961821</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="35">
         <v>11.3704568974146</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="18">
         <v>15.2321663577236</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="18">
         <v>14.063181415601001</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="36">
         <v>7.6943687907646003</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="32">
         <f>(D17-D$13)/D$13</f>
         <v>-3.7459632878579917E-2</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="28">
         <f t="shared" ref="I17" si="7">(E17-E$13)/E$13</f>
         <v>-0.11397079749214027</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="28">
         <f t="shared" ref="J17" si="8">(F17-F$13)/F$13</f>
         <v>3.2672000098170742E-2</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="29">
         <f t="shared" ref="K17" si="9">(G17-G$13)/G$13</f>
         <v>-5.4383188573419491E-2</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="42" t="s">
         <v>125</v>
       </c>
     </row>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E31DEDB9-E30D-4F45-AA40-98D5306087B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{15F8970A-0F7D-47A8-8B0C-1809C4F5A997}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3990" windowHeight="4260" activeTab="2" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="140">
   <si>
     <t>Experiment</t>
   </si>
@@ -375,9 +375,6 @@
     <t>Magnitude, Real &amp; Imaginary</t>
   </si>
   <si>
-    <t>U-Net with mag_phase</t>
-  </si>
-  <si>
     <t>U-Net with mag_phase_diff</t>
   </si>
   <si>
@@ -427,6 +424,30 @@
   </si>
   <si>
     <t>Magnitude, Phase, Real &amp; Imaginary</t>
+  </si>
+  <si>
+    <t>U-Net with mag_phase_real_imag</t>
+  </si>
+  <si>
+    <t>* check how these corelate with one another</t>
+  </si>
+  <si>
+    <t>U-Net with mag_phase, phase weight 0.00002</t>
+  </si>
+  <si>
+    <t>U-Net with mag_phase, phase weight 0.00001</t>
+  </si>
+  <si>
+    <t>U-Net with mag_phase, phase weight 0.000005</t>
+  </si>
+  <si>
+    <t>U-Net with mag_phase2, phase weight 0.00001</t>
+  </si>
+  <si>
+    <t>Load network 169 and test with griffin-lim iters=10</t>
+  </si>
+  <si>
+    <t>Magnitude &amp; Phase x2</t>
   </si>
 </sst>
 </file>
@@ -506,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -818,22 +839,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -914,10 +924,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -935,16 +951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,7 +993,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>108</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -1037,7 +1043,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>923925</xdr:colOff>
+          <xdr:colOff>847725</xdr:colOff>
           <xdr:row>108</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
@@ -1426,11 +1432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D130" sqref="D130:H130"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D134" sqref="D134:H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1607,7 +1613,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="60" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -1633,7 +1639,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="59"/>
+      <c r="B10" s="60"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -1654,10 +1660,10 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="58">
+      <c r="A11" s="61">
         <v>43367</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="60">
         <v>50</v>
       </c>
       <c r="C11">
@@ -1683,8 +1689,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="60"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -1708,10 +1714,10 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="58">
+      <c r="A13" s="61">
         <v>43368</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="60">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -1732,13 +1738,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="60" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="60"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -1757,13 +1763,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="59"/>
+      <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="58">
+      <c r="A15" s="61">
         <v>43369</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="60">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1784,13 +1790,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="60" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="60"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1809,11 +1815,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="59"/>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1832,11 +1838,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="59"/>
+      <c r="I17" s="60"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="60"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1855,13 +1861,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="59"/>
+      <c r="I18" s="60"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="58">
+      <c r="A19" s="61">
         <v>43370</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="60">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1882,13 +1888,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="60"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1907,13 +1913,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="59"/>
+      <c r="I20" s="60"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="58">
+      <c r="A21" s="61">
         <v>43373</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B21" s="60">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -1934,13 +1940,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="60" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="60"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1959,11 +1965,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="59"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="60"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1982,11 +1988,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="59"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="60"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -2005,7 +2011,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="59"/>
+      <c r="I24" s="60"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
@@ -2055,10 +2061,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="58">
+      <c r="A29" s="61">
         <v>43374</v>
       </c>
-      <c r="B29" s="59">
+      <c r="B29" s="60">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -2079,13 +2085,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="60" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="60"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2104,11 +2110,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="59"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="60"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2127,11 +2133,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="59"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="60"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -2150,13 +2156,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="59"/>
+      <c r="I32" s="60"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="58">
+      <c r="A33" s="61">
         <v>43374</v>
       </c>
-      <c r="B33" s="59">
+      <c r="B33" s="60">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -2177,13 +2183,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="60" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="60"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -2202,13 +2208,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="59"/>
+      <c r="I34" s="60"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="58">
+      <c r="A35" s="61">
         <v>43375</v>
       </c>
-      <c r="B35" s="59">
+      <c r="B35" s="60">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -2229,13 +2235,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="59" t="s">
+      <c r="I35" s="60" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="60"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -2254,11 +2260,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="59"/>
+      <c r="I36" s="60"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="58"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="60"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -2277,11 +2283,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="59"/>
+      <c r="I37" s="60"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="58"/>
-      <c r="B38" s="59"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="60"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -2300,13 +2306,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="59"/>
+      <c r="I38" s="60"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="58">
+      <c r="A39" s="61">
         <v>43375</v>
       </c>
-      <c r="B39" s="59">
+      <c r="B39" s="60">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -2327,13 +2333,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="59" t="s">
+      <c r="I39" s="60" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="60"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -2352,11 +2358,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="59"/>
+      <c r="I40" s="60"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="60"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -2375,11 +2381,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="59"/>
+      <c r="I41" s="60"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="60"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -2398,7 +2404,7 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="59"/>
+      <c r="I42" s="60"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
@@ -2588,7 +2594,7 @@
       <c r="H51">
         <v>-0.31863876639355398</v>
       </c>
-      <c r="I51" s="59" t="s">
+      <c r="I51" s="60" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2612,7 +2618,7 @@
       <c r="H52">
         <v>2.67662389686584</v>
       </c>
-      <c r="I52" s="59"/>
+      <c r="I52" s="60"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
@@ -2634,7 +2640,7 @@
       <c r="H53">
         <v>0.95464630209159695</v>
       </c>
-      <c r="I53" s="59"/>
+      <c r="I53" s="60"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
@@ -2656,7 +2662,7 @@
       <c r="H54">
         <v>4.8512619602994098</v>
       </c>
-      <c r="I54" s="59"/>
+      <c r="I54" s="60"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
@@ -2681,7 +2687,7 @@
       <c r="H55">
         <v>-0.56767955034740303</v>
       </c>
-      <c r="I55" s="59"/>
+      <c r="I55" s="60"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
@@ -2703,7 +2709,7 @@
       <c r="H56">
         <v>1.8761231724104801</v>
       </c>
-      <c r="I56" s="59"/>
+      <c r="I56" s="60"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
@@ -2725,7 +2731,7 @@
       <c r="H57">
         <v>0.76717154068581295</v>
       </c>
-      <c r="I57" s="59"/>
+      <c r="I57" s="60"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
@@ -2747,7 +2753,7 @@
       <c r="H58">
         <v>3.8964804606254</v>
       </c>
-      <c r="I58" s="59"/>
+      <c r="I58" s="60"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
@@ -2765,10 +2771,10 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="58">
+      <c r="A60" s="61">
         <v>43377</v>
       </c>
-      <c r="B60" s="59">
+      <c r="B60" s="60">
         <v>85</v>
       </c>
       <c r="C60" t="s">
@@ -2789,13 +2795,13 @@
       <c r="H60">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I60" s="59" t="s">
+      <c r="I60" s="60" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="58"/>
-      <c r="B61" s="59"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="60"/>
       <c r="C61" t="s">
         <v>32</v>
       </c>
@@ -2814,13 +2820,13 @@
       <c r="H61">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I61" s="59"/>
+      <c r="I61" s="60"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="58">
+      <c r="A62" s="61">
         <v>43378</v>
       </c>
-      <c r="B62" s="59">
+      <c r="B62" s="60">
         <v>89</v>
       </c>
       <c r="C62" t="s">
@@ -2841,11 +2847,11 @@
       <c r="H62">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I62" s="59"/>
+      <c r="I62" s="60"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="58"/>
-      <c r="B63" s="59"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="60"/>
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -2864,7 +2870,7 @@
       <c r="H63">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I63" s="59"/>
+      <c r="I63" s="60"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -2887,7 +2893,7 @@
       <c r="H64">
         <v>4.5462062693628003</v>
       </c>
-      <c r="I64" s="59" t="s">
+      <c r="I64" s="60" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2912,7 +2918,7 @@
       <c r="H65">
         <v>-3.4906857233533901</v>
       </c>
-      <c r="I65" s="59"/>
+      <c r="I65" s="60"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="5" t="s">
@@ -3092,7 +3098,7 @@
       <c r="H74">
         <v>-1.00648635425107E-2</v>
       </c>
-      <c r="I74" s="59" t="s">
+      <c r="I74" s="60" t="s">
         <v>72</v>
       </c>
       <c r="J74" t="s">
@@ -3118,7 +3124,7 @@
       <c r="H75">
         <v>2.3179146551025099E-3</v>
       </c>
-      <c r="I75" s="59"/>
+      <c r="I75" s="60"/>
     </row>
     <row r="76" spans="1:10">
       <c r="C76" t="s">
@@ -3139,7 +3145,7 @@
       <c r="H76">
         <v>2.2201058587415501</v>
       </c>
-      <c r="I76" s="59"/>
+      <c r="I76" s="60"/>
     </row>
     <row r="77" spans="1:10">
       <c r="C77" t="s">
@@ -3160,7 +3166,7 @@
       <c r="H77">
         <v>-3.9812518800141699</v>
       </c>
-      <c r="I77" s="59"/>
+      <c r="I77" s="60"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1">
@@ -3187,7 +3193,7 @@
       <c r="H78">
         <v>-5.2635717372245903E-3</v>
       </c>
-      <c r="I78" s="59" t="s">
+      <c r="I78" s="60" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3210,7 +3216,7 @@
       <c r="H79">
         <v>-3.0981829250898101</v>
       </c>
-      <c r="I79" s="59"/>
+      <c r="I79" s="60"/>
     </row>
     <row r="80" spans="1:10">
       <c r="B80">
@@ -3234,7 +3240,7 @@
       <c r="H80">
         <v>-6.1165373024574896E-3</v>
       </c>
-      <c r="I80" s="59"/>
+      <c r="I80" s="60"/>
     </row>
     <row r="81" spans="1:9">
       <c r="C81" t="s">
@@ -3255,7 +3261,7 @@
       <c r="H81">
         <v>-3.3361756537648399</v>
       </c>
-      <c r="I81" s="59"/>
+      <c r="I81" s="60"/>
     </row>
     <row r="82" spans="1:9">
       <c r="C82" t="s">
@@ -3276,7 +3282,7 @@
       <c r="H82">
         <v>2.0683995791691099</v>
       </c>
-      <c r="I82" s="59"/>
+      <c r="I82" s="60"/>
     </row>
     <row r="83" spans="1:9">
       <c r="C83" t="s">
@@ -3297,7 +3303,7 @@
       <c r="H83">
         <v>-3.3679402794508602</v>
       </c>
-      <c r="I83" s="59"/>
+      <c r="I83" s="60"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
@@ -3907,7 +3913,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="B124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
         <v>31</v>
@@ -3928,7 +3934,7 @@
         <v>8.3918828423015999</v>
       </c>
       <c r="I124" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -3974,7 +3980,7 @@
         <v>8.3740854322365994</v>
       </c>
       <c r="I126" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4020,7 +4026,7 @@
         <v>7.8482905727088497</v>
       </c>
       <c r="I128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="2:9">
@@ -4066,7 +4072,7 @@
         <v>7.6943687907646003</v>
       </c>
       <c r="I130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="2:9">
@@ -4089,8 +4095,142 @@
         <v>6.54426298519087</v>
       </c>
     </row>
+    <row r="132" spans="2:9">
+      <c r="B132">
+        <v>191</v>
+      </c>
+      <c r="C132" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132">
+        <v>1.24950087271057E-3</v>
+      </c>
+      <c r="E132">
+        <v>11.9454971409202</v>
+      </c>
+      <c r="F132">
+        <v>17.037937106154398</v>
+      </c>
+      <c r="G132">
+        <v>13.852797662412399</v>
+      </c>
+      <c r="H132">
+        <v>8.2694090342701898</v>
+      </c>
+      <c r="I132" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="C133" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133">
+        <v>1.24950087271057E-3</v>
+      </c>
+      <c r="E133">
+        <v>3.6536882809921298</v>
+      </c>
+      <c r="F133">
+        <v>7.1333709354261297</v>
+      </c>
+      <c r="G133">
+        <v>8.9422995675967201</v>
+      </c>
+      <c r="H133">
+        <v>6.5754235373659702</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134">
+        <v>196</v>
+      </c>
+      <c r="C134" t="s">
+        <v>31</v>
+      </c>
+      <c r="D134">
+        <v>1.23697815758462E-3</v>
+      </c>
+      <c r="E134">
+        <v>11.9807462335539</v>
+      </c>
+      <c r="F134">
+        <v>16.604597541433399</v>
+      </c>
+      <c r="G134">
+        <v>14.1313009002768</v>
+      </c>
+      <c r="H134">
+        <v>8.30465812690381</v>
+      </c>
+      <c r="I134" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="C135" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135">
+        <v>1.23697815758462E-3</v>
+      </c>
+      <c r="E135">
+        <v>3.7610437073779299</v>
+      </c>
+      <c r="F135">
+        <v>7.3892586725286096</v>
+      </c>
+      <c r="G135">
+        <v>8.9129593284404294</v>
+      </c>
+      <c r="H135">
+        <v>6.6827789637517503</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="B136">
+        <v>197</v>
+      </c>
+      <c r="C136" t="s">
+        <v>55</v>
+      </c>
+      <c r="I136" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="I138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="I140" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
     <mergeCell ref="I78:I83"/>
     <mergeCell ref="I74:I77"/>
     <mergeCell ref="I51:I58"/>
@@ -4106,27 +4246,6 @@
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="I60:I63"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4149,25 +4268,25 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" t="s">
-        <v>129</v>
-      </c>
       <c r="H1" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O1" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4947,20 +5066,20 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H27" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O27" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R27" s="23">
         <f t="shared" si="1"/>
@@ -5719,20 +5838,20 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H53" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K53" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O53" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R53" s="23">
         <f t="shared" si="1"/>
@@ -6491,20 +6610,20 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E79" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H79" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K79" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O79" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R79" s="23">
         <f t="shared" si="3"/>
@@ -7277,8 +7396,58 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId3" name="Control 3">
+        <control shapeId="4097" r:id="rId3" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>104</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4097" r:id="rId3" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4098" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>104</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4098" r:id="rId5" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -7297,57 +7466,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId3" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>104</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>923925</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4098" r:id="rId5" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId7" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>104</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4097" r:id="rId7" name="Control 1"/>
+        <control shapeId="4099" r:id="rId7" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7356,10 +7475,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF23902-3816-4B4E-83CE-581E9B6C3F52}">
-  <dimension ref="B1:K19"/>
+  <dimension ref="B1:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7369,8 +7488,8 @@
     <col min="4" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:12">
       <c r="B2" s="13" t="s">
         <v>86</v>
       </c>
@@ -7393,8 +7512,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="60" t="s">
+    <row r="3" spans="2:12">
+      <c r="B3" s="62" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -7416,8 +7535,8 @@
         <v>-6.32791094461188E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="60"/>
+    <row r="4" spans="2:12">
+      <c r="B4" s="62"/>
       <c r="C4" s="9" t="s">
         <v>84</v>
       </c>
@@ -7437,8 +7556,8 @@
         <v>4.7624871892681799</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="60" t="s">
+    <row r="5" spans="2:12">
+      <c r="B5" s="62" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -7460,8 +7579,8 @@
         <v>-1.00648635425107E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="61"/>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B6" s="63"/>
       <c r="C6" s="17" t="s">
         <v>84</v>
       </c>
@@ -7481,61 +7600,61 @@
         <v>2.2201058587415501</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="10" spans="2:11">
+    <row r="9" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="10" spans="2:12">
       <c r="B10" s="45"/>
       <c r="C10" s="43"/>
-      <c r="D10" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1">
+      <c r="D10" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1">
       <c r="B11" s="46" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="40" t="s">
-        <v>121</v>
-      </c>
       <c r="H11" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="J11" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="K11" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="39" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="55">
         <v>1.96897126794523</v>
@@ -7547,22 +7666,22 @@
         <v>14.6053919825485</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>121</v>
       </c>
       <c r="K12" s="57" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="37" t="s">
         <v>110</v>
       </c>
@@ -7582,19 +7701,19 @@
         <v>8.1368781707219107</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="37" t="s">
         <v>111</v>
       </c>
@@ -7629,8 +7748,11 @@
         <f t="shared" si="0"/>
         <v>3.133937441723611E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:11">
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="37" t="s">
         <v>112</v>
       </c>
@@ -7666,7 +7788,7 @@
         <v>2.9152121555439673E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:12">
       <c r="B16" s="37" t="s">
         <v>113</v>
       </c>
@@ -7738,23 +7860,81 @@
         <v>-5.4383188573419491E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="42" t="s">
-        <v>125</v>
+    <row r="18" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B18" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="54">
+        <v>1.24950087271057E-3</v>
+      </c>
+      <c r="D18" s="35">
+        <v>11.9454971409202</v>
+      </c>
+      <c r="E18" s="18">
+        <v>17.037937106154398</v>
+      </c>
+      <c r="F18" s="18">
+        <v>13.852797662412399</v>
+      </c>
+      <c r="G18" s="36">
+        <v>8.2694090342701898</v>
+      </c>
+      <c r="H18" s="32">
+        <f>(D18-D$13)/D$13</f>
+        <v>1.1219101150069735E-2</v>
+      </c>
+      <c r="I18" s="28">
+        <f t="shared" ref="I18" si="10">(E18-E$13)/E$13</f>
+        <v>-8.9321852179980871E-3</v>
+      </c>
+      <c r="J18" s="28">
+        <f t="shared" ref="J18" si="11">(F18-F$13)/F$13</f>
+        <v>1.7223332775112652E-2</v>
+      </c>
+      <c r="K18" s="29">
+        <f t="shared" ref="K18" si="12">(G18-G$13)/G$13</f>
+        <v>1.6287679472104091E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B19" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19">
+        <v>1.23697815758462E-3</v>
+      </c>
+      <c r="D19">
+        <v>11.9807462335539</v>
+      </c>
+      <c r="E19">
+        <v>16.604597541433399</v>
+      </c>
+      <c r="F19">
+        <v>14.1313009002768</v>
+      </c>
+      <c r="G19">
+        <v>8.30465812690381</v>
+      </c>
+      <c r="H19" s="32">
+        <f>(D19-D$13)/D$13</f>
+        <v>1.4203033534708854E-2</v>
+      </c>
+      <c r="I19" s="28">
+        <f t="shared" ref="I19" si="13">(E19-E$13)/E$13</f>
+        <v>-3.4138810456184505E-2</v>
+      </c>
+      <c r="J19" s="28">
+        <f t="shared" ref="J19" si="14">(F19-F$13)/F$13</f>
+        <v>3.7674074835525477E-2</v>
+      </c>
+      <c r="K19" s="29">
+        <f t="shared" ref="K19" si="15">(G19-G$13)/G$13</f>
+        <v>2.0619696235050521E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="42" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{15F8970A-0F7D-47A8-8B0C-1809C4F5A997}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{27AEE229-C111-4B46-AD83-985BEC29EAA8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3990" windowHeight="4260" activeTab="2" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3996" windowHeight="4260" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="143">
   <si>
     <t>Experiment</t>
   </si>
@@ -448,6 +448,15 @@
   </si>
   <si>
     <t>Magnitude &amp; Phase x2</t>
+  </si>
+  <si>
+    <t>Magnitude &amp; Phase x0.5</t>
+  </si>
+  <si>
+    <t>Run metrics on Asia</t>
+  </si>
+  <si>
+    <t>Run on Europe</t>
   </si>
 </sst>
 </file>
@@ -527,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -826,24 +835,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -918,7 +914,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -930,10 +925,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -993,9 +988,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>304800</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1043,9 +1038,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>847725</xdr:colOff>
+          <xdr:colOff>541020</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1092,10 +1087,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>541020</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1434,16 +1429,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
   <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D134" sqref="D134:H134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1660,7 +1655,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="61">
+      <c r="A11" s="59">
         <v>43367</v>
       </c>
       <c r="B11" s="60">
@@ -1689,7 +1684,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="61"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="60"/>
       <c r="C12">
         <v>0</v>
@@ -1714,7 +1709,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="61">
+      <c r="A13" s="59">
         <v>43368</v>
       </c>
       <c r="B13" s="60">
@@ -1743,7 +1738,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="61"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="60"/>
       <c r="C14" t="s">
         <v>32</v>
@@ -1766,7 +1761,7 @@
       <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="61">
+      <c r="A15" s="59">
         <v>43369</v>
       </c>
       <c r="B15" s="60">
@@ -1795,7 +1790,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="61"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="60"/>
       <c r="C16" t="s">
         <v>32</v>
@@ -1818,7 +1813,7 @@
       <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="60"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -1841,7 +1836,7 @@
       <c r="I17" s="60"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="60"/>
       <c r="C18" t="s">
         <v>34</v>
@@ -1864,7 +1859,7 @@
       <c r="I18" s="60"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61">
+      <c r="A19" s="59">
         <v>43370</v>
       </c>
       <c r="B19" s="60">
@@ -1893,7 +1888,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="60"/>
       <c r="C20" t="s">
         <v>32</v>
@@ -1916,7 +1911,7 @@
       <c r="I20" s="60"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61">
+      <c r="A21" s="59">
         <v>43373</v>
       </c>
       <c r="B21" s="60">
@@ -1945,7 +1940,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="60"/>
       <c r="C22" t="s">
         <v>32</v>
@@ -1968,7 +1963,7 @@
       <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="60"/>
       <c r="C23" t="s">
         <v>33</v>
@@ -1991,7 +1986,7 @@
       <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="60"/>
       <c r="C24" t="s">
         <v>34</v>
@@ -2061,7 +2056,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61">
+      <c r="A29" s="59">
         <v>43374</v>
       </c>
       <c r="B29" s="60">
@@ -2090,7 +2085,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="60"/>
       <c r="C30" t="s">
         <v>32</v>
@@ -2113,7 +2108,7 @@
       <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="60"/>
       <c r="C31" t="s">
         <v>33</v>
@@ -2136,7 +2131,7 @@
       <c r="I31" s="60"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="60"/>
       <c r="C32" t="s">
         <v>34</v>
@@ -2159,7 +2154,7 @@
       <c r="I32" s="60"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61">
+      <c r="A33" s="59">
         <v>43374</v>
       </c>
       <c r="B33" s="60">
@@ -2188,7 +2183,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="60"/>
       <c r="C34" t="s">
         <v>32</v>
@@ -2211,7 +2206,7 @@
       <c r="I34" s="60"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61">
+      <c r="A35" s="59">
         <v>43375</v>
       </c>
       <c r="B35" s="60">
@@ -2240,7 +2235,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="60"/>
       <c r="C36" t="s">
         <v>32</v>
@@ -2263,7 +2258,7 @@
       <c r="I36" s="60"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="60"/>
       <c r="C37" t="s">
         <v>33</v>
@@ -2286,7 +2281,7 @@
       <c r="I37" s="60"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="60"/>
       <c r="C38" t="s">
         <v>34</v>
@@ -2309,7 +2304,7 @@
       <c r="I38" s="60"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61">
+      <c r="A39" s="59">
         <v>43375</v>
       </c>
       <c r="B39" s="60">
@@ -2338,7 +2333,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="60"/>
       <c r="C40" t="s">
         <v>32</v>
@@ -2361,7 +2356,7 @@
       <c r="I40" s="60"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="60"/>
       <c r="C41" t="s">
         <v>33</v>
@@ -2384,7 +2379,7 @@
       <c r="I41" s="60"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="60"/>
       <c r="C42" t="s">
         <v>34</v>
@@ -2771,7 +2766,7 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="61">
+      <c r="A60" s="59">
         <v>43377</v>
       </c>
       <c r="B60" s="60">
@@ -2800,7 +2795,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="61"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="60"/>
       <c r="C61" t="s">
         <v>32</v>
@@ -2823,7 +2818,7 @@
       <c r="I61" s="60"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="61">
+      <c r="A62" s="59">
         <v>43378</v>
       </c>
       <c r="B62" s="60">
@@ -2850,7 +2845,7 @@
       <c r="I62" s="60"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="60"/>
       <c r="C63" t="s">
         <v>32</v>
@@ -4192,24 +4187,94 @@
         <v>197</v>
       </c>
       <c r="C136" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="D136">
+        <v>1.25162732482959E-3</v>
+      </c>
+      <c r="E136">
+        <v>12.1999465730098</v>
+      </c>
+      <c r="F136">
+        <v>17.4182346607416</v>
+      </c>
+      <c r="G136">
+        <v>14.025234478263799</v>
+      </c>
+      <c r="H136">
+        <v>8.5238584663597301</v>
       </c>
       <c r="I136" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="137" spans="2:9">
+      <c r="C137" t="s">
+        <v>32</v>
+      </c>
+      <c r="D137">
+        <v>1.25162732482959E-3</v>
+      </c>
+      <c r="E137">
+        <v>3.7691085180306998</v>
+      </c>
+      <c r="F137">
+        <v>6.9968837318867303</v>
+      </c>
+      <c r="G137">
+        <v>9.3002868423987497</v>
+      </c>
+      <c r="H137">
+        <v>6.6908437744045299</v>
+      </c>
+    </row>
     <row r="138" spans="2:9">
+      <c r="B138">
+        <v>198</v>
+      </c>
+      <c r="C138" t="s">
+        <v>55</v>
+      </c>
       <c r="I138" t="s">
         <v>137</v>
       </c>
     </row>
+    <row r="139" spans="2:9">
+      <c r="C139" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="140" spans="2:9">
+      <c r="C140" t="s">
+        <v>142</v>
+      </c>
       <c r="I140" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="I78:I83"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -4225,27 +4290,6 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I78:I83"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="I60:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4261,7 +4305,7 @@
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="8" max="8" width="19" style="23" customWidth="1"/>
   </cols>
@@ -7396,33 +7440,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId3" name="Control 1">
+        <control shapeId="4099" r:id="rId3" name="Control 3">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>541020</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId3" name="Control 1"/>
+        <control shapeId="4099" r:id="rId3" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="4098" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId6">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7432,9 +7476,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
+                <xdr:colOff>541020</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7446,27 +7490,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId8">
+        <control shapeId="4097" r:id="rId6" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId7" name="Control 3"/>
+        <control shapeId="4097" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7477,18 +7521,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF23902-3816-4B4E-83CE-581E9B6C3F52}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="1" spans="2:12" ht="15" thickBot="1"/>
     <row r="2" spans="2:12">
       <c r="B2" s="13" t="s">
         <v>86</v>
@@ -7513,7 +7557,7 @@
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -7536,7 +7580,7 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="62"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="9" t="s">
         <v>84</v>
       </c>
@@ -7557,7 +7601,7 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -7579,8 +7623,8 @@
         <v>-1.00648635425107E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B6" s="63"/>
+    <row r="6" spans="2:12" ht="15" thickBot="1">
+      <c r="B6" s="62"/>
       <c r="C6" s="17" t="s">
         <v>84</v>
       </c>
@@ -7600,24 +7644,24 @@
         <v>2.2201058587415501</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:12" ht="15" thickBot="1"/>
     <row r="10" spans="2:12">
       <c r="B10" s="45"/>
       <c r="C10" s="43"/>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="64" t="s">
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66"/>
-    </row>
-    <row r="11" spans="2:12" ht="15.75" thickBot="1">
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1">
       <c r="B11" s="46" t="s">
         <v>86</v>
       </c>
@@ -7656,28 +7700,28 @@
       <c r="C12" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="54">
         <v>1.96897126794523</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="55">
         <v>3.4602999071115099</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="55">
         <v>14.6053919825485</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="56" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7733,19 +7777,19 @@
         <v>8.3918828423015999</v>
       </c>
       <c r="H14" s="31">
-        <f>(D14-D$13)/D$13</f>
+        <f t="shared" ref="H14:H19" si="0">(D14-D$13)/D$13</f>
         <v>2.1586844962739542E-2</v>
       </c>
       <c r="I14" s="25">
-        <f t="shared" ref="I14:K14" si="0">(E14-E$13)/E$13</f>
+        <f t="shared" ref="I14:K14" si="1">(E14-E$13)/E$13</f>
         <v>-2.3043151867608556E-2</v>
       </c>
       <c r="J14" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8546572870360826E-2</v>
       </c>
       <c r="K14" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.133937441723611E-2</v>
       </c>
       <c r="L14" t="s">
@@ -7772,19 +7816,19 @@
         <v>8.3740854322365994</v>
       </c>
       <c r="H15" s="31">
-        <f>(D15-D$13)/D$13</f>
+        <f t="shared" si="0"/>
         <v>2.0080245379941169E-2</v>
       </c>
       <c r="I15" s="25">
-        <f t="shared" ref="I15" si="1">(E15-E$13)/E$13</f>
+        <f t="shared" ref="I15" si="2">(E15-E$13)/E$13</f>
         <v>-1.6564748850661972E-2</v>
       </c>
       <c r="J15" s="25">
-        <f t="shared" ref="J15" si="2">(F15-F$13)/F$13</f>
+        <f t="shared" ref="J15" si="3">(F15-F$13)/F$13</f>
         <v>3.3631129245677092E-2</v>
       </c>
       <c r="K15" s="27">
-        <f t="shared" ref="K15" si="3">(G15-G$13)/G$13</f>
+        <f t="shared" ref="K15" si="4">(G15-G$13)/G$13</f>
         <v>2.9152121555439673E-2</v>
       </c>
     </row>
@@ -7808,27 +7852,27 @@
         <v>7.8482905727088497</v>
       </c>
       <c r="H16" s="31">
-        <f>(D16-D$13)/D$13</f>
+        <f t="shared" si="0"/>
         <v>-2.4429731807987683E-2</v>
       </c>
       <c r="I16" s="25">
-        <f t="shared" ref="I16" si="4">(E16-E$13)/E$13</f>
+        <f t="shared" ref="I16" si="5">(E16-E$13)/E$13</f>
         <v>0.12562846605957526</v>
       </c>
       <c r="J16" s="25">
-        <f t="shared" ref="J16" si="5">(F16-F$13)/F$13</f>
+        <f t="shared" ref="J16" si="6">(F16-F$13)/F$13</f>
         <v>-8.0936301658879661E-2</v>
       </c>
       <c r="K16" s="27">
-        <f t="shared" ref="K16" si="6">(G16-G$13)/G$13</f>
+        <f t="shared" ref="K16" si="7">(G16-G$13)/G$13</f>
         <v>-3.5466623926047706E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1">
+    <row r="17" spans="2:11" ht="15" thickBot="1">
       <c r="B17" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="53">
         <v>0.108961390961821</v>
       </c>
       <c r="D17" s="35">
@@ -7844,92 +7888,128 @@
         <v>7.6943687907646003</v>
       </c>
       <c r="H17" s="32">
-        <f>(D17-D$13)/D$13</f>
+        <f t="shared" si="0"/>
         <v>-3.7459632878579917E-2</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" ref="I17" si="7">(E17-E$13)/E$13</f>
+        <f t="shared" ref="I17" si="8">(E17-E$13)/E$13</f>
         <v>-0.11397079749214027</v>
       </c>
       <c r="J17" s="28">
-        <f t="shared" ref="J17" si="8">(F17-F$13)/F$13</f>
+        <f t="shared" ref="J17" si="9">(F17-F$13)/F$13</f>
         <v>3.2672000098170742E-2</v>
       </c>
       <c r="K17" s="29">
-        <f t="shared" ref="K17" si="9">(G17-G$13)/G$13</f>
+        <f t="shared" ref="K17" si="10">(G17-G$13)/G$13</f>
         <v>-5.4383188573419491E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1">
+    <row r="18" spans="2:11" ht="15" thickBot="1">
       <c r="B18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="53">
         <v>1.24950087271057E-3</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="33">
         <v>11.9454971409202</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="10">
         <v>17.037937106154398</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="10">
         <v>13.852797662412399</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="34">
         <v>8.2694090342701898</v>
       </c>
       <c r="H18" s="32">
-        <f>(D18-D$13)/D$13</f>
+        <f t="shared" si="0"/>
         <v>1.1219101150069735E-2</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" ref="I18" si="10">(E18-E$13)/E$13</f>
+        <f t="shared" ref="I18" si="11">(E18-E$13)/E$13</f>
         <v>-8.9321852179980871E-3</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" ref="J18" si="11">(F18-F$13)/F$13</f>
+        <f t="shared" ref="J18" si="12">(F18-F$13)/F$13</f>
         <v>1.7223332775112652E-2</v>
       </c>
       <c r="K18" s="29">
-        <f t="shared" ref="K18" si="12">(G18-G$13)/G$13</f>
+        <f t="shared" ref="K18" si="13">(G18-G$13)/G$13</f>
         <v>1.6287679472104091E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1">
+    <row r="19" spans="2:11" ht="15" thickBot="1">
       <c r="B19" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="53">
         <v>1.23697815758462E-3</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="33">
         <v>11.9807462335539</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="10">
         <v>16.604597541433399</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="10">
         <v>14.1313009002768</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="34">
         <v>8.30465812690381</v>
       </c>
       <c r="H19" s="32">
-        <f>(D19-D$13)/D$13</f>
+        <f t="shared" si="0"/>
         <v>1.4203033534708854E-2</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" ref="I19" si="13">(E19-E$13)/E$13</f>
+        <f t="shared" ref="I19" si="14">(E19-E$13)/E$13</f>
         <v>-3.4138810456184505E-2</v>
       </c>
       <c r="J19" s="28">
-        <f t="shared" ref="J19" si="14">(F19-F$13)/F$13</f>
+        <f t="shared" ref="J19" si="15">(F19-F$13)/F$13</f>
         <v>3.7674074835525477E-2</v>
       </c>
       <c r="K19" s="29">
-        <f t="shared" ref="K19" si="15">(G19-G$13)/G$13</f>
+        <f t="shared" ref="K19" si="16">(G19-G$13)/G$13</f>
         <v>2.0619696235050521E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15" thickBot="1">
+      <c r="B20" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="53">
+        <v>1.25162732482959E-3</v>
+      </c>
+      <c r="D20" s="33">
+        <v>12.1999465730098</v>
+      </c>
+      <c r="E20" s="10">
+        <v>17.4182346607416</v>
+      </c>
+      <c r="F20" s="10">
+        <v>14.025234478263799</v>
+      </c>
+      <c r="G20" s="34">
+        <v>8.5238584663597301</v>
+      </c>
+      <c r="H20" s="32">
+        <f t="shared" ref="H20" si="17">(D20-D$13)/D$13</f>
+        <v>3.2758943566872721E-2</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" ref="I20" si="18">(E20-E$13)/E$13</f>
+        <v>1.3189076531203577E-2</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" ref="J20" si="19">(F20-F$13)/F$13</f>
+        <v>2.9885522521046128E-2</v>
+      </c>
+      <c r="K20" s="29">
+        <f t="shared" ref="K20" si="20">(G20-G$13)/G$13</f>
+        <v>4.7558816479549945E-2</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -7957,10 +8037,10 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{27AEE229-C111-4B46-AD83-985BEC29EAA8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{027EA3FC-0882-44D7-90FF-753F13138661}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3996" windowHeight="4260" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3996" windowHeight="4260" activeTab="2" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="144">
   <si>
     <t>Experiment</t>
   </si>
@@ -456,7 +456,10 @@
     <t>Run metrics on Asia</t>
   </si>
   <si>
-    <t>Run on Europe</t>
+    <t>70s per batch</t>
+  </si>
+  <si>
+    <t>Griffin-Lim</t>
   </si>
 </sst>
 </file>
@@ -1427,11 +1430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D140" sqref="D140:H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
@@ -4024,7 +4027,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="2:9">
+    <row r="129" spans="2:10">
       <c r="C129" t="s">
         <v>32</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>5.6660565607624997</v>
       </c>
     </row>
-    <row r="130" spans="2:9">
+    <row r="130" spans="2:10">
       <c r="B130">
         <v>184</v>
       </c>
@@ -4070,7 +4073,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="2:9">
+    <row r="131" spans="2:10">
       <c r="C131" t="s">
         <v>32</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>6.54426298519087</v>
       </c>
     </row>
-    <row r="132" spans="2:9">
+    <row r="132" spans="2:10">
       <c r="B132">
         <v>191</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="2:9">
+    <row r="133" spans="2:10">
       <c r="C133" t="s">
         <v>32</v>
       </c>
@@ -4136,7 +4139,7 @@
         <v>6.5754235373659702</v>
       </c>
     </row>
-    <row r="134" spans="2:9">
+    <row r="134" spans="2:10">
       <c r="B134">
         <v>196</v>
       </c>
@@ -4162,7 +4165,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="2:9">
+    <row r="135" spans="2:10">
       <c r="C135" t="s">
         <v>32</v>
       </c>
@@ -4182,7 +4185,7 @@
         <v>6.6827789637517503</v>
       </c>
     </row>
-    <row r="136" spans="2:9">
+    <row r="136" spans="2:10">
       <c r="B136">
         <v>197</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="2:9">
+    <row r="137" spans="2:10">
       <c r="C137" t="s">
         <v>32</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>6.6908437744045299</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
+    <row r="138" spans="2:10">
       <c r="B138">
         <v>198</v>
       </c>
@@ -4239,17 +4242,58 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
+    <row r="139" spans="2:10">
       <c r="C139" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="2:9">
+    <row r="140" spans="2:10">
+      <c r="B140">
+        <v>199</v>
+      </c>
       <c r="C140" t="s">
-        <v>142</v>
+        <v>31</v>
+      </c>
+      <c r="D140">
+        <v>2.5157486849751E-3</v>
+      </c>
+      <c r="E140">
+        <v>11.7831398702687</v>
+      </c>
+      <c r="F140">
+        <v>18.205059973533601</v>
+      </c>
+      <c r="G140">
+        <v>13.1731640817904</v>
+      </c>
+      <c r="H140">
+        <v>8.1070517636185997</v>
       </c>
       <c r="I140" t="s">
         <v>138</v>
+      </c>
+      <c r="J140" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="C141" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141">
+        <v>2.5157486849751E-3</v>
+      </c>
+      <c r="E141">
+        <v>3.46907185696652</v>
+      </c>
+      <c r="F141">
+        <v>7.0409396207031696</v>
+      </c>
+      <c r="G141">
+        <v>8.6263857592523703</v>
+      </c>
+      <c r="H141">
+        <v>6.3908071133403404</v>
       </c>
     </row>
   </sheetData>
@@ -7519,10 +7563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF23902-3816-4B4E-83CE-581E9B6C3F52}">
-  <dimension ref="B1:L23"/>
+  <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7759,261 +7803,297 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="37" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C14" s="53">
-        <v>1.2416653778368101E-3</v>
+        <v>2.5157486849751E-3</v>
       </c>
       <c r="D14" s="33">
-        <v>12.0679709489517</v>
+        <v>11.7831398702687</v>
       </c>
       <c r="E14" s="10">
-        <v>16.795348497486899</v>
+        <v>18.205059973533601</v>
       </c>
       <c r="F14" s="10">
-        <v>14.1431827932181</v>
+        <v>13.1731640817904</v>
       </c>
       <c r="G14" s="34">
-        <v>8.3918828423015999</v>
+        <v>8.1070517636185997</v>
       </c>
       <c r="H14" s="31">
-        <f t="shared" ref="H14:H19" si="0">(D14-D$13)/D$13</f>
-        <v>2.1586844962739542E-2</v>
+        <f t="shared" ref="H14" si="0">(D14-D$13)/D$13</f>
+        <v>-2.5248871793051215E-3</v>
       </c>
       <c r="I14" s="25">
-        <f t="shared" ref="I14:K14" si="1">(E14-E$13)/E$13</f>
-        <v>-2.3043151867608556E-2</v>
+        <f t="shared" ref="I14" si="1">(E14-E$13)/E$13</f>
+        <v>5.8957366348534629E-2</v>
       </c>
       <c r="J14" s="25">
-        <f t="shared" si="1"/>
-        <v>3.8546572870360826E-2</v>
+        <f t="shared" ref="J14" si="2">(F14-F$13)/F$13</f>
+        <v>-3.2682769428490882E-2</v>
       </c>
       <c r="K14" s="27">
-        <f t="shared" si="1"/>
-        <v>3.133937441723611E-2</v>
-      </c>
-      <c r="L14" t="s">
-        <v>133</v>
+        <f t="shared" ref="K14" si="3">(G14-G$13)/G$13</f>
+        <v>-3.6655835908459651E-3</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="53">
-        <v>1.2367894384974099E-3</v>
+        <v>1.2416653778368101E-3</v>
       </c>
       <c r="D15" s="33">
-        <v>12.0501735388866</v>
+        <v>12.0679709489517</v>
       </c>
       <c r="E15" s="10">
-        <v>16.906721928754401</v>
+        <v>16.795348497486899</v>
       </c>
       <c r="F15" s="10">
-        <v>14.0762430723527</v>
+        <v>14.1431827932181</v>
       </c>
       <c r="G15" s="34">
-        <v>8.3740854322365994</v>
+        <v>8.3918828423015999</v>
       </c>
       <c r="H15" s="31">
-        <f t="shared" si="0"/>
-        <v>2.0080245379941169E-2</v>
+        <f t="shared" ref="H15:H20" si="4">(D15-D$13)/D$13</f>
+        <v>2.1586844962739542E-2</v>
       </c>
       <c r="I15" s="25">
-        <f t="shared" ref="I15" si="2">(E15-E$13)/E$13</f>
-        <v>-1.6564748850661972E-2</v>
+        <f t="shared" ref="I15:K15" si="5">(E15-E$13)/E$13</f>
+        <v>-2.3043151867608556E-2</v>
       </c>
       <c r="J15" s="25">
-        <f t="shared" ref="J15" si="3">(F15-F$13)/F$13</f>
-        <v>3.3631129245677092E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.8546572870360826E-2</v>
       </c>
       <c r="K15" s="27">
-        <f t="shared" ref="K15" si="4">(G15-G$13)/G$13</f>
-        <v>2.9152121555439673E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.133937441723611E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="53">
+        <v>1.2367894384974099E-3</v>
+      </c>
+      <c r="D16" s="33">
+        <v>12.0501735388866</v>
+      </c>
+      <c r="E16" s="10">
+        <v>16.906721928754401</v>
+      </c>
+      <c r="F16" s="10">
+        <v>14.0762430723527</v>
+      </c>
+      <c r="G16" s="34">
+        <v>8.3740854322365994</v>
+      </c>
+      <c r="H16" s="31">
+        <f t="shared" si="4"/>
+        <v>2.0080245379941169E-2</v>
+      </c>
+      <c r="I16" s="25">
+        <f t="shared" ref="I16" si="6">(E16-E$13)/E$13</f>
+        <v>-1.6564748850661972E-2</v>
+      </c>
+      <c r="J16" s="25">
+        <f t="shared" ref="J16" si="7">(F16-F$13)/F$13</f>
+        <v>3.3631129245677092E-2</v>
+      </c>
+      <c r="K16" s="27">
+        <f t="shared" ref="K16" si="8">(G16-G$13)/G$13</f>
+        <v>2.9152121555439673E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C17" s="53">
         <v>0.16524580917679299</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D17" s="33">
         <v>11.524378679359</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <v>19.351235832271101</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>12.516035605725399</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G17" s="34">
         <v>7.8482905727088497</v>
       </c>
-      <c r="H16" s="31">
-        <f t="shared" si="0"/>
+      <c r="H17" s="31">
+        <f t="shared" si="4"/>
         <v>-2.4429731807987683E-2</v>
       </c>
-      <c r="I16" s="25">
-        <f t="shared" ref="I16" si="5">(E16-E$13)/E$13</f>
+      <c r="I17" s="25">
+        <f t="shared" ref="I17" si="9">(E17-E$13)/E$13</f>
         <v>0.12562846605957526</v>
       </c>
-      <c r="J16" s="25">
-        <f t="shared" ref="J16" si="6">(F16-F$13)/F$13</f>
+      <c r="J17" s="25">
+        <f t="shared" ref="J17" si="10">(F17-F$13)/F$13</f>
         <v>-8.0936301658879661E-2</v>
       </c>
-      <c r="K16" s="27">
-        <f t="shared" ref="K16" si="7">(G16-G$13)/G$13</f>
+      <c r="K17" s="27">
+        <f t="shared" ref="K17" si="11">(G17-G$13)/G$13</f>
         <v>-3.5466623926047706E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15" thickBot="1">
-      <c r="B17" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="53">
-        <v>0.108961390961821</v>
-      </c>
-      <c r="D17" s="35">
-        <v>11.3704568974146</v>
-      </c>
-      <c r="E17" s="18">
-        <v>15.2321663577236</v>
-      </c>
-      <c r="F17" s="18">
-        <v>14.063181415601001</v>
-      </c>
-      <c r="G17" s="36">
-        <v>7.6943687907646003</v>
-      </c>
-      <c r="H17" s="32">
-        <f t="shared" si="0"/>
-        <v>-3.7459632878579917E-2</v>
-      </c>
-      <c r="I17" s="28">
-        <f t="shared" ref="I17" si="8">(E17-E$13)/E$13</f>
-        <v>-0.11397079749214027</v>
-      </c>
-      <c r="J17" s="28">
-        <f t="shared" ref="J17" si="9">(F17-F$13)/F$13</f>
-        <v>3.2672000098170742E-2</v>
-      </c>
-      <c r="K17" s="29">
-        <f t="shared" ref="K17" si="10">(G17-G$13)/G$13</f>
-        <v>-5.4383188573419491E-2</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1">
       <c r="B18" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="53">
+        <v>0.108961390961821</v>
+      </c>
+      <c r="D18" s="35">
+        <v>11.3704568974146</v>
+      </c>
+      <c r="E18" s="18">
+        <v>15.2321663577236</v>
+      </c>
+      <c r="F18" s="18">
+        <v>14.063181415601001</v>
+      </c>
+      <c r="G18" s="36">
+        <v>7.6943687907646003</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="4"/>
+        <v>-3.7459632878579917E-2</v>
+      </c>
+      <c r="I18" s="28">
+        <f t="shared" ref="I18" si="12">(E18-E$13)/E$13</f>
+        <v>-0.11397079749214027</v>
+      </c>
+      <c r="J18" s="28">
+        <f t="shared" ref="J18" si="13">(F18-F$13)/F$13</f>
+        <v>3.2672000098170742E-2</v>
+      </c>
+      <c r="K18" s="29">
+        <f t="shared" ref="K18" si="14">(G18-G$13)/G$13</f>
+        <v>-5.4383188573419491E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15" thickBot="1">
+      <c r="B19" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C19" s="53">
         <v>1.24950087271057E-3</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D19" s="33">
         <v>11.9454971409202</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E19" s="10">
         <v>17.037937106154398</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F19" s="10">
         <v>13.852797662412399</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G19" s="34">
         <v>8.2694090342701898</v>
       </c>
-      <c r="H18" s="32">
-        <f t="shared" si="0"/>
+      <c r="H19" s="32">
+        <f t="shared" si="4"/>
         <v>1.1219101150069735E-2</v>
       </c>
-      <c r="I18" s="28">
-        <f t="shared" ref="I18" si="11">(E18-E$13)/E$13</f>
+      <c r="I19" s="28">
+        <f t="shared" ref="I19" si="15">(E19-E$13)/E$13</f>
         <v>-8.9321852179980871E-3</v>
       </c>
-      <c r="J18" s="28">
-        <f t="shared" ref="J18" si="12">(F18-F$13)/F$13</f>
+      <c r="J19" s="28">
+        <f t="shared" ref="J19" si="16">(F19-F$13)/F$13</f>
         <v>1.7223332775112652E-2</v>
       </c>
-      <c r="K18" s="29">
-        <f t="shared" ref="K18" si="13">(G18-G$13)/G$13</f>
+      <c r="K19" s="29">
+        <f t="shared" ref="K19" si="17">(G19-G$13)/G$13</f>
         <v>1.6287679472104091E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="15" thickBot="1">
-      <c r="B19" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="53">
-        <v>1.23697815758462E-3</v>
-      </c>
-      <c r="D19" s="33">
-        <v>11.9807462335539</v>
-      </c>
-      <c r="E19" s="10">
-        <v>16.604597541433399</v>
-      </c>
-      <c r="F19" s="10">
-        <v>14.1313009002768</v>
-      </c>
-      <c r="G19" s="34">
-        <v>8.30465812690381</v>
-      </c>
-      <c r="H19" s="32">
-        <f t="shared" si="0"/>
-        <v>1.4203033534708854E-2</v>
-      </c>
-      <c r="I19" s="28">
-        <f t="shared" ref="I19" si="14">(E19-E$13)/E$13</f>
-        <v>-3.4138810456184505E-2</v>
-      </c>
-      <c r="J19" s="28">
-        <f t="shared" ref="J19" si="15">(F19-F$13)/F$13</f>
-        <v>3.7674074835525477E-2</v>
-      </c>
-      <c r="K19" s="29">
-        <f t="shared" ref="K19" si="16">(G19-G$13)/G$13</f>
-        <v>2.0619696235050521E-2</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15" thickBot="1">
       <c r="B20" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="53">
-        <v>1.25162732482959E-3</v>
+        <v>1.23697815758462E-3</v>
       </c>
       <c r="D20" s="33">
-        <v>12.1999465730098</v>
+        <v>11.9807462335539</v>
       </c>
       <c r="E20" s="10">
-        <v>17.4182346607416</v>
+        <v>16.604597541433399</v>
       </c>
       <c r="F20" s="10">
-        <v>14.025234478263799</v>
+        <v>14.1313009002768</v>
       </c>
       <c r="G20" s="34">
-        <v>8.5238584663597301</v>
+        <v>8.30465812690381</v>
       </c>
       <c r="H20" s="32">
-        <f t="shared" ref="H20" si="17">(D20-D$13)/D$13</f>
-        <v>3.2758943566872721E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.4203033534708854E-2</v>
       </c>
       <c r="I20" s="28">
         <f t="shared" ref="I20" si="18">(E20-E$13)/E$13</f>
-        <v>1.3189076531203577E-2</v>
+        <v>-3.4138810456184505E-2</v>
       </c>
       <c r="J20" s="28">
         <f t="shared" ref="J20" si="19">(F20-F$13)/F$13</f>
-        <v>2.9885522521046128E-2</v>
+        <v>3.7674074835525477E-2</v>
       </c>
       <c r="K20" s="29">
         <f t="shared" ref="K20" si="20">(G20-G$13)/G$13</f>
+        <v>2.0619696235050521E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15" thickBot="1">
+      <c r="B21" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="53">
+        <v>1.25162732482959E-3</v>
+      </c>
+      <c r="D21" s="33">
+        <v>12.1999465730098</v>
+      </c>
+      <c r="E21" s="10">
+        <v>17.4182346607416</v>
+      </c>
+      <c r="F21" s="10">
+        <v>14.025234478263799</v>
+      </c>
+      <c r="G21" s="34">
+        <v>8.5238584663597301</v>
+      </c>
+      <c r="H21" s="32">
+        <f t="shared" ref="H21" si="21">(D21-D$13)/D$13</f>
+        <v>3.2758943566872721E-2</v>
+      </c>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21" si="22">(E21-E$13)/E$13</f>
+        <v>1.3189076531203577E-2</v>
+      </c>
+      <c r="J21" s="28">
+        <f t="shared" ref="J21" si="23">(F21-F$13)/F$13</f>
+        <v>2.9885522521046128E-2</v>
+      </c>
+      <c r="K21" s="29">
+        <f t="shared" ref="K21" si="24">(G21-G$13)/G$13</f>
         <v>4.7558816479549945E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="42" t="s">
+    <row r="24" spans="2:11">
+      <c r="B24" s="42" t="s">
         <v>124</v>
       </c>
     </row>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{027EA3FC-0882-44D7-90FF-753F13138661}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0CA07D89-4D34-410A-BBE8-FB9D4932333B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3996" windowHeight="4260" activeTab="2" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="153">
   <si>
     <t>Experiment</t>
   </si>
@@ -447,19 +447,46 @@
     <t>Load network 169 and test with griffin-lim iters=10</t>
   </si>
   <si>
-    <t>Magnitude &amp; Phase x2</t>
-  </si>
-  <si>
-    <t>Magnitude &amp; Phase x0.5</t>
-  </si>
-  <si>
-    <t>Run metrics on Asia</t>
-  </si>
-  <si>
     <t>70s per batch</t>
   </si>
   <si>
     <t>Griffin-Lim</t>
+  </si>
+  <si>
+    <t>U-Net with mag_phase, phase weight 0.0000075</t>
+  </si>
+  <si>
+    <t>U-Net with mag_phase, phase weight 0.0000025</t>
+  </si>
+  <si>
+    <t>U-Net with mag_phase_diff, phase weight 0.00002</t>
+  </si>
+  <si>
+    <t>Loss Weight</t>
+  </si>
+  <si>
+    <t>1:1:1</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1:0.00001</t>
+  </si>
+  <si>
+    <t>1:0.00002</t>
+  </si>
+  <si>
+    <t>1:0.000005</t>
+  </si>
+  <si>
+    <t>1:0.0000075</t>
+  </si>
+  <si>
+    <t>1:0.0000025</t>
+  </si>
+  <si>
+    <t>Magnitude &amp; Phase  Version 2</t>
   </si>
 </sst>
 </file>
@@ -539,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -838,11 +865,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -928,10 +988,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -949,6 +1010,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1430,11 +1501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D140" sqref="D140:H140"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
@@ -1658,7 +1729,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="59">
+      <c r="A11" s="61">
         <v>43367</v>
       </c>
       <c r="B11" s="60">
@@ -1687,7 +1758,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="59"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="60"/>
       <c r="C12">
         <v>0</v>
@@ -1712,7 +1783,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="59">
+      <c r="A13" s="61">
         <v>43368</v>
       </c>
       <c r="B13" s="60">
@@ -1741,7 +1812,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="59"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="60"/>
       <c r="C14" t="s">
         <v>32</v>
@@ -1764,7 +1835,7 @@
       <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="59">
+      <c r="A15" s="61">
         <v>43369</v>
       </c>
       <c r="B15" s="60">
@@ -1793,7 +1864,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="59"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="60"/>
       <c r="C16" t="s">
         <v>32</v>
@@ -1816,7 +1887,7 @@
       <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="59"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="60"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -1839,7 +1910,7 @@
       <c r="I17" s="60"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="59"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="60"/>
       <c r="C18" t="s">
         <v>34</v>
@@ -1862,7 +1933,7 @@
       <c r="I18" s="60"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="59">
+      <c r="A19" s="61">
         <v>43370</v>
       </c>
       <c r="B19" s="60">
@@ -1891,7 +1962,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="59"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="60"/>
       <c r="C20" t="s">
         <v>32</v>
@@ -1914,7 +1985,7 @@
       <c r="I20" s="60"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="59">
+      <c r="A21" s="61">
         <v>43373</v>
       </c>
       <c r="B21" s="60">
@@ -1943,7 +2014,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="59"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="60"/>
       <c r="C22" t="s">
         <v>32</v>
@@ -1966,7 +2037,7 @@
       <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="59"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="60"/>
       <c r="C23" t="s">
         <v>33</v>
@@ -1989,7 +2060,7 @@
       <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="59"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="60"/>
       <c r="C24" t="s">
         <v>34</v>
@@ -2059,7 +2130,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="59">
+      <c r="A29" s="61">
         <v>43374</v>
       </c>
       <c r="B29" s="60">
@@ -2088,7 +2159,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="59"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="60"/>
       <c r="C30" t="s">
         <v>32</v>
@@ -2111,7 +2182,7 @@
       <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="59"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="60"/>
       <c r="C31" t="s">
         <v>33</v>
@@ -2134,7 +2205,7 @@
       <c r="I31" s="60"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="59"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="60"/>
       <c r="C32" t="s">
         <v>34</v>
@@ -2157,7 +2228,7 @@
       <c r="I32" s="60"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="59">
+      <c r="A33" s="61">
         <v>43374</v>
       </c>
       <c r="B33" s="60">
@@ -2186,7 +2257,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="59"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="60"/>
       <c r="C34" t="s">
         <v>32</v>
@@ -2209,7 +2280,7 @@
       <c r="I34" s="60"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="59">
+      <c r="A35" s="61">
         <v>43375</v>
       </c>
       <c r="B35" s="60">
@@ -2238,7 +2309,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="59"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="60"/>
       <c r="C36" t="s">
         <v>32</v>
@@ -2261,7 +2332,7 @@
       <c r="I36" s="60"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="59"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="60"/>
       <c r="C37" t="s">
         <v>33</v>
@@ -2284,7 +2355,7 @@
       <c r="I37" s="60"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="59"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="60"/>
       <c r="C38" t="s">
         <v>34</v>
@@ -2307,7 +2378,7 @@
       <c r="I38" s="60"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="59">
+      <c r="A39" s="61">
         <v>43375</v>
       </c>
       <c r="B39" s="60">
@@ -2336,7 +2407,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="59"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="60"/>
       <c r="C40" t="s">
         <v>32</v>
@@ -2359,7 +2430,7 @@
       <c r="I40" s="60"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="59"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="60"/>
       <c r="C41" t="s">
         <v>33</v>
@@ -2382,7 +2453,7 @@
       <c r="I41" s="60"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="59"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="60"/>
       <c r="C42" t="s">
         <v>34</v>
@@ -2769,7 +2840,7 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="59">
+      <c r="A60" s="61">
         <v>43377</v>
       </c>
       <c r="B60" s="60">
@@ -2798,7 +2869,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="59"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="60"/>
       <c r="C61" t="s">
         <v>32</v>
@@ -2821,7 +2892,7 @@
       <c r="I61" s="60"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="59">
+      <c r="A62" s="61">
         <v>43378</v>
       </c>
       <c r="B62" s="60">
@@ -2848,7 +2919,7 @@
       <c r="I62" s="60"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="59"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="60"/>
       <c r="C63" t="s">
         <v>32</v>
@@ -4236,7 +4307,22 @@
         <v>198</v>
       </c>
       <c r="C138" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="D138">
+        <v>1.25859580808677E-3</v>
+      </c>
+      <c r="E138">
+        <v>11.8362310813659</v>
+      </c>
+      <c r="F138">
+        <v>17.3430143900983</v>
+      </c>
+      <c r="G138">
+        <v>13.5566621703965</v>
+      </c>
+      <c r="H138">
+        <v>8.16014297471588</v>
       </c>
       <c r="I138" t="s">
         <v>137</v>
@@ -4244,7 +4330,22 @@
     </row>
     <row r="139" spans="2:10">
       <c r="C139" t="s">
-        <v>141</v>
+        <v>32</v>
+      </c>
+      <c r="D139">
+        <v>1.25859580808677E-3</v>
+      </c>
+      <c r="E139">
+        <v>3.5560749020382501</v>
+      </c>
+      <c r="F139">
+        <v>7.0216571293434402</v>
+      </c>
+      <c r="G139">
+        <v>8.8047320523963695</v>
+      </c>
+      <c r="H139">
+        <v>6.47781015841203</v>
       </c>
     </row>
     <row r="140" spans="2:10">
@@ -4273,7 +4374,7 @@
         <v>138</v>
       </c>
       <c r="J140" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="2:10">
@@ -4296,8 +4397,91 @@
         <v>6.3908071133403404</v>
       </c>
     </row>
+    <row r="142" spans="2:10">
+      <c r="B142">
+        <v>200</v>
+      </c>
+      <c r="C142" t="s">
+        <v>31</v>
+      </c>
+      <c r="D142">
+        <v>1.24797111896511E-3</v>
+      </c>
+      <c r="E142">
+        <v>11.7950134399962</v>
+      </c>
+      <c r="F142">
+        <v>16.3823094130824</v>
+      </c>
+      <c r="G142">
+        <v>14.016287339273401</v>
+      </c>
+      <c r="H142">
+        <v>8.1189253333461604</v>
+      </c>
+      <c r="I142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="C143" t="s">
+        <v>32</v>
+      </c>
+      <c r="D143">
+        <v>1.24797111896511E-3</v>
+      </c>
+      <c r="E143">
+        <v>3.5940550099637099</v>
+      </c>
+      <c r="F143">
+        <v>7.2348155184827103</v>
+      </c>
+      <c r="G143">
+        <v>8.7689040060458208</v>
+      </c>
+      <c r="H143">
+        <v>6.5157902663375298</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144">
+        <v>201</v>
+      </c>
+      <c r="I144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146">
+        <v>202</v>
+      </c>
+      <c r="I146" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
     <mergeCell ref="I78:I83"/>
     <mergeCell ref="I74:I77"/>
     <mergeCell ref="I51:I58"/>
@@ -4313,27 +4497,6 @@
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="I60:I63"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7484,33 +7647,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId3" name="Control 3">
+        <control shapeId="4097" r:id="rId3" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>541020</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId3" name="Control 3"/>
+        <control shapeId="4097" r:id="rId3" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="4098" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId4">
+          <controlPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7534,27 +7697,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId6" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId7">
+        <control shapeId="4099" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>541020</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId6" name="Control 1"/>
+        <control shapeId="4099" r:id="rId7" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7563,546 +7726,702 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF23902-3816-4B4E-83CE-581E9B6C3F52}">
-  <dimension ref="B1:L24"/>
+  <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:13" ht="15" thickBot="1"/>
+    <row r="2" spans="2:13">
       <c r="B2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="61" t="s">
+    <row r="3" spans="2:13">
+      <c r="B3" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="10">
+      <c r="E3" s="10">
         <v>5.8508186126840396E-3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F3" s="11">
         <v>2.1403733488471399</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G3" s="11">
         <v>2.14143031615124</v>
       </c>
-      <c r="G3" s="11">
+      <c r="H3" s="11">
         <v>43.1675045082523</v>
       </c>
-      <c r="H3" s="16">
+      <c r="I3" s="16">
         <v>-6.32791094461188E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="61"/>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="2:13">
+      <c r="B4" s="62"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="10">
+      <c r="E4" s="10">
         <v>3.91506130246833E-3</v>
       </c>
-      <c r="E4" s="12">
+      <c r="F4" s="12">
         <v>6.9091884490599398</v>
       </c>
-      <c r="F4" s="11">
+      <c r="G4" s="11">
         <v>9.5183395249079101</v>
       </c>
-      <c r="G4" s="11">
+      <c r="H4" s="11">
         <v>14.14550056685</v>
       </c>
-      <c r="H4" s="16">
+      <c r="I4" s="16">
         <v>4.7624871892681799</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="61" t="s">
+    <row r="5" spans="2:13">
+      <c r="B5" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="68"/>
+      <c r="D5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="10">
+      <c r="E5" s="10">
         <v>6.1902719878231503E-3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F5" s="11">
         <v>2.1366363962492398</v>
       </c>
-      <c r="F5" s="11">
+      <c r="G5" s="11">
         <v>2.15475478958848</v>
       </c>
-      <c r="G5" s="11">
+      <c r="H5" s="11">
         <v>30.491525676382999</v>
       </c>
-      <c r="H5" s="16">
+      <c r="I5" s="16">
         <v>-1.00648635425107E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="62"/>
-      <c r="C6" s="17" t="s">
+    <row r="6" spans="2:13" ht="15" thickBot="1">
+      <c r="B6" s="63"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="18">
+      <c r="E6" s="18">
         <v>5.1723873604367704E-3</v>
       </c>
-      <c r="E6" s="19">
+      <c r="F6" s="19">
         <v>4.3668071185333099</v>
       </c>
-      <c r="F6" s="20">
+      <c r="G6" s="20">
         <v>5.7712948882694199</v>
       </c>
-      <c r="G6" s="20">
+      <c r="H6" s="20">
         <v>13.878630232213199</v>
       </c>
-      <c r="H6" s="21">
+      <c r="I6" s="21">
         <v>2.2201058587415501</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1"/>
-    <row r="10" spans="2:12">
+    <row r="9" spans="2:13" ht="15" thickBot="1"/>
+    <row r="10" spans="2:13">
       <c r="B10" s="45"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="63" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="65"/>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="66"/>
+      <c r="I10" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="K10" s="65"/>
-    </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1">
+      <c r="L10" s="66"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" thickBot="1">
       <c r="B11" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="E11" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="H11" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="I11" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="J11" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="K11" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="L11" s="40" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:13">
       <c r="B12" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="54">
+      <c r="E12" s="54">
         <v>1.96897126794523</v>
       </c>
-      <c r="E12" s="55">
+      <c r="F12" s="55">
         <v>3.4602999071115099</v>
       </c>
-      <c r="F12" s="55">
+      <c r="G12" s="55">
         <v>14.6053919825485</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="H12" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="57" t="s">
         <v>121</v>
       </c>
       <c r="J12" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="58" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="13" spans="2:12">
+      <c r="L12" s="56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="71"/>
+      <c r="D13" s="53">
         <v>2.5172597916725101E-3</v>
       </c>
-      <c r="D13" s="33">
+      <c r="E13" s="33">
         <v>11.812966277372</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="10">
         <v>17.191494721178199</v>
       </c>
-      <c r="F13" s="10">
+      <c r="G13" s="10">
         <v>13.6182460783909</v>
       </c>
-      <c r="G13" s="34">
+      <c r="H13" s="34">
         <v>8.1368781707219107</v>
       </c>
-      <c r="H13" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="30" t="s">
         <v>121</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="24" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="2:12">
+      <c r="L13" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="53">
+        <v>140</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="53">
         <v>2.5157486849751E-3</v>
       </c>
-      <c r="D14" s="33">
+      <c r="E14" s="33">
         <v>11.7831398702687</v>
       </c>
-      <c r="E14" s="10">
+      <c r="F14" s="10">
         <v>18.205059973533601</v>
       </c>
-      <c r="F14" s="10">
+      <c r="G14" s="10">
         <v>13.1731640817904</v>
       </c>
-      <c r="G14" s="34">
+      <c r="H14" s="34">
         <v>8.1070517636185997</v>
       </c>
-      <c r="H14" s="31">
-        <f t="shared" ref="H14" si="0">(D14-D$13)/D$13</f>
+      <c r="I14" s="31">
+        <f t="shared" ref="I14" si="0">(E14-E$13)/E$13</f>
         <v>-2.5248871793051215E-3</v>
       </c>
-      <c r="I14" s="25">
-        <f t="shared" ref="I14" si="1">(E14-E$13)/E$13</f>
+      <c r="J14" s="25">
+        <f t="shared" ref="J14" si="1">(F14-F$13)/F$13</f>
         <v>5.8957366348534629E-2</v>
       </c>
-      <c r="J14" s="25">
-        <f t="shared" ref="J14" si="2">(F14-F$13)/F$13</f>
+      <c r="K14" s="25">
+        <f t="shared" ref="K14" si="2">(G14-G$13)/G$13</f>
         <v>-3.2682769428490882E-2</v>
       </c>
-      <c r="K14" s="27">
-        <f t="shared" ref="K14" si="3">(G14-G$13)/G$13</f>
+      <c r="L14" s="27">
+        <f t="shared" ref="L14" si="3">(H14-H$13)/H$13</f>
         <v>-3.6655835908459651E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:13" ht="15" thickBot="1">
       <c r="B15" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="53">
+        <v>1.23697815758462E-3</v>
+      </c>
+      <c r="E15" s="33">
+        <v>11.9807462335539</v>
+      </c>
+      <c r="F15" s="10">
+        <v>16.604597541433399</v>
+      </c>
+      <c r="G15" s="10">
+        <v>14.1313009002768</v>
+      </c>
+      <c r="H15" s="34">
+        <v>8.30465812690381</v>
+      </c>
+      <c r="I15" s="32">
+        <f>(E15-E$13)/E$13</f>
+        <v>1.4203033534708854E-2</v>
+      </c>
+      <c r="J15" s="28">
+        <f>(F15-F$13)/F$13</f>
+        <v>-3.4138810456184505E-2</v>
+      </c>
+      <c r="K15" s="28">
+        <f>(G15-G$13)/G$13</f>
+        <v>3.7674074835525477E-2</v>
+      </c>
+      <c r="L15" s="29">
+        <f>(H15-H$13)/H$13</f>
+        <v>2.0619696235050521E-2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="53">
         <v>1.2416653778368101E-3</v>
       </c>
-      <c r="D15" s="33">
+      <c r="E16" s="33">
         <v>12.0679709489517</v>
       </c>
-      <c r="E15" s="10">
+      <c r="F16" s="10">
         <v>16.795348497486899</v>
       </c>
-      <c r="F15" s="10">
+      <c r="G16" s="10">
         <v>14.1431827932181</v>
       </c>
-      <c r="G15" s="34">
+      <c r="H16" s="34">
         <v>8.3918828423015999</v>
       </c>
-      <c r="H15" s="31">
-        <f t="shared" ref="H15:H20" si="4">(D15-D$13)/D$13</f>
+      <c r="I16" s="31">
+        <f>(E16-E$13)/E$13</f>
         <v>2.1586844962739542E-2</v>
       </c>
-      <c r="I15" s="25">
-        <f t="shared" ref="I15:K15" si="5">(E15-E$13)/E$13</f>
+      <c r="J16" s="25">
+        <f>(F16-F$13)/F$13</f>
         <v>-2.3043151867608556E-2</v>
       </c>
-      <c r="J15" s="25">
-        <f t="shared" si="5"/>
+      <c r="K16" s="25">
+        <f>(G16-G$13)/G$13</f>
         <v>3.8546572870360826E-2</v>
       </c>
-      <c r="K15" s="27">
-        <f t="shared" si="5"/>
+      <c r="L16" s="27">
+        <f>(H16-H$13)/H$13</f>
         <v>3.133937441723611E-2</v>
       </c>
-      <c r="L15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="37" t="s">
+    </row>
+    <row r="17" spans="2:12" ht="15" thickBot="1">
+      <c r="B17" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="53">
+        <v>1.24797111896511E-3</v>
+      </c>
+      <c r="E17" s="33">
+        <v>11.7950134399962</v>
+      </c>
+      <c r="F17" s="10">
+        <v>16.3823094130824</v>
+      </c>
+      <c r="G17" s="10">
+        <v>14.016287339273401</v>
+      </c>
+      <c r="H17" s="34">
+        <v>8.1189253333461604</v>
+      </c>
+      <c r="I17" s="32">
+        <f>(E17-E$13)/E$13</f>
+        <v>-1.5197569310080111E-3</v>
+      </c>
+      <c r="J17" s="28">
+        <f>(F17-F$13)/F$13</f>
+        <v>-4.7068932703039704E-2</v>
+      </c>
+      <c r="K17" s="28">
+        <f>(G17-G$13)/G$13</f>
+        <v>2.9228526095890037E-2</v>
+      </c>
+      <c r="L17" s="29">
+        <f>(H17-H$13)/H$13</f>
+        <v>-2.2063544518029169E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15" thickBot="1">
+      <c r="B18" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="53">
+        <v>1.25162732482959E-3</v>
+      </c>
+      <c r="E18" s="33">
+        <v>12.1999465730098</v>
+      </c>
+      <c r="F18" s="10">
+        <v>17.4182346607416</v>
+      </c>
+      <c r="G18" s="10">
+        <v>14.025234478263799</v>
+      </c>
+      <c r="H18" s="34">
+        <v>8.5238584663597301</v>
+      </c>
+      <c r="I18" s="32">
+        <f>(E18-E$13)/E$13</f>
+        <v>3.2758943566872721E-2</v>
+      </c>
+      <c r="J18" s="28">
+        <f>(F18-F$13)/F$13</f>
+        <v>1.3189076531203577E-2</v>
+      </c>
+      <c r="K18" s="28">
+        <f>(G18-G$13)/G$13</f>
+        <v>2.9885522521046128E-2</v>
+      </c>
+      <c r="L18" s="29">
+        <f>(H18-H$13)/H$13</f>
+        <v>4.7558816479549945E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C20" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="53">
         <v>1.2367894384974099E-3</v>
       </c>
-      <c r="D16" s="33">
+      <c r="E20" s="33">
         <v>12.0501735388866</v>
       </c>
-      <c r="E16" s="10">
+      <c r="F20" s="10">
         <v>16.906721928754401</v>
       </c>
-      <c r="F16" s="10">
+      <c r="G20" s="10">
         <v>14.0762430723527</v>
       </c>
-      <c r="G16" s="34">
+      <c r="H20" s="34">
         <v>8.3740854322365994</v>
       </c>
-      <c r="H16" s="31">
-        <f t="shared" si="4"/>
+      <c r="I20" s="31">
+        <f t="shared" ref="I15:I25" si="4">(E20-E$13)/E$13</f>
         <v>2.0080245379941169E-2</v>
       </c>
-      <c r="I16" s="25">
-        <f t="shared" ref="I16" si="6">(E16-E$13)/E$13</f>
+      <c r="J20" s="25">
+        <f t="shared" ref="J20" si="5">(F20-F$13)/F$13</f>
         <v>-1.6564748850661972E-2</v>
       </c>
-      <c r="J16" s="25">
-        <f t="shared" ref="J16" si="7">(F16-F$13)/F$13</f>
+      <c r="K20" s="25">
+        <f t="shared" ref="K20" si="6">(G20-G$13)/G$13</f>
         <v>3.3631129245677092E-2</v>
       </c>
-      <c r="K16" s="27">
-        <f t="shared" ref="K16" si="8">(G16-G$13)/G$13</f>
+      <c r="L20" s="27">
+        <f t="shared" ref="L20" si="7">(H20-H$13)/H$13</f>
         <v>2.9152121555439673E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="37" t="s">
+    <row r="21" spans="2:12">
+      <c r="B21" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="31">
+        <f t="shared" ref="I21" si="8">(E21-E$13)/E$13</f>
+        <v>-1</v>
+      </c>
+      <c r="J21" s="25">
+        <f t="shared" ref="J21" si="9">(F21-F$13)/F$13</f>
+        <v>-1</v>
+      </c>
+      <c r="K21" s="25">
+        <f t="shared" ref="K21" si="10">(G21-G$13)/G$13</f>
+        <v>-1</v>
+      </c>
+      <c r="L21" s="27">
+        <f t="shared" ref="L21" si="11">(H21-H$13)/H$13</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C22" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="53">
         <v>0.16524580917679299</v>
       </c>
-      <c r="D17" s="33">
+      <c r="E22" s="33">
         <v>11.524378679359</v>
       </c>
-      <c r="E17" s="10">
+      <c r="F22" s="10">
         <v>19.351235832271101</v>
       </c>
-      <c r="F17" s="10">
+      <c r="G22" s="10">
         <v>12.516035605725399</v>
       </c>
-      <c r="G17" s="34">
+      <c r="H22" s="34">
         <v>7.8482905727088497</v>
       </c>
-      <c r="H17" s="31">
+      <c r="I22" s="31">
         <f t="shared" si="4"/>
         <v>-2.4429731807987683E-2</v>
       </c>
-      <c r="I17" s="25">
-        <f t="shared" ref="I17" si="9">(E17-E$13)/E$13</f>
+      <c r="J22" s="25">
+        <f t="shared" ref="J22" si="12">(F22-F$13)/F$13</f>
         <v>0.12562846605957526</v>
       </c>
-      <c r="J17" s="25">
-        <f t="shared" ref="J17" si="10">(F17-F$13)/F$13</f>
+      <c r="K22" s="25">
+        <f t="shared" ref="K22" si="13">(G22-G$13)/G$13</f>
         <v>-8.0936301658879661E-2</v>
       </c>
-      <c r="K17" s="27">
-        <f t="shared" ref="K17" si="11">(G17-G$13)/G$13</f>
+      <c r="L22" s="27">
+        <f t="shared" ref="L22" si="14">(H22-H$13)/H$13</f>
         <v>-3.5466623926047706E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15" thickBot="1">
-      <c r="B18" s="38" t="s">
+    <row r="23" spans="2:12" ht="15" thickBot="1">
+      <c r="B23" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C23" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="53">
         <v>0.108961390961821</v>
       </c>
-      <c r="D18" s="35">
+      <c r="E23" s="35">
         <v>11.3704568974146</v>
       </c>
-      <c r="E18" s="18">
+      <c r="F23" s="18">
         <v>15.2321663577236</v>
       </c>
-      <c r="F18" s="18">
+      <c r="G23" s="18">
         <v>14.063181415601001</v>
       </c>
-      <c r="G18" s="36">
+      <c r="H23" s="36">
         <v>7.6943687907646003</v>
       </c>
-      <c r="H18" s="32">
+      <c r="I23" s="32">
         <f t="shared" si="4"/>
         <v>-3.7459632878579917E-2</v>
       </c>
-      <c r="I18" s="28">
-        <f t="shared" ref="I18" si="12">(E18-E$13)/E$13</f>
+      <c r="J23" s="28">
+        <f t="shared" ref="J23" si="15">(F23-F$13)/F$13</f>
         <v>-0.11397079749214027</v>
       </c>
-      <c r="J18" s="28">
-        <f t="shared" ref="J18" si="13">(F18-F$13)/F$13</f>
+      <c r="K23" s="28">
+        <f t="shared" ref="K23" si="16">(G23-G$13)/G$13</f>
         <v>3.2672000098170742E-2</v>
       </c>
-      <c r="K18" s="29">
-        <f t="shared" ref="K18" si="14">(G18-G$13)/G$13</f>
+      <c r="L23" s="29">
+        <f t="shared" ref="L23" si="17">(H23-H$13)/H$13</f>
         <v>-5.4383188573419491E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15" thickBot="1">
-      <c r="B19" s="38" t="s">
+    <row r="24" spans="2:12" ht="15" thickBot="1">
+      <c r="B24" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C24" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="53">
         <v>1.24950087271057E-3</v>
       </c>
-      <c r="D19" s="33">
+      <c r="E24" s="33">
         <v>11.9454971409202</v>
       </c>
-      <c r="E19" s="10">
+      <c r="F24" s="10">
         <v>17.037937106154398</v>
       </c>
-      <c r="F19" s="10">
+      <c r="G24" s="10">
         <v>13.852797662412399</v>
       </c>
-      <c r="G19" s="34">
+      <c r="H24" s="34">
         <v>8.2694090342701898</v>
       </c>
-      <c r="H19" s="32">
+      <c r="I24" s="32">
         <f t="shared" si="4"/>
         <v>1.1219101150069735E-2</v>
       </c>
-      <c r="I19" s="28">
-        <f t="shared" ref="I19" si="15">(E19-E$13)/E$13</f>
+      <c r="J24" s="28">
+        <f t="shared" ref="J24" si="18">(F24-F$13)/F$13</f>
         <v>-8.9321852179980871E-3</v>
       </c>
-      <c r="J19" s="28">
-        <f t="shared" ref="J19" si="16">(F19-F$13)/F$13</f>
+      <c r="K24" s="28">
+        <f t="shared" ref="K24" si="19">(G24-G$13)/G$13</f>
         <v>1.7223332775112652E-2</v>
       </c>
-      <c r="K19" s="29">
-        <f t="shared" ref="K19" si="17">(G19-G$13)/G$13</f>
+      <c r="L24" s="29">
+        <f t="shared" ref="L24" si="20">(H24-H$13)/H$13</f>
         <v>1.6287679472104091E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15" thickBot="1">
-      <c r="B20" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="53">
-        <v>1.23697815758462E-3</v>
-      </c>
-      <c r="D20" s="33">
-        <v>11.9807462335539</v>
-      </c>
-      <c r="E20" s="10">
-        <v>16.604597541433399</v>
-      </c>
-      <c r="F20" s="10">
-        <v>14.1313009002768</v>
-      </c>
-      <c r="G20" s="34">
-        <v>8.30465812690381</v>
-      </c>
-      <c r="H20" s="32">
-        <f t="shared" si="4"/>
-        <v>1.4203033534708854E-2</v>
-      </c>
-      <c r="I20" s="28">
-        <f t="shared" ref="I20" si="18">(E20-E$13)/E$13</f>
-        <v>-3.4138810456184505E-2</v>
-      </c>
-      <c r="J20" s="28">
-        <f t="shared" ref="J20" si="19">(F20-F$13)/F$13</f>
-        <v>3.7674074835525477E-2</v>
-      </c>
-      <c r="K20" s="29">
-        <f t="shared" ref="K20" si="20">(G20-G$13)/G$13</f>
-        <v>2.0619696235050521E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15" thickBot="1">
-      <c r="B21" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="53">
-        <v>1.25162732482959E-3</v>
-      </c>
-      <c r="D21" s="33">
-        <v>12.1999465730098</v>
-      </c>
-      <c r="E21" s="10">
-        <v>17.4182346607416</v>
-      </c>
-      <c r="F21" s="10">
-        <v>14.025234478263799</v>
-      </c>
-      <c r="G21" s="34">
-        <v>8.5238584663597301</v>
-      </c>
-      <c r="H21" s="32">
-        <f t="shared" ref="H21" si="21">(D21-D$13)/D$13</f>
-        <v>3.2758943566872721E-2</v>
-      </c>
-      <c r="I21" s="28">
-        <f t="shared" ref="I21" si="22">(E21-E$13)/E$13</f>
-        <v>1.3189076531203577E-2</v>
-      </c>
-      <c r="J21" s="28">
-        <f t="shared" ref="J21" si="23">(F21-F$13)/F$13</f>
-        <v>2.9885522521046128E-2</v>
-      </c>
-      <c r="K21" s="29">
-        <f t="shared" ref="K21" si="24">(G21-G$13)/G$13</f>
-        <v>4.7558816479549945E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="42" t="s">
+    <row r="27" spans="2:12" ht="15" thickBot="1">
+      <c r="B27" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="53">
+        <v>1.25859580808677E-3</v>
+      </c>
+      <c r="E27" s="33">
+        <v>11.8362310813659</v>
+      </c>
+      <c r="F27" s="10">
+        <v>17.3430143900983</v>
+      </c>
+      <c r="G27" s="10">
+        <v>13.5566621703965</v>
+      </c>
+      <c r="H27" s="34">
+        <v>8.16014297471588</v>
+      </c>
+      <c r="I27" s="32">
+        <f t="shared" ref="I27" si="21">(E27-E$13)/E$13</f>
+        <v>1.9694294766983565E-3</v>
+      </c>
+      <c r="J27" s="28">
+        <f t="shared" ref="J27" si="22">(F27-F$13)/F$13</f>
+        <v>8.8136413603085301E-3</v>
+      </c>
+      <c r="K27" s="28">
+        <f t="shared" ref="K27" si="23">(G27-G$13)/G$13</f>
+        <v>-4.5221614912745716E-3</v>
+      </c>
+      <c r="L27" s="29">
+        <f t="shared" ref="L27" si="24">(H27-H$13)/H$13</f>
+        <v>2.8591805734145925E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="C30" s="71"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="C31" s="71"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="42" t="s">
         <v>124</v>
       </c>
+      <c r="C32" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0CA07D89-4D34-410A-BBE8-FB9D4932333B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9A4F1137-01AF-4DB1-9443-62CBF84B9561}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3996" windowHeight="4260" activeTab="2" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="164">
   <si>
     <t>Experiment</t>
   </si>
@@ -487,6 +487,39 @@
   </si>
   <si>
     <t>Magnitude &amp; Phase  Version 2</t>
+  </si>
+  <si>
+    <t>Try with checkpoint 6</t>
+  </si>
+  <si>
+    <t>Try two more epochs</t>
+  </si>
+  <si>
+    <t>Try checkpoint 3</t>
+  </si>
+  <si>
+    <t>Try checkpoint 7</t>
+  </si>
+  <si>
+    <t>Failed - checkpoint not found</t>
+  </si>
+  <si>
+    <t>try from scratch for 4 epochs</t>
+  </si>
+  <si>
+    <t>Failed - checkpoint/new graph mismatch</t>
+  </si>
+  <si>
+    <t>Decide whether or not to use this</t>
+  </si>
+  <si>
+    <t>Two more epochs running on Africa</t>
+  </si>
+  <si>
+    <t>Running on Africa</t>
+  </si>
+  <si>
+    <t>Failed - phase loss error</t>
   </si>
 </sst>
 </file>
@@ -566,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -898,11 +931,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -948,8 +1039,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -989,10 +1078,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1010,21 +1109,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1501,11 +1628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
@@ -1513,6 +1640,7 @@
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1682,7 +1810,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -1708,7 +1836,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="60"/>
+      <c r="B10" s="65"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -1729,10 +1857,10 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="61">
+      <c r="A11" s="64">
         <v>43367</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="65">
         <v>50</v>
       </c>
       <c r="C11">
@@ -1758,8 +1886,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="61"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -1783,10 +1911,10 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="61">
+      <c r="A13" s="64">
         <v>43368</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="65">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -1807,13 +1935,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="65" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="61"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -1832,13 +1960,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="60"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="61">
+      <c r="A15" s="64">
         <v>43369</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="65">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1859,13 +1987,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="65" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="61"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1884,11 +2012,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="60"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1907,11 +2035,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="60"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1930,13 +2058,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="60"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61">
+      <c r="A19" s="64">
         <v>43370</v>
       </c>
-      <c r="B19" s="60">
+      <c r="B19" s="65">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1957,13 +2085,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="65" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1982,13 +2110,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="60"/>
+      <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61">
+      <c r="A21" s="64">
         <v>43373</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="65">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -2009,13 +2137,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="65" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -2034,11 +2162,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="60"/>
+      <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -2057,11 +2185,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="60"/>
+      <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="65"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -2080,7 +2208,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="60"/>
+      <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
@@ -2130,10 +2258,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61">
+      <c r="A29" s="64">
         <v>43374</v>
       </c>
-      <c r="B29" s="60">
+      <c r="B29" s="65">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -2154,13 +2282,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="60" t="s">
+      <c r="I29" s="65" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="65"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2179,11 +2307,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="60"/>
+      <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="65"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2202,11 +2330,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="60"/>
+      <c r="I31" s="65"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -2225,13 +2353,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="60"/>
+      <c r="I32" s="65"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61">
+      <c r="A33" s="64">
         <v>43374</v>
       </c>
-      <c r="B33" s="60">
+      <c r="B33" s="65">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -2252,13 +2380,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="60" t="s">
+      <c r="I33" s="65" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
-      <c r="B34" s="60"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -2277,13 +2405,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="60"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61">
+      <c r="A35" s="64">
         <v>43375</v>
       </c>
-      <c r="B35" s="60">
+      <c r="B35" s="65">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -2304,13 +2432,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="60" t="s">
+      <c r="I35" s="65" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="65"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -2329,11 +2457,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="60"/>
+      <c r="I36" s="65"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="65"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -2352,11 +2480,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="60"/>
+      <c r="I37" s="65"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="65"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -2375,13 +2503,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="60"/>
+      <c r="I38" s="65"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61">
+      <c r="A39" s="64">
         <v>43375</v>
       </c>
-      <c r="B39" s="60">
+      <c r="B39" s="65">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -2402,13 +2530,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="60" t="s">
+      <c r="I39" s="65" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -2427,11 +2555,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="60"/>
+      <c r="I40" s="65"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="65"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -2450,11 +2578,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="60"/>
+      <c r="I41" s="65"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
-      <c r="B42" s="60"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="65"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -2473,7 +2601,7 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="60"/>
+      <c r="I42" s="65"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
@@ -2663,7 +2791,7 @@
       <c r="H51">
         <v>-0.31863876639355398</v>
       </c>
-      <c r="I51" s="60" t="s">
+      <c r="I51" s="65" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2687,7 +2815,7 @@
       <c r="H52">
         <v>2.67662389686584</v>
       </c>
-      <c r="I52" s="60"/>
+      <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
@@ -2709,7 +2837,7 @@
       <c r="H53">
         <v>0.95464630209159695</v>
       </c>
-      <c r="I53" s="60"/>
+      <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
@@ -2731,7 +2859,7 @@
       <c r="H54">
         <v>4.8512619602994098</v>
       </c>
-      <c r="I54" s="60"/>
+      <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
@@ -2756,7 +2884,7 @@
       <c r="H55">
         <v>-0.56767955034740303</v>
       </c>
-      <c r="I55" s="60"/>
+      <c r="I55" s="65"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
@@ -2778,7 +2906,7 @@
       <c r="H56">
         <v>1.8761231724104801</v>
       </c>
-      <c r="I56" s="60"/>
+      <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
@@ -2800,7 +2928,7 @@
       <c r="H57">
         <v>0.76717154068581295</v>
       </c>
-      <c r="I57" s="60"/>
+      <c r="I57" s="65"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
@@ -2822,7 +2950,7 @@
       <c r="H58">
         <v>3.8964804606254</v>
       </c>
-      <c r="I58" s="60"/>
+      <c r="I58" s="65"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
@@ -2840,10 +2968,10 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="61">
+      <c r="A60" s="64">
         <v>43377</v>
       </c>
-      <c r="B60" s="60">
+      <c r="B60" s="65">
         <v>85</v>
       </c>
       <c r="C60" t="s">
@@ -2864,13 +2992,13 @@
       <c r="H60">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I60" s="60" t="s">
+      <c r="I60" s="65" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="61"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="65"/>
       <c r="C61" t="s">
         <v>32</v>
       </c>
@@ -2889,13 +3017,13 @@
       <c r="H61">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I61" s="60"/>
+      <c r="I61" s="65"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="61">
+      <c r="A62" s="64">
         <v>43378</v>
       </c>
-      <c r="B62" s="60">
+      <c r="B62" s="65">
         <v>89</v>
       </c>
       <c r="C62" t="s">
@@ -2916,11 +3044,11 @@
       <c r="H62">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I62" s="60"/>
+      <c r="I62" s="65"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
-      <c r="B63" s="60"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="65"/>
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -2939,7 +3067,7 @@
       <c r="H63">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I63" s="60"/>
+      <c r="I63" s="65"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -2962,7 +3090,7 @@
       <c r="H64">
         <v>4.5462062693628003</v>
       </c>
-      <c r="I64" s="60" t="s">
+      <c r="I64" s="65" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2987,7 +3115,7 @@
       <c r="H65">
         <v>-3.4906857233533901</v>
       </c>
-      <c r="I65" s="60"/>
+      <c r="I65" s="65"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="5" t="s">
@@ -3167,7 +3295,7 @@
       <c r="H74">
         <v>-1.00648635425107E-2</v>
       </c>
-      <c r="I74" s="60" t="s">
+      <c r="I74" s="65" t="s">
         <v>72</v>
       </c>
       <c r="J74" t="s">
@@ -3193,7 +3321,7 @@
       <c r="H75">
         <v>2.3179146551025099E-3</v>
       </c>
-      <c r="I75" s="60"/>
+      <c r="I75" s="65"/>
     </row>
     <row r="76" spans="1:10">
       <c r="C76" t="s">
@@ -3214,7 +3342,7 @@
       <c r="H76">
         <v>2.2201058587415501</v>
       </c>
-      <c r="I76" s="60"/>
+      <c r="I76" s="65"/>
     </row>
     <row r="77" spans="1:10">
       <c r="C77" t="s">
@@ -3235,7 +3363,7 @@
       <c r="H77">
         <v>-3.9812518800141699</v>
       </c>
-      <c r="I77" s="60"/>
+      <c r="I77" s="65"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1">
@@ -3262,7 +3390,7 @@
       <c r="H78">
         <v>-5.2635717372245903E-3</v>
       </c>
-      <c r="I78" s="60" t="s">
+      <c r="I78" s="65" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3285,7 +3413,7 @@
       <c r="H79">
         <v>-3.0981829250898101</v>
       </c>
-      <c r="I79" s="60"/>
+      <c r="I79" s="65"/>
     </row>
     <row r="80" spans="1:10">
       <c r="B80">
@@ -3309,7 +3437,7 @@
       <c r="H80">
         <v>-6.1165373024574896E-3</v>
       </c>
-      <c r="I80" s="60"/>
+      <c r="I80" s="65"/>
     </row>
     <row r="81" spans="1:9">
       <c r="C81" t="s">
@@ -3330,7 +3458,7 @@
       <c r="H81">
         <v>-3.3361756537648399</v>
       </c>
-      <c r="I81" s="60"/>
+      <c r="I81" s="65"/>
     </row>
     <row r="82" spans="1:9">
       <c r="C82" t="s">
@@ -3351,7 +3479,7 @@
       <c r="H82">
         <v>2.0683995791691099</v>
       </c>
-      <c r="I82" s="60"/>
+      <c r="I82" s="65"/>
     </row>
     <row r="83" spans="1:9">
       <c r="C83" t="s">
@@ -3372,7 +3500,7 @@
       <c r="H83">
         <v>-3.3679402794508602</v>
       </c>
-      <c r="I83" s="60"/>
+      <c r="I83" s="65"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
@@ -3912,7 +4040,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" ht="15" thickBot="1">
       <c r="C121" t="s">
         <v>107</v>
       </c>
@@ -3927,540 +4055,1202 @@
       </c>
     </row>
     <row r="122" spans="1:11">
-      <c r="B122">
+      <c r="B122" s="43">
         <v>169</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="71">
         <v>2.5172597916725101E-3</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="71">
         <v>11.812966277372</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="71">
         <v>17.191494721178199</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="71">
         <v>13.6182460783909</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="71">
         <v>8.1368781707219107</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="71" t="s">
         <v>97</v>
       </c>
+      <c r="J122" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="K122">
+        <v>204</v>
+      </c>
     </row>
     <row r="123" spans="1:11">
-      <c r="C123" t="s">
+      <c r="B123" s="73"/>
+      <c r="C123" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="74">
         <v>2.5172597916725101E-3</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="74">
         <v>3.5473922089785801</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="74">
         <v>6.9903181195355097</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="74">
         <v>8.8429177681452806</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="74">
         <v>6.4691274653523996</v>
       </c>
-      <c r="J123">
-        <f>(E124-E122)/E122</f>
-        <v>2.1586844962739542E-2</v>
-      </c>
-      <c r="K123">
-        <f>(G124-G122)/G122</f>
-        <v>3.8546572870360826E-2</v>
-      </c>
+      <c r="I123" s="74"/>
+      <c r="J123" s="75"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="B124" t="s">
+      <c r="B124" s="73">
+        <v>204</v>
+      </c>
+      <c r="C124" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D124" s="74">
+        <v>2.4841721818889802E-3</v>
+      </c>
+      <c r="E124" s="74">
+        <v>11.903875779176801</v>
+      </c>
+      <c r="F124" s="74">
+        <v>16.6014157129636</v>
+      </c>
+      <c r="G124" s="74">
+        <v>14.0382282363763</v>
+      </c>
+      <c r="H124" s="74">
+        <v>8.2277876725267696</v>
+      </c>
+      <c r="I124" s="74"/>
+      <c r="J124" s="75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="B125" s="73"/>
+      <c r="C125" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" s="74">
+        <v>2.4841721818889802E-3</v>
+      </c>
+      <c r="E125" s="74">
+        <v>3.7019918413399799</v>
+      </c>
+      <c r="F125" s="74">
+        <v>7.2532973568738601</v>
+      </c>
+      <c r="G125" s="74">
+        <v>8.9075261359636304</v>
+      </c>
+      <c r="H125" s="74">
+        <v>6.6237270977138696</v>
+      </c>
+      <c r="I125" s="74"/>
+      <c r="J125" s="75"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="B126" s="73">
+        <v>199</v>
+      </c>
+      <c r="C126" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D126" s="74">
+        <v>2.5157486849751E-3</v>
+      </c>
+      <c r="E126" s="74">
+        <v>11.7831398702687</v>
+      </c>
+      <c r="F126" s="74">
+        <v>18.205059973533601</v>
+      </c>
+      <c r="G126" s="74">
+        <v>13.1731640817904</v>
+      </c>
+      <c r="H126" s="74">
+        <v>8.1070517636185997</v>
+      </c>
+      <c r="I126" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="J126" s="75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15" thickBot="1">
+      <c r="B127" s="44"/>
+      <c r="C127" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D127" s="76">
+        <v>2.5157486849751E-3</v>
+      </c>
+      <c r="E127" s="76">
+        <v>3.46907185696652</v>
+      </c>
+      <c r="F127" s="76">
+        <v>7.0409396207031696</v>
+      </c>
+      <c r="G127" s="76">
+        <v>8.6263857592523703</v>
+      </c>
+      <c r="H127" s="76">
+        <v>6.3908071133403404</v>
+      </c>
+      <c r="I127" s="76"/>
+      <c r="J127" s="77"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="B128" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C128" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D124">
+      <c r="D128" s="71">
         <v>1.2416653778368101E-3</v>
       </c>
-      <c r="E124">
+      <c r="E128" s="71">
         <v>12.0679709489517</v>
       </c>
-      <c r="F124">
+      <c r="F128" s="71">
         <v>16.795348497486899</v>
       </c>
-      <c r="G124">
+      <c r="G128" s="71">
         <v>14.1431827932181</v>
       </c>
-      <c r="H124">
+      <c r="H128" s="71">
         <v>8.3918828423015999</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I128" s="71" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="C125" t="s">
+      <c r="J128" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="K128">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="73"/>
+      <c r="C129" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D125">
+      <c r="D129" s="74">
         <v>1.2416653778368101E-3</v>
       </c>
-      <c r="E125">
+      <c r="E129" s="74">
         <v>3.7975779219481001</v>
       </c>
-      <c r="F125">
+      <c r="F129" s="74">
         <v>7.2729909246688003</v>
       </c>
-      <c r="G125">
+      <c r="G129" s="74">
         <v>9.0864181974517493</v>
       </c>
-      <c r="H125">
+      <c r="H129" s="74">
         <v>6.7193131783218796</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="B126">
+      <c r="I129" s="74"/>
+      <c r="J129" s="75"/>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" s="73">
+        <v>203</v>
+      </c>
+      <c r="C130" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D130" s="74">
+        <v>1.2491245109301299E-3</v>
+      </c>
+      <c r="E130" s="74">
+        <v>11.879246402808599</v>
+      </c>
+      <c r="F130" s="74">
+        <v>16.5327236574445</v>
+      </c>
+      <c r="G130" s="74">
+        <v>14.023509467287299</v>
+      </c>
+      <c r="H130" s="74">
+        <v>8.2031582961585592</v>
+      </c>
+      <c r="I130" s="74"/>
+      <c r="J130" s="75"/>
+    </row>
+    <row r="131" spans="2:11" ht="15" thickBot="1">
+      <c r="B131" s="44"/>
+      <c r="C131" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D131" s="76">
+        <v>1.2491245109301299E-3</v>
+      </c>
+      <c r="E131" s="76">
+        <v>3.6814933857768599</v>
+      </c>
+      <c r="F131" s="76">
+        <v>7.2570091059700497</v>
+      </c>
+      <c r="G131" s="76">
+        <v>8.8788802225196601</v>
+      </c>
+      <c r="H131" s="76">
+        <v>6.6032286421507198</v>
+      </c>
+      <c r="I131" s="76"/>
+      <c r="J131" s="77"/>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="43">
         <v>177</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C132" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D126">
+      <c r="D132" s="71">
         <v>1.2367894384974099E-3</v>
       </c>
-      <c r="E126">
+      <c r="E132" s="71">
         <v>12.0501735388866</v>
       </c>
-      <c r="F126">
+      <c r="F132" s="71">
         <v>16.906721928754401</v>
       </c>
-      <c r="G126">
+      <c r="G132" s="71">
         <v>14.0762430723527</v>
       </c>
-      <c r="H126">
+      <c r="H132" s="71">
         <v>8.3740854322365994</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I132" s="71" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="C127" t="s">
+      <c r="J132" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="K132">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="73"/>
+      <c r="C133" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D127">
+      <c r="D133" s="74">
         <v>1.2367894384974099E-3</v>
       </c>
-      <c r="E127">
+      <c r="E133" s="74">
         <v>3.7166065608486401</v>
       </c>
-      <c r="F127">
+      <c r="F133" s="74">
         <v>7.1890833076520604</v>
       </c>
-      <c r="G127">
+      <c r="G133" s="74">
         <v>9.0303927558193102</v>
       </c>
-      <c r="H127">
+      <c r="H133" s="74">
         <v>6.63834181722246</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="B128">
+      <c r="I133" s="74"/>
+      <c r="J133" s="75"/>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="73">
+        <v>205</v>
+      </c>
+      <c r="C134" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D134" s="74">
+        <v>1.29336861203997E-3</v>
+      </c>
+      <c r="E134" s="74">
+        <v>11.4270403512666</v>
+      </c>
+      <c r="F134" s="74">
+        <v>16.803158417245498</v>
+      </c>
+      <c r="G134" s="74">
+        <v>13.3028838888183</v>
+      </c>
+      <c r="H134" s="74">
+        <v>7.75095224461655</v>
+      </c>
+      <c r="I134" s="74"/>
+      <c r="J134" s="75"/>
+    </row>
+    <row r="135" spans="2:11" ht="15" thickBot="1">
+      <c r="B135" s="44"/>
+      <c r="C135" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="76">
+        <v>1.29336861203997E-3</v>
+      </c>
+      <c r="E135" s="76">
+        <v>3.2036579481727498</v>
+      </c>
+      <c r="F135" s="76">
+        <v>6.6686951535332497</v>
+      </c>
+      <c r="G135" s="76">
+        <v>8.5207027105926194</v>
+      </c>
+      <c r="H135" s="76">
+        <v>6.1253932045466097</v>
+      </c>
+      <c r="I135" s="76"/>
+      <c r="J135" s="77"/>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136">
         <v>180</v>
-      </c>
-      <c r="C128" t="s">
-        <v>31</v>
-      </c>
-      <c r="D128">
-        <v>0.16524580917679299</v>
-      </c>
-      <c r="E128">
-        <v>11.524378679359</v>
-      </c>
-      <c r="F128">
-        <v>19.351235832271101</v>
-      </c>
-      <c r="G128">
-        <v>12.516035605725399</v>
-      </c>
-      <c r="H128">
-        <v>7.8482905727088497</v>
-      </c>
-      <c r="I128" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10">
-      <c r="C129" t="s">
-        <v>32</v>
-      </c>
-      <c r="D129">
-        <v>0.16524580917679299</v>
-      </c>
-      <c r="E129">
-        <v>2.7443213043886701</v>
-      </c>
-      <c r="F129">
-        <v>5.2748518417231001</v>
-      </c>
-      <c r="G129">
-        <v>9.4748345842783497</v>
-      </c>
-      <c r="H129">
-        <v>5.6660565607624997</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10">
-      <c r="B130">
-        <v>184</v>
-      </c>
-      <c r="C130" t="s">
-        <v>31</v>
-      </c>
-      <c r="D130">
-        <v>0.108961390961821</v>
-      </c>
-      <c r="E130">
-        <v>11.3704568974146</v>
-      </c>
-      <c r="F130">
-        <v>15.2321663577236</v>
-      </c>
-      <c r="G130">
-        <v>14.063181415601001</v>
-      </c>
-      <c r="H130">
-        <v>7.6943687907646003</v>
-      </c>
-      <c r="I130" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10">
-      <c r="C131" t="s">
-        <v>32</v>
-      </c>
-      <c r="D131">
-        <v>0.108961390961821</v>
-      </c>
-      <c r="E131">
-        <v>3.6225277288170399</v>
-      </c>
-      <c r="F131">
-        <v>7.5619206115772801</v>
-      </c>
-      <c r="G131">
-        <v>8.4673045109062901</v>
-      </c>
-      <c r="H131">
-        <v>6.54426298519087</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10">
-      <c r="B132">
-        <v>191</v>
-      </c>
-      <c r="C132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D132">
-        <v>1.24950087271057E-3</v>
-      </c>
-      <c r="E132">
-        <v>11.9454971409202</v>
-      </c>
-      <c r="F132">
-        <v>17.037937106154398</v>
-      </c>
-      <c r="G132">
-        <v>13.852797662412399</v>
-      </c>
-      <c r="H132">
-        <v>8.2694090342701898</v>
-      </c>
-      <c r="I132" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10">
-      <c r="C133" t="s">
-        <v>32</v>
-      </c>
-      <c r="D133">
-        <v>1.24950087271057E-3</v>
-      </c>
-      <c r="E133">
-        <v>3.6536882809921298</v>
-      </c>
-      <c r="F133">
-        <v>7.1333709354261297</v>
-      </c>
-      <c r="G133">
-        <v>8.9422995675967201</v>
-      </c>
-      <c r="H133">
-        <v>6.5754235373659702</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10">
-      <c r="B134">
-        <v>196</v>
-      </c>
-      <c r="C134" t="s">
-        <v>31</v>
-      </c>
-      <c r="D134">
-        <v>1.23697815758462E-3</v>
-      </c>
-      <c r="E134">
-        <v>11.9807462335539</v>
-      </c>
-      <c r="F134">
-        <v>16.604597541433399</v>
-      </c>
-      <c r="G134">
-        <v>14.1313009002768</v>
-      </c>
-      <c r="H134">
-        <v>8.30465812690381</v>
-      </c>
-      <c r="I134" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10">
-      <c r="C135" t="s">
-        <v>32</v>
-      </c>
-      <c r="D135">
-        <v>1.23697815758462E-3</v>
-      </c>
-      <c r="E135">
-        <v>3.7610437073779299</v>
-      </c>
-      <c r="F135">
-        <v>7.3892586725286096</v>
-      </c>
-      <c r="G135">
-        <v>8.9129593284404294</v>
-      </c>
-      <c r="H135">
-        <v>6.6827789637517503</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10">
-      <c r="B136">
-        <v>197</v>
       </c>
       <c r="C136" t="s">
         <v>31</v>
       </c>
       <c r="D136">
-        <v>1.25162732482959E-3</v>
+        <v>0.16524580917679299</v>
       </c>
       <c r="E136">
-        <v>12.1999465730098</v>
+        <v>11.524378679359</v>
       </c>
       <c r="F136">
-        <v>17.4182346607416</v>
+        <v>19.351235832271101</v>
       </c>
       <c r="G136">
-        <v>14.025234478263799</v>
+        <v>12.516035605725399</v>
       </c>
       <c r="H136">
-        <v>8.5238584663597301</v>
+        <v>7.8482905727088497</v>
       </c>
       <c r="I136" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10">
+        <v>129</v>
+      </c>
+      <c r="J136" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11">
       <c r="C137" t="s">
         <v>32</v>
       </c>
       <c r="D137">
+        <v>0.16524580917679299</v>
+      </c>
+      <c r="E137">
+        <v>2.7443213043886701</v>
+      </c>
+      <c r="F137">
+        <v>5.2748518417231001</v>
+      </c>
+      <c r="G137">
+        <v>9.4748345842783497</v>
+      </c>
+      <c r="H137">
+        <v>5.6660565607624997</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138">
+        <v>206</v>
+      </c>
+      <c r="C138" t="s">
+        <v>157</v>
+      </c>
+      <c r="J138" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" ht="15" thickBot="1"/>
+    <row r="140" spans="2:11">
+      <c r="B140" s="43">
+        <v>184</v>
+      </c>
+      <c r="C140" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D140" s="71">
+        <v>0.108961390961821</v>
+      </c>
+      <c r="E140" s="71">
+        <v>11.3704568974146</v>
+      </c>
+      <c r="F140" s="71">
+        <v>15.2321663577236</v>
+      </c>
+      <c r="G140" s="71">
+        <v>14.063181415601001</v>
+      </c>
+      <c r="H140" s="71">
+        <v>7.6943687907646003</v>
+      </c>
+      <c r="I140" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="J140" s="72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" s="73"/>
+      <c r="C141" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" s="74">
+        <v>0.108961390961821</v>
+      </c>
+      <c r="E141" s="74">
+        <v>3.6225277288170399</v>
+      </c>
+      <c r="F141" s="74">
+        <v>7.5619206115772801</v>
+      </c>
+      <c r="G141" s="74">
+        <v>8.4673045109062901</v>
+      </c>
+      <c r="H141" s="74">
+        <v>6.54426298519087</v>
+      </c>
+      <c r="I141" s="74"/>
+      <c r="J141" s="75"/>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="73">
+        <v>207</v>
+      </c>
+      <c r="C142" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D142" s="74">
+        <v>0.11006206577787001</v>
+      </c>
+      <c r="E142" s="74">
+        <v>11.642205296141</v>
+      </c>
+      <c r="F142" s="74">
+        <v>15.991064047411299</v>
+      </c>
+      <c r="G142" s="74">
+        <v>13.969427024266899</v>
+      </c>
+      <c r="H142" s="74">
+        <v>7.9661171894910003</v>
+      </c>
+      <c r="I142" s="74"/>
+      <c r="J142" s="75"/>
+    </row>
+    <row r="143" spans="2:11" ht="15" thickBot="1">
+      <c r="B143" s="44"/>
+      <c r="C143" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D143" s="76">
+        <v>0.11006206577787001</v>
+      </c>
+      <c r="E143" s="76">
+        <v>3.7274290218943502</v>
+      </c>
+      <c r="F143" s="76">
+        <v>7.44832350656411</v>
+      </c>
+      <c r="G143" s="76">
+        <v>8.7685536521527592</v>
+      </c>
+      <c r="H143" s="76">
+        <v>6.6491642782681799</v>
+      </c>
+      <c r="I143" s="76"/>
+      <c r="J143" s="77"/>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="43">
+        <v>191</v>
+      </c>
+      <c r="C144" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D144" s="71">
+        <v>1.24950087271057E-3</v>
+      </c>
+      <c r="E144" s="71">
+        <v>11.9454971409202</v>
+      </c>
+      <c r="F144" s="71">
+        <v>17.037937106154398</v>
+      </c>
+      <c r="G144" s="71">
+        <v>13.852797662412399</v>
+      </c>
+      <c r="H144" s="71">
+        <v>8.2694090342701898</v>
+      </c>
+      <c r="I144" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="J144" s="72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="73"/>
+      <c r="C145" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D145" s="74">
+        <v>1.24950087271057E-3</v>
+      </c>
+      <c r="E145" s="74">
+        <v>3.6536882809921298</v>
+      </c>
+      <c r="F145" s="74">
+        <v>7.1333709354261297</v>
+      </c>
+      <c r="G145" s="74">
+        <v>8.9422995675967201</v>
+      </c>
+      <c r="H145" s="74">
+        <v>6.5754235373659702</v>
+      </c>
+      <c r="I145" s="74"/>
+      <c r="J145" s="75"/>
+    </row>
+    <row r="146" spans="2:10">
+      <c r="B146" s="73">
+        <v>208</v>
+      </c>
+      <c r="C146" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D146" s="74"/>
+      <c r="E146" s="74"/>
+      <c r="F146" s="74"/>
+      <c r="G146" s="74"/>
+      <c r="H146" s="74"/>
+      <c r="I146" s="74"/>
+      <c r="J146" s="75"/>
+    </row>
+    <row r="147" spans="2:10" ht="15" thickBot="1">
+      <c r="B147" s="44"/>
+      <c r="C147" s="76"/>
+      <c r="D147" s="76"/>
+      <c r="E147" s="76"/>
+      <c r="F147" s="76"/>
+      <c r="G147" s="76"/>
+      <c r="H147" s="76"/>
+      <c r="I147" s="76"/>
+      <c r="J147" s="77"/>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="43">
+        <v>196</v>
+      </c>
+      <c r="C148" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D148" s="71">
+        <v>1.23697815758462E-3</v>
+      </c>
+      <c r="E148" s="71">
+        <v>11.9807462335539</v>
+      </c>
+      <c r="F148" s="71">
+        <v>16.604597541433399</v>
+      </c>
+      <c r="G148" s="71">
+        <v>14.1313009002768</v>
+      </c>
+      <c r="H148" s="71">
+        <v>8.30465812690381</v>
+      </c>
+      <c r="I148" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="J148" s="72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="73"/>
+      <c r="C149" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D149" s="74">
+        <v>1.23697815758462E-3</v>
+      </c>
+      <c r="E149" s="74">
+        <v>3.7610437073779299</v>
+      </c>
+      <c r="F149" s="74">
+        <v>7.3892586725286096</v>
+      </c>
+      <c r="G149" s="74">
+        <v>8.9129593284404294</v>
+      </c>
+      <c r="H149" s="74">
+        <v>6.6827789637517503</v>
+      </c>
+      <c r="I149" s="74"/>
+      <c r="J149" s="75"/>
+    </row>
+    <row r="150" spans="2:10">
+      <c r="B150" s="73">
+        <v>209</v>
+      </c>
+      <c r="C150" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D150" s="74">
+        <v>1.245E-3</v>
+      </c>
+      <c r="E150" s="74"/>
+      <c r="F150" s="74"/>
+      <c r="G150" s="74"/>
+      <c r="H150" s="74"/>
+      <c r="I150" s="74"/>
+      <c r="J150" s="75"/>
+    </row>
+    <row r="151" spans="2:10" ht="15" thickBot="1">
+      <c r="B151" s="44">
+        <v>215</v>
+      </c>
+      <c r="C151" s="76"/>
+      <c r="D151" s="76">
+        <v>1.242E-3</v>
+      </c>
+      <c r="E151" s="76"/>
+      <c r="F151" s="76"/>
+      <c r="G151" s="76"/>
+      <c r="H151" s="76"/>
+      <c r="I151" s="76"/>
+      <c r="J151" s="77"/>
+    </row>
+    <row r="152" spans="2:10">
+      <c r="B152" s="43">
+        <v>197</v>
+      </c>
+      <c r="C152" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D152" s="71">
         <v>1.25162732482959E-3</v>
       </c>
-      <c r="E137">
+      <c r="E152" s="71">
+        <v>12.1999465730098</v>
+      </c>
+      <c r="F152" s="71">
+        <v>17.4182346607416</v>
+      </c>
+      <c r="G152" s="71">
+        <v>14.025234478263799</v>
+      </c>
+      <c r="H152" s="71">
+        <v>8.5238584663597301</v>
+      </c>
+      <c r="I152" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="J152" s="72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10">
+      <c r="B153" s="73"/>
+      <c r="C153" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D153" s="74">
+        <v>1.25162732482959E-3</v>
+      </c>
+      <c r="E153" s="74">
         <v>3.7691085180306998</v>
       </c>
-      <c r="F137">
+      <c r="F153" s="74">
         <v>6.9968837318867303</v>
       </c>
-      <c r="G137">
+      <c r="G153" s="74">
         <v>9.3002868423987497</v>
       </c>
-      <c r="H137">
+      <c r="H153" s="74">
         <v>6.6908437744045299</v>
       </c>
-    </row>
-    <row r="138" spans="2:10">
-      <c r="B138">
+      <c r="I153" s="74"/>
+      <c r="J153" s="75"/>
+    </row>
+    <row r="154" spans="2:10">
+      <c r="B154" s="73">
+        <v>210</v>
+      </c>
+      <c r="C154" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D154" s="74">
+        <v>1.2425673153931901E-3</v>
+      </c>
+      <c r="E154" s="74">
+        <v>12.0947105501503</v>
+      </c>
+      <c r="F154" s="74">
+        <v>16.993398895220398</v>
+      </c>
+      <c r="G154" s="74">
+        <v>14.0847080826632</v>
+      </c>
+      <c r="H154" s="74">
+        <v>8.4186224435003396</v>
+      </c>
+      <c r="I154" s="74"/>
+      <c r="J154" s="75"/>
+    </row>
+    <row r="155" spans="2:10" ht="15" thickBot="1">
+      <c r="B155" s="44"/>
+      <c r="C155" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D155" s="76">
+        <v>1.2425673153931901E-3</v>
+      </c>
+      <c r="E155" s="76">
+        <v>3.7732873638507698</v>
+      </c>
+      <c r="F155" s="76">
+        <v>7.1652246409074296</v>
+      </c>
+      <c r="G155" s="76">
+        <v>9.1359532804739398</v>
+      </c>
+      <c r="H155" s="76">
+        <v>6.6950226202246004</v>
+      </c>
+      <c r="I155" s="76"/>
+      <c r="J155" s="77"/>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="43">
         <v>198</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C156" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D138">
+      <c r="D156" s="71">
         <v>1.25859580808677E-3</v>
       </c>
-      <c r="E138">
+      <c r="E156" s="71">
         <v>11.8362310813659</v>
       </c>
-      <c r="F138">
+      <c r="F156" s="71">
         <v>17.3430143900983</v>
       </c>
-      <c r="G138">
+      <c r="G156" s="71">
         <v>13.5566621703965</v>
       </c>
-      <c r="H138">
+      <c r="H156" s="71">
         <v>8.16014297471588</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I156" s="71" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="2:10">
-      <c r="C139" t="s">
+      <c r="J156" s="72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10">
+      <c r="B157" s="73"/>
+      <c r="C157" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D139">
+      <c r="D157" s="74">
         <v>1.25859580808677E-3</v>
       </c>
-      <c r="E139">
+      <c r="E157" s="74">
         <v>3.5560749020382501</v>
       </c>
-      <c r="F139">
+      <c r="F157" s="74">
         <v>7.0216571293434402</v>
       </c>
-      <c r="G139">
+      <c r="G157" s="74">
         <v>8.8047320523963695</v>
       </c>
-      <c r="H139">
+      <c r="H157" s="74">
         <v>6.47781015841203</v>
       </c>
-    </row>
-    <row r="140" spans="2:10">
-      <c r="B140">
-        <v>199</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="I157" s="74"/>
+      <c r="J157" s="75"/>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="73">
+        <v>211</v>
+      </c>
+      <c r="C158" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158" s="74">
+        <v>1.2419E-3</v>
+      </c>
+      <c r="E158" s="74"/>
+      <c r="F158" s="74"/>
+      <c r="G158" s="74"/>
+      <c r="H158" s="74"/>
+      <c r="I158" s="74"/>
+      <c r="J158" s="75"/>
+    </row>
+    <row r="159" spans="2:10">
+      <c r="B159" s="73"/>
+      <c r="C159" s="74"/>
+      <c r="D159" s="74"/>
+      <c r="E159" s="74"/>
+      <c r="F159" s="74"/>
+      <c r="G159" s="74"/>
+      <c r="H159" s="74"/>
+      <c r="I159" s="74"/>
+      <c r="J159" s="75"/>
+    </row>
+    <row r="160" spans="2:10">
+      <c r="B160" s="73">
+        <v>216</v>
+      </c>
+      <c r="C160" s="74"/>
+      <c r="D160" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E160" s="74"/>
+      <c r="F160" s="74"/>
+      <c r="G160" s="74"/>
+      <c r="H160" s="74"/>
+      <c r="I160" s="74"/>
+      <c r="J160" s="75"/>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="B161" s="73"/>
+      <c r="C161" s="74"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="74"/>
+      <c r="G161" s="74"/>
+      <c r="H161" s="74"/>
+      <c r="I161" s="74"/>
+      <c r="J161" s="75"/>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="B162" s="73"/>
+      <c r="C162" s="74"/>
+      <c r="D162" s="74"/>
+      <c r="E162" s="74"/>
+      <c r="F162" s="74"/>
+      <c r="G162" s="74"/>
+      <c r="H162" s="74"/>
+      <c r="I162" s="74"/>
+      <c r="J162" s="75"/>
+    </row>
+    <row r="163" spans="2:10" ht="15" thickBot="1">
+      <c r="B163" s="44"/>
+      <c r="C163" s="76"/>
+      <c r="D163" s="76"/>
+      <c r="E163" s="76"/>
+      <c r="F163" s="76"/>
+      <c r="G163" s="76"/>
+      <c r="H163" s="76"/>
+      <c r="I163" s="76"/>
+      <c r="J163" s="77"/>
+    </row>
+    <row r="164" spans="2:10">
+      <c r="B164" s="43">
+        <v>200</v>
+      </c>
+      <c r="C164" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D140">
-        <v>2.5157486849751E-3</v>
-      </c>
-      <c r="E140">
-        <v>11.7831398702687</v>
-      </c>
-      <c r="F140">
-        <v>18.205059973533601</v>
-      </c>
-      <c r="G140">
-        <v>13.1731640817904</v>
-      </c>
-      <c r="H140">
-        <v>8.1070517636185997</v>
-      </c>
-      <c r="I140" t="s">
-        <v>138</v>
-      </c>
-      <c r="J140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10">
-      <c r="C141" t="s">
+      <c r="D164" s="71">
+        <v>1.24797111896511E-3</v>
+      </c>
+      <c r="E164" s="71">
+        <v>11.7950134399962</v>
+      </c>
+      <c r="F164" s="71">
+        <v>16.3823094130824</v>
+      </c>
+      <c r="G164" s="71">
+        <v>14.016287339273401</v>
+      </c>
+      <c r="H164" s="71">
+        <v>8.1189253333461604</v>
+      </c>
+      <c r="I164" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="J164" s="72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10">
+      <c r="B165" s="73"/>
+      <c r="C165" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D141">
-        <v>2.5157486849751E-3</v>
-      </c>
-      <c r="E141">
-        <v>3.46907185696652</v>
-      </c>
-      <c r="F141">
-        <v>7.0409396207031696</v>
-      </c>
-      <c r="G141">
-        <v>8.6263857592523703</v>
-      </c>
-      <c r="H141">
-        <v>6.3908071133403404</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10">
-      <c r="B142">
-        <v>200</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="D165" s="74">
+        <v>1.24797111896511E-3</v>
+      </c>
+      <c r="E165" s="74">
+        <v>3.5940550099637099</v>
+      </c>
+      <c r="F165" s="74">
+        <v>7.2348155184827103</v>
+      </c>
+      <c r="G165" s="74">
+        <v>8.7689040060458208</v>
+      </c>
+      <c r="H165" s="74">
+        <v>6.5157902663375298</v>
+      </c>
+      <c r="I165" s="74"/>
+      <c r="J165" s="75"/>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="B166" s="73">
+        <v>213</v>
+      </c>
+      <c r="C166" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D166" s="74">
+        <v>1.2486000000000001E-3</v>
+      </c>
+      <c r="E166" s="74"/>
+      <c r="F166" s="74"/>
+      <c r="G166" s="74"/>
+      <c r="H166" s="74"/>
+      <c r="I166" s="74"/>
+      <c r="J166" s="75"/>
+    </row>
+    <row r="167" spans="2:10" ht="15" thickBot="1">
+      <c r="B167" s="44"/>
+      <c r="C167" s="76"/>
+      <c r="D167" s="76"/>
+      <c r="E167" s="76"/>
+      <c r="F167" s="76"/>
+      <c r="G167" s="76"/>
+      <c r="H167" s="76"/>
+      <c r="I167" s="76"/>
+      <c r="J167" s="77"/>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="B168" s="43">
+        <v>201</v>
+      </c>
+      <c r="C168" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D142">
-        <v>1.24797111896511E-3</v>
-      </c>
-      <c r="E142">
-        <v>11.7950134399962</v>
-      </c>
-      <c r="F142">
-        <v>16.3823094130824</v>
-      </c>
-      <c r="G142">
-        <v>14.016287339273401</v>
-      </c>
-      <c r="H142">
-        <v>8.1189253333461604</v>
-      </c>
-      <c r="I142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10">
-      <c r="C143" t="s">
+      <c r="D168" s="71">
+        <v>1.2373974345301999E-3</v>
+      </c>
+      <c r="E168" s="71">
+        <v>11.792830271985199</v>
+      </c>
+      <c r="F168" s="71">
+        <v>16.1878518175557</v>
+      </c>
+      <c r="G168" s="71">
+        <v>14.127879396945399</v>
+      </c>
+      <c r="H168" s="71">
+        <v>8.1167421653351504</v>
+      </c>
+      <c r="I168" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="J168" s="72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10">
+      <c r="B169" s="73"/>
+      <c r="C169" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D143">
-        <v>1.24797111896511E-3</v>
-      </c>
-      <c r="E143">
-        <v>3.5940550099637099</v>
-      </c>
-      <c r="F143">
-        <v>7.2348155184827103</v>
-      </c>
-      <c r="G143">
-        <v>8.7689040060458208</v>
-      </c>
-      <c r="H143">
-        <v>6.5157902663375298</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10">
-      <c r="B144">
-        <v>201</v>
-      </c>
-      <c r="I144" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9">
-      <c r="B146">
+      <c r="D169" s="74">
+        <v>1.2373974345301999E-3</v>
+      </c>
+      <c r="E169" s="74">
+        <v>3.6231404366014401</v>
+      </c>
+      <c r="F169" s="74">
+        <v>7.3306272260981498</v>
+      </c>
+      <c r="G169" s="74">
+        <v>8.7431024235633501</v>
+      </c>
+      <c r="H169" s="74">
+        <v>6.5448756929752703</v>
+      </c>
+      <c r="I169" s="74"/>
+      <c r="J169" s="75"/>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="B170" s="73">
+        <v>214</v>
+      </c>
+      <c r="C170" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D170" s="74">
+        <v>1.2524999999999999E-3</v>
+      </c>
+      <c r="E170" s="74"/>
+      <c r="F170" s="74"/>
+      <c r="G170" s="74"/>
+      <c r="H170" s="74"/>
+      <c r="I170" s="74"/>
+      <c r="J170" s="75"/>
+    </row>
+    <row r="171" spans="2:10" ht="15" thickBot="1">
+      <c r="B171" s="44"/>
+      <c r="C171" s="76"/>
+      <c r="D171" s="76"/>
+      <c r="E171" s="76"/>
+      <c r="F171" s="76"/>
+      <c r="G171" s="76"/>
+      <c r="H171" s="76"/>
+      <c r="I171" s="76"/>
+      <c r="J171" s="77"/>
+    </row>
+    <row r="172" spans="2:10">
+      <c r="B172" s="43">
         <v>202</v>
       </c>
-      <c r="I146" t="s">
+      <c r="C172" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D172" s="71">
+        <v>1.25615885794664E-3</v>
+      </c>
+      <c r="E172" s="71">
+        <v>11.915743700260601</v>
+      </c>
+      <c r="F172" s="71">
+        <v>16.902301930696702</v>
+      </c>
+      <c r="G172" s="71">
+        <v>13.8849334005317</v>
+      </c>
+      <c r="H172" s="71">
+        <v>8.2396555936105695</v>
+      </c>
+      <c r="I172" s="71" t="s">
         <v>143</v>
       </c>
+      <c r="J172" s="72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10">
+      <c r="B173" s="73"/>
+      <c r="C173" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" s="74">
+        <v>1.25615885794664E-3</v>
+      </c>
+      <c r="E173" s="74">
+        <v>3.6296807416646901</v>
+      </c>
+      <c r="F173" s="74">
+        <v>7.1396717998350896</v>
+      </c>
+      <c r="G173" s="74">
+        <v>8.8912773940624099</v>
+      </c>
+      <c r="H173" s="74">
+        <v>6.5514159980385598</v>
+      </c>
+      <c r="I173" s="74"/>
+      <c r="J173" s="75"/>
+    </row>
+    <row r="174" spans="2:10">
+      <c r="B174" s="73">
+        <v>212</v>
+      </c>
+      <c r="C174" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D174" s="74">
+        <v>1.2417821800157101E-3</v>
+      </c>
+      <c r="E174" s="74">
+        <v>11.9652460187374</v>
+      </c>
+      <c r="F174" s="74">
+        <v>16.292491868372199</v>
+      </c>
+      <c r="G174" s="74">
+        <v>14.2886057670078</v>
+      </c>
+      <c r="H174" s="74">
+        <v>8.2891579120874805</v>
+      </c>
+      <c r="I174" s="74"/>
+      <c r="J174" s="75"/>
+    </row>
+    <row r="175" spans="2:10" ht="15" thickBot="1">
+      <c r="B175" s="44"/>
+      <c r="C175" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" s="76">
+        <v>1.2417821800157101E-3</v>
+      </c>
+      <c r="E175" s="76">
+        <v>3.8005254578703802</v>
+      </c>
+      <c r="F175" s="76">
+        <v>7.4803785668883904</v>
+      </c>
+      <c r="G175" s="76">
+        <v>8.9278696728755804</v>
+      </c>
+      <c r="H175" s="76">
+        <v>6.7222607142441904</v>
+      </c>
+      <c r="I175" s="76"/>
+      <c r="J175" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="I78:I83"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -4476,27 +5266,6 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I78:I83"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="I60:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4518,13 +5287,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>117</v>
       </c>
       <c r="B1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="46" t="s">
         <v>117</v>
       </c>
       <c r="F1" t="s">
@@ -4533,22 +5302,22 @@
       <c r="H1" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="45" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="48">
+      <c r="A2" s="46">
         <v>0</v>
       </c>
       <c r="B2" s="22">
         <v>13.6310941</v>
       </c>
       <c r="C2" s="22"/>
-      <c r="E2" s="48"/>
+      <c r="E2" s="46"/>
       <c r="F2">
         <v>13.68255731</v>
       </c>
@@ -4556,13 +5325,13 @@
         <f>B2-F2</f>
         <v>-5.1463209999999648E-2</v>
       </c>
-      <c r="K2" s="48">
+      <c r="K2" s="46">
         <v>0</v>
       </c>
       <c r="L2">
         <v>15.504060880000001</v>
       </c>
-      <c r="O2" s="47"/>
+      <c r="O2" s="45"/>
       <c r="P2">
         <v>15.62757736</v>
       </c>
@@ -4572,14 +5341,14 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="48">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
       <c r="B3" s="22">
         <v>14.114214</v>
       </c>
       <c r="C3" s="22"/>
-      <c r="E3" s="48"/>
+      <c r="E3" s="46"/>
       <c r="F3">
         <v>13.82521036</v>
       </c>
@@ -4587,13 +5356,13 @@
         <f t="shared" ref="H3:H66" si="0">B3-F3</f>
         <v>0.28900364000000067</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="46">
         <v>1</v>
       </c>
       <c r="L3">
         <v>13.243643690000001</v>
       </c>
-      <c r="O3" s="47"/>
+      <c r="O3" s="45"/>
       <c r="P3">
         <v>13.81847114</v>
       </c>
@@ -4603,14 +5372,14 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="48">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
       <c r="B4" s="22">
         <v>14.915215</v>
       </c>
       <c r="C4" s="22"/>
-      <c r="E4" s="48"/>
+      <c r="E4" s="46"/>
       <c r="F4">
         <v>14.69432993</v>
       </c>
@@ -4618,13 +5387,13 @@
         <f t="shared" si="0"/>
         <v>0.22088506999999957</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="46">
         <v>2</v>
       </c>
       <c r="L4">
         <v>10.105190090000001</v>
       </c>
-      <c r="O4" s="47"/>
+      <c r="O4" s="45"/>
       <c r="P4">
         <v>9.7600196700000001</v>
       </c>
@@ -4634,14 +5403,14 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="48">
+      <c r="A5" s="46">
         <v>3</v>
       </c>
       <c r="B5" s="22">
         <v>13.295089000000001</v>
       </c>
       <c r="C5" s="22"/>
-      <c r="E5" s="48"/>
+      <c r="E5" s="46"/>
       <c r="F5">
         <v>12.1241141</v>
       </c>
@@ -4649,13 +5418,13 @@
         <f t="shared" si="0"/>
         <v>1.1709749000000009</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="46">
         <v>3</v>
       </c>
       <c r="L5">
         <v>15.537563349999999</v>
       </c>
-      <c r="O5" s="47"/>
+      <c r="O5" s="45"/>
       <c r="P5">
         <v>15.89216186</v>
       </c>
@@ -4665,14 +5434,14 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="48">
+      <c r="A6" s="46">
         <v>4</v>
       </c>
       <c r="B6" s="22">
         <v>13.5681665</v>
       </c>
       <c r="C6" s="22"/>
-      <c r="E6" s="48"/>
+      <c r="E6" s="46"/>
       <c r="F6">
         <v>13.30902581</v>
       </c>
@@ -4680,13 +5449,13 @@
         <f t="shared" si="0"/>
         <v>0.25914069000000062</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="46">
         <v>4</v>
       </c>
       <c r="L6">
         <v>13.53970662</v>
       </c>
-      <c r="O6" s="47"/>
+      <c r="O6" s="45"/>
       <c r="P6">
         <v>13.575349709999999</v>
       </c>
@@ -4696,14 +5465,14 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="48">
+      <c r="A7" s="46">
         <v>5</v>
       </c>
       <c r="B7" s="22">
         <v>13.837569200000001</v>
       </c>
       <c r="C7" s="22"/>
-      <c r="E7" s="48"/>
+      <c r="E7" s="46"/>
       <c r="F7">
         <v>13.159305959999999</v>
       </c>
@@ -4711,13 +5480,13 @@
         <f t="shared" si="0"/>
         <v>0.67826324000000149</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="46">
         <v>5</v>
       </c>
       <c r="L7">
         <v>12.303724689999999</v>
       </c>
-      <c r="O7" s="47"/>
+      <c r="O7" s="45"/>
       <c r="P7">
         <v>13.26597346</v>
       </c>
@@ -4727,14 +5496,14 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="48">
+      <c r="A8" s="46">
         <v>6</v>
       </c>
       <c r="B8" s="22">
         <v>9.5816275799999993</v>
       </c>
       <c r="C8" s="22"/>
-      <c r="E8" s="48"/>
+      <c r="E8" s="46"/>
       <c r="F8">
         <v>9.8345661500000006</v>
       </c>
@@ -4742,13 +5511,13 @@
         <f t="shared" si="0"/>
         <v>-0.25293857000000131</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="46">
         <v>6</v>
       </c>
       <c r="L8">
         <v>9.0521034199999999</v>
       </c>
-      <c r="O8" s="47"/>
+      <c r="O8" s="45"/>
       <c r="P8">
         <v>8.8562996599999995</v>
       </c>
@@ -4758,14 +5527,14 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="48">
+      <c r="A9" s="46">
         <v>7</v>
       </c>
       <c r="B9" s="22">
         <v>10.8376546</v>
       </c>
       <c r="C9" s="22"/>
-      <c r="E9" s="48"/>
+      <c r="E9" s="46"/>
       <c r="F9">
         <v>10.74053486</v>
       </c>
@@ -4773,30 +5542,30 @@
         <f t="shared" si="0"/>
         <v>9.7119740000000121E-2</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="46">
         <v>7</v>
       </c>
       <c r="L9">
         <v>9.3473276300000006</v>
       </c>
-      <c r="O9" s="47"/>
+      <c r="O9" s="45"/>
       <c r="P9">
         <v>11.57419661</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="49">
         <f t="shared" si="1"/>
         <v>-2.226868979999999</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="48">
+      <c r="A10" s="46">
         <v>8</v>
       </c>
       <c r="B10" s="22">
         <v>8.8218898699999997</v>
       </c>
       <c r="C10" s="22"/>
-      <c r="E10" s="48"/>
+      <c r="E10" s="46"/>
       <c r="F10">
         <v>8.6670850500000007</v>
       </c>
@@ -4804,13 +5573,13 @@
         <f t="shared" si="0"/>
         <v>0.15480481999999895</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="46">
         <v>8</v>
       </c>
       <c r="L10">
         <v>7.3468390100000001</v>
       </c>
-      <c r="O10" s="47"/>
+      <c r="O10" s="45"/>
       <c r="P10">
         <v>7.3233795500000003</v>
       </c>
@@ -4820,14 +5589,14 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="48">
+      <c r="A11" s="46">
         <v>9</v>
       </c>
       <c r="B11" s="22">
         <v>12.502928799999999</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="E11" s="48"/>
+      <c r="E11" s="46"/>
       <c r="F11">
         <v>12.082468860000001</v>
       </c>
@@ -4835,13 +5604,13 @@
         <f t="shared" si="0"/>
         <v>0.42045993999999887</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="46">
         <v>9</v>
       </c>
       <c r="L11">
         <v>11.436437010000001</v>
       </c>
-      <c r="O11" s="47"/>
+      <c r="O11" s="45"/>
       <c r="P11">
         <v>12.098029950000001</v>
       </c>
@@ -4851,14 +5620,14 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="48">
+      <c r="A12" s="46">
         <v>10</v>
       </c>
       <c r="B12" s="22">
         <v>14.1842772</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="E12" s="48"/>
+      <c r="E12" s="46"/>
       <c r="F12">
         <v>13.44488993</v>
       </c>
@@ -4866,13 +5635,13 @@
         <f t="shared" si="0"/>
         <v>0.73938726999999993</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="46">
         <v>10</v>
       </c>
       <c r="L12">
         <v>11.277759339999999</v>
       </c>
-      <c r="O12" s="47"/>
+      <c r="O12" s="45"/>
       <c r="P12">
         <v>11.55613612</v>
       </c>
@@ -4882,14 +5651,14 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="48">
+      <c r="A13" s="46">
         <v>11</v>
       </c>
       <c r="B13" s="22">
         <v>12.692087799999999</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="E13" s="48"/>
+      <c r="E13" s="46"/>
       <c r="F13">
         <v>12.524629300000001</v>
       </c>
@@ -4897,13 +5666,13 @@
         <f t="shared" si="0"/>
         <v>0.16745849999999862</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="46">
         <v>11</v>
       </c>
       <c r="L13">
         <v>11.932036009999999</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="45"/>
       <c r="P13">
         <v>13.80031033</v>
       </c>
@@ -4913,14 +5682,14 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="48">
+      <c r="A14" s="46">
         <v>12</v>
       </c>
       <c r="B14" s="22">
         <v>6.1079395500000002</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="E14" s="48"/>
+      <c r="E14" s="46"/>
       <c r="F14">
         <v>7.5824858600000002</v>
       </c>
@@ -4928,13 +5697,13 @@
         <f t="shared" si="0"/>
         <v>-1.47454631</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="46">
         <v>12</v>
       </c>
       <c r="L14">
         <v>9.1186061200000008</v>
       </c>
-      <c r="O14" s="47"/>
+      <c r="O14" s="45"/>
       <c r="P14">
         <v>7.0197906100000003</v>
       </c>
@@ -4944,28 +5713,28 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="48">
+      <c r="A15" s="46">
         <v>13</v>
       </c>
       <c r="B15" s="22">
         <v>14.3286034</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="E15" s="48"/>
+      <c r="E15" s="46"/>
       <c r="F15">
         <v>12.70646168</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="49">
         <f t="shared" si="0"/>
         <v>1.6221417200000001</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="46">
         <v>13</v>
       </c>
       <c r="L15">
         <v>13.77721393</v>
       </c>
-      <c r="O15" s="47"/>
+      <c r="O15" s="45"/>
       <c r="P15">
         <v>14.60561339</v>
       </c>
@@ -4975,14 +5744,14 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="48">
+      <c r="A16" s="46">
         <v>14</v>
       </c>
       <c r="B16" s="22">
         <v>15.4727158</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="E16" s="48"/>
+      <c r="E16" s="46"/>
       <c r="F16">
         <v>15.82338176</v>
       </c>
@@ -4990,13 +5759,13 @@
         <f t="shared" si="0"/>
         <v>-0.35066596000000061</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="46">
         <v>14</v>
       </c>
       <c r="L16">
         <v>10.93699202</v>
       </c>
-      <c r="O16" s="47"/>
+      <c r="O16" s="45"/>
       <c r="P16">
         <v>10.28863349</v>
       </c>
@@ -5006,14 +5775,14 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="48">
+      <c r="A17" s="46">
         <v>15</v>
       </c>
       <c r="B17" s="22">
         <v>15.0669521</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="E17" s="48"/>
+      <c r="E17" s="46"/>
       <c r="F17">
         <v>15.73624611</v>
       </c>
@@ -5021,13 +5790,13 @@
         <f t="shared" si="0"/>
         <v>-0.66929400999999977</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="46">
         <v>15</v>
       </c>
       <c r="L17">
         <v>15.044199020000001</v>
       </c>
-      <c r="O17" s="47"/>
+      <c r="O17" s="45"/>
       <c r="P17">
         <v>14.91610244</v>
       </c>
@@ -5037,14 +5806,14 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="48">
+      <c r="A18" s="46">
         <v>16</v>
       </c>
       <c r="B18" s="22">
         <v>15.1301855</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="E18" s="48"/>
+      <c r="E18" s="46"/>
       <c r="F18">
         <v>15.944966989999999</v>
       </c>
@@ -5052,13 +5821,13 @@
         <f t="shared" si="0"/>
         <v>-0.81478148999999966</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="46">
         <v>16</v>
       </c>
       <c r="L18">
         <v>14.66520272</v>
       </c>
-      <c r="O18" s="47"/>
+      <c r="O18" s="45"/>
       <c r="P18">
         <v>15.327092629999999</v>
       </c>
@@ -5068,14 +5837,14 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="48">
+      <c r="A19" s="46">
         <v>17</v>
       </c>
       <c r="B19" s="22">
         <v>11.3176039</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="E19" s="48"/>
+      <c r="E19" s="46"/>
       <c r="F19">
         <v>10.212703210000001</v>
       </c>
@@ -5083,13 +5852,13 @@
         <f t="shared" si="0"/>
         <v>1.1049006899999991</v>
       </c>
-      <c r="K19" s="48">
+      <c r="K19" s="46">
         <v>17</v>
       </c>
       <c r="L19">
         <v>7.2548629699999996</v>
       </c>
-      <c r="O19" s="47"/>
+      <c r="O19" s="45"/>
       <c r="P19">
         <v>7.6726400400000001</v>
       </c>
@@ -5099,14 +5868,14 @@
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="48">
+      <c r="A20" s="46">
         <v>18</v>
       </c>
       <c r="B20" s="22">
         <v>9.4711795399999996</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="E20" s="48"/>
+      <c r="E20" s="46"/>
       <c r="F20">
         <v>11.39960791</v>
       </c>
@@ -5114,13 +5883,13 @@
         <f t="shared" si="0"/>
         <v>-1.9284283700000007</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="46">
         <v>18</v>
       </c>
       <c r="L20">
         <v>12.402952790000001</v>
       </c>
-      <c r="O20" s="47"/>
+      <c r="O20" s="45"/>
       <c r="P20">
         <v>12.317577829999999</v>
       </c>
@@ -5130,14 +5899,14 @@
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="48">
+      <c r="A21" s="46">
         <v>19</v>
       </c>
       <c r="B21" s="22">
         <v>10.997961699999999</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="E21" s="48"/>
+      <c r="E21" s="46"/>
       <c r="F21">
         <v>10.64048159</v>
       </c>
@@ -5145,13 +5914,13 @@
         <f t="shared" si="0"/>
         <v>0.35748010999999913</v>
       </c>
-      <c r="K21" s="48">
+      <c r="K21" s="46">
         <v>19</v>
       </c>
       <c r="L21">
         <v>13.54347578</v>
       </c>
-      <c r="O21" s="47"/>
+      <c r="O21" s="45"/>
       <c r="P21">
         <v>13.11906677</v>
       </c>
@@ -5161,14 +5930,14 @@
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="48">
+      <c r="A22" s="46">
         <v>20</v>
       </c>
       <c r="B22" s="22">
         <v>8.8006049799999992</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="E22" s="48"/>
+      <c r="E22" s="46"/>
       <c r="F22">
         <v>7.6591043699999997</v>
       </c>
@@ -5176,13 +5945,13 @@
         <f t="shared" si="0"/>
         <v>1.1415006099999996</v>
       </c>
-      <c r="K22" s="48">
+      <c r="K22" s="46">
         <v>20</v>
       </c>
       <c r="L22">
         <v>13.01622306</v>
       </c>
-      <c r="O22" s="47"/>
+      <c r="O22" s="45"/>
       <c r="P22">
         <v>12.9657445</v>
       </c>
@@ -5192,14 +5961,14 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="48">
+      <c r="A23" s="46">
         <v>21</v>
       </c>
       <c r="B23" s="22">
         <v>11.861148699999999</v>
       </c>
       <c r="C23" s="22"/>
-      <c r="E23" s="48"/>
+      <c r="E23" s="46"/>
       <c r="F23">
         <v>11.209893449999999</v>
       </c>
@@ -5207,13 +5976,13 @@
         <f t="shared" si="0"/>
         <v>0.65125525000000017</v>
       </c>
-      <c r="K23" s="48">
+      <c r="K23" s="46">
         <v>21</v>
       </c>
       <c r="L23">
         <v>13.624087449999999</v>
       </c>
-      <c r="O23" s="47"/>
+      <c r="O23" s="45"/>
       <c r="P23">
         <v>13.429018960000001</v>
       </c>
@@ -5223,14 +5992,14 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="48">
+      <c r="A24" s="46">
         <v>22</v>
       </c>
       <c r="B24" s="22">
         <v>10.9651136</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="E24" s="48"/>
+      <c r="E24" s="46"/>
       <c r="F24">
         <v>10.28596153</v>
       </c>
@@ -5238,13 +6007,13 @@
         <f t="shared" si="0"/>
         <v>0.67915207000000066</v>
       </c>
-      <c r="K24" s="48">
+      <c r="K24" s="46">
         <v>22</v>
       </c>
       <c r="L24">
         <v>11.078052899999999</v>
       </c>
-      <c r="O24" s="47"/>
+      <c r="O24" s="45"/>
       <c r="P24">
         <v>11.05419695</v>
       </c>
@@ -5254,14 +6023,14 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="48">
+      <c r="A25" s="46">
         <v>23</v>
       </c>
       <c r="B25" s="22">
         <v>20.165744799999999</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="E25" s="48"/>
+      <c r="E25" s="46"/>
       <c r="F25">
         <v>19.98992118</v>
       </c>
@@ -5269,13 +6038,13 @@
         <f t="shared" si="0"/>
         <v>0.17582361999999918</v>
       </c>
-      <c r="K25" s="48">
+      <c r="K25" s="46">
         <v>23</v>
       </c>
       <c r="L25">
         <v>12.221937649999999</v>
       </c>
-      <c r="O25" s="47"/>
+      <c r="O25" s="45"/>
       <c r="P25">
         <v>12.0072761</v>
       </c>
@@ -5285,14 +6054,14 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="48">
+      <c r="A26" s="46">
         <v>24</v>
       </c>
       <c r="B26" s="22">
         <v>20.4969368</v>
       </c>
       <c r="C26" s="22"/>
-      <c r="E26" s="48"/>
+      <c r="E26" s="46"/>
       <c r="F26">
         <v>20.522986360000001</v>
       </c>
@@ -5300,13 +6069,13 @@
         <f t="shared" si="0"/>
         <v>-2.6049560000000582E-2</v>
       </c>
-      <c r="K26" s="48">
+      <c r="K26" s="46">
         <v>24</v>
       </c>
       <c r="L26">
         <v>12.161695160000001</v>
       </c>
-      <c r="O26" s="47"/>
+      <c r="O26" s="45"/>
       <c r="P26">
         <v>12.157362259999999</v>
       </c>
@@ -5316,20 +6085,20 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="46" t="s">
         <v>118</v>
       </c>
       <c r="H27" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="48" t="s">
+      <c r="K27" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="O27" s="47" t="s">
+      <c r="O27" s="45" t="s">
         <v>118</v>
       </c>
       <c r="R27" s="23">
@@ -5338,13 +6107,13 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="48">
+      <c r="A28" s="46">
         <v>0</v>
       </c>
       <c r="B28">
         <v>17.30043191</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="46"/>
       <c r="F28">
         <v>17.69677695</v>
       </c>
@@ -5352,13 +6121,13 @@
         <f t="shared" si="0"/>
         <v>-0.39634503999999993</v>
       </c>
-      <c r="K28" s="48">
+      <c r="K28" s="46">
         <v>0</v>
       </c>
       <c r="L28">
         <v>19.74782738</v>
       </c>
-      <c r="O28" s="47"/>
+      <c r="O28" s="45"/>
       <c r="P28">
         <v>19.462411809999999</v>
       </c>
@@ -5368,13 +6137,13 @@
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="48">
+      <c r="A29" s="46">
         <v>1</v>
       </c>
       <c r="B29">
         <v>17.354958079999999</v>
       </c>
-      <c r="E29" s="48"/>
+      <c r="E29" s="46"/>
       <c r="F29">
         <v>16.848371960000001</v>
       </c>
@@ -5382,13 +6151,13 @@
         <f t="shared" si="0"/>
         <v>0.50658611999999792</v>
       </c>
-      <c r="K29" s="48">
+      <c r="K29" s="46">
         <v>1</v>
       </c>
       <c r="L29">
         <v>16.632221049999998</v>
       </c>
-      <c r="O29" s="47"/>
+      <c r="O29" s="45"/>
       <c r="P29">
         <v>17.35659106</v>
       </c>
@@ -5398,13 +6167,13 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="48">
+      <c r="A30" s="46">
         <v>2</v>
       </c>
       <c r="B30">
         <v>18.089428160000001</v>
       </c>
-      <c r="E30" s="48"/>
+      <c r="E30" s="46"/>
       <c r="F30">
         <v>18.093440319999999</v>
       </c>
@@ -5412,13 +6181,13 @@
         <f t="shared" si="0"/>
         <v>-4.012159999998488E-3</v>
       </c>
-      <c r="K30" s="48">
+      <c r="K30" s="46">
         <v>2</v>
       </c>
       <c r="L30">
         <v>13.746490870000001</v>
       </c>
-      <c r="O30" s="47"/>
+      <c r="O30" s="45"/>
       <c r="P30">
         <v>12.97748838</v>
       </c>
@@ -5428,13 +6197,13 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="48">
+      <c r="A31" s="46">
         <v>3</v>
       </c>
       <c r="B31">
         <v>16.587185550000001</v>
       </c>
-      <c r="E31" s="48"/>
+      <c r="E31" s="46"/>
       <c r="F31">
         <v>15.63558811</v>
       </c>
@@ -5442,13 +6211,13 @@
         <f t="shared" si="0"/>
         <v>0.95159744000000046</v>
       </c>
-      <c r="K31" s="48">
+      <c r="K31" s="46">
         <v>3</v>
       </c>
       <c r="L31">
         <v>21.573665219999999</v>
       </c>
-      <c r="O31" s="47"/>
+      <c r="O31" s="45"/>
       <c r="P31">
         <v>20.68944844</v>
       </c>
@@ -5458,13 +6227,13 @@
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="48">
+      <c r="A32" s="46">
         <v>4</v>
       </c>
       <c r="B32">
         <v>17.245802569999999</v>
       </c>
-      <c r="E32" s="48"/>
+      <c r="E32" s="46"/>
       <c r="F32">
         <v>17.798296820000001</v>
       </c>
@@ -5472,13 +6241,13 @@
         <f t="shared" si="0"/>
         <v>-0.5524942500000023</v>
       </c>
-      <c r="K32" s="48">
+      <c r="K32" s="46">
         <v>4</v>
       </c>
       <c r="L32">
         <v>16.845026010000002</v>
       </c>
-      <c r="O32" s="47"/>
+      <c r="O32" s="45"/>
       <c r="P32">
         <v>16.86556496</v>
       </c>
@@ -5488,13 +6257,13 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="48">
+      <c r="A33" s="46">
         <v>5</v>
       </c>
       <c r="B33">
         <v>18.520996440000001</v>
       </c>
-      <c r="E33" s="48"/>
+      <c r="E33" s="46"/>
       <c r="F33">
         <v>20.689898679999999</v>
       </c>
@@ -5502,13 +6271,13 @@
         <f t="shared" si="0"/>
         <v>-2.1689022399999978</v>
       </c>
-      <c r="K33" s="48">
+      <c r="K33" s="46">
         <v>5</v>
       </c>
       <c r="L33">
         <v>17.078029130000001</v>
       </c>
-      <c r="O33" s="47"/>
+      <c r="O33" s="45"/>
       <c r="P33">
         <v>18.217979620000001</v>
       </c>
@@ -5518,13 +6287,13 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="48">
+      <c r="A34" s="46">
         <v>6</v>
       </c>
       <c r="B34">
         <v>13.802928789999999</v>
       </c>
-      <c r="E34" s="48"/>
+      <c r="E34" s="46"/>
       <c r="F34">
         <v>14.95850755</v>
       </c>
@@ -5532,13 +6301,13 @@
         <f t="shared" si="0"/>
         <v>-1.1555787600000009</v>
       </c>
-      <c r="K34" s="48">
+      <c r="K34" s="46">
         <v>6</v>
       </c>
       <c r="L34">
         <v>13.691509829999999</v>
       </c>
-      <c r="O34" s="47"/>
+      <c r="O34" s="45"/>
       <c r="P34">
         <v>13.00611992</v>
       </c>
@@ -5548,13 +6317,13 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="48">
+      <c r="A35" s="46">
         <v>7</v>
       </c>
       <c r="B35">
         <v>15.977755159999999</v>
       </c>
-      <c r="E35" s="48"/>
+      <c r="E35" s="46"/>
       <c r="F35">
         <v>16.031421229999999</v>
       </c>
@@ -5562,13 +6331,13 @@
         <f t="shared" si="0"/>
         <v>-5.3666070000000232E-2</v>
       </c>
-      <c r="K35" s="48">
+      <c r="K35" s="46">
         <v>7</v>
       </c>
       <c r="L35">
         <v>16.469693190000001</v>
       </c>
-      <c r="O35" s="47"/>
+      <c r="O35" s="45"/>
       <c r="P35">
         <v>16.70952308</v>
       </c>
@@ -5578,13 +6347,13 @@
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="48">
+      <c r="A36" s="46">
         <v>8</v>
       </c>
       <c r="B36">
         <v>12.980362380000001</v>
       </c>
-      <c r="E36" s="48"/>
+      <c r="E36" s="46"/>
       <c r="F36">
         <v>13.29625972</v>
       </c>
@@ -5592,13 +6361,13 @@
         <f t="shared" si="0"/>
         <v>-0.31589733999999936</v>
       </c>
-      <c r="K36" s="48">
+      <c r="K36" s="46">
         <v>8</v>
       </c>
       <c r="L36">
         <v>13.057423610000001</v>
       </c>
-      <c r="O36" s="47"/>
+      <c r="O36" s="45"/>
       <c r="P36">
         <v>12.8361599</v>
       </c>
@@ -5608,13 +6377,13 @@
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="48">
+      <c r="A37" s="46">
         <v>9</v>
       </c>
       <c r="B37">
         <v>17.170727750000001</v>
       </c>
-      <c r="E37" s="48"/>
+      <c r="E37" s="46"/>
       <c r="F37">
         <v>18.323344330000001</v>
       </c>
@@ -5622,13 +6391,13 @@
         <f t="shared" si="0"/>
         <v>-1.1526165800000001</v>
       </c>
-      <c r="K37" s="48">
+      <c r="K37" s="46">
         <v>9</v>
       </c>
       <c r="L37">
         <v>18.252544480000001</v>
       </c>
-      <c r="O37" s="47"/>
+      <c r="O37" s="45"/>
       <c r="P37">
         <v>17.874051590000001</v>
       </c>
@@ -5638,13 +6407,13 @@
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="48">
+      <c r="A38" s="46">
         <v>10</v>
       </c>
       <c r="B38">
         <v>18.595662140000002</v>
       </c>
-      <c r="E38" s="48"/>
+      <c r="E38" s="46"/>
       <c r="F38">
         <v>19.513140310000001</v>
       </c>
@@ -5652,13 +6421,13 @@
         <f t="shared" si="0"/>
         <v>-0.91747816999999898</v>
       </c>
-      <c r="K38" s="48">
+      <c r="K38" s="46">
         <v>10</v>
       </c>
       <c r="L38">
         <v>16.684188710000001</v>
       </c>
-      <c r="O38" s="47"/>
+      <c r="O38" s="45"/>
       <c r="P38">
         <v>15.629935100000001</v>
       </c>
@@ -5668,13 +6437,13 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="48">
+      <c r="A39" s="46">
         <v>11</v>
       </c>
       <c r="B39">
         <v>16.784280110000001</v>
       </c>
-      <c r="E39" s="48"/>
+      <c r="E39" s="46"/>
       <c r="F39">
         <v>16.9239581</v>
       </c>
@@ -5682,13 +6451,13 @@
         <f t="shared" si="0"/>
         <v>-0.13967798999999914</v>
       </c>
-      <c r="K39" s="48">
+      <c r="K39" s="46">
         <v>11</v>
       </c>
       <c r="L39">
         <v>17.03253484</v>
       </c>
-      <c r="O39" s="47"/>
+      <c r="O39" s="45"/>
       <c r="P39">
         <v>18.123993080000002</v>
       </c>
@@ -5698,13 +6467,13 @@
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="48">
+      <c r="A40" s="46">
         <v>12</v>
       </c>
       <c r="B40">
         <v>14.091129690000001</v>
       </c>
-      <c r="E40" s="48"/>
+      <c r="E40" s="46"/>
       <c r="F40">
         <v>15.00861667</v>
       </c>
@@ -5712,13 +6481,13 @@
         <f t="shared" si="0"/>
         <v>-0.91748697999999962</v>
       </c>
-      <c r="K40" s="48">
+      <c r="K40" s="46">
         <v>12</v>
       </c>
       <c r="L40">
         <v>17.188163790000001</v>
       </c>
-      <c r="O40" s="47"/>
+      <c r="O40" s="45"/>
       <c r="P40">
         <v>14.506829189999999</v>
       </c>
@@ -5728,13 +6497,13 @@
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="48">
+      <c r="A41" s="46">
         <v>13</v>
       </c>
       <c r="B41">
         <v>20.954972479999999</v>
       </c>
-      <c r="E41" s="48"/>
+      <c r="E41" s="46"/>
       <c r="F41">
         <v>20.521560999999998</v>
       </c>
@@ -5742,13 +6511,13 @@
         <f t="shared" si="0"/>
         <v>0.43341148000000018</v>
       </c>
-      <c r="K41" s="48">
+      <c r="K41" s="46">
         <v>13</v>
       </c>
       <c r="L41">
         <v>21.402306029999998</v>
       </c>
-      <c r="O41" s="47"/>
+      <c r="O41" s="45"/>
       <c r="P41">
         <v>20.893728549999999</v>
       </c>
@@ -5758,13 +6527,13 @@
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="48">
+      <c r="A42" s="46">
         <v>14</v>
       </c>
       <c r="B42">
         <v>20.130272980000001</v>
       </c>
-      <c r="E42" s="48"/>
+      <c r="E42" s="46"/>
       <c r="F42">
         <v>20.956528970000001</v>
       </c>
@@ -5772,13 +6541,13 @@
         <f t="shared" si="0"/>
         <v>-0.82625598999999994</v>
       </c>
-      <c r="K42" s="48">
+      <c r="K42" s="46">
         <v>14</v>
       </c>
       <c r="L42">
         <v>16.706312799999999</v>
       </c>
-      <c r="O42" s="47"/>
+      <c r="O42" s="45"/>
       <c r="P42">
         <v>15.08871398</v>
       </c>
@@ -5788,13 +6557,13 @@
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="48">
+      <c r="A43" s="46">
         <v>15</v>
       </c>
       <c r="B43">
         <v>20.065297220000001</v>
       </c>
-      <c r="E43" s="48"/>
+      <c r="E43" s="46"/>
       <c r="F43">
         <v>21.04647752</v>
       </c>
@@ -5802,13 +6571,13 @@
         <f t="shared" si="0"/>
         <v>-0.98118029999999834</v>
       </c>
-      <c r="K43" s="48">
+      <c r="K43" s="46">
         <v>15</v>
       </c>
       <c r="L43">
         <v>19.459742330000001</v>
       </c>
-      <c r="O43" s="47"/>
+      <c r="O43" s="45"/>
       <c r="P43">
         <v>19.330495580000001</v>
       </c>
@@ -5818,13 +6587,13 @@
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="48">
+      <c r="A44" s="46">
         <v>16</v>
       </c>
       <c r="B44">
         <v>18.836609660000001</v>
       </c>
-      <c r="E44" s="48"/>
+      <c r="E44" s="46"/>
       <c r="F44">
         <v>19.832645339999999</v>
       </c>
@@ -5832,13 +6601,13 @@
         <f t="shared" si="0"/>
         <v>-0.99603567999999854</v>
       </c>
-      <c r="K44" s="48">
+      <c r="K44" s="46">
         <v>16</v>
       </c>
       <c r="L44">
         <v>17.91673587</v>
       </c>
-      <c r="O44" s="47"/>
+      <c r="O44" s="45"/>
       <c r="P44">
         <v>18.933821980000001</v>
       </c>
@@ -5848,13 +6617,13 @@
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="48">
+      <c r="A45" s="46">
         <v>17</v>
       </c>
       <c r="B45">
         <v>16.219955779999999</v>
       </c>
-      <c r="E45" s="48"/>
+      <c r="E45" s="46"/>
       <c r="F45">
         <v>15.3259197</v>
       </c>
@@ -5862,13 +6631,13 @@
         <f t="shared" si="0"/>
         <v>0.89403607999999934</v>
       </c>
-      <c r="K45" s="48">
+      <c r="K45" s="46">
         <v>17</v>
       </c>
       <c r="L45">
         <v>9.8463115299999995</v>
       </c>
-      <c r="O45" s="47"/>
+      <c r="O45" s="45"/>
       <c r="P45">
         <v>11.27178606</v>
       </c>
@@ -5878,13 +6647,13 @@
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="48">
+      <c r="A46" s="46">
         <v>18</v>
       </c>
       <c r="B46">
         <v>14.75658005</v>
       </c>
-      <c r="E46" s="48"/>
+      <c r="E46" s="46"/>
       <c r="F46">
         <v>18.428847770000001</v>
       </c>
@@ -5892,13 +6661,13 @@
         <f t="shared" si="0"/>
         <v>-3.6722677200000007</v>
       </c>
-      <c r="K46" s="48">
+      <c r="K46" s="46">
         <v>18</v>
       </c>
       <c r="L46">
         <v>15.2881746</v>
       </c>
-      <c r="O46" s="47"/>
+      <c r="O46" s="45"/>
       <c r="P46">
         <v>15.311354850000001</v>
       </c>
@@ -5908,13 +6677,13 @@
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="48">
+      <c r="A47" s="46">
         <v>19</v>
       </c>
       <c r="B47">
         <v>15.82356951</v>
       </c>
-      <c r="E47" s="48"/>
+      <c r="E47" s="46"/>
       <c r="F47">
         <v>16.84270008</v>
       </c>
@@ -5922,13 +6691,13 @@
         <f t="shared" si="0"/>
         <v>-1.0191305699999997</v>
       </c>
-      <c r="K47" s="48">
+      <c r="K47" s="46">
         <v>19</v>
       </c>
       <c r="L47">
         <v>17.884419789999999</v>
       </c>
-      <c r="O47" s="47"/>
+      <c r="O47" s="45"/>
       <c r="P47">
         <v>17.104364260000001</v>
       </c>
@@ -5938,13 +6707,13 @@
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="48">
+      <c r="A48" s="46">
         <v>20</v>
       </c>
       <c r="B48">
         <v>12.97756058</v>
       </c>
-      <c r="E48" s="48"/>
+      <c r="E48" s="46"/>
       <c r="F48">
         <v>13.310718339999999</v>
       </c>
@@ -5952,13 +6721,13 @@
         <f t="shared" si="0"/>
         <v>-0.33315775999999886</v>
       </c>
-      <c r="K48" s="48">
+      <c r="K48" s="46">
         <v>20</v>
       </c>
       <c r="L48">
         <v>19.166564959999999</v>
       </c>
-      <c r="O48" s="47"/>
+      <c r="O48" s="45"/>
       <c r="P48">
         <v>19.415697470000001</v>
       </c>
@@ -5968,13 +6737,13 @@
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="48">
+      <c r="A49" s="46">
         <v>21</v>
       </c>
       <c r="B49">
         <v>16.67489896</v>
       </c>
-      <c r="E49" s="48"/>
+      <c r="E49" s="46"/>
       <c r="F49">
         <v>16.726182770000001</v>
       </c>
@@ -5982,13 +6751,13 @@
         <f t="shared" si="0"/>
         <v>-5.128381000000104E-2</v>
       </c>
-      <c r="K49" s="48">
+      <c r="K49" s="46">
         <v>21</v>
       </c>
       <c r="L49">
         <v>19.8615411</v>
       </c>
-      <c r="O49" s="47"/>
+      <c r="O49" s="45"/>
       <c r="P49">
         <v>19.370347710000001</v>
       </c>
@@ -5998,13 +6767,13 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="48">
+      <c r="A50" s="46">
         <v>22</v>
       </c>
       <c r="B50">
         <v>15.62146478</v>
       </c>
-      <c r="E50" s="48"/>
+      <c r="E50" s="46"/>
       <c r="F50">
         <v>16.3778197</v>
       </c>
@@ -6012,13 +6781,13 @@
         <f t="shared" si="0"/>
         <v>-0.75635491999999971</v>
       </c>
-      <c r="K50" s="48">
+      <c r="K50" s="46">
         <v>22</v>
       </c>
       <c r="L50">
         <v>16.14647463</v>
       </c>
-      <c r="O50" s="47"/>
+      <c r="O50" s="45"/>
       <c r="P50">
         <v>16.31911616</v>
       </c>
@@ -6028,13 +6797,13 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="48">
+      <c r="A51" s="46">
         <v>23</v>
       </c>
       <c r="B51">
         <v>23.659309279999999</v>
       </c>
-      <c r="E51" s="48"/>
+      <c r="E51" s="46"/>
       <c r="F51">
         <v>23.446638320000002</v>
       </c>
@@ -6042,13 +6811,13 @@
         <f t="shared" si="0"/>
         <v>0.21267095999999697</v>
       </c>
-      <c r="K51" s="48">
+      <c r="K51" s="46">
         <v>23</v>
       </c>
       <c r="L51">
         <v>17.54233571</v>
       </c>
-      <c r="O51" s="47"/>
+      <c r="O51" s="45"/>
       <c r="P51">
         <v>17.118570259999998</v>
       </c>
@@ -6058,13 +6827,13 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="48">
+      <c r="A52" s="46">
         <v>24</v>
       </c>
       <c r="B52">
         <v>23.522175270000002</v>
       </c>
-      <c r="E52" s="48"/>
+      <c r="E52" s="46"/>
       <c r="F52">
         <v>23.667639149999999</v>
       </c>
@@ -6072,13 +6841,13 @@
         <f t="shared" si="0"/>
         <v>-0.14546387999999766</v>
       </c>
-      <c r="K52" s="48">
+      <c r="K52" s="46">
         <v>24</v>
       </c>
       <c r="L52">
         <v>17.14447689</v>
       </c>
-      <c r="O52" s="47"/>
+      <c r="O52" s="45"/>
       <c r="P52">
         <v>16.130017760000001</v>
       </c>
@@ -6088,20 +6857,20 @@
       </c>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="46" t="s">
         <v>119</v>
       </c>
       <c r="H53" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K53" s="48" t="s">
+      <c r="K53" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="O53" s="47" t="s">
+      <c r="O53" s="45" t="s">
         <v>119</v>
       </c>
       <c r="R53" s="23">
@@ -6110,13 +6879,13 @@
       </c>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="48">
+      <c r="A54" s="46">
         <v>0</v>
       </c>
       <c r="B54">
         <v>16.14943147</v>
       </c>
-      <c r="E54" s="48"/>
+      <c r="E54" s="46"/>
       <c r="F54">
         <v>15.95117426</v>
       </c>
@@ -6124,13 +6893,13 @@
         <f t="shared" si="0"/>
         <v>0.19825720999999952</v>
       </c>
-      <c r="K54" s="48">
+      <c r="K54" s="46">
         <v>0</v>
       </c>
       <c r="L54">
         <v>17.600624939999999</v>
       </c>
-      <c r="O54" s="47"/>
+      <c r="O54" s="45"/>
       <c r="P54">
         <v>17.99406273</v>
       </c>
@@ -6140,13 +6909,13 @@
       </c>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="48">
+      <c r="A55" s="46">
         <v>1</v>
       </c>
       <c r="B55">
         <v>16.984811100000002</v>
       </c>
-      <c r="E55" s="48"/>
+      <c r="E55" s="46"/>
       <c r="F55">
         <v>16.911504170000001</v>
       </c>
@@ -6154,13 +6923,13 @@
         <f t="shared" si="0"/>
         <v>7.3306930000001103E-2</v>
       </c>
-      <c r="K55" s="48">
+      <c r="K55" s="46">
         <v>1</v>
       </c>
       <c r="L55">
         <v>15.999292609999999</v>
       </c>
-      <c r="O55" s="47"/>
+      <c r="O55" s="45"/>
       <c r="P55">
         <v>16.43730205</v>
       </c>
@@ -6170,13 +6939,13 @@
       </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="48">
+      <c r="A56" s="46">
         <v>2</v>
       </c>
       <c r="B56">
         <v>17.834473989999999</v>
       </c>
-      <c r="E56" s="48"/>
+      <c r="E56" s="46"/>
       <c r="F56">
         <v>17.414634939999999</v>
       </c>
@@ -6184,13 +6953,13 @@
         <f t="shared" si="0"/>
         <v>0.41983905000000021</v>
       </c>
-      <c r="K56" s="48">
+      <c r="K56" s="46">
         <v>2</v>
       </c>
       <c r="L56">
         <v>12.744172409999999</v>
       </c>
-      <c r="O56" s="47"/>
+      <c r="O56" s="45"/>
       <c r="P56">
         <v>12.786046069999999</v>
       </c>
@@ -6200,13 +6969,13 @@
       </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="48">
+      <c r="A57" s="46">
         <v>3</v>
       </c>
       <c r="B57">
         <v>16.135031829999999</v>
       </c>
-      <c r="E57" s="48"/>
+      <c r="E57" s="46"/>
       <c r="F57">
         <v>14.802184820000001</v>
       </c>
@@ -6214,13 +6983,13 @@
         <f t="shared" si="0"/>
         <v>1.3328470099999983</v>
       </c>
-      <c r="K57" s="48">
+      <c r="K57" s="46">
         <v>3</v>
       </c>
       <c r="L57">
         <v>16.811919540000002</v>
       </c>
-      <c r="O57" s="47"/>
+      <c r="O57" s="45"/>
       <c r="P57">
         <v>17.67699309</v>
       </c>
@@ -6230,13 +6999,13 @@
       </c>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="48">
+      <c r="A58" s="46">
         <v>4</v>
       </c>
       <c r="B58">
         <v>16.08126901</v>
       </c>
-      <c r="E58" s="48"/>
+      <c r="E58" s="46"/>
       <c r="F58">
         <v>15.289595179999999</v>
       </c>
@@ -6244,13 +7013,13 @@
         <f t="shared" si="0"/>
         <v>0.79167383000000058</v>
       </c>
-      <c r="K58" s="48">
+      <c r="K58" s="46">
         <v>4</v>
       </c>
       <c r="L58">
         <v>16.362644840000002</v>
       </c>
-      <c r="O58" s="47"/>
+      <c r="O58" s="45"/>
       <c r="P58">
         <v>16.411158650000001</v>
       </c>
@@ -6260,13 +7029,13 @@
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="48">
+      <c r="A59" s="46">
         <v>5</v>
       </c>
       <c r="B59">
         <v>15.70367371</v>
       </c>
-      <c r="E59" s="48"/>
+      <c r="E59" s="46"/>
       <c r="F59">
         <v>14.03998354</v>
       </c>
@@ -6274,13 +7043,13 @@
         <f t="shared" si="0"/>
         <v>1.6636901700000006</v>
       </c>
-      <c r="K59" s="48">
+      <c r="K59" s="46">
         <v>5</v>
       </c>
       <c r="L59">
         <v>14.147379089999999</v>
       </c>
-      <c r="O59" s="47"/>
+      <c r="O59" s="45"/>
       <c r="P59">
         <v>15.004208569999999</v>
       </c>
@@ -6290,13 +7059,13 @@
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="48">
+      <c r="A60" s="46">
         <v>6</v>
       </c>
       <c r="B60">
         <v>11.823278009999999</v>
       </c>
-      <c r="E60" s="48"/>
+      <c r="E60" s="46"/>
       <c r="F60">
         <v>11.56579339</v>
       </c>
@@ -6304,13 +7073,13 @@
         <f t="shared" si="0"/>
         <v>0.25748461999999961</v>
       </c>
-      <c r="K60" s="48">
+      <c r="K60" s="46">
         <v>6</v>
       </c>
       <c r="L60">
         <v>11.062216449999999</v>
       </c>
-      <c r="O60" s="47"/>
+      <c r="O60" s="45"/>
       <c r="P60">
         <v>11.17687121</v>
       </c>
@@ -6320,13 +7089,13 @@
       </c>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="48">
+      <c r="A61" s="46">
         <v>7</v>
       </c>
       <c r="B61">
         <v>12.533533029999999</v>
       </c>
-      <c r="E61" s="48"/>
+      <c r="E61" s="46"/>
       <c r="F61">
         <v>12.37018511</v>
       </c>
@@ -6334,29 +7103,29 @@
         <f t="shared" si="0"/>
         <v>0.16334791999999965</v>
       </c>
-      <c r="K61" s="48">
+      <c r="K61" s="46">
         <v>7</v>
       </c>
       <c r="L61">
         <v>10.38070505</v>
       </c>
-      <c r="O61" s="47"/>
+      <c r="O61" s="45"/>
       <c r="P61">
         <v>13.2555677</v>
       </c>
-      <c r="R61" s="51">
+      <c r="R61" s="49">
         <f t="shared" si="1"/>
         <v>-2.8748626500000007</v>
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="48">
+      <c r="A62" s="46">
         <v>8</v>
       </c>
       <c r="B62">
         <v>11.13829383</v>
       </c>
-      <c r="E62" s="48"/>
+      <c r="E62" s="46"/>
       <c r="F62">
         <v>10.69949192</v>
       </c>
@@ -6364,13 +7133,13 @@
         <f t="shared" si="0"/>
         <v>0.43880191000000046</v>
       </c>
-      <c r="K62" s="48">
+      <c r="K62" s="46">
         <v>8</v>
       </c>
       <c r="L62">
         <v>8.9143461800000008</v>
       </c>
-      <c r="O62" s="47"/>
+      <c r="O62" s="45"/>
       <c r="P62">
         <v>8.9764974300000002</v>
       </c>
@@ -6380,13 +7149,13 @@
       </c>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="48">
+      <c r="A63" s="46">
         <v>9</v>
       </c>
       <c r="B63">
         <v>14.39901017</v>
       </c>
-      <c r="E63" s="48"/>
+      <c r="E63" s="46"/>
       <c r="F63">
         <v>13.32427281</v>
       </c>
@@ -6394,13 +7163,13 @@
         <f t="shared" si="0"/>
         <v>1.0747373600000003</v>
       </c>
-      <c r="K63" s="48">
+      <c r="K63" s="46">
         <v>9</v>
       </c>
       <c r="L63">
         <v>12.514503400000001</v>
       </c>
-      <c r="O63" s="47"/>
+      <c r="O63" s="45"/>
       <c r="P63">
         <v>13.502387669999999</v>
       </c>
@@ -6410,13 +7179,13 @@
       </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="48">
+      <c r="A64" s="46">
         <v>10</v>
       </c>
       <c r="B64">
         <v>16.196536900000002</v>
       </c>
-      <c r="E64" s="48"/>
+      <c r="E64" s="46"/>
       <c r="F64">
         <v>14.726820999999999</v>
       </c>
@@ -6424,13 +7193,13 @@
         <f t="shared" si="0"/>
         <v>1.4697159000000024</v>
       </c>
-      <c r="K64" s="48">
+      <c r="K64" s="46">
         <v>10</v>
       </c>
       <c r="L64">
         <v>12.84501955</v>
       </c>
-      <c r="O64" s="47"/>
+      <c r="O64" s="45"/>
       <c r="P64">
         <v>13.830009349999999</v>
       </c>
@@ -6440,13 +7209,13 @@
       </c>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="48">
+      <c r="A65" s="46">
         <v>11</v>
       </c>
       <c r="B65">
         <v>14.92710011</v>
       </c>
-      <c r="E65" s="48"/>
+      <c r="E65" s="46"/>
       <c r="F65">
         <v>14.571450219999999</v>
       </c>
@@ -6454,13 +7223,13 @@
         <f t="shared" si="0"/>
         <v>0.35564989000000047</v>
       </c>
-      <c r="K65" s="48">
+      <c r="K65" s="46">
         <v>11</v>
       </c>
       <c r="L65">
         <v>13.622384009999999</v>
       </c>
-      <c r="O65" s="47"/>
+      <c r="O65" s="45"/>
       <c r="P65">
         <v>15.86994443</v>
       </c>
@@ -6470,13 +7239,13 @@
       </c>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="48">
+      <c r="A66" s="46">
         <v>12</v>
       </c>
       <c r="B66">
         <v>7.0266052999999999</v>
       </c>
-      <c r="E66" s="48"/>
+      <c r="E66" s="46"/>
       <c r="F66">
         <v>8.5839478899999992</v>
       </c>
@@ -6484,13 +7253,13 @@
         <f t="shared" si="0"/>
         <v>-1.5573425899999993</v>
       </c>
-      <c r="K66" s="48">
+      <c r="K66" s="46">
         <v>12</v>
       </c>
       <c r="L66">
         <v>9.9372293000000003</v>
       </c>
-      <c r="O66" s="47"/>
+      <c r="O66" s="45"/>
       <c r="P66">
         <v>8.0241609399999998</v>
       </c>
@@ -6500,27 +7269,27 @@
       </c>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="48">
+      <c r="A67" s="46">
         <v>13</v>
       </c>
       <c r="B67">
         <v>15.42821034</v>
       </c>
-      <c r="E67" s="48"/>
+      <c r="E67" s="46"/>
       <c r="F67">
         <v>13.529932909999999</v>
       </c>
-      <c r="H67" s="51">
+      <c r="H67" s="49">
         <f t="shared" ref="H67:H104" si="2">B67-F67</f>
         <v>1.8982774300000003</v>
       </c>
-      <c r="K67" s="48">
+      <c r="K67" s="46">
         <v>13</v>
       </c>
       <c r="L67">
         <v>14.632329929999999</v>
       </c>
-      <c r="O67" s="47"/>
+      <c r="O67" s="45"/>
       <c r="P67">
         <v>15.804578319999999</v>
       </c>
@@ -6530,13 +7299,13 @@
       </c>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="48">
+      <c r="A68" s="46">
         <v>14</v>
       </c>
       <c r="B68">
         <v>17.333534119999999</v>
       </c>
-      <c r="E68" s="48"/>
+      <c r="E68" s="46"/>
       <c r="F68">
         <v>17.448748940000002</v>
       </c>
@@ -6544,13 +7313,13 @@
         <f t="shared" si="2"/>
         <v>-0.11521482000000205</v>
       </c>
-      <c r="K68" s="48">
+      <c r="K68" s="46">
         <v>14</v>
       </c>
       <c r="L68">
         <v>12.365217060000001</v>
       </c>
-      <c r="O68" s="47"/>
+      <c r="O68" s="45"/>
       <c r="P68">
         <v>12.16770034</v>
       </c>
@@ -6560,13 +7329,13 @@
       </c>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="48">
+      <c r="A69" s="46">
         <v>15</v>
       </c>
       <c r="B69">
         <v>16.76117507</v>
       </c>
-      <c r="E69" s="48"/>
+      <c r="E69" s="46"/>
       <c r="F69">
         <v>17.28481996</v>
       </c>
@@ -6574,13 +7343,13 @@
         <f t="shared" si="2"/>
         <v>-0.52364488999999992</v>
       </c>
-      <c r="K69" s="48">
+      <c r="K69" s="46">
         <v>15</v>
       </c>
       <c r="L69">
         <v>17.04340728</v>
       </c>
-      <c r="O69" s="47"/>
+      <c r="O69" s="45"/>
       <c r="P69">
         <v>16.917431610000001</v>
       </c>
@@ -6590,13 +7359,13 @@
       </c>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="48">
+      <c r="A70" s="46">
         <v>16</v>
       </c>
       <c r="B70">
         <v>17.597083300000001</v>
       </c>
-      <c r="E70" s="48"/>
+      <c r="E70" s="46"/>
       <c r="F70">
         <v>18.27059921</v>
       </c>
@@ -6604,13 +7373,13 @@
         <f t="shared" si="2"/>
         <v>-0.673515909999999</v>
       </c>
-      <c r="K70" s="48">
+      <c r="K70" s="46">
         <v>16</v>
       </c>
       <c r="L70">
         <v>17.516569499999999</v>
       </c>
-      <c r="O70" s="47"/>
+      <c r="O70" s="45"/>
       <c r="P70">
         <v>17.868231699999999</v>
       </c>
@@ -6620,13 +7389,13 @@
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="48">
+      <c r="A71" s="46">
         <v>17</v>
       </c>
       <c r="B71">
         <v>13.116886060000001</v>
       </c>
-      <c r="E71" s="48"/>
+      <c r="E71" s="46"/>
       <c r="F71">
         <v>11.937784130000001</v>
       </c>
@@ -6634,13 +7403,13 @@
         <f t="shared" si="2"/>
         <v>1.1791019299999999</v>
       </c>
-      <c r="K71" s="48">
+      <c r="K71" s="46">
         <v>17</v>
       </c>
       <c r="L71">
         <v>11.156889769999999</v>
       </c>
-      <c r="O71" s="47"/>
+      <c r="O71" s="45"/>
       <c r="P71">
         <v>10.47701021</v>
       </c>
@@ -6650,13 +7419,13 @@
       </c>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="48">
+      <c r="A72" s="46">
         <v>18</v>
       </c>
       <c r="B72">
         <v>11.139037679999999</v>
       </c>
-      <c r="E72" s="48"/>
+      <c r="E72" s="46"/>
       <c r="F72">
         <v>12.42079468</v>
       </c>
@@ -6664,13 +7433,13 @@
         <f t="shared" si="2"/>
         <v>-1.2817570000000007</v>
       </c>
-      <c r="K72" s="48">
+      <c r="K72" s="46">
         <v>18</v>
       </c>
       <c r="L72">
         <v>15.66869423</v>
       </c>
-      <c r="O72" s="47"/>
+      <c r="O72" s="45"/>
       <c r="P72">
         <v>15.470453259999999</v>
       </c>
@@ -6680,13 +7449,13 @@
       </c>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="48">
+      <c r="A73" s="46">
         <v>19</v>
       </c>
       <c r="B73">
         <v>12.84408221</v>
       </c>
-      <c r="E73" s="48"/>
+      <c r="E73" s="46"/>
       <c r="F73">
         <v>11.91991133</v>
       </c>
@@ -6694,13 +7463,13 @@
         <f t="shared" si="2"/>
         <v>0.92417088000000014</v>
       </c>
-      <c r="K73" s="48">
+      <c r="K73" s="46">
         <v>19</v>
       </c>
       <c r="L73">
         <v>15.60675983</v>
       </c>
-      <c r="O73" s="47"/>
+      <c r="O73" s="45"/>
       <c r="P73">
         <v>15.41740935</v>
       </c>
@@ -6710,13 +7479,13 @@
       </c>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="48">
+      <c r="A74" s="46">
         <v>20</v>
       </c>
       <c r="B74">
         <v>11.10566867</v>
       </c>
-      <c r="E74" s="48"/>
+      <c r="E74" s="46"/>
       <c r="F74">
         <v>9.2368475599999993</v>
       </c>
@@ -6724,13 +7493,13 @@
         <f t="shared" si="2"/>
         <v>1.8688211100000007</v>
       </c>
-      <c r="K74" s="48">
+      <c r="K74" s="46">
         <v>20</v>
       </c>
       <c r="L74">
         <v>14.27551137</v>
       </c>
-      <c r="O74" s="47"/>
+      <c r="O74" s="45"/>
       <c r="P74">
         <v>14.130357119999999</v>
       </c>
@@ -6740,13 +7509,13 @@
       </c>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="48">
+      <c r="A75" s="46">
         <v>21</v>
       </c>
       <c r="B75">
         <v>13.69334649</v>
       </c>
-      <c r="E75" s="48"/>
+      <c r="E75" s="46"/>
       <c r="F75">
         <v>12.732620450000001</v>
       </c>
@@ -6754,13 +7523,13 @@
         <f t="shared" si="2"/>
         <v>0.96072603999999906</v>
       </c>
-      <c r="K75" s="48">
+      <c r="K75" s="46">
         <v>21</v>
       </c>
       <c r="L75">
         <v>14.84813799</v>
       </c>
-      <c r="O75" s="47"/>
+      <c r="O75" s="45"/>
       <c r="P75">
         <v>14.755072200000001</v>
       </c>
@@ -6770,13 +7539,13 @@
       </c>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="48">
+      <c r="A76" s="46">
         <v>22</v>
       </c>
       <c r="B76">
         <v>12.90203953</v>
       </c>
-      <c r="E76" s="48"/>
+      <c r="E76" s="46"/>
       <c r="F76">
         <v>11.61072023</v>
       </c>
@@ -6784,13 +7553,13 @@
         <f t="shared" si="2"/>
         <v>1.2913192999999996</v>
       </c>
-      <c r="K76" s="48">
+      <c r="K76" s="46">
         <v>22</v>
       </c>
       <c r="L76">
         <v>12.801867379999999</v>
       </c>
-      <c r="O76" s="47"/>
+      <c r="O76" s="45"/>
       <c r="P76">
         <v>12.688019710000001</v>
       </c>
@@ -6800,13 +7569,13 @@
       </c>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="48">
+      <c r="A77" s="46">
         <v>23</v>
       </c>
       <c r="B77">
         <v>22.75987194</v>
       </c>
-      <c r="E77" s="48"/>
+      <c r="E77" s="46"/>
       <c r="F77">
         <v>22.61503948</v>
       </c>
@@ -6814,13 +7583,13 @@
         <f t="shared" si="2"/>
         <v>0.14483245999999994</v>
       </c>
-      <c r="K77" s="48">
+      <c r="K77" s="46">
         <v>23</v>
       </c>
       <c r="L77">
         <v>13.80809438</v>
       </c>
-      <c r="O77" s="47"/>
+      <c r="O77" s="45"/>
       <c r="P77">
         <v>13.69115086</v>
       </c>
@@ -6830,13 +7599,13 @@
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="48">
+      <c r="A78" s="46">
         <v>24</v>
       </c>
       <c r="B78">
         <v>23.511607009999999</v>
       </c>
-      <c r="E78" s="48"/>
+      <c r="E78" s="46"/>
       <c r="F78">
         <v>23.421590070000001</v>
       </c>
@@ -6844,13 +7613,13 @@
         <f t="shared" si="2"/>
         <v>9.0016939999998158E-2</v>
       </c>
-      <c r="K78" s="48">
+      <c r="K78" s="46">
         <v>24</v>
       </c>
       <c r="L78">
         <v>13.90358601</v>
       </c>
-      <c r="O78" s="47"/>
+      <c r="O78" s="45"/>
       <c r="P78">
         <v>14.484954439999999</v>
       </c>
@@ -6860,20 +7629,20 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="48" t="s">
+      <c r="A79" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="E79" s="48" t="s">
+      <c r="E79" s="46" t="s">
         <v>120</v>
       </c>
       <c r="H79" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K79" s="48" t="s">
+      <c r="K79" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="O79" s="47" t="s">
+      <c r="O79" s="45" t="s">
         <v>120</v>
       </c>
       <c r="R79" s="23">
@@ -6882,13 +7651,13 @@
       </c>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="48">
+      <c r="A80" s="46">
         <v>0</v>
       </c>
       <c r="B80">
         <v>9.8978204600000002</v>
       </c>
-      <c r="E80" s="48"/>
+      <c r="E80" s="46"/>
       <c r="F80">
         <v>9.9492836199999992</v>
       </c>
@@ -6896,13 +7665,13 @@
         <f t="shared" si="2"/>
         <v>-5.1463159999999064E-2</v>
       </c>
-      <c r="K80" s="48">
+      <c r="K80" s="46">
         <v>0</v>
       </c>
       <c r="L80">
         <v>10.32969113</v>
       </c>
-      <c r="O80" s="47"/>
+      <c r="O80" s="45"/>
       <c r="P80">
         <v>10.45320761</v>
       </c>
@@ -6912,13 +7681,13 @@
       </c>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="48">
+      <c r="A81" s="46">
         <v>1</v>
       </c>
       <c r="B81">
         <v>5.5971375500000002</v>
       </c>
-      <c r="E81" s="48"/>
+      <c r="E81" s="46"/>
       <c r="F81">
         <v>5.3081339500000002</v>
       </c>
@@ -6926,13 +7695,13 @@
         <f t="shared" si="2"/>
         <v>0.28900360000000003</v>
       </c>
-      <c r="K81" s="48">
+      <c r="K81" s="46">
         <v>1</v>
       </c>
       <c r="L81">
         <v>9.7432551299999997</v>
       </c>
-      <c r="O81" s="47"/>
+      <c r="O81" s="45"/>
       <c r="P81">
         <v>10.31808258</v>
       </c>
@@ -6942,13 +7711,13 @@
       </c>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="48">
+      <c r="A82" s="46">
         <v>2</v>
       </c>
       <c r="B82">
         <v>6.5201208599999996</v>
       </c>
-      <c r="E82" s="48"/>
+      <c r="E82" s="46"/>
       <c r="F82">
         <v>6.2992357800000001</v>
       </c>
@@ -6956,13 +7725,13 @@
         <f t="shared" si="2"/>
         <v>0.22088507999999951</v>
       </c>
-      <c r="K82" s="48">
+      <c r="K82" s="46">
         <v>2</v>
       </c>
       <c r="L82">
         <v>7.1008437899999999</v>
       </c>
-      <c r="O82" s="47"/>
+      <c r="O82" s="45"/>
       <c r="P82">
         <v>6.7556733700000002</v>
       </c>
@@ -6972,13 +7741,13 @@
       </c>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="48">
+      <c r="A83" s="46">
         <v>3</v>
       </c>
       <c r="B83">
         <v>8.4167369099999991</v>
       </c>
-      <c r="E83" s="48"/>
+      <c r="E83" s="46"/>
       <c r="F83">
         <v>7.24576201</v>
       </c>
@@ -6986,13 +7755,13 @@
         <f t="shared" si="2"/>
         <v>1.1709748999999992</v>
       </c>
-      <c r="K83" s="48">
+      <c r="K83" s="46">
         <v>3</v>
       </c>
       <c r="L83">
         <v>14.92539448</v>
       </c>
-      <c r="O83" s="47"/>
+      <c r="O83" s="45"/>
       <c r="P83">
         <v>15.27999299</v>
       </c>
@@ -7002,13 +7771,13 @@
       </c>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="48">
+      <c r="A84" s="46">
         <v>4</v>
       </c>
       <c r="B84">
         <v>7.2574370899999998</v>
       </c>
-      <c r="E84" s="48"/>
+      <c r="E84" s="46"/>
       <c r="F84">
         <v>6.9982964399999998</v>
       </c>
@@ -7016,13 +7785,13 @@
         <f t="shared" si="2"/>
         <v>0.25914064999999997</v>
       </c>
-      <c r="K84" s="48">
+      <c r="K84" s="46">
         <v>4</v>
       </c>
       <c r="L84">
         <v>8.1427087799999995</v>
       </c>
-      <c r="O84" s="47"/>
+      <c r="O84" s="45"/>
       <c r="P84">
         <v>8.1783518799999992</v>
       </c>
@@ -7032,13 +7801,13 @@
       </c>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="48">
+      <c r="A85" s="46">
         <v>5</v>
       </c>
       <c r="B85">
         <v>8.6325564900000007</v>
       </c>
-      <c r="E85" s="48"/>
+      <c r="E85" s="46"/>
       <c r="F85">
         <v>7.9542932300000002</v>
       </c>
@@ -7046,13 +7815,13 @@
         <f t="shared" si="2"/>
         <v>0.67826326000000048</v>
       </c>
-      <c r="K85" s="48">
+      <c r="K85" s="46">
         <v>5</v>
       </c>
       <c r="L85">
         <v>10.65931965</v>
       </c>
-      <c r="O85" s="47"/>
+      <c r="O85" s="45"/>
       <c r="P85">
         <v>11.621568419999999</v>
       </c>
@@ -7062,13 +7831,13 @@
       </c>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="48">
+      <c r="A86" s="46">
         <v>6</v>
       </c>
       <c r="B86">
         <v>8.1944108</v>
       </c>
-      <c r="E86" s="48"/>
+      <c r="E86" s="46"/>
       <c r="F86">
         <v>8.4473493699999995</v>
       </c>
@@ -7076,13 +7845,13 @@
         <f t="shared" si="2"/>
         <v>-0.25293856999999953</v>
       </c>
-      <c r="K86" s="48">
+      <c r="K86" s="46">
         <v>6</v>
       </c>
       <c r="L86">
         <v>8.7954291199999997</v>
       </c>
-      <c r="O86" s="47"/>
+      <c r="O86" s="45"/>
       <c r="P86">
         <v>8.5996253599999992</v>
       </c>
@@ -7092,13 +7861,13 @@
       </c>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="48">
+      <c r="A87" s="46">
         <v>7</v>
       </c>
       <c r="B87">
         <v>5.2453700799999998</v>
       </c>
-      <c r="E87" s="48"/>
+      <c r="E87" s="46"/>
       <c r="F87">
         <v>5.1482503800000003</v>
       </c>
@@ -7106,13 +7875,13 @@
         <f t="shared" si="2"/>
         <v>9.7119699999999476E-2</v>
       </c>
-      <c r="K87" s="48">
+      <c r="K87" s="46">
         <v>7</v>
       </c>
       <c r="L87">
         <v>6.7809674700000002</v>
       </c>
-      <c r="O87" s="47"/>
+      <c r="O87" s="45"/>
       <c r="P87">
         <v>9.0078364499999992</v>
       </c>
@@ -7122,13 +7891,13 @@
       </c>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="48">
+      <c r="A88" s="46">
         <v>8</v>
       </c>
       <c r="B88">
         <v>3.1948744100000002</v>
       </c>
-      <c r="E88" s="48"/>
+      <c r="E88" s="46"/>
       <c r="F88">
         <v>3.0400695799999999</v>
       </c>
@@ -7136,13 +7905,13 @@
         <f t="shared" si="2"/>
         <v>0.15480483000000023</v>
       </c>
-      <c r="K88" s="48">
+      <c r="K88" s="46">
         <v>8</v>
       </c>
       <c r="L88">
         <v>6.8500126799999999</v>
       </c>
-      <c r="O88" s="47"/>
+      <c r="O88" s="45"/>
       <c r="P88">
         <v>6.8265532200000001</v>
       </c>
@@ -7152,13 +7921,13 @@
       </c>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="48">
+      <c r="A89" s="46">
         <v>9</v>
       </c>
       <c r="B89">
         <v>6.6281594300000002</v>
       </c>
-      <c r="E89" s="48"/>
+      <c r="E89" s="46"/>
       <c r="F89">
         <v>6.2076995300000002</v>
       </c>
@@ -7166,13 +7935,13 @@
         <f t="shared" si="2"/>
         <v>0.4204599</v>
       </c>
-      <c r="K89" s="48">
+      <c r="K89" s="46">
         <v>9</v>
       </c>
       <c r="L89">
         <v>8.7385080199999994</v>
       </c>
-      <c r="O89" s="47"/>
+      <c r="O89" s="45"/>
       <c r="P89">
         <v>9.4001009599999996</v>
       </c>
@@ -7182,13 +7951,13 @@
       </c>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="48">
+      <c r="A90" s="46">
         <v>10</v>
       </c>
       <c r="B90">
         <v>6.2521519999999997</v>
       </c>
-      <c r="E90" s="48"/>
+      <c r="E90" s="46"/>
       <c r="F90">
         <v>5.5127646800000001</v>
       </c>
@@ -7196,13 +7965,13 @@
         <f t="shared" si="2"/>
         <v>0.73938731999999963</v>
       </c>
-      <c r="K90" s="48">
+      <c r="K90" s="46">
         <v>10</v>
       </c>
       <c r="L90">
         <v>5.8588538899999998</v>
       </c>
-      <c r="O90" s="47"/>
+      <c r="O90" s="45"/>
       <c r="P90">
         <v>6.1372306700000001</v>
       </c>
@@ -7212,13 +7981,13 @@
       </c>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="48">
+      <c r="A91" s="46">
         <v>11</v>
       </c>
       <c r="B91">
         <v>6.4179692700000004</v>
       </c>
-      <c r="E91" s="48"/>
+      <c r="E91" s="46"/>
       <c r="F91">
         <v>6.2505107600000001</v>
       </c>
@@ -7226,13 +7995,13 @@
         <f t="shared" si="2"/>
         <v>0.16745851000000034</v>
       </c>
-      <c r="K91" s="48">
+      <c r="K91" s="46">
         <v>11</v>
       </c>
       <c r="L91">
         <v>4.1764069599999996</v>
       </c>
-      <c r="O91" s="47"/>
+      <c r="O91" s="45"/>
       <c r="P91">
         <v>6.0446812799999998</v>
       </c>
@@ -7242,13 +8011,13 @@
       </c>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="48">
+      <c r="A92" s="46">
         <v>12</v>
       </c>
       <c r="B92">
         <v>5.5913477299999998</v>
       </c>
-      <c r="E92" s="48"/>
+      <c r="E92" s="46"/>
       <c r="F92">
         <v>7.0658940399999999</v>
       </c>
@@ -7256,13 +8025,13 @@
         <f t="shared" si="2"/>
         <v>-1.47454631</v>
       </c>
-      <c r="K92" s="48">
+      <c r="K92" s="46">
         <v>12</v>
       </c>
       <c r="L92">
         <v>7.51471906</v>
       </c>
-      <c r="O92" s="47"/>
+      <c r="O92" s="45"/>
       <c r="P92">
         <v>5.4159035500000003</v>
       </c>
@@ -7272,13 +8041,13 @@
       </c>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="48">
+      <c r="A93" s="46">
         <v>13</v>
       </c>
       <c r="B93">
         <v>3.5496597599999999</v>
       </c>
-      <c r="E93" s="48"/>
+      <c r="E93" s="46"/>
       <c r="F93">
         <v>1.9275180000000001</v>
       </c>
@@ -7286,13 +8055,13 @@
         <f t="shared" si="2"/>
         <v>1.6221417599999999</v>
       </c>
-      <c r="K93" s="48">
+      <c r="K93" s="46">
         <v>13</v>
       </c>
       <c r="L93">
         <v>8.2826728299999992</v>
       </c>
-      <c r="O93" s="47"/>
+      <c r="O93" s="45"/>
       <c r="P93">
         <v>9.1110722899999992</v>
       </c>
@@ -7302,13 +8071,13 @@
       </c>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="48">
+      <c r="A94" s="46">
         <v>14</v>
       </c>
       <c r="B94">
         <v>18.114820659999999</v>
       </c>
-      <c r="E94" s="48"/>
+      <c r="E94" s="46"/>
       <c r="F94">
         <v>18.465486640000002</v>
       </c>
@@ -7316,13 +8085,13 @@
         <f t="shared" si="2"/>
         <v>-0.35066598000000226</v>
       </c>
-      <c r="K94" s="48">
+      <c r="K94" s="46">
         <v>14</v>
       </c>
       <c r="L94">
         <v>6.9757158099999996</v>
       </c>
-      <c r="O94" s="47"/>
+      <c r="O94" s="45"/>
       <c r="P94">
         <v>6.3273572800000002</v>
       </c>
@@ -7332,13 +8101,13 @@
       </c>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="48">
+      <c r="A95" s="46">
         <v>15</v>
       </c>
       <c r="B95">
         <v>7.8747682000000001</v>
       </c>
-      <c r="E95" s="48"/>
+      <c r="E95" s="46"/>
       <c r="F95">
         <v>8.5440622099999999</v>
       </c>
@@ -7346,13 +8115,13 @@
         <f t="shared" si="2"/>
         <v>-0.66929400999999977</v>
       </c>
-      <c r="K95" s="48">
+      <c r="K95" s="46">
         <v>15</v>
       </c>
       <c r="L95">
         <v>10.1306364</v>
       </c>
-      <c r="O95" s="47"/>
+      <c r="O95" s="45"/>
       <c r="P95">
         <v>10.00253981</v>
       </c>
@@ -7362,13 +8131,13 @@
       </c>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="48">
+      <c r="A96" s="46">
         <v>16</v>
       </c>
       <c r="B96">
         <v>6.7728481</v>
       </c>
-      <c r="E96" s="48"/>
+      <c r="E96" s="46"/>
       <c r="F96">
         <v>7.5876295999999996</v>
       </c>
@@ -7376,13 +8145,13 @@
         <f t="shared" si="2"/>
         <v>-0.8147814999999996</v>
       </c>
-      <c r="K96" s="48">
+      <c r="K96" s="46">
         <v>16</v>
       </c>
       <c r="L96">
         <v>8.4629904000000007</v>
       </c>
-      <c r="O96" s="47"/>
+      <c r="O96" s="45"/>
       <c r="P96">
         <v>9.12488031</v>
       </c>
@@ -7392,13 +8161,13 @@
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="48">
+      <c r="A97" s="46">
         <v>17</v>
       </c>
       <c r="B97">
         <v>8.2422781199999999</v>
       </c>
-      <c r="E97" s="48"/>
+      <c r="E97" s="46"/>
       <c r="F97">
         <v>7.1373774699999997</v>
       </c>
@@ -7406,13 +8175,13 @@
         <f t="shared" si="2"/>
         <v>1.1049006500000003</v>
       </c>
-      <c r="K97" s="48">
+      <c r="K97" s="46">
         <v>17</v>
       </c>
       <c r="L97">
         <v>4.7731310499999999</v>
       </c>
-      <c r="O97" s="47"/>
+      <c r="O97" s="45"/>
       <c r="P97">
         <v>5.1909081199999996</v>
       </c>
@@ -7422,13 +8191,13 @@
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="48">
+      <c r="A98" s="46">
         <v>18</v>
       </c>
       <c r="B98">
         <v>4.9300841499999999</v>
       </c>
-      <c r="E98" s="48"/>
+      <c r="E98" s="46"/>
       <c r="F98">
         <v>6.8585125299999996</v>
       </c>
@@ -7436,13 +8205,13 @@
         <f t="shared" si="2"/>
         <v>-1.9284283799999997</v>
       </c>
-      <c r="K98" s="48">
+      <c r="K98" s="46">
         <v>18</v>
       </c>
       <c r="L98">
         <v>6.7811967400000004</v>
       </c>
-      <c r="O98" s="47"/>
+      <c r="O98" s="45"/>
       <c r="P98">
         <v>6.6958217800000002</v>
       </c>
@@ -7452,13 +8221,13 @@
       </c>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="48">
+      <c r="A99" s="46">
         <v>19</v>
       </c>
       <c r="B99">
         <v>5.2237490900000001</v>
       </c>
-      <c r="E99" s="48"/>
+      <c r="E99" s="46"/>
       <c r="F99">
         <v>4.8662689700000001</v>
       </c>
@@ -7466,13 +8235,13 @@
         <f t="shared" si="2"/>
         <v>0.35748011999999996</v>
       </c>
-      <c r="K99" s="48">
+      <c r="K99" s="46">
         <v>19</v>
       </c>
       <c r="L99">
         <v>5.5608605500000001</v>
       </c>
-      <c r="O99" s="47"/>
+      <c r="O99" s="45"/>
       <c r="P99">
         <v>5.1364515400000004</v>
       </c>
@@ -7482,13 +8251,13 @@
       </c>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="48">
+      <c r="A100" s="46">
         <v>20</v>
       </c>
       <c r="B100">
         <v>6.0626786900000003</v>
       </c>
-      <c r="E100" s="48"/>
+      <c r="E100" s="46"/>
       <c r="F100">
         <v>4.9211780799999998</v>
       </c>
@@ -7496,13 +8265,13 @@
         <f t="shared" si="2"/>
         <v>1.1415006100000005</v>
       </c>
-      <c r="K100" s="48">
+      <c r="K100" s="46">
         <v>20</v>
       </c>
       <c r="L100">
         <v>14.17107611</v>
       </c>
-      <c r="O100" s="47"/>
+      <c r="O100" s="45"/>
       <c r="P100">
         <v>14.120597549999999</v>
       </c>
@@ -7512,13 +8281,13 @@
       </c>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="48">
+      <c r="A101" s="46">
         <v>21</v>
       </c>
       <c r="B101">
         <v>8.4616545199999997</v>
       </c>
-      <c r="E101" s="48"/>
+      <c r="E101" s="46"/>
       <c r="F101">
         <v>7.8103992499999997</v>
       </c>
@@ -7526,13 +8295,13 @@
         <f t="shared" si="2"/>
         <v>0.65125527000000005</v>
       </c>
-      <c r="K101" s="48">
+      <c r="K101" s="46">
         <v>21</v>
       </c>
       <c r="L101">
         <v>12.788889729999999</v>
       </c>
-      <c r="O101" s="47"/>
+      <c r="O101" s="45"/>
       <c r="P101">
         <v>12.59382123</v>
       </c>
@@ -7542,13 +8311,13 @@
       </c>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="48">
+      <c r="A102" s="46">
         <v>22</v>
       </c>
       <c r="B102">
         <v>8.1267417000000002</v>
       </c>
-      <c r="E102" s="48"/>
+      <c r="E102" s="46"/>
       <c r="F102">
         <v>7.4475896700000002</v>
       </c>
@@ -7556,13 +8325,13 @@
         <f t="shared" si="2"/>
         <v>0.67915203000000002</v>
       </c>
-      <c r="K102" s="48">
+      <c r="K102" s="46">
         <v>22</v>
       </c>
       <c r="L102">
         <v>12.51526653</v>
       </c>
-      <c r="O102" s="47"/>
+      <c r="O102" s="45"/>
       <c r="P102">
         <v>12.49141058</v>
       </c>
@@ -7572,13 +8341,13 @@
       </c>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="48">
+      <c r="A103" s="46">
         <v>23</v>
       </c>
       <c r="B103">
         <v>4.17127933</v>
       </c>
-      <c r="E103" s="48"/>
+      <c r="E103" s="46"/>
       <c r="F103">
         <v>3.9954557099999999</v>
       </c>
@@ -7586,13 +8355,13 @@
         <f t="shared" si="2"/>
         <v>0.17582362000000007</v>
       </c>
-      <c r="K103" s="48">
+      <c r="K103" s="46">
         <v>23</v>
       </c>
       <c r="L103">
         <v>6.5042522299999996</v>
       </c>
-      <c r="O103" s="47"/>
+      <c r="O103" s="45"/>
       <c r="P103">
         <v>6.2895906799999999</v>
       </c>
@@ -7602,13 +8371,13 @@
       </c>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="48">
+      <c r="A104" s="46">
         <v>24</v>
       </c>
       <c r="B104">
         <v>5.0628215900000004</v>
       </c>
-      <c r="E104" s="48"/>
+      <c r="E104" s="46"/>
       <c r="F104">
         <v>5.0888711999999998</v>
       </c>
@@ -7616,13 +8385,13 @@
         <f t="shared" si="2"/>
         <v>-2.604960999999939E-2</v>
       </c>
-      <c r="K104" s="48">
+      <c r="K104" s="46">
         <v>24</v>
       </c>
       <c r="L104">
         <v>7.1700338500000003</v>
       </c>
-      <c r="O104" s="47"/>
+      <c r="O104" s="45"/>
       <c r="P104">
         <v>7.1657009499999997</v>
       </c>
@@ -7632,13 +8401,13 @@
       </c>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="50"/>
+      <c r="A105" s="48"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="49"/>
+      <c r="A106" s="47"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="50"/>
+      <c r="A107" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7647,33 +8416,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId3" name="Control 1">
+        <control shapeId="4099" r:id="rId3" name="Control 3">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>541020</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId3" name="Control 1"/>
+        <control shapeId="4099" r:id="rId3" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="4098" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId6">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7697,27 +8466,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="4097" r:id="rId6" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>541020</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId7" name="Control 3"/>
+        <control shapeId="4097" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7726,10 +8495,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF23902-3816-4B4E-83CE-581E9B6C3F52}">
-  <dimension ref="B1:M32"/>
+  <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7745,7 +8514,7 @@
       <c r="B2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="14" t="s">
         <v>87</v>
       </c>
@@ -7766,10 +8535,10 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="9" t="s">
         <v>85</v>
       </c>
@@ -7790,8 +8559,8 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="62"/>
-      <c r="C4" s="68"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="9" t="s">
         <v>84</v>
       </c>
@@ -7812,10 +8581,10 @@
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="9" t="s">
         <v>85</v>
       </c>
@@ -7836,8 +8605,8 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="15" thickBot="1">
-      <c r="B6" s="63"/>
-      <c r="C6" s="69"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="17" t="s">
         <v>84</v>
       </c>
@@ -7859,33 +8628,33 @@
     </row>
     <row r="9" spans="2:13" ht="15" thickBot="1"/>
     <row r="10" spans="2:13">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="64" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="64" t="s">
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="66"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="2:13" ht="15" thickBot="1">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="39" t="s">
         <v>117</v>
       </c>
       <c r="F11" s="17" t="s">
@@ -7894,10 +8663,10 @@
       <c r="G11" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="39" t="s">
         <v>117</v>
       </c>
       <c r="J11" s="17" t="s">
@@ -7906,49 +8675,49 @@
       <c r="K11" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="52" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="52">
         <v>1.96897126794523</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="53">
         <v>3.4602999071115099</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="53">
         <v>14.6053919825485</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="L12" s="56" t="s">
+      <c r="L12" s="54" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="53">
+      <c r="C13" s="62"/>
+      <c r="D13" s="51">
         <v>2.5172597916725101E-3</v>
       </c>
       <c r="E13" s="33">
@@ -7977,11 +8746,11 @@
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="53">
+      <c r="C14" s="62"/>
+      <c r="D14" s="51">
         <v>2.5157486849751E-3</v>
       </c>
       <c r="E14" s="33">
@@ -8014,13 +8783,13 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="51">
         <v>1.23697815758462E-3</v>
       </c>
       <c r="E15" s="33">
@@ -8036,19 +8805,19 @@
         <v>8.30465812690381</v>
       </c>
       <c r="I15" s="32">
-        <f>(E15-E$13)/E$13</f>
+        <f t="shared" ref="I15:L19" si="4">(E15-E$13)/E$13</f>
         <v>1.4203033534708854E-2</v>
       </c>
       <c r="J15" s="28">
-        <f>(F15-F$13)/F$13</f>
+        <f t="shared" si="4"/>
         <v>-3.4138810456184505E-2</v>
       </c>
       <c r="K15" s="28">
-        <f>(G15-G$13)/G$13</f>
+        <f t="shared" si="4"/>
         <v>3.7674074835525477E-2</v>
       </c>
       <c r="L15" s="29">
-        <f>(H15-H$13)/H$13</f>
+        <f t="shared" si="4"/>
         <v>2.0619696235050521E-2</v>
       </c>
       <c r="M15" t="s">
@@ -8056,13 +8825,13 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="51">
         <v>1.2416653778368101E-3</v>
       </c>
       <c r="E16" s="33">
@@ -8078,30 +8847,30 @@
         <v>8.3918828423015999</v>
       </c>
       <c r="I16" s="31">
-        <f>(E16-E$13)/E$13</f>
+        <f t="shared" si="4"/>
         <v>2.1586844962739542E-2</v>
       </c>
       <c r="J16" s="25">
-        <f>(F16-F$13)/F$13</f>
+        <f t="shared" si="4"/>
         <v>-2.3043151867608556E-2</v>
       </c>
       <c r="K16" s="25">
-        <f>(G16-G$13)/G$13</f>
+        <f t="shared" si="4"/>
         <v>3.8546572870360826E-2</v>
       </c>
       <c r="L16" s="27">
-        <f>(H16-H$13)/H$13</f>
+        <f t="shared" si="4"/>
         <v>3.133937441723611E-2</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15" thickBot="1">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="51">
         <v>1.24797111896511E-3</v>
       </c>
       <c r="E17" s="33">
@@ -8117,30 +8886,30 @@
         <v>8.1189253333461604</v>
       </c>
       <c r="I17" s="32">
-        <f>(E17-E$13)/E$13</f>
+        <f t="shared" si="4"/>
         <v>-1.5197569310080111E-3</v>
       </c>
       <c r="J17" s="28">
-        <f>(F17-F$13)/F$13</f>
+        <f t="shared" si="4"/>
         <v>-4.7068932703039704E-2</v>
       </c>
       <c r="K17" s="28">
-        <f>(G17-G$13)/G$13</f>
+        <f t="shared" si="4"/>
         <v>2.9228526095890037E-2</v>
       </c>
       <c r="L17" s="29">
-        <f>(H17-H$13)/H$13</f>
+        <f t="shared" si="4"/>
         <v>-2.2063544518029169E-3</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15" thickBot="1">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="51">
         <v>1.25162732482959E-3</v>
       </c>
       <c r="E18" s="33">
@@ -8156,265 +8925,348 @@
         <v>8.5238584663597301</v>
       </c>
       <c r="I18" s="32">
-        <f>(E18-E$13)/E$13</f>
+        <f t="shared" si="4"/>
         <v>3.2758943566872721E-2</v>
       </c>
       <c r="J18" s="28">
-        <f>(F18-F$13)/F$13</f>
+        <f t="shared" si="4"/>
         <v>1.3189076531203577E-2</v>
       </c>
       <c r="K18" s="28">
-        <f>(G18-G$13)/G$13</f>
+        <f t="shared" si="4"/>
         <v>2.9885522521046128E-2</v>
       </c>
       <c r="L18" s="29">
-        <f>(H18-H$13)/H$13</f>
+        <f t="shared" si="4"/>
         <v>4.7558816479549945E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="37" t="s">
+    <row r="19" spans="2:12" ht="15" thickBot="1">
+      <c r="B19" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="62" t="s">
         <v>151</v>
       </c>
+      <c r="D19" s="51">
+        <v>1.2373974345301999E-3</v>
+      </c>
+      <c r="E19" s="33">
+        <v>11.792830271985199</v>
+      </c>
+      <c r="F19" s="10">
+        <v>16.1878518175557</v>
+      </c>
+      <c r="G19" s="10">
+        <v>14.127879396945399</v>
+      </c>
+      <c r="H19" s="34">
+        <v>8.1167421653351504</v>
+      </c>
+      <c r="I19" s="32">
+        <f t="shared" si="4"/>
+        <v>-1.7045680918747839E-3</v>
+      </c>
+      <c r="J19" s="28">
+        <f t="shared" si="4"/>
+        <v>-5.8380200203657175E-2</v>
+      </c>
+      <c r="K19" s="28">
+        <f t="shared" si="4"/>
+        <v>3.7422830783119192E-2</v>
+      </c>
+      <c r="L19" s="29">
+        <f t="shared" si="4"/>
+        <v>-2.4746598098535646E-3</v>
+      </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="51">
+        <v>1.2417821800157101E-3</v>
+      </c>
+      <c r="E20" s="33">
+        <v>11.9652460187374</v>
+      </c>
+      <c r="F20" s="10">
+        <v>16.292491868372199</v>
+      </c>
+      <c r="G20" s="10">
+        <v>14.2886057670078</v>
+      </c>
+      <c r="H20" s="34">
+        <v>8.2891579120874805</v>
+      </c>
+      <c r="I20" s="31">
+        <f>(E20-E$13)/E$13</f>
+        <v>1.2890897831232666E-2</v>
+      </c>
+      <c r="J20" s="25">
+        <f>(F20-F$13)/F$13</f>
+        <v>-5.2293466472029218E-2</v>
+      </c>
+      <c r="K20" s="25">
+        <f>(G20-G$13)/G$13</f>
+        <v>4.9225112012082836E-2</v>
+      </c>
+      <c r="L20" s="27">
+        <f>(H20-H$13)/H$13</f>
+        <v>1.8714762365928294E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D21" s="51">
         <v>1.2367894384974099E-3</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E21" s="33">
         <v>12.0501735388866</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F21" s="10">
         <v>16.906721928754401</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G21" s="10">
         <v>14.0762430723527</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H21" s="34">
         <v>8.3740854322365994</v>
       </c>
-      <c r="I20" s="31">
-        <f t="shared" ref="I15:I25" si="4">(E20-E$13)/E$13</f>
+      <c r="I21" s="31">
+        <f>(E21-E$13)/E$13</f>
         <v>2.0080245379941169E-2</v>
       </c>
-      <c r="J20" s="25">
-        <f t="shared" ref="J20" si="5">(F20-F$13)/F$13</f>
+      <c r="J21" s="25">
+        <f>(F21-F$13)/F$13</f>
         <v>-1.6564748850661972E-2</v>
       </c>
-      <c r="K20" s="25">
-        <f t="shared" ref="K20" si="6">(G20-G$13)/G$13</f>
+      <c r="K21" s="25">
+        <f>(G21-G$13)/G$13</f>
         <v>3.3631129245677092E-2</v>
       </c>
-      <c r="L20" s="27">
-        <f t="shared" ref="L20" si="7">(H20-H$13)/H$13</f>
+      <c r="L21" s="27">
+        <f>(H21-H$13)/H$13</f>
         <v>2.9152121555439673E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="37" t="s">
+    <row r="22" spans="2:12">
+      <c r="B22" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="31">
-        <f t="shared" ref="I21" si="8">(E21-E$13)/E$13</f>
-        <v>-1</v>
-      </c>
-      <c r="J21" s="25">
-        <f t="shared" ref="J21" si="9">(F21-F$13)/F$13</f>
-        <v>-1</v>
-      </c>
-      <c r="K21" s="25">
-        <f t="shared" ref="K21" si="10">(G21-G$13)/G$13</f>
-        <v>-1</v>
-      </c>
-      <c r="L21" s="27">
-        <f t="shared" ref="L21" si="11">(H21-H$13)/H$13</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="37" t="s">
+      <c r="C22" s="62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C25" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D25" s="51">
         <v>0.16524580917679299</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E25" s="33">
         <v>11.524378679359</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F25" s="10">
         <v>19.351235832271101</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G25" s="10">
         <v>12.516035605725399</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H25" s="34">
         <v>7.8482905727088497</v>
       </c>
-      <c r="I22" s="31">
-        <f t="shared" si="4"/>
+      <c r="I25" s="31">
+        <f t="shared" ref="I20:I27" si="5">(E25-E$13)/E$13</f>
         <v>-2.4429731807987683E-2</v>
       </c>
-      <c r="J22" s="25">
-        <f t="shared" ref="J22" si="12">(F22-F$13)/F$13</f>
+      <c r="J25" s="25">
+        <f t="shared" ref="J25" si="6">(F25-F$13)/F$13</f>
         <v>0.12562846605957526</v>
       </c>
-      <c r="K22" s="25">
-        <f t="shared" ref="K22" si="13">(G22-G$13)/G$13</f>
+      <c r="K25" s="25">
+        <f t="shared" ref="K25" si="7">(G25-G$13)/G$13</f>
         <v>-8.0936301658879661E-2</v>
       </c>
-      <c r="L22" s="27">
-        <f t="shared" ref="L22" si="14">(H22-H$13)/H$13</f>
+      <c r="L25" s="27">
+        <f t="shared" ref="L25" si="8">(H25-H$13)/H$13</f>
         <v>-3.5466623926047706E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15" thickBot="1">
-      <c r="B23" s="38" t="s">
+    <row r="26" spans="2:12" ht="15" thickBot="1">
+      <c r="B26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C26" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="53">
-        <v>0.108961390961821</v>
-      </c>
-      <c r="E23" s="35">
-        <v>11.3704568974146</v>
-      </c>
-      <c r="F23" s="18">
-        <v>15.2321663577236</v>
-      </c>
-      <c r="G23" s="18">
-        <v>14.063181415601001</v>
-      </c>
-      <c r="H23" s="36">
-        <v>7.6943687907646003</v>
-      </c>
-      <c r="I23" s="32">
-        <f t="shared" si="4"/>
-        <v>-3.7459632878579917E-2</v>
-      </c>
-      <c r="J23" s="28">
-        <f t="shared" ref="J23" si="15">(F23-F$13)/F$13</f>
-        <v>-0.11397079749214027</v>
-      </c>
-      <c r="K23" s="28">
-        <f t="shared" ref="K23" si="16">(G23-G$13)/G$13</f>
-        <v>3.2672000098170742E-2</v>
-      </c>
-      <c r="L23" s="29">
-        <f t="shared" ref="L23" si="17">(H23-H$13)/H$13</f>
-        <v>-5.4383188573419491E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15" thickBot="1">
-      <c r="B24" s="38" t="s">
+      <c r="D26" s="51">
+        <v>0.11006206577787001</v>
+      </c>
+      <c r="E26" s="33">
+        <v>11.642205296141</v>
+      </c>
+      <c r="F26" s="10">
+        <v>15.991064047411299</v>
+      </c>
+      <c r="G26" s="10">
+        <v>13.969427024266899</v>
+      </c>
+      <c r="H26" s="34">
+        <v>7.9661171894910003</v>
+      </c>
+      <c r="I26" s="32">
+        <f t="shared" si="5"/>
+        <v>-1.4455385482484318E-2</v>
+      </c>
+      <c r="J26" s="28">
+        <f t="shared" ref="J26" si="9">(F26-F$13)/F$13</f>
+        <v>-6.9827009997454656E-2</v>
+      </c>
+      <c r="K26" s="28">
+        <f t="shared" ref="K26" si="10">(G26-G$13)/G$13</f>
+        <v>2.5787531217639287E-2</v>
+      </c>
+      <c r="L26" s="29">
+        <f t="shared" ref="L26" si="11">(H26-H$13)/H$13</f>
+        <v>-2.0986056033792166E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="15" thickBot="1">
+      <c r="B27" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C27" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D27" s="51">
         <v>1.24950087271057E-3</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E27" s="33">
         <v>11.9454971409202</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F27" s="10">
         <v>17.037937106154398</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G27" s="10">
         <v>13.852797662412399</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H27" s="34">
         <v>8.2694090342701898</v>
       </c>
-      <c r="I24" s="32">
-        <f t="shared" si="4"/>
+      <c r="I27" s="32">
+        <f t="shared" si="5"/>
         <v>1.1219101150069735E-2</v>
       </c>
-      <c r="J24" s="28">
-        <f t="shared" ref="J24" si="18">(F24-F$13)/F$13</f>
+      <c r="J27" s="28">
+        <f t="shared" ref="J27" si="12">(F27-F$13)/F$13</f>
         <v>-8.9321852179980871E-3</v>
       </c>
-      <c r="K24" s="28">
-        <f t="shared" ref="K24" si="19">(G24-G$13)/G$13</f>
+      <c r="K27" s="28">
+        <f t="shared" ref="K27" si="13">(G27-G$13)/G$13</f>
         <v>1.7223332775112652E-2</v>
       </c>
-      <c r="L24" s="29">
-        <f t="shared" ref="L24" si="20">(H24-H$13)/H$13</f>
+      <c r="L27" s="29">
+        <f t="shared" ref="L27" si="14">(H27-H$13)/H$13</f>
         <v>1.6287679472104091E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15" thickBot="1">
-      <c r="B27" s="59" t="s">
+    <row r="30" spans="2:12" ht="15" thickBot="1">
+      <c r="B30" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C30" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D30" s="51">
         <v>1.25859580808677E-3</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E30" s="33">
         <v>11.8362310813659</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F30" s="10">
         <v>17.3430143900983</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G30" s="10">
         <v>13.5566621703965</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H30" s="34">
         <v>8.16014297471588</v>
       </c>
-      <c r="I27" s="32">
-        <f t="shared" ref="I27" si="21">(E27-E$13)/E$13</f>
+      <c r="I30" s="32">
+        <f t="shared" ref="I30" si="15">(E30-E$13)/E$13</f>
         <v>1.9694294766983565E-3</v>
       </c>
-      <c r="J27" s="28">
-        <f t="shared" ref="J27" si="22">(F27-F$13)/F$13</f>
+      <c r="J30" s="28">
+        <f t="shared" ref="J30" si="16">(F30-F$13)/F$13</f>
         <v>8.8136413603085301E-3</v>
       </c>
-      <c r="K27" s="28">
-        <f t="shared" ref="K27" si="23">(G27-G$13)/G$13</f>
+      <c r="K30" s="28">
+        <f t="shared" ref="K30" si="17">(G30-G$13)/G$13</f>
         <v>-4.5221614912745716E-3</v>
       </c>
-      <c r="L27" s="29">
-        <f t="shared" ref="L27" si="24">(H27-H$13)/H$13</f>
+      <c r="L30" s="29">
+        <f t="shared" ref="L30" si="18">(H30-H$13)/H$13</f>
         <v>2.8591805734145925E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
-      <c r="C30" s="71"/>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="C31" s="71"/>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="42" t="s">
+    <row r="33" spans="2:3">
+      <c r="C33" s="62"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" s="62"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="42"/>
+      <c r="C35" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8423,6 +9275,17 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="I10:L10"/>
   </mergeCells>
+  <conditionalFormatting sqref="I23:L30 I14:L21">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>-0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>0.01</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9A4F1137-01AF-4DB1-9443-62CBF84B9561}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{483775CD-A21C-4D5D-8C73-BBE8D84E349E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3996" windowHeight="4260" activeTab="2" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3990" windowHeight="4260" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="172">
   <si>
     <t>Experiment</t>
   </si>
@@ -519,7 +519,31 @@
     <t>Running on Africa</t>
   </si>
   <si>
-    <t>Failed - phase loss error</t>
+    <t>U-Net with mag_phase_diff, phase weight 0.0000075</t>
+  </si>
+  <si>
+    <t>U-Net with mag_phase_diff, phase weight 0.000005</t>
+  </si>
+  <si>
+    <t>U-Net with mag_phase_diff, phase weight 0.0000025</t>
+  </si>
+  <si>
+    <t>Queued on Africa</t>
+  </si>
+  <si>
+    <t>Basic capsnet</t>
+  </si>
+  <si>
+    <t>Basic convnet</t>
+  </si>
+  <si>
+    <t>Basic capsnet mag_phase phase_weight=0.000005</t>
+  </si>
+  <si>
+    <t>Basic convnet mag_phase phase_weight=0.000005</t>
+  </si>
+  <si>
+    <t>Queued on Europe</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1112,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1109,13 +1140,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1189,9 +1213,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1239,9 +1263,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>541020</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1288,10 +1312,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>541020</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1628,19 +1652,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE2BEB-AFEC-4FDB-87E2-6A5999A2F15B}">
-  <dimension ref="A1:K175"/>
+  <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D178" sqref="D178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1810,7 +1834,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="71" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -1836,7 +1860,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="65"/>
+      <c r="B10" s="71"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -1857,10 +1881,10 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="64">
+      <c r="A11" s="72">
         <v>43367</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="71">
         <v>50</v>
       </c>
       <c r="C11">
@@ -1886,8 +1910,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="71"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -1911,10 +1935,10 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="64">
+      <c r="A13" s="72">
         <v>43368</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="71">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -1935,13 +1959,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="I13" s="71" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="71"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -1960,13 +1984,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="65"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="64">
+      <c r="A15" s="72">
         <v>43369</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="71">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1987,13 +2011,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="71" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="71"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -2012,11 +2036,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="65"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -2035,11 +2059,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="65"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="71"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -2058,13 +2082,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="65"/>
+      <c r="I18" s="71"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="64">
+      <c r="A19" s="72">
         <v>43370</v>
       </c>
-      <c r="B19" s="65">
+      <c r="B19" s="71">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -2085,13 +2109,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="65" t="s">
+      <c r="I19" s="71" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="71"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -2110,13 +2134,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="65"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="64">
+      <c r="A21" s="72">
         <v>43373</v>
       </c>
-      <c r="B21" s="65">
+      <c r="B21" s="71">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -2137,13 +2161,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="65" t="s">
+      <c r="I21" s="71" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="71"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -2162,11 +2186,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="65"/>
+      <c r="I22" s="71"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="71"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -2185,11 +2209,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="65"/>
+      <c r="I23" s="71"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="71"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -2208,7 +2232,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="65"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
@@ -2258,10 +2282,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="64">
+      <c r="A29" s="72">
         <v>43374</v>
       </c>
-      <c r="B29" s="65">
+      <c r="B29" s="71">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -2282,13 +2306,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="65" t="s">
+      <c r="I29" s="71" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="64"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="71"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2307,11 +2331,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="65"/>
+      <c r="I30" s="71"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="71"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2330,11 +2354,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="65"/>
+      <c r="I31" s="71"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="71"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -2353,13 +2377,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="65"/>
+      <c r="I32" s="71"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="64">
+      <c r="A33" s="72">
         <v>43374</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B33" s="71">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -2380,13 +2404,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="65" t="s">
+      <c r="I33" s="71" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="71"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -2405,13 +2429,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="65"/>
+      <c r="I34" s="71"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="64">
+      <c r="A35" s="72">
         <v>43375</v>
       </c>
-      <c r="B35" s="65">
+      <c r="B35" s="71">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -2432,13 +2456,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="65" t="s">
+      <c r="I35" s="71" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="64"/>
-      <c r="B36" s="65"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="71"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -2457,11 +2481,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="65"/>
+      <c r="I36" s="71"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="64"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="71"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -2480,11 +2504,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="65"/>
+      <c r="I37" s="71"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="71"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -2503,13 +2527,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="65"/>
+      <c r="I38" s="71"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="64">
+      <c r="A39" s="72">
         <v>43375</v>
       </c>
-      <c r="B39" s="65">
+      <c r="B39" s="71">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -2530,13 +2554,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="65" t="s">
+      <c r="I39" s="71" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="71"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -2555,11 +2579,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="65"/>
+      <c r="I40" s="71"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="71"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -2578,11 +2602,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="65"/>
+      <c r="I41" s="71"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="64"/>
-      <c r="B42" s="65"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="71"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -2601,7 +2625,7 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="65"/>
+      <c r="I42" s="71"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
@@ -2791,7 +2815,7 @@
       <c r="H51">
         <v>-0.31863876639355398</v>
       </c>
-      <c r="I51" s="65" t="s">
+      <c r="I51" s="71" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2815,7 +2839,7 @@
       <c r="H52">
         <v>2.67662389686584</v>
       </c>
-      <c r="I52" s="65"/>
+      <c r="I52" s="71"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
@@ -2837,7 +2861,7 @@
       <c r="H53">
         <v>0.95464630209159695</v>
       </c>
-      <c r="I53" s="65"/>
+      <c r="I53" s="71"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
@@ -2859,7 +2883,7 @@
       <c r="H54">
         <v>4.8512619602994098</v>
       </c>
-      <c r="I54" s="65"/>
+      <c r="I54" s="71"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
@@ -2884,7 +2908,7 @@
       <c r="H55">
         <v>-0.56767955034740303</v>
       </c>
-      <c r="I55" s="65"/>
+      <c r="I55" s="71"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
@@ -2906,7 +2930,7 @@
       <c r="H56">
         <v>1.8761231724104801</v>
       </c>
-      <c r="I56" s="65"/>
+      <c r="I56" s="71"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
@@ -2928,7 +2952,7 @@
       <c r="H57">
         <v>0.76717154068581295</v>
       </c>
-      <c r="I57" s="65"/>
+      <c r="I57" s="71"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
@@ -2950,7 +2974,7 @@
       <c r="H58">
         <v>3.8964804606254</v>
       </c>
-      <c r="I58" s="65"/>
+      <c r="I58" s="71"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
@@ -2968,10 +2992,10 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="64">
+      <c r="A60" s="72">
         <v>43377</v>
       </c>
-      <c r="B60" s="65">
+      <c r="B60" s="71">
         <v>85</v>
       </c>
       <c r="C60" t="s">
@@ -2992,13 +3016,13 @@
       <c r="H60">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I60" s="65" t="s">
+      <c r="I60" s="71" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="64"/>
-      <c r="B61" s="65"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="71"/>
       <c r="C61" t="s">
         <v>32</v>
       </c>
@@ -3017,13 +3041,13 @@
       <c r="H61">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I61" s="65"/>
+      <c r="I61" s="71"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="64">
+      <c r="A62" s="72">
         <v>43378</v>
       </c>
-      <c r="B62" s="65">
+      <c r="B62" s="71">
         <v>89</v>
       </c>
       <c r="C62" t="s">
@@ -3044,11 +3068,11 @@
       <c r="H62">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I62" s="65"/>
+      <c r="I62" s="71"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="64"/>
-      <c r="B63" s="65"/>
+      <c r="A63" s="72"/>
+      <c r="B63" s="71"/>
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -3067,7 +3091,7 @@
       <c r="H63">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I63" s="65"/>
+      <c r="I63" s="71"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -3090,7 +3114,7 @@
       <c r="H64">
         <v>4.5462062693628003</v>
       </c>
-      <c r="I64" s="65" t="s">
+      <c r="I64" s="71" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3115,7 +3139,7 @@
       <c r="H65">
         <v>-3.4906857233533901</v>
       </c>
-      <c r="I65" s="65"/>
+      <c r="I65" s="71"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="5" t="s">
@@ -3295,7 +3319,7 @@
       <c r="H74">
         <v>-1.00648635425107E-2</v>
       </c>
-      <c r="I74" s="65" t="s">
+      <c r="I74" s="71" t="s">
         <v>72</v>
       </c>
       <c r="J74" t="s">
@@ -3321,7 +3345,7 @@
       <c r="H75">
         <v>2.3179146551025099E-3</v>
       </c>
-      <c r="I75" s="65"/>
+      <c r="I75" s="71"/>
     </row>
     <row r="76" spans="1:10">
       <c r="C76" t="s">
@@ -3342,7 +3366,7 @@
       <c r="H76">
         <v>2.2201058587415501</v>
       </c>
-      <c r="I76" s="65"/>
+      <c r="I76" s="71"/>
     </row>
     <row r="77" spans="1:10">
       <c r="C77" t="s">
@@ -3363,7 +3387,7 @@
       <c r="H77">
         <v>-3.9812518800141699</v>
       </c>
-      <c r="I77" s="65"/>
+      <c r="I77" s="71"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1">
@@ -3390,7 +3414,7 @@
       <c r="H78">
         <v>-5.2635717372245903E-3</v>
       </c>
-      <c r="I78" s="65" t="s">
+      <c r="I78" s="71" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3413,7 +3437,7 @@
       <c r="H79">
         <v>-3.0981829250898101</v>
       </c>
-      <c r="I79" s="65"/>
+      <c r="I79" s="71"/>
     </row>
     <row r="80" spans="1:10">
       <c r="B80">
@@ -3437,7 +3461,7 @@
       <c r="H80">
         <v>-6.1165373024574896E-3</v>
       </c>
-      <c r="I80" s="65"/>
+      <c r="I80" s="71"/>
     </row>
     <row r="81" spans="1:9">
       <c r="C81" t="s">
@@ -3458,7 +3482,7 @@
       <c r="H81">
         <v>-3.3361756537648399</v>
       </c>
-      <c r="I81" s="65"/>
+      <c r="I81" s="71"/>
     </row>
     <row r="82" spans="1:9">
       <c r="C82" t="s">
@@ -3479,7 +3503,7 @@
       <c r="H82">
         <v>2.0683995791691099</v>
       </c>
-      <c r="I82" s="65"/>
+      <c r="I82" s="71"/>
     </row>
     <row r="83" spans="1:9">
       <c r="C83" t="s">
@@ -3500,7 +3524,7 @@
       <c r="H83">
         <v>-3.3679402794508602</v>
       </c>
-      <c r="I83" s="65"/>
+      <c r="I83" s="71"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
@@ -4040,7 +4064,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1">
       <c r="C121" t="s">
         <v>107</v>
       </c>
@@ -4058,28 +4082,28 @@
       <c r="B122" s="43">
         <v>169</v>
       </c>
-      <c r="C122" s="71" t="s">
+      <c r="C122" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D122" s="71">
+      <c r="D122" s="64">
         <v>2.5172597916725101E-3</v>
       </c>
-      <c r="E122" s="71">
+      <c r="E122" s="64">
         <v>11.812966277372</v>
       </c>
-      <c r="F122" s="71">
+      <c r="F122" s="64">
         <v>17.191494721178199</v>
       </c>
-      <c r="G122" s="71">
+      <c r="G122" s="64">
         <v>13.6182460783909</v>
       </c>
-      <c r="H122" s="71">
+      <c r="H122" s="64">
         <v>8.1368781707219107</v>
       </c>
-      <c r="I122" s="71" t="s">
+      <c r="I122" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="J122" s="72" t="s">
+      <c r="J122" s="65" t="s">
         <v>153</v>
       </c>
       <c r="K122">
@@ -4087,156 +4111,156 @@
       </c>
     </row>
     <row r="123" spans="1:11">
-      <c r="B123" s="73"/>
-      <c r="C123" s="74" t="s">
+      <c r="B123" s="66"/>
+      <c r="C123" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D123" s="74">
+      <c r="D123" s="67">
         <v>2.5172597916725101E-3</v>
       </c>
-      <c r="E123" s="74">
+      <c r="E123" s="67">
         <v>3.5473922089785801</v>
       </c>
-      <c r="F123" s="74">
+      <c r="F123" s="67">
         <v>6.9903181195355097</v>
       </c>
-      <c r="G123" s="74">
+      <c r="G123" s="67">
         <v>8.8429177681452806</v>
       </c>
-      <c r="H123" s="74">
+      <c r="H123" s="67">
         <v>6.4691274653523996</v>
       </c>
-      <c r="I123" s="74"/>
-      <c r="J123" s="75"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="68"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="B124" s="73">
+      <c r="B124" s="66">
         <v>204</v>
       </c>
-      <c r="C124" s="74" t="s">
+      <c r="C124" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D124" s="74">
+      <c r="D124" s="67">
         <v>2.4841721818889802E-3</v>
       </c>
-      <c r="E124" s="74">
+      <c r="E124" s="67">
         <v>11.903875779176801</v>
       </c>
-      <c r="F124" s="74">
+      <c r="F124" s="67">
         <v>16.6014157129636</v>
       </c>
-      <c r="G124" s="74">
+      <c r="G124" s="67">
         <v>14.0382282363763</v>
       </c>
-      <c r="H124" s="74">
+      <c r="H124" s="67">
         <v>8.2277876725267696</v>
       </c>
-      <c r="I124" s="74"/>
-      <c r="J124" s="75" t="s">
+      <c r="I124" s="67"/>
+      <c r="J124" s="68" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="B125" s="73"/>
-      <c r="C125" s="74" t="s">
+      <c r="B125" s="66"/>
+      <c r="C125" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D125" s="74">
+      <c r="D125" s="67">
         <v>2.4841721818889802E-3</v>
       </c>
-      <c r="E125" s="74">
+      <c r="E125" s="67">
         <v>3.7019918413399799</v>
       </c>
-      <c r="F125" s="74">
+      <c r="F125" s="67">
         <v>7.2532973568738601</v>
       </c>
-      <c r="G125" s="74">
+      <c r="G125" s="67">
         <v>8.9075261359636304</v>
       </c>
-      <c r="H125" s="74">
+      <c r="H125" s="67">
         <v>6.6237270977138696</v>
       </c>
-      <c r="I125" s="74"/>
-      <c r="J125" s="75"/>
+      <c r="I125" s="67"/>
+      <c r="J125" s="68"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="B126" s="73">
+      <c r="B126" s="66">
         <v>199</v>
       </c>
-      <c r="C126" s="74" t="s">
+      <c r="C126" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D126" s="74">
+      <c r="D126" s="67">
         <v>2.5157486849751E-3</v>
       </c>
-      <c r="E126" s="74">
+      <c r="E126" s="67">
         <v>11.7831398702687</v>
       </c>
-      <c r="F126" s="74">
+      <c r="F126" s="67">
         <v>18.205059973533601</v>
       </c>
-      <c r="G126" s="74">
+      <c r="G126" s="67">
         <v>13.1731640817904</v>
       </c>
-      <c r="H126" s="74">
+      <c r="H126" s="67">
         <v>8.1070517636185997</v>
       </c>
-      <c r="I126" s="74" t="s">
+      <c r="I126" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="J126" s="75" t="s">
+      <c r="J126" s="68" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1">
       <c r="B127" s="44"/>
-      <c r="C127" s="76" t="s">
+      <c r="C127" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D127" s="76">
+      <c r="D127" s="69">
         <v>2.5157486849751E-3</v>
       </c>
-      <c r="E127" s="76">
+      <c r="E127" s="69">
         <v>3.46907185696652</v>
       </c>
-      <c r="F127" s="76">
+      <c r="F127" s="69">
         <v>7.0409396207031696</v>
       </c>
-      <c r="G127" s="76">
+      <c r="G127" s="69">
         <v>8.6263857592523703</v>
       </c>
-      <c r="H127" s="76">
+      <c r="H127" s="69">
         <v>6.3908071133403404</v>
       </c>
-      <c r="I127" s="76"/>
-      <c r="J127" s="77"/>
+      <c r="I127" s="69"/>
+      <c r="J127" s="70"/>
     </row>
     <row r="128" spans="1:11">
       <c r="B128" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="71" t="s">
+      <c r="C128" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D128" s="71">
+      <c r="D128" s="64">
         <v>1.2416653778368101E-3</v>
       </c>
-      <c r="E128" s="71">
+      <c r="E128" s="64">
         <v>12.0679709489517</v>
       </c>
-      <c r="F128" s="71">
+      <c r="F128" s="64">
         <v>16.795348497486899</v>
       </c>
-      <c r="G128" s="71">
+      <c r="G128" s="64">
         <v>14.1431827932181</v>
       </c>
-      <c r="H128" s="71">
+      <c r="H128" s="64">
         <v>8.3918828423015999</v>
       </c>
-      <c r="I128" s="71" t="s">
+      <c r="I128" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="J128" s="72" t="s">
+      <c r="J128" s="65" t="s">
         <v>153</v>
       </c>
       <c r="K128">
@@ -4244,102 +4268,102 @@
       </c>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" s="73"/>
-      <c r="C129" s="74" t="s">
+      <c r="B129" s="66"/>
+      <c r="C129" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D129" s="74">
+      <c r="D129" s="67">
         <v>1.2416653778368101E-3</v>
       </c>
-      <c r="E129" s="74">
+      <c r="E129" s="67">
         <v>3.7975779219481001</v>
       </c>
-      <c r="F129" s="74">
+      <c r="F129" s="67">
         <v>7.2729909246688003</v>
       </c>
-      <c r="G129" s="74">
+      <c r="G129" s="67">
         <v>9.0864181974517493</v>
       </c>
-      <c r="H129" s="74">
+      <c r="H129" s="67">
         <v>6.7193131783218796</v>
       </c>
-      <c r="I129" s="74"/>
-      <c r="J129" s="75"/>
+      <c r="I129" s="67"/>
+      <c r="J129" s="68"/>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" s="73">
+      <c r="B130" s="66">
         <v>203</v>
       </c>
-      <c r="C130" s="74" t="s">
+      <c r="C130" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D130" s="74">
+      <c r="D130" s="67">
         <v>1.2491245109301299E-3</v>
       </c>
-      <c r="E130" s="74">
+      <c r="E130" s="67">
         <v>11.879246402808599</v>
       </c>
-      <c r="F130" s="74">
+      <c r="F130" s="67">
         <v>16.5327236574445</v>
       </c>
-      <c r="G130" s="74">
+      <c r="G130" s="67">
         <v>14.023509467287299</v>
       </c>
-      <c r="H130" s="74">
+      <c r="H130" s="67">
         <v>8.2031582961585592</v>
       </c>
-      <c r="I130" s="74"/>
-      <c r="J130" s="75"/>
-    </row>
-    <row r="131" spans="2:11" ht="15" thickBot="1">
+      <c r="I130" s="67"/>
+      <c r="J130" s="68"/>
+    </row>
+    <row r="131" spans="2:11" ht="15.75" thickBot="1">
       <c r="B131" s="44"/>
-      <c r="C131" s="76" t="s">
+      <c r="C131" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D131" s="76">
+      <c r="D131" s="69">
         <v>1.2491245109301299E-3</v>
       </c>
-      <c r="E131" s="76">
+      <c r="E131" s="69">
         <v>3.6814933857768599</v>
       </c>
-      <c r="F131" s="76">
+      <c r="F131" s="69">
         <v>7.2570091059700497</v>
       </c>
-      <c r="G131" s="76">
+      <c r="G131" s="69">
         <v>8.8788802225196601</v>
       </c>
-      <c r="H131" s="76">
+      <c r="H131" s="69">
         <v>6.6032286421507198</v>
       </c>
-      <c r="I131" s="76"/>
-      <c r="J131" s="77"/>
+      <c r="I131" s="69"/>
+      <c r="J131" s="70"/>
     </row>
     <row r="132" spans="2:11">
       <c r="B132" s="43">
         <v>177</v>
       </c>
-      <c r="C132" s="71" t="s">
+      <c r="C132" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D132" s="71">
+      <c r="D132" s="64">
         <v>1.2367894384974099E-3</v>
       </c>
-      <c r="E132" s="71">
+      <c r="E132" s="64">
         <v>12.0501735388866</v>
       </c>
-      <c r="F132" s="71">
+      <c r="F132" s="64">
         <v>16.906721928754401</v>
       </c>
-      <c r="G132" s="71">
+      <c r="G132" s="64">
         <v>14.0762430723527</v>
       </c>
-      <c r="H132" s="71">
+      <c r="H132" s="64">
         <v>8.3740854322365994</v>
       </c>
-      <c r="I132" s="71" t="s">
+      <c r="I132" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="J132" s="72" t="s">
+      <c r="J132" s="65" t="s">
         <v>154</v>
       </c>
       <c r="K132">
@@ -4347,75 +4371,75 @@
       </c>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" s="73"/>
-      <c r="C133" s="74" t="s">
+      <c r="B133" s="66"/>
+      <c r="C133" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D133" s="74">
+      <c r="D133" s="67">
         <v>1.2367894384974099E-3</v>
       </c>
-      <c r="E133" s="74">
+      <c r="E133" s="67">
         <v>3.7166065608486401</v>
       </c>
-      <c r="F133" s="74">
+      <c r="F133" s="67">
         <v>7.1890833076520604</v>
       </c>
-      <c r="G133" s="74">
+      <c r="G133" s="67">
         <v>9.0303927558193102</v>
       </c>
-      <c r="H133" s="74">
+      <c r="H133" s="67">
         <v>6.63834181722246</v>
       </c>
-      <c r="I133" s="74"/>
-      <c r="J133" s="75"/>
+      <c r="I133" s="67"/>
+      <c r="J133" s="68"/>
     </row>
     <row r="134" spans="2:11">
-      <c r="B134" s="73">
+      <c r="B134" s="66">
         <v>205</v>
       </c>
-      <c r="C134" s="74" t="s">
+      <c r="C134" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D134" s="74">
+      <c r="D134" s="67">
         <v>1.29336861203997E-3</v>
       </c>
-      <c r="E134" s="74">
+      <c r="E134" s="67">
         <v>11.4270403512666</v>
       </c>
-      <c r="F134" s="74">
+      <c r="F134" s="67">
         <v>16.803158417245498</v>
       </c>
-      <c r="G134" s="74">
+      <c r="G134" s="67">
         <v>13.3028838888183</v>
       </c>
-      <c r="H134" s="74">
+      <c r="H134" s="67">
         <v>7.75095224461655</v>
       </c>
-      <c r="I134" s="74"/>
-      <c r="J134" s="75"/>
-    </row>
-    <row r="135" spans="2:11" ht="15" thickBot="1">
+      <c r="I134" s="67"/>
+      <c r="J134" s="68"/>
+    </row>
+    <row r="135" spans="2:11" ht="15.75" thickBot="1">
       <c r="B135" s="44"/>
-      <c r="C135" s="76" t="s">
+      <c r="C135" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="76">
+      <c r="D135" s="69">
         <v>1.29336861203997E-3</v>
       </c>
-      <c r="E135" s="76">
+      <c r="E135" s="69">
         <v>3.2036579481727498</v>
       </c>
-      <c r="F135" s="76">
+      <c r="F135" s="69">
         <v>6.6686951535332497</v>
       </c>
-      <c r="G135" s="76">
+      <c r="G135" s="69">
         <v>8.5207027105926194</v>
       </c>
-      <c r="H135" s="76">
+      <c r="H135" s="69">
         <v>6.1253932045466097</v>
       </c>
-      <c r="I135" s="76"/>
-      <c r="J135" s="77"/>
+      <c r="I135" s="69"/>
+      <c r="J135" s="70"/>
     </row>
     <row r="136" spans="2:11">
       <c r="B136">
@@ -4477,759 +4501,867 @@
         <v>158</v>
       </c>
     </row>
-    <row r="139" spans="2:11" ht="15" thickBot="1"/>
+    <row r="139" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="140" spans="2:11">
       <c r="B140" s="43">
         <v>184</v>
       </c>
-      <c r="C140" s="71" t="s">
+      <c r="C140" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D140" s="71">
+      <c r="D140" s="64">
         <v>0.108961390961821</v>
       </c>
-      <c r="E140" s="71">
+      <c r="E140" s="64">
         <v>11.3704568974146</v>
       </c>
-      <c r="F140" s="71">
+      <c r="F140" s="64">
         <v>15.2321663577236</v>
       </c>
-      <c r="G140" s="71">
+      <c r="G140" s="64">
         <v>14.063181415601001</v>
       </c>
-      <c r="H140" s="71">
+      <c r="H140" s="64">
         <v>7.6943687907646003</v>
       </c>
-      <c r="I140" s="71" t="s">
+      <c r="I140" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="J140" s="72" t="s">
+      <c r="J140" s="65" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="141" spans="2:11">
-      <c r="B141" s="73"/>
-      <c r="C141" s="74" t="s">
+      <c r="B141" s="66"/>
+      <c r="C141" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D141" s="74">
+      <c r="D141" s="67">
         <v>0.108961390961821</v>
       </c>
-      <c r="E141" s="74">
+      <c r="E141" s="67">
         <v>3.6225277288170399</v>
       </c>
-      <c r="F141" s="74">
+      <c r="F141" s="67">
         <v>7.5619206115772801</v>
       </c>
-      <c r="G141" s="74">
+      <c r="G141" s="67">
         <v>8.4673045109062901</v>
       </c>
-      <c r="H141" s="74">
+      <c r="H141" s="67">
         <v>6.54426298519087</v>
       </c>
-      <c r="I141" s="74"/>
-      <c r="J141" s="75"/>
+      <c r="I141" s="67"/>
+      <c r="J141" s="68"/>
     </row>
     <row r="142" spans="2:11">
-      <c r="B142" s="73">
+      <c r="B142" s="66">
         <v>207</v>
       </c>
-      <c r="C142" s="74" t="s">
+      <c r="C142" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D142" s="74">
+      <c r="D142" s="67">
         <v>0.11006206577787001</v>
       </c>
-      <c r="E142" s="74">
+      <c r="E142" s="67">
         <v>11.642205296141</v>
       </c>
-      <c r="F142" s="74">
+      <c r="F142" s="67">
         <v>15.991064047411299</v>
       </c>
-      <c r="G142" s="74">
+      <c r="G142" s="67">
         <v>13.969427024266899</v>
       </c>
-      <c r="H142" s="74">
+      <c r="H142" s="67">
         <v>7.9661171894910003</v>
       </c>
-      <c r="I142" s="74"/>
-      <c r="J142" s="75"/>
-    </row>
-    <row r="143" spans="2:11" ht="15" thickBot="1">
+      <c r="I142" s="67"/>
+      <c r="J142" s="68"/>
+    </row>
+    <row r="143" spans="2:11" ht="15.75" thickBot="1">
       <c r="B143" s="44"/>
-      <c r="C143" s="76" t="s">
+      <c r="C143" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D143" s="76">
+      <c r="D143" s="69">
         <v>0.11006206577787001</v>
       </c>
-      <c r="E143" s="76">
+      <c r="E143" s="69">
         <v>3.7274290218943502</v>
       </c>
-      <c r="F143" s="76">
+      <c r="F143" s="69">
         <v>7.44832350656411</v>
       </c>
-      <c r="G143" s="76">
+      <c r="G143" s="69">
         <v>8.7685536521527592</v>
       </c>
-      <c r="H143" s="76">
+      <c r="H143" s="69">
         <v>6.6491642782681799</v>
       </c>
-      <c r="I143" s="76"/>
-      <c r="J143" s="77"/>
+      <c r="I143" s="69"/>
+      <c r="J143" s="70"/>
     </row>
     <row r="144" spans="2:11">
       <c r="B144" s="43">
         <v>191</v>
       </c>
-      <c r="C144" s="71" t="s">
+      <c r="C144" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D144" s="71">
+      <c r="D144" s="64">
         <v>1.24950087271057E-3</v>
       </c>
-      <c r="E144" s="71">
+      <c r="E144" s="64">
         <v>11.9454971409202</v>
       </c>
-      <c r="F144" s="71">
+      <c r="F144" s="64">
         <v>17.037937106154398</v>
       </c>
-      <c r="G144" s="71">
+      <c r="G144" s="64">
         <v>13.852797662412399</v>
       </c>
-      <c r="H144" s="71">
+      <c r="H144" s="64">
         <v>8.2694090342701898</v>
       </c>
-      <c r="I144" s="71" t="s">
+      <c r="I144" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="J144" s="72" t="s">
+      <c r="J144" s="65" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="145" spans="2:10">
-      <c r="B145" s="73"/>
-      <c r="C145" s="74" t="s">
+      <c r="B145" s="66"/>
+      <c r="C145" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D145" s="74">
+      <c r="D145" s="67">
         <v>1.24950087271057E-3</v>
       </c>
-      <c r="E145" s="74">
+      <c r="E145" s="67">
         <v>3.6536882809921298</v>
       </c>
-      <c r="F145" s="74">
+      <c r="F145" s="67">
         <v>7.1333709354261297</v>
       </c>
-      <c r="G145" s="74">
+      <c r="G145" s="67">
         <v>8.9422995675967201</v>
       </c>
-      <c r="H145" s="74">
+      <c r="H145" s="67">
         <v>6.5754235373659702</v>
       </c>
-      <c r="I145" s="74"/>
-      <c r="J145" s="75"/>
+      <c r="I145" s="67"/>
+      <c r="J145" s="68"/>
     </row>
     <row r="146" spans="2:10">
-      <c r="B146" s="73">
+      <c r="B146" s="66">
         <v>208</v>
       </c>
-      <c r="C146" s="74" t="s">
+      <c r="C146" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="D146" s="74"/>
-      <c r="E146" s="74"/>
-      <c r="F146" s="74"/>
-      <c r="G146" s="74"/>
-      <c r="H146" s="74"/>
-      <c r="I146" s="74"/>
-      <c r="J146" s="75"/>
-    </row>
-    <row r="147" spans="2:10" ht="15" thickBot="1">
+      <c r="D146" s="67"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="67"/>
+      <c r="G146" s="67"/>
+      <c r="H146" s="67"/>
+      <c r="I146" s="67"/>
+      <c r="J146" s="68"/>
+    </row>
+    <row r="147" spans="2:10" ht="15.75" thickBot="1">
       <c r="B147" s="44"/>
-      <c r="C147" s="76"/>
-      <c r="D147" s="76"/>
-      <c r="E147" s="76"/>
-      <c r="F147" s="76"/>
-      <c r="G147" s="76"/>
-      <c r="H147" s="76"/>
-      <c r="I147" s="76"/>
-      <c r="J147" s="77"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="69"/>
+      <c r="F147" s="69"/>
+      <c r="G147" s="69"/>
+      <c r="H147" s="69"/>
+      <c r="I147" s="69"/>
+      <c r="J147" s="70"/>
     </row>
     <row r="148" spans="2:10">
       <c r="B148" s="43">
         <v>196</v>
       </c>
-      <c r="C148" s="71" t="s">
+      <c r="C148" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D148" s="71">
+      <c r="D148" s="64">
         <v>1.23697815758462E-3</v>
       </c>
-      <c r="E148" s="71">
+      <c r="E148" s="64">
         <v>11.9807462335539</v>
       </c>
-      <c r="F148" s="71">
+      <c r="F148" s="64">
         <v>16.604597541433399</v>
       </c>
-      <c r="G148" s="71">
+      <c r="G148" s="64">
         <v>14.1313009002768</v>
       </c>
-      <c r="H148" s="71">
+      <c r="H148" s="64">
         <v>8.30465812690381</v>
       </c>
-      <c r="I148" s="71" t="s">
+      <c r="I148" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="J148" s="72" t="s">
+      <c r="J148" s="65" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="149" spans="2:10">
-      <c r="B149" s="73"/>
-      <c r="C149" s="74" t="s">
+      <c r="B149" s="66"/>
+      <c r="C149" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D149" s="74">
+      <c r="D149" s="67">
         <v>1.23697815758462E-3</v>
       </c>
-      <c r="E149" s="74">
+      <c r="E149" s="67">
         <v>3.7610437073779299</v>
       </c>
-      <c r="F149" s="74">
+      <c r="F149" s="67">
         <v>7.3892586725286096</v>
       </c>
-      <c r="G149" s="74">
+      <c r="G149" s="67">
         <v>8.9129593284404294</v>
       </c>
-      <c r="H149" s="74">
+      <c r="H149" s="67">
         <v>6.6827789637517503</v>
       </c>
-      <c r="I149" s="74"/>
-      <c r="J149" s="75"/>
+      <c r="I149" s="67"/>
+      <c r="J149" s="68"/>
     </row>
     <row r="150" spans="2:10">
-      <c r="B150" s="73">
+      <c r="B150" s="66">
         <v>209</v>
       </c>
-      <c r="C150" s="74" t="s">
+      <c r="C150" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="D150" s="74">
+      <c r="D150" s="67">
         <v>1.245E-3</v>
       </c>
-      <c r="E150" s="74"/>
-      <c r="F150" s="74"/>
-      <c r="G150" s="74"/>
-      <c r="H150" s="74"/>
-      <c r="I150" s="74"/>
-      <c r="J150" s="75"/>
-    </row>
-    <row r="151" spans="2:10" ht="15" thickBot="1">
+      <c r="E150" s="67"/>
+      <c r="F150" s="67"/>
+      <c r="G150" s="67"/>
+      <c r="H150" s="67"/>
+      <c r="I150" s="67"/>
+      <c r="J150" s="68"/>
+    </row>
+    <row r="151" spans="2:10" ht="15.75" thickBot="1">
       <c r="B151" s="44">
         <v>215</v>
       </c>
-      <c r="C151" s="76"/>
-      <c r="D151" s="76">
+      <c r="C151" s="69"/>
+      <c r="D151" s="69">
         <v>1.242E-3</v>
       </c>
-      <c r="E151" s="76"/>
-      <c r="F151" s="76"/>
-      <c r="G151" s="76"/>
-      <c r="H151" s="76"/>
-      <c r="I151" s="76"/>
-      <c r="J151" s="77"/>
+      <c r="E151" s="69"/>
+      <c r="F151" s="69"/>
+      <c r="G151" s="69"/>
+      <c r="H151" s="69"/>
+      <c r="I151" s="69"/>
+      <c r="J151" s="70"/>
     </row>
     <row r="152" spans="2:10">
       <c r="B152" s="43">
         <v>197</v>
       </c>
-      <c r="C152" s="71" t="s">
+      <c r="C152" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D152" s="71">
+      <c r="D152" s="64">
         <v>1.25162732482959E-3</v>
       </c>
-      <c r="E152" s="71">
+      <c r="E152" s="64">
         <v>12.1999465730098</v>
       </c>
-      <c r="F152" s="71">
+      <c r="F152" s="64">
         <v>17.4182346607416</v>
       </c>
-      <c r="G152" s="71">
+      <c r="G152" s="64">
         <v>14.025234478263799</v>
       </c>
-      <c r="H152" s="71">
+      <c r="H152" s="64">
         <v>8.5238584663597301</v>
       </c>
-      <c r="I152" s="71" t="s">
+      <c r="I152" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="J152" s="72" t="s">
+      <c r="J152" s="65" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="153" spans="2:10">
-      <c r="B153" s="73"/>
-      <c r="C153" s="74" t="s">
+      <c r="B153" s="66"/>
+      <c r="C153" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D153" s="74">
+      <c r="D153" s="67">
         <v>1.25162732482959E-3</v>
       </c>
-      <c r="E153" s="74">
+      <c r="E153" s="67">
         <v>3.7691085180306998</v>
       </c>
-      <c r="F153" s="74">
+      <c r="F153" s="67">
         <v>6.9968837318867303</v>
       </c>
-      <c r="G153" s="74">
+      <c r="G153" s="67">
         <v>9.3002868423987497</v>
       </c>
-      <c r="H153" s="74">
+      <c r="H153" s="67">
         <v>6.6908437744045299</v>
       </c>
-      <c r="I153" s="74"/>
-      <c r="J153" s="75"/>
+      <c r="I153" s="67"/>
+      <c r="J153" s="68"/>
     </row>
     <row r="154" spans="2:10">
-      <c r="B154" s="73">
+      <c r="B154" s="66">
         <v>210</v>
       </c>
-      <c r="C154" s="74" t="s">
+      <c r="C154" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D154" s="74">
+      <c r="D154" s="67">
         <v>1.2425673153931901E-3</v>
       </c>
-      <c r="E154" s="74">
+      <c r="E154" s="67">
         <v>12.0947105501503</v>
       </c>
-      <c r="F154" s="74">
+      <c r="F154" s="67">
         <v>16.993398895220398</v>
       </c>
-      <c r="G154" s="74">
+      <c r="G154" s="67">
         <v>14.0847080826632</v>
       </c>
-      <c r="H154" s="74">
+      <c r="H154" s="67">
         <v>8.4186224435003396</v>
       </c>
-      <c r="I154" s="74"/>
-      <c r="J154" s="75"/>
-    </row>
-    <row r="155" spans="2:10" ht="15" thickBot="1">
+      <c r="I154" s="67"/>
+      <c r="J154" s="68"/>
+    </row>
+    <row r="155" spans="2:10" ht="15.75" thickBot="1">
       <c r="B155" s="44"/>
-      <c r="C155" s="76" t="s">
+      <c r="C155" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D155" s="76">
+      <c r="D155" s="69">
         <v>1.2425673153931901E-3</v>
       </c>
-      <c r="E155" s="76">
+      <c r="E155" s="69">
         <v>3.7732873638507698</v>
       </c>
-      <c r="F155" s="76">
+      <c r="F155" s="69">
         <v>7.1652246409074296</v>
       </c>
-      <c r="G155" s="76">
+      <c r="G155" s="69">
         <v>9.1359532804739398</v>
       </c>
-      <c r="H155" s="76">
+      <c r="H155" s="69">
         <v>6.6950226202246004</v>
       </c>
-      <c r="I155" s="76"/>
-      <c r="J155" s="77"/>
+      <c r="I155" s="69"/>
+      <c r="J155" s="70"/>
     </row>
     <row r="156" spans="2:10">
       <c r="B156" s="43">
         <v>198</v>
       </c>
-      <c r="C156" s="71" t="s">
+      <c r="C156" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D156" s="71">
+      <c r="D156" s="64">
         <v>1.25859580808677E-3</v>
       </c>
-      <c r="E156" s="71">
+      <c r="E156" s="64">
         <v>11.8362310813659</v>
       </c>
-      <c r="F156" s="71">
+      <c r="F156" s="64">
         <v>17.3430143900983</v>
       </c>
-      <c r="G156" s="71">
+      <c r="G156" s="64">
         <v>13.5566621703965</v>
       </c>
-      <c r="H156" s="71">
+      <c r="H156" s="64">
         <v>8.16014297471588</v>
       </c>
-      <c r="I156" s="71" t="s">
+      <c r="I156" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="J156" s="72" t="s">
+      <c r="J156" s="65" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="157" spans="2:10">
-      <c r="B157" s="73"/>
-      <c r="C157" s="74" t="s">
+      <c r="B157" s="66"/>
+      <c r="C157" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D157" s="74">
+      <c r="D157" s="67">
         <v>1.25859580808677E-3</v>
       </c>
-      <c r="E157" s="74">
+      <c r="E157" s="67">
         <v>3.5560749020382501</v>
       </c>
-      <c r="F157" s="74">
+      <c r="F157" s="67">
         <v>7.0216571293434402</v>
       </c>
-      <c r="G157" s="74">
+      <c r="G157" s="67">
         <v>8.8047320523963695</v>
       </c>
-      <c r="H157" s="74">
+      <c r="H157" s="67">
         <v>6.47781015841203</v>
       </c>
-      <c r="I157" s="74"/>
-      <c r="J157" s="75"/>
+      <c r="I157" s="67"/>
+      <c r="J157" s="68"/>
     </row>
     <row r="158" spans="2:10">
-      <c r="B158" s="73">
+      <c r="B158" s="66">
         <v>211</v>
       </c>
-      <c r="C158" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="D158" s="74">
-        <v>1.2419E-3</v>
-      </c>
-      <c r="E158" s="74"/>
-      <c r="F158" s="74"/>
-      <c r="G158" s="74"/>
-      <c r="H158" s="74"/>
-      <c r="I158" s="74"/>
-      <c r="J158" s="75"/>
+      <c r="C158" t="s">
+        <v>31</v>
+      </c>
+      <c r="D158">
+        <v>1.2419882946862601E-3</v>
+      </c>
+      <c r="E158">
+        <v>11.835087767328201</v>
+      </c>
+      <c r="F158">
+        <v>16.700686349294699</v>
+      </c>
+      <c r="G158">
+        <v>13.8712924107343</v>
+      </c>
+      <c r="H158">
+        <v>8.1589996606781998</v>
+      </c>
+      <c r="I158" s="67"/>
+      <c r="J158" s="68"/>
     </row>
     <row r="159" spans="2:10">
-      <c r="B159" s="73"/>
-      <c r="C159" s="74"/>
-      <c r="D159" s="74"/>
-      <c r="E159" s="74"/>
-      <c r="F159" s="74"/>
-      <c r="G159" s="74"/>
-      <c r="H159" s="74"/>
-      <c r="I159" s="74"/>
-      <c r="J159" s="75"/>
+      <c r="B159" s="66"/>
+      <c r="C159" t="s">
+        <v>32</v>
+      </c>
+      <c r="D159">
+        <v>1.2419882946862601E-3</v>
+      </c>
+      <c r="E159">
+        <v>3.62500843626293</v>
+      </c>
+      <c r="F159">
+        <v>7.29791059870713</v>
+      </c>
+      <c r="G159">
+        <v>8.7195202794458897</v>
+      </c>
+      <c r="H159">
+        <v>6.5467436926367801</v>
+      </c>
+      <c r="I159" s="67"/>
+      <c r="J159" s="68"/>
     </row>
     <row r="160" spans="2:10">
-      <c r="B160" s="73">
-        <v>216</v>
-      </c>
-      <c r="C160" s="74"/>
-      <c r="D160" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="E160" s="74"/>
-      <c r="F160" s="74"/>
-      <c r="G160" s="74"/>
-      <c r="H160" s="74"/>
-      <c r="I160" s="74"/>
-      <c r="J160" s="75"/>
+      <c r="B160" s="66">
+        <v>217</v>
+      </c>
+      <c r="C160" s="67"/>
+      <c r="D160" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E160" s="67"/>
+      <c r="F160" s="67"/>
+      <c r="G160" s="67"/>
+      <c r="H160" s="67"/>
+      <c r="I160" s="67"/>
+      <c r="J160" s="68"/>
     </row>
     <row r="161" spans="2:10">
-      <c r="B161" s="73"/>
-      <c r="C161" s="74"/>
-      <c r="D161" s="74"/>
-      <c r="E161" s="74"/>
-      <c r="F161" s="74"/>
-      <c r="G161" s="74"/>
-      <c r="H161" s="74"/>
-      <c r="I161" s="74"/>
-      <c r="J161" s="75"/>
+      <c r="B161" s="66"/>
+      <c r="C161" s="67"/>
+      <c r="D161" s="67"/>
+      <c r="E161" s="67"/>
+      <c r="F161" s="67"/>
+      <c r="G161" s="67"/>
+      <c r="H161" s="67"/>
+      <c r="I161" s="67"/>
+      <c r="J161" s="68"/>
     </row>
     <row r="162" spans="2:10">
-      <c r="B162" s="73"/>
-      <c r="C162" s="74"/>
-      <c r="D162" s="74"/>
-      <c r="E162" s="74"/>
-      <c r="F162" s="74"/>
-      <c r="G162" s="74"/>
-      <c r="H162" s="74"/>
-      <c r="I162" s="74"/>
-      <c r="J162" s="75"/>
-    </row>
-    <row r="163" spans="2:10" ht="15" thickBot="1">
+      <c r="B162" s="66"/>
+      <c r="C162" s="67"/>
+      <c r="D162" s="67"/>
+      <c r="E162" s="67"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="67"/>
+      <c r="H162" s="67"/>
+      <c r="I162" s="67"/>
+      <c r="J162" s="68"/>
+    </row>
+    <row r="163" spans="2:10" ht="15.75" thickBot="1">
       <c r="B163" s="44"/>
-      <c r="C163" s="76"/>
-      <c r="D163" s="76"/>
-      <c r="E163" s="76"/>
-      <c r="F163" s="76"/>
-      <c r="G163" s="76"/>
-      <c r="H163" s="76"/>
-      <c r="I163" s="76"/>
-      <c r="J163" s="77"/>
+      <c r="C163" s="69"/>
+      <c r="D163" s="69"/>
+      <c r="E163" s="69"/>
+      <c r="F163" s="69"/>
+      <c r="G163" s="69"/>
+      <c r="H163" s="69"/>
+      <c r="I163" s="69"/>
+      <c r="J163" s="70"/>
     </row>
     <row r="164" spans="2:10">
       <c r="B164" s="43">
         <v>200</v>
       </c>
-      <c r="C164" s="71" t="s">
+      <c r="C164" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D164" s="71">
+      <c r="D164" s="64">
         <v>1.24797111896511E-3</v>
       </c>
-      <c r="E164" s="71">
+      <c r="E164" s="64">
         <v>11.7950134399962</v>
       </c>
-      <c r="F164" s="71">
+      <c r="F164" s="64">
         <v>16.3823094130824</v>
       </c>
-      <c r="G164" s="71">
+      <c r="G164" s="64">
         <v>14.016287339273401</v>
       </c>
-      <c r="H164" s="71">
+      <c r="H164" s="64">
         <v>8.1189253333461604</v>
       </c>
-      <c r="I164" s="71" t="s">
+      <c r="I164" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="J164" s="72" t="s">
+      <c r="J164" s="65" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="165" spans="2:10">
-      <c r="B165" s="73"/>
-      <c r="C165" s="74" t="s">
+      <c r="B165" s="66"/>
+      <c r="C165" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D165" s="74">
+      <c r="D165" s="67">
         <v>1.24797111896511E-3</v>
       </c>
-      <c r="E165" s="74">
+      <c r="E165" s="67">
         <v>3.5940550099637099</v>
       </c>
-      <c r="F165" s="74">
+      <c r="F165" s="67">
         <v>7.2348155184827103</v>
       </c>
-      <c r="G165" s="74">
+      <c r="G165" s="67">
         <v>8.7689040060458208</v>
       </c>
-      <c r="H165" s="74">
+      <c r="H165" s="67">
         <v>6.5157902663375298</v>
       </c>
-      <c r="I165" s="74"/>
-      <c r="J165" s="75"/>
+      <c r="I165" s="67"/>
+      <c r="J165" s="68"/>
     </row>
     <row r="166" spans="2:10">
-      <c r="B166" s="73">
+      <c r="B166" s="66">
         <v>213</v>
       </c>
-      <c r="C166" s="74" t="s">
+      <c r="C166" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="D166" s="74">
+      <c r="D166" s="67">
         <v>1.2486000000000001E-3</v>
       </c>
-      <c r="E166" s="74"/>
-      <c r="F166" s="74"/>
-      <c r="G166" s="74"/>
-      <c r="H166" s="74"/>
-      <c r="I166" s="74"/>
-      <c r="J166" s="75"/>
-    </row>
-    <row r="167" spans="2:10" ht="15" thickBot="1">
+      <c r="E166" s="67"/>
+      <c r="F166" s="67"/>
+      <c r="G166" s="67"/>
+      <c r="H166" s="67"/>
+      <c r="I166" s="67"/>
+      <c r="J166" s="68"/>
+    </row>
+    <row r="167" spans="2:10" ht="15.75" thickBot="1">
       <c r="B167" s="44"/>
-      <c r="C167" s="76"/>
-      <c r="D167" s="76"/>
-      <c r="E167" s="76"/>
-      <c r="F167" s="76"/>
-      <c r="G167" s="76"/>
-      <c r="H167" s="76"/>
-      <c r="I167" s="76"/>
-      <c r="J167" s="77"/>
+      <c r="C167" s="69"/>
+      <c r="D167" s="69"/>
+      <c r="E167" s="69"/>
+      <c r="F167" s="69"/>
+      <c r="G167" s="69"/>
+      <c r="H167" s="69"/>
+      <c r="I167" s="69"/>
+      <c r="J167" s="70"/>
     </row>
     <row r="168" spans="2:10">
       <c r="B168" s="43">
         <v>201</v>
       </c>
-      <c r="C168" s="71" t="s">
+      <c r="C168" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D168" s="71">
+      <c r="D168" s="64">
         <v>1.2373974345301999E-3</v>
       </c>
-      <c r="E168" s="71">
+      <c r="E168" s="64">
         <v>11.792830271985199</v>
       </c>
-      <c r="F168" s="71">
+      <c r="F168" s="64">
         <v>16.1878518175557</v>
       </c>
-      <c r="G168" s="71">
+      <c r="G168" s="64">
         <v>14.127879396945399</v>
       </c>
-      <c r="H168" s="71">
+      <c r="H168" s="64">
         <v>8.1167421653351504</v>
       </c>
-      <c r="I168" s="71" t="s">
+      <c r="I168" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="J168" s="72" t="s">
+      <c r="J168" s="65" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="169" spans="2:10">
-      <c r="B169" s="73"/>
-      <c r="C169" s="74" t="s">
+      <c r="B169" s="66"/>
+      <c r="C169" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D169" s="74">
+      <c r="D169" s="67">
         <v>1.2373974345301999E-3</v>
       </c>
-      <c r="E169" s="74">
+      <c r="E169" s="67">
         <v>3.6231404366014401</v>
       </c>
-      <c r="F169" s="74">
+      <c r="F169" s="67">
         <v>7.3306272260981498</v>
       </c>
-      <c r="G169" s="74">
+      <c r="G169" s="67">
         <v>8.7431024235633501</v>
       </c>
-      <c r="H169" s="74">
+      <c r="H169" s="67">
         <v>6.5448756929752703</v>
       </c>
-      <c r="I169" s="74"/>
-      <c r="J169" s="75"/>
+      <c r="I169" s="67"/>
+      <c r="J169" s="68"/>
     </row>
     <row r="170" spans="2:10">
-      <c r="B170" s="73">
+      <c r="B170" s="66">
         <v>214</v>
       </c>
-      <c r="C170" s="74" t="s">
+      <c r="C170" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="D170" s="74">
+      <c r="D170" s="67">
         <v>1.2524999999999999E-3</v>
       </c>
-      <c r="E170" s="74"/>
-      <c r="F170" s="74"/>
-      <c r="G170" s="74"/>
-      <c r="H170" s="74"/>
-      <c r="I170" s="74"/>
-      <c r="J170" s="75"/>
-    </row>
-    <row r="171" spans="2:10" ht="15" thickBot="1">
+      <c r="E170" s="67"/>
+      <c r="F170" s="67"/>
+      <c r="G170" s="67"/>
+      <c r="H170" s="67"/>
+      <c r="I170" s="67"/>
+      <c r="J170" s="68"/>
+    </row>
+    <row r="171" spans="2:10" ht="15.75" thickBot="1">
       <c r="B171" s="44"/>
-      <c r="C171" s="76"/>
-      <c r="D171" s="76"/>
-      <c r="E171" s="76"/>
-      <c r="F171" s="76"/>
-      <c r="G171" s="76"/>
-      <c r="H171" s="76"/>
-      <c r="I171" s="76"/>
-      <c r="J171" s="77"/>
+      <c r="C171" s="69"/>
+      <c r="D171" s="69"/>
+      <c r="E171" s="69"/>
+      <c r="F171" s="69"/>
+      <c r="G171" s="69"/>
+      <c r="H171" s="69"/>
+      <c r="I171" s="69"/>
+      <c r="J171" s="70"/>
     </row>
     <row r="172" spans="2:10">
       <c r="B172" s="43">
         <v>202</v>
       </c>
-      <c r="C172" s="71" t="s">
+      <c r="C172" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="71">
+      <c r="D172" s="64">
         <v>1.25615885794664E-3</v>
       </c>
-      <c r="E172" s="71">
+      <c r="E172" s="64">
         <v>11.915743700260601</v>
       </c>
-      <c r="F172" s="71">
+      <c r="F172" s="64">
         <v>16.902301930696702</v>
       </c>
-      <c r="G172" s="71">
+      <c r="G172" s="64">
         <v>13.8849334005317</v>
       </c>
-      <c r="H172" s="71">
+      <c r="H172" s="64">
         <v>8.2396555936105695</v>
       </c>
-      <c r="I172" s="71" t="s">
+      <c r="I172" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="J172" s="72" t="s">
+      <c r="J172" s="65" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="173" spans="2:10">
-      <c r="B173" s="73"/>
-      <c r="C173" s="74" t="s">
+      <c r="B173" s="66"/>
+      <c r="C173" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D173" s="74">
+      <c r="D173" s="67">
         <v>1.25615885794664E-3</v>
       </c>
-      <c r="E173" s="74">
+      <c r="E173" s="67">
         <v>3.6296807416646901</v>
       </c>
-      <c r="F173" s="74">
+      <c r="F173" s="67">
         <v>7.1396717998350896</v>
       </c>
-      <c r="G173" s="74">
+      <c r="G173" s="67">
         <v>8.8912773940624099</v>
       </c>
-      <c r="H173" s="74">
+      <c r="H173" s="67">
         <v>6.5514159980385598</v>
       </c>
-      <c r="I173" s="74"/>
-      <c r="J173" s="75"/>
+      <c r="I173" s="67"/>
+      <c r="J173" s="68"/>
     </row>
     <row r="174" spans="2:10">
-      <c r="B174" s="73">
+      <c r="B174" s="66">
         <v>212</v>
       </c>
-      <c r="C174" s="74" t="s">
+      <c r="C174" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D174" s="74">
+      <c r="D174" s="67">
         <v>1.2417821800157101E-3</v>
       </c>
-      <c r="E174" s="74">
+      <c r="E174" s="67">
         <v>11.9652460187374</v>
       </c>
-      <c r="F174" s="74">
+      <c r="F174" s="67">
         <v>16.292491868372199</v>
       </c>
-      <c r="G174" s="74">
+      <c r="G174" s="67">
         <v>14.2886057670078</v>
       </c>
-      <c r="H174" s="74">
+      <c r="H174" s="67">
         <v>8.2891579120874805</v>
       </c>
-      <c r="I174" s="74"/>
-      <c r="J174" s="75"/>
-    </row>
-    <row r="175" spans="2:10" ht="15" thickBot="1">
+      <c r="I174" s="67"/>
+      <c r="J174" s="68"/>
+    </row>
+    <row r="175" spans="2:10" ht="15.75" thickBot="1">
       <c r="B175" s="44"/>
-      <c r="C175" s="76" t="s">
+      <c r="C175" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D175" s="76">
+      <c r="D175" s="69">
         <v>1.2417821800157101E-3</v>
       </c>
-      <c r="E175" s="76">
+      <c r="E175" s="69">
         <v>3.8005254578703802</v>
       </c>
-      <c r="F175" s="76">
+      <c r="F175" s="69">
         <v>7.4803785668883904</v>
       </c>
-      <c r="G175" s="76">
+      <c r="G175" s="69">
         <v>8.9278696728755804</v>
       </c>
-      <c r="H175" s="76">
+      <c r="H175" s="69">
         <v>6.7222607142441904</v>
       </c>
-      <c r="I175" s="76"/>
-      <c r="J175" s="77"/>
+      <c r="I175" s="69"/>
+      <c r="J175" s="70"/>
+    </row>
+    <row r="176" spans="2:10">
+      <c r="B176">
+        <v>218</v>
+      </c>
+      <c r="C176" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I176" s="64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="178" spans="2:9">
+      <c r="B178">
+        <v>220</v>
+      </c>
+      <c r="C178" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="I178" s="64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="180" spans="2:9">
+      <c r="C180" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="I180" s="64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9">
+      <c r="B182">
+        <v>219</v>
+      </c>
+      <c r="C182" t="s">
+        <v>55</v>
+      </c>
+      <c r="I182" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9">
+      <c r="C184" t="s">
+        <v>171</v>
+      </c>
+      <c r="I184" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9">
+      <c r="C186" t="s">
+        <v>171</v>
+      </c>
+      <c r="I186" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9">
+      <c r="C188" t="s">
+        <v>171</v>
+      </c>
+      <c r="I188" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
     <mergeCell ref="I78:I83"/>
     <mergeCell ref="I74:I77"/>
     <mergeCell ref="I51:I58"/>
@@ -5245,27 +5377,6 @@
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="I60:I63"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5281,7 +5392,7 @@
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="8" max="8" width="19" style="23" customWidth="1"/>
   </cols>
@@ -8416,33 +8527,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId3" name="Control 3">
+        <control shapeId="4097" r:id="rId3" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>541020</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId3" name="Control 3"/>
+        <control shapeId="4097" r:id="rId3" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="4098" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId4">
+          <controlPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -8452,9 +8563,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>541020</xdr:colOff>
+                <xdr:colOff>771525</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8466,27 +8577,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId6" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId7">
+        <control shapeId="4099" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId6" name="Control 1"/>
+        <control shapeId="4099" r:id="rId7" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8497,19 +8608,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF23902-3816-4B4E-83CE-581E9B6C3F52}">
   <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1"/>
+    <row r="1" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:13">
       <c r="B2" s="13" t="s">
         <v>86</v>
@@ -8535,7 +8646,7 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="73" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="59"/>
@@ -8559,7 +8670,7 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="66"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="59"/>
       <c r="D4" s="9" t="s">
         <v>84</v>
@@ -8581,7 +8692,7 @@
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="73" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="59"/>
@@ -8604,8 +8715,8 @@
         <v>-1.00648635425107E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15" thickBot="1">
-      <c r="B6" s="67"/>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B6" s="74"/>
       <c r="C6" s="60"/>
       <c r="D6" s="17" t="s">
         <v>84</v>
@@ -8626,25 +8737,25 @@
         <v>2.2201058587415501</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1"/>
+    <row r="9" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:13">
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="41"/>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="68" t="s">
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" thickBot="1">
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="77"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1">
       <c r="B11" s="44" t="s">
         <v>86</v>
       </c>
@@ -8782,7 +8893,7 @@
         <v>-3.6655835908459651E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="15" thickBot="1">
+    <row r="15" spans="2:13" ht="15.75" thickBot="1">
       <c r="B15" s="35" t="s">
         <v>111</v>
       </c>
@@ -8863,7 +8974,7 @@
         <v>3.133937441723611E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15" thickBot="1">
+    <row r="17" spans="2:12" ht="15.75" thickBot="1">
       <c r="B17" s="35" t="s">
         <v>111</v>
       </c>
@@ -8902,7 +9013,7 @@
         <v>-2.2063544518029169E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15" thickBot="1">
+    <row r="18" spans="2:12" ht="15.75" thickBot="1">
       <c r="B18" s="35" t="s">
         <v>111</v>
       </c>
@@ -8941,7 +9052,7 @@
         <v>4.7558816479549945E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15" thickBot="1">
+    <row r="19" spans="2:12" ht="15.75" thickBot="1">
       <c r="B19" s="35" t="s">
         <v>111</v>
       </c>
@@ -9003,19 +9114,19 @@
         <v>8.2891579120874805</v>
       </c>
       <c r="I20" s="31">
-        <f>(E20-E$13)/E$13</f>
+        <f t="shared" ref="I20:L21" si="5">(E20-E$13)/E$13</f>
         <v>1.2890897831232666E-2</v>
       </c>
       <c r="J20" s="25">
-        <f>(F20-F$13)/F$13</f>
+        <f t="shared" si="5"/>
         <v>-5.2293466472029218E-2</v>
       </c>
       <c r="K20" s="25">
-        <f>(G20-G$13)/G$13</f>
+        <f t="shared" si="5"/>
         <v>4.9225112012082836E-2</v>
       </c>
       <c r="L20" s="27">
-        <f>(H20-H$13)/H$13</f>
+        <f t="shared" si="5"/>
         <v>1.8714762365928294E-2</v>
       </c>
     </row>
@@ -9042,19 +9153,19 @@
         <v>8.3740854322365994</v>
       </c>
       <c r="I21" s="31">
-        <f>(E21-E$13)/E$13</f>
+        <f t="shared" si="5"/>
         <v>2.0080245379941169E-2</v>
       </c>
       <c r="J21" s="25">
-        <f>(F21-F$13)/F$13</f>
+        <f t="shared" si="5"/>
         <v>-1.6564748850661972E-2</v>
       </c>
       <c r="K21" s="25">
-        <f>(G21-G$13)/G$13</f>
+        <f t="shared" si="5"/>
         <v>3.3631129245677092E-2</v>
       </c>
       <c r="L21" s="27">
-        <f>(H21-H$13)/H$13</f>
+        <f t="shared" si="5"/>
         <v>2.9152121555439673E-2</v>
       </c>
     </row>
@@ -9123,23 +9234,23 @@
         <v>7.8482905727088497</v>
       </c>
       <c r="I25" s="31">
-        <f t="shared" ref="I20:I27" si="5">(E25-E$13)/E$13</f>
+        <f t="shared" ref="I25:I27" si="6">(E25-E$13)/E$13</f>
         <v>-2.4429731807987683E-2</v>
       </c>
       <c r="J25" s="25">
-        <f t="shared" ref="J25" si="6">(F25-F$13)/F$13</f>
+        <f t="shared" ref="J25" si="7">(F25-F$13)/F$13</f>
         <v>0.12562846605957526</v>
       </c>
       <c r="K25" s="25">
-        <f t="shared" ref="K25" si="7">(G25-G$13)/G$13</f>
+        <f t="shared" ref="K25" si="8">(G25-G$13)/G$13</f>
         <v>-8.0936301658879661E-2</v>
       </c>
       <c r="L25" s="27">
-        <f t="shared" ref="L25" si="8">(H25-H$13)/H$13</f>
+        <f t="shared" ref="L25" si="9">(H25-H$13)/H$13</f>
         <v>-3.5466623926047706E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15" thickBot="1">
+    <row r="26" spans="2:12" ht="15.75" thickBot="1">
       <c r="B26" s="36" t="s">
         <v>114</v>
       </c>
@@ -9162,23 +9273,23 @@
         <v>7.9661171894910003</v>
       </c>
       <c r="I26" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.4455385482484318E-2</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" ref="J26" si="9">(F26-F$13)/F$13</f>
+        <f t="shared" ref="J26" si="10">(F26-F$13)/F$13</f>
         <v>-6.9827009997454656E-2</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" ref="K26" si="10">(G26-G$13)/G$13</f>
+        <f t="shared" ref="K26" si="11">(G26-G$13)/G$13</f>
         <v>2.5787531217639287E-2</v>
       </c>
       <c r="L26" s="29">
-        <f t="shared" ref="L26" si="11">(H26-H$13)/H$13</f>
+        <f t="shared" ref="L26" si="12">(H26-H$13)/H$13</f>
         <v>-2.0986056033792166E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15" thickBot="1">
+    <row r="27" spans="2:12" ht="15.75" thickBot="1">
       <c r="B27" s="36" t="s">
         <v>131</v>
       </c>
@@ -9201,23 +9312,23 @@
         <v>8.2694090342701898</v>
       </c>
       <c r="I27" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1219101150069735E-2</v>
       </c>
       <c r="J27" s="28">
-        <f t="shared" ref="J27" si="12">(F27-F$13)/F$13</f>
+        <f t="shared" ref="J27" si="13">(F27-F$13)/F$13</f>
         <v>-8.9321852179980871E-3</v>
       </c>
       <c r="K27" s="28">
-        <f t="shared" ref="K27" si="13">(G27-G$13)/G$13</f>
+        <f t="shared" ref="K27" si="14">(G27-G$13)/G$13</f>
         <v>1.7223332775112652E-2</v>
       </c>
       <c r="L27" s="29">
-        <f t="shared" ref="L27" si="14">(H27-H$13)/H$13</f>
+        <f t="shared" ref="L27" si="15">(H27-H$13)/H$13</f>
         <v>1.6287679472104091E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15" thickBot="1">
+    <row r="30" spans="2:12" ht="15.75" thickBot="1">
       <c r="B30" s="57" t="s">
         <v>152</v>
       </c>
@@ -9240,19 +9351,19 @@
         <v>8.16014297471588</v>
       </c>
       <c r="I30" s="32">
-        <f t="shared" ref="I30" si="15">(E30-E$13)/E$13</f>
+        <f t="shared" ref="I30" si="16">(E30-E$13)/E$13</f>
         <v>1.9694294766983565E-3</v>
       </c>
       <c r="J30" s="28">
-        <f t="shared" ref="J30" si="16">(F30-F$13)/F$13</f>
+        <f t="shared" ref="J30" si="17">(F30-F$13)/F$13</f>
         <v>8.8136413603085301E-3</v>
       </c>
       <c r="K30" s="28">
-        <f t="shared" ref="K30" si="17">(G30-G$13)/G$13</f>
+        <f t="shared" ref="K30" si="18">(G30-G$13)/G$13</f>
         <v>-4.5221614912745716E-3</v>
       </c>
       <c r="L30" s="29">
-        <f t="shared" ref="L30" si="18">(H30-H$13)/H$13</f>
+        <f t="shared" ref="L30" si="19">(H30-H$13)/H$13</f>
         <v>2.8591805734145925E-3</v>
       </c>
     </row>
@@ -9299,10 +9410,10 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{483775CD-A21C-4D5D-8C73-BBE8D84E349E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70BD4429-BAB8-4AD6-8BDD-13548539E15A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3990" windowHeight="4260" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="172">
   <si>
     <t>Experiment</t>
   </si>
@@ -528,9 +528,6 @@
     <t>U-Net with mag_phase_diff, phase weight 0.0000025</t>
   </si>
   <si>
-    <t>Queued on Africa</t>
-  </si>
-  <si>
     <t>Basic capsnet</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
   </si>
   <si>
     <t>Queued on Europe</t>
+  </si>
+  <si>
+    <t>Metrics running on Africa</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1655,8 +1655,8 @@
   <dimension ref="A1:K188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1834,7 +1834,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="72" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -1860,7 +1860,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="71"/>
+      <c r="B10" s="72"/>
       <c r="C10">
         <v>1</v>
       </c>
@@ -1881,10 +1881,10 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="72">
+      <c r="A11" s="71">
         <v>43367</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="72">
         <v>50</v>
       </c>
       <c r="C11">
@@ -1910,8 +1910,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="72"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -1935,10 +1935,10 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="72">
+      <c r="A13" s="71">
         <v>43368</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="72">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -1959,13 +1959,13 @@
       <c r="H13">
         <v>5.1734518444775501</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="72" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="72"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -1984,13 +1984,13 @@
       <c r="H14">
         <v>3.7281922612481901</v>
       </c>
-      <c r="I14" s="71"/>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="72">
+      <c r="A15" s="71">
         <v>43369</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="72">
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2011,13 +2011,13 @@
       <c r="H15" s="2">
         <v>-6.4876311729494796E-4</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="72" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="72"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -2036,11 +2036,11 @@
       <c r="H16">
         <v>1.54551858325779E-2</v>
       </c>
-      <c r="I16" s="71"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -2059,11 +2059,11 @@
       <c r="H17" s="2">
         <v>5.0428877463265804</v>
       </c>
-      <c r="I17" s="71"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -2082,13 +2082,13 @@
       <c r="H18">
         <v>3.58423085463872</v>
       </c>
-      <c r="I18" s="71"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72">
+      <c r="A19" s="71">
         <v>43370</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="72">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -2109,13 +2109,13 @@
       <c r="H19">
         <v>2.3427632342802398</v>
       </c>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="72" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -2134,13 +2134,13 @@
       <c r="H20">
         <v>0.194433594332584</v>
       </c>
-      <c r="I20" s="71"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72">
+      <c r="A21" s="71">
         <v>43373</v>
       </c>
-      <c r="B21" s="71">
+      <c r="B21" s="72">
         <v>61</v>
       </c>
       <c r="C21" t="s">
@@ -2161,13 +2161,13 @@
       <c r="H21">
         <v>8.5946525098830606E-3</v>
       </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="72" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -2186,11 +2186,11 @@
       <c r="H22">
         <v>3.6873848603017803E-2</v>
       </c>
-      <c r="I22" s="71"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -2209,11 +2209,11 @@
       <c r="H23">
         <v>0.78472849400813605</v>
       </c>
-      <c r="I23" s="71"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -2232,7 +2232,7 @@
       <c r="H24">
         <v>2.0282006372733901E-2</v>
       </c>
-      <c r="I24" s="71"/>
+      <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
@@ -2282,10 +2282,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72">
+      <c r="A29" s="71">
         <v>43374</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -2306,13 +2306,13 @@
       <c r="H29">
         <v>-0.42715843088559702</v>
       </c>
-      <c r="I29" s="71" t="s">
+      <c r="I29" s="72" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
-      <c r="B30" s="71"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2331,11 +2331,11 @@
       <c r="H30">
         <v>-1.39254679747073</v>
       </c>
-      <c r="I30" s="71"/>
+      <c r="I30" s="72"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
-      <c r="B31" s="71"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="72"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2354,11 +2354,11 @@
       <c r="H31">
         <v>-1.3905467214172899E-2</v>
       </c>
-      <c r="I31" s="71"/>
+      <c r="I31" s="72"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="72"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -2377,13 +2377,13 @@
       <c r="H32">
         <v>-0.43067903950646202</v>
       </c>
-      <c r="I32" s="71"/>
+      <c r="I32" s="72"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72">
+      <c r="A33" s="71">
         <v>43374</v>
       </c>
-      <c r="B33" s="71">
+      <c r="B33" s="72">
         <v>71</v>
       </c>
       <c r="C33" t="s">
@@ -2404,13 +2404,13 @@
       <c r="H33">
         <v>0.168596693202613</v>
       </c>
-      <c r="I33" s="71" t="s">
+      <c r="I33" s="72" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
-      <c r="B34" s="71"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="72"/>
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -2429,13 +2429,13 @@
       <c r="H34">
         <v>-0.405305232724961</v>
       </c>
-      <c r="I34" s="71"/>
+      <c r="I34" s="72"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72">
+      <c r="A35" s="71">
         <v>43375</v>
       </c>
-      <c r="B35" s="71">
+      <c r="B35" s="72">
         <v>72</v>
       </c>
       <c r="C35" t="s">
@@ -2456,13 +2456,13 @@
       <c r="H35">
         <v>2.8573537209870499E-2</v>
       </c>
-      <c r="I35" s="71" t="s">
+      <c r="I35" s="72" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
-      <c r="B36" s="71"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="72"/>
       <c r="C36" t="s">
         <v>32</v>
       </c>
@@ -2481,11 +2481,11 @@
       <c r="H36">
         <v>-1.5467030651102999E-3</v>
       </c>
-      <c r="I36" s="71"/>
+      <c r="I36" s="72"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="72"/>
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -2504,11 +2504,11 @@
       <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="71"/>
+      <c r="I37" s="72"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="72"/>
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -2527,13 +2527,13 @@
       <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="71"/>
+      <c r="I38" s="72"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72">
+      <c r="A39" s="71">
         <v>43375</v>
       </c>
-      <c r="B39" s="71">
+      <c r="B39" s="72">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -2554,13 +2554,13 @@
       <c r="H39">
         <v>-4.8766321545198298E-3</v>
       </c>
-      <c r="I39" s="71" t="s">
+      <c r="I39" s="72" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
-      <c r="B40" s="71"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="72"/>
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -2579,11 +2579,11 @@
       <c r="H40">
         <v>-3.3103179357002401E-3</v>
       </c>
-      <c r="I40" s="71"/>
+      <c r="I40" s="72"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
-      <c r="B41" s="71"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="72"/>
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -2602,11 +2602,11 @@
       <c r="H41">
         <v>0.101846056595177</v>
       </c>
-      <c r="I41" s="71"/>
+      <c r="I41" s="72"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
-      <c r="B42" s="71"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="72"/>
       <c r="C42" t="s">
         <v>34</v>
       </c>
@@ -2625,7 +2625,7 @@
       <c r="H42">
         <v>6.0922125915421697E-2</v>
       </c>
-      <c r="I42" s="71"/>
+      <c r="I42" s="72"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
@@ -2815,7 +2815,7 @@
       <c r="H51">
         <v>-0.31863876639355398</v>
       </c>
-      <c r="I51" s="71" t="s">
+      <c r="I51" s="72" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       <c r="H52">
         <v>2.67662389686584</v>
       </c>
-      <c r="I52" s="71"/>
+      <c r="I52" s="72"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
@@ -2861,7 +2861,7 @@
       <c r="H53">
         <v>0.95464630209159695</v>
       </c>
-      <c r="I53" s="71"/>
+      <c r="I53" s="72"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
@@ -2883,7 +2883,7 @@
       <c r="H54">
         <v>4.8512619602994098</v>
       </c>
-      <c r="I54" s="71"/>
+      <c r="I54" s="72"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
@@ -2908,7 +2908,7 @@
       <c r="H55">
         <v>-0.56767955034740303</v>
       </c>
-      <c r="I55" s="71"/>
+      <c r="I55" s="72"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
@@ -2930,7 +2930,7 @@
       <c r="H56">
         <v>1.8761231724104801</v>
       </c>
-      <c r="I56" s="71"/>
+      <c r="I56" s="72"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
@@ -2952,7 +2952,7 @@
       <c r="H57">
         <v>0.76717154068581295</v>
       </c>
-      <c r="I57" s="71"/>
+      <c r="I57" s="72"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
@@ -2974,7 +2974,7 @@
       <c r="H58">
         <v>3.8964804606254</v>
       </c>
-      <c r="I58" s="71"/>
+      <c r="I58" s="72"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
@@ -2992,10 +2992,10 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="72">
+      <c r="A60" s="71">
         <v>43377</v>
       </c>
-      <c r="B60" s="71">
+      <c r="B60" s="72">
         <v>85</v>
       </c>
       <c r="C60" t="s">
@@ -3016,13 +3016,13 @@
       <c r="H60">
         <v>-1.5016279769943E-2</v>
       </c>
-      <c r="I60" s="71" t="s">
+      <c r="I60" s="72" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="72"/>
-      <c r="B61" s="71"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="72"/>
       <c r="C61" t="s">
         <v>32</v>
       </c>
@@ -3041,13 +3041,13 @@
       <c r="H61">
         <v>2.0442723267735299E-2</v>
       </c>
-      <c r="I61" s="71"/>
+      <c r="I61" s="72"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72">
+      <c r="A62" s="71">
         <v>43378</v>
       </c>
-      <c r="B62" s="71">
+      <c r="B62" s="72">
         <v>89</v>
       </c>
       <c r="C62" t="s">
@@ -3068,11 +3068,11 @@
       <c r="H62">
         <v>4.9655569512486801</v>
       </c>
-      <c r="I62" s="71"/>
+      <c r="I62" s="72"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
-      <c r="B63" s="71"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="72"/>
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="H63">
         <v>3.6505058824873098</v>
       </c>
-      <c r="I63" s="71"/>
+      <c r="I63" s="72"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -3114,7 +3114,7 @@
       <c r="H64">
         <v>4.5462062693628003</v>
       </c>
-      <c r="I64" s="71" t="s">
+      <c r="I64" s="72" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       <c r="H65">
         <v>-3.4906857233533901</v>
       </c>
-      <c r="I65" s="71"/>
+      <c r="I65" s="72"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="5" t="s">
@@ -3319,7 +3319,7 @@
       <c r="H74">
         <v>-1.00648635425107E-2</v>
       </c>
-      <c r="I74" s="71" t="s">
+      <c r="I74" s="72" t="s">
         <v>72</v>
       </c>
       <c r="J74" t="s">
@@ -3345,7 +3345,7 @@
       <c r="H75">
         <v>2.3179146551025099E-3</v>
       </c>
-      <c r="I75" s="71"/>
+      <c r="I75" s="72"/>
     </row>
     <row r="76" spans="1:10">
       <c r="C76" t="s">
@@ -3366,7 +3366,7 @@
       <c r="H76">
         <v>2.2201058587415501</v>
       </c>
-      <c r="I76" s="71"/>
+      <c r="I76" s="72"/>
     </row>
     <row r="77" spans="1:10">
       <c r="C77" t="s">
@@ -3387,7 +3387,7 @@
       <c r="H77">
         <v>-3.9812518800141699</v>
       </c>
-      <c r="I77" s="71"/>
+      <c r="I77" s="72"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1">
@@ -3414,7 +3414,7 @@
       <c r="H78">
         <v>-5.2635717372245903E-3</v>
       </c>
-      <c r="I78" s="71" t="s">
+      <c r="I78" s="72" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       <c r="H79">
         <v>-3.0981829250898101</v>
       </c>
-      <c r="I79" s="71"/>
+      <c r="I79" s="72"/>
     </row>
     <row r="80" spans="1:10">
       <c r="B80">
@@ -3461,7 +3461,7 @@
       <c r="H80">
         <v>-6.1165373024574896E-3</v>
       </c>
-      <c r="I80" s="71"/>
+      <c r="I80" s="72"/>
     </row>
     <row r="81" spans="1:9">
       <c r="C81" t="s">
@@ -3482,7 +3482,7 @@
       <c r="H81">
         <v>-3.3361756537648399</v>
       </c>
-      <c r="I81" s="71"/>
+      <c r="I81" s="72"/>
     </row>
     <row r="82" spans="1:9">
       <c r="C82" t="s">
@@ -3503,7 +3503,7 @@
       <c r="H82">
         <v>2.0683995791691099</v>
       </c>
-      <c r="I82" s="71"/>
+      <c r="I82" s="72"/>
     </row>
     <row r="83" spans="1:9">
       <c r="C83" t="s">
@@ -3524,7 +3524,7 @@
       <c r="H83">
         <v>-3.3679402794508602</v>
       </c>
-      <c r="I83" s="71"/>
+      <c r="I83" s="72"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
@@ -5276,71 +5276,129 @@
       <c r="B176">
         <v>218</v>
       </c>
-      <c r="C176" s="40" t="s">
-        <v>104</v>
+      <c r="C176" s="40">
+        <v>1.2700000000000001E-3</v>
       </c>
       <c r="I176" s="64" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="177" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B177">
+        <v>223</v>
+      </c>
+      <c r="C177">
+        <v>1.258E-3</v>
+      </c>
+      <c r="D177" t="s">
+        <v>171</v>
+      </c>
+    </row>
     <row r="178" spans="2:9">
       <c r="B178">
         <v>220</v>
       </c>
-      <c r="C178" s="40" t="s">
-        <v>162</v>
+      <c r="C178" s="40">
+        <v>1.276E-3</v>
       </c>
       <c r="I178" s="64" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="179" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B179">
+        <v>224</v>
+      </c>
+      <c r="C179">
+        <v>1.2459999999999999E-3</v>
+      </c>
+      <c r="D179" t="s">
+        <v>171</v>
+      </c>
+    </row>
     <row r="180" spans="2:9">
-      <c r="C180" s="40" t="s">
-        <v>166</v>
+      <c r="B180">
+        <v>221</v>
+      </c>
+      <c r="C180" s="40">
+        <v>1.2570000000000001E-3</v>
       </c>
       <c r="I180" s="64" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9">
+      <c r="B181">
+        <v>225</v>
+      </c>
+      <c r="C181" s="40">
+        <v>1.248E-3</v>
+      </c>
+      <c r="D181" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="2:9">
       <c r="B182">
         <v>219</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182">
+        <v>4.947E-3</v>
+      </c>
+      <c r="I182" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9">
+      <c r="B184">
+        <v>222</v>
+      </c>
+      <c r="C184" t="s">
         <v>55</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I184" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9">
-      <c r="C184" t="s">
-        <v>171</v>
-      </c>
-      <c r="I184" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="186" spans="2:9">
       <c r="C186" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I186" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="188" spans="2:9">
       <c r="C188" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I188" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="I78:I83"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="I35:I38"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="I21:I24"/>
@@ -5356,27 +5414,6 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I78:I83"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="I60:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8527,33 +8564,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId3" name="Control 1">
+        <control shapeId="4099" r:id="rId3" name="Control 3">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId3" name="Control 1"/>
+        <control shapeId="4099" r:id="rId3" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="4098" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId6">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -8577,27 +8614,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="4097" r:id="rId6" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId7" name="Control 3"/>
+        <control shapeId="4097" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/test_metrics/Results.xlsx
+++ b/test_metrics/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toby\MSc_Project\MScFinalProject\test_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70BD4429-BAB8-4AD6-8BDD-13548539E15A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{813617D7-BD88-40E4-80A7-5B2913E2E573}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3990" windowHeight="4260" xr2:uid="{C09168AC-4653-4BBE-87AE-0F1A556ACEDC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="173">
   <si>
     <t>Experiment</t>
   </si>
@@ -543,7 +543,10 @@
     <t>Queued on Europe</t>
   </si>
   <si>
-    <t>Metrics running on Africa</t>
+    <t>Re-run</t>
+  </si>
+  <si>
+    <t>Re-run?</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +622,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1140,6 +1149,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1656,7 +1667,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
+      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -4088,7 +4099,7 @@
       <c r="D122" s="64">
         <v>2.5172597916725101E-3</v>
       </c>
-      <c r="E122" s="64">
+      <c r="E122" s="78">
         <v>11.812966277372</v>
       </c>
       <c r="F122" s="64">
@@ -4143,7 +4154,7 @@
       <c r="D124" s="67">
         <v>2.4841721818889802E-3</v>
       </c>
-      <c r="E124" s="67">
+      <c r="E124" s="79">
         <v>11.903875779176801</v>
       </c>
       <c r="F124" s="67">
@@ -5276,8 +5287,23 @@
       <c r="B176">
         <v>218</v>
       </c>
-      <c r="C176" s="40">
-        <v>1.2700000000000001E-3</v>
+      <c r="C176" t="s">
+        <v>31</v>
+      </c>
+      <c r="D176">
+        <v>1.25862060208769E-3</v>
+      </c>
+      <c r="E176">
+        <v>11.825863725648</v>
+      </c>
+      <c r="F176">
+        <v>17.049876124890702</v>
+      </c>
+      <c r="G176">
+        <v>13.7065544208929</v>
+      </c>
+      <c r="H176">
+        <v>8.1497756189980404</v>
       </c>
       <c r="I176" s="64" t="s">
         <v>163</v>
@@ -5287,19 +5313,46 @@
       <c r="B177">
         <v>223</v>
       </c>
-      <c r="C177">
-        <v>1.258E-3</v>
-      </c>
-      <c r="D177" t="s">
-        <v>171</v>
+      <c r="C177" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177">
+        <v>1.25862060208769E-3</v>
+      </c>
+      <c r="E177">
+        <v>3.53402527798352</v>
+      </c>
+      <c r="F177">
+        <v>6.9899142067291598</v>
+      </c>
+      <c r="G177">
+        <v>8.8541252810865707</v>
+      </c>
+      <c r="H177">
+        <v>6.4557605343573599</v>
       </c>
     </row>
     <row r="178" spans="2:9">
       <c r="B178">
         <v>220</v>
       </c>
-      <c r="C178" s="40">
-        <v>1.276E-3</v>
+      <c r="C178" t="s">
+        <v>31</v>
+      </c>
+      <c r="D178">
+        <v>1.2465816300111601E-3</v>
+      </c>
+      <c r="E178">
+        <v>12.1216139430431</v>
+      </c>
+      <c r="F178">
+        <v>17.052813608650901</v>
+      </c>
+      <c r="G178">
+        <v>14.0885362969229</v>
+      </c>
+      <c r="H178">
+        <v>8.4455258363931005</v>
       </c>
       <c r="I178" s="64" t="s">
         <v>164</v>
@@ -5309,19 +5362,46 @@
       <c r="B179">
         <v>224</v>
       </c>
-      <c r="C179">
-        <v>1.2459999999999999E-3</v>
-      </c>
-      <c r="D179" t="s">
-        <v>171</v>
+      <c r="C179" t="s">
+        <v>32</v>
+      </c>
+      <c r="D179">
+        <v>1.2465816300111601E-3</v>
+      </c>
+      <c r="E179">
+        <v>3.79820862757327</v>
+      </c>
+      <c r="F179">
+        <v>7.1807943448157703</v>
+      </c>
+      <c r="G179">
+        <v>9.1721155359348607</v>
+      </c>
+      <c r="H179">
+        <v>6.7199438839471402</v>
       </c>
     </row>
     <row r="180" spans="2:9">
       <c r="B180">
         <v>221</v>
       </c>
-      <c r="C180" s="40">
-        <v>1.2570000000000001E-3</v>
+      <c r="C180" t="s">
+        <v>31</v>
+      </c>
+      <c r="D180">
+        <v>1.2486142083966601E-3</v>
+      </c>
+      <c r="E180">
+        <v>11.999317101382401</v>
+      </c>
+      <c r="F180">
+        <v>16.718513671953701</v>
+      </c>
+      <c r="G180">
+        <v>14.098405112563199</v>
+      </c>
+      <c r="H180">
+        <v>8.3232289947323999</v>
       </c>
       <c r="I180" s="64" t="s">
         <v>165</v>
@@ -5331,11 +5411,23 @@
       <c r="B181">
         <v>225</v>
       </c>
-      <c r="C181" s="40">
-        <v>1.248E-3</v>
-      </c>
-      <c r="D181" t="s">
-        <v>171</v>
+      <c r="C181" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181">
+        <v>1.2486142083966601E-3</v>
+      </c>
+      <c r="E181">
+        <v>3.7207570340310201</v>
+      </c>
+      <c r="F181">
+        <v>7.2116517800519899</v>
+      </c>
+      <c r="G181">
+        <v>9.0161099358174006</v>
+      </c>
+      <c r="H181">
+        <v>6.64249229040482</v>
       </c>
     </row>
     <row r="182" spans="2:9">
@@ -5349,12 +5441,17 @@
         <v>166</v>
       </c>
     </row>
+    <row r="183" spans="2:9">
+      <c r="C183" t="s">
+        <v>172</v>
+      </c>
+    </row>
     <row r="184" spans="2:9">
       <c r="B184">
         <v>222</v>
       </c>
       <c r="C184" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="I184" t="s">
         <v>167</v>
@@ -8646,7 +8743,7 @@
   <dimension ref="B1:M35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
